--- a/data_cripto/top_flow.xlsx
+++ b/data_cripto/top_flow.xlsx
@@ -518,12 +518,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q0phej5lfqc8ed69f53l5mxw78svx878lgpqesl</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qv4r4zwvf5ckdx3llaykl0vez4fdaj4jh5yfjsw</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bc1q0phej5lfqc8ed69f53l5mxw78svx878lgpqesl</t>
+          <t>bc1qv4r4zwvf5ckdx3llaykl0vez4fdaj4jh5yfjsw</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -535,38 +535,26 @@
       <c r="E2" t="b">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Galaxy Digital</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>https://www.galaxy.com/</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>9497986513.097153</v>
+        <v>10038889619.17064</v>
       </c>
       <c r="L2" t="n">
-        <v>4877853047.781612</v>
+        <v>10038922128</v>
       </c>
       <c r="M2" t="n">
-        <v>79784.84211498</v>
+        <v>90297.26804949</v>
       </c>
       <c r="N2" t="n">
-        <v>41322.13367104</v>
+        <v>90297.26803948999</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -578,12 +566,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qn2cpj0hrl37wqh5q94kwrlhtj2lx8ahtw7ef5rg35tswxsqtvufqfmmrq2</t>
+          <t>https://intel.arkm.com/explorer/address/15DomY3arDPw5jD658Mbf3AY3wT3YCDmW2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>bc1qn2cpj0hrl37wqh5q94kwrlhtj2lx8ahtw7ef5rg35tswxsqtvufqfmmrq2</t>
+          <t>15DomY3arDPw5jD658Mbf3AY3wT3YCDmW2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -597,17 +585,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>OKX</t>
+          <t>Wintermute</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://okx.com</t>
+          <t>https://www.wintermute.com/</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -621,20 +609,20 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>2922170618.109495</v>
+        <v>4325262713.96552</v>
       </c>
       <c r="L3" t="n">
-        <v>2857386172.338711</v>
+        <v>4386898347</v>
       </c>
       <c r="M3" t="n">
-        <v>25804.1928479</v>
+        <v>38996.51355908</v>
       </c>
       <c r="N3" t="n">
-        <v>25256.18026518</v>
+        <v>39527.31355908</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -646,12 +634,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qq8qvezre6d0fw3q4ht03rj029y4d8ylh7atjty</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q84w6epn6uce9s85slt7q6emm3qfzz7ngq7ef6k</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>bc1qq8qvezre6d0fw3q4ht03rj029y4d8ylh7atjty</t>
+          <t>bc1q84w6epn6uce9s85slt7q6emm3qfzz7ngq7ef6k</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -669,20 +657,20 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>2397605632</v>
+        <v>1079018496.325428</v>
       </c>
       <c r="L4" t="n">
-        <v>2307939952</v>
+        <v>1218589568</v>
       </c>
       <c r="M4" t="n">
-        <v>19999.04591292</v>
+        <v>10000.07817266</v>
       </c>
       <c r="N4" t="n">
-        <v>19500.04595558</v>
+        <v>10000.07837612</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -694,12 +682,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3P8dPqoHYcFVB7ki86tE6gSsrDYRuW3MbA</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qklv9x7qpmvkrjpxhjelcsz06y7zr0szwxr35j9</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3P8dPqoHYcFVB7ki86tE6gSsrDYRuW3MbA</t>
+          <t>bc1qklv9x7qpmvkrjpxhjelcsz06y7zr0szwxr35j9</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -714,31 +702,23 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Coinbase Prime Deposit</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>1656260820</v>
+        <v>1163804800</v>
       </c>
       <c r="L5" t="n">
-        <v>1655407830</v>
+        <v>1193791872</v>
       </c>
       <c r="M5" t="n">
-        <v>14648</v>
+        <v>9999.010206000001</v>
       </c>
       <c r="N5" t="n">
-        <v>14648</v>
+        <v>9999.010206000001</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -750,12 +730,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1QKbykDpxrKLYrjzS9G8gPvHQGSEL3njUT</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qpy3vutdmmc7mthwjlz68qv30c2u6xcjukyur8w8gftqgvvf00rzsweamy2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1QKbykDpxrKLYrjzS9G8gPvHQGSEL3njUT</t>
+          <t>bc1qpy3vutdmmc7mthwjlz68qv30c2u6xcjukyur8w8gftqgvvf00rzsweamy2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -769,7 +749,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -779,26 +759,26 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
+          <t>https://kraken.com</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>857311872</v>
+        <v>999784128</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>7999.99851357</v>
+        <v>8396.4672106</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -810,12 +790,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q9exg34dkmgxu28yektgn929jpjpzukhhl2r3zr</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qymu2qf0d23qg38p9w7yxxt4yqjjg47rytxujl6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>bc1q9exg34dkmgxu28yektgn929jpjpzukhhl2r3zr</t>
+          <t>bc1qymu2qf0d23qg38p9w7yxxt4yqjjg47rytxujl6</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -827,46 +807,26 @@
       <c r="E7" t="b">
         <v>0</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Wintermute</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>https://www.wintermute.com/</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>3135213824.408474</v>
+        <v>1088561408.539435</v>
       </c>
       <c r="L7" t="n">
-        <v>3139474489.419553</v>
+        <v>1187211520</v>
       </c>
       <c r="M7" t="n">
-        <v>27919.19380859</v>
+        <v>10000.01249973</v>
       </c>
       <c r="N7" t="n">
-        <v>27935.18806602</v>
+        <v>10000.01318269</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -878,12 +838,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qhtawge4km6juhlkrnvt7qjahhsc96qdlgf3c8t</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>bc1qhtawge4km6juhlkrnvt7qjahhsc96qdlgf3c8t</t>
+          <t>bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -895,26 +855,46 @@
       <c r="E8" t="b">
         <v>0</v>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Binance</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K8" t="n">
-        <v>1080741120</v>
+        <v>21290772689.24112</v>
       </c>
       <c r="L8" t="n">
-        <v>1195891200</v>
+        <v>21530446329.8727</v>
       </c>
       <c r="M8" t="n">
-        <v>10000.01038733</v>
+        <v>189421.47790661</v>
       </c>
       <c r="N8" t="n">
-        <v>10000.01043845</v>
+        <v>191748.21633754</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -926,12 +906,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qrn8pjas098hfn42d578v6vxg4nh6kn4dvdeevy</t>
+          <t>https://intel.arkm.com/explorer/address/1KbDEg1tDz2ErYgaDbaDhhawnLrSQFaFx5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>bc1qrn8pjas098hfn42d578v6vxg4nh6kn4dvdeevy</t>
+          <t>1KbDEg1tDz2ErYgaDbaDhhawnLrSQFaFx5</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -946,23 +926,31 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Binance Deposit</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K9" t="n">
-        <v>1195771648</v>
+        <v>3805517823.105134</v>
       </c>
       <c r="L9" t="n">
-        <v>1198741376</v>
+        <v>3802111961.782701</v>
       </c>
       <c r="M9" t="n">
-        <v>9999.010393</v>
+        <v>33368.00606898</v>
       </c>
       <c r="N9" t="n">
-        <v>9999.010393</v>
+        <v>33341.3661981</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -974,12 +962,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qzj47ptd3j9eqltrvhqgv3yz35cscvuncqsegsv</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qnzy2rr7g3688x62f8vrhgeclvtcs5hr50wzu0w</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>bc1qzj47ptd3j9eqltrvhqgv3yz35cscvuncqsegsv</t>
+          <t>bc1qnzy2rr7g3688x62f8vrhgeclvtcs5hr50wzu0w</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -997,20 +985,20 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>1193672448</v>
+        <v>1087781121.732832</v>
       </c>
       <c r="L10" t="n">
-        <v>1186973824</v>
+        <v>1163921152</v>
       </c>
       <c r="M10" t="n">
-        <v>9998.010172</v>
+        <v>10000.01010933</v>
       </c>
       <c r="N10" t="n">
-        <v>9998.010172</v>
+        <v>10000.01023054</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1022,12 +1010,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1KbrSKrT3GeEruTuuYYUSQ35JwKbrAWJYm</t>
+          <t>https://intel.arkm.com/explorer/address/12tLs9c9RsALt4ockxa1hB4iTCTSmxj2me</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1KbrSKrT3GeEruTuuYYUSQ35JwKbrAWJYm</t>
+          <t>12tLs9c9RsALt4ockxa1hB4iTCTSmxj2me</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1048,17 +1036,17 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1093011840</v>
+        <v>1093501184</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>10000.01691126</v>
+        <v>10000.01141274</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1070,12 +1058,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/16XU9wjEVUNvc45qRYXS7qYGeJQdnTf8L3</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qr4dl5wa7kl8yu792dceg9z5knl2gkn220lk7a9</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16XU9wjEVUNvc45qRYXS7qYGeJQdnTf8L3</t>
+          <t>bc1qr4dl5wa7kl8yu792dceg9z5knl2gkn220lk7a9</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1089,7 +1077,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Crypto.com</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1099,26 +1087,34 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>https://crypto.com</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K12" t="n">
-        <v>858175808</v>
+        <v>2951065356.052843</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>2876640261.445534</v>
       </c>
       <c r="M12" t="n">
-        <v>7999.99844251</v>
+        <v>25824.68372793</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>25110.75594494</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1130,12 +1126,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1JQULE6yHr9UaitLr4wahTwJN7DaMX7W1Z</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qsyp3gx0p4p4jzvekxjxkpk9vcjj37gvrlfn9ryx4jy6ne5nhu76s5xxw5d</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1JQULE6yHr9UaitLr4wahTwJN7DaMX7W1Z</t>
+          <t>bc1qsyp3gx0p4p4jzvekxjxkpk9vcjj37gvrlfn9ryx4jy6ne5nhu76s5xxw5d</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1173,20 +1169,20 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1578624033.75</v>
       </c>
       <c r="L13" t="n">
-        <v>1175022528</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>13604.93</v>
       </c>
       <c r="N13" t="n">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1198,12 +1194,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1KbDEg1tDz2ErYgaDbaDhhawnLrSQFaFx5</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q0d3k8zue8z5ztqt0r35rsd7gua5z4ser6gt46c</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1KbDEg1tDz2ErYgaDbaDhhawnLrSQFaFx5</t>
+          <t>bc1q0d3k8zue8z5ztqt0r35rsd7gua5z4ser6gt46c</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1215,12 +1211,24 @@
       <c r="E14" t="b">
         <v>0</v>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Binance Deposit</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1229,20 +1237,20 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>3805517823.105134</v>
+        <v>1545699303.303236</v>
       </c>
       <c r="L14" t="n">
-        <v>3802111961.782701</v>
+        <v>1585789070.696936</v>
       </c>
       <c r="M14" t="n">
-        <v>33368.00606898</v>
+        <v>13490.0905119</v>
       </c>
       <c r="N14" t="n">
-        <v>33341.3661981</v>
+        <v>13854.27673749</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1254,12 +1262,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qwq5geath93h0lnfsrmnwnfuck2f9ypv4ewyl4j</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qmqkjw3hhyp7n6eqyesqcqsvzw2tsumryv4v68s</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>bc1qwq5geath93h0lnfsrmnwnfuck2f9ypv4ewyl4j</t>
+          <t>bc1qmqkjw3hhyp7n6eqyesqcqsvzw2tsumryv4v68s</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1277,20 +1285,20 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>1079689217.07986</v>
+        <v>1217587328</v>
       </c>
       <c r="L15" t="n">
-        <v>1217587456</v>
+        <v>1219008640</v>
       </c>
       <c r="M15" t="n">
-        <v>10009.26286108</v>
+        <v>10009.2675598</v>
       </c>
       <c r="N15" t="n">
-        <v>10009.26857483</v>
+        <v>10009.2675598</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1302,12 +1310,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1ucXXZQSEf4zny2HRwAQKtVpkLPTUKRtt</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q2lkyqvqqwus9pl96krgtk4rh0fqu8gtmpuwgmc</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1ucXXZQSEf4zny2HRwAQKtVpkLPTUKRtt</t>
+          <t>bc1q2lkyqvqqwus9pl96krgtk4rh0fqu8gtmpuwgmc</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1325,20 +1333,20 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1085633792</v>
       </c>
       <c r="L16" t="n">
-        <v>1080741120</v>
+        <v>1198864256</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>10000.03540378</v>
       </c>
       <c r="N16" t="n">
-        <v>10000.0107112</v>
+        <v>10000.0355818</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1350,12 +1358,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1CPaziTqeEixPoSFtJxu74uDGbpEAotZom</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q8n7glayx5hrzgcqkxjs4qta0mepc3x2hlrx9ar</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1CPaziTqeEixPoSFtJxu74uDGbpEAotZom</t>
+          <t>bc1q8n7glayx5hrzgcqkxjs4qta0mepc3x2hlrx9ar</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1367,26 +1375,38 @@
       <c r="E17" t="b">
         <v>0</v>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>SBI VC Trade</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://www.sbivc.co.jp/</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1041820784</v>
       </c>
       <c r="L17" t="n">
-        <v>1087781120</v>
+        <v>1039178992</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>9600</v>
       </c>
       <c r="N17" t="n">
-        <v>10000.01038616</v>
+        <v>9600.00001</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1398,12 +1418,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3KXwpcwggRsACLkFdfCVMU5ZA4tcLxdN6T</t>
+          <t>https://intel.arkm.com/explorer/address/3JZq4atUahhuA9rLhXLMhhTo133J9rF97j</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3KXwpcwggRsACLkFdfCVMU5ZA4tcLxdN6T</t>
+          <t>3JZq4atUahhuA9rLhXLMhhTo133J9rF97j</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1417,7 +1437,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Kraken</t>
+          <t>Bitfinex</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1427,12 +1447,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://kraken.com</t>
+          <t>https://bitfinex.com</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Kraken Deposit</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1441,20 +1461,20 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>10038918666.44138</v>
+        <v>1003027071</v>
       </c>
       <c r="L18" t="n">
-        <v>11309450267.63957</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>90297.23736832</v>
+        <v>8649.283740000001</v>
       </c>
       <c r="N18" t="n">
-        <v>101571.63448562</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1466,12 +1486,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qnzy2rr7g3688x62f8vrhgeclvtcs5hr50wzu0w</t>
+          <t>https://intel.arkm.com/explorer/address/1KbrSKrT3GeEruTuuYYUSQ35JwKbrAWJYm</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>bc1qnzy2rr7g3688x62f8vrhgeclvtcs5hr50wzu0w</t>
+          <t>1KbrSKrT3GeEruTuuYYUSQ35JwKbrAWJYm</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1489,20 +1509,20 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>1087781121.732832</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1163921152</v>
+        <v>1093011840</v>
       </c>
       <c r="M19" t="n">
-        <v>10000.01010933</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>10000.01023054</v>
+        <v>10000.01691126</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1514,12 +1534,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/12XZMdaAGmcHf4ocFSqpd8jFd1WH7RHUPs</t>
+          <t>https://intel.arkm.com/explorer/address/1JQULE6yHr9UaitLr4wahTwJN7DaMX7W1Z</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12XZMdaAGmcHf4ocFSqpd8jFd1WH7RHUPs</t>
+          <t>1JQULE6yHr9UaitLr4wahTwJN7DaMX7W1Z</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1533,7 +1553,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bybit</t>
+          <t>OKX</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1543,12 +1563,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://bybit.com</t>
+          <t>https://okx.com</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Bybit Deposit</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1557,20 +1577,20 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>2210024111.952049</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>2134796704.335495</v>
+        <v>1175022528</v>
       </c>
       <c r="M20" t="n">
-        <v>18959.01902314</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>18294.8491127</v>
+        <v>9999</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1582,12 +1602,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q69ydwymww89nsudsxnhped0c9zf5jpzgsq8hfqk2ry8x4w5jz2uskwtwt9</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q7cyrfmck2ffu2ud3rn5l5a8yv6f0chkp0zpemf</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>bc1q69ydwymww89nsudsxnhped0c9zf5jpzgsq8hfqk2ry8x4w5jz2uskwtwt9</t>
+          <t>bc1q7cyrfmck2ffu2ud3rn5l5a8yv6f0chkp0zpemf</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1601,7 +1621,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Kraken</t>
+          <t>Crypto.com</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1611,12 +1631,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://kraken.com</t>
+          <t>https://crypto.com</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Kraken Deposit</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1625,20 +1645,20 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>1376414321.5</v>
+        <v>1672219186.534928</v>
       </c>
       <c r="L21" t="n">
-        <v>1473339729.701309</v>
+        <v>1763720862.490482</v>
       </c>
       <c r="M21" t="n">
-        <v>11774.77592249</v>
+        <v>14924.00999199</v>
       </c>
       <c r="N21" t="n">
-        <v>12560.58366647</v>
+        <v>15739.81301428</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -1650,12 +1670,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qpy3vutdmmc7mthwjlz68qv30c2u6xcjukyur8w8gftqgvvf00rzsweamy2</t>
+          <t>https://intel.arkm.com/explorer/address/3LHZNTmeQqzKqqGLXUDxq7uGUX59qDvoEU</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>bc1qpy3vutdmmc7mthwjlz68qv30c2u6xcjukyur8w8gftqgvvf00rzsweamy2</t>
+          <t>3LHZNTmeQqzKqqGLXUDxq7uGUX59qDvoEU</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1669,7 +1689,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Kraken</t>
+          <t>Crypto.com</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1679,26 +1699,26 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://kraken.com</t>
+          <t>https://crypto.com</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>999784128</v>
+        <v>1546650503.27523</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1485306775.58223</v>
       </c>
       <c r="M22" t="n">
-        <v>8396.4672106</v>
+        <v>13647.62804652</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>13112.19805652</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -1710,12 +1730,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1f1miYFQWTzdLiCBxtHHnNiW7WAWPUccr</t>
+          <t>https://intel.arkm.com/explorer/address/3MqUP6G1daVS5YTD8fz3QgwjZortWwxXFd</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1f1miYFQWTzdLiCBxtHHnNiW7WAWPUccr</t>
+          <t>3MqUP6G1daVS5YTD8fz3QgwjZortWwxXFd</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1727,26 +1747,46 @@
       <c r="E23" t="b">
         <v>0</v>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Coinbase Prime</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>https://www.coinbase.com/prime</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>17766894475.65613</v>
       </c>
       <c r="L23" t="n">
-        <v>1079689216</v>
+        <v>17779726693.18389</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>158251.80987158</v>
       </c>
       <c r="N23" t="n">
-        <v>10009.26342775</v>
+        <v>158304.18278307</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -1758,12 +1798,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qklv9x7qpmvkrjpxhjelcsz06y7zr0szwxr35j9</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qs4nzm0je7wqfyfmqr4ht4upyzy57vc95nf4au0</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>bc1qklv9x7qpmvkrjpxhjelcsz06y7zr0szwxr35j9</t>
+          <t>bc1qs4nzm0je7wqfyfmqr4ht4upyzy57vc95nf4au0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1781,20 +1821,20 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>1163804800</v>
+        <v>4771465384</v>
       </c>
       <c r="L24" t="n">
-        <v>1193791872</v>
+        <v>4791695328</v>
       </c>
       <c r="M24" t="n">
-        <v>9999.010206000001</v>
+        <v>40190.59549181</v>
       </c>
       <c r="N24" t="n">
-        <v>9999.010206000001</v>
+        <v>39840.00007509</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -1806,12 +1846,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qlt5nm3kflne7rht4alsnzdzad878ld5rcu4na0</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qmuxrzvnx34j8y6h9leg4zen5gnw7wmfmgp8v2p</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>bc1qlt5nm3kflne7rht4alsnzdzad878ld5rcu4na0</t>
+          <t>bc1qmuxrzvnx34j8y6h9leg4zen5gnw7wmfmgp8v2p</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1823,46 +1863,26 @@
       <c r="E25" t="b">
         <v>0</v>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Crypto.com</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>https://crypto.com</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>1006921479.797668</v>
+        <v>2437598209.751775</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>2341670148</v>
       </c>
       <c r="M25" t="n">
-        <v>8492.4304156</v>
+        <v>20009.34587762</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>20010.00004194</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -1874,12 +1894,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/12DezRFkKToAiLTDNru1g7FuvtAWMwCZ7N</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qwq5geath93h0lnfsrmnwnfuck2f9ypv4ewyl4j</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>12DezRFkKToAiLTDNru1g7FuvtAWMwCZ7N</t>
+          <t>bc1qwq5geath93h0lnfsrmnwnfuck2f9ypv4ewyl4j</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1891,46 +1911,26 @@
       <c r="E26" t="b">
         <v>0</v>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Coinbase</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>2964094498.113575</v>
+        <v>1079689217.07986</v>
       </c>
       <c r="L26" t="n">
-        <v>2963483039.773438</v>
+        <v>1217587456</v>
       </c>
       <c r="M26" t="n">
-        <v>26449.66624099</v>
+        <v>10009.26286108</v>
       </c>
       <c r="N26" t="n">
-        <v>26450.87332013</v>
+        <v>10009.26857483</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -1942,12 +1942,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q0d3k8zue8z5ztqt0r35rsd7gua5z4ser6gt46c</t>
+          <t>https://intel.arkm.com/explorer/address/1QKbykDpxrKLYrjzS9G8gPvHQGSEL3njUT</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>bc1q0d3k8zue8z5ztqt0r35rsd7gua5z4ser6gt46c</t>
+          <t>1QKbykDpxrKLYrjzS9G8gPvHQGSEL3njUT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1974,31 +1974,23 @@
           <t>https://coinbase.com</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>1545699303.303236</v>
+        <v>857311872</v>
       </c>
       <c r="L27" t="n">
-        <v>1585789070.696936</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>13490.0905119</v>
+        <v>7999.99851357</v>
       </c>
       <c r="N27" t="n">
-        <v>13854.27673749</v>
+        <v>0</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2010,12 +2002,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qpa5uhy6yc4jnj4et5dxyvzhx7wtqrzt7a43klg</t>
+          <t>https://intel.arkm.com/explorer/address/1CPaziTqeEixPoSFtJxu74uDGbpEAotZom</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>bc1qpa5uhy6yc4jnj4et5dxyvzhx7wtqrzt7a43klg</t>
+          <t>1CPaziTqeEixPoSFtJxu74uDGbpEAotZom</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2027,38 +2019,26 @@
       <c r="E28" t="b">
         <v>0</v>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Galaxy Digital</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>https://www.galaxy.com/</t>
-        </is>
-      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>1555119807.474609</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1536971483.50568</v>
+        <v>1087781120</v>
       </c>
       <c r="M28" t="n">
-        <v>13389.16452155</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>13212.17531307</v>
+        <v>10000.01038616</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2106,7 +2086,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2118,12 +2098,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qymu2qf0d23qg38p9w7yxxt4yqjjg47rytxujl6</t>
+          <t>https://intel.arkm.com/explorer/address/14YK4mzJGo5NKkNnmVJeuEAQftLt795Gec</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>bc1qymu2qf0d23qg38p9w7yxxt4yqjjg47rytxujl6</t>
+          <t>14YK4mzJGo5NKkNnmVJeuEAQftLt795Gec</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2141,20 +2121,20 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>1088561408.539435</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1187211520</v>
+        <v>1085633920</v>
       </c>
       <c r="M30" t="n">
-        <v>10000.01249973</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>10000.01318269</v>
+        <v>10000.03579381</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2166,12 +2146,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qsyp3gx0p4p4jzvekxjxkpk9vcjj37gvrlfn9ryx4jy6ne5nhu76s5xxw5d</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q0phej5lfqc8ed69f53l5mxw78svx878lgpqesl</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>bc1qsyp3gx0p4p4jzvekxjxkpk9vcjj37gvrlfn9ryx4jy6ne5nhu76s5xxw5d</t>
+          <t>bc1q0phej5lfqc8ed69f53l5mxw78svx878lgpqesl</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2185,44 +2165,36 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>OKX</t>
+          <t>Galaxy Digital</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://okx.com</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://www.galaxy.com/</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>1578624033.75</v>
+        <v>9497986513.097153</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>4877853047.781612</v>
       </c>
       <c r="M31" t="n">
-        <v>13604.93</v>
+        <v>79784.84211498</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>41322.13367104</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2234,12 +2206,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3JZq4atUahhuA9rLhXLMhhTo133J9rF97j</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q9exg34dkmgxu28yektgn929jpjpzukhhl2r3zr</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3JZq4atUahhuA9rLhXLMhhTo133J9rF97j</t>
+          <t>bc1q9exg34dkmgxu28yektgn929jpjpzukhhl2r3zr</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2253,22 +2225,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Bitfinex</t>
+          <t>Wintermute</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://bitfinex.com</t>
+          <t>https://www.wintermute.com/</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2277,20 +2249,20 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>1003027071</v>
+        <v>3135213824.408474</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>3139474489.419553</v>
       </c>
       <c r="M32" t="n">
-        <v>8649.283740000001</v>
+        <v>27919.19380859</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>27935.18806602</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -2302,12 +2274,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q2lkyqvqqwus9pl96krgtk4rh0fqu8gtmpuwgmc</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qpa5uhy6yc4jnj4et5dxyvzhx7wtqrzt7a43klg</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>bc1q2lkyqvqqwus9pl96krgtk4rh0fqu8gtmpuwgmc</t>
+          <t>bc1qpa5uhy6yc4jnj4et5dxyvzhx7wtqrzt7a43klg</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2319,26 +2291,38 @@
       <c r="E33" t="b">
         <v>0</v>
       </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Galaxy Digital</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>https://www.galaxy.com/</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>1085633792</v>
+        <v>1555119807.474609</v>
       </c>
       <c r="L33" t="n">
-        <v>1198864256</v>
+        <v>1536971483.50568</v>
       </c>
       <c r="M33" t="n">
-        <v>10000.03540378</v>
+        <v>13389.16452155</v>
       </c>
       <c r="N33" t="n">
-        <v>10000.0355818</v>
+        <v>13212.17531307</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -2350,12 +2334,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3LUATjKp4YfmCSSiN1h3juwrqNTyksXAjp</t>
+          <t>https://intel.arkm.com/explorer/address/16Uz37Q6TfvK2UFTgamn3dyRjnP2Wtf4p2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3LUATjKp4YfmCSSiN1h3juwrqNTyksXAjp</t>
+          <t>16Uz37Q6TfvK2UFTgamn3dyRjnP2Wtf4p2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2369,7 +2353,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Fidelity FBTC ETF Inflows</t>
+          <t>Cumberland DRW</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2379,34 +2363,26 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.fidelity.com/</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>FBTC Inflows (Fidelity Custody Deposit)</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://cumberland.io</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1091921388.069607</v>
       </c>
       <c r="L34" t="n">
-        <v>997369272</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>9852.904482129999</v>
       </c>
       <c r="N34" t="n">
-        <v>8927.287302250001</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -2418,12 +2394,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1quhruqrghgcca950rvhtrg7cpd7u8k6svpzgzmrjy8xyukacl5lkq0r8l2d</t>
+          <t>https://intel.arkm.com/explorer/address/3M219KR5vEneNb47ewrPfWyb5jQ2DjxRP6</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>bc1quhruqrghgcca950rvhtrg7cpd7u8k6svpzgzmrjy8xyukacl5lkq0r8l2d</t>
+          <t>3M219KR5vEneNb47ewrPfWyb5jQ2DjxRP6</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2437,7 +2413,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>OKX</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2447,12 +2423,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://okx.com</t>
+          <t>https://binance.com</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2461,20 +2437,20 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>3815554863.115694</v>
+        <v>994682944</v>
       </c>
       <c r="L35" t="n">
-        <v>3812942291.812465</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>33679.54318357</v>
+        <v>8505.271000000001</v>
       </c>
       <c r="N35" t="n">
-        <v>33637.55491424001</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -2486,12 +2462,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qmuxrzvnx34j8y6h9leg4zen5gnw7wmfmgp8v2p</t>
+          <t>https://intel.arkm.com/explorer/address/1CP2DCkjijP9uQJiyCntNDBPx96QSexo9</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>bc1qmuxrzvnx34j8y6h9leg4zen5gnw7wmfmgp8v2p</t>
+          <t>1CP2DCkjijP9uQJiyCntNDBPx96QSexo9</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2503,26 +2479,38 @@
       <c r="E36" t="b">
         <v>0</v>
       </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>2437598209.751775</v>
+        <v>860570624</v>
       </c>
       <c r="L36" t="n">
-        <v>2341670148</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>20009.34587762</v>
+        <v>8022.02397004</v>
       </c>
       <c r="N36" t="n">
-        <v>20010.00004194</v>
+        <v>0</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -2534,12 +2522,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q84w6epn6uce9s85slt7q6emm3qfzz7ngq7ef6k</t>
+          <t>https://intel.arkm.com/explorer/address/1P1iThxBH542Gmk1kZNXyji4E4iwpvSbrt</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>bc1q84w6epn6uce9s85slt7q6emm3qfzz7ngq7ef6k</t>
+          <t>1P1iThxBH542Gmk1kZNXyji4E4iwpvSbrt</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2557,20 +2545,20 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>1079018496.325428</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1218589568</v>
+        <v>1088561408</v>
       </c>
       <c r="M37" t="n">
-        <v>10000.07817266</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>10000.07837612</v>
+        <v>10000.01287044</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -2582,12 +2570,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/14YK4mzJGo5NKkNnmVJeuEAQftLt795Gec</t>
+          <t>https://intel.arkm.com/explorer/address/3LUATjKp4YfmCSSiN1h3juwrqNTyksXAjp</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>14YK4mzJGo5NKkNnmVJeuEAQftLt795Gec</t>
+          <t>3LUATjKp4YfmCSSiN1h3juwrqNTyksXAjp</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2599,26 +2587,46 @@
       <c r="E38" t="b">
         <v>0</v>
       </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Fidelity FBTC ETF Inflows</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>https://www.fidelity.com/</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>FBTC Inflows (Fidelity Custody Deposit)</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085633920</v>
+        <v>997369272</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>10000.03579381</v>
+        <v>8927.287302250001</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -2630,12 +2638,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1P1iThxBH542Gmk1kZNXyji4E4iwpvSbrt</t>
+          <t>https://intel.arkm.com/explorer/address/bc1p2mlwrss9tmvtfvu0tcxul2h0w67ej8vyjpj3ksctt67vd9r752ksqx6uqm</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1P1iThxBH542Gmk1kZNXyji4E4iwpvSbrt</t>
+          <t>bc1p2mlwrss9tmvtfvu0tcxul2h0w67ej8vyjpj3ksctt67vd9r752ksqx6uqm</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2653,20 +2661,20 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>2178601035.147053</v>
       </c>
       <c r="L39" t="n">
-        <v>1088561408</v>
+        <v>2178419465.602018</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>19668.41791853</v>
       </c>
       <c r="N39" t="n">
-        <v>10000.01287044</v>
+        <v>19668.41791853</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -2678,12 +2686,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qs4nzm0je7wqfyfmqr4ht4upyzy57vc95nf4au0</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qrn8pjas098hfn42d578v6vxg4nh6kn4dvdeevy</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>bc1qs4nzm0je7wqfyfmqr4ht4upyzy57vc95nf4au0</t>
+          <t>bc1qrn8pjas098hfn42d578v6vxg4nh6kn4dvdeevy</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2701,20 +2709,20 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>4771465384</v>
+        <v>1195771648</v>
       </c>
       <c r="L40" t="n">
-        <v>4791695328</v>
+        <v>1198741376</v>
       </c>
       <c r="M40" t="n">
-        <v>40190.59549181</v>
+        <v>9999.010393</v>
       </c>
       <c r="N40" t="n">
-        <v>39840.00007509</v>
+        <v>9999.010393</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -2726,12 +2734,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1p2mlwrss9tmvtfvu0tcxul2h0w67ej8vyjpj3ksctt67vd9r752ksqx6uqm</t>
+          <t>https://intel.arkm.com/explorer/address/3KXwpcwggRsACLkFdfCVMU5ZA4tcLxdN6T</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>bc1p2mlwrss9tmvtfvu0tcxul2h0w67ej8vyjpj3ksctt67vd9r752ksqx6uqm</t>
+          <t>3KXwpcwggRsACLkFdfCVMU5ZA4tcLxdN6T</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2743,26 +2751,46 @@
       <c r="E41" t="b">
         <v>0</v>
       </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Kraken</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>https://kraken.com</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Kraken Deposit</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K41" t="n">
-        <v>2178601035.147053</v>
+        <v>10038918666.44138</v>
       </c>
       <c r="L41" t="n">
-        <v>2178419465.602018</v>
+        <v>11309450267.63957</v>
       </c>
       <c r="M41" t="n">
-        <v>19668.41791853</v>
+        <v>90297.23736832</v>
       </c>
       <c r="N41" t="n">
-        <v>19668.41791853</v>
+        <v>101571.63448562</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -2774,12 +2802,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1BAFWQhH9pNkz3mZDQ1tWrtKkSHVCkc3fV</t>
+          <t>https://intel.arkm.com/explorer/address/38MfJkxPkpwsZxkyfESwjdaKBdXrV8DpWr</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1BAFWQhH9pNkz3mZDQ1tWrtKkSHVCkc3fV</t>
+          <t>38MfJkxPkpwsZxkyfESwjdaKBdXrV8DpWr</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2791,26 +2819,38 @@
       <c r="E42" t="b">
         <v>0</v>
       </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>2266713466.398764</v>
       </c>
       <c r="L42" t="n">
-        <v>1079018496</v>
+        <v>2284704774.552862</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>20203.30241</v>
       </c>
       <c r="N42" t="n">
-        <v>10000.07852233</v>
+        <v>20390.60341</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -2822,12 +2862,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qv4r4zwvf5ckdx3llaykl0vez4fdaj4jh5yfjsw</t>
+          <t>https://intel.arkm.com/explorer/address/12XZMdaAGmcHf4ocFSqpd8jFd1WH7RHUPs</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>bc1qv4r4zwvf5ckdx3llaykl0vez4fdaj4jh5yfjsw</t>
+          <t>12XZMdaAGmcHf4ocFSqpd8jFd1WH7RHUPs</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2839,26 +2879,46 @@
       <c r="E43" t="b">
         <v>0</v>
       </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Bybit</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>https://bybit.com</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Bybit Deposit</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K43" t="n">
-        <v>10038889619.17064</v>
+        <v>2210024111.952049</v>
       </c>
       <c r="L43" t="n">
-        <v>10038922128</v>
+        <v>2134796704.335495</v>
       </c>
       <c r="M43" t="n">
-        <v>90297.26804949</v>
+        <v>18959.01902314</v>
       </c>
       <c r="N43" t="n">
-        <v>90297.26803948999</v>
+        <v>18294.8491127</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -2870,12 +2930,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qr4dl5wa7kl8yu792dceg9z5knl2gkn220lk7a9</t>
+          <t>https://intel.arkm.com/explorer/address/1GcCK347TMbzHrRpDoVvJdR6eyECyqHCiU</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>bc1qr4dl5wa7kl8yu792dceg9z5knl2gkn220lk7a9</t>
+          <t>1GcCK347TMbzHrRpDoVvJdR6eyECyqHCiU</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2887,46 +2947,26 @@
       <c r="E44" t="b">
         <v>0</v>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Crypto.com</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>https://crypto.com</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>2951065356.052843</v>
+        <v>1093501199.304658</v>
       </c>
       <c r="L44" t="n">
-        <v>2876640261.445534</v>
+        <v>1187211392</v>
       </c>
       <c r="M44" t="n">
-        <v>25824.68372793</v>
+        <v>10000.01118361</v>
       </c>
       <c r="N44" t="n">
-        <v>25110.75594494</v>
+        <v>10000.01190736</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -2938,12 +2978,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/38MfJkxPkpwsZxkyfESwjdaKBdXrV8DpWr</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qlt5nm3kflne7rht4alsnzdzad878ld5rcu4na0</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>38MfJkxPkpwsZxkyfESwjdaKBdXrV8DpWr</t>
+          <t>bc1qlt5nm3kflne7rht4alsnzdzad878ld5rcu4na0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2957,7 +2997,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Crypto.com</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2967,26 +3007,34 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+          <t>https://crypto.com</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K45" t="n">
-        <v>2266713466.398764</v>
+        <v>1006921479.797668</v>
       </c>
       <c r="L45" t="n">
-        <v>2284704774.552862</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>20203.30241</v>
+        <v>8492.4304156</v>
       </c>
       <c r="N45" t="n">
-        <v>20390.60341</v>
+        <v>0</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -2998,12 +3046,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qq8n50dxhnrq4uu4f5wlnuv6hd0w8g7hxg3yn9s</t>
+          <t>https://intel.arkm.com/explorer/address/3P8dPqoHYcFVB7ki86tE6gSsrDYRuW3MbA</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>bc1qq8n50dxhnrq4uu4f5wlnuv6hd0w8g7hxg3yn9s</t>
+          <t>3P8dPqoHYcFVB7ki86tE6gSsrDYRuW3MbA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3015,38 +3063,34 @@
       <c r="E46" t="b">
         <v>0</v>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Bitfinex</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>https://bitfinex.com</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Coinbase Prime Deposit</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K46" t="n">
-        <v>952576000</v>
+        <v>1656260820</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1655407830</v>
       </c>
       <c r="M46" t="n">
-        <v>8000</v>
+        <v>14648</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>14648</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -3058,12 +3102,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1GrwDkr33gT6LuumniYjKEGjTLhsL5kmqC</t>
+          <t>https://intel.arkm.com/explorer/address/bc1quhruqrghgcca950rvhtrg7cpd7u8k6svpzgzmrjy8xyukacl5lkq0r8l2d</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1GrwDkr33gT6LuumniYjKEGjTLhsL5kmqC</t>
+          <t>bc1quhruqrghgcca950rvhtrg7cpd7u8k6svpzgzmrjy8xyukacl5lkq0r8l2d</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3077,7 +3121,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Bybit</t>
+          <t>OKX</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3087,7 +3131,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://bybit.com</t>
+          <t>https://okx.com</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3101,20 +3145,20 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>3103203175.283098</v>
+        <v>3815554863.115694</v>
       </c>
       <c r="L47" t="n">
-        <v>3196066655.953699</v>
+        <v>3812942291.812465</v>
       </c>
       <c r="M47" t="n">
-        <v>27490.46508329</v>
+        <v>33679.54318357</v>
       </c>
       <c r="N47" t="n">
-        <v>28380.06611066</v>
+        <v>33637.55491424001</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -3126,12 +3170,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3MqUP6G1daVS5YTD8fz3QgwjZortWwxXFd</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qq8qvezre6d0fw3q4ht03rj029y4d8ylh7atjty</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3MqUP6G1daVS5YTD8fz3QgwjZortWwxXFd</t>
+          <t>bc1qq8qvezre6d0fw3q4ht03rj029y4d8ylh7atjty</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3143,46 +3187,26 @@
       <c r="E48" t="b">
         <v>0</v>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Coinbase Prime</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>https://www.coinbase.com/prime</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>17766894475.65613</v>
+        <v>2397605632</v>
       </c>
       <c r="L48" t="n">
-        <v>17779726693.18389</v>
+        <v>2307939952</v>
       </c>
       <c r="M48" t="n">
-        <v>158251.80987158</v>
+        <v>19999.04591292</v>
       </c>
       <c r="N48" t="n">
-        <v>158304.18278307</v>
+        <v>19500.04595558</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -3194,12 +3218,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q8s3h3vw5xufdas890q29lpuca56r0ezqar0mvs</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qhtawge4km6juhlkrnvt7qjahhsc96qdlgf3c8t</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>bc1q8s3h3vw5xufdas890q29lpuca56r0ezqar0mvs</t>
+          <t>bc1qhtawge4km6juhlkrnvt7qjahhsc96qdlgf3c8t</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3211,38 +3235,26 @@
       <c r="E49" t="b">
         <v>0</v>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Cumberland DRW</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>https://cumberland.io</t>
-        </is>
-      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>2574484890.746468</v>
+        <v>1080741120</v>
       </c>
       <c r="L49" t="n">
-        <v>2623958088.323692</v>
+        <v>1195891200</v>
       </c>
       <c r="M49" t="n">
-        <v>22843.85777068</v>
+        <v>10000.01038733</v>
       </c>
       <c r="N49" t="n">
-        <v>23342.82531357</v>
+        <v>10000.01043845</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -3254,12 +3266,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1DLeNApsHNNzUMNZJVoXeyEY5sdp8vzx3w</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qzj47ptd3j9eqltrvhqgv3yz35cscvuncqsegsv</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1DLeNApsHNNzUMNZJVoXeyEY5sdp8vzx3w</t>
+          <t>bc1qzj47ptd3j9eqltrvhqgv3yz35cscvuncqsegsv</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3271,46 +3283,26 @@
       <c r="E50" t="b">
         <v>0</v>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Bybit</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>https://bybit.com</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>Bybit Deposit</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>1845747267.894043</v>
+        <v>1193672448</v>
       </c>
       <c r="L50" t="n">
-        <v>1771963860.944458</v>
+        <v>1186973824</v>
       </c>
       <c r="M50" t="n">
-        <v>15696.59509998</v>
+        <v>9998.010172</v>
       </c>
       <c r="N50" t="n">
-        <v>15060.39905943</v>
+        <v>9998.010172</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -3322,12 +3314,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q8n7glayx5hrzgcqkxjs4qta0mepc3x2hlrx9ar</t>
+          <t>https://intel.arkm.com/explorer/address/16XU9wjEVUNvc45qRYXS7qYGeJQdnTf8L3</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>bc1q8n7glayx5hrzgcqkxjs4qta0mepc3x2hlrx9ar</t>
+          <t>16XU9wjEVUNvc45qRYXS7qYGeJQdnTf8L3</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3341,7 +3333,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>SBI VC Trade</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3351,26 +3343,26 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.sbivc.co.jp/</t>
+          <t>https://coinbase.com</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>1041820784</v>
+        <v>858175808</v>
       </c>
       <c r="L51" t="n">
-        <v>1039178992</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>9600</v>
+        <v>7999.99844251</v>
       </c>
       <c r="N51" t="n">
-        <v>9600.00001</v>
+        <v>0</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -3382,12 +3374,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1CP2DCkjijP9uQJiyCntNDBPx96QSexo9</t>
+          <t>https://intel.arkm.com/explorer/address/1ucXXZQSEf4zny2HRwAQKtVpkLPTUKRtt</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1CP2DCkjijP9uQJiyCntNDBPx96QSexo9</t>
+          <t>1ucXXZQSEf4zny2HRwAQKtVpkLPTUKRtt</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3399,38 +3391,26 @@
       <c r="E52" t="b">
         <v>0</v>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Coinbase</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>860570624</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1080741120</v>
       </c>
       <c r="M52" t="n">
-        <v>8022.02397004</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>10000.0107112</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -3442,12 +3422,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1GcCK347TMbzHrRpDoVvJdR6eyECyqHCiU</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q8s3h3vw5xufdas890q29lpuca56r0ezqar0mvs</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1GcCK347TMbzHrRpDoVvJdR6eyECyqHCiU</t>
+          <t>bc1q8s3h3vw5xufdas890q29lpuca56r0ezqar0mvs</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3459,26 +3439,38 @@
       <c r="E53" t="b">
         <v>0</v>
       </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Cumberland DRW</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>https://cumberland.io</t>
+        </is>
+      </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>1093501199.304658</v>
+        <v>2574484890.746468</v>
       </c>
       <c r="L53" t="n">
-        <v>1187211392</v>
+        <v>2623958088.323692</v>
       </c>
       <c r="M53" t="n">
-        <v>10000.01118361</v>
+        <v>22843.85777068</v>
       </c>
       <c r="N53" t="n">
-        <v>10000.01190736</v>
+        <v>23342.82531357</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -3490,12 +3482,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/16Uz37Q6TfvK2UFTgamn3dyRjnP2Wtf4p2</t>
+          <t>https://intel.arkm.com/explorer/address/1f1miYFQWTzdLiCBxtHHnNiW7WAWPUccr</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16Uz37Q6TfvK2UFTgamn3dyRjnP2Wtf4p2</t>
+          <t>1f1miYFQWTzdLiCBxtHHnNiW7WAWPUccr</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3507,38 +3499,26 @@
       <c r="E54" t="b">
         <v>0</v>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Cumberland DRW</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>https://cumberland.io</t>
-        </is>
-      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>1091921388.069607</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>1079689216</v>
       </c>
       <c r="M54" t="n">
-        <v>9852.904482129999</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>10009.26342775</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -3550,12 +3530,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3M219KR5vEneNb47ewrPfWyb5jQ2DjxRP6</t>
+          <t>https://intel.arkm.com/explorer/address/12DezRFkKToAiLTDNru1g7FuvtAWMwCZ7N</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3M219KR5vEneNb47ewrPfWyb5jQ2DjxRP6</t>
+          <t>12DezRFkKToAiLTDNru1g7FuvtAWMwCZ7N</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3569,7 +3549,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3579,7 +3559,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
+          <t>https://coinbase.com</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3593,20 +3573,20 @@
         </is>
       </c>
       <c r="K55" t="n">
-        <v>994682944</v>
+        <v>2964094498.113575</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>2963483039.773438</v>
       </c>
       <c r="M55" t="n">
-        <v>8505.271000000001</v>
+        <v>26449.66624099</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>26450.87332013</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -3618,12 +3598,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qn2cpj0hrl37wqh5q94kwrlhtj2lx8ahtw7ef5rg35tswxsqtvufqfmmrq2</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
+          <t>bc1qn2cpj0hrl37wqh5q94kwrlhtj2lx8ahtw7ef5rg35tswxsqtvufqfmmrq2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3637,7 +3617,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>OKX</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3647,7 +3627,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
+          <t>https://okx.com</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3661,20 +3641,20 @@
         </is>
       </c>
       <c r="K56" t="n">
-        <v>21290772689.24112</v>
+        <v>2922170618.109495</v>
       </c>
       <c r="L56" t="n">
-        <v>21530446329.8727</v>
+        <v>2857386172.338711</v>
       </c>
       <c r="M56" t="n">
-        <v>189421.47790661</v>
+        <v>25804.1928479</v>
       </c>
       <c r="N56" t="n">
-        <v>191748.21633754</v>
+        <v>25256.18026518</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -3686,12 +3666,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/15DomY3arDPw5jD658Mbf3AY3wT3YCDmW2</t>
+          <t>https://intel.arkm.com/explorer/address/1BAFWQhH9pNkz3mZDQ1tWrtKkSHVCkc3fV</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>15DomY3arDPw5jD658Mbf3AY3wT3YCDmW2</t>
+          <t>1BAFWQhH9pNkz3mZDQ1tWrtKkSHVCkc3fV</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3703,46 +3683,26 @@
       <c r="E57" t="b">
         <v>0</v>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Wintermute</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>https://www.wintermute.com/</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>4325262713.96552</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>4386898347</v>
+        <v>1079018496</v>
       </c>
       <c r="M57" t="n">
-        <v>38996.51355908</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>39527.31355908</v>
+        <v>10000.07852233</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -3754,12 +3714,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q7cyrfmck2ffu2ud3rn5l5a8yv6f0chkp0zpemf</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q69ydwymww89nsudsxnhped0c9zf5jpzgsq8hfqk2ry8x4w5jz2uskwtwt9</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>bc1q7cyrfmck2ffu2ud3rn5l5a8yv6f0chkp0zpemf</t>
+          <t>bc1q69ydwymww89nsudsxnhped0c9zf5jpzgsq8hfqk2ry8x4w5jz2uskwtwt9</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3773,7 +3733,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Crypto.com</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3783,12 +3743,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://crypto.com</t>
+          <t>https://kraken.com</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Kraken Deposit</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3797,20 +3757,20 @@
         </is>
       </c>
       <c r="K58" t="n">
-        <v>1672219186.534928</v>
+        <v>1376414321.5</v>
       </c>
       <c r="L58" t="n">
-        <v>1763720862.490482</v>
+        <v>1473339729.701309</v>
       </c>
       <c r="M58" t="n">
-        <v>14924.00999199</v>
+        <v>11774.77592249</v>
       </c>
       <c r="N58" t="n">
-        <v>15739.81301428</v>
+        <v>12560.58366647</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -3822,12 +3782,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3LHZNTmeQqzKqqGLXUDxq7uGUX59qDvoEU</t>
+          <t>https://intel.arkm.com/explorer/address/1GrwDkr33gT6LuumniYjKEGjTLhsL5kmqC</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3LHZNTmeQqzKqqGLXUDxq7uGUX59qDvoEU</t>
+          <t>1GrwDkr33gT6LuumniYjKEGjTLhsL5kmqC</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3841,7 +3801,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Crypto.com</t>
+          <t>Bybit</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3851,26 +3811,34 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://crypto.com</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+          <t>https://bybit.com</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K59" t="n">
-        <v>1546650503.27523</v>
+        <v>3103203175.283098</v>
       </c>
       <c r="L59" t="n">
-        <v>1485306775.58223</v>
+        <v>3196066655.953699</v>
       </c>
       <c r="M59" t="n">
-        <v>13647.62804652</v>
+        <v>27490.46508329</v>
       </c>
       <c r="N59" t="n">
-        <v>13112.19805652</v>
+        <v>28380.06611066</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -3882,12 +3850,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qmqkjw3hhyp7n6eqyesqcqsvzw2tsumryv4v68s</t>
+          <t>https://intel.arkm.com/explorer/address/1DLeNApsHNNzUMNZJVoXeyEY5sdp8vzx3w</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>bc1qmqkjw3hhyp7n6eqyesqcqsvzw2tsumryv4v68s</t>
+          <t>1DLeNApsHNNzUMNZJVoXeyEY5sdp8vzx3w</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3899,26 +3867,46 @@
       <c r="E60" t="b">
         <v>0</v>
       </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Bybit</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>https://bybit.com</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Bybit Deposit</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K60" t="n">
-        <v>1217587328</v>
+        <v>1845747267.894043</v>
       </c>
       <c r="L60" t="n">
-        <v>1219008640</v>
+        <v>1771963860.944458</v>
       </c>
       <c r="M60" t="n">
-        <v>10009.2675598</v>
+        <v>15696.59509998</v>
       </c>
       <c r="N60" t="n">
-        <v>10009.2675598</v>
+        <v>15060.39905943</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -3930,12 +3918,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/12tLs9c9RsALt4ockxa1hB4iTCTSmxj2me</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qq8n50dxhnrq4uu4f5wlnuv6hd0w8g7hxg3yn9s</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>12tLs9c9RsALt4ockxa1hB4iTCTSmxj2me</t>
+          <t>bc1qq8n50dxhnrq4uu4f5wlnuv6hd0w8g7hxg3yn9s</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3947,26 +3935,38 @@
       <c r="E61" t="b">
         <v>0</v>
       </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Bitfinex</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>https://bitfinex.com</t>
+        </is>
+      </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>952576000</v>
       </c>
       <c r="L61" t="n">
-        <v>1093501184</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="N61" t="n">
-        <v>10000.01141274</v>
+        <v>0</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2025-07-21 14:06:59</t>
+          <t>2025-07-21 14:10:08</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">

--- a/data_cripto/top_flow.xlsx
+++ b/data_cripto/top_flow.xlsx
@@ -518,12 +518,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qv4r4zwvf5ckdx3llaykl0vez4fdaj4jh5yfjsw</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qpa5uhy6yc4jnj4et5dxyvzhx7wtqrzt7a43klg</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bc1qv4r4zwvf5ckdx3llaykl0vez4fdaj4jh5yfjsw</t>
+          <t>bc1qpa5uhy6yc4jnj4et5dxyvzhx7wtqrzt7a43klg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -535,26 +535,38 @@
       <c r="E2" t="b">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Galaxy Digital</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://www.galaxy.com/</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>10038889619.17064</v>
+        <v>1555119807.474609</v>
       </c>
       <c r="L2" t="n">
-        <v>10038922128</v>
+        <v>1536971483.50568</v>
       </c>
       <c r="M2" t="n">
-        <v>90297.26804949</v>
+        <v>13389.16452155</v>
       </c>
       <c r="N2" t="n">
-        <v>90297.26803948999</v>
+        <v>13212.17531307</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -566,12 +578,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/15DomY3arDPw5jD658Mbf3AY3wT3YCDmW2</t>
+          <t>https://intel.arkm.com/explorer/address/1ucXXZQSEf4zny2HRwAQKtVpkLPTUKRtt</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>15DomY3arDPw5jD658Mbf3AY3wT3YCDmW2</t>
+          <t>1ucXXZQSEf4zny2HRwAQKtVpkLPTUKRtt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -583,46 +595,26 @@
       <c r="E3" t="b">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Wintermute</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>https://www.wintermute.com/</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>4325262713.96552</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4386898347</v>
+        <v>1080741120</v>
       </c>
       <c r="M3" t="n">
-        <v>38996.51355908</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>39527.31355908</v>
+        <v>10000.0107112</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -634,12 +626,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q84w6epn6uce9s85slt7q6emm3qfzz7ngq7ef6k</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q8n7glayx5hrzgcqkxjs4qta0mepc3x2hlrx9ar</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>bc1q84w6epn6uce9s85slt7q6emm3qfzz7ngq7ef6k</t>
+          <t>bc1q8n7glayx5hrzgcqkxjs4qta0mepc3x2hlrx9ar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -651,26 +643,38 @@
       <c r="E4" t="b">
         <v>0</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>SBI VC Trade</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://www.sbivc.co.jp/</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>1079018496.325428</v>
+        <v>1041820784</v>
       </c>
       <c r="L4" t="n">
-        <v>1218589568</v>
+        <v>1039178992</v>
       </c>
       <c r="M4" t="n">
-        <v>10000.07817266</v>
+        <v>9600</v>
       </c>
       <c r="N4" t="n">
-        <v>10000.07837612</v>
+        <v>9600.00001</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -682,12 +686,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qklv9x7qpmvkrjpxhjelcsz06y7zr0szwxr35j9</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qnzy2rr7g3688x62f8vrhgeclvtcs5hr50wzu0w</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>bc1qklv9x7qpmvkrjpxhjelcsz06y7zr0szwxr35j9</t>
+          <t>bc1qnzy2rr7g3688x62f8vrhgeclvtcs5hr50wzu0w</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -705,20 +709,20 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>1163804800</v>
+        <v>1087781121.732832</v>
       </c>
       <c r="L5" t="n">
-        <v>1193791872</v>
+        <v>1163921152</v>
       </c>
       <c r="M5" t="n">
-        <v>9999.010206000001</v>
+        <v>10000.01010933</v>
       </c>
       <c r="N5" t="n">
-        <v>9999.010206000001</v>
+        <v>10000.01023054</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -730,12 +734,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qpy3vutdmmc7mthwjlz68qv30c2u6xcjukyur8w8gftqgvvf00rzsweamy2</t>
+          <t>https://intel.arkm.com/explorer/address/12tLs9c9RsALt4ockxa1hB4iTCTSmxj2me</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>bc1qpy3vutdmmc7mthwjlz68qv30c2u6xcjukyur8w8gftqgvvf00rzsweamy2</t>
+          <t>12tLs9c9RsALt4ockxa1hB4iTCTSmxj2me</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -747,38 +751,26 @@
       <c r="E6" t="b">
         <v>0</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Kraken</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>https://kraken.com</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>999784128</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1093501184</v>
       </c>
       <c r="M6" t="n">
-        <v>8396.4672106</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>10000.01141274</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -790,12 +782,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qymu2qf0d23qg38p9w7yxxt4yqjjg47rytxujl6</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qmnjn0l0kdf3m3d8khc6cukj8deakg8m588z24g</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>bc1qymu2qf0d23qg38p9w7yxxt4yqjjg47rytxujl6</t>
+          <t>bc1qmnjn0l0kdf3m3d8khc6cukj8deakg8m588z24g</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -813,20 +805,20 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>1088561408.539435</v>
+        <v>1093011840</v>
       </c>
       <c r="L7" t="n">
-        <v>1187211520</v>
+        <v>1187212032</v>
       </c>
       <c r="M7" t="n">
-        <v>10000.01249973</v>
+        <v>10000.01644915</v>
       </c>
       <c r="N7" t="n">
-        <v>10000.01318269</v>
+        <v>10000.0176144</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -838,12 +830,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qymu2qf0d23qg38p9w7yxxt4yqjjg47rytxujl6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
+          <t>bc1qymu2qf0d23qg38p9w7yxxt4yqjjg47rytxujl6</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -855,46 +847,26 @@
       <c r="E8" t="b">
         <v>0</v>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Binance</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>https://binance.com</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>21290772689.24112</v>
+        <v>1088561408.539435</v>
       </c>
       <c r="L8" t="n">
-        <v>21530446329.8727</v>
+        <v>1187211520</v>
       </c>
       <c r="M8" t="n">
-        <v>189421.47790661</v>
+        <v>10000.01249973</v>
       </c>
       <c r="N8" t="n">
-        <v>191748.21633754</v>
+        <v>10000.01318269</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -906,12 +878,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1KbDEg1tDz2ErYgaDbaDhhawnLrSQFaFx5</t>
+          <t>https://intel.arkm.com/explorer/address/1GcCK347TMbzHrRpDoVvJdR6eyECyqHCiU</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1KbDEg1tDz2ErYgaDbaDhhawnLrSQFaFx5</t>
+          <t>1GcCK347TMbzHrRpDoVvJdR6eyECyqHCiU</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -926,31 +898,23 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Binance Deposit</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>3805517823.105134</v>
+        <v>1093501199.304658</v>
       </c>
       <c r="L9" t="n">
-        <v>3802111961.782701</v>
+        <v>1187211392</v>
       </c>
       <c r="M9" t="n">
-        <v>33368.00606898</v>
+        <v>10000.01118361</v>
       </c>
       <c r="N9" t="n">
-        <v>33341.3661981</v>
+        <v>10000.01190736</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -962,12 +926,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qnzy2rr7g3688x62f8vrhgeclvtcs5hr50wzu0w</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qmuxrzvnx34j8y6h9leg4zen5gnw7wmfmgp8v2p</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>bc1qnzy2rr7g3688x62f8vrhgeclvtcs5hr50wzu0w</t>
+          <t>bc1qmuxrzvnx34j8y6h9leg4zen5gnw7wmfmgp8v2p</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -985,20 +949,20 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>1087781121.732832</v>
+        <v>2437598209.751775</v>
       </c>
       <c r="L10" t="n">
-        <v>1163921152</v>
+        <v>2341670148</v>
       </c>
       <c r="M10" t="n">
-        <v>10000.01010933</v>
+        <v>20009.34587762</v>
       </c>
       <c r="N10" t="n">
-        <v>10000.01023054</v>
+        <v>20010.00004194</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1010,12 +974,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/12tLs9c9RsALt4ockxa1hB4iTCTSmxj2me</t>
+          <t>https://intel.arkm.com/explorer/address/16Uz37Q6TfvK2UFTgamn3dyRjnP2Wtf4p2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12tLs9c9RsALt4ockxa1hB4iTCTSmxj2me</t>
+          <t>16Uz37Q6TfvK2UFTgamn3dyRjnP2Wtf4p2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1027,26 +991,38 @@
       <c r="E11" t="b">
         <v>0</v>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Cumberland DRW</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://cumberland.io</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1091921388.069607</v>
       </c>
       <c r="L11" t="n">
-        <v>1093501184</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>9852.904482129999</v>
       </c>
       <c r="N11" t="n">
-        <v>10000.01141274</v>
+        <v>0</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1058,12 +1034,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qr4dl5wa7kl8yu792dceg9z5knl2gkn220lk7a9</t>
+          <t>https://intel.arkm.com/explorer/address/14YK4mzJGo5NKkNnmVJeuEAQftLt795Gec</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>bc1qr4dl5wa7kl8yu792dceg9z5knl2gkn220lk7a9</t>
+          <t>14YK4mzJGo5NKkNnmVJeuEAQftLt795Gec</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1075,46 +1051,26 @@
       <c r="E12" t="b">
         <v>0</v>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Crypto.com</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>https://crypto.com</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>2951065356.052843</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2876640261.445534</v>
+        <v>1085633920</v>
       </c>
       <c r="M12" t="n">
-        <v>25824.68372793</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>25110.75594494</v>
+        <v>10000.03579381</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1126,12 +1082,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qsyp3gx0p4p4jzvekxjxkpk9vcjj37gvrlfn9ryx4jy6ne5nhu76s5xxw5d</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qv4r4zwvf5ckdx3llaykl0vez4fdaj4jh5yfjsw</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>bc1qsyp3gx0p4p4jzvekxjxkpk9vcjj37gvrlfn9ryx4jy6ne5nhu76s5xxw5d</t>
+          <t>bc1qv4r4zwvf5ckdx3llaykl0vez4fdaj4jh5yfjsw</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1143,46 +1099,26 @@
       <c r="E13" t="b">
         <v>0</v>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>OKX</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>https://okx.com</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>1578624033.75</v>
+        <v>10038889619.17064</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>10038922128</v>
       </c>
       <c r="M13" t="n">
-        <v>13604.93</v>
+        <v>90297.26804949</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>90297.26803948999</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1194,12 +1130,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q0d3k8zue8z5ztqt0r35rsd7gua5z4ser6gt46c</t>
+          <t>https://intel.arkm.com/explorer/address/1KbDEg1tDz2ErYgaDbaDhhawnLrSQFaFx5</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>bc1q0d3k8zue8z5ztqt0r35rsd7gua5z4ser6gt46c</t>
+          <t>1KbDEg1tDz2ErYgaDbaDhhawnLrSQFaFx5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1211,24 +1147,12 @@
       <c r="E14" t="b">
         <v>0</v>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Coinbase</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Binance Deposit</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1237,20 +1161,20 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>1545699303.303236</v>
+        <v>3805517823.105134</v>
       </c>
       <c r="L14" t="n">
-        <v>1585789070.696936</v>
+        <v>3802111961.782701</v>
       </c>
       <c r="M14" t="n">
-        <v>13490.0905119</v>
+        <v>33368.00606898</v>
       </c>
       <c r="N14" t="n">
-        <v>13854.27673749</v>
+        <v>33341.3661981</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1262,12 +1186,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qmqkjw3hhyp7n6eqyesqcqsvzw2tsumryv4v68s</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qr4dl5wa7kl8yu792dceg9z5knl2gkn220lk7a9</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>bc1qmqkjw3hhyp7n6eqyesqcqsvzw2tsumryv4v68s</t>
+          <t>bc1qr4dl5wa7kl8yu792dceg9z5knl2gkn220lk7a9</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1279,26 +1203,46 @@
       <c r="E15" t="b">
         <v>0</v>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Crypto.com</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://crypto.com</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K15" t="n">
-        <v>1217587328</v>
+        <v>2951065356.052843</v>
       </c>
       <c r="L15" t="n">
-        <v>1219008640</v>
+        <v>2876640261.445534</v>
       </c>
       <c r="M15" t="n">
-        <v>10009.2675598</v>
+        <v>25824.68372793</v>
       </c>
       <c r="N15" t="n">
-        <v>10009.2675598</v>
+        <v>25110.75594494</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1310,12 +1254,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q2lkyqvqqwus9pl96krgtk4rh0fqu8gtmpuwgmc</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q84w6epn6uce9s85slt7q6emm3qfzz7ngq7ef6k</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>bc1q2lkyqvqqwus9pl96krgtk4rh0fqu8gtmpuwgmc</t>
+          <t>bc1q84w6epn6uce9s85slt7q6emm3qfzz7ngq7ef6k</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1333,20 +1277,20 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>1085633792</v>
+        <v>1079018496.325428</v>
       </c>
       <c r="L16" t="n">
-        <v>1198864256</v>
+        <v>1218589568</v>
       </c>
       <c r="M16" t="n">
-        <v>10000.03540378</v>
+        <v>10000.07817266</v>
       </c>
       <c r="N16" t="n">
-        <v>10000.0355818</v>
+        <v>10000.07837612</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1358,12 +1302,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q8n7glayx5hrzgcqkxjs4qta0mepc3x2hlrx9ar</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qq8n50dxhnrq4uu4f5wlnuv6hd0w8g7hxg3yn9s</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>bc1q8n7glayx5hrzgcqkxjs4qta0mepc3x2hlrx9ar</t>
+          <t>bc1qq8n50dxhnrq4uu4f5wlnuv6hd0w8g7hxg3yn9s</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1377,7 +1321,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>SBI VC Trade</t>
+          <t>Bitfinex</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1387,26 +1331,26 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.sbivc.co.jp/</t>
+          <t>https://bitfinex.com</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>1041820784</v>
+        <v>952576000</v>
       </c>
       <c r="L17" t="n">
-        <v>1039178992</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>9600</v>
+        <v>8000</v>
       </c>
       <c r="N17" t="n">
-        <v>9600.00001</v>
+        <v>0</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1418,12 +1362,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3JZq4atUahhuA9rLhXLMhhTo133J9rF97j</t>
+          <t>https://intel.arkm.com/explorer/address/1f1miYFQWTzdLiCBxtHHnNiW7WAWPUccr</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3JZq4atUahhuA9rLhXLMhhTo133J9rF97j</t>
+          <t>1f1miYFQWTzdLiCBxtHHnNiW7WAWPUccr</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1435,46 +1379,26 @@
       <c r="E18" t="b">
         <v>0</v>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Bitfinex</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>https://bitfinex.com</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>1003027071</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1079689216</v>
       </c>
       <c r="M18" t="n">
-        <v>8649.283740000001</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>10009.26342775</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1486,12 +1410,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1KbrSKrT3GeEruTuuYYUSQ35JwKbrAWJYm</t>
+          <t>https://intel.arkm.com/explorer/address/1GrwDkr33gT6LuumniYjKEGjTLhsL5kmqC</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1KbrSKrT3GeEruTuuYYUSQ35JwKbrAWJYm</t>
+          <t>1GrwDkr33gT6LuumniYjKEGjTLhsL5kmqC</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1503,26 +1427,46 @@
       <c r="E19" t="b">
         <v>0</v>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Bybit</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://bybit.com</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>3103203175.283098</v>
       </c>
       <c r="L19" t="n">
-        <v>1093011840</v>
+        <v>3196066655.953699</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>27490.46508329</v>
       </c>
       <c r="N19" t="n">
-        <v>10000.01691126</v>
+        <v>28380.06611066</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1534,12 +1478,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1JQULE6yHr9UaitLr4wahTwJN7DaMX7W1Z</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qq8qvezre6d0fw3q4ht03rj029y4d8ylh7atjty</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1JQULE6yHr9UaitLr4wahTwJN7DaMX7W1Z</t>
+          <t>bc1qq8qvezre6d0fw3q4ht03rj029y4d8ylh7atjty</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1551,46 +1495,26 @@
       <c r="E20" t="b">
         <v>0</v>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>OKX</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>https://okx.com</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>2397605632</v>
       </c>
       <c r="L20" t="n">
-        <v>1175022528</v>
+        <v>2307939952</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>19999.04591292</v>
       </c>
       <c r="N20" t="n">
-        <v>9999</v>
+        <v>19500.04595558</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1602,12 +1526,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q7cyrfmck2ffu2ud3rn5l5a8yv6f0chkp0zpemf</t>
+          <t>https://intel.arkm.com/explorer/address/bc1p2mlwrss9tmvtfvu0tcxul2h0w67ej8vyjpj3ksctt67vd9r752ksqx6uqm</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>bc1q7cyrfmck2ffu2ud3rn5l5a8yv6f0chkp0zpemf</t>
+          <t>bc1p2mlwrss9tmvtfvu0tcxul2h0w67ej8vyjpj3ksctt67vd9r752ksqx6uqm</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1619,46 +1543,26 @@
       <c r="E21" t="b">
         <v>0</v>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Crypto.com</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>https://crypto.com</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>1672219186.534928</v>
+        <v>2178601035.147053</v>
       </c>
       <c r="L21" t="n">
-        <v>1763720862.490482</v>
+        <v>2178419465.602018</v>
       </c>
       <c r="M21" t="n">
-        <v>14924.00999199</v>
+        <v>19668.41791853</v>
       </c>
       <c r="N21" t="n">
-        <v>15739.81301428</v>
+        <v>19668.41791853</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -1670,12 +1574,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3LHZNTmeQqzKqqGLXUDxq7uGUX59qDvoEU</t>
+          <t>https://intel.arkm.com/explorer/address/3M219KR5vEneNb47ewrPfWyb5jQ2DjxRP6</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3LHZNTmeQqzKqqGLXUDxq7uGUX59qDvoEU</t>
+          <t>3M219KR5vEneNb47ewrPfWyb5jQ2DjxRP6</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1689,7 +1593,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Crypto.com</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1699,26 +1603,34 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://crypto.com</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K22" t="n">
-        <v>1546650503.27523</v>
+        <v>994682944</v>
       </c>
       <c r="L22" t="n">
-        <v>1485306775.58223</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>13647.62804652</v>
+        <v>8505.271000000001</v>
       </c>
       <c r="N22" t="n">
-        <v>13112.19805652</v>
+        <v>0</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -1730,12 +1642,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3MqUP6G1daVS5YTD8fz3QgwjZortWwxXFd</t>
+          <t>https://intel.arkm.com/explorer/address/bc1quhruqrghgcca950rvhtrg7cpd7u8k6svpzgzmrjy8xyukacl5lkq0r8l2d</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3MqUP6G1daVS5YTD8fz3QgwjZortWwxXFd</t>
+          <t>bc1quhruqrghgcca950rvhtrg7cpd7u8k6svpzgzmrjy8xyukacl5lkq0r8l2d</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1749,7 +1661,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Coinbase Prime</t>
+          <t>OKX</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1759,7 +1671,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.coinbase.com/prime</t>
+          <t>https://okx.com</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1773,20 +1685,20 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>17766894475.65613</v>
+        <v>3815554863.115694</v>
       </c>
       <c r="L23" t="n">
-        <v>17779726693.18389</v>
+        <v>3812942291.812465</v>
       </c>
       <c r="M23" t="n">
-        <v>158251.80987158</v>
+        <v>33679.54318357</v>
       </c>
       <c r="N23" t="n">
-        <v>158304.18278307</v>
+        <v>33637.55491424001</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -1798,12 +1710,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qs4nzm0je7wqfyfmqr4ht4upyzy57vc95nf4au0</t>
+          <t>https://intel.arkm.com/explorer/address/38MfJkxPkpwsZxkyfESwjdaKBdXrV8DpWr</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>bc1qs4nzm0je7wqfyfmqr4ht4upyzy57vc95nf4au0</t>
+          <t>38MfJkxPkpwsZxkyfESwjdaKBdXrV8DpWr</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1815,26 +1727,38 @@
       <c r="E24" t="b">
         <v>0</v>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>4771465384</v>
+        <v>2266713466.398764</v>
       </c>
       <c r="L24" t="n">
-        <v>4791695328</v>
+        <v>2284704774.552862</v>
       </c>
       <c r="M24" t="n">
-        <v>40190.59549181</v>
+        <v>20203.30241</v>
       </c>
       <c r="N24" t="n">
-        <v>39840.00007509</v>
+        <v>20390.60341</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -1846,12 +1770,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qmuxrzvnx34j8y6h9leg4zen5gnw7wmfmgp8v2p</t>
+          <t>https://intel.arkm.com/explorer/address/1P1iThxBH542Gmk1kZNXyji4E4iwpvSbrt</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>bc1qmuxrzvnx34j8y6h9leg4zen5gnw7wmfmgp8v2p</t>
+          <t>1P1iThxBH542Gmk1kZNXyji4E4iwpvSbrt</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1869,20 +1793,20 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>2437598209.751775</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>2341670148</v>
+        <v>1088561408</v>
       </c>
       <c r="M25" t="n">
-        <v>20009.34587762</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>20010.00004194</v>
+        <v>10000.01287044</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -1894,12 +1818,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qwq5geath93h0lnfsrmnwnfuck2f9ypv4ewyl4j</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qhtawge4km6juhlkrnvt7qjahhsc96qdlgf3c8t</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>bc1qwq5geath93h0lnfsrmnwnfuck2f9ypv4ewyl4j</t>
+          <t>bc1qhtawge4km6juhlkrnvt7qjahhsc96qdlgf3c8t</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1917,20 +1841,20 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>1079689217.07986</v>
+        <v>1080741120</v>
       </c>
       <c r="L26" t="n">
-        <v>1217587456</v>
+        <v>1195891200</v>
       </c>
       <c r="M26" t="n">
-        <v>10009.26286108</v>
+        <v>10000.01038733</v>
       </c>
       <c r="N26" t="n">
-        <v>10009.26857483</v>
+        <v>10000.01043845</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -1942,12 +1866,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1QKbykDpxrKLYrjzS9G8gPvHQGSEL3njUT</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qklv9x7qpmvkrjpxhjelcsz06y7zr0szwxr35j9</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1QKbykDpxrKLYrjzS9G8gPvHQGSEL3njUT</t>
+          <t>bc1qklv9x7qpmvkrjpxhjelcsz06y7zr0szwxr35j9</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1959,38 +1883,26 @@
       <c r="E27" t="b">
         <v>0</v>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Coinbase</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>857311872</v>
+        <v>1163804800</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1193791872</v>
       </c>
       <c r="M27" t="n">
-        <v>7999.99851357</v>
+        <v>9999.010206000001</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>9999.010206000001</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2002,12 +1914,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1CPaziTqeEixPoSFtJxu74uDGbpEAotZom</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qzj47ptd3j9eqltrvhqgv3yz35cscvuncqsegsv</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1CPaziTqeEixPoSFtJxu74uDGbpEAotZom</t>
+          <t>bc1qzj47ptd3j9eqltrvhqgv3yz35cscvuncqsegsv</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2025,20 +1937,20 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1193672448</v>
       </c>
       <c r="L28" t="n">
-        <v>1087781120</v>
+        <v>1186973824</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>9998.010172</v>
       </c>
       <c r="N28" t="n">
-        <v>10000.01038616</v>
+        <v>9998.010172</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2050,12 +1962,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qmnjn0l0kdf3m3d8khc6cukj8deakg8m588z24g</t>
+          <t>https://intel.arkm.com/explorer/address/1CP2DCkjijP9uQJiyCntNDBPx96QSexo9</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>bc1qmnjn0l0kdf3m3d8khc6cukj8deakg8m588z24g</t>
+          <t>1CP2DCkjijP9uQJiyCntNDBPx96QSexo9</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2067,26 +1979,38 @@
       <c r="E29" t="b">
         <v>0</v>
       </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>1093011840</v>
+        <v>860570624</v>
       </c>
       <c r="L29" t="n">
-        <v>1187212032</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>10000.01644915</v>
+        <v>8022.02397004</v>
       </c>
       <c r="N29" t="n">
-        <v>10000.0176144</v>
+        <v>0</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2098,12 +2022,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/14YK4mzJGo5NKkNnmVJeuEAQftLt795Gec</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q8s3h3vw5xufdas890q29lpuca56r0ezqar0mvs</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>14YK4mzJGo5NKkNnmVJeuEAQftLt795Gec</t>
+          <t>bc1q8s3h3vw5xufdas890q29lpuca56r0ezqar0mvs</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2115,26 +2039,38 @@
       <c r="E30" t="b">
         <v>0</v>
       </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Cumberland DRW</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>https://cumberland.io</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>2574484890.746468</v>
       </c>
       <c r="L30" t="n">
-        <v>1085633920</v>
+        <v>2623958088.323692</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>22843.85777068</v>
       </c>
       <c r="N30" t="n">
-        <v>10000.03579381</v>
+        <v>23342.82531357</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2146,12 +2082,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q0phej5lfqc8ed69f53l5mxw78svx878lgpqesl</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qsyp3gx0p4p4jzvekxjxkpk9vcjj37gvrlfn9ryx4jy6ne5nhu76s5xxw5d</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>bc1q0phej5lfqc8ed69f53l5mxw78svx878lgpqesl</t>
+          <t>bc1qsyp3gx0p4p4jzvekxjxkpk9vcjj37gvrlfn9ryx4jy6ne5nhu76s5xxw5d</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2165,36 +2101,44 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Galaxy Digital</t>
+          <t>OKX</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.galaxy.com/</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+          <t>https://okx.com</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K31" t="n">
-        <v>9497986513.097153</v>
+        <v>1578624033.75</v>
       </c>
       <c r="L31" t="n">
-        <v>4877853047.781612</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>79784.84211498</v>
+        <v>13604.93</v>
       </c>
       <c r="N31" t="n">
-        <v>41322.13367104</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2206,12 +2150,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q9exg34dkmgxu28yektgn929jpjpzukhhl2r3zr</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q2lkyqvqqwus9pl96krgtk4rh0fqu8gtmpuwgmc</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>bc1q9exg34dkmgxu28yektgn929jpjpzukhhl2r3zr</t>
+          <t>bc1q2lkyqvqqwus9pl96krgtk4rh0fqu8gtmpuwgmc</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2223,46 +2167,26 @@
       <c r="E32" t="b">
         <v>0</v>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Wintermute</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>https://www.wintermute.com/</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>3135213824.408474</v>
+        <v>1085633792</v>
       </c>
       <c r="L32" t="n">
-        <v>3139474489.419553</v>
+        <v>1198864256</v>
       </c>
       <c r="M32" t="n">
-        <v>27919.19380859</v>
+        <v>10000.03540378</v>
       </c>
       <c r="N32" t="n">
-        <v>27935.18806602</v>
+        <v>10000.0355818</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -2274,12 +2198,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qpa5uhy6yc4jnj4et5dxyvzhx7wtqrzt7a43klg</t>
+          <t>https://intel.arkm.com/explorer/address/1CPaziTqeEixPoSFtJxu74uDGbpEAotZom</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>bc1qpa5uhy6yc4jnj4et5dxyvzhx7wtqrzt7a43klg</t>
+          <t>1CPaziTqeEixPoSFtJxu74uDGbpEAotZom</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2291,38 +2215,26 @@
       <c r="E33" t="b">
         <v>0</v>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Galaxy Digital</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>https://www.galaxy.com/</t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>1555119807.474609</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>1536971483.50568</v>
+        <v>1087781120</v>
       </c>
       <c r="M33" t="n">
-        <v>13389.16452155</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>13212.17531307</v>
+        <v>10000.01038616</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -2334,12 +2246,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/16Uz37Q6TfvK2UFTgamn3dyRjnP2Wtf4p2</t>
+          <t>https://intel.arkm.com/explorer/address/15DomY3arDPw5jD658Mbf3AY3wT3YCDmW2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16Uz37Q6TfvK2UFTgamn3dyRjnP2Wtf4p2</t>
+          <t>15DomY3arDPw5jD658Mbf3AY3wT3YCDmW2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2353,7 +2265,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Cumberland DRW</t>
+          <t>Wintermute</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2363,26 +2275,34 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://cumberland.io</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K34" t="n">
-        <v>1091921388.069607</v>
+        <v>4325262713.96552</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>4386898347</v>
       </c>
       <c r="M34" t="n">
-        <v>9852.904482129999</v>
+        <v>38996.51355908</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>39527.31355908</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -2394,12 +2314,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3M219KR5vEneNb47ewrPfWyb5jQ2DjxRP6</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q9exg34dkmgxu28yektgn929jpjpzukhhl2r3zr</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3M219KR5vEneNb47ewrPfWyb5jQ2DjxRP6</t>
+          <t>bc1q9exg34dkmgxu28yektgn929jpjpzukhhl2r3zr</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2413,22 +2333,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Wintermute</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
+          <t>https://www.wintermute.com/</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2437,20 +2357,20 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>994682944</v>
+        <v>3135213824.408474</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>3139474489.419553</v>
       </c>
       <c r="M35" t="n">
-        <v>8505.271000000001</v>
+        <v>27919.19380859</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>27935.18806602</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -2462,12 +2382,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1CP2DCkjijP9uQJiyCntNDBPx96QSexo9</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qn2cpj0hrl37wqh5q94kwrlhtj2lx8ahtw7ef5rg35tswxsqtvufqfmmrq2</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1CP2DCkjijP9uQJiyCntNDBPx96QSexo9</t>
+          <t>bc1qn2cpj0hrl37wqh5q94kwrlhtj2lx8ahtw7ef5rg35tswxsqtvufqfmmrq2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2481,7 +2401,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>OKX</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2491,26 +2411,34 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+          <t>https://okx.com</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K36" t="n">
-        <v>860570624</v>
+        <v>2922170618.109495</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>2857386172.338711</v>
       </c>
       <c r="M36" t="n">
-        <v>8022.02397004</v>
+        <v>25804.1928479</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>25256.18026518</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -2522,12 +2450,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1P1iThxBH542Gmk1kZNXyji4E4iwpvSbrt</t>
+          <t>https://intel.arkm.com/explorer/address/12XZMdaAGmcHf4ocFSqpd8jFd1WH7RHUPs</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1P1iThxBH542Gmk1kZNXyji4E4iwpvSbrt</t>
+          <t>12XZMdaAGmcHf4ocFSqpd8jFd1WH7RHUPs</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2539,26 +2467,46 @@
       <c r="E37" t="b">
         <v>0</v>
       </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Bybit</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>https://bybit.com</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Bybit Deposit</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>2210024111.952049</v>
       </c>
       <c r="L37" t="n">
-        <v>1088561408</v>
+        <v>2134796704.335495</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>18959.01902314</v>
       </c>
       <c r="N37" t="n">
-        <v>10000.01287044</v>
+        <v>18294.8491127</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -2570,12 +2518,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3LUATjKp4YfmCSSiN1h3juwrqNTyksXAjp</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qrn8pjas098hfn42d578v6vxg4nh6kn4dvdeevy</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3LUATjKp4YfmCSSiN1h3juwrqNTyksXAjp</t>
+          <t>bc1qrn8pjas098hfn42d578v6vxg4nh6kn4dvdeevy</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2587,46 +2535,26 @@
       <c r="E38" t="b">
         <v>0</v>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Fidelity FBTC ETF Inflows</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>https://www.fidelity.com/</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>FBTC Inflows (Fidelity Custody Deposit)</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1195771648</v>
       </c>
       <c r="L38" t="n">
-        <v>997369272</v>
+        <v>1198741376</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>9999.010393</v>
       </c>
       <c r="N38" t="n">
-        <v>8927.287302250001</v>
+        <v>9999.010393</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -2638,12 +2566,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1p2mlwrss9tmvtfvu0tcxul2h0w67ej8vyjpj3ksctt67vd9r752ksqx6uqm</t>
+          <t>https://intel.arkm.com/explorer/address/3MqUP6G1daVS5YTD8fz3QgwjZortWwxXFd</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>bc1p2mlwrss9tmvtfvu0tcxul2h0w67ej8vyjpj3ksctt67vd9r752ksqx6uqm</t>
+          <t>3MqUP6G1daVS5YTD8fz3QgwjZortWwxXFd</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2655,26 +2583,46 @@
       <c r="E39" t="b">
         <v>0</v>
       </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Coinbase Prime</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>https://www.coinbase.com/prime</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K39" t="n">
-        <v>2178601035.147053</v>
+        <v>17766894475.65613</v>
       </c>
       <c r="L39" t="n">
-        <v>2178419465.602018</v>
+        <v>17779726693.18389</v>
       </c>
       <c r="M39" t="n">
-        <v>19668.41791853</v>
+        <v>158251.80987158</v>
       </c>
       <c r="N39" t="n">
-        <v>19668.41791853</v>
+        <v>158304.18278307</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -2686,12 +2634,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qrn8pjas098hfn42d578v6vxg4nh6kn4dvdeevy</t>
+          <t>https://intel.arkm.com/explorer/address/3KXwpcwggRsACLkFdfCVMU5ZA4tcLxdN6T</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>bc1qrn8pjas098hfn42d578v6vxg4nh6kn4dvdeevy</t>
+          <t>3KXwpcwggRsACLkFdfCVMU5ZA4tcLxdN6T</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2703,26 +2651,46 @@
       <c r="E40" t="b">
         <v>0</v>
       </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Kraken</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>https://kraken.com</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Kraken Deposit</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K40" t="n">
-        <v>1195771648</v>
+        <v>10038918666.44138</v>
       </c>
       <c r="L40" t="n">
-        <v>1198741376</v>
+        <v>11309450267.63957</v>
       </c>
       <c r="M40" t="n">
-        <v>9999.010393</v>
+        <v>90297.23736832</v>
       </c>
       <c r="N40" t="n">
-        <v>9999.010393</v>
+        <v>101571.63448562</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -2734,12 +2702,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3KXwpcwggRsACLkFdfCVMU5ZA4tcLxdN6T</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q0phej5lfqc8ed69f53l5mxw78svx878lgpqesl</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3KXwpcwggRsACLkFdfCVMU5ZA4tcLxdN6T</t>
+          <t>bc1q0phej5lfqc8ed69f53l5mxw78svx878lgpqesl</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2753,44 +2721,36 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Kraken</t>
+          <t>Galaxy Digital</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://kraken.com</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Kraken Deposit</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://www.galaxy.com/</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>10038918666.44138</v>
+        <v>9497986513.097153</v>
       </c>
       <c r="L41" t="n">
-        <v>11309450267.63957</v>
+        <v>4877853047.781612</v>
       </c>
       <c r="M41" t="n">
-        <v>90297.23736832</v>
+        <v>79784.84211498</v>
       </c>
       <c r="N41" t="n">
-        <v>101571.63448562</v>
+        <v>41322.13367104</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -2802,12 +2762,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/38MfJkxPkpwsZxkyfESwjdaKBdXrV8DpWr</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qs4nzm0je7wqfyfmqr4ht4upyzy57vc95nf4au0</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>38MfJkxPkpwsZxkyfESwjdaKBdXrV8DpWr</t>
+          <t>bc1qs4nzm0je7wqfyfmqr4ht4upyzy57vc95nf4au0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2819,38 +2779,26 @@
       <c r="E42" t="b">
         <v>0</v>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Coinbase</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>2266713466.398764</v>
+        <v>4771465384</v>
       </c>
       <c r="L42" t="n">
-        <v>2284704774.552862</v>
+        <v>4791695328</v>
       </c>
       <c r="M42" t="n">
-        <v>20203.30241</v>
+        <v>40190.59549181</v>
       </c>
       <c r="N42" t="n">
-        <v>20390.60341</v>
+        <v>39840.00007509</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -2862,12 +2810,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/12XZMdaAGmcHf4ocFSqpd8jFd1WH7RHUPs</t>
+          <t>https://intel.arkm.com/explorer/address/3LHZNTmeQqzKqqGLXUDxq7uGUX59qDvoEU</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>12XZMdaAGmcHf4ocFSqpd8jFd1WH7RHUPs</t>
+          <t>3LHZNTmeQqzKqqGLXUDxq7uGUX59qDvoEU</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2881,7 +2829,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Bybit</t>
+          <t>Crypto.com</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2891,34 +2839,26 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://bybit.com</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Bybit Deposit</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://crypto.com</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>2210024111.952049</v>
+        <v>1546650503.27523</v>
       </c>
       <c r="L43" t="n">
-        <v>2134796704.335495</v>
+        <v>1485306775.58223</v>
       </c>
       <c r="M43" t="n">
-        <v>18959.01902314</v>
+        <v>13647.62804652</v>
       </c>
       <c r="N43" t="n">
-        <v>18294.8491127</v>
+        <v>13112.19805652</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -2930,12 +2870,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1GcCK347TMbzHrRpDoVvJdR6eyECyqHCiU</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q0d3k8zue8z5ztqt0r35rsd7gua5z4ser6gt46c</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1GcCK347TMbzHrRpDoVvJdR6eyECyqHCiU</t>
+          <t>bc1q0d3k8zue8z5ztqt0r35rsd7gua5z4ser6gt46c</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2947,26 +2887,46 @@
       <c r="E44" t="b">
         <v>0</v>
       </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K44" t="n">
-        <v>1093501199.304658</v>
+        <v>1545699303.303236</v>
       </c>
       <c r="L44" t="n">
-        <v>1187211392</v>
+        <v>1585789070.696936</v>
       </c>
       <c r="M44" t="n">
-        <v>10000.01118361</v>
+        <v>13490.0905119</v>
       </c>
       <c r="N44" t="n">
-        <v>10000.01190736</v>
+        <v>13854.27673749</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -2978,12 +2938,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qlt5nm3kflne7rht4alsnzdzad878ld5rcu4na0</t>
+          <t>https://intel.arkm.com/explorer/address/16XU9wjEVUNvc45qRYXS7qYGeJQdnTf8L3</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>bc1qlt5nm3kflne7rht4alsnzdzad878ld5rcu4na0</t>
+          <t>16XU9wjEVUNvc45qRYXS7qYGeJQdnTf8L3</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2997,7 +2957,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Crypto.com</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3007,34 +2967,26 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://crypto.com</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>1006921479.797668</v>
+        <v>858175808</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>8492.4304156</v>
+        <v>7999.99844251</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -3046,12 +2998,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3P8dPqoHYcFVB7ki86tE6gSsrDYRuW3MbA</t>
+          <t>https://intel.arkm.com/explorer/address/1JQULE6yHr9UaitLr4wahTwJN7DaMX7W1Z</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3P8dPqoHYcFVB7ki86tE6gSsrDYRuW3MbA</t>
+          <t>1JQULE6yHr9UaitLr4wahTwJN7DaMX7W1Z</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3063,12 +3015,24 @@
       <c r="E46" t="b">
         <v>0</v>
       </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>OKX</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>https://okx.com</t>
+        </is>
+      </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Coinbase Prime Deposit</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3077,20 +3041,20 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>1656260820</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>1655407830</v>
+        <v>1175022528</v>
       </c>
       <c r="M46" t="n">
-        <v>14648</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>14648</v>
+        <v>9999</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -3102,12 +3066,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1quhruqrghgcca950rvhtrg7cpd7u8k6svpzgzmrjy8xyukacl5lkq0r8l2d</t>
+          <t>https://intel.arkm.com/explorer/address/3LUATjKp4YfmCSSiN1h3juwrqNTyksXAjp</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>bc1quhruqrghgcca950rvhtrg7cpd7u8k6svpzgzmrjy8xyukacl5lkq0r8l2d</t>
+          <t>3LUATjKp4YfmCSSiN1h3juwrqNTyksXAjp</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3121,22 +3085,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>OKX</t>
+          <t>Fidelity FBTC ETF Inflows</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://okx.com</t>
+          <t>https://www.fidelity.com/</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>FBTC Inflows (Fidelity Custody Deposit)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3145,20 +3109,20 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>3815554863.115694</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>3812942291.812465</v>
+        <v>997369272</v>
       </c>
       <c r="M47" t="n">
-        <v>33679.54318357</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>33637.55491424001</v>
+        <v>8927.287302250001</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -3170,12 +3134,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qq8qvezre6d0fw3q4ht03rj029y4d8ylh7atjty</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qmqkjw3hhyp7n6eqyesqcqsvzw2tsumryv4v68s</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>bc1qq8qvezre6d0fw3q4ht03rj029y4d8ylh7atjty</t>
+          <t>bc1qmqkjw3hhyp7n6eqyesqcqsvzw2tsumryv4v68s</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3193,20 +3157,20 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>2397605632</v>
+        <v>1217587328</v>
       </c>
       <c r="L48" t="n">
-        <v>2307939952</v>
+        <v>1219008640</v>
       </c>
       <c r="M48" t="n">
-        <v>19999.04591292</v>
+        <v>10009.2675598</v>
       </c>
       <c r="N48" t="n">
-        <v>19500.04595558</v>
+        <v>10009.2675598</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -3218,12 +3182,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qhtawge4km6juhlkrnvt7qjahhsc96qdlgf3c8t</t>
+          <t>https://intel.arkm.com/explorer/address/3JZq4atUahhuA9rLhXLMhhTo133J9rF97j</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>bc1qhtawge4km6juhlkrnvt7qjahhsc96qdlgf3c8t</t>
+          <t>3JZq4atUahhuA9rLhXLMhhTo133J9rF97j</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3235,26 +3199,46 @@
       <c r="E49" t="b">
         <v>0</v>
       </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Bitfinex</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>https://bitfinex.com</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K49" t="n">
-        <v>1080741120</v>
+        <v>1003027071</v>
       </c>
       <c r="L49" t="n">
-        <v>1195891200</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>10000.01038733</v>
+        <v>8649.283740000001</v>
       </c>
       <c r="N49" t="n">
-        <v>10000.01043845</v>
+        <v>0</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -3266,12 +3250,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qzj47ptd3j9eqltrvhqgv3yz35cscvuncqsegsv</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qpy3vutdmmc7mthwjlz68qv30c2u6xcjukyur8w8gftqgvvf00rzsweamy2</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>bc1qzj47ptd3j9eqltrvhqgv3yz35cscvuncqsegsv</t>
+          <t>bc1qpy3vutdmmc7mthwjlz68qv30c2u6xcjukyur8w8gftqgvvf00rzsweamy2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3283,26 +3267,38 @@
       <c r="E50" t="b">
         <v>0</v>
       </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Kraken</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>https://kraken.com</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>1193672448</v>
+        <v>999784128</v>
       </c>
       <c r="L50" t="n">
-        <v>1186973824</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>9998.010172</v>
+        <v>8396.4672106</v>
       </c>
       <c r="N50" t="n">
-        <v>9998.010172</v>
+        <v>0</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -3314,12 +3310,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/16XU9wjEVUNvc45qRYXS7qYGeJQdnTf8L3</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16XU9wjEVUNvc45qRYXS7qYGeJQdnTf8L3</t>
+          <t>bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3333,7 +3329,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3343,26 +3339,34 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K51" t="n">
-        <v>858175808</v>
+        <v>21290772689.24112</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>21530446329.8727</v>
       </c>
       <c r="M51" t="n">
-        <v>7999.99844251</v>
+        <v>189421.47790661</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>191748.21633754</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -3374,12 +3378,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1ucXXZQSEf4zny2HRwAQKtVpkLPTUKRtt</t>
+          <t>https://intel.arkm.com/explorer/address/12DezRFkKToAiLTDNru1g7FuvtAWMwCZ7N</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1ucXXZQSEf4zny2HRwAQKtVpkLPTUKRtt</t>
+          <t>12DezRFkKToAiLTDNru1g7FuvtAWMwCZ7N</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3391,26 +3395,46 @@
       <c r="E52" t="b">
         <v>0</v>
       </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>2964094498.113575</v>
       </c>
       <c r="L52" t="n">
-        <v>1080741120</v>
+        <v>2963483039.773438</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>26449.66624099</v>
       </c>
       <c r="N52" t="n">
-        <v>10000.0107112</v>
+        <v>26450.87332013</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -3422,12 +3446,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q8s3h3vw5xufdas890q29lpuca56r0ezqar0mvs</t>
+          <t>https://intel.arkm.com/explorer/address/1DLeNApsHNNzUMNZJVoXeyEY5sdp8vzx3w</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>bc1q8s3h3vw5xufdas890q29lpuca56r0ezqar0mvs</t>
+          <t>1DLeNApsHNNzUMNZJVoXeyEY5sdp8vzx3w</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3441,36 +3465,44 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Cumberland DRW</t>
+          <t>Bybit</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://cumberland.io</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+          <t>https://bybit.com</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Bybit Deposit</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K53" t="n">
-        <v>2574484890.746468</v>
+        <v>1845747267.894043</v>
       </c>
       <c r="L53" t="n">
-        <v>2623958088.323692</v>
+        <v>1771963860.944458</v>
       </c>
       <c r="M53" t="n">
-        <v>22843.85777068</v>
+        <v>15696.59509998</v>
       </c>
       <c r="N53" t="n">
-        <v>23342.82531357</v>
+        <v>15060.39905943</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -3482,12 +3514,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1f1miYFQWTzdLiCBxtHHnNiW7WAWPUccr</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q7cyrfmck2ffu2ud3rn5l5a8yv6f0chkp0zpemf</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1f1miYFQWTzdLiCBxtHHnNiW7WAWPUccr</t>
+          <t>bc1q7cyrfmck2ffu2ud3rn5l5a8yv6f0chkp0zpemf</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3499,26 +3531,46 @@
       <c r="E54" t="b">
         <v>0</v>
       </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Crypto.com</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>https://crypto.com</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>1672219186.534928</v>
       </c>
       <c r="L54" t="n">
-        <v>1079689216</v>
+        <v>1763720862.490482</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>14924.00999199</v>
       </c>
       <c r="N54" t="n">
-        <v>10009.26342775</v>
+        <v>15739.81301428</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -3530,12 +3582,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/12DezRFkKToAiLTDNru1g7FuvtAWMwCZ7N</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qwq5geath93h0lnfsrmnwnfuck2f9ypv4ewyl4j</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>12DezRFkKToAiLTDNru1g7FuvtAWMwCZ7N</t>
+          <t>bc1qwq5geath93h0lnfsrmnwnfuck2f9ypv4ewyl4j</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3547,46 +3599,26 @@
       <c r="E55" t="b">
         <v>0</v>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Coinbase</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>2964094498.113575</v>
+        <v>1079689217.07986</v>
       </c>
       <c r="L55" t="n">
-        <v>2963483039.773438</v>
+        <v>1217587456</v>
       </c>
       <c r="M55" t="n">
-        <v>26449.66624099</v>
+        <v>10009.26286108</v>
       </c>
       <c r="N55" t="n">
-        <v>26450.87332013</v>
+        <v>10009.26857483</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -3598,12 +3630,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qn2cpj0hrl37wqh5q94kwrlhtj2lx8ahtw7ef5rg35tswxsqtvufqfmmrq2</t>
+          <t>https://intel.arkm.com/explorer/address/1QKbykDpxrKLYrjzS9G8gPvHQGSEL3njUT</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>bc1qn2cpj0hrl37wqh5q94kwrlhtj2lx8ahtw7ef5rg35tswxsqtvufqfmmrq2</t>
+          <t>1QKbykDpxrKLYrjzS9G8gPvHQGSEL3njUT</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3617,7 +3649,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>OKX</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3627,34 +3659,26 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://okx.com</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>2922170618.109495</v>
+        <v>857311872</v>
       </c>
       <c r="L56" t="n">
-        <v>2857386172.338711</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>25804.1928479</v>
+        <v>7999.99851357</v>
       </c>
       <c r="N56" t="n">
-        <v>25256.18026518</v>
+        <v>0</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -3666,12 +3690,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1BAFWQhH9pNkz3mZDQ1tWrtKkSHVCkc3fV</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qlt5nm3kflne7rht4alsnzdzad878ld5rcu4na0</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1BAFWQhH9pNkz3mZDQ1tWrtKkSHVCkc3fV</t>
+          <t>bc1qlt5nm3kflne7rht4alsnzdzad878ld5rcu4na0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3683,26 +3707,46 @@
       <c r="E57" t="b">
         <v>0</v>
       </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Crypto.com</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>https://crypto.com</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>1006921479.797668</v>
       </c>
       <c r="L57" t="n">
-        <v>1079018496</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>8492.4304156</v>
       </c>
       <c r="N57" t="n">
-        <v>10000.07852233</v>
+        <v>0</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -3714,12 +3758,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q69ydwymww89nsudsxnhped0c9zf5jpzgsq8hfqk2ry8x4w5jz2uskwtwt9</t>
+          <t>https://intel.arkm.com/explorer/address/1BAFWQhH9pNkz3mZDQ1tWrtKkSHVCkc3fV</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>bc1q69ydwymww89nsudsxnhped0c9zf5jpzgsq8hfqk2ry8x4w5jz2uskwtwt9</t>
+          <t>1BAFWQhH9pNkz3mZDQ1tWrtKkSHVCkc3fV</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3731,46 +3775,26 @@
       <c r="E58" t="b">
         <v>0</v>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Kraken</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>https://kraken.com</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>Kraken Deposit</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>1376414321.5</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>1473339729.701309</v>
+        <v>1079018496</v>
       </c>
       <c r="M58" t="n">
-        <v>11774.77592249</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>12560.58366647</v>
+        <v>10000.07852233</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -3782,12 +3806,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1GrwDkr33gT6LuumniYjKEGjTLhsL5kmqC</t>
+          <t>https://intel.arkm.com/explorer/address/3P8dPqoHYcFVB7ki86tE6gSsrDYRuW3MbA</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1GrwDkr33gT6LuumniYjKEGjTLhsL5kmqC</t>
+          <t>3P8dPqoHYcFVB7ki86tE6gSsrDYRuW3MbA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3799,24 +3823,12 @@
       <c r="E59" t="b">
         <v>0</v>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Bybit</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>https://bybit.com</t>
-        </is>
-      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Coinbase Prime Deposit</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3825,20 +3837,20 @@
         </is>
       </c>
       <c r="K59" t="n">
-        <v>3103203175.283098</v>
+        <v>1656260820</v>
       </c>
       <c r="L59" t="n">
-        <v>3196066655.953699</v>
+        <v>1655407830</v>
       </c>
       <c r="M59" t="n">
-        <v>27490.46508329</v>
+        <v>14648</v>
       </c>
       <c r="N59" t="n">
-        <v>28380.06611066</v>
+        <v>14648</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -3850,12 +3862,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1DLeNApsHNNzUMNZJVoXeyEY5sdp8vzx3w</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q69ydwymww89nsudsxnhped0c9zf5jpzgsq8hfqk2ry8x4w5jz2uskwtwt9</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1DLeNApsHNNzUMNZJVoXeyEY5sdp8vzx3w</t>
+          <t>bc1q69ydwymww89nsudsxnhped0c9zf5jpzgsq8hfqk2ry8x4w5jz2uskwtwt9</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3869,7 +3881,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Bybit</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3879,12 +3891,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://bybit.com</t>
+          <t>https://kraken.com</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Bybit Deposit</t>
+          <t>Kraken Deposit</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3893,20 +3905,20 @@
         </is>
       </c>
       <c r="K60" t="n">
-        <v>1845747267.894043</v>
+        <v>1376414321.5</v>
       </c>
       <c r="L60" t="n">
-        <v>1771963860.944458</v>
+        <v>1473339729.701309</v>
       </c>
       <c r="M60" t="n">
-        <v>15696.59509998</v>
+        <v>11774.77592249</v>
       </c>
       <c r="N60" t="n">
-        <v>15060.39905943</v>
+        <v>12560.58366647</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -3918,12 +3930,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qq8n50dxhnrq4uu4f5wlnuv6hd0w8g7hxg3yn9s</t>
+          <t>https://intel.arkm.com/explorer/address/1KbrSKrT3GeEruTuuYYUSQ35JwKbrAWJYm</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>bc1qq8n50dxhnrq4uu4f5wlnuv6hd0w8g7hxg3yn9s</t>
+          <t>1KbrSKrT3GeEruTuuYYUSQ35JwKbrAWJYm</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3935,38 +3947,26 @@
       <c r="E61" t="b">
         <v>0</v>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Bitfinex</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>https://bitfinex.com</t>
-        </is>
-      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>952576000</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1093011840</v>
       </c>
       <c r="M61" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
+        <v>10000.01691126</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2025-07-21 14:10:08</t>
+          <t>2025-07-21 14:13:00</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">

--- a/data_cripto/top_flow.xlsx
+++ b/data_cripto/top_flow.xlsx
@@ -518,28 +518,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x91D40E4818F4D4C57b4578d9ECa6AFc92aC8DEbE</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q7cyrfmck2ffu2ud3rn5l5a8yv6f0chkp0zpemf</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0x91D40E4818F4D4C57b4578d9ECa6AFc92aC8DEbE</t>
+          <t>bc1q7cyrfmck2ffu2ud3rn5l5a8yv6f0chkp0zpemf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>OKX</t>
+          <t>Crypto.com</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -549,7 +547,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://okx.com</t>
+          <t>https://crypto.com</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -559,57 +557,55 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>48609209.67697361</v>
+        <v>2029850399.056569</v>
       </c>
       <c r="L2" t="n">
-        <v>46526164.73803902</v>
+        <v>2087487875.586165</v>
       </c>
       <c r="M2" t="n">
-        <v>2074529.758214495</v>
+        <v>18059.08042074</v>
       </c>
       <c r="N2" t="n">
-        <v>1988353.14192009</v>
+        <v>18570.61833841</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x5a52E96BAcdaBb82fd05763E25335261B270Efcb</t>
+          <t>https://intel.arkm.com/explorer/address/324H9uyTV9bPgAVgmdJNxPKKKZmowk5CYq</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0x5a52E96BAcdaBb82fd05763E25335261B270Efcb</t>
+          <t>324H9uyTV9bPgAVgmdJNxPKKKZmowk5CYq</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Bullish.com</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -619,187 +615,201 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
+          <t>https://bullish.com/</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>39453500.8125</v>
+        <v>1542370599.885949</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1514838176.259659</v>
       </c>
       <c r="M3" t="n">
-        <v>1693930.545</v>
+        <v>13656.26047074</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>13425.25068364</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xe8795cF9c2309eCfe05Df028eB0F21D5D6e3a951</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qjfyk39gshlamzfedthz74sx296xyjn4u2xr00phgjsmduppezsyqulgqg7</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0xe8795cF9c2309eCfe05Df028eB0F21D5D6e3a951</t>
+          <t>bc1qjfyk39gshlamzfedthz74sx296xyjn4u2xr00phgjsmduppezsyqulgqg7</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Camelot</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>dex</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://camelot.exchange</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+          <t>https://kraken.com</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K4" t="n">
-        <v>35931693.59930997</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36096651.77662757</v>
+        <v>3626296256</v>
       </c>
       <c r="M4" t="n">
-        <v>1519756.032043248</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1526531.335326967</v>
+        <v>32158.66674716</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xba66eB7D731608509854A63C7473a1bCF68316Af</t>
+          <t>https://intel.arkm.com/explorer/address/3KXwpcwggRsACLkFdfCVMU5ZA4tcLxdN6T</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0xba66eB7D731608509854A63C7473a1bCF68316Af</t>
+          <t>3KXwpcwggRsACLkFdfCVMU5ZA4tcLxdN6T</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="b">
         <v>0</v>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Kraken</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://kraken.com</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Coinbase Prime Deposit</t>
+          <t>Kraken Deposit</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>30077522</v>
+        <v>10800476630</v>
       </c>
       <c r="L5" t="n">
-        <v>30077522</v>
+        <v>10059860822.86191</v>
       </c>
       <c r="M5" t="n">
-        <v>1293656.84</v>
+        <v>95770.39363671</v>
       </c>
       <c r="N5" t="n">
-        <v>1293656.84</v>
+        <v>89117.18433644</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xA9D1e08C7793af67e9d92fe308d5697FB81d3E43</t>
+          <t>https://intel.arkm.com/explorer/address/1DLeNApsHNNzUMNZJVoXeyEY5sdp8vzx3w</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0xA9D1e08C7793af67e9d92fe308d5697FB81d3E43</t>
+          <t>1DLeNApsHNNzUMNZJVoXeyEY5sdp8vzx3w</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Bybit</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -809,67 +819,65 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
+          <t>https://bybit.com</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Bybit Deposit</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>260748620.2541542</v>
+        <v>5098598752.278817</v>
       </c>
       <c r="L6" t="n">
-        <v>259672878.5233151</v>
+        <v>5108513210.371913</v>
       </c>
       <c r="M6" t="n">
-        <v>11110124.53789979</v>
+        <v>44902.8357815</v>
       </c>
       <c r="N6" t="n">
-        <v>11065621.84002414</v>
+        <v>45002.89449436</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x8894E0a0c962CB723c1976a4421c95949bE2D4E3</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qhsfgaefhdvgq94r3g9sywh3mp53smrc5gaz2l04xg7whc00x2ysquygcuf</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0x8894E0a0c962CB723c1976a4421c95949bE2D4E3</t>
+          <t>bc1qhsfgaefhdvgq94r3g9sywh3mp53smrc5gaz2l04xg7whc00x2ysquygcuf</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -879,67 +887,65 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
+          <t>https://kraken.com</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Kraken Deposit</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>43287803.72485161</v>
+        <v>1016195840</v>
       </c>
       <c r="L7" t="n">
-        <v>46488477.03845441</v>
+        <v>1009433216</v>
       </c>
       <c r="M7" t="n">
-        <v>1796954.271658857</v>
+        <v>9077.31041611</v>
       </c>
       <c r="N7" t="n">
-        <v>1943119.42503538</v>
+        <v>9077.31041611</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x0D0707963952f2fBA59dD06f2b425ace40b492Fe</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qa5t0g6t03t2r6qrmfw9sqhqpy7dvpd6gr9x7c07ftsd2uuw0szfs0sxfw4</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0x0D0707963952f2fBA59dD06f2b425ace40b492Fe</t>
+          <t>bc1qa5t0g6t03t2r6qrmfw9sqhqpy7dvpd6gr9x7c07ftsd2uuw0szfs0sxfw4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gate</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -949,241 +955,261 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://gate.com</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://kraken.com</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>30193466.80322266</v>
+        <v>963328192</v>
       </c>
       <c r="L8" t="n">
-        <v>28003849.06722808</v>
+        <v>965573440</v>
       </c>
       <c r="M8" t="n">
-        <v>1286855.290215838</v>
+        <v>8702.62317622</v>
       </c>
       <c r="N8" t="n">
-        <v>1188242.333337954</v>
+        <v>8702.62317622</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x72bE417AFB0aBEa66913141C605D313BB389b59C</t>
+          <t>https://intel.arkm.com/explorer/address/3M219KR5vEneNb47ewrPfWyb5jQ2DjxRP6</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0x72bE417AFB0aBEa66913141C605D313BB389b59C</t>
+          <t>3M219KR5vEneNb47ewrPfWyb5jQ2DjxRP6</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Aerodrome Finance</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>dex</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://aerodrome.finance/</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K9" t="n">
-        <v>317624436.709832</v>
+        <v>944715584</v>
       </c>
       <c r="L9" t="n">
-        <v>317507368.372152</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>13379295.67832945</v>
+        <v>8241.290000000001</v>
       </c>
       <c r="N9" t="n">
-        <v>13375091.65685051</v>
+        <v>0</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x927C6aaA6aAd7aF5252237af8B85be10B2DE0DBB</t>
+          <t>https://intel.arkm.com/explorer/address/12DezRFkKToAiLTDNru1g7FuvtAWMwCZ7N</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0x927C6aaA6aAd7aF5252237af8B85be10B2DE0DBB</t>
+          <t>12DezRFkKToAiLTDNru1g7FuvtAWMwCZ7N</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="b">
         <v>0</v>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K10" t="n">
-        <v>148523827.3278427</v>
+        <v>4251642691.140625</v>
       </c>
       <c r="L10" t="n">
-        <v>148696029.4208183</v>
+        <v>4252965578.21875</v>
       </c>
       <c r="M10" t="n">
-        <v>6247238.183128805</v>
+        <v>37542.93135839</v>
       </c>
       <c r="N10" t="n">
-        <v>6254807.030681875</v>
+        <v>37540.6663004</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x191c10Aa4AF7C30e871E70C95dB0E4eb77237530</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qukw69mjxwp30adfqddv6gcyva26laxz562rhlk</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0x191c10Aa4AF7C30e871E70C95dB0E4eb77237530</t>
+          <t>bc1qukw69mjxwp30adfqddv6gcyva26laxz562rhlk</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Aave</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>lending-decentralized</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://aave.com</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>https://kraken.com</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K11" t="n">
-        <v>39800386.65161179</v>
+        <v>2263916544</v>
       </c>
       <c r="L11" t="n">
-        <v>37830262.96838371</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1693771.254190969</v>
+        <v>20560.53669805</v>
       </c>
       <c r="N11" t="n">
-        <v>1612305.978022946</v>
+        <v>0</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xF977814e90dA44bFA03b6295A0616a897441aceC</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qrjkznjmgs4wtjrqgggq98us7z6ttcxlujvswpdjrenxvggstffeqkxdc8y</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0xF977814e90dA44bFA03b6295A0616a897441aceC</t>
+          <t>bc1qrjkznjmgs4wtjrqgggq98us7z6ttcxlujvswpdjrenxvggstffeqkxdc8y</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1193,207 +1219,193 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://kraken.com</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>974046400</v>
       </c>
       <c r="L12" t="n">
-        <v>43620478</v>
+        <v>971615040</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>8777.4861373</v>
       </c>
       <c r="N12" t="n">
-        <v>1857897.49753908</v>
+        <v>8777.4861373</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xEae7380dD4CeF6fbD1144F49E4D1e6964258A4F4</t>
+          <t>https://intel.arkm.com/explorer/address/3HfD4pvF43jdu9dzVMEr1b8AnDHooRGc5t</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0xEae7380dD4CeF6fbD1144F49E4D1e6964258A4F4</t>
+          <t>3HfD4pvF43jdu9dzVMEr1b8AnDHooRGc5t</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Wintermute</t>
+          <t>Paxos</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>custodian</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.wintermute.com/</t>
+          <t>https://paxos.com</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Binance Deposit</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>88076789.92578125</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>89199705.71875</v>
+        <v>2192786240</v>
       </c>
       <c r="M13" t="n">
-        <v>3716122.46043701</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>3758185.86043701</v>
+        <v>20271.47951545</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xFA103c21ea2DF71DFb92B0652F8B1D795e51cdEf</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qxu4nfkdf8a97mey8ke3npg3aggvskvvcdgndnvxn5upv7jypxdgs3mhvvy</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0xFA103c21ea2DF71DFb92B0652F8B1D795e51cdEf</t>
+          <t>bc1qxu4nfkdf8a97mey8ke3npg3aggvskvvcdgndnvxn5upv7jypxdgs3mhvvy</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Symbolic Capital Partners</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://symbolic.partners</t>
+          <t>https://kraken.com</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>CEX Bridge</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>31395981.515625</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>31256757.875</v>
+        <v>2154505044</v>
       </c>
       <c r="M14" t="n">
-        <v>1309808.24103165</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1303720.97420086</v>
+        <v>19005.59890968</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x3E7Cc7214983c6Ba39e6b14044B84F4c64ED06fC</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qr4dl5wa7kl8yu792dceg9z5knl2gkn220lk7a9</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0x3E7Cc7214983c6Ba39e6b14044B84F4c64ED06fC</t>
+          <t>bc1qr4dl5wa7kl8yu792dceg9z5knl2gkn220lk7a9</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bithumb</t>
+          <t>Crypto.com</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1403,377 +1415,361 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://bithumb.com</t>
+          <t>https://crypto.com</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>24289200.32958689</v>
+        <v>1973780311.994019</v>
       </c>
       <c r="L15" t="n">
-        <v>29138993.7231462</v>
+        <v>2053460480.175213</v>
       </c>
       <c r="M15" t="n">
-        <v>1020000.013681603</v>
+        <v>17529.02432393</v>
       </c>
       <c r="N15" t="n">
-        <v>1221129.55719139</v>
+        <v>18268.37334017</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xa6Cc3C2531FdaA6Ae1A3CA84c2855806728693e8</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qpa5uhy6yc4jnj4et5dxyvzhx7wtqrzt7a43klg</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0xa6Cc3C2531FdaA6Ae1A3CA84c2855806728693e8</t>
+          <t>bc1qpa5uhy6yc4jnj4et5dxyvzhx7wtqrzt7a43klg</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D16" t="b">
-        <v>1</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>Galaxy Digital</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>dex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://uniswap.org</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>LINK</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://www.galaxy.com/</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>206118641.78442</v>
+        <v>1238337183.841255</v>
       </c>
       <c r="L16" t="n">
-        <v>200179379.9151678</v>
+        <v>1279312131.528139</v>
       </c>
       <c r="M16" t="n">
-        <v>8674788.305461559</v>
+        <v>11187.50001155</v>
       </c>
       <c r="N16" t="n">
-        <v>8446214.829480875</v>
+        <v>11527.37512041</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x177a7376860a04eEA6BF7fb3F39Bf10c49D3b42C</t>
+          <t>https://intel.arkm.com/explorer/address/16Uz37Q6TfvK2UFTgamn3dyRjnP2Wtf4p2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0x177a7376860a04eEA6BF7fb3F39Bf10c49D3b42C</t>
+          <t>16Uz37Q6TfvK2UFTgamn3dyRjnP2Wtf4p2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Blackhole</t>
+          <t>Cumberland DRW</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>dex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://blackhole.xyz/</t>
+          <t>https://cumberland.io</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>192225579.4297749</v>
+        <v>996279727.7578125</v>
       </c>
       <c r="L17" t="n">
-        <v>192186780.0377686</v>
+        <v>965359727.359375</v>
       </c>
       <c r="M17" t="n">
-        <v>8308143.290005507</v>
+        <v>8804.75303355</v>
       </c>
       <c r="N17" t="n">
-        <v>8306111.811898069</v>
+        <v>8546.99136991</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xCD531Ae9EFCCE479654c4926dec5F6209531Ca7b</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qle99f93vzvr2sn28al7vnwrgews6clw5f2a8zl</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0xCD531Ae9EFCCE479654c4926dec5F6209531Ca7b</t>
+          <t>bc1qle99f93vzvr2sn28al7vnwrgews6clw5f2a8zl</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Coinbase Prime</t>
+          <t>Paxos</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>custodian</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.coinbase.com/prime</t>
+          <t>https://paxos.com</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>165438243.9702835</v>
+        <v>2710813566.897324</v>
       </c>
       <c r="L18" t="n">
-        <v>165339684.9866686</v>
+        <v>2732816091.21875</v>
       </c>
       <c r="M18" t="n">
-        <v>7032210.528178517</v>
+        <v>25025.078162</v>
       </c>
       <c r="N18" t="n">
-        <v>7036864.367825053</v>
+        <v>25143.21496412</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xBEE3211ab312a8D065c4FeF0247448e17A8da000</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q0y5m6wdxjre0fs9m3u0j3pv2fcja6qw3a2f6ql</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0xBEE3211ab312a8D065c4FeF0247448e17A8da000</t>
+          <t>bc1q0y5m6wdxjre0fs9m3u0j3pv2fcja6qw3a2f6ql</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D19" t="b">
-        <v>1</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Market Maker</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>40853953.65699482</v>
+        <v>2599160960</v>
       </c>
       <c r="L19" t="n">
-        <v>41068271.70517422</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1745104.684488905</v>
+        <v>23000</v>
       </c>
       <c r="N19" t="n">
-        <v>1753167.602334351</v>
+        <v>0</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x18E24850FDEceee577da1e08C63B260cFf69B962</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qxvpdvemdn9zv6pv0fqhqqxkdxfdk3wlfw4z0q4py0c4lmgfmhtlsr3jtf7</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0x18E24850FDEceee577da1e08C63B260cFf69B962</t>
+          <t>bc1qxvpdvemdn9zv6pv0fqhqqxkdxfdk3wlfw4z0q4py0c4lmgfmhtlsr3jtf7</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D20" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="b">
         <v>0</v>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Kraken</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://kraken.com</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>38156793.50918441</v>
+        <v>989189440</v>
       </c>
       <c r="L20" t="n">
-        <v>39129838.73461914</v>
+        <v>989189440</v>
       </c>
       <c r="M20" t="n">
-        <v>1652600.30849153</v>
+        <v>8929.314416769999</v>
       </c>
       <c r="N20" t="n">
-        <v>1701411.6516</v>
+        <v>8929.314416769999</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x08069E1c7F0eaB4a0862673A11d16B86c2fE1df0</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q64nptresvnnvtkwuc3q42hzu9wjeaumjhn49wgef3n3qcnnfwplqgwnwgl</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0x08069E1c7F0eaB4a0862673A11d16B86c2fE1df0</t>
+          <t>bc1q64nptresvnnvtkwuc3q42hzu9wjeaumjhn49wgef3n3qcnnfwplqgwnwgl</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Upbit</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1783,865 +1779,905 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://sg.upbit.com</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://kraken.com</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>25095843.77360459</v>
+        <v>913597760</v>
       </c>
       <c r="L21" t="n">
-        <v>26972356.21444702</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1043384.653838825</v>
+        <v>8248.147091000001</v>
       </c>
       <c r="N21" t="n">
-        <v>1121348.264238404</v>
+        <v>0</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x1BF7A9E3A364e7F5761345837f222cd93e230C4f</t>
+          <t>https://intel.arkm.com/explorer/address/3KNViZo8uJwnLyxrWed5gRavbPZibEdAq3</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0x1BF7A9E3A364e7F5761345837f222cd93e230C4f</t>
+          <t>3KNViZo8uJwnLyxrWed5gRavbPZibEdAq3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="b">
         <v>0</v>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Binance Deposit</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Anchorage Digital</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>custodian</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://www.anchorage.com</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>25040505.76171875</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1386955616.015625</v>
       </c>
       <c r="M22" t="n">
-        <v>1056160.66</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>11985.17593055</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xc0fFeE479E4cD49eafBA87449225e17c53251226</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qx85mcrg3cm38vksg4re035nujrldgpppqnurrg</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0xc0fFeE479E4cD49eafBA87449225e17c53251226</t>
+          <t>bc1qx85mcrg3cm38vksg4re035nujrldgpppqnurrg</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D23" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="b">
         <v>0</v>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Kraken</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>https://kraken.com</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K23" t="n">
-        <v>161087288.7997082</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>161075688.6199951</v>
+        <v>2813871360</v>
       </c>
       <c r="M23" t="n">
-        <v>6795127.274400704</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>6794835.14182099</v>
+        <v>25657.50509726</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x51C72848c68a965f66FA7a88855F9f7784502a7F</t>
+          <t>https://intel.arkm.com/explorer/address/3MqUP6G1daVS5YTD8fz3QgwjZortWwxXFd</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0x51C72848c68a965f66FA7a88855F9f7784502a7F</t>
+          <t>3MqUP6G1daVS5YTD8fz3QgwjZortWwxXFd</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D24" t="b">
-        <v>1</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Wintermute</t>
+          <t>Coinbase Prime</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.wintermute.com/</t>
+          <t>https://www.coinbase.com/prime</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Market Maker</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>149568870.710683</v>
+        <v>14204236620.09404</v>
       </c>
       <c r="L24" t="n">
-        <v>149528501.1851474</v>
+        <v>14207366895.6438</v>
       </c>
       <c r="M24" t="n">
-        <v>6318857.121605192</v>
+        <v>125251.52797305</v>
       </c>
       <c r="N24" t="n">
-        <v>6311532.000466706</v>
+        <v>125263.97347387</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x79dD9327352BcF1dd16941899705E97b61F4DEcB</t>
+          <t>https://intel.arkm.com/explorer/address/12XZMdaAGmcHf4ocFSqpd8jFd1WH7RHUPs</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0x79dD9327352BcF1dd16941899705E97b61F4DEcB</t>
+          <t>12XZMdaAGmcHf4ocFSqpd8jFd1WH7RHUPs</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D25" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="b">
         <v>0</v>
       </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Bybit</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>https://bybit.com</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K25" t="n">
-        <v>148103679.2530325</v>
+        <v>5219261911.461745</v>
       </c>
       <c r="L25" t="n">
-        <v>47594531.66396682</v>
+        <v>5227831795.69223</v>
       </c>
       <c r="M25" t="n">
-        <v>6090625.686924239</v>
+        <v>45959.4257783</v>
       </c>
       <c r="N25" t="n">
-        <v>2039106.57776339</v>
+        <v>46049.26790462</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x7DAFbA1d69F6C01AE7567Ffd7b046Ca03B706f83</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qcfkga3lyvflf53vt0n2hjd9mr03870pvjw2z72</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0x7DAFbA1d69F6C01AE7567Ffd7b046Ca03B706f83</t>
+          <t>bc1qcfkga3lyvflf53vt0n2hjd9mr03870pvjw2z72</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="b">
         <v>0</v>
       </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Paxos</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>custodian</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>https://paxos.com</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K26" t="n">
-        <v>117186760</v>
+        <v>2197212352</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>5300170.1018068</v>
+        <v>20271.48155425</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xf8191D98ae98d2f7aBDFB63A9b0b812b93C873AA</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qnfgxdz6h600khz7stfskvhync8yusfjsf3yr560yyy8y3lncemmqktvg9x</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0xf8191D98ae98d2f7aBDFB63A9b0b812b93C873AA</t>
+          <t>bc1qnfgxdz6h600khz7stfskvhync8yusfjsf3yr560yyy8y3lncemmqktvg9x</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D27" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Wintermute</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.wintermute.com/</t>
+          <t>https://kraken.com</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Kraken Deposit</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>119342178.387915</v>
+        <v>935656000</v>
       </c>
       <c r="L27" t="n">
-        <v>125278212.4932786</v>
+        <v>937740608</v>
       </c>
       <c r="M27" t="n">
-        <v>5011983.222761911</v>
+        <v>8543.6330896</v>
       </c>
       <c r="N27" t="n">
-        <v>5241606.589315</v>
+        <v>8543.6330896</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x000000000004444c5dc75cB358380D2e3dE08A90</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q0tdsh988zt4s4g2lwzlz25j4pxanpj0yzn9xqmcw36c93dcu5rysa0knrq</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0x000000000004444c5dc75cB358380D2e3dE08A90</t>
+          <t>bc1q0tdsh988zt4s4g2lwzlz25j4pxanpj0yzn9xqmcw36c93dcu5rysa0knrq</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D28" t="b">
-        <v>1</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>dex</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://uniswap.org</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>PoolManager</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://kraken.com</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>55486625.72291763</v>
+        <v>926215296</v>
       </c>
       <c r="L28" t="n">
-        <v>53542005.90850777</v>
+        <v>928524672</v>
       </c>
       <c r="M28" t="n">
-        <v>2332364.645294177</v>
+        <v>8397.770591779999</v>
       </c>
       <c r="N28" t="n">
-        <v>2262794.080983565</v>
+        <v>8397.770591779999</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x2B83aaCB0dD973866B563cFb0EF0AEF24B93200b</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qcardnx2pjnh0ce0rsdkce2yxxr9v6pt9a6qya3</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0x2B83aaCB0dD973866B563cFb0EF0AEF24B93200b</t>
+          <t>bc1qcardnx2pjnh0ce0rsdkce2yxxr9v6pt9a6qya3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D29" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="b">
         <v>0</v>
       </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Kraken</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>https://kraken.com</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Coinbase Prime Custody</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>48556748.95349875</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>51269685.65234375</v>
+        <v>4537696656</v>
       </c>
       <c r="M29" t="n">
-        <v>2064360.736781341</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>2191342.942736146</v>
+        <v>40984.18062794</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x5E8C8A7243651DB1384C0dDfDbE39761E8e7E51a</t>
+          <t>https://intel.arkm.com/explorer/address/1KbDEg1tDz2ErYgaDbaDhhawnLrSQFaFx5</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0x5E8C8A7243651DB1384C0dDfDbE39761E8e7E51a</t>
+          <t>1KbDEg1tDz2ErYgaDbaDhhawnLrSQFaFx5</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D30" t="b">
-        <v>1</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Aave</t>
+          <t>Wintermute</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>lending-decentralized</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://aave.com</t>
+          <t>https://www.wintermute.com/</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Aave Ethereum LINK (aEthLINK)</t>
+          <t>Binance Deposit</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>88864249.0137518</v>
+        <v>4702992479.70001</v>
       </c>
       <c r="L30" t="n">
-        <v>73292674.18539056</v>
+        <v>4714186827.363913</v>
       </c>
       <c r="M30" t="n">
-        <v>3777736.261039897</v>
+        <v>42021.18201735</v>
       </c>
       <c r="N30" t="n">
-        <v>3121410.162925524</v>
+        <v>42114.58202032</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x9008D19f58AAbD9eD0D60971565AA8510560ab41</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qd4ysezhmypwty5dnw7c8nqy5h5nxg0xqsvaefd0qn5kq32vwnwqqgv4rzr</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0x9008D19f58AAbD9eD0D60971565AA8510560ab41</t>
+          <t>bc1qd4ysezhmypwty5dnw7c8nqy5h5nxg0xqsvaefd0qn5kq32vwnwqqgv4rzr</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D31" t="b">
-        <v>1</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="b">
         <v>0</v>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>CoW Protocol</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>dex-aggregator</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>https://cow.fi</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Settlement</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>50677914.95140176</v>
+        <v>1057615696</v>
       </c>
       <c r="L31" t="n">
-        <v>50661431.67246362</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>2154271.129281168</v>
+        <v>9500</v>
       </c>
       <c r="N31" t="n">
-        <v>2153572.212811877</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xE9D2aB10BD4D896b4D537cd54d8f794838131370</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qjy44hvpgtntz9wq9vsys60m9m8dj9l0asrc4yw2t2w23740s26ssmtgexx</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0xE9D2aB10BD4D896b4D537cd54d8f794838131370</t>
+          <t>bc1qjy44hvpgtntz9wq9vsys60m9m8dj9l0asrc4yw2t2w23740s26ssmtgexx</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D32" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="b">
         <v>0</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Beefy Finance</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>yield</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://beefy.finance/</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+          <t>https://kraken.com</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Kraken Deposit</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K32" t="n">
-        <v>30374474.66132744</v>
+        <v>920200640</v>
       </c>
       <c r="L32" t="n">
-        <v>30356554.62564564</v>
+        <v>921831872</v>
       </c>
       <c r="M32" t="n">
-        <v>1283941.511822704</v>
+        <v>8322.48631468</v>
       </c>
       <c r="N32" t="n">
-        <v>1283941.511822704</v>
+        <v>8322.48631468</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x3c9Ea5C4Fec2A77E23Dd82539f4414266Fe8f757</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qnad7erjflzm38d8p820hday79v90d09sc4gdly</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0x3c9Ea5C4Fec2A77E23Dd82539f4414266Fe8f757</t>
+          <t>bc1qnad7erjflzm38d8p820hday79v90d09sc4gdly</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D33" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="b">
         <v>0</v>
       </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Kraken</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>https://kraken.com</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K33" t="n">
-        <v>28311720.85824013</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>28756318.875</v>
+        <v>1918785568</v>
       </c>
       <c r="M33" t="n">
-        <v>1221001.328774005</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1241001.251774005</v>
+        <v>17560.53678407</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xC06f25517E906b7F9B4deC3C7889503Bb00b3370</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q9exg34dkmgxu28yektgn929jpjpzukhhl2r3zr</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0xC06f25517E906b7F9B4deC3C7889503Bb00b3370</t>
+          <t>bc1q9exg34dkmgxu28yektgn929jpjpzukhhl2r3zr</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D34" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="b">
         <v>0</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Kraken</t>
+          <t>Wintermute</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://kraken.com</t>
+          <t>https://www.wintermute.com/</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>3752484179.491727</v>
       </c>
       <c r="L34" t="n">
-        <v>119719699.0377498</v>
+        <v>3742749125.244539</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>33421.73294738</v>
       </c>
       <c r="N34" t="n">
-        <v>5406547.92026065</v>
+        <v>33333.237449</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x28C6c06298d514Db089934071355E5743bf21d60</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q0d3k8zue8z5ztqt0r35rsd7gua5z4ser6gt46c</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0x28C6c06298d514Db089934071355E5743bf21d60</t>
+          <t>bc1q0d3k8zue8z5ztqt0r35rsd7gua5z4ser6gt46c</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D35" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2651,67 +2687,65 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
+          <t>https://coinbase.com</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>463773672.8706207</v>
+        <v>1734116873.662974</v>
       </c>
       <c r="L35" t="n">
-        <v>480297116.3479296</v>
+        <v>1662350142.523517</v>
       </c>
       <c r="M35" t="n">
-        <v>19618467.36963527</v>
+        <v>15299.61429545</v>
       </c>
       <c r="N35" t="n">
-        <v>20339626.6138784</v>
+        <v>14650.86611775</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x651641299C7eC0aA44AD7eD9b7E12702fED2022f</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q42kvqt0e3f27qhd2ucnprarl5ywpuj7tu0h9v2</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0x651641299C7eC0aA44AD7eD9b7E12702fED2022f</t>
+          <t>bc1q42kvqt0e3f27qhd2ucnprarl5ywpuj7tu0h9v2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D36" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="b">
         <v>0</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Bybit</t>
+          <t>FalconX</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2721,7 +2755,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://bybit.com</t>
+          <t>https://falconx.io/</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2731,127 +2765,123 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>79942909.88837548</v>
+        <v>2287139587.699957</v>
       </c>
       <c r="L36" t="n">
-        <v>72719306.47345394</v>
+        <v>2193333429.36996</v>
       </c>
       <c r="M36" t="n">
-        <v>3378818.573752255</v>
+        <v>19953.48926531</v>
       </c>
       <c r="N36" t="n">
-        <v>3080719.36579432</v>
+        <v>19159.085066</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xFAD57d2039C21811C8F2B5D5B65308aa99D31559</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q0ymzksy046tv4z88ts5nmu7s574umnwmdev3rt</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0xFAD57d2039C21811C8F2B5D5B65308aa99D31559</t>
+          <t>bc1q0ymzksy046tv4z88ts5nmu7s574umnwmdev3rt</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D37" t="b">
-        <v>1</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="b">
         <v>0</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>dex</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://uniswap.org</t>
+          <t>https://kraken.com</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>LINK-USDC</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>33401976.94708239</v>
+        <v>4739461376</v>
       </c>
       <c r="L37" t="n">
-        <v>32859397.42829055</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1402948.451767758</v>
+        <v>42657.5050038</v>
       </c>
       <c r="N37" t="n">
-        <v>1387253.273718689</v>
+        <v>0</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x22af984f13DFB5C80145E3F9eE1050Ae5a5FB651</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qn2cpj0hrl37wqh5q94kwrlhtj2lx8ahtw7ef5rg35tswxsqtvufqfmmrq2</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0x22af984f13DFB5C80145E3F9eE1050Ae5a5FB651</t>
+          <t>bc1qn2cpj0hrl37wqh5q94kwrlhtj2lx8ahtw7ef5rg35tswxsqtvufqfmmrq2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D38" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="b">
         <v>0</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Kraken</t>
+          <t>OKX</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2861,61 +2891,59 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://kraken.com</t>
+          <t>https://okx.com</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1527699405.800839</v>
       </c>
       <c r="L38" t="n">
-        <v>190668557.0542498</v>
+        <v>1623803376.594002</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>13592.74207822</v>
       </c>
       <c r="N38" t="n">
-        <v>8848120.35065677</v>
+        <v>14456.57225431</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xd2DD7b597Fd2435b6dB61ddf48544fd931e6869F</t>
+          <t>https://intel.arkm.com/explorer/address/169qYZJYkyW7HhmWTj58mVXRZDhMFHPZPd</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0xd2DD7b597Fd2435b6dB61ddf48544fd931e6869F</t>
+          <t>169qYZJYkyW7HhmWTj58mVXRZDhMFHPZPd</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D39" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="b">
         <v>0</v>
       </c>
@@ -2925,225 +2953,229 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>180560576</v>
+        <v>1104928896</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1067183200</v>
       </c>
       <c r="M39" t="n">
-        <v>8413819.724774001</v>
+        <v>9999.9</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>9800.000023000001</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x1FA00bE39C9b815B039Fa5F3394405eEb9502C9c</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qnlg5h3rfp2ctmwrldc9uvqxafg8h2mh3spdhw2</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0x1FA00bE39C9b815B039Fa5F3394405eEb9502C9c</t>
+          <t>bc1qnlg5h3rfp2ctmwrldc9uvqxafg8h2mh3spdhw2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D40" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="b">
         <v>0</v>
       </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Paxos</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>custodian</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>https://paxos.com</t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Coinbase Deposit</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>53442027.21875</v>
+        <v>936976304.7323178</v>
       </c>
       <c r="L40" t="n">
-        <v>53317336.04492188</v>
+        <v>929269231</v>
       </c>
       <c r="M40" t="n">
-        <v>2266267.32327</v>
+        <v>8617.28007879</v>
       </c>
       <c r="N40" t="n">
-        <v>2260511.59857</v>
+        <v>8558.298098740001</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xfBd4cdB413E45a52E2C8312f670e9cE67E794C37</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q9evspt4kpltnawj6hf2dlhmdzd66603dqgmmz4r6uf5m3cv07ykqyjx7gm</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0xfBd4cdB413E45a52E2C8312f670e9cE67E794C37</t>
+          <t>bc1q9evspt4kpltnawj6hf2dlhmdzd66603dqgmmz4r6uf5m3cv07ykqyjx7gm</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D41" t="b">
-        <v>1</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="b">
         <v>0</v>
       </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Kraken</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>https://kraken.com</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Kraken Deposit</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K41" t="n">
-        <v>35937965.92720032</v>
+        <v>949538944</v>
       </c>
       <c r="L41" t="n">
-        <v>35577322.54243469</v>
+        <v>939349056</v>
       </c>
       <c r="M41" t="n">
-        <v>1507832.106753232</v>
+        <v>8577.355191799999</v>
       </c>
       <c r="N41" t="n">
-        <v>1486355.89316755</v>
+        <v>8577.355191799999</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x96B1392f2e9E6849B8598D51f0861adE4fdA2885</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qv4r4zwvf5ckdx3llaykl0vez4fdaj4jh5yfjsw</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0x96B1392f2e9E6849B8598D51f0861adE4fdA2885</t>
+          <t>bc1qv4r4zwvf5ckdx3llaykl0vez4fdaj4jh5yfjsw</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D42" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="b">
         <v>0</v>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Bithumb</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>https://bithumb.com</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>30887424.92240741</v>
+        <v>10800278374.56395</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>10800482360</v>
       </c>
       <c r="M42" t="n">
-        <v>1317842.17240606</v>
+        <v>95770.44463867</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>95770.44455103</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x4A4aaA0155237881FBD5C34BfaE16e985A7B068D</t>
+          <t>https://intel.arkm.com/explorer/address/bc1quhruqrghgcca950rvhtrg7cpd7u8k6svpzgzmrjy8xyukacl5lkq0r8l2d</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0x4A4aaA0155237881FBD5C34BfaE16e985A7B068D</t>
+          <t>bc1quhruqrghgcca950rvhtrg7cpd7u8k6svpzgzmrjy8xyukacl5lkq0r8l2d</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D43" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="b">
         <v>0</v>
       </c>
@@ -3169,127 +3201,123 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>26480235.14056396</v>
+        <v>2896767608.011815</v>
       </c>
       <c r="L43" t="n">
-        <v>25182637.62524414</v>
+        <v>2977616472.694666</v>
       </c>
       <c r="M43" t="n">
-        <v>1140013.36798583</v>
+        <v>25740.08250565</v>
       </c>
       <c r="N43" t="n">
-        <v>1080077.01202121</v>
+        <v>26414.9739982</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xA69babEF1cA67A37Ffaf7a485DfFF3382056e78C</t>
+          <t>https://intel.arkm.com/explorer/address/bc1pdwu79dady576y3fupmm82m3g7p2p9f6hgyeqy0tdg7ztxg7xrayqlkl8j9</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0xA69babEF1cA67A37Ffaf7a485DfFF3382056e78C</t>
+          <t>bc1pdwu79dady576y3fupmm82m3g7p2p9f6hgyeqy0tdg7ztxg7xrayqlkl8j9</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D44" t="b">
-        <v>1</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="b">
         <v>0</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Symbolic Capital Partners</t>
+          <t>Hyperunit</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>blockchain-infra</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://symbolic.partners</t>
+          <t>https://hyperunit.xyz</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>MEV Bot</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>171200134.8027878</v>
+        <v>4287411642.749666</v>
       </c>
       <c r="L44" t="n">
-        <v>171233220.0823741</v>
+        <v>4266389522.995758</v>
       </c>
       <c r="M44" t="n">
-        <v>7209939.973605316</v>
+        <v>38486.13218545</v>
       </c>
       <c r="N44" t="n">
-        <v>7208084.740690762</v>
+        <v>38324.75842656</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x21a31Ee1afC51d94C2eFcCAa2092aD1028285549</t>
+          <t>https://intel.arkm.com/explorer/address/1GrwDkr33gT6LuumniYjKEGjTLhsL5kmqC</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0x21a31Ee1afC51d94C2eFcCAa2092aD1028285549</t>
+          <t>1GrwDkr33gT6LuumniYjKEGjTLhsL5kmqC</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D45" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="b">
         <v>0</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Bybit</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3299,7 +3327,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
+          <t>https://bybit.com</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3309,51 +3337,49 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K45" t="n">
-        <v>149939446</v>
+        <v>5118461531.442341</v>
       </c>
       <c r="L45" t="n">
-        <v>146474761.4633729</v>
+        <v>5135549432.807788</v>
       </c>
       <c r="M45" t="n">
-        <v>6390591.46757194</v>
+        <v>45033.71116402</v>
       </c>
       <c r="N45" t="n">
-        <v>6227668.31022383</v>
+        <v>45194.37892268</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xc6bed363b30DF7F35b601a5547fE56cd31Ec63DA</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q69ydwymww89nsudsxnhped0c9zf5jpzgsq8hfqk2ry8x4w5jz2uskwtwt9</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0xc6bed363b30DF7F35b601a5547fE56cd31Ec63DA</t>
+          <t>bc1q69ydwymww89nsudsxnhped0c9zf5jpzgsq8hfqk2ry8x4w5jz2uskwtwt9</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D46" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="b">
         <v>0</v>
       </c>
@@ -3374,62 +3400,60 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Kraken Deposit</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>56133406.92680407</v>
+        <v>1395866985.59375</v>
       </c>
       <c r="L46" t="n">
-        <v>183898879.6715679</v>
+        <v>1481484650.483971</v>
       </c>
       <c r="M46" t="n">
-        <v>2363471.656496746</v>
+        <v>12466.07626673</v>
       </c>
       <c r="N46" t="n">
-        <v>7594036.4689454</v>
+        <v>13217.80912331</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x841ed663F2636863D40be4EE76243377dff13a34</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qjchvceujyfhgdqwxqafy50xuzhzds90yv0s5ve3s7qwq92jr3kqqmx3c65</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0x841ed663F2636863D40be4EE76243377dff13a34</t>
+          <t>bc1qjchvceujyfhgdqwxqafy50xuzhzds90yv0s5ve3s7qwq92jr3kqqmx3c65</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D47" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Robinhood</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3439,269 +3463,233 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://robinhood.com/</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://kraken.com</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>51729812.31695428</v>
+        <v>929890496</v>
       </c>
       <c r="L47" t="n">
-        <v>26708172.69628906</v>
+        <v>934414592</v>
       </c>
       <c r="M47" t="n">
-        <v>2215571.312259736</v>
+        <v>8472.11170759</v>
       </c>
       <c r="N47" t="n">
-        <v>1135640.03197848</v>
+        <v>8472.11170759</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x225a38bc71102999Dd13478BFaBD7c4d53f2DC17</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qy3uw2kk45uj9vsy52rjfhydm2tnd6hreu8vha3</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0x225a38bc71102999Dd13478BFaBD7c4d53f2DC17</t>
+          <t>bc1qy3uw2kk45uj9vsy52rjfhydm2tnd6hreu8vha3</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D48" t="b">
-        <v>1</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="b">
         <v>0</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Rizzolver (Wintermute)</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>dex</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://wintermute.com/</t>
+          <t>https://kraken.com</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>UniswapX</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K48" t="n">
-        <v>32927548.11740172</v>
+        <v>4537696656</v>
       </c>
       <c r="L48" t="n">
-        <v>32927548.11740172</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>1401496.896181921</v>
+        <v>40984.1806</v>
       </c>
       <c r="N48" t="n">
-        <v>1401496.896181921</v>
+        <v>0</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x468b88941e7Cc0B88c1869d68ab6b570bCEF62Ff</t>
+          <t>https://intel.arkm.com/explorer/address/bc1p2mlwrss9tmvtfvu0tcxul2h0w67ej8vyjpj3ksctt67vd9r752ksqx6uqm</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0x468b88941e7Cc0B88c1869d68ab6b570bCEF62Ff</t>
+          <t>bc1p2mlwrss9tmvtfvu0tcxul2h0w67ej8vyjpj3ksctt67vd9r752ksqx6uqm</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D49" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="b">
         <v>0</v>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Uniswap</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>dex</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>https://uniswap.org</t>
-        </is>
-      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>24747872.73112402</v>
+        <v>2491125145.131505</v>
       </c>
       <c r="L49" t="n">
-        <v>24863025.82574444</v>
+        <v>2491114594.511362</v>
       </c>
       <c r="M49" t="n">
-        <v>1039118.358206183</v>
+        <v>22100.71187612</v>
       </c>
       <c r="N49" t="n">
-        <v>1048895.965385582</v>
+        <v>22100.71187612</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xDFd5293D8e347dFe59E90eFd55b2956a1343963d</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q8s3h3vw5xufdas890q29lpuca56r0ezqar0mvs</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0xDFd5293D8e347dFe59E90eFd55b2956a1343963d</t>
+          <t>bc1q8s3h3vw5xufdas890q29lpuca56r0ezqar0mvs</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D50" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="b">
         <v>0</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Cumberland DRW</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://cumberland.io</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>151923190.1715088</v>
+        <v>1286785476.039022</v>
       </c>
       <c r="L50" t="n">
-        <v>157646977.1826745</v>
+        <v>1406010651.615522</v>
       </c>
       <c r="M50" t="n">
-        <v>6425791.08588055</v>
+        <v>11372.08713756</v>
       </c>
       <c r="N50" t="n">
-        <v>6666429.60006567</v>
+        <v>12432.90516544</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x0757e27AC1631beEB37eeD3270cc6301dD3D57D4</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q4adzwlvgedt82cy0g8fru6v5p30j7zpnah8u047gmlnk70zg94uqd2qy82</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0x0757e27AC1631beEB37eeD3270cc6301dD3D57D4</t>
+          <t>bc1q4adzwlvgedt82cy0g8fru6v5p30j7zpnah8u047gmlnk70zg94uqd2qy82</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D51" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="b">
         <v>0</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Upbit</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3711,131 +3699,119 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://sg.upbit.com</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>LINK</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://kraken.com</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>32371889.5077704</v>
+        <v>1001240960</v>
       </c>
       <c r="L51" t="n">
-        <v>28767430</v>
+        <v>997423424</v>
       </c>
       <c r="M51" t="n">
-        <v>1397096.611895629</v>
+        <v>9003.64176045</v>
       </c>
       <c r="N51" t="n">
-        <v>1184000</v>
+        <v>9003.64176045</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x6E4141d33021b52C91c28608403db4A0FFB50Ec6</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qsy6euh5gmcv5lj4u9rc6lmytllmyyhndjkda80dtyugmdeyg8uvs9a6crv</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0x6E4141d33021b52C91c28608403db4A0FFB50Ec6</t>
+          <t>bc1qsy6euh5gmcv5lj4u9rc6lmytllmyyhndjkda80dtyugmdeyg8uvs9a6crv</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D52" t="b">
-        <v>1</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="b">
         <v>0</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Kyber Network</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>dex</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://kyber.network</t>
+          <t>https://kraken.com</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Aggregator Executor</t>
+          <t>Kraken Deposit</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K52" t="n">
-        <v>26367445.39020661</v>
+        <v>956850432</v>
       </c>
       <c r="L52" t="n">
-        <v>25581150.98422954</v>
+        <v>954703040</v>
       </c>
       <c r="M52" t="n">
-        <v>1116686.452554321</v>
+        <v>8624.00334806</v>
       </c>
       <c r="N52" t="n">
-        <v>1083446.100265815</v>
+        <v>8624.00334806</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xEebc7DCc613819686659983eE305f87beb6c1ff8</t>
+          <t>https://intel.arkm.com/explorer/address/17MWdxfjPYP2PYhdy885QtihfbW181r1rn</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0xEebc7DCc613819686659983eE305f87beb6c1ff8</t>
+          <t>17MWdxfjPYP2PYhdy885QtihfbW181r1rn</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D53" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="b">
         <v>0</v>
       </c>
@@ -3845,393 +3821,417 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>157965551.2943973</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>157911462.3750844</v>
+        <v>1104928896</v>
       </c>
       <c r="M53" t="n">
-        <v>6831721.072307282</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>6830555.196080519</v>
+        <v>9999.900002259999</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xC333E80eF2deC2805F239E3f1e810612D294F771</t>
+          <t>https://intel.arkm.com/explorer/address/335umQ4egqMjDo6wSXYwQZYPntZzMveNTJ</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0xC333E80eF2deC2805F239E3f1e810612D294F771</t>
+          <t>335umQ4egqMjDo6wSXYwQZYPntZzMveNTJ</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D54" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="b">
         <v>0</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>B2C2 Group</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.b2c2.com</t>
+          <t>https://coinbase.com</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>36213701.53240967</v>
+        <v>1555971177</v>
       </c>
       <c r="L54" t="n">
-        <v>38975421.12866211</v>
+        <v>1555931954.4375</v>
       </c>
       <c r="M54" t="n">
-        <v>1545044.60695205</v>
+        <v>13615.41657312</v>
       </c>
       <c r="N54" t="n">
-        <v>1666975.89449294</v>
+        <v>13615.41657312</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x4EBDcA21913c4F32f533B28955485908De73d5aF</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qs3ppmarskyjman5895jf03yt38umu260ucuastgl322ejyj420kqzwdzkk</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0x4EBDcA21913c4F32f533B28955485908De73d5aF</t>
+          <t>bc1qs3ppmarskyjman5895jf03yt38umu260ucuastgl322ejyj420kqzwdzkk</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D55" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="b">
         <v>0</v>
       </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Kraken</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>https://kraken.com</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>980926912</v>
       </c>
       <c r="L55" t="n">
-        <v>30077522</v>
+        <v>982618176</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>8854.72925239</v>
       </c>
       <c r="N55" t="n">
-        <v>1293656.84</v>
+        <v>8854.72925239</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x1fA956A0bA481df173bB2602F5c097bfe223e5aC</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0x1fA956A0bA481df173bB2602F5c097bfe223e5aC</t>
+          <t>bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D56" t="b">
-        <v>1</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="b">
         <v>0</v>
       </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Binance</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>19375645779.67485</v>
       </c>
       <c r="L56" t="n">
-        <v>29261098</v>
+        <v>20986299103.05667</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>172278.43286336</v>
       </c>
       <c r="N56" t="n">
-        <v>1258000.8049</v>
+        <v>186063.32970672</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:17</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x2079C29Be9c8095042edB95f293B5b510203d6cE</t>
+          <t>https://intel.arkm.com/explorer/address/15DomY3arDPw5jD658Mbf3AY3wT3YCDmW2</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0x2079C29Be9c8095042edB95f293B5b510203d6cE</t>
+          <t>15DomY3arDPw5jD658Mbf3AY3wT3YCDmW2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D57" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="b">
         <v>0</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>@luggisdoteth</t>
+          <t>Wintermute</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>individual</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr"/>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>luggis.eth</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K57" t="n">
-        <v>32002316.8125</v>
+        <v>5381934566.237305</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>5484495158.737305</v>
       </c>
       <c r="M57" t="n">
-        <v>102572.1108500012</v>
+        <v>48020.2863106</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>48942.28630581</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x06FD4bA7973a0d39a91734bbc35bC2bCaa99E3B0</t>
+          <t>https://intel.arkm.com/explorer/address/1Kr6QSydW9bFQG1mXiPNNu6WpJGmUa9i1g</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0x06FD4bA7973a0d39a91734bbc35bC2bCaa99E3B0</t>
+          <t>1Kr6QSydW9bFQG1mXiPNNu6WpJGmUa9i1g</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D58" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="b">
         <v>0</v>
       </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Bitfinex</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>https://bitfinex.com</t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Binance Deposit</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K58" t="n">
-        <v>13155884.01218605</v>
+        <v>1453081592.453915</v>
       </c>
       <c r="L58" t="n">
-        <v>13160396.8104248</v>
+        <v>1506169331.009454</v>
       </c>
       <c r="M58" t="n">
-        <v>42273.8569369</v>
+        <v>13045.76202699</v>
       </c>
       <c r="N58" t="n">
-        <v>42273.8569369</v>
+        <v>13465.76751802</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x1157A2076b9bB22a85CC2C162f20fAB3898F4101</t>
+          <t>https://intel.arkm.com/explorer/address/bc1pvnh4q75kmc3q0zlhmgmdv8eulrma9j35n7pjvt32l479hawff9jqd96e72</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0x1157A2076b9bB22a85CC2C162f20fAB3898F4101</t>
+          <t>bc1pvnh4q75kmc3q0zlhmgmdv8eulrma9j35n7pjvt32l479hawff9jqd96e72</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D59" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="b">
         <v>0</v>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>FalconX</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>https://falconx.io/</t>
-        </is>
-      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Hyperunit Deposit</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K59" t="n">
-        <v>12447603.66426468</v>
+        <v>1089281992</v>
       </c>
       <c r="L59" t="n">
-        <v>12287214.8516407</v>
+        <v>1087823992</v>
       </c>
       <c r="M59" t="n">
-        <v>39903.09706122114</v>
+        <v>9999.999959999999</v>
       </c>
       <c r="N59" t="n">
-        <v>38774.66963021</v>
+        <v>9999.999960000001</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:44:31</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x4da27a545c0c5B758a6BA100e3a049001de870f5</t>
+          <t>https://intel.arkm.com/explorer/address/0xE9D2aB10BD4D896b4D537cd54d8f794838131370</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0x4da27a545c0c5B758a6BA100e3a049001de870f5</t>
+          <t>0xE9D2aB10BD4D896b4D537cd54d8f794838131370</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4240,68 +4240,60 @@
         </is>
       </c>
       <c r="D60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Aave</t>
+          <t>Beefy Finance</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>lending-decentralized</t>
+          <t>yield</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://aave.com</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Staked Aave (stkAAVE)</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://beefy.finance/</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>30374474.66132744</v>
       </c>
       <c r="L60" t="n">
-        <v>52411604.69060896</v>
+        <v>30356554.62564564</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>1283941.511822704</v>
       </c>
       <c r="N60" t="n">
-        <v>168357.9114854379</v>
+        <v>1283941.511822704</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x05B3d1a46459fC8c39606A6362daA87Bb26C8f4b</t>
+          <t>https://intel.arkm.com/explorer/address/0x22af984f13DFB5C80145E3F9eE1050Ae5a5FB651</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0x05B3d1a46459fC8c39606A6362daA87Bb26C8f4b</t>
+          <t>0x22af984f13DFB5C80145E3F9eE1050Ae5a5FB651</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4315,43 +4307,63 @@
       <c r="E61" t="b">
         <v>0</v>
       </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Kraken</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>https://kraken.com</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K61" t="n">
-        <v>132522367.4016415</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>132622880.8562241</v>
+        <v>190668557.0542498</v>
       </c>
       <c r="M61" t="n">
-        <v>417721.7659767746</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>417976.4064932304</v>
+        <v>8848120.35065677</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xf8191D98ae98d2f7aBDFB63A9b0b812b93C873AA</t>
+          <t>https://intel.arkm.com/explorer/address/0x72bE417AFB0aBEa66913141C605D313BB389b59C</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0xf8191D98ae98d2f7aBDFB63A9b0b812b93C873AA</t>
+          <t>0x72bE417AFB0aBEa66913141C605D313BB389b59C</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4367,61 +4379,53 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Wintermute</t>
+          <t>Aerodrome Finance</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>dex</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.wintermute.com/</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://aerodrome.finance/</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>57711792.31762695</v>
+        <v>317535107.4684513</v>
       </c>
       <c r="L62" t="n">
-        <v>59039181.69390583</v>
+        <v>317356781.929873</v>
       </c>
       <c r="M62" t="n">
-        <v>185052.14635513</v>
+        <v>13375862.93572139</v>
       </c>
       <c r="N62" t="n">
-        <v>189471.24101296</v>
+        <v>13369188.80268436</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xf5213a6a2f0890321712520b8048D9886c1A9900</t>
+          <t>https://intel.arkm.com/explorer/address/0x2B83aaCB0dD973866B563cFb0EF0AEF24B93200b</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0xf5213a6a2f0890321712520b8048D9886c1A9900</t>
+          <t>0x2B83aaCB0dD973866B563cFb0EF0AEF24B93200b</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4438,40 +4442,48 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Coinbase Prime Custody</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K63" t="n">
-        <v>11724097.831604</v>
+        <v>48556748.95349875</v>
       </c>
       <c r="L63" t="n">
-        <v>11771761.81845093</v>
+        <v>51269685.65234375</v>
       </c>
       <c r="M63" t="n">
-        <v>37456.9699873399</v>
+        <v>2064360.736781341</v>
       </c>
       <c r="N63" t="n">
-        <v>37507.49619330031</v>
+        <v>2191342.942736146</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x51C72848c68a965f66FA7a88855F9f7784502a7F</t>
+          <t>https://intel.arkm.com/explorer/address/0xfBd4cdB413E45a52E2C8312f670e9cE67E794C37</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0x51C72848c68a965f66FA7a88855F9f7784502a7F</t>
+          <t>0xfBd4cdB413E45a52E2C8312f670e9cE67E794C37</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4485,63 +4497,43 @@
       <c r="E64" t="b">
         <v>0</v>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Wintermute</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>https://www.wintermute.com/</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Market Maker</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>63544116.74134918</v>
+        <v>35936470.88972473</v>
       </c>
       <c r="L64" t="n">
-        <v>63336119.70178095</v>
+        <v>35577322.54243469</v>
       </c>
       <c r="M64" t="n">
-        <v>203824.6883584857</v>
+        <v>1507773.247008921</v>
       </c>
       <c r="N64" t="n">
-        <v>203059.3555896998</v>
+        <v>1486355.89316755</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xC1233286aCdb6bed1A1C902d3ed01960Aaf34e0D</t>
+          <t>https://intel.arkm.com/explorer/address/0xba66eB7D731608509854A63C7473a1bCF68316Af</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0xC1233286aCdb6bed1A1C902d3ed01960Aaf34e0D</t>
+          <t>0xba66eB7D731608509854A63C7473a1bCF68316Af</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4558,40 +4550,48 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Coinbase Prime Deposit</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K65" t="n">
-        <v>83022152</v>
+        <v>30077522</v>
       </c>
       <c r="L65" t="n">
-        <v>84562837</v>
+        <v>30077522</v>
       </c>
       <c r="M65" t="n">
-        <v>269569.9405016556</v>
+        <v>1293656.84</v>
       </c>
       <c r="N65" t="n">
-        <v>270211.964660503</v>
+        <v>1293656.84</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xBA12222222228d8Ba445958a75a0704d566BF2C8</t>
+          <t>https://intel.arkm.com/explorer/address/0x177a7376860a04eEA6BF7fb3F39Bf10c49D3b42C</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0xBA12222222228d8Ba445958a75a0704d566BF2C8</t>
+          <t>0x177a7376860a04eEA6BF7fb3F39Bf10c49D3b42C</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4600,14 +4600,14 @@
         </is>
       </c>
       <c r="D66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" t="b">
         <v>0</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Balancer</t>
+          <t>Blackhole</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4617,51 +4617,43 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://balancer.fi</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>Vault</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://blackhole.xyz/</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>62770276.65526739</v>
+        <v>192519630.6253709</v>
       </c>
       <c r="L66" t="n">
-        <v>135893580.6289361</v>
+        <v>192405543.761017</v>
       </c>
       <c r="M66" t="n">
-        <v>198671.7936379796</v>
+        <v>8321638.066909403</v>
       </c>
       <c r="N66" t="n">
-        <v>436584.329323611</v>
+        <v>8316151.450020097</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x73E4E2726c688A09af7e72107eE92a372EeB3012</t>
+          <t>https://intel.arkm.com/explorer/address/0xDFd5293D8e347dFe59E90eFd55b2956a1343963d</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0x73E4E2726c688A09af7e72107eE92a372EeB3012</t>
+          <t>0xDFd5293D8e347dFe59E90eFd55b2956a1343963d</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4675,12 +4667,24 @@
       <c r="E67" t="b">
         <v>0</v>
       </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Binance</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>https://binance.com</t>
+        </is>
+      </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Coinbase Deposit</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4689,37 +4693,37 @@
         </is>
       </c>
       <c r="K67" t="n">
-        <v>15062734.12109375</v>
+        <v>151923190.1715088</v>
       </c>
       <c r="L67" t="n">
-        <v>15124631.203125</v>
+        <v>157583595.2412683</v>
       </c>
       <c r="M67" t="n">
-        <v>48897.89178</v>
+        <v>6425791.08588055</v>
       </c>
       <c r="N67" t="n">
-        <v>49153.89178</v>
+        <v>6663935.23001653</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x4a79B0168296c0eF7b8F314973B82aD406a29f1B</t>
+          <t>https://intel.arkm.com/explorer/address/0x9008D19f58AAbD9eD0D60971565AA8510560ab41</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0x4a79B0168296c0eF7b8F314973B82aD406a29f1B</t>
+          <t>0x9008D19f58AAbD9eD0D60971565AA8510560ab41</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4728,60 +4732,68 @@
         </is>
       </c>
       <c r="D68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="b">
         <v>0</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Aerodrome Finance</t>
+          <t>CoW Protocol</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>dex</t>
+          <t>dex-aggregator</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://aerodrome.finance/</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+          <t>https://cow.fi</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Settlement</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K68" t="n">
-        <v>504089007.2388212</v>
+        <v>50677914.95140176</v>
       </c>
       <c r="L68" t="n">
-        <v>502408990.8667423</v>
+        <v>50661431.67246362</v>
       </c>
       <c r="M68" t="n">
-        <v>1604461.655053506</v>
+        <v>2154271.129281168</v>
       </c>
       <c r="N68" t="n">
-        <v>1599506.280765659</v>
+        <v>2153572.212811877</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xA9D1e08C7793af67e9d92fe308d5697FB81d3E43</t>
+          <t>https://intel.arkm.com/explorer/address/0x18E24850FDEceee577da1e08C63B260cFf69B962</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0xA9D1e08C7793af67e9d92fe308d5697FB81d3E43</t>
+          <t>0x18E24850FDEceee577da1e08C63B260cFf69B962</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4790,68 +4802,48 @@
         </is>
       </c>
       <c r="D69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="b">
         <v>0</v>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Coinbase</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>141400820.2714043</v>
+        <v>38156793.50918441</v>
       </c>
       <c r="L69" t="n">
-        <v>140699059.0892518</v>
+        <v>39129838.73461914</v>
       </c>
       <c r="M69" t="n">
-        <v>459717.5922172285</v>
+        <v>1652600.30849153</v>
       </c>
       <c r="N69" t="n">
-        <v>456973.9682287789</v>
+        <v>1701411.6516</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xAD85405cbB1476825B78a021fa9E543bF7937549</t>
+          <t>https://intel.arkm.com/explorer/address/0xe8795cF9c2309eCfe05Df028eB0F21D5D6e3a951</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0xAD85405cbB1476825B78a021fa9E543bF7937549</t>
+          <t>0xe8795cF9c2309eCfe05Df028eB0F21D5D6e3a951</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4867,61 +4859,53 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Bybit</t>
+          <t>Camelot</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>dex</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://bybit.com</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://camelot.exchange</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>27960670.8644175</v>
+        <v>35931693.59930997</v>
       </c>
       <c r="L70" t="n">
-        <v>36845146.15742922</v>
+        <v>36096056.47089484</v>
       </c>
       <c r="M70" t="n">
-        <v>89979.89747544532</v>
+        <v>1519756.032043248</v>
       </c>
       <c r="N70" t="n">
-        <v>118838.57502215</v>
+        <v>1526512.993908178</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x5236333EF2baa45b450689B69e4e4b277D84F954</t>
+          <t>https://intel.arkm.com/explorer/address/0x3c9Ea5C4Fec2A77E23Dd82539f4414266Fe8f757</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0x5236333EF2baa45b450689B69e4e4b277D84F954</t>
+          <t>0x3c9Ea5C4Fec2A77E23Dd82539f4414266Fe8f757</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4938,48 +4922,40 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>joepeng.eth</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>11392554.11960411</v>
+        <v>28311720.85824013</v>
       </c>
       <c r="L71" t="n">
-        <v>11382106.98364258</v>
+        <v>28756318.875</v>
       </c>
       <c r="M71" t="n">
-        <v>36517.01791528</v>
+        <v>1221001.328774005</v>
       </c>
       <c r="N71" t="n">
-        <v>36470</v>
+        <v>1241001.251774005</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xC06f25517E906b7F9B4deC3C7889503Bb00b3370</t>
+          <t>https://intel.arkm.com/explorer/address/0x3E7Cc7214983c6Ba39e6b14044B84F4c64ED06fC</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0xC06f25517E906b7F9B4deC3C7889503Bb00b3370</t>
+          <t>0x3E7Cc7214983c6Ba39e6b14044B84F4c64ED06fC</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4995,7 +4971,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Kraken</t>
+          <t>Bithumb</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -5005,12 +4981,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://kraken.com</t>
+          <t>https://bithumb.com</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -5019,37 +4995,37 @@
         </is>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>24289200.32958689</v>
       </c>
       <c r="L72" t="n">
-        <v>24683315.75</v>
+        <v>29138993.7231462</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>1020000.013681603</v>
       </c>
       <c r="N72" t="n">
-        <v>83343.43956155999</v>
+        <v>1221129.55719139</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xDFd5293D8e347dFe59E90eFd55b2956a1343963d</t>
+          <t>https://intel.arkm.com/explorer/address/0xA9D1e08C7793af67e9d92fe308d5697FB81d3E43</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0xDFd5293D8e347dFe59E90eFd55b2956a1343963d</t>
+          <t>0xA9D1e08C7793af67e9d92fe308d5697FB81d3E43</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -5058,14 +5034,14 @@
         </is>
       </c>
       <c r="D73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -5075,7 +5051,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
+          <t>https://coinbase.com</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5089,37 +5065,37 @@
         </is>
       </c>
       <c r="K73" t="n">
-        <v>83274180.75</v>
+        <v>260723210.2541542</v>
       </c>
       <c r="L73" t="n">
-        <v>82058390.92504799</v>
+        <v>259671228.2946259</v>
       </c>
       <c r="M73" t="n">
-        <v>266963.58433688</v>
+        <v>11109124.53789979</v>
       </c>
       <c r="N73" t="n">
-        <v>263191.11885757</v>
+        <v>11065556.87644611</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x26a78D5b6d7a7acEEDD1e6eE3229b372A624d8b7</t>
+          <t>https://intel.arkm.com/explorer/address/0x21a31Ee1afC51d94C2eFcCAa2092aD1028285549</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0x26a78D5b6d7a7acEEDD1e6eE3229b372A624d8b7</t>
+          <t>0x21a31Ee1afC51d94C2eFcCAa2092aD1028285549</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -5135,7 +5111,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Kraken</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -5145,7 +5121,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://kraken.com</t>
+          <t>https://binance.com</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5159,37 +5135,37 @@
         </is>
       </c>
       <c r="K74" t="n">
-        <v>14231289.20716858</v>
+        <v>149939446</v>
       </c>
       <c r="L74" t="n">
-        <v>48810447.70189613</v>
+        <v>146464487.3916566</v>
       </c>
       <c r="M74" t="n">
-        <v>44422.85615082835</v>
+        <v>6390591.46757194</v>
       </c>
       <c r="N74" t="n">
-        <v>158761.63932109</v>
+        <v>6227263.97667383</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x841ed663F2636863D40be4EE76243377dff13a34</t>
+          <t>https://intel.arkm.com/explorer/address/0x7DAFbA1d69F6C01AE7567Ffd7b046Ca03B706f83</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0x841ed663F2636863D40be4EE76243377dff13a34</t>
+          <t>0x7DAFbA1d69F6C01AE7567Ffd7b046Ca03B706f83</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -5203,63 +5179,43 @@
       <c r="E75" t="b">
         <v>0</v>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Robinhood</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>https://robinhood.com/</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>10018406.39964485</v>
+        <v>117186760</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>33889.19241824927</v>
+        <v>5300170.1018068</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xC333E80eF2deC2805F239E3f1e810612D294F771</t>
+          <t>https://intel.arkm.com/explorer/address/0x1FA00bE39C9b815B039Fa5F3394405eEb9502C9c</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0xC333E80eF2deC2805F239E3f1e810612D294F771</t>
+          <t>0x1FA00bE39C9b815B039Fa5F3394405eEb9502C9c</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -5273,55 +5229,51 @@
       <c r="E76" t="b">
         <v>0</v>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>B2C2 Group</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>https://www.b2c2.com</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Coinbase Deposit</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>53442027.21875</v>
       </c>
       <c r="L76" t="n">
-        <v>13320632.87884521</v>
+        <v>53317336.04492188</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>2266267.32327</v>
       </c>
       <c r="N76" t="n">
-        <v>45700.06359865</v>
+        <v>2260511.59857</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xe401A6A38024d8f5aB88f1B08cad476cCaCA45E8</t>
+          <t>https://intel.arkm.com/explorer/address/0xEebc7DCc613819686659983eE305f87beb6c1ff8</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0xe401A6A38024d8f5aB88f1B08cad476cCaCA45E8</t>
+          <t>0xEebc7DCc613819686659983eE305f87beb6c1ff8</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -5335,63 +5287,43 @@
       <c r="E77" t="b">
         <v>0</v>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Wintermute</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>https://www.wintermute.com/</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>Bybit Deposit</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>158184313.8490848</v>
       </c>
       <c r="L77" t="n">
-        <v>11492799.06640625</v>
+        <v>158203512.8766408</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>6841760.656800997</v>
       </c>
       <c r="N77" t="n">
-        <v>36679.97215474</v>
+        <v>6843958.155911596</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xCD531Ae9EFCCE479654c4926dec5F6209531Ca7b</t>
+          <t>https://intel.arkm.com/explorer/address/0x651641299C7eC0aA44AD7eD9b7E12702fED2022f</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0xCD531Ae9EFCCE479654c4926dec5F6209531Ca7b</t>
+          <t>0x651641299C7eC0aA44AD7eD9b7E12702fED2022f</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -5407,7 +5339,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Coinbase Prime</t>
+          <t>Bybit</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5417,7 +5349,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://www.coinbase.com/prime</t>
+          <t>https://bybit.com</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5431,37 +5363,37 @@
         </is>
       </c>
       <c r="K78" t="n">
-        <v>95219637.18096924</v>
+        <v>79942909.88837549</v>
       </c>
       <c r="L78" t="n">
-        <v>95058316.44032049</v>
+        <v>72719306.47345394</v>
       </c>
       <c r="M78" t="n">
-        <v>307538.5584278464</v>
+        <v>3378818.573752255</v>
       </c>
       <c r="N78" t="n">
-        <v>306961.4663519314</v>
+        <v>3080719.36579432</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x6E4141d33021b52C91c28608403db4A0FFB50Ec6</t>
+          <t>https://intel.arkm.com/explorer/address/0x5E8C8A7243651DB1384C0dDfDbE39761E8e7E51a</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0x6E4141d33021b52C91c28608403db4A0FFB50Ec6</t>
+          <t>0x5E8C8A7243651DB1384C0dDfDbE39761E8e7E51a</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5477,22 +5409,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Kyber Network</t>
+          <t>Aave</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>dex</t>
+          <t>lending-decentralized</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>https://kyber.network</t>
+          <t>https://aave.com</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Aggregator Executor</t>
+          <t>Aave Ethereum LINK (aEthLINK)</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -5501,37 +5433,37 @@
         </is>
       </c>
       <c r="K79" t="n">
-        <v>28876746.64631719</v>
+        <v>88861707.74373229</v>
       </c>
       <c r="L79" t="n">
-        <v>28877843.78616234</v>
+        <v>73287592.91537103</v>
       </c>
       <c r="M79" t="n">
-        <v>91724.37852623108</v>
+        <v>3777636.211039897</v>
       </c>
       <c r="N79" t="n">
-        <v>91727.97515908633</v>
+        <v>3121210.112925524</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xbD585C60d925c577C667468A0fD3Edb832D967c5</t>
+          <t>https://intel.arkm.com/explorer/address/0xFAD57d2039C21811C8F2B5D5B65308aa99D31559</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0xbD585C60d925c577C667468A0fD3Edb832D967c5</t>
+          <t>0xFAD57d2039C21811C8F2B5D5B65308aa99D31559</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5540,48 +5472,68 @@
         </is>
       </c>
       <c r="D80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="b">
         <v>0</v>
       </c>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Uniswap</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>dex</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>https://uniswap.org</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>LINK-USDC</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K80" t="n">
-        <v>23400998</v>
+        <v>33401976.94708239</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>32858568.77130812</v>
       </c>
       <c r="M80" t="n">
-        <v>77351</v>
+        <v>1402948.451767758</v>
       </c>
       <c r="N80" t="n">
-        <v>0</v>
+        <v>1387220.649428689</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xa6eDdaB9926Ed411298CF86eEC5e4d9f2372c489</t>
+          <t>https://intel.arkm.com/explorer/address/0xd2DD7b597Fd2435b6dB61ddf48544fd931e6869F</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0xa6eDdaB9926Ed411298CF86eEC5e4d9f2372c489</t>
+          <t>0xd2DD7b597Fd2435b6dB61ddf48544fd931e6869F</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -5601,37 +5553,37 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>14465482</v>
+        <v>180560576</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>47007.05799027</v>
+        <v>8413819.724774001</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xA700b4eB416Be35b2911fd5Dee80678ff64fF6C9</t>
+          <t>https://intel.arkm.com/explorer/address/0xc0fFeE479E4cD49eafBA87449225e17c53251226</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>0xA700b4eB416Be35b2911fd5Dee80678ff64fF6C9</t>
+          <t>0xc0fFeE479E4cD49eafBA87449225e17c53251226</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -5640,68 +5592,48 @@
         </is>
       </c>
       <c r="D82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="b">
         <v>0</v>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Aave</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>lending-decentralized</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>https://aave.com</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>Aave Ethereum AAVE (aEthAAVE)</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>94690982.12758602</v>
+        <v>161087288.7997082</v>
       </c>
       <c r="L82" t="n">
-        <v>40372987.17707241</v>
+        <v>161075688.6199951</v>
       </c>
       <c r="M82" t="n">
-        <v>304611.8796485019</v>
+        <v>6795127.274400704</v>
       </c>
       <c r="N82" t="n">
-        <v>130090.541125741</v>
+        <v>6794835.14182099</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xd2DD7b597Fd2435b6dB61ddf48544fd931e6869F</t>
+          <t>https://intel.arkm.com/explorer/address/0xC06f25517E906b7F9B4deC3C7889503Bb00b3370</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>0xd2DD7b597Fd2435b6dB61ddf48544fd931e6869F</t>
+          <t>0xC06f25517E906b7F9B4deC3C7889503Bb00b3370</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -5715,43 +5647,63 @@
       <c r="E83" t="b">
         <v>0</v>
       </c>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Kraken</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>https://kraken.com</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K83" t="n">
-        <v>36066683.99585342</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>119719699.0377498</v>
       </c>
       <c r="M83" t="n">
-        <v>135025.56633863</v>
+        <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>0</v>
+        <v>5406547.92026065</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x321f17c1850607F317933e7FeEf7130DF07045a7</t>
+          <t>https://intel.arkm.com/explorer/address/0x1BF7A9E3A364e7F5761345837f222cd93e230C4f</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>0x321f17c1850607F317933e7FeEf7130DF07045a7</t>
+          <t>0x1BF7A9E3A364e7F5761345837f222cd93e230C4f</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -5768,40 +5720,48 @@
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Binance Deposit</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K84" t="n">
-        <v>86196730.89986646</v>
+        <v>24947816.08203125</v>
       </c>
       <c r="L84" t="n">
-        <v>86009243.00097591</v>
+        <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>275629.5553638584</v>
+        <v>1052511.46</v>
       </c>
       <c r="N84" t="n">
-        <v>275030.2459457803</v>
+        <v>0</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xdceaf5d0E5E0dB9596A47C0c4120654e80B1d706</t>
+          <t>https://intel.arkm.com/explorer/address/0xc6bed363b30DF7F35b601a5547fE56cd31Ec63DA</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>0xdceaf5d0E5E0dB9596A47C0c4120654e80B1d706</t>
+          <t>0xc6bed363b30DF7F35b601a5547fE56cd31Ec63DA</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -5810,29 +5770,29 @@
         </is>
       </c>
       <c r="D85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="b">
         <v>0</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>dex</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://uniswap.org</t>
+          <t>https://kraken.com</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>AAVE-USDC</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5841,37 +5801,37 @@
         </is>
       </c>
       <c r="K85" t="n">
-        <v>21820919.38995893</v>
+        <v>56132162.28361559</v>
       </c>
       <c r="L85" t="n">
-        <v>21003070.70432038</v>
+        <v>183898618.5080853</v>
       </c>
       <c r="M85" t="n">
-        <v>70734.1657206439</v>
+        <v>2363422.674079335</v>
       </c>
       <c r="N85" t="n">
-        <v>68363.7947037308</v>
+        <v>7594026.1909654</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x9bA0CF1588E1DFA905eC948F7FE5104dD40EDa31</t>
+          <t>https://intel.arkm.com/explorer/address/0x000000000004444c5dc75cB358380D2e3dE08A90</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>0x9bA0CF1588E1DFA905eC948F7FE5104dD40EDa31</t>
+          <t>0x000000000004444c5dc75cB358380D2e3dE08A90</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -5887,18 +5847,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>TrustedVolumes</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr"/>
+          <t>dex</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>https://uniswap.org</t>
+        </is>
+      </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Market Maker</t>
+          <t>PoolManager</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5907,37 +5871,37 @@
         </is>
       </c>
       <c r="K86" t="n">
-        <v>14040794.71547389</v>
+        <v>55486625.72291763</v>
       </c>
       <c r="L86" t="n">
-        <v>13870454.06869125</v>
+        <v>53527728.67907662</v>
       </c>
       <c r="M86" t="n">
-        <v>45293.67629246758</v>
+        <v>2332364.645294177</v>
       </c>
       <c r="N86" t="n">
-        <v>44725.0468239726</v>
+        <v>2262232.006803174</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xB33bD56d4192E8E4e6a02e93Eabc732165199346</t>
+          <t>https://intel.arkm.com/explorer/address/0x225a38bc71102999Dd13478BFaBD7c4d53f2DC17</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>0xB33bD56d4192E8E4e6a02e93Eabc732165199346</t>
+          <t>0x225a38bc71102999Dd13478BFaBD7c4d53f2DC17</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -5951,43 +5915,63 @@
       <c r="E87" t="b">
         <v>0</v>
       </c>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Rizzolver (Wintermute)</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>dex</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>https://wintermute.com/</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>UniswapX</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K87" t="n">
-        <v>12013954.11195087</v>
+        <v>32927548.11740172</v>
       </c>
       <c r="L87" t="n">
-        <v>11906689.07177925</v>
+        <v>32927548.11740172</v>
       </c>
       <c r="M87" t="n">
-        <v>38485.16670673804</v>
+        <v>1401496.896181921</v>
       </c>
       <c r="N87" t="n">
-        <v>38077.4412356249</v>
+        <v>1401496.896181921</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x28C6c06298d514Db089934071355E5743bf21d60</t>
+          <t>https://intel.arkm.com/explorer/address/0x468b88941e7Cc0B88c1869d68ab6b570bCEF62Ff</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>0x28C6c06298d514Db089934071355E5743bf21d60</t>
+          <t>0x468b88941e7Cc0B88c1869d68ab6b570bCEF62Ff</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -6003,61 +5987,53 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>dex</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://uniswap.org</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>212987695.3659668</v>
+        <v>24747807.49773405</v>
       </c>
       <c r="L88" t="n">
-        <v>234821575.5505159</v>
+        <v>24851374.35156628</v>
       </c>
       <c r="M88" t="n">
-        <v>682492.1605775845</v>
+        <v>1039115.790039639</v>
       </c>
       <c r="N88" t="n">
-        <v>754170.34775362</v>
+        <v>1048437.281737089</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x8f2E43AaE3b31483B08297D54f3c83ea6AAE830D</t>
+          <t>https://intel.arkm.com/explorer/address/0xEae7380dD4CeF6fbD1144F49E4D1e6964258A4F4</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>0x8f2E43AaE3b31483B08297D54f3c83ea6AAE830D</t>
+          <t>0xEae7380dD4CeF6fbD1144F49E4D1e6964258A4F4</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -6071,43 +6047,63 @@
       <c r="E89" t="b">
         <v>0</v>
       </c>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Wintermute</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Binance Deposit</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K89" t="n">
-        <v>109922158.2863541</v>
+        <v>88076789.92578125</v>
       </c>
       <c r="L89" t="n">
-        <v>109990943.2883049</v>
+        <v>89199705.71875</v>
       </c>
       <c r="M89" t="n">
-        <v>349682.9486889018</v>
+        <v>3716122.46043701</v>
       </c>
       <c r="N89" t="n">
-        <v>349939.9268741657</v>
+        <v>3758185.86043701</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x7DAFbA1d69F6C01AE7567Ffd7b046Ca03B706f83</t>
+          <t>https://intel.arkm.com/explorer/address/0x4A4aaA0155237881FBD5C34BfaE16e985A7B068D</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>0x7DAFbA1d69F6C01AE7567Ffd7b046Ca03B706f83</t>
+          <t>0x4A4aaA0155237881FBD5C34BfaE16e985A7B068D</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -6121,43 +6117,63 @@
       <c r="E90" t="b">
         <v>0</v>
       </c>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>OKX</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>https://okx.com</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K90" t="n">
-        <v>23992682</v>
+        <v>26480235.14056396</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>25182637.62524414</v>
       </c>
       <c r="M90" t="n">
-        <v>81028.98335425</v>
+        <v>1140013.36798583</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
+        <v>1080077.01202121</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x59c38b6775Ded821f010DbD30eCabdCF84E04756</t>
+          <t>https://intel.arkm.com/explorer/address/0x0D0707963952f2fBA59dD06f2b425ace40b492Fe</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>0x59c38b6775Ded821f010DbD30eCabdCF84E04756</t>
+          <t>0x0D0707963952f2fBA59dD06f2b425ace40b492Fe</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -6166,29 +6182,29 @@
         </is>
       </c>
       <c r="D91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>Gate</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>dex</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>https://uniswap.org</t>
+          <t>https://gate.com</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>UNI-AAVE 2</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6197,37 +6213,37 @@
         </is>
       </c>
       <c r="K91" t="n">
-        <v>14334537.61134094</v>
+        <v>30193466.80322266</v>
       </c>
       <c r="L91" t="n">
-        <v>13979197.37843566</v>
+        <v>28003849.06722808</v>
       </c>
       <c r="M91" t="n">
-        <v>45753.49602550045</v>
+        <v>1286855.290215838</v>
       </c>
       <c r="N91" t="n">
-        <v>45221.36619953041</v>
+        <v>1188242.333337954</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x22af984f13DFB5C80145E3F9eE1050Ae5a5FB651</t>
+          <t>https://intel.arkm.com/explorer/address/0x6E4141d33021b52C91c28608403db4A0FFB50Ec6</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>0x22af984f13DFB5C80145E3F9eE1050Ae5a5FB651</t>
+          <t>0x6E4141d33021b52C91c28608403db4A0FFB50Ec6</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -6236,29 +6252,29 @@
         </is>
       </c>
       <c r="D92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Kraken</t>
+          <t>Kyber Network</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>dex</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>https://kraken.com</t>
+          <t>https://kyber.network</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Aggregator Executor</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -6267,37 +6283,37 @@
         </is>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>26369145.98913411</v>
       </c>
       <c r="L92" t="n">
-        <v>37572366.33960342</v>
+        <v>25582840.44168804</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>1116766.108365066</v>
       </c>
       <c r="N92" t="n">
-        <v>139772.28607507</v>
+        <v>1083525.244765816</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x7D94077f58593F8b97c5cAB56c8924E13b49946E</t>
+          <t>https://intel.arkm.com/explorer/address/0x79dD9327352BcF1dd16941899705E97b61F4DEcB</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>0x7D94077f58593F8b97c5cAB56c8924E13b49946E</t>
+          <t>0x79dD9327352BcF1dd16941899705E97b61F4DEcB</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -6317,37 +6333,37 @@
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>46893352.41559219</v>
+        <v>148103679.2530325</v>
       </c>
       <c r="L93" t="n">
-        <v>19050555.63109726</v>
+        <v>47594531.66396682</v>
       </c>
       <c r="M93" t="n">
-        <v>155115.5088621589</v>
+        <v>6090625.686924238</v>
       </c>
       <c r="N93" t="n">
-        <v>63770.18096699</v>
+        <v>2039106.57776339</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xBEE3211ab312a8D065c4FeF0247448e17A8da000</t>
+          <t>https://intel.arkm.com/explorer/address/0xC333E80eF2deC2805F239E3f1e810612D294F771</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>0xBEE3211ab312a8D065c4FeF0247448e17A8da000</t>
+          <t>0xC333E80eF2deC2805F239E3f1e810612D294F771</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -6356,56 +6372,60 @@
         </is>
       </c>
       <c r="D94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" t="b">
         <v>0</v>
       </c>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>Market Maker</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>B2C2 Group</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>https://www.b2c2.com</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>31498892.51694393</v>
+        <v>36213701.53240967</v>
       </c>
       <c r="L94" t="n">
-        <v>31528200.13617856</v>
+        <v>38975421.12866211</v>
       </c>
       <c r="M94" t="n">
-        <v>100979.8688128373</v>
+        <v>1545044.60695205</v>
       </c>
       <c r="N94" t="n">
-        <v>101081.7699857138</v>
+        <v>1666975.89449294</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x18E24850FDEceee577da1e08C63B260cFf69B962</t>
+          <t>https://intel.arkm.com/explorer/address/0x0757e27AC1631beEB37eeD3270cc6301dD3D57D4</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>0x18E24850FDEceee577da1e08C63B260cFf69B962</t>
+          <t>0x0757e27AC1631beEB37eeD3270cc6301dD3D57D4</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -6419,43 +6439,63 @@
       <c r="E95" t="b">
         <v>0</v>
       </c>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Upbit</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>https://sg.upbit.com</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>LINK</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K95" t="n">
-        <v>20043660.61851501</v>
+        <v>32371889.5077704</v>
       </c>
       <c r="L95" t="n">
-        <v>20626012.9620816</v>
+        <v>28767430</v>
       </c>
       <c r="M95" t="n">
-        <v>62080.07386</v>
+        <v>1397096.611895629</v>
       </c>
       <c r="N95" t="n">
-        <v>65249.12111515</v>
+        <v>1184000</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x35C4eE91d1Ce7959A0f1D0ef64BaD49e5866C1D1</t>
+          <t>https://intel.arkm.com/explorer/address/0x96B1392f2e9E6849B8598D51f0861adE4fdA2885</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>0x35C4eE91d1Ce7959A0f1D0ef64BaD49e5866C1D1</t>
+          <t>0x96B1392f2e9E6849B8598D51f0861adE4fdA2885</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -6469,43 +6509,63 @@
       <c r="E96" t="b">
         <v>0</v>
       </c>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Bithumb</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>https://bithumb.com</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K96" t="n">
-        <v>15113113.56600952</v>
+        <v>30887424.92240741</v>
       </c>
       <c r="L96" t="n">
-        <v>15114268.92593765</v>
+        <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>47071.65848754342</v>
+        <v>1317842.17240606</v>
       </c>
       <c r="N96" t="n">
-        <v>47071.65848754342</v>
+        <v>0</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x827922686190790b37229fd06084350E74485b72</t>
+          <t>https://intel.arkm.com/explorer/address/0xa6Cc3C2531FdaA6Ae1A3CA84c2855806728693e8</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>0x827922686190790b37229fd06084350E74485b72</t>
+          <t>0xa6Cc3C2531FdaA6Ae1A3CA84c2855806728693e8</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -6514,14 +6574,14 @@
         </is>
       </c>
       <c r="D97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="b">
         <v>0</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Aerodrome Finance</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -6531,43 +6591,51 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>https://aerodrome.finance/</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+          <t>https://uniswap.org</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>LINK</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K97" t="n">
-        <v>132522351.4386902</v>
+        <v>206118641.7844199</v>
       </c>
       <c r="L97" t="n">
-        <v>132522351.4386902</v>
+        <v>200105954.5915346</v>
       </c>
       <c r="M97" t="n">
-        <v>417721.7163229</v>
+        <v>8674788.305461561</v>
       </c>
       <c r="N97" t="n">
-        <v>417721.7163229</v>
+        <v>8443324.743494418</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xaAE602BE176922cD6544e3C6795C9878BA775125</t>
+          <t>https://intel.arkm.com/explorer/address/0xCD531Ae9EFCCE479654c4926dec5F6209531Ca7b</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>0xaAE602BE176922cD6544e3C6795C9878BA775125</t>
+          <t>0xCD531Ae9EFCCE479654c4926dec5F6209531Ca7b</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -6581,43 +6649,63 @@
       <c r="E98" t="b">
         <v>0</v>
       </c>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Coinbase Prime</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>https://www.coinbase.com/prime</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K98" t="n">
-        <v>24002486</v>
+        <v>165438243.9702835</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>165339684.9866686</v>
       </c>
       <c r="M98" t="n">
-        <v>79339.19330090001</v>
+        <v>7032210.528178517</v>
       </c>
       <c r="N98" t="n">
-        <v>0</v>
+        <v>7036864.367825053</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xF436ADa6B8f4d235BA806f44B22Fa4ee115c9BC2</t>
+          <t>https://intel.arkm.com/explorer/address/0x08069E1c7F0eaB4a0862673A11d16B86c2fE1df0</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>0xF436ADa6B8f4d235BA806f44B22Fa4ee115c9BC2</t>
+          <t>0x08069E1c7F0eaB4a0862673A11d16B86c2fE1df0</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -6631,43 +6719,63 @@
       <c r="E99" t="b">
         <v>0</v>
       </c>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Upbit</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>https://sg.upbit.com</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K99" t="n">
-        <v>64690563.91235638</v>
+        <v>25095843.77360459</v>
       </c>
       <c r="L99" t="n">
-        <v>62791716</v>
+        <v>26972356.21444702</v>
       </c>
       <c r="M99" t="n">
-        <v>204158.64680114</v>
+        <v>1043384.653838825</v>
       </c>
       <c r="N99" t="n">
-        <v>203697.25129117</v>
+        <v>1121348.264238404</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x4A4aaA0155237881FBD5C34BfaE16e985A7B068D</t>
+          <t>https://intel.arkm.com/explorer/address/0x4EBDcA21913c4F32f533B28955485908De73d5aF</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>0x4A4aaA0155237881FBD5C34BfaE16e985A7B068D</t>
+          <t>0x4EBDcA21913c4F32f533B28955485908De73d5aF</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -6681,63 +6789,43 @@
       <c r="E100" t="b">
         <v>0</v>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>OKX</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>https://okx.com</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>21482614.92749023</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>22486484.37956238</v>
+        <v>30077522</v>
       </c>
       <c r="M100" t="n">
-        <v>69225.89445312999</v>
+        <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>72922.31877586999</v>
+        <v>1293656.84</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x9008D19f58AAbD9eD0D60971565AA8510560ab41</t>
+          <t>https://intel.arkm.com/explorer/address/0xf8191D98ae98d2f7aBDFB63A9b0b812b93C873AA</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>0x9008D19f58AAbD9eD0D60971565AA8510560ab41</t>
+          <t>0xf8191D98ae98d2f7aBDFB63A9b0b812b93C873AA</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -6746,29 +6834,29 @@
         </is>
       </c>
       <c r="D101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" t="b">
         <v>0</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>CoW Protocol</t>
+          <t>Wintermute</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>dex-aggregator</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>https://cow.fi</t>
+          <t>https://www.wintermute.com/</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Settlement</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -6777,37 +6865,37 @@
         </is>
       </c>
       <c r="K101" t="n">
-        <v>98616737.21302217</v>
+        <v>119342178.387915</v>
       </c>
       <c r="L101" t="n">
-        <v>98598904.69122905</v>
+        <v>125278212.4932786</v>
       </c>
       <c r="M101" t="n">
-        <v>315428.3559160822</v>
+        <v>5011983.222761911</v>
       </c>
       <c r="N101" t="n">
-        <v>315388.9053949194</v>
+        <v>5241606.589315</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x5aB53EE1d50eeF2C1DD3d5402789cd27bB52c1bB</t>
+          <t>https://intel.arkm.com/explorer/address/0xF977814e90dA44bFA03b6295A0616a897441aceC</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>0x5aB53EE1d50eeF2C1DD3d5402789cd27bB52c1bB</t>
+          <t>0xF977814e90dA44bFA03b6295A0616a897441aceC</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -6816,29 +6904,29 @@
         </is>
       </c>
       <c r="D102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" t="b">
         <v>0</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>dex</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>https://uniswap.org</t>
+          <t>https://binance.com</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>AAVE</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -6847,37 +6935,37 @@
         </is>
       </c>
       <c r="K102" t="n">
-        <v>73616270.50446351</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>65272646.55708363</v>
+        <v>43620478</v>
       </c>
       <c r="M102" t="n">
-        <v>236130.6455400784</v>
+        <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>209684.1822246318</v>
+        <v>1857897.49753908</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xA69babEF1cA67A37Ffaf7a485DfFF3382056e78C</t>
+          <t>https://intel.arkm.com/explorer/address/0x51C72848c68a965f66FA7a88855F9f7784502a7F</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>0xA69babEF1cA67A37Ffaf7a485DfFF3382056e78C</t>
+          <t>0x51C72848c68a965f66FA7a88855F9f7784502a7F</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -6893,7 +6981,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Symbolic Capital Partners</t>
+          <t>Wintermute</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -6903,12 +6991,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>https://symbolic.partners</t>
+          <t>https://www.wintermute.com/</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>MEV Bot</t>
+          <t>Market Maker</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -6917,37 +7005,37 @@
         </is>
       </c>
       <c r="K103" t="n">
-        <v>38449807.38959408</v>
+        <v>149568870.710683</v>
       </c>
       <c r="L103" t="n">
-        <v>38420846.65440226</v>
+        <v>149528501.1851474</v>
       </c>
       <c r="M103" t="n">
-        <v>124050.1685365154</v>
+        <v>6318857.121605192</v>
       </c>
       <c r="N103" t="n">
-        <v>123883.8381918654</v>
+        <v>6311532.000466706</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xDf31A70a21A1931e02033dBBa7DEaCe6c45cfd0f</t>
+          <t>https://intel.arkm.com/explorer/address/0x927C6aaA6aAd7aF5252237af8B85be10B2DE0DBB</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>0xDf31A70a21A1931e02033dBBa7DEaCe6c45cfd0f</t>
+          <t>0x927C6aaA6aAd7aF5252237af8B85be10B2DE0DBB</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -6956,68 +7044,48 @@
         </is>
       </c>
       <c r="D104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104" t="b">
         <v>0</v>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>0x</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>dex</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>https://0x.org</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>MainnetSettler</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>14341125.4484903</v>
+        <v>148372297.4020615</v>
       </c>
       <c r="L104" t="n">
-        <v>15023598.43646433</v>
+        <v>148594976.5184746</v>
       </c>
       <c r="M104" t="n">
-        <v>45618.7741062302</v>
+        <v>6241285.711343043</v>
       </c>
       <c r="N104" t="n">
-        <v>47802.13519949165</v>
+        <v>6250835.603792274</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x1f2F10D1C40777AE1Da742455c65828FF36Df387</t>
+          <t>https://intel.arkm.com/explorer/address/0x841ed663F2636863D40be4EE76243377dff13a34</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>0x1f2F10D1C40777AE1Da742455c65828FF36Df387</t>
+          <t>0x841ed663F2636863D40be4EE76243377dff13a34</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -7026,25 +7094,29 @@
         </is>
       </c>
       <c r="D105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105" t="b">
         <v>0</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>jaredfromsubway (MEV)</t>
+          <t>Robinhood</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>mev</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr"/>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>https://robinhood.com/</t>
+        </is>
+      </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>MEV Bot</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -7053,37 +7125,37 @@
         </is>
       </c>
       <c r="K105" t="n">
-        <v>11149019.98294079</v>
+        <v>51729812.31695428</v>
       </c>
       <c r="L105" t="n">
-        <v>0</v>
+        <v>26708172.69628906</v>
       </c>
       <c r="M105" t="n">
-        <v>35289.40256670859</v>
+        <v>2215571.312259736</v>
       </c>
       <c r="N105" t="n">
-        <v>0</v>
+        <v>1135640.03197848</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xceCfC852f8cE51D92A5A291f6999DEE147bc2169</t>
+          <t>https://intel.arkm.com/explorer/address/0xFA103c21ea2DF71DFb92B0652F8B1D795e51cdEf</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>0xceCfC852f8cE51D92A5A291f6999DEE147bc2169</t>
+          <t>0xFA103c21ea2DF71DFb92B0652F8B1D795e51cdEf</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -7092,29 +7164,29 @@
         </is>
       </c>
       <c r="D106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106" t="b">
         <v>0</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Kraken</t>
+          <t>Symbolic Capital Partners</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>https://kraken.com</t>
+          <t>https://symbolic.partners</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>CEX Bridge</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -7123,37 +7195,37 @@
         </is>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
+        <v>31395981.515625</v>
       </c>
       <c r="L106" t="n">
-        <v>10365809.125</v>
+        <v>31256757.875</v>
       </c>
       <c r="M106" t="n">
-        <v>0</v>
+        <v>1309808.24103165</v>
       </c>
       <c r="N106" t="n">
-        <v>36433.42548023</v>
+        <v>1303720.97420086</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xf3fB9691c4BFF980C0352339fb297c5bF52Dd354</t>
+          <t>https://intel.arkm.com/explorer/address/0x28C6c06298d514Db089934071355E5743bf21d60</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>0xf3fB9691c4BFF980C0352339fb297c5bF52Dd354</t>
+          <t>0x28C6c06298d514Db089934071355E5743bf21d60</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -7167,43 +7239,63 @@
       <c r="E107" t="b">
         <v>0</v>
       </c>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Binance</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K107" t="n">
-        <v>137351460.2877942</v>
+        <v>463773327.6252594</v>
       </c>
       <c r="L107" t="n">
-        <v>137285107.9201508</v>
+        <v>480269166.7717577</v>
       </c>
       <c r="M107" t="n">
-        <v>440289.6833084968</v>
+        <v>19618453.7826473</v>
       </c>
       <c r="N107" t="n">
-        <v>440087.7529573769</v>
+        <v>20338526.6698784</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x9ceb1acb844c759bd47D7026E9A9f168260F0328</t>
+          <t>https://intel.arkm.com/explorer/address/0x91D40E4818F4D4C57b4578d9ECa6AFc92aC8DEbE</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>0x9ceb1acb844c759bd47D7026E9A9f168260F0328</t>
+          <t>0x91D40E4818F4D4C57b4578d9ECa6AFc92aC8DEbE</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -7217,43 +7309,63 @@
       <c r="E108" t="b">
         <v>0</v>
       </c>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>OKX</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>https://okx.com</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K108" t="n">
-        <v>62791716</v>
+        <v>48609209.67697361</v>
       </c>
       <c r="L108" t="n">
-        <v>61868966</v>
+        <v>46526164.73803902</v>
       </c>
       <c r="M108" t="n">
-        <v>203697.25129117</v>
+        <v>2074529.758214495</v>
       </c>
       <c r="N108" t="n">
-        <v>203697.25129117</v>
+        <v>1988353.14192009</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x91D40E4818F4D4C57b4578d9ECa6AFc92aC8DEbE</t>
+          <t>https://intel.arkm.com/explorer/address/0x5a52E96BAcdaBb82fd05763E25335261B270Efcb</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>0x91D40E4818F4D4C57b4578d9ECa6AFc92aC8DEbE</t>
+          <t>0x5a52E96BAcdaBb82fd05763E25335261B270Efcb</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -7269,7 +7381,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>OKX</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -7279,12 +7391,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>https://okx.com</t>
+          <t>https://binance.com</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -7293,37 +7405,37 @@
         </is>
       </c>
       <c r="K109" t="n">
-        <v>20563253.14187241</v>
+        <v>39453500.8125</v>
       </c>
       <c r="L109" t="n">
-        <v>20931948.37501359</v>
+        <v>0</v>
       </c>
       <c r="M109" t="n">
-        <v>66166.8222873137</v>
+        <v>1693930.545</v>
       </c>
       <c r="N109" t="n">
-        <v>66909.01344051</v>
+        <v>0</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xfBd4cdB413E45a52E2C8312f670e9cE67E794C37</t>
+          <t>https://intel.arkm.com/explorer/address/0x8894E0a0c962CB723c1976a4421c95949bE2D4E3</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>0xfBd4cdB413E45a52E2C8312f670e9cE67E794C37</t>
+          <t>0x8894E0a0c962CB723c1976a4421c95949bE2D4E3</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -7332,48 +7444,68 @@
         </is>
       </c>
       <c r="D110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E110" t="b">
         <v>0</v>
       </c>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Binance</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K110" t="n">
-        <v>14089961.3859787</v>
+        <v>43289077.22366142</v>
       </c>
       <c r="L110" t="n">
-        <v>14214057.45548058</v>
+        <v>46496337.23376691</v>
       </c>
       <c r="M110" t="n">
-        <v>45196.88539266813</v>
+        <v>1797014.262244837</v>
       </c>
       <c r="N110" t="n">
-        <v>45374.7409700434</v>
+        <v>1943480.14991465</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xAfB3Bfe1a1Fc2bdBDbB8AeB42ceC43434529Be0D</t>
+          <t>https://intel.arkm.com/explorer/address/0x1fA956A0bA481df173bB2602F5c097bfe223e5aC</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>0xAfB3Bfe1a1Fc2bdBDbB8AeB42ceC43434529Be0D</t>
+          <t>0x1fA956A0bA481df173bB2602F5c097bfe223e5aC</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -7382,68 +7514,48 @@
         </is>
       </c>
       <c r="D111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111" t="b">
         <v>0</v>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Coinbase</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
         <v>0</v>
       </c>
       <c r="L111" t="n">
-        <v>23781566</v>
+        <v>29261098</v>
       </c>
       <c r="M111" t="n">
         <v>0</v>
       </c>
       <c r="N111" t="n">
-        <v>80906.18991843006</v>
+        <v>1258000.8049</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x373c745d8075C70369CFA10d753B186F2727F6DA</t>
+          <t>https://intel.arkm.com/explorer/address/0xA69babEF1cA67A37Ffaf7a485DfFF3382056e78C</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>0x373c745d8075C70369CFA10d753B186F2727F6DA</t>
+          <t>0xA69babEF1cA67A37Ffaf7a485DfFF3382056e78C</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -7452,48 +7564,68 @@
         </is>
       </c>
       <c r="D112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" t="b">
         <v>0</v>
       </c>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Symbolic Capital Partners</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>https://symbolic.partners</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>MEV Bot</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K112" t="n">
-        <v>0</v>
+        <v>171167643.0177536</v>
       </c>
       <c r="L112" t="n">
-        <v>14565980</v>
+        <v>171140530.4026866</v>
       </c>
       <c r="M112" t="n">
-        <v>0</v>
+        <v>7208660.834892441</v>
       </c>
       <c r="N112" t="n">
-        <v>45114.07</v>
+        <v>7204435.540690763</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xEae7380dD4CeF6fbD1144F49E4D1e6964258A4F4</t>
+          <t>https://intel.arkm.com/explorer/address/0xBEE3211ab312a8D065c4FeF0247448e17A8da000</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>0xEae7380dD4CeF6fbD1144F49E4D1e6964258A4F4</t>
+          <t>0xBEE3211ab312a8D065c4FeF0247448e17A8da000</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -7502,29 +7634,17 @@
         </is>
       </c>
       <c r="D113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113" t="b">
         <v>0</v>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Wintermute</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>https://www.wintermute.com/</t>
-        </is>
-      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Binance Deposit</t>
+          <t>Market Maker</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -7533,37 +7653,37 @@
         </is>
       </c>
       <c r="K113" t="n">
-        <v>83666549.7265625</v>
+        <v>40853953.65699482</v>
       </c>
       <c r="L113" t="n">
-        <v>83412659.328125</v>
+        <v>41068271.70517422</v>
       </c>
       <c r="M113" t="n">
-        <v>267337.65620804</v>
+        <v>1745104.684488905</v>
       </c>
       <c r="N113" t="n">
-        <v>266622.6589379</v>
+        <v>1753167.602334351</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x21a31Ee1afC51d94C2eFcCAa2092aD1028285549</t>
+          <t>https://intel.arkm.com/explorer/address/0x191c10Aa4AF7C30e871E70C95dB0E4eb77237530</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>0x21a31Ee1afC51d94C2eFcCAa2092aD1028285549</t>
+          <t>0x191c10Aa4AF7C30e871E70C95dB0E4eb77237530</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -7579,49 +7699,41 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Aave</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>lending-decentralized</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://aave.com</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>69008158</v>
+        <v>39800107.35498379</v>
       </c>
       <c r="L114" t="n">
-        <v>71824954.11589229</v>
+        <v>37830081.33245079</v>
       </c>
       <c r="M114" t="n">
-        <v>223323.35860868</v>
+        <v>1693760.262574193</v>
       </c>
       <c r="N114" t="n">
-        <v>231371.99860768</v>
+        <v>1612299.257207147</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2025-09-23 11:35:57</t>
+          <t>2025-09-23 11:46:00</t>
         </is>
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>

--- a/data_cripto/top_flow.xlsx
+++ b/data_cripto/top_flow.xlsx
@@ -518,12 +518,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1DLeNApsHNNzUMNZJVoXeyEY5sdp8vzx3w</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qr4dl5wa7kl8yu792dceg9z5knl2gkn220lk7a9</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1DLeNApsHNNzUMNZJVoXeyEY5sdp8vzx3w</t>
+          <t>bc1qr4dl5wa7kl8yu792dceg9z5knl2gkn220lk7a9</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Bybit</t>
+          <t>Crypto.com</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://bybit.com</t>
+          <t>https://crypto.com</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -561,20 +561,20 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>9570654714.891972</v>
+        <v>3644631819.933677</v>
       </c>
       <c r="L2" t="n">
-        <v>9609737794.887161</v>
+        <v>3740615434.742053</v>
       </c>
       <c r="M2" t="n">
-        <v>81701.84167153999</v>
+        <v>31900.35997361</v>
       </c>
       <c r="N2" t="n">
-        <v>82065.69237117001</v>
+        <v>32777.34262941</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -586,12 +586,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1Kr6QSydW9bFQG1mXiPNNu6WpJGmUa9i1g</t>
+          <t>https://intel.arkm.com/explorer/address/16Uz37Q6TfvK2UFTgamn3dyRjnP2Wtf4p2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1Kr6QSydW9bFQG1mXiPNNu6WpJGmUa9i1g</t>
+          <t>16Uz37Q6TfvK2UFTgamn3dyRjnP2Wtf4p2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -605,44 +605,36 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bitfinex</t>
+          <t>Cumberland DRW</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://bitfinex.com</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://cumberland.io</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>2093977093.666811</v>
+        <v>1632083967.6875</v>
       </c>
       <c r="L3" t="n">
-        <v>2020711942.091281</v>
+        <v>1557052755.375</v>
       </c>
       <c r="M3" t="n">
-        <v>18484.32036487</v>
+        <v>13926.62059275</v>
       </c>
       <c r="N3" t="n">
-        <v>17956.54605065</v>
+        <v>13259.01816892</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -654,12 +646,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q0d3k8zue8z5ztqt0r35rsd7gua5z4ser6gt46c</t>
+          <t>https://intel.arkm.com/explorer/address/38ACfxHJwKnKFW2Evmnk58Aj9CBF7t3T88</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>bc1q0d3k8zue8z5ztqt0r35rsd7gua5z4ser6gt46c</t>
+          <t>38ACfxHJwKnKFW2Evmnk58Aj9CBF7t3T88</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -686,31 +678,23 @@
           <t>https://coinbase.com</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>1682943399.930204</v>
+        <v>1137217936.601562</v>
       </c>
       <c r="L4" t="n">
-        <v>1749417873.767917</v>
+        <v>1176680799.851562</v>
       </c>
       <c r="M4" t="n">
-        <v>14423.63354515</v>
+        <v>9694.6703951</v>
       </c>
       <c r="N4" t="n">
-        <v>14989.04255799</v>
+        <v>10059.4877859</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -722,12 +706,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1DrXm4TNPsCLrNSNPSPjMYPxNePBUMvPxk</t>
+          <t>https://intel.arkm.com/explorer/address/1FZcb6BU1ZbHQJcby7vDF2Na1z9UmkGSSG</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1DrXm4TNPsCLrNSNPSPjMYPxNePBUMvPxk</t>
+          <t>1FZcb6BU1ZbHQJcby7vDF2Na1z9UmkGSSG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -754,23 +738,31 @@
           <t>https://coinbase.com</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K5" t="n">
-        <v>839251456</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>839251776</v>
       </c>
       <c r="M5" t="n">
-        <v>7441.16194173</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>7441.16509553</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -782,12 +774,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1FKFB8dQDddNcSq3ZkNyzAJQT2NhWY1YFP</t>
+          <t>https://intel.arkm.com/explorer/address/1JFUG5K3HidvfJD4R7nKyDJikmFpPcBB2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1FKFB8dQDddNcSq3ZkNyzAJQT2NhWY1YFP</t>
+          <t>1JFUG5K3HidvfJD4R7nKyDJikmFpPcBB2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -799,26 +791,46 @@
       <c r="E6" t="b">
         <v>0</v>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>884964096</v>
+        <v>860444224</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>7660.30238165</v>
+        <v>7441.16506769</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -830,12 +842,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1M14kQL3zfyEAHx6JCM3gsZyAxyiSDMWdp</t>
+          <t>https://intel.arkm.com/explorer/address/12XZMdaAGmcHf4ocFSqpd8jFd1WH7RHUPs</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1M14kQL3zfyEAHx6JCM3gsZyAxyiSDMWdp</t>
+          <t>12XZMdaAGmcHf4ocFSqpd8jFd1WH7RHUPs</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -849,7 +861,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Bybit</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -859,12 +871,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
+          <t>https://bybit.com</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -873,20 +885,20 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>9904170295.873322</v>
       </c>
       <c r="L7" t="n">
-        <v>863270528</v>
+        <v>9900972011.992199</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>84449.01115062</v>
       </c>
       <c r="N7" t="n">
-        <v>7519.3848763</v>
+        <v>84447.55846461</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -898,12 +910,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1C1sUtw6fYa1Yr5wexrH2ayT1ZykD9Sobx</t>
+          <t>https://intel.arkm.com/explorer/address/15DomY3arDPw5jD658Mbf3AY3wT3YCDmW2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1C1sUtw6fYa1Yr5wexrH2ayT1ZykD9Sobx</t>
+          <t>15DomY3arDPw5jD658Mbf3AY3wT3YCDmW2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -917,22 +929,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Wintermute</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
+          <t>https://www.wintermute.com/</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -941,20 +953,20 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>5894858187.588665</v>
       </c>
       <c r="L8" t="n">
-        <v>829414592</v>
+        <v>5825065011.119247</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>50251.28443205</v>
       </c>
       <c r="N8" t="n">
-        <v>7441.16506769</v>
+        <v>49671.68480583</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -966,12 +978,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/12XZMdaAGmcHf4ocFSqpd8jFd1WH7RHUPs</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q7cyrfmck2ffu2ud3rn5l5a8yv6f0chkp0zpemf</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>12XZMdaAGmcHf4ocFSqpd8jFd1WH7RHUPs</t>
+          <t>bc1q7cyrfmck2ffu2ud3rn5l5a8yv6f0chkp0zpemf</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -985,7 +997,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bybit</t>
+          <t>Crypto.com</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -995,7 +1007,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://bybit.com</t>
+          <t>https://crypto.com</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1009,20 +1021,20 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>9903679363.623322</v>
+        <v>3674013725.523796</v>
       </c>
       <c r="L9" t="n">
-        <v>9900744322.839855</v>
+        <v>3802676829.703133</v>
       </c>
       <c r="M9" t="n">
-        <v>84444.82637949</v>
+        <v>32228.06962409</v>
       </c>
       <c r="N9" t="n">
-        <v>84445.61761232</v>
+        <v>33286.10708708</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1034,12 +1046,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1D5RvXD1M4UaYgJFjPnZ8bQPHdvDHUuxv2</t>
+          <t>https://intel.arkm.com/explorer/address/bc1p2mlwrss9tmvtfvu0tcxul2h0w67ej8vyjpj3ksctt67vd9r752ksqx6uqm</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1D5RvXD1M4UaYgJFjPnZ8bQPHdvDHUuxv2</t>
+          <t>bc1p2mlwrss9tmvtfvu0tcxul2h0w67ej8vyjpj3ksctt67vd9r752ksqx6uqm</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1051,38 +1063,26 @@
       <c r="E10" t="b">
         <v>0</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Coinbase</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>860443904</v>
+        <v>2536338052.058561</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>2546448190.683504</v>
       </c>
       <c r="M10" t="n">
-        <v>7441.16193719</v>
+        <v>21847.07211411</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>21932.97145841</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1094,12 +1094,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3FD9v4Tf6KpbttXoiAUiWtVVEUDMEZ8MED</t>
+          <t>https://intel.arkm.com/explorer/address/16yqvtnB8Kz5UGYi5rAMX928JZwNKoCNxh</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3FD9v4Tf6KpbttXoiAUiWtVVEUDMEZ8MED</t>
+          <t>16yqvtnB8Kz5UGYi5rAMX928JZwNKoCNxh</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1113,44 +1113,36 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ETC Group</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://etc-group.com/</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>BTCE Bitcoin ETF</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>841760384</v>
+        <v>863270080</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>863270080</v>
       </c>
       <c r="M11" t="n">
-        <v>7173.56406811</v>
+        <v>7519.3809588</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>7519.3809588</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1162,12 +1154,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q9exg34dkmgxu28yektgn929jpjpzukhhl2r3zr</t>
+          <t>https://intel.arkm.com/explorer/address/1D5RvXD1M4UaYgJFjPnZ8bQPHdvDHUuxv2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>bc1q9exg34dkmgxu28yektgn929jpjpzukhhl2r3zr</t>
+          <t>1D5RvXD1M4UaYgJFjPnZ8bQPHdvDHUuxv2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1181,44 +1173,36 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Wintermute</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.wintermute.com/</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>4589202383.003777</v>
+        <v>860443904</v>
       </c>
       <c r="L12" t="n">
-        <v>4583077633.414295</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>39089.53352478</v>
+        <v>7441.16193719</v>
       </c>
       <c r="N12" t="n">
-        <v>39033.81403899</v>
+        <v>0</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1230,12 +1214,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qcgphlnlrn7r436v6y07w503qm0wnku9al5d7jm</t>
+          <t>https://intel.arkm.com/explorer/address/3KXwpcwggRsACLkFdfCVMU5ZA4tcLxdN6T</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>bc1qcgphlnlrn7r436v6y07w503qm0wnku9al5d7jm</t>
+          <t>3KXwpcwggRsACLkFdfCVMU5ZA4tcLxdN6T</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1247,26 +1231,46 @@
       <c r="E13" t="b">
         <v>0</v>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Kraken</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://kraken.com</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Kraken Deposit</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K13" t="n">
-        <v>919900584</v>
+        <v>10508777385.5</v>
       </c>
       <c r="L13" t="n">
-        <v>925860432</v>
+        <v>11613881145.20484</v>
       </c>
       <c r="M13" t="n">
-        <v>7500.000054390001</v>
+        <v>90397.55322351999</v>
       </c>
       <c r="N13" t="n">
-        <v>7499.99957823</v>
+        <v>100432.52290066</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1278,12 +1282,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1GTE8QzgkK1wnYx8vzft4NVQWf1XdvE6H9</t>
+          <t>https://intel.arkm.com/explorer/address/1GrwDkr33gT6LuumniYjKEGjTLhsL5kmqC</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1GTE8QzgkK1wnYx8vzft4NVQWf1XdvE6H9</t>
+          <t>1GrwDkr33gT6LuumniYjKEGjTLhsL5kmqC</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1297,7 +1301,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Bybit</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1307,26 +1311,34 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>https://bybit.com</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K14" t="n">
-        <v>870050432</v>
+        <v>9894352984.938354</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>9902412409.694813</v>
       </c>
       <c r="M14" t="n">
-        <v>7441.16203044</v>
+        <v>84255.29918693</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>84322.25188972001</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1338,12 +1350,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q8s3h3vw5xufdas890q29lpuca56r0ezqar0mvs</t>
+          <t>https://intel.arkm.com/explorer/address/bc1quhruqrghgcca950rvhtrg7cpd7u8k6svpzgzmrjy8xyukacl5lkq0r8l2d</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>bc1q8s3h3vw5xufdas890q29lpuca56r0ezqar0mvs</t>
+          <t>bc1quhruqrghgcca950rvhtrg7cpd7u8k6svpzgzmrjy8xyukacl5lkq0r8l2d</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1357,36 +1369,44 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Cumberland DRW</t>
+          <t>OKX</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://cumberland.io</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+          <t>https://okx.com</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K15" t="n">
-        <v>2110970354.491973</v>
+        <v>3464672360.546014</v>
       </c>
       <c r="L15" t="n">
-        <v>2117864279.805557</v>
+        <v>3680913537.653028</v>
       </c>
       <c r="M15" t="n">
-        <v>17955.12468745</v>
+        <v>29856.97115098</v>
       </c>
       <c r="N15" t="n">
-        <v>18016.72482824</v>
+        <v>31404.2334448</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1398,12 +1418,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qjasf9z3h7w3jspkhtgatgpyvvzgpa2wwd2lr0eh5tx44reyn2k7sfc27a4</t>
+          <t>https://intel.arkm.com/explorer/address/1DrXm4TNPsCLrNSNPSPjMYPxNePBUMvPxk</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>bc1qjasf9z3h7w3jspkhtgatgpyvvzgpa2wwd2lr0eh5tx44reyn2k7sfc27a4</t>
+          <t>1DrXm4TNPsCLrNSNPSPjMYPxNePBUMvPxk</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1417,44 +1437,36 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tether</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>stablecoin</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://tether.to/</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Bitcoin Reserves</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>1004186688.615806</v>
+        <v>839251456</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>8888.888894260001</v>
+        <v>7441.16194173</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1466,12 +1478,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1FZcb6BU1ZbHQJcby7vDF2Na1z9UmkGSSG</t>
+          <t>https://intel.arkm.com/explorer/address/1FKFB8dQDddNcSq3ZkNyzAJQT2NhWY1YFP</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1FZcb6BU1ZbHQJcby7vDF2Na1z9UmkGSSG</t>
+          <t>1FKFB8dQDddNcSq3ZkNyzAJQT2NhWY1YFP</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1483,46 +1495,26 @@
       <c r="E17" t="b">
         <v>0</v>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Coinbase</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>839251776</v>
+        <v>884964096</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>7441.16509553</v>
+        <v>7660.30238165</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1534,12 +1526,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1GrwDkr33gT6LuumniYjKEGjTLhsL5kmqC</t>
+          <t>https://intel.arkm.com/explorer/address/19tiUa9nsPTgaqWNHaM9QyCfv4Wm9dVeYa</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1GrwDkr33gT6LuumniYjKEGjTLhsL5kmqC</t>
+          <t>19tiUa9nsPTgaqWNHaM9QyCfv4Wm9dVeYa</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1553,7 +1545,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Bybit</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1563,12 +1555,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://bybit.com</t>
+          <t>https://coinbase.com</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1577,20 +1569,20 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>9893504117.000854</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>9902361164.690907</v>
+        <v>829786624</v>
       </c>
       <c r="M18" t="n">
-        <v>84248.06332487</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>84321.81507055</v>
+        <v>7441.16511197</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1602,12 +1594,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3P8dPqoHYcFVB7ki86tE6gSsrDYRuW3MbA</t>
+          <t>https://intel.arkm.com/explorer/address/1DLeNApsHNNzUMNZJVoXeyEY5sdp8vzx3w</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3P8dPqoHYcFVB7ki86tE6gSsrDYRuW3MbA</t>
+          <t>1DLeNApsHNNzUMNZJVoXeyEY5sdp8vzx3w</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1619,12 +1611,24 @@
       <c r="E19" t="b">
         <v>0</v>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Bybit</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://bybit.com</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Coinbase Prime Deposit</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1633,20 +1637,20 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>1377953480</v>
+        <v>9571844901.001347</v>
       </c>
       <c r="L19" t="n">
-        <v>1298541146</v>
+        <v>9609788099.977005</v>
       </c>
       <c r="M19" t="n">
-        <v>11501</v>
+        <v>81711.98697473</v>
       </c>
       <c r="N19" t="n">
-        <v>10839</v>
+        <v>82066.12117838999</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1658,12 +1662,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qq393eyjh8hdjvcchy0mxquhh9wx8h3kzlkchfs</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qx9n80t5q7tfmutzaj0ramzzzsvtveara68zntc</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>bc1qq393eyjh8hdjvcchy0mxquhh9wx8h3kzlkchfs</t>
+          <t>bc1qx9n80t5q7tfmutzaj0ramzzzsvtveara68zntc</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1677,22 +1681,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ceffu</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>custodian</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.ceffu.com/</t>
+          <t>https://kraken.com</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Custody Hot Wallet</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1701,20 +1705,20 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>1002462792.857925</v>
+        <v>8338163515.929337</v>
       </c>
       <c r="L20" t="n">
-        <v>996116693.9931433</v>
+        <v>8131139165.829956</v>
       </c>
       <c r="M20" t="n">
-        <v>8560.508458329999</v>
+        <v>71501.40347359001</v>
       </c>
       <c r="N20" t="n">
-        <v>8613.877649279999</v>
+        <v>69185.35877637001</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1726,12 +1730,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1JFUG5K3HidvfJD4R7nKyDJikmFpPcBB2</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q42kvqt0e3f27qhd2ucnprarl5ywpuj7tu0h9v2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1JFUG5K3HidvfJD4R7nKyDJikmFpPcBB2</t>
+          <t>bc1q42kvqt0e3f27qhd2ucnprarl5ywpuj7tu0h9v2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1745,7 +1749,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>FalconX</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1755,12 +1759,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
+          <t>https://falconx.io/</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1769,20 +1773,20 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>2828579795.332231</v>
       </c>
       <c r="L21" t="n">
-        <v>860444224</v>
+        <v>2818722888.878767</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>24323.60902517</v>
       </c>
       <c r="N21" t="n">
-        <v>7441.16506769</v>
+        <v>24280.17267465</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -1794,12 +1798,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/12DezRFkKToAiLTDNru1g7FuvtAWMwCZ7N</t>
+          <t>https://intel.arkm.com/explorer/address/38MfJkxPkpwsZxkyfESwjdaKBdXrV8DpWr</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>12DezRFkKToAiLTDNru1g7FuvtAWMwCZ7N</t>
+          <t>38MfJkxPkpwsZxkyfESwjdaKBdXrV8DpWr</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1826,31 +1830,23 @@
           <t>https://coinbase.com</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>4395600616.042969</v>
+        <v>2141280998.054688</v>
       </c>
       <c r="L22" t="n">
-        <v>4396596533.21875</v>
+        <v>2060614363.296875</v>
       </c>
       <c r="M22" t="n">
-        <v>37760.9318747</v>
+        <v>18096.5495</v>
       </c>
       <c r="N22" t="n">
-        <v>37768.83459805</v>
+        <v>17375.7038</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -1862,12 +1858,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q7cyrfmck2ffu2ud3rn5l5a8yv6f0chkp0zpemf</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qjasf9z3h7w3jspkhtgatgpyvvzgpa2wwd2lr0eh5tx44reyn2k7sfc27a4</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>bc1q7cyrfmck2ffu2ud3rn5l5a8yv6f0chkp0zpemf</t>
+          <t>bc1qjasf9z3h7w3jspkhtgatgpyvvzgpa2wwd2lr0eh5tx44reyn2k7sfc27a4</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1881,22 +1877,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Crypto.com</t>
+          <t>Tether</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>stablecoin</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://crypto.com</t>
+          <t>https://tether.to/</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Bitcoin Reserves</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1905,20 +1901,20 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>3674013725.523796</v>
+        <v>1004186688.615806</v>
       </c>
       <c r="L23" t="n">
-        <v>3802658402.372059</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>32228.06962409</v>
+        <v>8888.888894260001</v>
       </c>
       <c r="N23" t="n">
-        <v>33285.95001008</v>
+        <v>0</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -1930,12 +1926,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qr4dl5wa7kl8yu792dceg9z5knl2gkn220lk7a9</t>
+          <t>https://intel.arkm.com/explorer/address/3JZq4atUahhuA9rLhXLMhhTo133J9rF97j</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>bc1qr4dl5wa7kl8yu792dceg9z5knl2gkn220lk7a9</t>
+          <t>3JZq4atUahhuA9rLhXLMhhTo133J9rF97j</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1949,7 +1945,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Crypto.com</t>
+          <t>Bitfinex</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1959,7 +1955,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://crypto.com</t>
+          <t>https://bitfinex.com</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1973,20 +1969,20 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>3644631819.933677</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>3740615434.742053</v>
+        <v>1022280000</v>
       </c>
       <c r="M24" t="n">
-        <v>31900.35997361</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>32777.34262941</v>
+        <v>9000.00001046</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -1998,12 +1994,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1quhruqrghgcca950rvhtrg7cpd7u8k6svpzgzmrjy8xyukacl5lkq0r8l2d</t>
+          <t>https://intel.arkm.com/explorer/address/1M14kQL3zfyEAHx6JCM3gsZyAxyiSDMWdp</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>bc1quhruqrghgcca950rvhtrg7cpd7u8k6svpzgzmrjy8xyukacl5lkq0r8l2d</t>
+          <t>1M14kQL3zfyEAHx6JCM3gsZyAxyiSDMWdp</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2017,7 +2013,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>OKX</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2027,12 +2023,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://okx.com</t>
+          <t>https://coinbase.com</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2041,20 +2037,20 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>3464646599.827264</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>3680913537.653028</v>
+        <v>863270528</v>
       </c>
       <c r="M25" t="n">
-        <v>29856.75156321</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>31404.2334448</v>
+        <v>7519.3848763</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2066,12 +2062,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q67g733e7z2gy333pcnkqrvpptjel2c6kr4jkug</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q9exg34dkmgxu28yektgn929jpjpzukhhl2r3zr</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>bc1q67g733e7z2gy333pcnkqrvpptjel2c6kr4jkug</t>
+          <t>bc1q9exg34dkmgxu28yektgn929jpjpzukhhl2r3zr</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2083,26 +2079,46 @@
       <c r="E26" t="b">
         <v>0</v>
       </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Wintermute</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K26" t="n">
-        <v>1222370006</v>
+        <v>4589202383.003777</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>4583077633.414295</v>
       </c>
       <c r="M26" t="n">
-        <v>9901</v>
+        <v>39089.53352478</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>39033.81403899</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2114,12 +2130,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1GSioUx6gh2WcS1fYBrSjFnihqPzosbS8m</t>
+          <t>https://intel.arkm.com/explorer/address/12DezRFkKToAiLTDNru1g7FuvtAWMwCZ7N</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1GSioUx6gh2WcS1fYBrSjFnihqPzosbS8m</t>
+          <t>12DezRFkKToAiLTDNru1g7FuvtAWMwCZ7N</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2146,23 +2162,31 @@
           <t>https://coinbase.com</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K27" t="n">
-        <v>829414272</v>
+        <v>4395600616.042969</v>
       </c>
       <c r="L27" t="n">
-        <v>835277888</v>
+        <v>4396596533.21875</v>
       </c>
       <c r="M27" t="n">
-        <v>7441.16217029</v>
+        <v>37760.9318747</v>
       </c>
       <c r="N27" t="n">
-        <v>7441.16217029</v>
+        <v>37768.83459805</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2174,12 +2198,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q0y5m6wdxjre0fs9m3u0j3pv2fcja6qw3a2f6ql</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qtq5zfllw9fs9w6stnfgalf9v59fgrcxxyawuvm</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>bc1q0y5m6wdxjre0fs9m3u0j3pv2fcja6qw3a2f6ql</t>
+          <t>bc1qtq5zfllw9fs9w6stnfgalf9v59fgrcxxyawuvm</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2193,7 +2217,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kraken</t>
+          <t>Deribit</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2203,34 +2227,26 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://kraken.com</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://deribit.com</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>2599160960</v>
+        <v>4046503426</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>4015443876.25</v>
       </c>
       <c r="M28" t="n">
-        <v>23000</v>
+        <v>34055.01032632</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>33708.46610217</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2242,12 +2258,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qxu4nfkdf8a97mey8ke3npg3aggvskvvcdgndnvxn5upv7jypxdgs3mhvvy</t>
+          <t>https://intel.arkm.com/explorer/address/14B4ceT9HWX1njZWB7an1zQAY9zXX352EQ</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>bc1qxu4nfkdf8a97mey8ke3npg3aggvskvvcdgndnvxn5upv7jypxdgs3mhvvy</t>
+          <t>14B4ceT9HWX1njZWB7an1zQAY9zXX352EQ</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2259,46 +2275,26 @@
       <c r="E29" t="b">
         <v>0</v>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Kraken</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>https://kraken.com</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>884906304</v>
       </c>
       <c r="L29" t="n">
-        <v>2664070872</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>7659.80237939</v>
       </c>
       <c r="N29" t="n">
-        <v>23672.58546311</v>
+        <v>0</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2310,12 +2306,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/19tiUa9nsPTgaqWNHaM9QyCfv4Wm9dVeYa</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qjfyk39gshlamzfedthz74sx296xyjn4u2xr00phgjsmduppezsyqulgqg7</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>19tiUa9nsPTgaqWNHaM9QyCfv4Wm9dVeYa</t>
+          <t>bc1qjfyk39gshlamzfedthz74sx296xyjn4u2xr00phgjsmduppezsyqulgqg7</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2329,7 +2325,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2339,7 +2335,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
+          <t>https://kraken.com</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2356,17 +2352,17 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>829786624</v>
+        <v>3130391992.500488</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>7441.16511197</v>
+        <v>27845.47518492</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2378,12 +2374,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/19RtRzXV5px91eMbWZFCWLZRUeQX5XxxnJ</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qxu4nfkdf8a97mey8ke3npg3aggvskvvcdgndnvxn5upv7jypxdgs3mhvvy</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>19RtRzXV5px91eMbWZFCWLZRUeQX5XxxnJ</t>
+          <t>bc1qxu4nfkdf8a97mey8ke3npg3aggvskvvcdgndnvxn5upv7jypxdgs3mhvvy</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2397,7 +2393,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2407,7 +2403,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
+          <t>https://kraken.com</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2424,17 +2420,17 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>870050816</v>
+        <v>2664070872</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>7441.16506769</v>
+        <v>23672.58546311</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2446,12 +2442,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qx9n80t5q7tfmutzaj0ramzzzsvtveara68zntc</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q0d3k8zue8z5ztqt0r35rsd7gua5z4ser6gt46c</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>bc1qx9n80t5q7tfmutzaj0ramzzzsvtveara68zntc</t>
+          <t>bc1q0d3k8zue8z5ztqt0r35rsd7gua5z4ser6gt46c</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2465,7 +2461,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Kraken</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2475,12 +2471,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://kraken.com</t>
+          <t>https://coinbase.com</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2489,20 +2485,20 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>8338163515.929337</v>
+        <v>1682943399.930204</v>
       </c>
       <c r="L32" t="n">
-        <v>8131139165.829956</v>
+        <v>1749417873.767917</v>
       </c>
       <c r="M32" t="n">
-        <v>71501.40347359001</v>
+        <v>14423.63354515</v>
       </c>
       <c r="N32" t="n">
-        <v>69185.35877637001</v>
+        <v>14989.04255799</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -2514,12 +2510,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/15DomY3arDPw5jD658Mbf3AY3wT3YCDmW2</t>
+          <t>https://intel.arkm.com/explorer/address/3LUATjKp4YfmCSSiN1h3juwrqNTyksXAjp</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>15DomY3arDPw5jD658Mbf3AY3wT3YCDmW2</t>
+          <t>3LUATjKp4YfmCSSiN1h3juwrqNTyksXAjp</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2533,7 +2529,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Wintermute</t>
+          <t>Fidelity FBTC ETF Inflows</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2543,12 +2539,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.wintermute.com/</t>
+          <t>https://www.fidelity.com/</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>FBTC Inflows (Fidelity Custody Deposit)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2557,20 +2553,20 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>5874680179.588665</v>
+        <v>901307960</v>
       </c>
       <c r="L33" t="n">
-        <v>5825065011.119247</v>
+        <v>1024845392</v>
       </c>
       <c r="M33" t="n">
-        <v>50079.28443205</v>
+        <v>7858.748000000001</v>
       </c>
       <c r="N33" t="n">
-        <v>49671.68480583</v>
+        <v>8760.4559264</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -2582,12 +2578,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qjcm02r55a90v88xwe4alew4y4uyft2htvnywv2</t>
+          <t>https://intel.arkm.com/explorer/address/1GTE8QzgkK1wnYx8vzft4NVQWf1XdvE6H9</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>bc1qjcm02r55a90v88xwe4alew4y4uyft2htvnywv2</t>
+          <t>1GTE8QzgkK1wnYx8vzft4NVQWf1XdvE6H9</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2601,7 +2597,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Robinhood</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2611,26 +2607,26 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://robinhood.com/</t>
+          <t>https://coinbase.com</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>1021616583.197266</v>
+        <v>870050432</v>
       </c>
       <c r="L34" t="n">
-        <v>874423254</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>8701.86604963</v>
+        <v>7441.16203044</v>
       </c>
       <c r="N34" t="n">
-        <v>7506.89753852</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -2642,12 +2638,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3MqUP6G1daVS5YTD8fz3QgwjZortWwxXFd</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qzwhw94uldd3c8736lsxrda6t6x56030f8zk8nr</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3MqUP6G1daVS5YTD8fz3QgwjZortWwxXFd</t>
+          <t>bc1qzwhw94uldd3c8736lsxrda6t6x56030f8zk8nr</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2661,7 +2657,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Coinbase Prime</t>
+          <t>Deribit</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2671,12 +2667,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.coinbase.com/prime</t>
+          <t>https://deribit.com</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2685,20 +2681,20 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>24332767644.53003</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>24220791525.60772</v>
+        <v>3879277216</v>
       </c>
       <c r="M35" t="n">
-        <v>206889.87305284</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>205987.99536382</v>
+        <v>32606.4832632</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -2710,12 +2706,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qv4r4zwvf5ckdx3llaykl0vez4fdaj4jh5yfjsw</t>
+          <t>https://intel.arkm.com/explorer/address/1KbDEg1tDz2ErYgaDbaDhhawnLrSQFaFx5</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>bc1qv4r4zwvf5ckdx3llaykl0vez4fdaj4jh5yfjsw</t>
+          <t>1KbDEg1tDz2ErYgaDbaDhhawnLrSQFaFx5</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2727,26 +2723,46 @@
       <c r="E36" t="b">
         <v>0</v>
       </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Wintermute</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Binance Deposit</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K36" t="n">
-        <v>10508698190.56395</v>
+        <v>4737635930.529494</v>
       </c>
       <c r="L36" t="n">
-        <v>10526237753.5</v>
+        <v>4629133634.225772</v>
       </c>
       <c r="M36" t="n">
-        <v>90397.62426963</v>
+        <v>40523.01379851</v>
       </c>
       <c r="N36" t="n">
-        <v>90542.04734322999</v>
+        <v>39607.51290942</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -2758,12 +2774,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/324H9uyTV9bPgAVgmdJNxPKKKZmowk5CYq</t>
+          <t>https://intel.arkm.com/explorer/address/1Kr6QSydW9bFQG1mXiPNNu6WpJGmUa9i1g</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>324H9uyTV9bPgAVgmdJNxPKKKZmowk5CYq</t>
+          <t>1Kr6QSydW9bFQG1mXiPNNu6WpJGmUa9i1g</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2777,7 +2793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Bullish.com</t>
+          <t>Bitfinex</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2787,7 +2803,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://bullish.com/</t>
+          <t>https://bitfinex.com</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2801,20 +2817,20 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>1743083555.151851</v>
+        <v>2093977093.666811</v>
       </c>
       <c r="L37" t="n">
-        <v>1780941678.204137</v>
+        <v>2020711942.091281</v>
       </c>
       <c r="M37" t="n">
-        <v>15025.98854935</v>
+        <v>18484.32036487</v>
       </c>
       <c r="N37" t="n">
-        <v>15358.42844633</v>
+        <v>17956.54605065</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -2826,12 +2842,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1Pzaqw98PeRfyHypfqyEgg5yycJRsENrE7</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q0ymzksy046tv4z88ts5nmu7s574umnwmdev3rt</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1Pzaqw98PeRfyHypfqyEgg5yycJRsENrE7</t>
+          <t>bc1q0ymzksy046tv4z88ts5nmu7s574umnwmdev3rt</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2845,7 +2861,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2855,7 +2871,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
+          <t>https://kraken.com</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2869,20 +2885,20 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1925590016</v>
       </c>
       <c r="L38" t="n">
-        <v>3259468128</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>17000</v>
       </c>
       <c r="N38" t="n">
-        <v>27333.0004034</v>
+        <v>0</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -2894,12 +2910,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/335umQ4egqMjDo6wSXYwQZYPntZzMveNTJ</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qq393eyjh8hdjvcchy0mxquhh9wx8h3kzlkchfs</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>335umQ4egqMjDo6wSXYwQZYPntZzMveNTJ</t>
+          <t>bc1qq393eyjh8hdjvcchy0mxquhh9wx8h3kzlkchfs</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2913,36 +2929,44 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Ceffu</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>custodian</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+          <t>https://www.ceffu.com/</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Custody Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K39" t="n">
-        <v>2051401682.9375</v>
+        <v>1002462792.857925</v>
       </c>
       <c r="L39" t="n">
-        <v>2094477254.53125</v>
+        <v>996116693.9931433</v>
       </c>
       <c r="M39" t="n">
-        <v>17518.3249815</v>
+        <v>8560.508458329999</v>
       </c>
       <c r="N39" t="n">
-        <v>17887.48474862</v>
+        <v>8613.877649280001</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -2954,12 +2978,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/16Uz37Q6TfvK2UFTgamn3dyRjnP2Wtf4p2</t>
+          <t>https://intel.arkm.com/explorer/address/1Pzaqw98PeRfyHypfqyEgg5yycJRsENrE7</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16Uz37Q6TfvK2UFTgamn3dyRjnP2Wtf4p2</t>
+          <t>1Pzaqw98PeRfyHypfqyEgg5yycJRsENrE7</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2973,36 +2997,44 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Cumberland DRW</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://cumberland.io</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K40" t="n">
-        <v>1632083967.6875</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1557052755.375</v>
+        <v>3259468128</v>
       </c>
       <c r="M40" t="n">
-        <v>13926.62059275</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>13259.01816892</v>
+        <v>27333.0004034</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -3014,12 +3046,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3LUATjKp4YfmCSSiN1h3juwrqNTyksXAjp</t>
+          <t>https://intel.arkm.com/explorer/address/3KNViZo8uJwnLyxrWed5gRavbPZibEdAq3</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3LUATjKp4YfmCSSiN1h3juwrqNTyksXAjp</t>
+          <t>3KNViZo8uJwnLyxrWed5gRavbPZibEdAq3</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3033,44 +3065,36 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Fidelity FBTC ETF Inflows</t>
+          <t>Anchorage Digital</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>custodian</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.fidelity.com/</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>FBTC Inflows (Fidelity Custody Deposit)</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://www.anchorage.com</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>901307960</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1024845392</v>
+        <v>1397664941.015625</v>
       </c>
       <c r="M41" t="n">
-        <v>7858.748</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>8760.4559264</v>
+        <v>12073.71860371</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3082,12 +3106,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/14B4ceT9HWX1njZWB7an1zQAY9zXX352EQ</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qsyp3gx0p4p4jzvekxjxkpk9vcjj37gvrlfn9ryx4jy6ne5nhu76s5xxw5d</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>14B4ceT9HWX1njZWB7an1zQAY9zXX352EQ</t>
+          <t>bc1qsyp3gx0p4p4jzvekxjxkpk9vcjj37gvrlfn9ryx4jy6ne5nhu76s5xxw5d</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3099,26 +3123,46 @@
       <c r="E42" t="b">
         <v>0</v>
       </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>OKX</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>https://okx.com</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K42" t="n">
-        <v>884906304</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>986070442.375</v>
       </c>
       <c r="M42" t="n">
-        <v>7659.80237939</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>8320.000045409999</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3130,12 +3174,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/16yqvtnB8Kz5UGYi5rAMX928JZwNKoCNxh</t>
+          <t>https://intel.arkm.com/explorer/address/335umQ4egqMjDo6wSXYwQZYPntZzMveNTJ</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16yqvtnB8Kz5UGYi5rAMX928JZwNKoCNxh</t>
+          <t>335umQ4egqMjDo6wSXYwQZYPntZzMveNTJ</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3165,20 +3209,20 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>863270080</v>
+        <v>2051401682.9375</v>
       </c>
       <c r="L43" t="n">
-        <v>863270080</v>
+        <v>2094477254.53125</v>
       </c>
       <c r="M43" t="n">
-        <v>7519.3809588</v>
+        <v>17518.3249815</v>
       </c>
       <c r="N43" t="n">
-        <v>7519.3809588</v>
+        <v>17887.48474862</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -3190,12 +3234,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1Fo9bPdn66KGA9LgbR9JQKjhxcLG98yiUa</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q67g733e7z2gy333pcnkqrvpptjel2c6kr4jkug</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1Fo9bPdn66KGA9LgbR9JQKjhxcLG98yiUa</t>
+          <t>bc1q67g733e7z2gy333pcnkqrvpptjel2c6kr4jkug</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3207,38 +3251,26 @@
       <c r="E44" t="b">
         <v>0</v>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Coinbase</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>829786304</v>
+        <v>1222370006</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>7441.16183932</v>
+        <v>9901</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -3250,12 +3282,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/39ZP3h79p7xkoB6qZwPiQw8dnHCsBT51u7</t>
+          <t>https://intel.arkm.com/explorer/address/bc1quq29mutxkgxmjfdr7ayj3zd9ad0ld5mrhh89l2</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>39ZP3h79p7xkoB6qZwPiQw8dnHCsBT51u7</t>
+          <t>bc1quq29mutxkgxmjfdr7ayj3zd9ad0ld5mrhh89l2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3267,26 +3299,46 @@
       <c r="E45" t="b">
         <v>0</v>
       </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>https://gemini.com</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K45" t="n">
-        <v>875762816</v>
+        <v>889115057.4076049</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>7167.28024582</v>
+        <v>7634.13746352</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -3298,12 +3350,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1KbDEg1tDz2ErYgaDbaDhhawnLrSQFaFx5</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qjcm02r55a90v88xwe4alew4y4uyft2htvnywv2</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1KbDEg1tDz2ErYgaDbaDhhawnLrSQFaFx5</t>
+          <t>bc1qjcm02r55a90v88xwe4alew4y4uyft2htvnywv2</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3317,44 +3369,36 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Wintermute</t>
+          <t>Robinhood</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.wintermute.com/</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>Binance Deposit</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://robinhood.com/</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>4737635930.529494</v>
+        <v>1023421716.322266</v>
       </c>
       <c r="L46" t="n">
-        <v>4629133634.225772</v>
+        <v>874423254</v>
       </c>
       <c r="M46" t="n">
-        <v>40523.01379851</v>
+        <v>8717.25324185</v>
       </c>
       <c r="N46" t="n">
-        <v>39607.51290941999</v>
+        <v>7506.89753852</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -3366,12 +3410,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q42kvqt0e3f27qhd2ucnprarl5ywpuj7tu0h9v2</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qv4r4zwvf5ckdx3llaykl0vez4fdaj4jh5yfjsw</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>bc1q42kvqt0e3f27qhd2ucnprarl5ywpuj7tu0h9v2</t>
+          <t>bc1qv4r4zwvf5ckdx3llaykl0vez4fdaj4jh5yfjsw</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3383,46 +3427,26 @@
       <c r="E47" t="b">
         <v>0</v>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>FalconX</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>https://falconx.io/</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>2828579795.332231</v>
+        <v>10517169604.56395</v>
       </c>
       <c r="L47" t="n">
-        <v>2818722888.878767</v>
+        <v>10526237753.5</v>
       </c>
       <c r="M47" t="n">
-        <v>24323.60902517</v>
+        <v>90469.83571526999</v>
       </c>
       <c r="N47" t="n">
-        <v>24280.17267465</v>
+        <v>90542.04734322999</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -3434,12 +3458,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/38MfJkxPkpwsZxkyfESwjdaKBdXrV8DpWr</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qn2cpj0hrl37wqh5q94kwrlhtj2lx8ahtw7ef5rg35tswxsqtvufqfmmrq2</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>38MfJkxPkpwsZxkyfESwjdaKBdXrV8DpWr</t>
+          <t>bc1qn2cpj0hrl37wqh5q94kwrlhtj2lx8ahtw7ef5rg35tswxsqtvufqfmmrq2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3453,7 +3477,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>OKX</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3463,26 +3487,34 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+          <t>https://okx.com</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K48" t="n">
-        <v>2141280998.054688</v>
+        <v>2424837411.114711</v>
       </c>
       <c r="L48" t="n">
-        <v>2060614363.296875</v>
+        <v>2463174254.113232</v>
       </c>
       <c r="M48" t="n">
-        <v>18096.5495</v>
+        <v>20484.40605375</v>
       </c>
       <c r="N48" t="n">
-        <v>17375.7038</v>
+        <v>20884.63759041</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -3494,12 +3526,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1quq29mutxkgxmjfdr7ayj3zd9ad0ld5mrhh89l2</t>
+          <t>https://intel.arkm.com/explorer/address/3FD9v4Tf6KpbttXoiAUiWtVVEUDMEZ8MED</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>bc1quq29mutxkgxmjfdr7ayj3zd9ad0ld5mrhh89l2</t>
+          <t>3FD9v4Tf6KpbttXoiAUiWtVVEUDMEZ8MED</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3513,22 +3545,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>ETC Group</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://gemini.com</t>
+          <t>https://etc-group.com/</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>BTCE Bitcoin ETF</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3537,20 +3569,20 @@
         </is>
       </c>
       <c r="K49" t="n">
-        <v>889104833.7953002</v>
+        <v>841760384</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>7634.0503161</v>
+        <v>7173.56406811</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -3562,12 +3594,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qvzgrkefd8v536de2vqhx4d25e5rly7lgk3p2vp</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qcgphlnlrn7r436v6y07w503qm0wnku9al5d7jm</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>bc1qvzgrkefd8v536de2vqhx4d25e5rly7lgk3p2vp</t>
+          <t>bc1qcgphlnlrn7r436v6y07w503qm0wnku9al5d7jm</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3579,46 +3611,26 @@
       <c r="E50" t="b">
         <v>0</v>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Kraken</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>https://kraken.com</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>845344609.7364784</v>
+        <v>919900584</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>925860432</v>
       </c>
       <c r="M50" t="n">
-        <v>7568.19081745</v>
+        <v>7500.00005439</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>7499.99957823</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -3630,12 +3642,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
+          <t>https://intel.arkm.com/explorer/address/1GSioUx6gh2WcS1fYBrSjFnihqPzosbS8m</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
+          <t>1GSioUx6gh2WcS1fYBrSjFnihqPzosbS8m</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3649,7 +3661,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3659,34 +3671,26 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>22329522812.5126</v>
+        <v>829414272</v>
       </c>
       <c r="L51" t="n">
-        <v>23180225976.9949</v>
+        <v>835277888</v>
       </c>
       <c r="M51" t="n">
-        <v>191405.6438937</v>
+        <v>7441.16217029</v>
       </c>
       <c r="N51" t="n">
-        <v>198341.25670557</v>
+        <v>7441.16217029</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -3698,12 +3702,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3KXwpcwggRsACLkFdfCVMU5ZA4tcLxdN6T</t>
+          <t>https://intel.arkm.com/explorer/address/1Fo9bPdn66KGA9LgbR9JQKjhxcLG98yiUa</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3KXwpcwggRsACLkFdfCVMU5ZA4tcLxdN6T</t>
+          <t>1Fo9bPdn66KGA9LgbR9JQKjhxcLG98yiUa</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3717,7 +3721,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Kraken</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3727,34 +3731,26 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://kraken.com</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Kraken Deposit</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>10508777385.5</v>
+        <v>829786304</v>
       </c>
       <c r="L52" t="n">
-        <v>11613881145.20484</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>90397.55322351999</v>
+        <v>7441.16183932</v>
       </c>
       <c r="N52" t="n">
-        <v>100432.52290066</v>
+        <v>0</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -3766,12 +3762,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qn2cpj0hrl37wqh5q94kwrlhtj2lx8ahtw7ef5rg35tswxsqtvufqfmmrq2</t>
+          <t>https://intel.arkm.com/explorer/address/39ZP3h79p7xkoB6qZwPiQw8dnHCsBT51u7</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>bc1qn2cpj0hrl37wqh5q94kwrlhtj2lx8ahtw7ef5rg35tswxsqtvufqfmmrq2</t>
+          <t>39ZP3h79p7xkoB6qZwPiQw8dnHCsBT51u7</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3783,46 +3779,26 @@
       <c r="E53" t="b">
         <v>0</v>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>OKX</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>https://okx.com</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>2424837411.114711</v>
+        <v>875762816</v>
       </c>
       <c r="L53" t="n">
-        <v>2463174254.113232</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>20484.40605375</v>
+        <v>7167.28024582</v>
       </c>
       <c r="N53" t="n">
-        <v>20884.63759041</v>
+        <v>0</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -3834,12 +3810,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qzwhw94uldd3c8736lsxrda6t6x56030f8zk8nr</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>bc1qzwhw94uldd3c8736lsxrda6t6x56030f8zk8nr</t>
+          <t>bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3853,7 +3829,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Deribit</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3863,12 +3839,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://deribit.com</t>
+          <t>https://binance.com</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3877,20 +3853,20 @@
         </is>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>22335328248.3915</v>
       </c>
       <c r="L54" t="n">
-        <v>3879277216</v>
+        <v>23217722494.9949</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>191455.13019234</v>
       </c>
       <c r="N54" t="n">
-        <v>32606.4832632</v>
+        <v>198660.88197467</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -3902,12 +3878,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3JZq4atUahhuA9rLhXLMhhTo133J9rF97j</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q8s3h3vw5xufdas890q29lpuca56r0ezqar0mvs</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3JZq4atUahhuA9rLhXLMhhTo133J9rF97j</t>
+          <t>bc1q8s3h3vw5xufdas890q29lpuca56r0ezqar0mvs</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3921,44 +3897,36 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Bitfinex</t>
+          <t>Cumberland DRW</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://bitfinex.com</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://cumberland.io</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>2110970354.491973</v>
       </c>
       <c r="L55" t="n">
-        <v>1022280000</v>
+        <v>2119669413.680557</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>17955.12468745</v>
       </c>
       <c r="N55" t="n">
-        <v>9000.00001046</v>
+        <v>18032.11202723</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -3970,12 +3938,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1pdwu79dady576y3fupmm82m3g7p2p9f6hgyeqy0tdg7ztxg7xrayqlkl8j9</t>
+          <t>https://intel.arkm.com/explorer/address/1PJiGp2yDLvUgqeBsuZVCBADArNsk6XEiw</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>bc1pdwu79dady576y3fupmm82m3g7p2p9f6hgyeqy0tdg7ztxg7xrayqlkl8j9</t>
+          <t>1PJiGp2yDLvUgqeBsuZVCBADArNsk6XEiw</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3989,22 +3957,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Hyperunit</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>blockchain-infra</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://hyperunit.xyz</t>
+          <t>https://binance.com</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4013,20 +3981,20 @@
         </is>
       </c>
       <c r="K56" t="n">
-        <v>1401589648.311599</v>
+        <v>1325450112</v>
       </c>
       <c r="L56" t="n">
-        <v>1361727271.201111</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>11957.3839287</v>
+        <v>10833</v>
       </c>
       <c r="N56" t="n">
-        <v>11630.36805632</v>
+        <v>0</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -4038,12 +4006,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1PJiGp2yDLvUgqeBsuZVCBADArNsk6XEiw</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qlt5nm3kflne7rht4alsnzdzad878ld5rcu4na0</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1PJiGp2yDLvUgqeBsuZVCBADArNsk6XEiw</t>
+          <t>bc1qlt5nm3kflne7rht4alsnzdzad878ld5rcu4na0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -4057,7 +4025,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Crypto.com</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -4067,7 +4035,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
+          <t>https://crypto.com</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4081,20 +4049,20 @@
         </is>
       </c>
       <c r="K57" t="n">
-        <v>1325450112</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1074583824.40625</v>
       </c>
       <c r="M57" t="n">
-        <v>10833</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>9737.422343369999</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -4106,12 +4074,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/38ACfxHJwKnKFW2Evmnk58Aj9CBF7t3T88</t>
+          <t>https://intel.arkm.com/explorer/address/1C1sUtw6fYa1Yr5wexrH2ayT1ZykD9Sobx</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>38ACfxHJwKnKFW2Evmnk58Aj9CBF7t3T88</t>
+          <t>1C1sUtw6fYa1Yr5wexrH2ayT1ZykD9Sobx</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -4138,23 +4106,31 @@
           <t>https://coinbase.com</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K58" t="n">
-        <v>1137217936.601562</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>1176680799.851562</v>
+        <v>829414592</v>
       </c>
       <c r="M58" t="n">
-        <v>9694.6703951</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>10059.4877859</v>
+        <v>7441.16506769</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -4166,12 +4142,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qlt5nm3kflne7rht4alsnzdzad878ld5rcu4na0</t>
+          <t>https://intel.arkm.com/explorer/address/3MqUP6G1daVS5YTD8fz3QgwjZortWwxXFd</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>bc1qlt5nm3kflne7rht4alsnzdzad878ld5rcu4na0</t>
+          <t>3MqUP6G1daVS5YTD8fz3QgwjZortWwxXFd</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -4185,7 +4161,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Crypto.com</t>
+          <t>Coinbase Prime</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -4195,12 +4171,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://crypto.com</t>
+          <t>https://www.coinbase.com/prime</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -4209,20 +4185,20 @@
         </is>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>24407019804.53003</v>
       </c>
       <c r="L59" t="n">
-        <v>1074583824.40625</v>
+        <v>24271236550.35772</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>207522.8082651</v>
       </c>
       <c r="N59" t="n">
-        <v>9737.422343369999</v>
+        <v>206417.99541764</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -4234,12 +4210,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qtq5zfllw9fs9w6stnfgalf9v59fgrcxxyawuvm</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qws342rlkhszh58rtn35zrw7w076puz83gkcufy</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>bc1qtq5zfllw9fs9w6stnfgalf9v59fgrcxxyawuvm</t>
+          <t>bc1qws342rlkhszh58rtn35zrw7w076puz83gkcufy</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4266,23 +4242,31 @@
           <t>https://deribit.com</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Coinbase Prime Custody</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K60" t="n">
-        <v>4046503426</v>
+        <v>3824267403.3163</v>
       </c>
       <c r="L60" t="n">
-        <v>4015443876.25</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>34055.01032632</v>
+        <v>32050.0001</v>
       </c>
       <c r="N60" t="n">
-        <v>33708.46610217</v>
+        <v>0</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -4294,12 +4278,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qws342rlkhszh58rtn35zrw7w076puz83gkcufy</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q0y5m6wdxjre0fs9m3u0j3pv2fcja6qw3a2f6ql</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>bc1qws342rlkhszh58rtn35zrw7w076puz83gkcufy</t>
+          <t>bc1q0y5m6wdxjre0fs9m3u0j3pv2fcja6qw3a2f6ql</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4313,7 +4297,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Deribit</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4323,12 +4307,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://deribit.com</t>
+          <t>https://kraken.com</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Coinbase Prime Custody</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4337,20 +4321,20 @@
         </is>
       </c>
       <c r="K61" t="n">
-        <v>3824267403.3163</v>
+        <v>2599160960</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>32050.0001</v>
+        <v>23000</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -4362,12 +4346,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1p2mlwrss9tmvtfvu0tcxul2h0w67ej8vyjpj3ksctt67vd9r752ksqx6uqm</t>
+          <t>https://intel.arkm.com/explorer/address/324H9uyTV9bPgAVgmdJNxPKKKZmowk5CYq</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>bc1p2mlwrss9tmvtfvu0tcxul2h0w67ej8vyjpj3ksctt67vd9r752ksqx6uqm</t>
+          <t>324H9uyTV9bPgAVgmdJNxPKKKZmowk5CYq</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4379,26 +4363,46 @@
       <c r="E62" t="b">
         <v>0</v>
       </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Bullish.com</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>https://bullish.com/</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K62" t="n">
-        <v>2536338052.058561</v>
+        <v>1743083555.151851</v>
       </c>
       <c r="L62" t="n">
-        <v>2546448190.683504</v>
+        <v>1780941678.204137</v>
       </c>
       <c r="M62" t="n">
-        <v>21847.07211411</v>
+        <v>15025.98854935</v>
       </c>
       <c r="N62" t="n">
-        <v>21932.97145841</v>
+        <v>15358.42844633</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -4410,12 +4414,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q0ymzksy046tv4z88ts5nmu7s574umnwmdev3rt</t>
+          <t>https://intel.arkm.com/explorer/address/bc1pdwu79dady576y3fupmm82m3g7p2p9f6hgyeqy0tdg7ztxg7xrayqlkl8j9</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>bc1q0ymzksy046tv4z88ts5nmu7s574umnwmdev3rt</t>
+          <t>bc1pdwu79dady576y3fupmm82m3g7p2p9f6hgyeqy0tdg7ztxg7xrayqlkl8j9</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4429,22 +4433,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Kraken</t>
+          <t>Hyperunit</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>blockchain-infra</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://kraken.com</t>
+          <t>https://hyperunit.xyz</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4453,20 +4457,20 @@
         </is>
       </c>
       <c r="K63" t="n">
-        <v>1925590016</v>
+        <v>1401750800.920974</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>1361727271.201111</v>
       </c>
       <c r="M63" t="n">
-        <v>17000</v>
+        <v>11958.75761483</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>11630.36805632</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -4478,12 +4482,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qjfyk39gshlamzfedthz74sx296xyjn4u2xr00phgjsmduppezsyqulgqg7</t>
+          <t>https://intel.arkm.com/explorer/address/3P8dPqoHYcFVB7ki86tE6gSsrDYRuW3MbA</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>bc1qjfyk39gshlamzfedthz74sx296xyjn4u2xr00phgjsmduppezsyqulgqg7</t>
+          <t>3P8dPqoHYcFVB7ki86tE6gSsrDYRuW3MbA</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4495,24 +4499,12 @@
       <c r="E64" t="b">
         <v>0</v>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Kraken</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>https://kraken.com</t>
-        </is>
-      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Coinbase Prime Deposit</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4521,20 +4513,20 @@
         </is>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>1377953480</v>
       </c>
       <c r="L64" t="n">
-        <v>3130391992.500488</v>
+        <v>1298541146</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>11501</v>
       </c>
       <c r="N64" t="n">
-        <v>27845.47518492</v>
+        <v>10839</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -4546,12 +4538,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qsyp3gx0p4p4jzvekxjxkpk9vcjj37gvrlfn9ryx4jy6ne5nhu76s5xxw5d</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qvzgrkefd8v536de2vqhx4d25e5rly7lgk3p2vp</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>bc1qsyp3gx0p4p4jzvekxjxkpk9vcjj37gvrlfn9ryx4jy6ne5nhu76s5xxw5d</t>
+          <t>bc1qvzgrkefd8v536de2vqhx4d25e5rly7lgk3p2vp</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4565,7 +4557,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>OKX</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4575,7 +4567,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://okx.com</t>
+          <t>https://kraken.com</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4589,20 +4581,20 @@
         </is>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>845344609.7364784</v>
       </c>
       <c r="L65" t="n">
-        <v>986070442.375</v>
+        <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>7568.19081745</v>
       </c>
       <c r="N65" t="n">
-        <v>8320.000045410001</v>
+        <v>0</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -4614,12 +4606,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3KNViZo8uJwnLyxrWed5gRavbPZibEdAq3</t>
+          <t>https://intel.arkm.com/explorer/address/19RtRzXV5px91eMbWZFCWLZRUeQX5XxxnJ</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3KNViZo8uJwnLyxrWed5gRavbPZibEdAq3</t>
+          <t>19RtRzXV5px91eMbWZFCWLZRUeQX5XxxnJ</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4633,36 +4625,44 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Anchorage Digital</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>custodian</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.anchorage.com</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K66" t="n">
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>1397664941.015625</v>
+        <v>870050816</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>12073.71860371</v>
+        <v>7441.16506769</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2025-10-10 19:06:38</t>
+          <t>2025-10-10 19:09:37</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">

--- a/data_cripto/top_flow.xlsx
+++ b/data_cripto/top_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P115"/>
+  <dimension ref="A1:P125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,17 +564,17 @@
         <v>2287971597.149046</v>
       </c>
       <c r="L2" t="n">
-        <v>2426376716.473986</v>
+        <v>2426383225.931757</v>
       </c>
       <c r="M2" t="n">
         <v>20157.01522818</v>
       </c>
       <c r="N2" t="n">
-        <v>21256.57707735</v>
+        <v>21256.63759723</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -586,12 +586,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q32lyrhp9zpww22phqjwwmelta0c8a5q990ghs6</t>
+          <t>https://intel.arkm.com/explorer/address/33Q4t6fX5j1Mxbf5bnXp8qumTfc89vCnWK</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>bc1q32lyrhp9zpww22phqjwwmelta0c8a5q990ghs6</t>
+          <t>33Q4t6fX5j1Mxbf5bnXp8qumTfc89vCnWK</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -603,46 +603,26 @@
       <c r="E3" t="b">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ceffu</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>custodian</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>https://www.ceffu.com/</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Custody Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>969146304</v>
       </c>
       <c r="L3" t="n">
-        <v>1319283064</v>
+        <v>969146304</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>8673.07094557</v>
       </c>
       <c r="N3" t="n">
-        <v>11845.00003058</v>
+        <v>8673.07094557</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -654,12 +634,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/12XqeqZRVkBDgmPLVY4ZC6Y4ruUUEug8Fx</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qcgphlnlrn7r436v6y07w503qm0wnku9al5d7jm</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12XqeqZRVkBDgmPLVY4ZC6Y4ruUUEug8Fx</t>
+          <t>bc1qcgphlnlrn7r436v6y07w503qm0wnku9al5d7jm</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -677,20 +657,20 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>823231520</v>
       </c>
       <c r="L4" t="n">
-        <v>1244406819.80249</v>
+        <v>925860432</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>6665.99896938</v>
       </c>
       <c r="N4" t="n">
-        <v>11003.00002712</v>
+        <v>7499.99957823</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -702,12 +682,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/18QCiLiXhko8pb4rqv3mCtC834tSTWHNij</t>
+          <t>https://intel.arkm.com/explorer/address/1NBYWqtQvWmT7hzEB11XyGjHp4G177AVgz</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>18QCiLiXhko8pb4rqv3mCtC834tSTWHNij</t>
+          <t>1NBYWqtQvWmT7hzEB11XyGjHp4G177AVgz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -721,7 +701,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>BIT.com (Matrixport)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -731,34 +711,26 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://www.bit.com/</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>744385566.916008</v>
       </c>
       <c r="L5" t="n">
-        <v>778707264</v>
+        <v>751090019.7364197</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>6555.467381750001</v>
       </c>
       <c r="N5" t="n">
-        <v>6406.47697319</v>
+        <v>6615.60368364</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -770,12 +742,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qr4dl5wa7kl8yu792dceg9z5knl2gkn220lk7a9</t>
+          <t>https://intel.arkm.com/explorer/address/1toDcHmJNuhViGbDdVTRiavPmijME7dtr</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>bc1qr4dl5wa7kl8yu792dceg9z5knl2gkn220lk7a9</t>
+          <t>1toDcHmJNuhViGbDdVTRiavPmijME7dtr</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -789,7 +761,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Crypto.com</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -799,34 +771,26 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://crypto.com</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>2418329147.557283</v>
+        <v>721003392</v>
       </c>
       <c r="L6" t="n">
-        <v>2385118923.833565</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>21265.19703895</v>
+        <v>6389.21171641</v>
       </c>
       <c r="N6" t="n">
-        <v>20955.2978094</v>
+        <v>0</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -838,12 +802,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qn2cpj0hrl37wqh5q94kwrlhtj2lx8ahtw7ef5rg35tswxsqtvufqfmmrq2</t>
+          <t>https://intel.arkm.com/explorer/address/12XqeqZRVkBDgmPLVY4ZC6Y4ruUUEug8Fx</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>bc1qn2cpj0hrl37wqh5q94kwrlhtj2lx8ahtw7ef5rg35tswxsqtvufqfmmrq2</t>
+          <t>12XqeqZRVkBDgmPLVY4ZC6Y4ruUUEug8Fx</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -855,46 +819,26 @@
       <c r="E7" t="b">
         <v>0</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>OKX</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>https://okx.com</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>2276001343.64638</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2330297617.004671</v>
+        <v>1244406819.80249</v>
       </c>
       <c r="M7" t="n">
-        <v>20082.00396807</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>20544.99044552</v>
+        <v>11003.00002712</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -906,12 +850,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/172jzPTGhtRR2SafHQDz3f7CTFrM4bjrxb</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q39u0yxprsz6ucq93pgtxksk7ncr4900ypvkwcw</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>172jzPTGhtRR2SafHQDz3f7CTFrM4bjrxb</t>
+          <t>bc1q39u0yxprsz6ucq93pgtxksk7ncr4900ypvkwcw</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -923,26 +867,38 @@
       <c r="E8" t="b">
         <v>0</v>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>BIT.com (Matrixport)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://www.bit.com/</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>840727680</v>
+        <v>899781186.4778442</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>874923454.7045484</v>
       </c>
       <c r="M8" t="n">
-        <v>7659.20237716</v>
+        <v>7945.96449058</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>7751.73593969</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -954,12 +910,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3GtarxqbsDRwhC8aQtUKeUCCSxkpCpXLC2</t>
+          <t>https://intel.arkm.com/explorer/address/172jzPTGhtRR2SafHQDz3f7CTFrM4bjrxb</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3GtarxqbsDRwhC8aQtUKeUCCSxkpCpXLC2</t>
+          <t>172jzPTGhtRR2SafHQDz3f7CTFrM4bjrxb</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -971,46 +927,26 @@
       <c r="E9" t="b">
         <v>0</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>ETC Group</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>https://etc-group.com/</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>BTCE Bitcoin ETF</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>859437376</v>
+        <v>840727680</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>7080.20163095</v>
+        <v>7659.20237716</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1022,12 +958,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1p2mlwrss9tmvtfvu0tcxul2h0w67ej8vyjpj3ksctt67vd9r752ksqx6uqm</t>
+          <t>https://intel.arkm.com/explorer/address/3L2h3eRieCJiNkGTqREMq3c2FarSCbhtQP</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>bc1p2mlwrss9tmvtfvu0tcxul2h0w67ej8vyjpj3ksctt67vd9r752ksqx6uqm</t>
+          <t>3L2h3eRieCJiNkGTqREMq3c2FarSCbhtQP</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1039,26 +975,46 @@
       <c r="E10" t="b">
         <v>0</v>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ETC Group</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://etc-group.com/</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>BTCE Bitcoin ETF</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K10" t="n">
-        <v>1813700136.367676</v>
+        <v>867316416</v>
       </c>
       <c r="L10" t="n">
-        <v>1816622218.538947</v>
+        <v>861616576</v>
       </c>
       <c r="M10" t="n">
-        <v>15904.66018792</v>
+        <v>7098.15441005</v>
       </c>
       <c r="N10" t="n">
-        <v>15924.78305135</v>
+        <v>7098.15441005</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1070,12 +1026,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q67g733e7z2gy333pcnkqrvpptjel2c6kr4jkug</t>
+          <t>https://intel.arkm.com/explorer/address/14Bp34mVRjG5KfqRcTqjPjPgnL5X47hYWT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>bc1q67g733e7z2gy333pcnkqrvpptjel2c6kr4jkug</t>
+          <t>14Bp34mVRjG5KfqRcTqjPjPgnL5X47hYWT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1087,26 +1043,38 @@
       <c r="E11" t="b">
         <v>0</v>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>1222254096.33758</v>
+        <v>737372608</v>
       </c>
       <c r="L11" t="n">
-        <v>786706103.0231161</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>9900.00000294</v>
+        <v>6396.13987078</v>
       </c>
       <c r="N11" t="n">
-        <v>6500.00008375</v>
+        <v>0</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1118,12 +1086,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3JZ3byZy7TTrfy8zdxrm9iqJrdsaZ5CrNw</t>
+          <t>https://intel.arkm.com/explorer/address/15DomY3arDPw5jD658Mbf3AY3wT3YCDmW2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3JZ3byZy7TTrfy8zdxrm9iqJrdsaZ5CrNw</t>
+          <t>15DomY3arDPw5jD658Mbf3AY3wT3YCDmW2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1137,36 +1105,44 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Crypto.com</t>
+          <t>Wintermute</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://crypto.com</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K12" t="n">
-        <v>813543203.7145386</v>
+        <v>5987877929.887104</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>5986425468.1875</v>
       </c>
       <c r="M12" t="n">
-        <v>7146.29951</v>
+        <v>52509.59262037</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>52523.79265547</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1178,12 +1154,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1PJiGp2yDLvUgqeBsuZVCBADArNsk6XEiw</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qq393eyjh8hdjvcchy0mxquhh9wx8h3kzlkchfs</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1PJiGp2yDLvUgqeBsuZVCBADArNsk6XEiw</t>
+          <t>bc1qq393eyjh8hdjvcchy0mxquhh9wx8h3kzlkchfs</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1197,22 +1173,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Ceffu</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>custodian</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
+          <t>https://www.ceffu.com/</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Custody Hot Wallet</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1221,20 +1197,20 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>1325450112</v>
+        <v>2026186989.252441</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1918031777.098286</v>
       </c>
       <c r="M13" t="n">
-        <v>10833</v>
+        <v>17879.18078065</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>17065.47220276</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1246,12 +1222,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qx9n80t5q7tfmutzaj0ramzzzsvtveara68zntc</t>
+          <t>https://intel.arkm.com/explorer/address/1AZ7aYCT6JPLF1EZ7PgymfFtH4xK44CcCP</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>bc1qx9n80t5q7tfmutzaj0ramzzzsvtveara68zntc</t>
+          <t>1AZ7aYCT6JPLF1EZ7PgymfFtH4xK44CcCP</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1263,24 +1239,12 @@
       <c r="E14" t="b">
         <v>0</v>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Kraken</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>https://kraken.com</t>
-        </is>
-      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Binance Deposit</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1289,20 +1253,20 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>13201310710.96254</v>
+        <v>1159551385.960124</v>
       </c>
       <c r="L14" t="n">
-        <v>12155027519.375</v>
+        <v>1225438520.657776</v>
       </c>
       <c r="M14" t="n">
-        <v>116543.91281045</v>
+        <v>10620.94038383</v>
       </c>
       <c r="N14" t="n">
-        <v>107150.3300039</v>
+        <v>11195.49991012</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1314,12 +1278,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1Kr6QSydW9bFQG1mXiPNNu6WpJGmUa9i1g</t>
+          <t>https://intel.arkm.com/explorer/address/335umQ4egqMjDo6wSXYwQZYPntZzMveNTJ</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1Kr6QSydW9bFQG1mXiPNNu6WpJGmUa9i1g</t>
+          <t>335umQ4egqMjDo6wSXYwQZYPntZzMveNTJ</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1333,7 +1297,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bitfinex</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1343,34 +1307,26 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://bitfinex.com</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>1997078953.567932</v>
+        <v>823215067.4312744</v>
       </c>
       <c r="L15" t="n">
-        <v>1905271371.148996</v>
+        <v>744141611.9789581</v>
       </c>
       <c r="M15" t="n">
-        <v>18013.65697295</v>
+        <v>7150.39927986</v>
       </c>
       <c r="N15" t="n">
-        <v>17187.30701963</v>
+        <v>6509.40054986</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1382,12 +1338,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q8s3h3vw5xufdas890q29lpuca56r0ezqar0mvs</t>
+          <t>https://intel.arkm.com/explorer/address/13ct3jNbHQZWu7SySaa23gCepMtMmjy29e</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>bc1q8s3h3vw5xufdas890q29lpuca56r0ezqar0mvs</t>
+          <t>13ct3jNbHQZWu7SySaa23gCepMtMmjy29e</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1401,36 +1357,36 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Cumberland DRW</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://cumberland.io</t>
+          <t>https://coinbase.com</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>1725937321.625366</v>
+        <v>726332800</v>
       </c>
       <c r="L16" t="n">
-        <v>1815432529.483957</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>15021.05829357</v>
+        <v>6396.13925926</v>
       </c>
       <c r="N16" t="n">
-        <v>15785.10006922</v>
+        <v>0</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1442,12 +1398,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qppunwskzl7t3mtmcarlvpxjuzd8jy7l7ga49av2c78xg47fujncsrc76y6</t>
+          <t>https://intel.arkm.com/explorer/address/1PjPfocmxS262puhYqUwaagE9zBJTZHGwK</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>bc1qppunwskzl7t3mtmcarlvpxjuzd8jy7l7ga49av2c78xg47fujncsrc76y6</t>
+          <t>1PjPfocmxS262puhYqUwaagE9zBJTZHGwK</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1461,7 +1417,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Bitstamp</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1471,7 +1427,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://bitstamp.net</t>
+          <t>https://coinbase.com</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1485,20 +1441,20 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>1530662329.577225</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1610199478.975967</v>
+        <v>737372800</v>
       </c>
       <c r="M17" t="n">
-        <v>13416.62685642</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>13991.95512895</v>
+        <v>6396.14148613</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1510,12 +1466,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/12XZMdaAGmcHf4ocFSqpd8jFd1WH7RHUPs</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>12XZMdaAGmcHf4ocFSqpd8jFd1WH7RHUPs</t>
+          <t>bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1529,7 +1485,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Bybit</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1539,7 +1495,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://bybit.com</t>
+          <t>https://binance.com</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1553,20 +1509,20 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>18990259810.51931</v>
+        <v>25654454626.51967</v>
       </c>
       <c r="L18" t="n">
-        <v>18773793903.05026</v>
+        <v>24505650732.38159</v>
       </c>
       <c r="M18" t="n">
-        <v>166506.33157033</v>
+        <v>226247.91271995</v>
       </c>
       <c r="N18" t="n">
-        <v>164644.31429782</v>
+        <v>215582.70677565</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1578,12 +1534,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/15DomY3arDPw5jD658Mbf3AY3wT3YCDmW2</t>
+          <t>https://intel.arkm.com/explorer/address/1GrwDkr33gT6LuumniYjKEGjTLhsL5kmqC</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>15DomY3arDPw5jD658Mbf3AY3wT3YCDmW2</t>
+          <t>1GrwDkr33gT6LuumniYjKEGjTLhsL5kmqC</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1597,17 +1553,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Wintermute</t>
+          <t>Bybit</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.wintermute.com/</t>
+          <t>https://bybit.com</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1621,20 +1577,20 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>5987877929.887104</v>
+        <v>17130746072.8897</v>
       </c>
       <c r="L19" t="n">
-        <v>5981026020.1875</v>
+        <v>17208800730.35423</v>
       </c>
       <c r="M19" t="n">
-        <v>52509.59262037</v>
+        <v>149740.25789527</v>
       </c>
       <c r="N19" t="n">
-        <v>52473.59278147</v>
+        <v>150282.52553832</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1646,12 +1602,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1KbDEg1tDz2ErYgaDbaDhhawnLrSQFaFx5</t>
+          <t>https://intel.arkm.com/explorer/address/3KXwpcwggRsACLkFdfCVMU5ZA4tcLxdN6T</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1KbDEg1tDz2ErYgaDbaDhhawnLrSQFaFx5</t>
+          <t>3KXwpcwggRsACLkFdfCVMU5ZA4tcLxdN6T</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1665,22 +1621,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Wintermute</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.wintermute.com/</t>
+          <t>https://kraken.com</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Binance Deposit</t>
+          <t>Kraken Deposit</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1689,20 +1645,20 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>5584746645.076099</v>
+        <v>8107601865</v>
       </c>
       <c r="L20" t="n">
-        <v>5576972764.751884</v>
+        <v>8004314383.335938</v>
       </c>
       <c r="M20" t="n">
-        <v>49289.43623243</v>
+        <v>71434.83065324</v>
       </c>
       <c r="N20" t="n">
-        <v>49238.10508117</v>
+        <v>70496.65360008999</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1714,12 +1670,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/36YZXcTVLPdyapYuqXdJEt46oMVB2NrzVv</t>
+          <t>https://intel.arkm.com/explorer/address/1Kr6QSydW9bFQG1mXiPNNu6WpJGmUa9i1g</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>36YZXcTVLPdyapYuqXdJEt46oMVB2NrzVv</t>
+          <t>1Kr6QSydW9bFQG1mXiPNNu6WpJGmUa9i1g</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1731,12 +1687,24 @@
       <c r="E21" t="b">
         <v>0</v>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Bitfinex</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://bitfinex.com</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Coinbase Prime Deposit</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1745,20 +1713,20 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>1131690357</v>
+        <v>1997078953.567932</v>
       </c>
       <c r="L21" t="n">
-        <v>1241623510</v>
+        <v>1905271371.148996</v>
       </c>
       <c r="M21" t="n">
-        <v>10204.34403848</v>
+        <v>18013.65697295</v>
       </c>
       <c r="N21" t="n">
-        <v>11210.75377887</v>
+        <v>17187.30701963</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -1770,12 +1738,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3MqUP6G1daVS5YTD8fz3QgwjZortWwxXFd</t>
+          <t>https://intel.arkm.com/explorer/address/324H9uyTV9bPgAVgmdJNxPKKKZmowk5CYq</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3MqUP6G1daVS5YTD8fz3QgwjZortWwxXFd</t>
+          <t>324H9uyTV9bPgAVgmdJNxPKKKZmowk5CYq</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1789,7 +1757,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Coinbase Prime</t>
+          <t>Bullish.com</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1799,7 +1767,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.coinbase.com/prime</t>
+          <t>https://bullish.com/</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1813,20 +1781,20 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>17888541711.53738</v>
+        <v>1528066572.25</v>
       </c>
       <c r="L22" t="n">
-        <v>17868685132.14396</v>
+        <v>1578411292.8156</v>
       </c>
       <c r="M22" t="n">
-        <v>155229.31151416</v>
+        <v>13542.80886771</v>
       </c>
       <c r="N22" t="n">
-        <v>155102.18636053</v>
+        <v>13942.61772232</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -1838,12 +1806,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1DLeNApsHNNzUMNZJVoXeyEY5sdp8vzx3w</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q0d3k8zue8z5ztqt0r35rsd7gua5z4ser6gt46c</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1DLeNApsHNNzUMNZJVoXeyEY5sdp8vzx3w</t>
+          <t>bc1q0d3k8zue8z5ztqt0r35rsd7gua5z4ser6gt46c</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1857,7 +1825,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bybit</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1867,12 +1835,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://bybit.com</t>
+          <t>https://coinbase.com</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1881,20 +1849,20 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>16239019953.27707</v>
+        <v>1488320168.970957</v>
       </c>
       <c r="L23" t="n">
-        <v>16179018814.42275</v>
+        <v>1622991660.321997</v>
       </c>
       <c r="M23" t="n">
-        <v>142048.0601231</v>
+        <v>13154.24742019</v>
       </c>
       <c r="N23" t="n">
-        <v>141577.91486231</v>
+        <v>14340.96531867</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -1906,12 +1874,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/13ct3jNbHQZWu7SySaa23gCepMtMmjy29e</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qppunwskzl7t3mtmcarlvpxjuzd8jy7l7ga49av2c78xg47fujncsrc76y6</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>13ct3jNbHQZWu7SySaa23gCepMtMmjy29e</t>
+          <t>bc1qppunwskzl7t3mtmcarlvpxjuzd8jy7l7ga49av2c78xg47fujncsrc76y6</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1925,7 +1893,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Bitstamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1935,26 +1903,34 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+          <t>https://bitstamp.net</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K24" t="n">
-        <v>726332800</v>
+        <v>1530662329.577225</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1610199478.975967</v>
       </c>
       <c r="M24" t="n">
-        <v>6396.13925926</v>
+        <v>13416.62685642</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>13991.95512895</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -1966,12 +1942,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1toDcHmJNuhViGbDdVTRiavPmijME7dtr</t>
+          <t>https://intel.arkm.com/explorer/address/3GtarxqbsDRwhC8aQtUKeUCCSxkpCpXLC2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1toDcHmJNuhViGbDdVTRiavPmijME7dtr</t>
+          <t>3GtarxqbsDRwhC8aQtUKeUCCSxkpCpXLC2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1985,36 +1961,44 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>ETC Group</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+          <t>https://etc-group.com/</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>BTCE Bitcoin ETF</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K25" t="n">
-        <v>721003392</v>
+        <v>859437376</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>6389.21171641</v>
+        <v>7080.20163095</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2026,12 +2010,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1GrwDkr33gT6LuumniYjKEGjTLhsL5kmqC</t>
+          <t>https://intel.arkm.com/explorer/address/bc1quhruqrghgcca950rvhtrg7cpd7u8k6svpzgzmrjy8xyukacl5lkq0r8l2d</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1GrwDkr33gT6LuumniYjKEGjTLhsL5kmqC</t>
+          <t>bc1quhruqrghgcca950rvhtrg7cpd7u8k6svpzgzmrjy8xyukacl5lkq0r8l2d</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2045,7 +2029,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bybit</t>
+          <t>OKX</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2055,7 +2039,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://bybit.com</t>
+          <t>https://okx.com</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2069,20 +2053,20 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>17130746072.8897</v>
+        <v>3382212002.034708</v>
       </c>
       <c r="L26" t="n">
-        <v>17208800729.76695</v>
+        <v>3375190978.648462</v>
       </c>
       <c r="M26" t="n">
-        <v>149740.25789527</v>
+        <v>29783.27189201</v>
       </c>
       <c r="N26" t="n">
-        <v>150282.52553286</v>
+        <v>29537.5445752</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2094,12 +2078,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/14B4ceT9HWX1njZWB7an1zQAY9zXX352EQ</t>
+          <t>https://intel.arkm.com/explorer/address/1KbDEg1tDz2ErYgaDbaDhhawnLrSQFaFx5</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>14B4ceT9HWX1njZWB7an1zQAY9zXX352EQ</t>
+          <t>1KbDEg1tDz2ErYgaDbaDhhawnLrSQFaFx5</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2111,26 +2095,46 @@
       <c r="E27" t="b">
         <v>0</v>
       </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Wintermute</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Binance Deposit</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>5584746645.076099</v>
       </c>
       <c r="L27" t="n">
-        <v>840793536</v>
+        <v>5576972764.751884</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>49289.43623243</v>
       </c>
       <c r="N27" t="n">
-        <v>7659.80237939</v>
+        <v>49238.10508117</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2142,12 +2146,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1quhruqrghgcca950rvhtrg7cpd7u8k6svpzgzmrjy8xyukacl5lkq0r8l2d</t>
+          <t>https://intel.arkm.com/explorer/address/bc1p2mlwrss9tmvtfvu0tcxul2h0w67ej8vyjpj3ksctt67vd9r752ksqx6uqm</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>bc1quhruqrghgcca950rvhtrg7cpd7u8k6svpzgzmrjy8xyukacl5lkq0r8l2d</t>
+          <t>bc1p2mlwrss9tmvtfvu0tcxul2h0w67ej8vyjpj3ksctt67vd9r752ksqx6uqm</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2159,46 +2163,26 @@
       <c r="E28" t="b">
         <v>0</v>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>OKX</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>https://okx.com</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>3382212002.034708</v>
+        <v>1816217010.555176</v>
       </c>
       <c r="L28" t="n">
-        <v>3373218965.652369</v>
+        <v>1819139092.726447</v>
       </c>
       <c r="M28" t="n">
-        <v>29783.27189201</v>
+        <v>15928.06012792</v>
       </c>
       <c r="N28" t="n">
-        <v>29519.21033056</v>
+        <v>15948.18299135</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2210,12 +2194,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/335umQ4egqMjDo6wSXYwQZYPntZzMveNTJ</t>
+          <t>https://intel.arkm.com/explorer/address/36YZXcTVLPdyapYuqXdJEt46oMVB2NrzVv</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>335umQ4egqMjDo6wSXYwQZYPntZzMveNTJ</t>
+          <t>36YZXcTVLPdyapYuqXdJEt46oMVB2NrzVv</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2227,38 +2211,34 @@
       <c r="E29" t="b">
         <v>0</v>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Coinbase</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Coinbase Prime Deposit</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K29" t="n">
-        <v>823215067.4312744</v>
+        <v>1131690357</v>
       </c>
       <c r="L29" t="n">
-        <v>744141611.9789581</v>
+        <v>1241623510</v>
       </c>
       <c r="M29" t="n">
-        <v>7150.39927986</v>
+        <v>10204.34403848</v>
       </c>
       <c r="N29" t="n">
-        <v>6509.40054986</v>
+        <v>11210.75377887</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2270,12 +2250,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qv4r4zwvf5ckdx3llaykl0vez4fdaj4jh5yfjsw</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q67g733e7z2gy333pcnkqrvpptjel2c6kr4jkug</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>bc1qv4r4zwvf5ckdx3llaykl0vez4fdaj4jh5yfjsw</t>
+          <t>bc1q67g733e7z2gy333pcnkqrvpptjel2c6kr4jkug</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2293,20 +2273,20 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>8115647695</v>
+        <v>1222254096.33758</v>
       </c>
       <c r="L30" t="n">
-        <v>7996253433.5</v>
+        <v>786706103.0231161</v>
       </c>
       <c r="M30" t="n">
-        <v>71506.55131108999</v>
+        <v>9900.00000294</v>
       </c>
       <c r="N30" t="n">
-        <v>70424.46455758999</v>
+        <v>6500.00008375</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2318,12 +2298,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3M219KR5vEneNb47ewrPfWyb5jQ2DjxRP6</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qv4r4zwvf5ckdx3llaykl0vez4fdaj4jh5yfjsw</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3M219KR5vEneNb47ewrPfWyb5jQ2DjxRP6</t>
+          <t>bc1qv4r4zwvf5ckdx3llaykl0vez4fdaj4jh5yfjsw</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2335,46 +2315,26 @@
       <c r="E31" t="b">
         <v>0</v>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Binance</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>https://binance.com</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>918885056</v>
+        <v>8115647695</v>
       </c>
       <c r="L31" t="n">
-        <v>2240158208</v>
+        <v>7996253433.5</v>
       </c>
       <c r="M31" t="n">
-        <v>8357.071</v>
+        <v>71506.55131108999</v>
       </c>
       <c r="N31" t="n">
-        <v>20045.082</v>
+        <v>70424.46455758999</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2386,12 +2346,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q39u0yxprsz6ucq93pgtxksk7ncr4900ypvkwcw</t>
+          <t>https://intel.arkm.com/explorer/address/12DezRFkKToAiLTDNru1g7FuvtAWMwCZ7N</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>bc1q39u0yxprsz6ucq93pgtxksk7ncr4900ypvkwcw</t>
+          <t>12DezRFkKToAiLTDNru1g7FuvtAWMwCZ7N</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2405,7 +2365,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>BIT.com (Matrixport)</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2415,26 +2375,34 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.bit.com/</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K32" t="n">
-        <v>899781186.4778442</v>
+        <v>3990117526.820312</v>
       </c>
       <c r="L32" t="n">
-        <v>874923454.7045484</v>
+        <v>3970224964.539062</v>
       </c>
       <c r="M32" t="n">
-        <v>7945.96449058</v>
+        <v>35307.86278777</v>
       </c>
       <c r="N32" t="n">
-        <v>7751.73593969</v>
+        <v>35141.06504928</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -2446,12 +2414,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qr4dl5wa7kl8yu792dceg9z5knl2gkn220lk7a9</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
+          <t>bc1qr4dl5wa7kl8yu792dceg9z5knl2gkn220lk7a9</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2465,7 +2433,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Crypto.com</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2475,12 +2443,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
+          <t>https://crypto.com</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2489,20 +2457,20 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>25654454626.51967</v>
+        <v>2418521697.581758</v>
       </c>
       <c r="L33" t="n">
-        <v>24498386390.64308</v>
+        <v>2385118923.833565</v>
       </c>
       <c r="M33" t="n">
-        <v>226247.91271995</v>
+        <v>21266.98721945</v>
       </c>
       <c r="N33" t="n">
-        <v>215515.16857113</v>
+        <v>20955.2978094</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -2514,12 +2482,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1Pzaqw98PeRfyHypfqyEgg5yycJRsENrE7</t>
+          <t>https://intel.arkm.com/explorer/address/bc1pdwu79dady576y3fupmm82m3g7p2p9f6hgyeqy0tdg7ztxg7xrayqlkl8j9</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1Pzaqw98PeRfyHypfqyEgg5yycJRsENrE7</t>
+          <t>bc1pdwu79dady576y3fupmm82m3g7p2p9f6hgyeqy0tdg7ztxg7xrayqlkl8j9</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2533,22 +2501,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Hyperunit</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>blockchain-infra</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
+          <t>https://hyperunit.xyz</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2557,20 +2525,20 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>2235120128</v>
+        <v>1191846795.093346</v>
       </c>
       <c r="L34" t="n">
-        <v>3683662954</v>
+        <v>1339308675.005295</v>
       </c>
       <c r="M34" t="n">
-        <v>20000</v>
+        <v>10345.27522685</v>
       </c>
       <c r="N34" t="n">
-        <v>30990.0006724</v>
+        <v>11637.10883504</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -2582,12 +2550,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/39ZP3h79p7xkoB6qZwPiQw8dnHCsBT51u7</t>
+          <t>https://intel.arkm.com/explorer/address/3JZ3byZy7TTrfy8zdxrm9iqJrdsaZ5CrNw</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>39ZP3h79p7xkoB6qZwPiQw8dnHCsBT51u7</t>
+          <t>3JZ3byZy7TTrfy8zdxrm9iqJrdsaZ5CrNw</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2601,44 +2569,36 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ETC Group</t>
+          <t>Crypto.com</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://etc-group.com/</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>BTCE Bitcoin ETF</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://crypto.com</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>875762816</v>
+        <v>813543203.7145386</v>
       </c>
       <c r="L35" t="n">
-        <v>875762816</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>7167.28024582</v>
+        <v>7146.29951</v>
       </c>
       <c r="N35" t="n">
-        <v>7167.28024582</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -2650,12 +2610,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1ql7c3k2xw90qmhpntte94mu7mpra6g77nqtj6v7</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q32lyrhp9zpww22phqjwwmelta0c8a5q990ghs6</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>bc1ql7c3k2xw90qmhpntte94mu7mpra6g77nqtj6v7</t>
+          <t>bc1q32lyrhp9zpww22phqjwwmelta0c8a5q990ghs6</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2669,36 +2629,44 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>BTC-e</t>
+          <t>Ceffu</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>custodian</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://btc-e.com</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+          <t>https://www.ceffu.com/</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Custody Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>694011520</v>
+        <v>1319283064</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>6499.99999602</v>
+        <v>11845.00003058</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -2710,12 +2678,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1NBYWqtQvWmT7hzEB11XyGjHp4G177AVgz</t>
+          <t>https://intel.arkm.com/explorer/address/39DUz1NCkLu25GczWiAjjgZBu4mUjKbdNA</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1NBYWqtQvWmT7hzEB11XyGjHp4G177AVgz</t>
+          <t>39DUz1NCkLu25GczWiAjjgZBu4mUjKbdNA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2729,36 +2697,36 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>BIT.com (Matrixport)</t>
+          <t>Prince Group (Chen Zhi / LuBian.com)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>scam</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.bit.com/</t>
+          <t>https://www.princeholdinggroup.com/</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>744385566.916008</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>751090019.7364197</v>
+        <v>1097722880</v>
       </c>
       <c r="M37" t="n">
-        <v>6555.467381750001</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>6615.60368364</v>
+        <v>9756.062364150001</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -2770,12 +2738,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/17qY5rLXvSx3g1THdch6YgaGBnGmaLzZth</t>
+          <t>https://intel.arkm.com/explorer/address/14B4ceT9HWX1njZWB7an1zQAY9zXX352EQ</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>17qY5rLXvSx3g1THdch6YgaGBnGmaLzZth</t>
+          <t>14B4ceT9HWX1njZWB7an1zQAY9zXX352EQ</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2787,38 +2755,26 @@
       <c r="E38" t="b">
         <v>0</v>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Coinbase</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>778707072</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>778707072</v>
+        <v>840793536</v>
       </c>
       <c r="M38" t="n">
-        <v>6406.47545109</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>6406.47545109</v>
+        <v>7659.80237939</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -2830,12 +2786,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3KXwpcwggRsACLkFdfCVMU5ZA4tcLxdN6T</t>
+          <t>https://intel.arkm.com/explorer/address/18QCiLiXhko8pb4rqv3mCtC834tSTWHNij</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3KXwpcwggRsACLkFdfCVMU5ZA4tcLxdN6T</t>
+          <t>18QCiLiXhko8pb4rqv3mCtC834tSTWHNij</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2849,7 +2805,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Kraken</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2859,12 +2815,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://kraken.com</t>
+          <t>https://coinbase.com</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Kraken Deposit</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2873,20 +2829,20 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>8107601865</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>8004314383.335938</v>
+        <v>778707264</v>
       </c>
       <c r="M39" t="n">
-        <v>71434.83065324</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>70496.65360008999</v>
+        <v>6406.47697319</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -2898,12 +2854,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q9exg34dkmgxu28yektgn929jpjpzukhhl2r3zr</t>
+          <t>https://intel.arkm.com/explorer/address/bc1quq29mutxkgxmjfdr7ayj3zd9ad0ld5mrhh89l2</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>bc1q9exg34dkmgxu28yektgn929jpjpzukhhl2r3zr</t>
+          <t>bc1quq29mutxkgxmjfdr7ayj3zd9ad0ld5mrhh89l2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2917,17 +2873,17 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Wintermute</t>
+          <t>Gemini</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.wintermute.com/</t>
+          <t>https://gemini.com</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2941,20 +2897,20 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>4575675943.974365</v>
+        <v>875190482.7148583</v>
       </c>
       <c r="L40" t="n">
-        <v>4612485045.56731</v>
+        <v>901545441.2825755</v>
       </c>
       <c r="M40" t="n">
-        <v>39995.01976846</v>
+        <v>7626.004993709999</v>
       </c>
       <c r="N40" t="n">
-        <v>40308.9580967</v>
+        <v>7859.00014186</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -2966,12 +2922,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qvrwzs8unvu35kcred2z5ujjef36s5jgf3y6tp8</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q9exg34dkmgxu28yektgn929jpjpzukhhl2r3zr</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>bc1qvrwzs8unvu35kcred2z5ujjef36s5jgf3y6tp8</t>
+          <t>bc1q9exg34dkmgxu28yektgn929jpjpzukhhl2r3zr</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2983,26 +2939,46 @@
       <c r="E41" t="b">
         <v>0</v>
       </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Wintermute</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K41" t="n">
-        <v>1219689154.701087</v>
+        <v>4575675943.974365</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>4612888393.62981</v>
       </c>
       <c r="M41" t="n">
-        <v>10907.90654394</v>
+        <v>39995.01976846</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>40312.70811353</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3014,12 +2990,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/34kn9zJe1K8kbGUJtMUar4cQrYiQRs9tef</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qn2cpj0hrl37wqh5q94kwrlhtj2lx8ahtw7ef5rg35tswxsqtvufqfmmrq2</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>34kn9zJe1K8kbGUJtMUar4cQrYiQRs9tef</t>
+          <t>bc1qn2cpj0hrl37wqh5q94kwrlhtj2lx8ahtw7ef5rg35tswxsqtvufqfmmrq2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3031,26 +3007,46 @@
       <c r="E42" t="b">
         <v>0</v>
       </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>OKX</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>https://okx.com</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K42" t="n">
-        <v>985205888</v>
+        <v>2281809529.64638</v>
       </c>
       <c r="L42" t="n">
-        <v>978419904</v>
+        <v>2330297617.004671</v>
       </c>
       <c r="M42" t="n">
-        <v>8756.062360919999</v>
+        <v>20136.00396807</v>
       </c>
       <c r="N42" t="n">
-        <v>8756.062360919999</v>
+        <v>20544.99044552</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3062,12 +3058,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qq393eyjh8hdjvcchy0mxquhh9wx8h3kzlkchfs</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q8s3h3vw5xufdas890q29lpuca56r0ezqar0mvs</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>bc1qq393eyjh8hdjvcchy0mxquhh9wx8h3kzlkchfs</t>
+          <t>bc1q8s3h3vw5xufdas890q29lpuca56r0ezqar0mvs</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3081,44 +3077,36 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Ceffu</t>
+          <t>Cumberland DRW</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>custodian</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.ceffu.com/</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Custody Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://cumberland.io</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>2026186989.252441</v>
+        <v>1725937321.625366</v>
       </c>
       <c r="L43" t="n">
-        <v>1918031777.098286</v>
+        <v>1815432529.483957</v>
       </c>
       <c r="M43" t="n">
-        <v>17879.18078065</v>
+        <v>15021.05829357</v>
       </c>
       <c r="N43" t="n">
-        <v>17065.47220276</v>
+        <v>15785.10006922</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -3130,12 +3118,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/39DUz1NCkLu25GczWiAjjgZBu4mUjKbdNA</t>
+          <t>https://intel.arkm.com/explorer/address/3MqUP6G1daVS5YTD8fz3QgwjZortWwxXFd</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>39DUz1NCkLu25GczWiAjjgZBu4mUjKbdNA</t>
+          <t>3MqUP6G1daVS5YTD8fz3QgwjZortWwxXFd</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3149,36 +3137,44 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Prince Group (Chen Zhi / LuBian.com)</t>
+          <t>Coinbase Prime</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>scam</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.princeholdinggroup.com/</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+          <t>https://www.coinbase.com/prime</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>17888541711.53738</v>
       </c>
       <c r="L44" t="n">
-        <v>1097722880</v>
+        <v>17875616763.14396</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>155229.31151416</v>
       </c>
       <c r="N44" t="n">
-        <v>9756.062364150001</v>
+        <v>155166.63127778</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -3190,12 +3186,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1PjPfocmxS262puhYqUwaagE9zBJTZHGwK</t>
+          <t>https://intel.arkm.com/explorer/address/3M219KR5vEneNb47ewrPfWyb5jQ2DjxRP6</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1PjPfocmxS262puhYqUwaagE9zBJTZHGwK</t>
+          <t>3M219KR5vEneNb47ewrPfWyb5jQ2DjxRP6</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3209,7 +3205,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3219,7 +3215,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
+          <t>https://binance.com</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3233,20 +3229,20 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>918885056</v>
       </c>
       <c r="L45" t="n">
-        <v>737372800</v>
+        <v>2240158208</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>8357.071</v>
       </c>
       <c r="N45" t="n">
-        <v>6396.14148613</v>
+        <v>20045.082</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -3258,12 +3254,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/324H9uyTV9bPgAVgmdJNxPKKKZmowk5CYq</t>
+          <t>https://intel.arkm.com/explorer/address/39ZP3h79p7xkoB6qZwPiQw8dnHCsBT51u7</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>324H9uyTV9bPgAVgmdJNxPKKKZmowk5CYq</t>
+          <t>39ZP3h79p7xkoB6qZwPiQw8dnHCsBT51u7</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3277,22 +3273,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Bullish.com</t>
+          <t>ETC Group</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://bullish.com/</t>
+          <t>https://etc-group.com/</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>BTCE Bitcoin ETF</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3301,20 +3297,20 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>1528066572.25</v>
+        <v>875762816</v>
       </c>
       <c r="L46" t="n">
-        <v>1575603997.8156</v>
+        <v>875762816</v>
       </c>
       <c r="M46" t="n">
-        <v>13542.80886771</v>
+        <v>7167.28024582</v>
       </c>
       <c r="N46" t="n">
-        <v>13916.51767382</v>
+        <v>7167.28024582</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -3374,7 +3370,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -3386,12 +3382,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3L2h3eRieCJiNkGTqREMq3c2FarSCbhtQP</t>
+          <t>https://intel.arkm.com/explorer/address/1PJiGp2yDLvUgqeBsuZVCBADArNsk6XEiw</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3L2h3eRieCJiNkGTqREMq3c2FarSCbhtQP</t>
+          <t>1PJiGp2yDLvUgqeBsuZVCBADArNsk6XEiw</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3405,22 +3401,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>ETC Group</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://etc-group.com/</t>
+          <t>https://binance.com</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>BTCE Bitcoin ETF</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3429,20 +3425,20 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>867316416</v>
+        <v>1325450112</v>
       </c>
       <c r="L48" t="n">
-        <v>861616576</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>7098.15441005</v>
+        <v>10833</v>
       </c>
       <c r="N48" t="n">
-        <v>7098.15441005</v>
+        <v>0</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -3454,12 +3450,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3FD9v4Tf6KpbttXoiAUiWtVVEUDMEZ8MED</t>
+          <t>https://intel.arkm.com/explorer/address/12XZMdaAGmcHf4ocFSqpd8jFd1WH7RHUPs</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3FD9v4Tf6KpbttXoiAUiWtVVEUDMEZ8MED</t>
+          <t>12XZMdaAGmcHf4ocFSqpd8jFd1WH7RHUPs</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3473,22 +3469,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>ETC Group</t>
+          <t>Bybit</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://etc-group.com/</t>
+          <t>https://bybit.com</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>BTCE Bitcoin ETF</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3497,20 +3493,20 @@
         </is>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>18995402073.05056</v>
       </c>
       <c r="L49" t="n">
-        <v>876530624</v>
+        <v>18773793903.05026</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>166554.14033035</v>
       </c>
       <c r="N49" t="n">
-        <v>7173.56406811</v>
+        <v>164644.31429782</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -3522,12 +3518,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q42kvqt0e3f27qhd2ucnprarl5ywpuj7tu0h9v2</t>
+          <t>https://intel.arkm.com/explorer/address/1DLeNApsHNNzUMNZJVoXeyEY5sdp8vzx3w</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>bc1q42kvqt0e3f27qhd2ucnprarl5ywpuj7tu0h9v2</t>
+          <t>1DLeNApsHNNzUMNZJVoXeyEY5sdp8vzx3w</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3541,7 +3537,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>FalconX</t>
+          <t>Bybit</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3551,7 +3547,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://falconx.io/</t>
+          <t>https://bybit.com</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3565,20 +3561,20 @@
         </is>
       </c>
       <c r="K50" t="n">
-        <v>2282720862.370626</v>
+        <v>16239112002.27707</v>
       </c>
       <c r="L50" t="n">
-        <v>2455841834.19398</v>
+        <v>16179018814.42275</v>
       </c>
       <c r="M50" t="n">
-        <v>20297.4913845</v>
+        <v>142048.91592316</v>
       </c>
       <c r="N50" t="n">
-        <v>21746.55916778</v>
+        <v>141577.91486231</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -3590,12 +3586,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1pdwu79dady576y3fupmm82m3g7p2p9f6hgyeqy0tdg7ztxg7xrayqlkl8j9</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qx9n80t5q7tfmutzaj0ramzzzsvtveara68zntc</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>bc1pdwu79dady576y3fupmm82m3g7p2p9f6hgyeqy0tdg7ztxg7xrayqlkl8j9</t>
+          <t>bc1qx9n80t5q7tfmutzaj0ramzzzsvtveara68zntc</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3609,17 +3605,17 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Hyperunit</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>blockchain-infra</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://hyperunit.xyz</t>
+          <t>https://kraken.com</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3633,20 +3629,20 @@
         </is>
       </c>
       <c r="K51" t="n">
-        <v>1191846795.093346</v>
+        <v>13201310710.96254</v>
       </c>
       <c r="L51" t="n">
-        <v>1339308675.005295</v>
+        <v>12155027519.375</v>
       </c>
       <c r="M51" t="n">
-        <v>10345.27522685</v>
+        <v>116543.91281045</v>
       </c>
       <c r="N51" t="n">
-        <v>11637.10883504</v>
+        <v>107150.3300039</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -3658,12 +3654,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1quq29mutxkgxmjfdr7ayj3zd9ad0ld5mrhh89l2</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q42kvqt0e3f27qhd2ucnprarl5ywpuj7tu0h9v2</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>bc1quq29mutxkgxmjfdr7ayj3zd9ad0ld5mrhh89l2</t>
+          <t>bc1q42kvqt0e3f27qhd2ucnprarl5ywpuj7tu0h9v2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3677,7 +3673,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>FalconX</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3687,7 +3683,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://gemini.com</t>
+          <t>https://falconx.io/</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3701,20 +3697,20 @@
         </is>
       </c>
       <c r="K52" t="n">
-        <v>875190482.7148583</v>
+        <v>2282720862.370626</v>
       </c>
       <c r="L52" t="n">
-        <v>901544717.4105052</v>
+        <v>2455841834.19398</v>
       </c>
       <c r="M52" t="n">
-        <v>7626.004993709999</v>
+        <v>20297.4913845</v>
       </c>
       <c r="N52" t="n">
-        <v>7858.993411859999</v>
+        <v>21746.55916778</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -3726,12 +3722,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/14Bp34mVRjG5KfqRcTqjPjPgnL5X47hYWT</t>
+          <t>https://intel.arkm.com/explorer/address/1Pzaqw98PeRfyHypfqyEgg5yycJRsENrE7</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>14Bp34mVRjG5KfqRcTqjPjPgnL5X47hYWT</t>
+          <t>1Pzaqw98PeRfyHypfqyEgg5yycJRsENrE7</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3745,7 +3741,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3755,26 +3751,34 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K53" t="n">
-        <v>737372608</v>
+        <v>2235120128</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>3683662954</v>
       </c>
       <c r="M53" t="n">
-        <v>6396.13987078</v>
+        <v>20000</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>30990.0006724</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -3786,12 +3790,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/33Q4t6fX5j1Mxbf5bnXp8qumTfc89vCnWK</t>
+          <t>https://intel.arkm.com/explorer/address/38MfJkxPkpwsZxkyfESwjdaKBdXrV8DpWr</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>33Q4t6fX5j1Mxbf5bnXp8qumTfc89vCnWK</t>
+          <t>38MfJkxPkpwsZxkyfESwjdaKBdXrV8DpWr</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3803,26 +3807,38 @@
       <c r="E54" t="b">
         <v>0</v>
       </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>969146304</v>
+        <v>1660935062.953125</v>
       </c>
       <c r="L54" t="n">
-        <v>969146304</v>
+        <v>1656626939.295593</v>
       </c>
       <c r="M54" t="n">
-        <v>8673.07094557</v>
+        <v>14162.13657</v>
       </c>
       <c r="N54" t="n">
-        <v>8673.07094557</v>
+        <v>14089.65584</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -3834,12 +3850,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qcgphlnlrn7r436v6y07w503qm0wnku9al5d7jm</t>
+          <t>https://intel.arkm.com/explorer/address/34kn9zJe1K8kbGUJtMUar4cQrYiQRs9tef</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>bc1qcgphlnlrn7r436v6y07w503qm0wnku9al5d7jm</t>
+          <t>34kn9zJe1K8kbGUJtMUar4cQrYiQRs9tef</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3857,20 +3873,20 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>823231520</v>
+        <v>985205888</v>
       </c>
       <c r="L55" t="n">
-        <v>925860432</v>
+        <v>978419904</v>
       </c>
       <c r="M55" t="n">
-        <v>6665.99896938</v>
+        <v>8756.062360919999</v>
       </c>
       <c r="N55" t="n">
-        <v>7499.99957823</v>
+        <v>8756.062360919999</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -3882,12 +3898,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/12DezRFkKToAiLTDNru1g7FuvtAWMwCZ7N</t>
+          <t>https://intel.arkm.com/explorer/address/17qY5rLXvSx3g1THdch6YgaGBnGmaLzZth</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>12DezRFkKToAiLTDNru1g7FuvtAWMwCZ7N</t>
+          <t>17qY5rLXvSx3g1THdch6YgaGBnGmaLzZth</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3914,31 +3930,23 @@
           <t>https://coinbase.com</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>3990117526.820312</v>
+        <v>778707072</v>
       </c>
       <c r="L56" t="n">
-        <v>3970224964.539062</v>
+        <v>778707072</v>
       </c>
       <c r="M56" t="n">
-        <v>35307.86278777</v>
+        <v>6406.47545109</v>
       </c>
       <c r="N56" t="n">
-        <v>35141.06504928</v>
+        <v>6406.47545109</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -3950,12 +3958,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/38MfJkxPkpwsZxkyfESwjdaKBdXrV8DpWr</t>
+          <t>https://intel.arkm.com/explorer/address/3FD9v4Tf6KpbttXoiAUiWtVVEUDMEZ8MED</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>38MfJkxPkpwsZxkyfESwjdaKBdXrV8DpWr</t>
+          <t>3FD9v4Tf6KpbttXoiAUiWtVVEUDMEZ8MED</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3969,36 +3977,44 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>ETC Group</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+          <t>https://etc-group.com/</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>BTCE Bitcoin ETF</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K57" t="n">
-        <v>1660935062.953125</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>1656626939.295593</v>
+        <v>876530624</v>
       </c>
       <c r="M57" t="n">
-        <v>14162.13657</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>14089.65584</v>
+        <v>7173.56406811</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -4010,12 +4026,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q0d3k8zue8z5ztqt0r35rsd7gua5z4ser6gt46c</t>
+          <t>https://intel.arkm.com/explorer/address/bc1ql7c3k2xw90qmhpntte94mu7mpra6g77nqtj6v7</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>bc1q0d3k8zue8z5ztqt0r35rsd7gua5z4ser6gt46c</t>
+          <t>bc1ql7c3k2xw90qmhpntte94mu7mpra6g77nqtj6v7</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -4029,7 +4045,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>BTC-e</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -4039,34 +4055,26 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://btc-e.com</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>1488320168.970957</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>1622991660.321997</v>
+        <v>694011520</v>
       </c>
       <c r="M58" t="n">
-        <v>13154.24742019</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>14340.96531867</v>
+        <v>6499.99999602</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -4078,12 +4086,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1AZ7aYCT6JPLF1EZ7PgymfFtH4xK44CcCP</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qvrwzs8unvu35kcred2z5ujjef36s5jgf3y6tp8</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1AZ7aYCT6JPLF1EZ7PgymfFtH4xK44CcCP</t>
+          <t>bc1qvrwzs8unvu35kcred2z5ujjef36s5jgf3y6tp8</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -4098,31 +4106,23 @@
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>Binance Deposit</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>1159551385.960124</v>
+        <v>1219689154.701087</v>
       </c>
       <c r="L59" t="n">
-        <v>1225438520.657776</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>10620.94038383</v>
+        <v>10907.90654394</v>
       </c>
       <c r="N59" t="n">
-        <v>11195.49991012</v>
+        <v>0</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2025-11-03 07:00:45</t>
+          <t>2025-11-03 07:06:04</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -4134,12 +4134,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xf8191D98ae98d2f7aBDFB63A9b0b812b93C873AA</t>
+          <t>https://intel.arkm.com/explorer/address/0x2B83aaCB0dD973866B563cFb0EF0AEF24B93200b</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0xf8191D98ae98d2f7aBDFB63A9b0b812b93C873AA</t>
+          <t>0x2B83aaCB0dD973866B563cFb0EF0AEF24B93200b</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4153,24 +4153,12 @@
       <c r="E60" t="b">
         <v>0</v>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Wintermute</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>https://www.wintermute.com/</t>
-        </is>
-      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Coinbase Prime Custody</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4179,37 +4167,37 @@
         </is>
       </c>
       <c r="K60" t="n">
-        <v>64502126.60284424</v>
+        <v>73494510.62503751</v>
       </c>
       <c r="L60" t="n">
-        <v>60903798.61050415</v>
+        <v>71305586.28125</v>
       </c>
       <c r="M60" t="n">
-        <v>277268.8494932422</v>
+        <v>3950916.42006363</v>
       </c>
       <c r="N60" t="n">
-        <v>262005.35829</v>
+        <v>3848633.029126255</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xA69babEF1cA67A37Ffaf7a485DfFF3382056e78C</t>
+          <t>https://intel.arkm.com/explorer/address/0x394A2ef2953c9007AD5CBBe52D93E0d1A5e4F7Be</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0xA69babEF1cA67A37Ffaf7a485DfFF3382056e78C</t>
+          <t>0x394A2ef2953c9007AD5CBBe52D93E0d1A5e4F7Be</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4218,68 +4206,60 @@
         </is>
       </c>
       <c r="D61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Symbolic Capital Partners</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://symbolic.partners</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>MEV Bot</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>32359747.57995725</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>32491810.28310633</v>
+        <v>35981716</v>
       </c>
       <c r="M61" t="n">
-        <v>136881.215817804</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>136945.2058064299</v>
+        <v>2067914.749970789</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xA3222357a0eCCF60C73606170be6c99ADeCb59b3</t>
+          <t>https://intel.arkm.com/explorer/address/0x177a7376860a04eEA6BF7fb3F39Bf10c49D3b42C</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0xA3222357a0eCCF60C73606170be6c99ADeCb59b3</t>
+          <t>0x177a7376860a04eEA6BF7fb3F39Bf10c49D3b42C</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4288,68 +4268,60 @@
         </is>
       </c>
       <c r="D62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>HitBTC</t>
+          <t>Blackhole</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>dex</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://hitbtc.com</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://blackhole.xyz/</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>20060806.7090683</v>
+        <v>583598107.7330616</v>
       </c>
       <c r="L62" t="n">
-        <v>20036941.22446823</v>
+        <v>583449734.3577374</v>
       </c>
       <c r="M62" t="n">
-        <v>85494.18750034497</v>
+        <v>31610510.23358784</v>
       </c>
       <c r="N62" t="n">
-        <v>85451.27932900999</v>
+        <v>31604993.14762219</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xE91B373212f8aE32925CbCf39AB3a7B0763C27C9</t>
+          <t>https://intel.arkm.com/explorer/address/0x91D40E4818F4D4C57b4578d9ECa6AFc92aC8DEbE</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0xE91B373212f8aE32925CbCf39AB3a7B0763C27C9</t>
+          <t>0x91D40E4818F4D4C57b4578d9ECa6AFc92aC8DEbE</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4363,12 +4335,24 @@
       <c r="E63" t="b">
         <v>0</v>
       </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>OKX</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>https://okx.com</t>
+        </is>
+      </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Binance Deposit</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4377,37 +4361,37 @@
         </is>
       </c>
       <c r="K63" t="n">
-        <v>13260663.87109375</v>
+        <v>73044021.05942252</v>
       </c>
       <c r="L63" t="n">
-        <v>13315064.81640625</v>
+        <v>73374885.66431153</v>
       </c>
       <c r="M63" t="n">
-        <v>55752.183524</v>
+        <v>3982662.19132089</v>
       </c>
       <c r="N63" t="n">
-        <v>55932.866515</v>
+        <v>4015724.54760083</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xF977814e90dA44bFA03b6295A0616a897441aceC</t>
+          <t>https://intel.arkm.com/explorer/address/0xFAD57d2039C21811C8F2B5D5B65308aa99D31559</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0xF977814e90dA44bFA03b6295A0616a897441aceC</t>
+          <t>0xFAD57d2039C21811C8F2B5D5B65308aa99D31559</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4416,29 +4400,29 @@
         </is>
       </c>
       <c r="D64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>dex</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
+          <t>https://uniswap.org</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>LINK-USDC</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4447,37 +4431,37 @@
         </is>
       </c>
       <c r="K64" t="n">
-        <v>124156043.578125</v>
+        <v>41043091.72523579</v>
       </c>
       <c r="L64" t="n">
-        <v>152651606.5</v>
+        <v>39170869.23176704</v>
       </c>
       <c r="M64" t="n">
-        <v>521030.564</v>
+        <v>2251729.13749389</v>
       </c>
       <c r="N64" t="n">
-        <v>616493.512</v>
+        <v>2160436.999716789</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xA700b4eB416Be35b2911fd5Dee80678ff64fF6C9</t>
+          <t>https://intel.arkm.com/explorer/address/0x68dF5296D677837f724A1Df4f5B7e23DD7133a0e</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0xA700b4eB416Be35b2911fd5Dee80678ff64fF6C9</t>
+          <t>0x68dF5296D677837f724A1Df4f5B7e23DD7133a0e</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4486,68 +4470,48 @@
         </is>
       </c>
       <c r="D65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Aave</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>lending-decentralized</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>https://aave.com</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>Aave Ethereum AAVE (aEthAAVE)</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>36655159.9873403</v>
+        <v>24658102.25</v>
       </c>
       <c r="L65" t="n">
-        <v>158718940.2781851</v>
+        <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>156691.962919292</v>
+        <v>1454868.76455223</v>
       </c>
       <c r="N65" t="n">
-        <v>666795.5698210851</v>
+        <v>0</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x0e240e9A7B40aD11Fdd69f952bA3Bbd29a238BbD</t>
+          <t>https://intel.arkm.com/explorer/address/0x9e64c9C6194051caa06fBec237eDF580dF165953</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0x0e240e9A7B40aD11Fdd69f952bA3Bbd29a238BbD</t>
+          <t>0x9e64c9C6194051caa06fBec237eDF580dF165953</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4564,48 +4528,40 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>Coinbase Prime Custody</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>32522820</v>
+        <v>25976197.55078125</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>142500.20005</v>
+        <v>1450491.240843248</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xfBd4cdB413E45a52E2C8312f670e9cE67E794C37</t>
+          <t>https://intel.arkm.com/explorer/address/0xA7062dEDcD10975e6E5962fF0968954851785A71</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0xfBd4cdB413E45a52E2C8312f670e9cE67E794C37</t>
+          <t>0xA7062dEDcD10975e6E5962fF0968954851785A71</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4614,7 +4570,7 @@
         </is>
       </c>
       <c r="D67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="b">
         <v>0</v>
@@ -4625,37 +4581,37 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>17958841.80882931</v>
+        <v>26263911.5859375</v>
       </c>
       <c r="L67" t="n">
-        <v>18549136.90684319</v>
+        <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>79691.2633905915</v>
+        <v>1435915.007326787</v>
       </c>
       <c r="N67" t="n">
-        <v>79791.28860342361</v>
+        <v>0</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x9008D19f58AAbD9eD0D60971565AA8510560ab41</t>
+          <t>https://intel.arkm.com/explorer/address/0xB3d0211Ff3ae56760ce8Ccb5FaD0F9e70dC51281</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0x9008D19f58AAbD9eD0D60971565AA8510560ab41</t>
+          <t>0xB3d0211Ff3ae56760ce8Ccb5FaD0F9e70dC51281</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4664,68 +4620,60 @@
         </is>
       </c>
       <c r="D68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="b">
         <v>0</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>CoW Protocol</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>dex-aggregator</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://cow.fi</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>Settlement</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>139857852.7335844</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>139853171.6394117</v>
+        <v>45863156</v>
       </c>
       <c r="M68" t="n">
-        <v>599101.4648899082</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>599074.3016232557</v>
+        <v>2197563.811051277</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xCD531Ae9EFCCE479654c4926dec5F6209531Ca7b</t>
+          <t>https://intel.arkm.com/explorer/address/0x79dD9327352BcF1dd16941899705E97b61F4DEcB</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0xCD531Ae9EFCCE479654c4926dec5F6209531Ca7b</t>
+          <t>0x79dD9327352BcF1dd16941899705E97b61F4DEcB</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4741,7 +4689,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Coinbase Prime</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -4751,7 +4699,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.coinbase.com/prime</t>
+          <t>https://kraken.com</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4765,37 +4713,37 @@
         </is>
       </c>
       <c r="K69" t="n">
-        <v>88889025.6685257</v>
+        <v>74993720.9159103</v>
       </c>
       <c r="L69" t="n">
-        <v>88949842.25004196</v>
+        <v>77962697.80622727</v>
       </c>
       <c r="M69" t="n">
-        <v>382239.5478637536</v>
+        <v>3980227.82586645</v>
       </c>
       <c r="N69" t="n">
-        <v>383046.1297416984</v>
+        <v>4165961.69996105</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x51C72848c68a965f66FA7a88855F9f7784502a7F</t>
+          <t>https://intel.arkm.com/explorer/address/0x9008D19f58AAbD9eD0D60971565AA8510560ab41</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0x51C72848c68a965f66FA7a88855F9f7784502a7F</t>
+          <t>0x9008D19f58AAbD9eD0D60971565AA8510560ab41</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4811,22 +4759,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Wintermute</t>
+          <t>CoW Protocol</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>dex-aggregator</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.wintermute.com/</t>
+          <t>https://cow.fi</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Market Maker</t>
+          <t>Settlement</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4835,37 +4783,37 @@
         </is>
       </c>
       <c r="K70" t="n">
-        <v>78761025.89130163</v>
+        <v>70279414.97797869</v>
       </c>
       <c r="L70" t="n">
-        <v>78680775.64317726</v>
+        <v>70293286.98429626</v>
       </c>
       <c r="M70" t="n">
-        <v>338432.3304743067</v>
+        <v>3778731.096166751</v>
       </c>
       <c r="N70" t="n">
-        <v>337489.5468745891</v>
+        <v>3779458.1312784</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xF8daFA064D7BB863121305449577d4e56DC854F2</t>
+          <t>https://intel.arkm.com/explorer/address/0x5Ad431BA1B3AFEF7027786608d4Ab8017D778D02</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0xF8daFA064D7BB863121305449577d4e56DC854F2</t>
+          <t>0x5Ad431BA1B3AFEF7027786608d4Ab8017D778D02</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4879,51 +4827,55 @@
       <c r="E71" t="b">
         <v>0</v>
       </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>Coinbase Prime Custody</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>19925545.640625</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>35273980</v>
       </c>
       <c r="M71" t="n">
-        <v>88653.33093786899</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>2047241.956813559</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x8f85D8d9d232883d63c992DFf303C10DDA2e428F</t>
+          <t>https://intel.arkm.com/explorer/address/0x4e19698c366f7DCD1cfAd4D7f621B4D275Bb1a6C</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0x8f85D8d9d232883d63c992DFf303C10DDA2e428F</t>
+          <t>0x4e19698c366f7DCD1cfAd4D7f621B4D275Bb1a6C</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4937,51 +4889,55 @@
       <c r="E72" t="b">
         <v>0</v>
       </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>HitBTC Deposit</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Bybit</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>https://bybit.com</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>17772223.31103516</v>
+        <v>57050000</v>
       </c>
       <c r="L72" t="n">
-        <v>17588761.01953125</v>
+        <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>75483.49000000001</v>
+        <v>2500000</v>
       </c>
       <c r="N72" t="n">
-        <v>74834.23</v>
+        <v>0</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x59c38b6775Ded821f010DbD30eCabdCF84E04756</t>
+          <t>https://intel.arkm.com/explorer/address/0x4C381016Af2185B97E4f6944C125603320762237</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0x59c38b6775Ded821f010DbD30eCabdCF84E04756</t>
+          <t>0x4C381016Af2185B97E4f6944C125603320762237</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4990,29 +4946,29 @@
         </is>
       </c>
       <c r="D73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>dex</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://uniswap.org</t>
+          <t>https://coinbase.com</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>UNI-AAVE 2</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -5021,37 +4977,37 @@
         </is>
       </c>
       <c r="K73" t="n">
-        <v>14293874.30937139</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>14245697.55971755</v>
+        <v>38864852</v>
       </c>
       <c r="M73" t="n">
-        <v>64698.86765658809</v>
+        <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>64501.18127672607</v>
+        <v>2121443.965483021</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x6E4141d33021b52C91c28608403db4A0FFB50Ec6</t>
+          <t>https://intel.arkm.com/explorer/address/0x1FA00bE39C9b815B039Fa5F3394405eEb9502C9c</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0x6E4141d33021b52C91c28608403db4A0FFB50Ec6</t>
+          <t>0x1FA00bE39C9b815B039Fa5F3394405eEb9502C9c</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -5060,29 +5016,17 @@
         </is>
       </c>
       <c r="D74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Kyber Network</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>dex</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>https://kyber.network</t>
-        </is>
-      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Aggregator Executor</t>
+          <t>Coinbase Deposit</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -5091,37 +5035,37 @@
         </is>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>29279378.515625</v>
       </c>
       <c r="L74" t="n">
-        <v>11455320.65892472</v>
+        <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>1562007.39282</v>
       </c>
       <c r="N74" t="n">
-        <v>48279.50101007266</v>
+        <v>0</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x8457cF5BC3B68f2B1f11e5cc9e4293025A72164D</t>
+          <t>https://intel.arkm.com/explorer/address/0xA1eD21D980988E644139660569e4Bd4178241741</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0x8457cF5BC3B68f2B1f11e5cc9e4293025A72164D</t>
+          <t>0xA1eD21D980988E644139660569e4Bd4178241741</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -5141,37 +5085,37 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>128173548.75</v>
+        <v>24567195.25</v>
       </c>
       <c r="L75" t="n">
-        <v>128173548.75</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>558351.7587049693</v>
+        <v>1439999.145138722</v>
       </c>
       <c r="N75" t="n">
-        <v>558351.7587049693</v>
+        <v>0</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x91bf7e6FFA4608FA2280F81D2B23a8b8FB70b14B</t>
+          <t>https://intel.arkm.com/explorer/address/0x7f604D597c15b2e2F60DC645844f68b1D781b752</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0x91bf7e6FFA4608FA2280F81D2B23a8b8FB70b14B</t>
+          <t>0x7f604D597c15b2e2F60DC645844f68b1D781b752</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -5185,43 +5129,63 @@
       <c r="E76" t="b">
         <v>0</v>
       </c>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Bitstamp</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>https://bitstamp.net</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K76" t="n">
-        <v>48916599.55067211</v>
+        <v>27276403.22750876</v>
       </c>
       <c r="L76" t="n">
-        <v>48915814.59193987</v>
+        <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>211836.9176786421</v>
+        <v>1438213.215568594</v>
       </c>
       <c r="N76" t="n">
-        <v>211836.9204244175</v>
+        <v>0</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xAD85405cbB1476825B78a021fa9E543bF7937549</t>
+          <t>https://intel.arkm.com/explorer/address/0x65505213bBA7eAbD3479D256650EE68B3fb10D67</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0xAD85405cbB1476825B78a021fa9E543bF7937549</t>
+          <t>0x65505213bBA7eAbD3479D256650EE68B3fb10D67</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -5237,7 +5201,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Bybit</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -5247,51 +5211,43 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://bybit.com</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>34390315.42689896</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>40217573.86577821</v>
+        <v>38324368</v>
       </c>
       <c r="M77" t="n">
-        <v>143153.1130361412</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>169921.84294331</v>
+        <v>2047241.956813559</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xBEE3211ab312a8D065c4FeF0247448e17A8da000</t>
+          <t>https://intel.arkm.com/explorer/address/0xA69babEF1cA67A37Ffaf7a485DfFF3382056e78C</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0xBEE3211ab312a8D065c4FeF0247448e17A8da000</t>
+          <t>0xA69babEF1cA67A37Ffaf7a485DfFF3382056e78C</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -5305,12 +5261,24 @@
       <c r="E78" t="b">
         <v>0</v>
       </c>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Symbolic Capital Partners</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>https://symbolic.partners</t>
+        </is>
+      </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Market Maker</t>
+          <t>MEV Bot</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -5319,37 +5287,37 @@
         </is>
       </c>
       <c r="K78" t="n">
-        <v>21798624.41185474</v>
+        <v>125015829.9114597</v>
       </c>
       <c r="L78" t="n">
-        <v>21833448.26320639</v>
+        <v>125386820.1421447</v>
       </c>
       <c r="M78" t="n">
-        <v>93702.28903975412</v>
+        <v>6736525.156329579</v>
       </c>
       <c r="N78" t="n">
-        <v>93502.14717196385</v>
+        <v>6739800.727311679</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x0853C577A04B7d6E93580597A03Fd13A95879Be5</t>
+          <t>https://intel.arkm.com/explorer/address/0x4bD9a84F22bD479f630E2f6c3311285D6eb6B768</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0x0853C577A04B7d6E93580597A03Fd13A95879Be5</t>
+          <t>0x4bD9a84F22bD479f630E2f6c3311285D6eb6B768</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5363,63 +5331,43 @@
       <c r="E79" t="b">
         <v>0</v>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Coinbase</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>33013686.828125</v>
       </c>
       <c r="L79" t="n">
-        <v>13617062</v>
+        <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>1917674.333348781</v>
       </c>
       <c r="N79" t="n">
-        <v>60566.0381165251</v>
+        <v>0</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xf3fB9691c4BFF980C0352339fb297c5bF52Dd354</t>
+          <t>https://intel.arkm.com/explorer/address/0xBEEf02961503351625926Ea9a11AE13B29F5c555</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0xf3fB9691c4BFF980C0352339fb297c5bF52Dd354</t>
+          <t>0xBEEf02961503351625926Ea9a11AE13B29F5c555</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5439,37 +5387,37 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>392455101.8561797</v>
+        <v>32870611.64229409</v>
       </c>
       <c r="L80" t="n">
-        <v>392394406.2385449</v>
+        <v>31040545.87157011</v>
       </c>
       <c r="M80" t="n">
-        <v>1697977.628744097</v>
+        <v>1733534.909574969</v>
       </c>
       <c r="N80" t="n">
-        <v>1697681.200199469</v>
+        <v>1636368.610290254</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x28C6c06298d514Db089934071355E5743bf21d60</t>
+          <t>https://intel.arkm.com/explorer/address/0x8894E0a0c962CB723c1976a4421c95949bE2D4E3</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0x28C6c06298d514Db089934071355E5743bf21d60</t>
+          <t>0x8894E0a0c962CB723c1976a4421c95949bE2D4E3</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -5509,37 +5457,37 @@
         </is>
       </c>
       <c r="K81" t="n">
-        <v>360362038.1263428</v>
+        <v>28359792.88272667</v>
       </c>
       <c r="L81" t="n">
-        <v>344855762.1017036</v>
+        <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>1494130.674701429</v>
+        <v>1528230.502839196</v>
       </c>
       <c r="N81" t="n">
-        <v>1429522.71283833</v>
+        <v>0</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x3E312eDdAaEd13db65178a8036a8b715f645A746</t>
+          <t>https://intel.arkm.com/explorer/address/0xDFd5293D8e347dFe59E90eFd55b2956a1343963d</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>0x3E312eDdAaEd13db65178a8036a8b715f645A746</t>
+          <t>0xDFd5293D8e347dFe59E90eFd55b2956a1343963d</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -5548,17 +5496,29 @@
         </is>
       </c>
       <c r="D82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="b">
         <v>0</v>
       </c>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Binance</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>https://binance.com</t>
+        </is>
+      </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Gnosis Safe Proxy</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -5567,37 +5527,37 @@
         </is>
       </c>
       <c r="K82" t="n">
-        <v>56632208</v>
+        <v>264795079.5</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>261118191.5524808</v>
       </c>
       <c r="M82" t="n">
-        <v>220213.1159152478</v>
+        <v>14441545.51751767</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>14275262.42298944</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xeBb4EE6Fe7a3cB6C207E62d46a6519E1878C5855</t>
+          <t>https://intel.arkm.com/explorer/address/0x4A4aaA0155237881FBD5C34BfaE16e985A7B068D</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>0xeBb4EE6Fe7a3cB6C207E62d46a6519E1878C5855</t>
+          <t>0x4A4aaA0155237881FBD5C34BfaE16e985A7B068D</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -5606,17 +5566,29 @@
         </is>
       </c>
       <c r="D83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="b">
         <v>0</v>
       </c>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>OKX</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>https://okx.com</t>
+        </is>
+      </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Gnosis Safe Proxy</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -5625,37 +5597,37 @@
         </is>
       </c>
       <c r="K83" t="n">
-        <v>28041632.8246994</v>
+        <v>38561065.78920746</v>
       </c>
       <c r="L83" t="n">
-        <v>27685623.72750854</v>
+        <v>37339623.36814618</v>
       </c>
       <c r="M83" t="n">
-        <v>121356.7583518824</v>
+        <v>2127669.760137546</v>
       </c>
       <c r="N83" t="n">
-        <v>120341.5567785288</v>
+        <v>2062705.79721125</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x5141B82f5fFDa4c6fE1E372978F1C5427640a190</t>
+          <t>https://intel.arkm.com/explorer/address/0x28C6c06298d514Db089934071355E5743bf21d60</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>0x5141B82f5fFDa4c6fE1E372978F1C5427640a190</t>
+          <t>0x28C6c06298d514Db089934071355E5743bf21d60</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -5664,60 +5636,68 @@
         </is>
       </c>
       <c r="D84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="b">
         <v>0</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>1inch</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>dex-aggregator</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>https://1inch.io</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K84" t="n">
-        <v>15455068.79028067</v>
+        <v>1088774996.415504</v>
       </c>
       <c r="L84" t="n">
-        <v>15437023.52530032</v>
+        <v>1095988432.373649</v>
       </c>
       <c r="M84" t="n">
-        <v>69660.25230730315</v>
+        <v>56574268.21338207</v>
       </c>
       <c r="N84" t="n">
-        <v>69592.59607061234</v>
+        <v>57496205.02657664</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xC333E80eF2deC2805F239E3f1e810612D294F771</t>
+          <t>https://intel.arkm.com/explorer/address/0x14ec8383A3C864107Ae08fCa194a253498103b11</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>0xC333E80eF2deC2805F239E3f1e810612D294F771</t>
+          <t>0x14ec8383A3C864107Ae08fCa194a253498103b11</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -5733,53 +5713,53 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>B2C2 Group</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://www.b2c2.com</t>
+          <t>https://coinbase.com</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>12145498.6015625</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>37551352</v>
       </c>
       <c r="M85" t="n">
-        <v>48681.51589479</v>
+        <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>2138459.732670324</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x0D0707963952f2fBA59dD06f2b425ace40b492Fe</t>
+          <t>https://intel.arkm.com/explorer/address/0x9B1c1752B6B6eAF62a8c491A8681B32C1F7ecDE9</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>0x0D0707963952f2fBA59dD06f2b425ace40b492Fe</t>
+          <t>0x9B1c1752B6B6eAF62a8c491A8681B32C1F7ecDE9</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -5793,24 +5773,12 @@
       <c r="E86" t="b">
         <v>0</v>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>https://gate.com</t>
-        </is>
-      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Binance Deposit</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5819,37 +5787,37 @@
         </is>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>387002392</v>
       </c>
       <c r="L86" t="n">
-        <v>10704535.09802943</v>
+        <v>386787492</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>18749995</v>
       </c>
       <c r="N86" t="n">
-        <v>46460.381947874</v>
+        <v>18750000</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x9bA0CF1588E1DFA905eC948F7FE5104dD40EDa31</t>
+          <t>https://intel.arkm.com/explorer/address/0xBEE3211ab312a8D065c4FeF0247448e17A8da000</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>0x9bA0CF1588E1DFA905eC948F7FE5104dD40EDa31</t>
+          <t>0xBEE3211ab312a8D065c4FeF0247448e17A8da000</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -5863,16 +5831,8 @@
       <c r="E87" t="b">
         <v>0</v>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>TrustedVolumes</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
@@ -5885,37 +5845,37 @@
         </is>
       </c>
       <c r="K87" t="n">
-        <v>32141696.01133042</v>
+        <v>46788391.98962151</v>
       </c>
       <c r="L87" t="n">
-        <v>31973726.77406378</v>
+        <v>46888394.49037264</v>
       </c>
       <c r="M87" t="n">
-        <v>137424.8574957541</v>
+        <v>2448924.220628944</v>
       </c>
       <c r="N87" t="n">
-        <v>136354.0090728566</v>
+        <v>2451676.82547371</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x4da27a545c0c5B758a6BA100e3a049001de870f5</t>
+          <t>https://intel.arkm.com/explorer/address/0xc0fFeE479E4cD49eafBA87449225e17c53251226</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>0x4da27a545c0c5B758a6BA100e3a049001de870f5</t>
+          <t>0xc0fFeE479E4cD49eafBA87449225e17c53251226</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -5924,68 +5884,48 @@
         </is>
       </c>
       <c r="D88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Aave</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>lending-decentralized</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>https://aave.com</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>Staked Aave (stkAAVE)</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>25964422.8897965</v>
+        <v>185792014.1330052</v>
       </c>
       <c r="L88" t="n">
-        <v>18136803.04576595</v>
+        <v>185776050.1428032</v>
       </c>
       <c r="M88" t="n">
-        <v>108410.9467245793</v>
+        <v>9823116.077567151</v>
       </c>
       <c r="N88" t="n">
-        <v>78222.22878904047</v>
+        <v>9823623.952186264</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x207e1074858A7e78f17002075739eD2745dbaEce</t>
+          <t>https://intel.arkm.com/explorer/address/0x88a9B9D0F6cE2a571889FFdBA5c84301f8982f46</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>0x207e1074858A7e78f17002075739eD2745dbaEce</t>
+          <t>0x88a9B9D0F6cE2a571889FFdBA5c84301f8982f46</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -5994,68 +5934,60 @@
         </is>
       </c>
       <c r="D89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" t="b">
         <v>0</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0x</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>dex</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>https://0x.org</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>MainnetSettler</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>24182991.22930794</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>24182991.24747202</v>
+        <v>39179688</v>
       </c>
       <c r="M89" t="n">
-        <v>106411.1636714658</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>106411.1636714658</v>
+        <v>2238839.271669377</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x7C876bdaA5c038E19F633714f622F6Def949B102</t>
+          <t>https://intel.arkm.com/explorer/address/0x5E8C8A7243651DB1384C0dDfDbE39761E8e7E51a</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>0x7C876bdaA5c038E19F633714f622F6Def949B102</t>
+          <t>0x5E8C8A7243651DB1384C0dDfDbE39761E8e7E51a</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -6064,48 +5996,68 @@
         </is>
       </c>
       <c r="D90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="b">
         <v>0</v>
       </c>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Aave</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>lending-decentralized</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>https://aave.com</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Aave Ethereum LINK (aEthLINK)</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K90" t="n">
-        <v>19872834.89941406</v>
+        <v>76869832.37620178</v>
       </c>
       <c r="L90" t="n">
-        <v>19925545.640625</v>
+        <v>90162125.39389855</v>
       </c>
       <c r="M90" t="n">
-        <v>88383.10697120085</v>
+        <v>4163111.139119716</v>
       </c>
       <c r="N90" t="n">
-        <v>88653.33093786899</v>
+        <v>4951762.072998159</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xe401A6A38024d8f5aB88f1B08cad476cCaCA45E8</t>
+          <t>https://intel.arkm.com/explorer/address/0xfB682b0dE4e0093835EA21cfABb5449cA9ac9e5e</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>0xe401A6A38024d8f5aB88f1B08cad476cCaCA45E8</t>
+          <t>0xfB682b0dE4e0093835EA21cfABb5449cA9ac9e5e</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -6114,29 +6066,29 @@
         </is>
       </c>
       <c r="D91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Wintermute</t>
+          <t>Chainlink</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>oracle</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>https://www.wintermute.com/</t>
+          <t>https://chain.link</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Bybit Deposit</t>
+          <t>Non-Circulating Supply</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6145,37 +6097,37 @@
         </is>
       </c>
       <c r="K91" t="n">
-        <v>15951962.10351562</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>15726342.34765625</v>
+        <v>82279976</v>
       </c>
       <c r="M91" t="n">
-        <v>67390.97292371999</v>
+        <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>66498.97292371999</v>
+        <v>3999999</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xA9D1e08C7793af67e9d92fe308d5697FB81d3E43</t>
+          <t>https://intel.arkm.com/explorer/address/0xa6Cc3C2531FdaA6Ae1A3CA84c2855806728693e8</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>0xA9D1e08C7793af67e9d92fe308d5697FB81d3E43</t>
+          <t>0xa6Cc3C2531FdaA6Ae1A3CA84c2855806728693e8</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -6191,22 +6143,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>dex</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
+          <t>https://uniswap.org</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>LINK</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -6215,37 +6167,37 @@
         </is>
       </c>
       <c r="K92" t="n">
-        <v>120935104.9069824</v>
+        <v>207330889.1037889</v>
       </c>
       <c r="L92" t="n">
-        <v>120351879.7886729</v>
+        <v>209732642.490471</v>
       </c>
       <c r="M92" t="n">
-        <v>520629.1458825636</v>
+        <v>11330384.19939709</v>
       </c>
       <c r="N92" t="n">
-        <v>517249.3564871516</v>
+        <v>11434590.28621588</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xEae7380dD4CeF6fbD1144F49E4D1e6964258A4F4</t>
+          <t>https://intel.arkm.com/explorer/address/0x9c17f630DBde24eECe8fd248fAA2E51f690FF79B</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>0xEae7380dD4CeF6fbD1144F49E4D1e6964258A4F4</t>
+          <t>0x9c17f630DBde24eECe8fd248fAA2E51f690FF79B</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -6254,29 +6206,29 @@
         </is>
       </c>
       <c r="D93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Wintermute</t>
+          <t>Chainlink</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>oracle</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>https://www.wintermute.com/</t>
+          <t>https://chain.link</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Binance Deposit</t>
+          <t>Non-Circulating Supply</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -6285,37 +6237,37 @@
         </is>
       </c>
       <c r="K93" t="n">
-        <v>86821766.59375</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>86857823.81640625</v>
+        <v>138982480</v>
       </c>
       <c r="M93" t="n">
-        <v>372556.48426476</v>
+        <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>372556.48426476</v>
+        <v>6749999</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x73E4E2726c688A09af7e72107eE92a372EeB3012</t>
+          <t>https://intel.arkm.com/explorer/address/0x191c10Aa4AF7C30e871E70C95dB0E4eb77237530</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>0x73E4E2726c688A09af7e72107eE92a372EeB3012</t>
+          <t>0x191c10Aa4AF7C30e871E70C95dB0E4eb77237530</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -6329,51 +6281,55 @@
       <c r="E94" t="b">
         <v>0</v>
       </c>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>Coinbase Deposit</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Aave</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>lending-decentralized</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>https://aave.com</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>12635243.06542969</v>
+        <v>36087302.30185936</v>
       </c>
       <c r="L94" t="n">
-        <v>12633801.25</v>
+        <v>38372955.36138604</v>
       </c>
       <c r="M94" t="n">
-        <v>51997.39239</v>
+        <v>1925546.831455496</v>
       </c>
       <c r="N94" t="n">
-        <v>51997.39239</v>
+        <v>2074938.701546695</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x00000000009E50a7dDb7a7B0e2ee6604fd120E49</t>
+          <t>https://intel.arkm.com/explorer/address/0xC333E80eF2deC2805F239E3f1e810612D294F771</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>0x00000000009E50a7dDb7a7B0e2ee6604fd120E49</t>
+          <t>0xC333E80eF2deC2805F239E3f1e810612D294F771</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -6382,56 +6338,60 @@
         </is>
       </c>
       <c r="D95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95" t="b">
         <v>0</v>
       </c>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>MEV Bot</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>B2C2 Group</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>https://www.b2c2.com</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>12212989.94223809</v>
+        <v>32001680.22485352</v>
       </c>
       <c r="L95" t="n">
-        <v>11674795.08079052</v>
+        <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>59589.4776321648</v>
+        <v>1684470.240744589</v>
       </c>
       <c r="N95" t="n">
-        <v>57119.42428090922</v>
+        <v>0</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x21a31Ee1afC51d94C2eFcCAa2092aD1028285549</t>
+          <t>https://intel.arkm.com/explorer/address/0xa07fB08fa640FB0E68794e06e5A79B2B591012cA</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>0x21a31Ee1afC51d94C2eFcCAa2092aD1028285549</t>
+          <t>0xa07fB08fa640FB0E68794e06e5A79B2B591012cA</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -6445,63 +6405,43 @@
       <c r="E96" t="b">
         <v>0</v>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Binance</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>https://binance.com</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>64946806</v>
+        <v>24899377.5625</v>
       </c>
       <c r="L96" t="n">
-        <v>64681323.61069107</v>
+        <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>270316.048516</v>
+        <v>1437496.967562948</v>
       </c>
       <c r="N96" t="n">
-        <v>269477.15472213</v>
+        <v>0</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x73ACC6C8974F63de67594511A6aB21AB5F067295</t>
+          <t>https://intel.arkm.com/explorer/address/0xBD8D03ea5137362EA7b7CC5E98758bcB9040faaA</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>0x73ACC6C8974F63de67594511A6aB21AB5F067295</t>
+          <t>0xBD8D03ea5137362EA7b7CC5E98758bcB9040faaA</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -6515,43 +6455,55 @@
       <c r="E97" t="b">
         <v>0</v>
       </c>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>51023110</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>51390656</v>
+        <v>37288184</v>
       </c>
       <c r="M97" t="n">
-        <v>210023.50389539</v>
+        <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>210023.51843139</v>
+        <v>2029841.308380461</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x91D40E4818F4D4C57b4578d9ECa6AFc92aC8DEbE</t>
+          <t>https://intel.arkm.com/explorer/address/0xCD531Ae9EFCCE479654c4926dec5F6209531Ca7b</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>0x91D40E4818F4D4C57b4578d9ECa6AFc92aC8DEbE</t>
+          <t>0xCD531Ae9EFCCE479654c4926dec5F6209531Ca7b</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -6567,7 +6519,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>OKX</t>
+          <t>Coinbase Prime</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -6577,7 +6529,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>https://okx.com</t>
+          <t>https://www.coinbase.com/prime</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -6591,37 +6543,37 @@
         </is>
       </c>
       <c r="K98" t="n">
-        <v>32854213.59339142</v>
+        <v>184989399.2818089</v>
       </c>
       <c r="L98" t="n">
-        <v>33599579.70161557</v>
+        <v>186139158.6555051</v>
       </c>
       <c r="M98" t="n">
-        <v>135790.6050281649</v>
+        <v>10311295.06514433</v>
       </c>
       <c r="N98" t="n">
-        <v>138493.01405199</v>
+        <v>10364446.42952217</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xe705b1D26B85c9F9f91A3690079D336295F14F08</t>
+          <t>https://intel.arkm.com/explorer/address/0xf8191D98ae98d2f7aBDFB63A9b0b812b93C873AA</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>0xe705b1D26B85c9F9f91A3690079D336295F14F08</t>
+          <t>0xf8191D98ae98d2f7aBDFB63A9b0b812b93C873AA</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -6630,17 +6582,29 @@
         </is>
       </c>
       <c r="D99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
       </c>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Wintermute</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Gnosis Safe Proxy</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -6649,37 +6613,37 @@
         </is>
       </c>
       <c r="K99" t="n">
-        <v>15078470</v>
+        <v>192421746.1762555</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>185023697.2362366</v>
       </c>
       <c r="M99" t="n">
-        <v>63464.2432642916</v>
+        <v>10305371.83060312</v>
       </c>
       <c r="N99" t="n">
-        <v>0</v>
+        <v>9931741.8748</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x33566c9D8BE6Cf0B23795E0d380E112Be9d75836</t>
+          <t>https://intel.arkm.com/explorer/address/0xC36442b4a4522E871399CD717aBDD847Ab11FE88</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>0x33566c9D8BE6Cf0B23795E0d380E112Be9d75836</t>
+          <t>0xC36442b4a4522E871399CD717aBDD847Ab11FE88</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -6688,29 +6652,29 @@
         </is>
       </c>
       <c r="D100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="b">
         <v>0</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Galaxy Digital</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>dex</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>https://www.galaxy.com/</t>
+          <t>https://uniswap.org</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>OTC</t>
+          <t>Nonfungible Position Manager</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -6719,37 +6683,37 @@
         </is>
       </c>
       <c r="K100" t="n">
-        <v>54791864.4921875</v>
+        <v>27642937.93614248</v>
       </c>
       <c r="L100" t="n">
-        <v>51043294.80859375</v>
+        <v>29972213.41267328</v>
       </c>
       <c r="M100" t="n">
-        <v>210418.13834903</v>
+        <v>1563969.893932891</v>
       </c>
       <c r="N100" t="n">
-        <v>210108.72580064</v>
+        <v>1691069.400548722</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x7D94077f58593F8b97c5cAB56c8924E13b49946E</t>
+          <t>https://intel.arkm.com/explorer/address/0x0D0707963952f2fBA59dD06f2b425ace40b492Fe</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>0x7D94077f58593F8b97c5cAB56c8924E13b49946E</t>
+          <t>0x0D0707963952f2fBA59dD06f2b425ace40b492Fe</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -6765,7 +6729,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Kraken</t>
+          <t>Gate</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -6775,7 +6739,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>https://kraken.com</t>
+          <t>https://gate.com</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -6789,37 +6753,37 @@
         </is>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>26775636.17376709</v>
       </c>
       <c r="L101" t="n">
-        <v>11445040.91655365</v>
+        <v>0</v>
       </c>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>1465208.305677249</v>
       </c>
       <c r="N101" t="n">
-        <v>48051.63021685</v>
+        <v>0</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xBA12222222228d8Ba445958a75a0704d566BF2C8</t>
+          <t>https://intel.arkm.com/explorer/address/0x8879dA2f0Ffb5cd4BFa68BD59BCEFD4962DD1914</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>0xBA12222222228d8Ba445958a75a0704d566BF2C8</t>
+          <t>0x8879dA2f0Ffb5cd4BFa68BD59BCEFD4962DD1914</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -6828,68 +6792,48 @@
         </is>
       </c>
       <c r="D102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" t="b">
         <v>0</v>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Balancer</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>dex</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>https://balancer.fi</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>Vault</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>47773649.23736347</v>
+        <v>25421752.25000017</v>
       </c>
       <c r="L102" t="n">
-        <v>43757327.16523416</v>
+        <v>0</v>
       </c>
       <c r="M102" t="n">
-        <v>213971.6450154744</v>
+        <v>1441406.39010001</v>
       </c>
       <c r="N102" t="n">
-        <v>197717.3979504214</v>
+        <v>0</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x1157A2076b9bB22a85CC2C162f20fAB3898F4101</t>
+          <t>https://intel.arkm.com/explorer/address/0x5a52E96BAcdaBb82fd05763E25335261B270Efcb</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>0x1157A2076b9bB22a85CC2C162f20fAB3898F4101</t>
+          <t>0x5a52E96BAcdaBb82fd05763E25335261B270Efcb</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -6905,7 +6849,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>FalconX</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -6915,12 +6859,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>https://falconx.io/</t>
+          <t>https://binance.com</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -6929,37 +6873,37 @@
         </is>
       </c>
       <c r="K103" t="n">
-        <v>16983680.0039978</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
-        <v>16116540.64115977</v>
+        <v>218664026.4375</v>
       </c>
       <c r="M103" t="n">
-        <v>70428.81338043891</v>
+        <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>69115.16739527001</v>
+        <v>12183129</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x8f2E43AaE3b31483B08297D54f3c83ea6AAE830D</t>
+          <t>https://intel.arkm.com/explorer/address/0x4a87ecE3eFffCb012fbE491AA028032e07B6F6cF</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>0x8f2E43AaE3b31483B08297D54f3c83ea6AAE830D</t>
+          <t>0x4a87ecE3eFffCb012fbE491AA028032e07B6F6cF</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -6968,48 +6912,68 @@
         </is>
       </c>
       <c r="D104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" t="b">
         <v>0</v>
       </c>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Chainlink</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>oracle</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>https://chain.link</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Non-Circulating Supply</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K104" t="n">
-        <v>17457807.08456421</v>
+        <v>0</v>
       </c>
       <c r="L104" t="n">
-        <v>17486204.364151</v>
+        <v>82339960</v>
       </c>
       <c r="M104" t="n">
-        <v>66493.60742385755</v>
+        <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>66592.32570018279</v>
+        <v>3999998</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x073F564419b625A45D8aEa3bb0dE4d5647113AD7</t>
+          <t>https://intel.arkm.com/explorer/address/0xF977814e90dA44bFA03b6295A0616a897441aceC</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>0x073F564419b625A45D8aEa3bb0dE4d5647113AD7</t>
+          <t>0xF977814e90dA44bFA03b6295A0616a897441aceC</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -7025,7 +6989,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>OKX</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -7035,7 +6999,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>https://okx.com</t>
+          <t>https://binance.com</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7049,37 +7013,37 @@
         </is>
       </c>
       <c r="K105" t="n">
-        <v>0</v>
+        <v>367380764</v>
       </c>
       <c r="L105" t="n">
-        <v>12624639.5625</v>
+        <v>71903208</v>
       </c>
       <c r="M105" t="n">
-        <v>0</v>
+        <v>17827120.987</v>
       </c>
       <c r="N105" t="n">
-        <v>49504.64</v>
+        <v>3782388.57001</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x80787af194C33b74a811f5e5c549316269d7Ee1A</t>
+          <t>https://intel.arkm.com/explorer/address/0xbBF5B578A7eCCE2381D8FC9CAc42D6968712451E</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>0x80787af194C33b74a811f5e5c549316269d7Ee1A</t>
+          <t>0xbBF5B578A7eCCE2381D8FC9CAc42D6968712451E</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -7093,63 +7057,43 @@
       <c r="E106" t="b">
         <v>0</v>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>HitBTC</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>https://hitbtc.com</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>16454452.72431374</v>
+        <v>28391114.50000018</v>
       </c>
       <c r="L106" t="n">
-        <v>16704382.41503906</v>
+        <v>0</v>
       </c>
       <c r="M106" t="n">
-        <v>69563.72688484236</v>
+        <v>1618591.92000001</v>
       </c>
       <c r="N106" t="n">
-        <v>70850.11791893687</v>
+        <v>0</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xA249aC7499Bb7A18f47168f936825452d466DcAf</t>
+          <t>https://intel.arkm.com/explorer/address/0x51C72848c68a965f66FA7a88855F9f7784502a7F</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>0xA249aC7499Bb7A18f47168f936825452d466DcAf</t>
+          <t>0x51C72848c68a965f66FA7a88855F9f7784502a7F</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -7158,48 +7102,68 @@
         </is>
       </c>
       <c r="D107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107" t="b">
         <v>0</v>
       </c>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Wintermute</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Market Maker</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K107" t="n">
-        <v>915658975.2265625</v>
+        <v>174952074.6549582</v>
       </c>
       <c r="L107" t="n">
-        <v>915658496</v>
+        <v>175670742.7596771</v>
       </c>
       <c r="M107" t="n">
-        <v>4141566.580066699</v>
+        <v>9328850.306691891</v>
       </c>
       <c r="N107" t="n">
-        <v>4141564.5</v>
+        <v>9311848.499755831</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x5aB53EE1d50eeF2C1DD3d5402789cd27bB52c1bB</t>
+          <t>https://intel.arkm.com/explorer/address/0x000000000004444c5dc75cB358380D2e3dE08A90</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>0x5aB53EE1d50eeF2C1DD3d5402789cd27bB52c1bB</t>
+          <t>0x000000000004444c5dc75cB358380D2e3dE08A90</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -7230,7 +7194,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>AAVE</t>
+          <t>PoolManager</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -7239,37 +7203,37 @@
         </is>
       </c>
       <c r="K108" t="n">
-        <v>81463517.85081564</v>
+        <v>76308906.90555014</v>
       </c>
       <c r="L108" t="n">
-        <v>83453062.80260867</v>
+        <v>74926474.49121796</v>
       </c>
       <c r="M108" t="n">
-        <v>352033.2574510718</v>
+        <v>4033828.311032986</v>
       </c>
       <c r="N108" t="n">
-        <v>359768.2867713617</v>
+        <v>3932462.764496073</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xDFd5293D8e347dFe59E90eFd55b2956a1343963d</t>
+          <t>https://intel.arkm.com/explorer/address/0x841ed663F2636863D40be4EE76243377dff13a34</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>0xDFd5293D8e347dFe59E90eFd55b2956a1343963d</t>
+          <t>0x841ed663F2636863D40be4EE76243377dff13a34</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -7285,7 +7249,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Robinhood</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -7295,7 +7259,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
+          <t>https://robinhood.com/</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -7309,37 +7273,37 @@
         </is>
       </c>
       <c r="K109" t="n">
-        <v>77404426.25</v>
+        <v>40958760.90461535</v>
       </c>
       <c r="L109" t="n">
-        <v>77145470.49446189</v>
+        <v>44351300.38476562</v>
       </c>
       <c r="M109" t="n">
-        <v>322732.77851285</v>
+        <v>2274955.172412563</v>
       </c>
       <c r="N109" t="n">
-        <v>322483.94430469</v>
+        <v>2422992.20594163</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x4A4aaA0155237881FBD5C34BfaE16e985A7B068D</t>
+          <t>https://intel.arkm.com/explorer/address/0x97864308e9fc8CF41B39096c94A45e90B218d1b5</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>0x4A4aaA0155237881FBD5C34BfaE16e985A7B068D</t>
+          <t>0x97864308e9fc8CF41B39096c94A45e90B218d1b5</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -7355,7 +7319,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>OKX</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -7365,51 +7329,43 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>https://okx.com</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>18820838.67529297</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>18621369.77420044</v>
+        <v>34721224</v>
       </c>
       <c r="M110" t="n">
-        <v>77510.33031376</v>
+        <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>77436.86989909</v>
+        <v>2047241.956813559</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x7915f9373Ae32d1fcAF0CdF17a532a3D8046D759</t>
+          <t>https://intel.arkm.com/explorer/address/0xA9D1e08C7793af67e9d92fe308d5697FB81d3E43</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>0x7915f9373Ae32d1fcAF0CdF17a532a3D8046D759</t>
+          <t>0xA9D1e08C7793af67e9d92fe308d5697FB81d3E43</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -7418,48 +7374,68 @@
         </is>
       </c>
       <c r="D111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111" t="b">
         <v>0</v>
       </c>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K111" t="n">
-        <v>51390656</v>
+        <v>982664556.3981247</v>
       </c>
       <c r="L111" t="n">
-        <v>0</v>
+        <v>982200495.6607106</v>
       </c>
       <c r="M111" t="n">
-        <v>210023.51843139</v>
+        <v>54347351.80586053</v>
       </c>
       <c r="N111" t="n">
-        <v>0</v>
+        <v>54285118.15712816</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x416Ec2cA21a38CbCFeAcD6a14532B3F348356d23</t>
+          <t>https://intel.arkm.com/explorer/address/0xEebc7DCc613819686659983eE305f87beb6c1ff8</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>0x416Ec2cA21a38CbCFeAcD6a14532B3F348356d23</t>
+          <t>0xEebc7DCc613819686659983eE305f87beb6c1ff8</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -7479,37 +7455,37 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>12274032.10222072</v>
+        <v>427987346.5843215</v>
       </c>
       <c r="L112" t="n">
-        <v>12203620.57654691</v>
+        <v>428177906.0288139</v>
       </c>
       <c r="M112" t="n">
-        <v>53695.49266487768</v>
+        <v>23194584.29521016</v>
       </c>
       <c r="N112" t="n">
-        <v>53384.58551239537</v>
+        <v>23203595.41222528</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x7f0E5dE4D04229A3A74374300fF11a562401cC39</t>
+          <t>https://intel.arkm.com/explorer/address/0x7C876bdaA5c038E19F633714f622F6Def949B102</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>0x7f0E5dE4D04229A3A74374300fF11a562401cC39</t>
+          <t>0x7C876bdaA5c038E19F633714f622F6Def949B102</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -7523,63 +7499,43 @@
       <c r="E113" t="b">
         <v>0</v>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Coinbase</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>103536935.7330343</v>
       </c>
       <c r="L113" t="n">
-        <v>12331337</v>
+        <v>103523714.0917969</v>
       </c>
       <c r="M113" t="n">
-        <v>0</v>
+        <v>5652331.073659385</v>
       </c>
       <c r="N113" t="n">
-        <v>54859.58193031099</v>
+        <v>5652327.786652149</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x4a79B0168296c0eF7b8F314973B82aD406a29f1B</t>
+          <t>https://intel.arkm.com/explorer/address/0x3db910Fac1dbE434f397c07c2B473983eFcf25DC</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>0x4a79B0168296c0eF7b8F314973B82aD406a29f1B</t>
+          <t>0x3db910Fac1dbE434f397c07c2B473983eFcf25DC</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -7593,55 +7549,43 @@
       <c r="E114" t="b">
         <v>0</v>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Aerodrome Finance</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>dex</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>https://aerodrome.finance/</t>
-        </is>
-      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>455221819.566379</v>
+        <v>54051808.35522461</v>
       </c>
       <c r="L114" t="n">
-        <v>455076896.7276844</v>
+        <v>0</v>
       </c>
       <c r="M114" t="n">
-        <v>1959493.886625948</v>
+        <v>2876086.785242939</v>
       </c>
       <c r="N114" t="n">
-        <v>1959028.405931894</v>
+        <v>0</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x5236333EF2baa45b450689B69e4e4b277D84F954</t>
+          <t>https://intel.arkm.com/explorer/address/0xa42D0A18B834F52e41bEDdEaA2940165db3DA9a3</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>0x5236333EF2baa45b450689B69e4e4b277D84F954</t>
+          <t>0xa42D0A18B834F52e41bEDdEaA2940165db3DA9a3</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -7650,17 +7594,29 @@
         </is>
       </c>
       <c r="D115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115" t="b">
         <v>0</v>
       </c>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Chainlink</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>oracle</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>https://chain.link</t>
+        </is>
+      </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>joepeng.eth</t>
+          <t>Non-Circulating Supply</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -7669,25 +7625,617 @@
         </is>
       </c>
       <c r="K115" t="n">
-        <v>13538259.03404236</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
-        <v>13585445.36816406</v>
+        <v>83399976</v>
       </c>
       <c r="M115" t="n">
-        <v>56497.449</v>
+        <v>0</v>
       </c>
       <c r="N115" t="n">
-        <v>56557.53321528</v>
+        <v>3999999</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2025-11-03 07:03:19</t>
+          <t>2025-11-03 07:07:33</t>
         </is>
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x21a31Ee1afC51d94C2eFcCAa2092aD1028285549</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>0x21a31Ee1afC51d94C2eFcCAa2092aD1028285549</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D116" t="b">
+        <v>0</v>
+      </c>
+      <c r="E116" t="b">
+        <v>0</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Binance</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>217093494.008873</v>
+      </c>
+      <c r="L116" t="n">
+        <v>212104230.3310816</v>
+      </c>
+      <c r="M116" t="n">
+        <v>11794687.04874405</v>
+      </c>
+      <c r="N116" t="n">
+        <v>11526259.25211574</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>2025-11-03 07:07:33</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x72bE417AFB0aBEa66913141C605D313BB389b59C</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>0x72bE417AFB0aBEa66913141C605D313BB389b59C</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D117" t="b">
+        <v>0</v>
+      </c>
+      <c r="E117" t="b">
+        <v>0</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Aerodrome Finance</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>dex</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>https://aerodrome.finance/</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>194225875.5180876</v>
+      </c>
+      <c r="L117" t="n">
+        <v>194318829.6824548</v>
+      </c>
+      <c r="M117" t="n">
+        <v>10272697.39664426</v>
+      </c>
+      <c r="N117" t="n">
+        <v>10274064.99503037</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>2025-11-03 07:07:33</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x9294906C89f5330106Be3141d8c58E5731dD168c</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>0x9294906C89f5330106Be3141d8c58E5731dD168c</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D118" t="b">
+        <v>0</v>
+      </c>
+      <c r="E118" t="b">
+        <v>0</v>
+      </c>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>34028771</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>1762790.71402187</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>2025-11-03 07:07:33</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xB1dB79aea0a13382DD9E279d96Bc9a468A2F4E87</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>0xB1dB79aea0a13382DD9E279d96Bc9a468A2F4E87</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D119" t="b">
+        <v>0</v>
+      </c>
+      <c r="E119" t="b">
+        <v>0</v>
+      </c>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>151246715.6106436</v>
+      </c>
+      <c r="L119" t="n">
+        <v>151186907.4720502</v>
+      </c>
+      <c r="M119" t="n">
+        <v>8192131.124463179</v>
+      </c>
+      <c r="N119" t="n">
+        <v>8188943.183159471</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>2025-11-03 07:07:33</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x651641299C7eC0aA44AD7eD9b7E12702fED2022f</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>0x651641299C7eC0aA44AD7eD9b7E12702fED2022f</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D120" t="b">
+        <v>0</v>
+      </c>
+      <c r="E120" t="b">
+        <v>0</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Bybit</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>https://bybit.com</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>67606958.49590467</v>
+      </c>
+      <c r="L120" t="n">
+        <v>133219998.2760887</v>
+      </c>
+      <c r="M120" t="n">
+        <v>3537369.630585103</v>
+      </c>
+      <c r="N120" t="n">
+        <v>6603260.40029397</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>2025-11-03 07:07:33</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x20Ec87fCc14bd1F30608918ac481A3395641d7Af</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>0x20Ec87fCc14bd1F30608918ac481A3395641d7Af</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D121" t="b">
+        <v>0</v>
+      </c>
+      <c r="E121" t="b">
+        <v>0</v>
+      </c>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Binance Deposit</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>34028771</v>
+      </c>
+      <c r="L121" t="n">
+        <v>33878826</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1762790.71402187</v>
+      </c>
+      <c r="N121" t="n">
+        <v>1762790.71402187</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>2025-11-03 07:07:33</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x8553f48B2B0B5F9b2E053413d640b46AefB45460</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>0x8553f48B2B0B5F9b2E053413d640b46AefB45460</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D122" t="b">
+        <v>0</v>
+      </c>
+      <c r="E122" t="b">
+        <v>0</v>
+      </c>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>28963835.203125</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1437874.756135735</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>2025-11-03 07:07:33</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x924a4cCcEE25a5093C7486c081633CF95d3B4B93</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>0x924a4cCcEE25a5093C7486c081633CF95d3B4B93</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D123" t="b">
+        <v>0</v>
+      </c>
+      <c r="E123" t="b">
+        <v>0</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>34460000</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>2000000.00001</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>2025-11-03 07:07:33</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xEae7380dD4CeF6fbD1144F49E4D1e6964258A4F4</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>0xEae7380dD4CeF6fbD1144F49E4D1e6964258A4F4</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D124" t="b">
+        <v>0</v>
+      </c>
+      <c r="E124" t="b">
+        <v>0</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Wintermute</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Binance Deposit</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>108644226.0527344</v>
+      </c>
+      <c r="L124" t="n">
+        <v>108828313.90625</v>
+      </c>
+      <c r="M124" t="n">
+        <v>5803696.49283804</v>
+      </c>
+      <c r="N124" t="n">
+        <v>5806077.49283804</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>2025-11-03 07:07:33</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xfBd4cdB413E45a52E2C8312f670e9cE67E794C37</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>0xfBd4cdB413E45a52E2C8312f670e9cE67E794C37</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D125" t="b">
+        <v>1</v>
+      </c>
+      <c r="E125" t="b">
+        <v>0</v>
+      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>42032934.56556273</v>
+      </c>
+      <c r="L125" t="n">
+        <v>42607858.07453537</v>
+      </c>
+      <c r="M125" t="n">
+        <v>2312209.634056875</v>
+      </c>
+      <c r="N125" t="n">
+        <v>2306125.014471473</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>2025-11-03 07:07:33</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>chainlink</t>
         </is>
       </c>
     </row>

--- a/data_cripto/top_flow.xlsx
+++ b/data_cripto/top_flow.xlsx
@@ -518,12 +518,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q7cyrfmck2ffu2ud3rn5l5a8yv6f0chkp0zpemf</t>
+          <t>https://intel.arkm.com/explorer/address/324H9uyTV9bPgAVgmdJNxPKKKZmowk5CYq</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bc1q7cyrfmck2ffu2ud3rn5l5a8yv6f0chkp0zpemf</t>
+          <t>324H9uyTV9bPgAVgmdJNxPKKKZmowk5CYq</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Crypto.com</t>
+          <t>Bullish.com</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://crypto.com</t>
+          <t>https://bullish.com/</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -561,20 +561,20 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>2287971597.149046</v>
+        <v>1528066572.25</v>
       </c>
       <c r="L2" t="n">
-        <v>2426383225.931757</v>
+        <v>1578411292.8156</v>
       </c>
       <c r="M2" t="n">
-        <v>20157.01522818</v>
+        <v>13542.80886771</v>
       </c>
       <c r="N2" t="n">
-        <v>21256.63759723</v>
+        <v>13942.61772232</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -622,7 +622,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -634,12 +634,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qcgphlnlrn7r436v6y07w503qm0wnku9al5d7jm</t>
+          <t>https://intel.arkm.com/explorer/address/1toDcHmJNuhViGbDdVTRiavPmijME7dtr</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>bc1qcgphlnlrn7r436v6y07w503qm0wnku9al5d7jm</t>
+          <t>1toDcHmJNuhViGbDdVTRiavPmijME7dtr</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -651,26 +651,38 @@
       <c r="E4" t="b">
         <v>0</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>823231520</v>
+        <v>721003392</v>
       </c>
       <c r="L4" t="n">
-        <v>925860432</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>6665.99896938</v>
+        <v>6389.21171641</v>
       </c>
       <c r="N4" t="n">
-        <v>7499.99957823</v>
+        <v>0</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -682,12 +694,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1NBYWqtQvWmT7hzEB11XyGjHp4G177AVgz</t>
+          <t>https://intel.arkm.com/explorer/address/12XqeqZRVkBDgmPLVY4ZC6Y4ruUUEug8Fx</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1NBYWqtQvWmT7hzEB11XyGjHp4G177AVgz</t>
+          <t>12XqeqZRVkBDgmPLVY4ZC6Y4ruUUEug8Fx</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -699,38 +711,26 @@
       <c r="E5" t="b">
         <v>0</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>BIT.com (Matrixport)</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>https://www.bit.com/</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>744385566.916008</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>751090019.7364197</v>
+        <v>1244406819.80249</v>
       </c>
       <c r="M5" t="n">
-        <v>6555.467381750001</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>6615.60368364</v>
+        <v>11003.00002712</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -742,12 +742,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1toDcHmJNuhViGbDdVTRiavPmijME7dtr</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qn2cpj0hrl37wqh5q94kwrlhtj2lx8ahtw7ef5rg35tswxsqtvufqfmmrq2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1toDcHmJNuhViGbDdVTRiavPmijME7dtr</t>
+          <t>bc1qn2cpj0hrl37wqh5q94kwrlhtj2lx8ahtw7ef5rg35tswxsqtvufqfmmrq2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>OKX</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -771,26 +771,34 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+          <t>https://okx.com</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K6" t="n">
-        <v>721003392</v>
+        <v>2281809529.64638</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>2330297617.004671</v>
       </c>
       <c r="M6" t="n">
-        <v>6389.21171641</v>
+        <v>20136.00396807</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>20544.99044552</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -802,12 +810,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/12XqeqZRVkBDgmPLVY4ZC6Y4ruUUEug8Fx</t>
+          <t>https://intel.arkm.com/explorer/address/1Pzaqw98PeRfyHypfqyEgg5yycJRsENrE7</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12XqeqZRVkBDgmPLVY4ZC6Y4ruUUEug8Fx</t>
+          <t>1Pzaqw98PeRfyHypfqyEgg5yycJRsENrE7</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -819,26 +827,46 @@
       <c r="E7" t="b">
         <v>0</v>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Binance</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>2235120128</v>
       </c>
       <c r="L7" t="n">
-        <v>1244406819.80249</v>
+        <v>3683662954</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="N7" t="n">
-        <v>11003.00002712</v>
+        <v>30990.0006724</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -850,12 +878,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q39u0yxprsz6ucq93pgtxksk7ncr4900ypvkwcw</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qx9n80t5q7tfmutzaj0ramzzzsvtveara68zntc</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>bc1q39u0yxprsz6ucq93pgtxksk7ncr4900ypvkwcw</t>
+          <t>bc1qx9n80t5q7tfmutzaj0ramzzzsvtveara68zntc</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -869,7 +897,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>BIT.com (Matrixport)</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -879,26 +907,34 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.bit.com/</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>https://kraken.com</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K8" t="n">
-        <v>899781186.4778442</v>
+        <v>13201310710.96254</v>
       </c>
       <c r="L8" t="n">
-        <v>874923454.7045484</v>
+        <v>12155027519.375</v>
       </c>
       <c r="M8" t="n">
-        <v>7945.96449058</v>
+        <v>116543.91281045</v>
       </c>
       <c r="N8" t="n">
-        <v>7751.73593969</v>
+        <v>107150.3300039</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -910,12 +946,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/172jzPTGhtRR2SafHQDz3f7CTFrM4bjrxb</t>
+          <t>https://intel.arkm.com/explorer/address/15DomY3arDPw5jD658Mbf3AY3wT3YCDmW2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>172jzPTGhtRR2SafHQDz3f7CTFrM4bjrxb</t>
+          <t>15DomY3arDPw5jD658Mbf3AY3wT3YCDmW2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -927,26 +963,46 @@
       <c r="E9" t="b">
         <v>0</v>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Wintermute</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K9" t="n">
-        <v>840727680</v>
+        <v>5995213589.887104</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>5986425468.1875</v>
       </c>
       <c r="M9" t="n">
-        <v>7659.20237716</v>
+        <v>52577.79262037</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>52523.79265547</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -958,12 +1014,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3L2h3eRieCJiNkGTqREMq3c2FarSCbhtQP</t>
+          <t>https://intel.arkm.com/explorer/address/1KbDEg1tDz2ErYgaDbaDhhawnLrSQFaFx5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3L2h3eRieCJiNkGTqREMq3c2FarSCbhtQP</t>
+          <t>1KbDEg1tDz2ErYgaDbaDhhawnLrSQFaFx5</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -977,7 +1033,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ETC Group</t>
+          <t>Wintermute</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -987,12 +1043,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://etc-group.com/</t>
+          <t>https://www.wintermute.com/</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>BTCE Bitcoin ETF</t>
+          <t>Binance Deposit</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1001,20 +1057,20 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>867316416</v>
+        <v>5587328097.076099</v>
       </c>
       <c r="L10" t="n">
-        <v>861616576</v>
+        <v>5576972764.751884</v>
       </c>
       <c r="M10" t="n">
-        <v>7098.15441005</v>
+        <v>49313.43612143</v>
       </c>
       <c r="N10" t="n">
-        <v>7098.15441005</v>
+        <v>49238.10508117</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1026,12 +1082,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/14Bp34mVRjG5KfqRcTqjPjPgnL5X47hYWT</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q7cyrfmck2ffu2ud3rn5l5a8yv6f0chkp0zpemf</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>14Bp34mVRjG5KfqRcTqjPjPgnL5X47hYWT</t>
+          <t>bc1q7cyrfmck2ffu2ud3rn5l5a8yv6f0chkp0zpemf</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1045,7 +1101,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Crypto.com</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1055,26 +1111,34 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>https://crypto.com</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K11" t="n">
-        <v>737372608</v>
+        <v>2287971597.149046</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>2426393934.642054</v>
       </c>
       <c r="M11" t="n">
-        <v>6396.13987078</v>
+        <v>20157.01522818</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>21256.73715665</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1086,12 +1150,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/15DomY3arDPw5jD658Mbf3AY3wT3YCDmW2</t>
+          <t>https://intel.arkm.com/explorer/address/34kn9zJe1K8kbGUJtMUar4cQrYiQRs9tef</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>15DomY3arDPw5jD658Mbf3AY3wT3YCDmW2</t>
+          <t>34kn9zJe1K8kbGUJtMUar4cQrYiQRs9tef</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1103,46 +1167,26 @@
       <c r="E12" t="b">
         <v>0</v>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Wintermute</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>https://www.wintermute.com/</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>5987877929.887104</v>
+        <v>985205888</v>
       </c>
       <c r="L12" t="n">
-        <v>5986425468.1875</v>
+        <v>978419904</v>
       </c>
       <c r="M12" t="n">
-        <v>52509.59262037</v>
+        <v>8756.062360919999</v>
       </c>
       <c r="N12" t="n">
-        <v>52523.79265547</v>
+        <v>8756.062360919999</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1154,12 +1198,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qq393eyjh8hdjvcchy0mxquhh9wx8h3kzlkchfs</t>
+          <t>https://intel.arkm.com/explorer/address/14Bp34mVRjG5KfqRcTqjPjPgnL5X47hYWT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>bc1qq393eyjh8hdjvcchy0mxquhh9wx8h3kzlkchfs</t>
+          <t>14Bp34mVRjG5KfqRcTqjPjPgnL5X47hYWT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1173,44 +1217,36 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ceffu</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>custodian</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.ceffu.com/</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Custody Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>2026186989.252441</v>
+        <v>737372608</v>
       </c>
       <c r="L13" t="n">
-        <v>1918031777.098286</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>17879.18078065</v>
+        <v>6396.13987078</v>
       </c>
       <c r="N13" t="n">
-        <v>17065.47220276</v>
+        <v>0</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1222,12 +1258,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1AZ7aYCT6JPLF1EZ7PgymfFtH4xK44CcCP</t>
+          <t>https://intel.arkm.com/explorer/address/bc1quhruqrghgcca950rvhtrg7cpd7u8k6svpzgzmrjy8xyukacl5lkq0r8l2d</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1AZ7aYCT6JPLF1EZ7PgymfFtH4xK44CcCP</t>
+          <t>bc1quhruqrghgcca950rvhtrg7cpd7u8k6svpzgzmrjy8xyukacl5lkq0r8l2d</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1239,12 +1275,24 @@
       <c r="E14" t="b">
         <v>0</v>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>OKX</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://okx.com</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Binance Deposit</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1253,20 +1301,20 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>1159551385.960124</v>
+        <v>3382416381.612833</v>
       </c>
       <c r="L14" t="n">
-        <v>1225438520.657776</v>
+        <v>3375190978.648462</v>
       </c>
       <c r="M14" t="n">
-        <v>10620.94038383</v>
+        <v>29785.17201921</v>
       </c>
       <c r="N14" t="n">
-        <v>11195.49991012</v>
+        <v>29537.5445752</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1278,12 +1326,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/335umQ4egqMjDo6wSXYwQZYPntZzMveNTJ</t>
+          <t>https://intel.arkm.com/explorer/address/bc1quq29mutxkgxmjfdr7ayj3zd9ad0ld5mrhh89l2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>335umQ4egqMjDo6wSXYwQZYPntZzMveNTJ</t>
+          <t>bc1quq29mutxkgxmjfdr7ayj3zd9ad0ld5mrhh89l2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1297,7 +1345,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Gemini</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1307,26 +1355,34 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+          <t>https://gemini.com</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K15" t="n">
-        <v>823215067.4312744</v>
+        <v>875190482.7148583</v>
       </c>
       <c r="L15" t="n">
-        <v>744141611.9789581</v>
+        <v>901545441.2825755</v>
       </c>
       <c r="M15" t="n">
-        <v>7150.39927986</v>
+        <v>7626.004993709999</v>
       </c>
       <c r="N15" t="n">
-        <v>6509.40054986</v>
+        <v>7859.00014186</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1338,12 +1394,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/13ct3jNbHQZWu7SySaa23gCepMtMmjy29e</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q9exg34dkmgxu28yektgn929jpjpzukhhl2r3zr</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>13ct3jNbHQZWu7SySaa23gCepMtMmjy29e</t>
+          <t>bc1q9exg34dkmgxu28yektgn929jpjpzukhhl2r3zr</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1357,36 +1413,44 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Wintermute</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K16" t="n">
-        <v>726332800</v>
+        <v>4576129064.630615</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>4612888393.62981</v>
       </c>
       <c r="M16" t="n">
-        <v>6396.13925926</v>
+        <v>39999.23245378</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>40312.70811353</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1398,12 +1462,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1PjPfocmxS262puhYqUwaagE9zBJTZHGwK</t>
+          <t>https://intel.arkm.com/explorer/address/3M219KR5vEneNb47ewrPfWyb5jQ2DjxRP6</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1PjPfocmxS262puhYqUwaagE9zBJTZHGwK</t>
+          <t>3M219KR5vEneNb47ewrPfWyb5jQ2DjxRP6</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1417,7 +1481,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1427,7 +1491,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
+          <t>https://binance.com</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1441,20 +1505,20 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>918885056</v>
       </c>
       <c r="L17" t="n">
-        <v>737372800</v>
+        <v>2240158208</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>8357.071</v>
       </c>
       <c r="N17" t="n">
-        <v>6396.14148613</v>
+        <v>20045.082</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1466,12 +1530,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
+          <t>https://intel.arkm.com/explorer/address/39DUz1NCkLu25GczWiAjjgZBu4mUjKbdNA</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
+          <t>39DUz1NCkLu25GczWiAjjgZBu4mUjKbdNA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1485,44 +1549,36 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Prince Group (Chen Zhi / LuBian.com)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>scam</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://www.princeholdinggroup.com/</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>25654454626.51967</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>24505650732.38159</v>
+        <v>1097722880</v>
       </c>
       <c r="M18" t="n">
-        <v>226247.91271995</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>215582.70677565</v>
+        <v>9756.062364150001</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1534,12 +1590,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1GrwDkr33gT6LuumniYjKEGjTLhsL5kmqC</t>
+          <t>https://intel.arkm.com/explorer/address/bc1pdwu79dady576y3fupmm82m3g7p2p9f6hgyeqy0tdg7ztxg7xrayqlkl8j9</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1GrwDkr33gT6LuumniYjKEGjTLhsL5kmqC</t>
+          <t>bc1pdwu79dady576y3fupmm82m3g7p2p9f6hgyeqy0tdg7ztxg7xrayqlkl8j9</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1553,17 +1609,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Bybit</t>
+          <t>Hyperunit</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>blockchain-infra</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://bybit.com</t>
+          <t>https://hyperunit.xyz</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1577,20 +1633,20 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>17130746072.8897</v>
+        <v>1191846795.093346</v>
       </c>
       <c r="L19" t="n">
-        <v>17208800730.35423</v>
+        <v>1339308675.005295</v>
       </c>
       <c r="M19" t="n">
-        <v>149740.25789527</v>
+        <v>10345.27522685</v>
       </c>
       <c r="N19" t="n">
-        <v>150282.52553832</v>
+        <v>11637.10883504</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1602,12 +1658,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3KXwpcwggRsACLkFdfCVMU5ZA4tcLxdN6T</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q39u0yxprsz6ucq93pgtxksk7ncr4900ypvkwcw</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3KXwpcwggRsACLkFdfCVMU5ZA4tcLxdN6T</t>
+          <t>bc1q39u0yxprsz6ucq93pgtxksk7ncr4900ypvkwcw</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1621,7 +1677,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Kraken</t>
+          <t>BIT.com (Matrixport)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1631,34 +1687,26 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://kraken.com</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Kraken Deposit</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://www.bit.com/</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>8107601865</v>
+        <v>899781186.4778442</v>
       </c>
       <c r="L20" t="n">
-        <v>8004314383.335938</v>
+        <v>874923454.7045484</v>
       </c>
       <c r="M20" t="n">
-        <v>71434.83065324</v>
+        <v>7945.96449058</v>
       </c>
       <c r="N20" t="n">
-        <v>70496.65360008999</v>
+        <v>7751.73593969</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1670,12 +1718,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1Kr6QSydW9bFQG1mXiPNNu6WpJGmUa9i1g</t>
+          <t>https://intel.arkm.com/explorer/address/39ZP3h79p7xkoB6qZwPiQw8dnHCsBT51u7</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1Kr6QSydW9bFQG1mXiPNNu6WpJGmUa9i1g</t>
+          <t>39ZP3h79p7xkoB6qZwPiQw8dnHCsBT51u7</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1689,22 +1737,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bitfinex</t>
+          <t>ETC Group</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://bitfinex.com</t>
+          <t>https://etc-group.com/</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>BTCE Bitcoin ETF</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1713,20 +1761,20 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>1997078953.567932</v>
+        <v>875762816</v>
       </c>
       <c r="L21" t="n">
-        <v>1905271371.148996</v>
+        <v>875762816</v>
       </c>
       <c r="M21" t="n">
-        <v>18013.65697295</v>
+        <v>7167.28024582</v>
       </c>
       <c r="N21" t="n">
-        <v>17187.30701963</v>
+        <v>7167.28024582</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -1738,12 +1786,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/324H9uyTV9bPgAVgmdJNxPKKKZmowk5CYq</t>
+          <t>https://intel.arkm.com/explorer/address/3GtarxqbsDRwhC8aQtUKeUCCSxkpCpXLC2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>324H9uyTV9bPgAVgmdJNxPKKKZmowk5CYq</t>
+          <t>3GtarxqbsDRwhC8aQtUKeUCCSxkpCpXLC2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1757,22 +1805,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bullish.com</t>
+          <t>ETC Group</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://bullish.com/</t>
+          <t>https://etc-group.com/</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>BTCE Bitcoin ETF</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1781,20 +1829,20 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>1528066572.25</v>
+        <v>859437376</v>
       </c>
       <c r="L22" t="n">
-        <v>1578411292.8156</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>13542.80886771</v>
+        <v>7080.20163095</v>
       </c>
       <c r="N22" t="n">
-        <v>13942.61772232</v>
+        <v>0</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -1806,12 +1854,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q0d3k8zue8z5ztqt0r35rsd7gua5z4ser6gt46c</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qv4r4zwvf5ckdx3llaykl0vez4fdaj4jh5yfjsw</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>bc1q0d3k8zue8z5ztqt0r35rsd7gua5z4ser6gt46c</t>
+          <t>bc1qv4r4zwvf5ckdx3llaykl0vez4fdaj4jh5yfjsw</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1823,46 +1871,26 @@
       <c r="E23" t="b">
         <v>0</v>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Coinbase</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>1488320168.970957</v>
+        <v>8115647695</v>
       </c>
       <c r="L23" t="n">
-        <v>1622991660.321997</v>
+        <v>7996253433.5</v>
       </c>
       <c r="M23" t="n">
-        <v>13154.24742019</v>
+        <v>71506.55131108999</v>
       </c>
       <c r="N23" t="n">
-        <v>14340.96531867</v>
+        <v>70424.46455758999</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -1874,12 +1902,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qppunwskzl7t3mtmcarlvpxjuzd8jy7l7ga49av2c78xg47fujncsrc76y6</t>
+          <t>https://intel.arkm.com/explorer/address/bc1p2mlwrss9tmvtfvu0tcxul2h0w67ej8vyjpj3ksctt67vd9r752ksqx6uqm</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>bc1qppunwskzl7t3mtmcarlvpxjuzd8jy7l7ga49av2c78xg47fujncsrc76y6</t>
+          <t>bc1p2mlwrss9tmvtfvu0tcxul2h0w67ej8vyjpj3ksctt67vd9r752ksqx6uqm</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1891,46 +1919,26 @@
       <c r="E24" t="b">
         <v>0</v>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Bitstamp</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>https://bitstamp.net</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>1530662329.577225</v>
+        <v>1816217010.555176</v>
       </c>
       <c r="L24" t="n">
-        <v>1610199478.975967</v>
+        <v>1819139092.726447</v>
       </c>
       <c r="M24" t="n">
-        <v>13416.62685642</v>
+        <v>15928.06012792</v>
       </c>
       <c r="N24" t="n">
-        <v>13991.95512895</v>
+        <v>15948.18299135</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -1942,12 +1950,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3GtarxqbsDRwhC8aQtUKeUCCSxkpCpXLC2</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qjcm02r55a90v88xwe4alew4y4uyft2htvnywv2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3GtarxqbsDRwhC8aQtUKeUCCSxkpCpXLC2</t>
+          <t>bc1qjcm02r55a90v88xwe4alew4y4uyft2htvnywv2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1961,44 +1969,36 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ETC Group</t>
+          <t>Robinhood</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://etc-group.com/</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>BTCE Bitcoin ETF</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://robinhood.com/</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>859437376</v>
+        <v>1294810941.884207</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1204242282.1875</v>
       </c>
       <c r="M25" t="n">
-        <v>7080.20163095</v>
+        <v>11374.76329607</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>10669.80259209</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2010,12 +2010,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1quhruqrghgcca950rvhtrg7cpd7u8k6svpzgzmrjy8xyukacl5lkq0r8l2d</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q67g733e7z2gy333pcnkqrvpptjel2c6kr4jkug</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>bc1quhruqrghgcca950rvhtrg7cpd7u8k6svpzgzmrjy8xyukacl5lkq0r8l2d</t>
+          <t>bc1q67g733e7z2gy333pcnkqrvpptjel2c6kr4jkug</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2027,46 +2027,26 @@
       <c r="E26" t="b">
         <v>0</v>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>OKX</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>https://okx.com</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>3382212002.034708</v>
+        <v>1222254096.33758</v>
       </c>
       <c r="L26" t="n">
-        <v>3375190978.648462</v>
+        <v>786706103.0231161</v>
       </c>
       <c r="M26" t="n">
-        <v>29783.27189201</v>
+        <v>9900.00000294</v>
       </c>
       <c r="N26" t="n">
-        <v>29537.5445752</v>
+        <v>6500.00008375</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2078,12 +2058,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1KbDEg1tDz2ErYgaDbaDhhawnLrSQFaFx5</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qvrwzs8unvu35kcred2z5ujjef36s5jgf3y6tp8</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1KbDEg1tDz2ErYgaDbaDhhawnLrSQFaFx5</t>
+          <t>bc1qvrwzs8unvu35kcred2z5ujjef36s5jgf3y6tp8</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2095,46 +2075,26 @@
       <c r="E27" t="b">
         <v>0</v>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Wintermute</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>https://www.wintermute.com/</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Binance Deposit</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>5584746645.076099</v>
+        <v>1219689154.701087</v>
       </c>
       <c r="L27" t="n">
-        <v>5576972764.751884</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>49289.43623243</v>
+        <v>10907.90654394</v>
       </c>
       <c r="N27" t="n">
-        <v>49238.10508117</v>
+        <v>0</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2146,12 +2106,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1p2mlwrss9tmvtfvu0tcxul2h0w67ej8vyjpj3ksctt67vd9r752ksqx6uqm</t>
+          <t>https://intel.arkm.com/explorer/address/172jzPTGhtRR2SafHQDz3f7CTFrM4bjrxb</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>bc1p2mlwrss9tmvtfvu0tcxul2h0w67ej8vyjpj3ksctt67vd9r752ksqx6uqm</t>
+          <t>172jzPTGhtRR2SafHQDz3f7CTFrM4bjrxb</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2169,20 +2129,20 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>1816217010.555176</v>
+        <v>840727680</v>
       </c>
       <c r="L28" t="n">
-        <v>1819139092.726447</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>15928.06012792</v>
+        <v>7659.20237716</v>
       </c>
       <c r="N28" t="n">
-        <v>15948.18299135</v>
+        <v>0</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2194,12 +2154,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/36YZXcTVLPdyapYuqXdJEt46oMVB2NrzVv</t>
+          <t>https://intel.arkm.com/explorer/address/13ct3jNbHQZWu7SySaa23gCepMtMmjy29e</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>36YZXcTVLPdyapYuqXdJEt46oMVB2NrzVv</t>
+          <t>13ct3jNbHQZWu7SySaa23gCepMtMmjy29e</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2211,34 +2171,38 @@
       <c r="E29" t="b">
         <v>0</v>
       </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Coinbase Prime Deposit</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>1131690357</v>
+        <v>726332800</v>
       </c>
       <c r="L29" t="n">
-        <v>1241623510</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>10204.34403848</v>
+        <v>6396.13925926</v>
       </c>
       <c r="N29" t="n">
-        <v>11210.75377887</v>
+        <v>0</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2250,12 +2214,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q67g733e7z2gy333pcnkqrvpptjel2c6kr4jkug</t>
+          <t>https://intel.arkm.com/explorer/address/18QCiLiXhko8pb4rqv3mCtC834tSTWHNij</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>bc1q67g733e7z2gy333pcnkqrvpptjel2c6kr4jkug</t>
+          <t>18QCiLiXhko8pb4rqv3mCtC834tSTWHNij</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2267,26 +2231,46 @@
       <c r="E30" t="b">
         <v>0</v>
       </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K30" t="n">
-        <v>1222254096.33758</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>786706103.0231161</v>
+        <v>778707264</v>
       </c>
       <c r="M30" t="n">
-        <v>9900.00000294</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>6500.00008375</v>
+        <v>6406.47697319</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2298,12 +2282,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qv4r4zwvf5ckdx3llaykl0vez4fdaj4jh5yfjsw</t>
+          <t>https://intel.arkm.com/explorer/address/3MqUP6G1daVS5YTD8fz3QgwjZortWwxXFd</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>bc1qv4r4zwvf5ckdx3llaykl0vez4fdaj4jh5yfjsw</t>
+          <t>3MqUP6G1daVS5YTD8fz3QgwjZortWwxXFd</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2315,26 +2299,46 @@
       <c r="E31" t="b">
         <v>0</v>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Coinbase Prime</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>https://www.coinbase.com/prime</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K31" t="n">
-        <v>8115647695</v>
+        <v>17888541711.53738</v>
       </c>
       <c r="L31" t="n">
-        <v>7996253433.5</v>
+        <v>17875616763.14396</v>
       </c>
       <c r="M31" t="n">
-        <v>71506.55131108999</v>
+        <v>155229.31151416</v>
       </c>
       <c r="N31" t="n">
-        <v>70424.46455758999</v>
+        <v>155166.63127778</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2346,12 +2350,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/12DezRFkKToAiLTDNru1g7FuvtAWMwCZ7N</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q42kvqt0e3f27qhd2ucnprarl5ywpuj7tu0h9v2</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>12DezRFkKToAiLTDNru1g7FuvtAWMwCZ7N</t>
+          <t>bc1q42kvqt0e3f27qhd2ucnprarl5ywpuj7tu0h9v2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2365,7 +2369,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>FalconX</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2375,12 +2379,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
+          <t>https://falconx.io/</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2389,20 +2393,20 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>3990117526.820312</v>
+        <v>2282720862.370626</v>
       </c>
       <c r="L32" t="n">
-        <v>3970224964.539062</v>
+        <v>2455841834.19398</v>
       </c>
       <c r="M32" t="n">
-        <v>35307.86278777</v>
+        <v>20297.4913845</v>
       </c>
       <c r="N32" t="n">
-        <v>35141.06504928</v>
+        <v>21746.55916778</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -2414,12 +2418,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qr4dl5wa7kl8yu792dceg9z5knl2gkn220lk7a9</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q8s3h3vw5xufdas890q29lpuca56r0ezqar0mvs</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>bc1qr4dl5wa7kl8yu792dceg9z5knl2gkn220lk7a9</t>
+          <t>bc1q8s3h3vw5xufdas890q29lpuca56r0ezqar0mvs</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2433,44 +2437,36 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Crypto.com</t>
+          <t>Cumberland DRW</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://crypto.com</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://cumberland.io</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>2418521697.581758</v>
+        <v>1725937321.625366</v>
       </c>
       <c r="L33" t="n">
-        <v>2385118923.833565</v>
+        <v>1815432529.483957</v>
       </c>
       <c r="M33" t="n">
-        <v>21266.98721945</v>
+        <v>15021.05829357</v>
       </c>
       <c r="N33" t="n">
-        <v>20955.2978094</v>
+        <v>15785.10006922</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -2482,12 +2478,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1pdwu79dady576y3fupmm82m3g7p2p9f6hgyeqy0tdg7ztxg7xrayqlkl8j9</t>
+          <t>https://intel.arkm.com/explorer/address/bc1ql7c3k2xw90qmhpntte94mu7mpra6g77nqtj6v7</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>bc1pdwu79dady576y3fupmm82m3g7p2p9f6hgyeqy0tdg7ztxg7xrayqlkl8j9</t>
+          <t>bc1ql7c3k2xw90qmhpntte94mu7mpra6g77nqtj6v7</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2501,44 +2497,36 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Hyperunit</t>
+          <t>BTC-e</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>blockchain-infra</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://hyperunit.xyz</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://btc-e.com</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>1191846795.093346</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1339308675.005295</v>
+        <v>694011520</v>
       </c>
       <c r="M34" t="n">
-        <v>10345.27522685</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>11637.10883504</v>
+        <v>6499.99999602</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -2550,12 +2538,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3JZ3byZy7TTrfy8zdxrm9iqJrdsaZ5CrNw</t>
+          <t>https://intel.arkm.com/explorer/address/1Kr6QSydW9bFQG1mXiPNNu6WpJGmUa9i1g</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3JZ3byZy7TTrfy8zdxrm9iqJrdsaZ5CrNw</t>
+          <t>1Kr6QSydW9bFQG1mXiPNNu6WpJGmUa9i1g</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2569,7 +2557,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Crypto.com</t>
+          <t>Bitfinex</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2579,26 +2567,34 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://crypto.com</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+          <t>https://bitfinex.com</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K35" t="n">
-        <v>813543203.7145386</v>
+        <v>1997078953.567932</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1905271371.148996</v>
       </c>
       <c r="M35" t="n">
-        <v>7146.29951</v>
+        <v>18013.65697295</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>17187.30701963</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -2610,12 +2606,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q32lyrhp9zpww22phqjwwmelta0c8a5q990ghs6</t>
+          <t>https://intel.arkm.com/explorer/address/1PJiGp2yDLvUgqeBsuZVCBADArNsk6XEiw</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>bc1q32lyrhp9zpww22phqjwwmelta0c8a5q990ghs6</t>
+          <t>1PJiGp2yDLvUgqeBsuZVCBADArNsk6XEiw</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2629,22 +2625,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ceffu</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>custodian</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.ceffu.com/</t>
+          <t>https://binance.com</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Custody Cold Wallet</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2653,20 +2649,20 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>1325450112</v>
       </c>
       <c r="L36" t="n">
-        <v>1319283064</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>10833</v>
       </c>
       <c r="N36" t="n">
-        <v>11845.00003058</v>
+        <v>0</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -2678,12 +2674,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/39DUz1NCkLu25GczWiAjjgZBu4mUjKbdNA</t>
+          <t>https://intel.arkm.com/explorer/address/1PjPfocmxS262puhYqUwaagE9zBJTZHGwK</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>39DUz1NCkLu25GczWiAjjgZBu4mUjKbdNA</t>
+          <t>1PjPfocmxS262puhYqUwaagE9zBJTZHGwK</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2697,36 +2693,44 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Prince Group (Chen Zhi / LuBian.com)</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>scam</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.princeholdinggroup.com/</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1097722880</v>
+        <v>737372800</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>9756.062364150001</v>
+        <v>6396.14148613</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -2738,12 +2742,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/14B4ceT9HWX1njZWB7an1zQAY9zXX352EQ</t>
+          <t>https://intel.arkm.com/explorer/address/3JZ3byZy7TTrfy8zdxrm9iqJrdsaZ5CrNw</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>14B4ceT9HWX1njZWB7an1zQAY9zXX352EQ</t>
+          <t>3JZ3byZy7TTrfy8zdxrm9iqJrdsaZ5CrNw</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2755,26 +2759,38 @@
       <c r="E38" t="b">
         <v>0</v>
       </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Crypto.com</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>https://crypto.com</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>813543203.7145386</v>
       </c>
       <c r="L38" t="n">
-        <v>840793536</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>7146.29951</v>
       </c>
       <c r="N38" t="n">
-        <v>7659.80237939</v>
+        <v>0</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -2786,12 +2802,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/18QCiLiXhko8pb4rqv3mCtC834tSTWHNij</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qr4dl5wa7kl8yu792dceg9z5knl2gkn220lk7a9</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>18QCiLiXhko8pb4rqv3mCtC834tSTWHNij</t>
+          <t>bc1qr4dl5wa7kl8yu792dceg9z5knl2gkn220lk7a9</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2805,7 +2821,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Crypto.com</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2815,7 +2831,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
+          <t>https://crypto.com</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2829,20 +2845,20 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>2418521697.581758</v>
       </c>
       <c r="L39" t="n">
-        <v>778707264</v>
+        <v>2385118923.833565</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>21266.98721945</v>
       </c>
       <c r="N39" t="n">
-        <v>6406.47697319</v>
+        <v>20955.2978094</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -2854,12 +2870,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1quq29mutxkgxmjfdr7ayj3zd9ad0ld5mrhh89l2</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qppunwskzl7t3mtmcarlvpxjuzd8jy7l7ga49av2c78xg47fujncsrc76y6</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>bc1quq29mutxkgxmjfdr7ayj3zd9ad0ld5mrhh89l2</t>
+          <t>bc1qppunwskzl7t3mtmcarlvpxjuzd8jy7l7ga49av2c78xg47fujncsrc76y6</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2873,7 +2889,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>Bitstamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2883,12 +2899,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://gemini.com</t>
+          <t>https://bitstamp.net</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2897,20 +2913,20 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>875190482.7148583</v>
+        <v>1530662329.577225</v>
       </c>
       <c r="L40" t="n">
-        <v>901545441.2825755</v>
+        <v>1610199478.975967</v>
       </c>
       <c r="M40" t="n">
-        <v>7626.004993709999</v>
+        <v>13416.62685642</v>
       </c>
       <c r="N40" t="n">
-        <v>7859.00014186</v>
+        <v>13991.95512895</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -2922,12 +2938,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q9exg34dkmgxu28yektgn929jpjpzukhhl2r3zr</t>
+          <t>https://intel.arkm.com/explorer/address/1AZ7aYCT6JPLF1EZ7PgymfFtH4xK44CcCP</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>bc1q9exg34dkmgxu28yektgn929jpjpzukhhl2r3zr</t>
+          <t>1AZ7aYCT6JPLF1EZ7PgymfFtH4xK44CcCP</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2939,24 +2955,12 @@
       <c r="E41" t="b">
         <v>0</v>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Wintermute</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>https://www.wintermute.com/</t>
-        </is>
-      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Binance Deposit</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2965,20 +2969,20 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>4575675943.974365</v>
+        <v>1159551385.960124</v>
       </c>
       <c r="L41" t="n">
-        <v>4612888393.62981</v>
+        <v>1225438520.657776</v>
       </c>
       <c r="M41" t="n">
-        <v>39995.01976846</v>
+        <v>10620.94038383</v>
       </c>
       <c r="N41" t="n">
-        <v>40312.70811353</v>
+        <v>11195.49991012</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -2990,12 +2994,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qn2cpj0hrl37wqh5q94kwrlhtj2lx8ahtw7ef5rg35tswxsqtvufqfmmrq2</t>
+          <t>https://intel.arkm.com/explorer/address/36YZXcTVLPdyapYuqXdJEt46oMVB2NrzVv</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>bc1qn2cpj0hrl37wqh5q94kwrlhtj2lx8ahtw7ef5rg35tswxsqtvufqfmmrq2</t>
+          <t>36YZXcTVLPdyapYuqXdJEt46oMVB2NrzVv</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3007,24 +3011,12 @@
       <c r="E42" t="b">
         <v>0</v>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>OKX</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>https://okx.com</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Coinbase Prime Deposit</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3033,20 +3025,20 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>2281809529.64638</v>
+        <v>1131690357</v>
       </c>
       <c r="L42" t="n">
-        <v>2330297617.004671</v>
+        <v>1241623510</v>
       </c>
       <c r="M42" t="n">
-        <v>20136.00396807</v>
+        <v>10204.34403848</v>
       </c>
       <c r="N42" t="n">
-        <v>20544.99044552</v>
+        <v>11210.75377887</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3058,12 +3050,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q8s3h3vw5xufdas890q29lpuca56r0ezqar0mvs</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q32lyrhp9zpww22phqjwwmelta0c8a5q990ghs6</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>bc1q8s3h3vw5xufdas890q29lpuca56r0ezqar0mvs</t>
+          <t>bc1q32lyrhp9zpww22phqjwwmelta0c8a5q990ghs6</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3077,36 +3069,44 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Cumberland DRW</t>
+          <t>Ceffu</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>custodian</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://cumberland.io</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+          <t>https://www.ceffu.com/</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Custody Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K43" t="n">
-        <v>1725937321.625366</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1815432529.483957</v>
+        <v>1319283064</v>
       </c>
       <c r="M43" t="n">
-        <v>15021.05829357</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>15785.10006922</v>
+        <v>11845.00003058</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -3118,12 +3118,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3MqUP6G1daVS5YTD8fz3QgwjZortWwxXFd</t>
+          <t>https://intel.arkm.com/explorer/address/14B4ceT9HWX1njZWB7an1zQAY9zXX352EQ</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3MqUP6G1daVS5YTD8fz3QgwjZortWwxXFd</t>
+          <t>14B4ceT9HWX1njZWB7an1zQAY9zXX352EQ</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3135,46 +3135,26 @@
       <c r="E44" t="b">
         <v>0</v>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Coinbase Prime</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>https://www.coinbase.com/prime</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>17888541711.53738</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>17875616763.14396</v>
+        <v>840793536</v>
       </c>
       <c r="M44" t="n">
-        <v>155229.31151416</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>155166.63127778</v>
+        <v>7659.80237939</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -3186,12 +3166,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3M219KR5vEneNb47ewrPfWyb5jQ2DjxRP6</t>
+          <t>https://intel.arkm.com/explorer/address/3KXwpcwggRsACLkFdfCVMU5ZA4tcLxdN6T</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3M219KR5vEneNb47ewrPfWyb5jQ2DjxRP6</t>
+          <t>3KXwpcwggRsACLkFdfCVMU5ZA4tcLxdN6T</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3205,7 +3185,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3215,12 +3195,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
+          <t>https://kraken.com</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Kraken Deposit</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3229,20 +3209,20 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>918885056</v>
+        <v>8107601865</v>
       </c>
       <c r="L45" t="n">
-        <v>2240158208</v>
+        <v>8004314383.335938</v>
       </c>
       <c r="M45" t="n">
-        <v>8357.071</v>
+        <v>71434.83065324</v>
       </c>
       <c r="N45" t="n">
-        <v>20045.082</v>
+        <v>70496.65360008999</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -3254,12 +3234,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/39ZP3h79p7xkoB6qZwPiQw8dnHCsBT51u7</t>
+          <t>https://intel.arkm.com/explorer/address/38MfJkxPkpwsZxkyfESwjdaKBdXrV8DpWr</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>39ZP3h79p7xkoB6qZwPiQw8dnHCsBT51u7</t>
+          <t>38MfJkxPkpwsZxkyfESwjdaKBdXrV8DpWr</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3273,44 +3253,36 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>ETC Group</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://etc-group.com/</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>BTCE Bitcoin ETF</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>875762816</v>
+        <v>1660935062.953125</v>
       </c>
       <c r="L46" t="n">
-        <v>875762816</v>
+        <v>1656626939.295593</v>
       </c>
       <c r="M46" t="n">
-        <v>7167.28024582</v>
+        <v>14162.13657</v>
       </c>
       <c r="N46" t="n">
-        <v>7167.28024582</v>
+        <v>14089.65584</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -3322,12 +3294,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qjcm02r55a90v88xwe4alew4y4uyft2htvnywv2</t>
+          <t>https://intel.arkm.com/explorer/address/335umQ4egqMjDo6wSXYwQZYPntZzMveNTJ</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>bc1qjcm02r55a90v88xwe4alew4y4uyft2htvnywv2</t>
+          <t>335umQ4egqMjDo6wSXYwQZYPntZzMveNTJ</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3341,7 +3313,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Robinhood</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3351,26 +3323,26 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://robinhood.com/</t>
+          <t>https://coinbase.com</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>1294810941.884207</v>
+        <v>823215067.4312744</v>
       </c>
       <c r="L47" t="n">
-        <v>1204242282.1875</v>
+        <v>744141611.9789581</v>
       </c>
       <c r="M47" t="n">
-        <v>11374.76329607</v>
+        <v>7150.39927986</v>
       </c>
       <c r="N47" t="n">
-        <v>10669.80259209</v>
+        <v>6509.40054986</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -3382,12 +3354,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1PJiGp2yDLvUgqeBsuZVCBADArNsk6XEiw</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qcgphlnlrn7r436v6y07w503qm0wnku9al5d7jm</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1PJiGp2yDLvUgqeBsuZVCBADArNsk6XEiw</t>
+          <t>bc1qcgphlnlrn7r436v6y07w503qm0wnku9al5d7jm</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3399,46 +3371,26 @@
       <c r="E48" t="b">
         <v>0</v>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Binance</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>https://binance.com</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>1325450112</v>
+        <v>823231520</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>925860432</v>
       </c>
       <c r="M48" t="n">
-        <v>10833</v>
+        <v>6665.99896938</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>7499.99957823</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -3450,12 +3402,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/12XZMdaAGmcHf4ocFSqpd8jFd1WH7RHUPs</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q0d3k8zue8z5ztqt0r35rsd7gua5z4ser6gt46c</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>12XZMdaAGmcHf4ocFSqpd8jFd1WH7RHUPs</t>
+          <t>bc1q0d3k8zue8z5ztqt0r35rsd7gua5z4ser6gt46c</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3469,7 +3421,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Bybit</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3479,12 +3431,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://bybit.com</t>
+          <t>https://coinbase.com</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3493,20 +3445,20 @@
         </is>
       </c>
       <c r="K49" t="n">
-        <v>18995402073.05056</v>
+        <v>1488320254.4798</v>
       </c>
       <c r="L49" t="n">
-        <v>18773793903.05026</v>
+        <v>1622991660.321997</v>
       </c>
       <c r="M49" t="n">
-        <v>166554.14033035</v>
+        <v>13154.24821517</v>
       </c>
       <c r="N49" t="n">
-        <v>164644.31429782</v>
+        <v>14340.96531867</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -3518,12 +3470,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1DLeNApsHNNzUMNZJVoXeyEY5sdp8vzx3w</t>
+          <t>https://intel.arkm.com/explorer/address/3L2h3eRieCJiNkGTqREMq3c2FarSCbhtQP</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1DLeNApsHNNzUMNZJVoXeyEY5sdp8vzx3w</t>
+          <t>3L2h3eRieCJiNkGTqREMq3c2FarSCbhtQP</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3537,22 +3489,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Bybit</t>
+          <t>ETC Group</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://bybit.com</t>
+          <t>https://etc-group.com/</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>BTCE Bitcoin ETF</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3561,20 +3513,20 @@
         </is>
       </c>
       <c r="K50" t="n">
-        <v>16239112002.27707</v>
+        <v>867316416</v>
       </c>
       <c r="L50" t="n">
-        <v>16179018814.42275</v>
+        <v>861616576</v>
       </c>
       <c r="M50" t="n">
-        <v>142048.91592316</v>
+        <v>7098.15441005</v>
       </c>
       <c r="N50" t="n">
-        <v>141577.91486231</v>
+        <v>7098.15441005</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -3586,12 +3538,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qx9n80t5q7tfmutzaj0ramzzzsvtveara68zntc</t>
+          <t>https://intel.arkm.com/explorer/address/17qY5rLXvSx3g1THdch6YgaGBnGmaLzZth</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>bc1qx9n80t5q7tfmutzaj0ramzzzsvtveara68zntc</t>
+          <t>17qY5rLXvSx3g1THdch6YgaGBnGmaLzZth</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3605,7 +3557,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Kraken</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3615,34 +3567,26 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://kraken.com</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>13201310710.96254</v>
+        <v>778707072</v>
       </c>
       <c r="L51" t="n">
-        <v>12155027519.375</v>
+        <v>778707072</v>
       </c>
       <c r="M51" t="n">
-        <v>116543.91281045</v>
+        <v>6406.47545109</v>
       </c>
       <c r="N51" t="n">
-        <v>107150.3300039</v>
+        <v>6406.47545109</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -3654,12 +3598,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q42kvqt0e3f27qhd2ucnprarl5ywpuj7tu0h9v2</t>
+          <t>https://intel.arkm.com/explorer/address/3FD9v4Tf6KpbttXoiAUiWtVVEUDMEZ8MED</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>bc1q42kvqt0e3f27qhd2ucnprarl5ywpuj7tu0h9v2</t>
+          <t>3FD9v4Tf6KpbttXoiAUiWtVVEUDMEZ8MED</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3673,22 +3617,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>FalconX</t>
+          <t>ETC Group</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://falconx.io/</t>
+          <t>https://etc-group.com/</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>BTCE Bitcoin ETF</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3697,20 +3641,20 @@
         </is>
       </c>
       <c r="K52" t="n">
-        <v>2282720862.370626</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>2455841834.19398</v>
+        <v>876530624</v>
       </c>
       <c r="M52" t="n">
-        <v>20297.4913845</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>21746.55916778</v>
+        <v>7173.56406811</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -3722,12 +3666,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1Pzaqw98PeRfyHypfqyEgg5yycJRsENrE7</t>
+          <t>https://intel.arkm.com/explorer/address/12XZMdaAGmcHf4ocFSqpd8jFd1WH7RHUPs</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1Pzaqw98PeRfyHypfqyEgg5yycJRsENrE7</t>
+          <t>12XZMdaAGmcHf4ocFSqpd8jFd1WH7RHUPs</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3741,7 +3685,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Bybit</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3751,12 +3695,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
+          <t>https://bybit.com</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3765,20 +3709,20 @@
         </is>
       </c>
       <c r="K53" t="n">
-        <v>2235120128</v>
+        <v>18995402073.05056</v>
       </c>
       <c r="L53" t="n">
-        <v>3683662954</v>
+        <v>18773863376.69089</v>
       </c>
       <c r="M53" t="n">
-        <v>20000</v>
+        <v>166554.14033035</v>
       </c>
       <c r="N53" t="n">
-        <v>30990.0006724</v>
+        <v>164644.96019775</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -3790,12 +3734,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/38MfJkxPkpwsZxkyfESwjdaKBdXrV8DpWr</t>
+          <t>https://intel.arkm.com/explorer/address/1GrwDkr33gT6LuumniYjKEGjTLhsL5kmqC</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>38MfJkxPkpwsZxkyfESwjdaKBdXrV8DpWr</t>
+          <t>1GrwDkr33gT6LuumniYjKEGjTLhsL5kmqC</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3809,7 +3753,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Bybit</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3819,26 +3763,34 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+          <t>https://bybit.com</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K54" t="n">
-        <v>1660935062.953125</v>
+        <v>17132837454.7647</v>
       </c>
       <c r="L54" t="n">
-        <v>1656626939.295593</v>
+        <v>17208800730.35423</v>
       </c>
       <c r="M54" t="n">
-        <v>14162.13657</v>
+        <v>149759.70157707</v>
       </c>
       <c r="N54" t="n">
-        <v>14089.65584</v>
+        <v>150282.52553832</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -3850,12 +3802,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/34kn9zJe1K8kbGUJtMUar4cQrYiQRs9tef</t>
+          <t>https://intel.arkm.com/explorer/address/1DLeNApsHNNzUMNZJVoXeyEY5sdp8vzx3w</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>34kn9zJe1K8kbGUJtMUar4cQrYiQRs9tef</t>
+          <t>1DLeNApsHNNzUMNZJVoXeyEY5sdp8vzx3w</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3867,26 +3819,46 @@
       <c r="E55" t="b">
         <v>0</v>
       </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Bybit</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>https://bybit.com</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K55" t="n">
-        <v>985205888</v>
+        <v>16239112002.27707</v>
       </c>
       <c r="L55" t="n">
-        <v>978419904</v>
+        <v>16179018814.42275</v>
       </c>
       <c r="M55" t="n">
-        <v>8756.062360919999</v>
+        <v>142048.91592316</v>
       </c>
       <c r="N55" t="n">
-        <v>8756.062360919999</v>
+        <v>141577.91486231</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -3898,12 +3870,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/17qY5rLXvSx3g1THdch6YgaGBnGmaLzZth</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qq393eyjh8hdjvcchy0mxquhh9wx8h3kzlkchfs</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>17qY5rLXvSx3g1THdch6YgaGBnGmaLzZth</t>
+          <t>bc1qq393eyjh8hdjvcchy0mxquhh9wx8h3kzlkchfs</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3917,36 +3889,44 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Ceffu</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>custodian</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+          <t>https://www.ceffu.com/</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Custody Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K56" t="n">
-        <v>778707072</v>
+        <v>2026186989.252441</v>
       </c>
       <c r="L56" t="n">
-        <v>778707072</v>
+        <v>1918031777.098286</v>
       </c>
       <c r="M56" t="n">
-        <v>6406.47545109</v>
+        <v>17879.18078065</v>
       </c>
       <c r="N56" t="n">
-        <v>6406.47545109</v>
+        <v>17065.47220276</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -3958,12 +3938,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3FD9v4Tf6KpbttXoiAUiWtVVEUDMEZ8MED</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3FD9v4Tf6KpbttXoiAUiWtVVEUDMEZ8MED</t>
+          <t>bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3977,22 +3957,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>ETC Group</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://etc-group.com/</t>
+          <t>https://binance.com</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>BTCE Bitcoin ETF</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -4001,20 +3981,20 @@
         </is>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>25662692691.51967</v>
       </c>
       <c r="L57" t="n">
-        <v>876530624</v>
+        <v>24526678719.78524</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>226324.50242486</v>
       </c>
       <c r="N57" t="n">
-        <v>7173.56406811</v>
+        <v>215778.20502395</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -4026,12 +4006,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1ql7c3k2xw90qmhpntte94mu7mpra6g77nqtj6v7</t>
+          <t>https://intel.arkm.com/explorer/address/12DezRFkKToAiLTDNru1g7FuvtAWMwCZ7N</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>bc1ql7c3k2xw90qmhpntte94mu7mpra6g77nqtj6v7</t>
+          <t>12DezRFkKToAiLTDNru1g7FuvtAWMwCZ7N</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -4045,7 +4025,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>BTC-e</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -4055,26 +4035,34 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://btc-e.com</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>3990117526.820312</v>
       </c>
       <c r="L58" t="n">
-        <v>694011520</v>
+        <v>3976393021.039062</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>35307.86278777</v>
       </c>
       <c r="N58" t="n">
-        <v>6499.99999602</v>
+        <v>35198.40978083</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -4086,12 +4074,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qvrwzs8unvu35kcred2z5ujjef36s5jgf3y6tp8</t>
+          <t>https://intel.arkm.com/explorer/address/1NBYWqtQvWmT7hzEB11XyGjHp4G177AVgz</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>bc1qvrwzs8unvu35kcred2z5ujjef36s5jgf3y6tp8</t>
+          <t>1NBYWqtQvWmT7hzEB11XyGjHp4G177AVgz</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -4103,26 +4091,38 @@
       <c r="E59" t="b">
         <v>0</v>
       </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>BIT.com (Matrixport)</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>https://www.bit.com/</t>
+        </is>
+      </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>1219689154.701087</v>
+        <v>744385566.916008</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>751090019.7364197</v>
       </c>
       <c r="M59" t="n">
-        <v>10907.90654394</v>
+        <v>6555.467381750001</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>6615.60368364</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2025-11-03 07:06:04</t>
+          <t>2025-11-03 07:11:44</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -4134,12 +4134,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x2B83aaCB0dD973866B563cFb0EF0AEF24B93200b</t>
+          <t>https://intel.arkm.com/explorer/address/0xfBd4cdB413E45a52E2C8312f670e9cE67E794C37</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0x2B83aaCB0dD973866B563cFb0EF0AEF24B93200b</t>
+          <t>0xfBd4cdB413E45a52E2C8312f670e9cE67E794C37</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4148,7 +4148,7 @@
         </is>
       </c>
       <c r="D60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
@@ -4156,31 +4156,23 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Coinbase Prime Custody</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>73494510.62503751</v>
+        <v>42032934.56556273</v>
       </c>
       <c r="L60" t="n">
-        <v>71305586.28125</v>
+        <v>42607858.07453537</v>
       </c>
       <c r="M60" t="n">
-        <v>3950916.42006363</v>
+        <v>2312209.634056875</v>
       </c>
       <c r="N60" t="n">
-        <v>3848633.029126255</v>
+        <v>2306125.014471473</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -4192,12 +4184,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x394A2ef2953c9007AD5CBBe52D93E0d1A5e4F7Be</t>
+          <t>https://intel.arkm.com/explorer/address/0x9e64c9C6194051caa06fBec237eDF580dF165953</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0x394A2ef2953c9007AD5CBBe52D93E0d1A5e4F7Be</t>
+          <t>0x9e64c9C6194051caa06fBec237eDF580dF165953</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4211,38 +4203,26 @@
       <c r="E61" t="b">
         <v>0</v>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Coinbase</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>25976197.55078125</v>
       </c>
       <c r="L61" t="n">
-        <v>35981716</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>1450491.240843248</v>
       </c>
       <c r="N61" t="n">
-        <v>2067914.749970789</v>
+        <v>0</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -4291,20 +4271,20 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>583598107.7330616</v>
+        <v>583758303.6085556</v>
       </c>
       <c r="L62" t="n">
-        <v>583449734.3577374</v>
+        <v>583650139.1766205</v>
       </c>
       <c r="M62" t="n">
-        <v>31610510.23358784</v>
+        <v>31620505.63376953</v>
       </c>
       <c r="N62" t="n">
-        <v>31604993.14762219</v>
+        <v>31617500.01325981</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -4316,12 +4296,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x91D40E4818F4D4C57b4578d9ECa6AFc92aC8DEbE</t>
+          <t>https://intel.arkm.com/explorer/address/0xC333E80eF2deC2805F239E3f1e810612D294F771</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0x91D40E4818F4D4C57b4578d9ECa6AFc92aC8DEbE</t>
+          <t>0xC333E80eF2deC2805F239E3f1e810612D294F771</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4337,44 +4317,36 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>OKX</t>
+          <t>B2C2 Group</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://okx.com</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://www.b2c2.com</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>73044021.05942252</v>
+        <v>32001680.22485352</v>
       </c>
       <c r="L63" t="n">
-        <v>73374885.66431153</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>3982662.19132089</v>
+        <v>1684470.240744589</v>
       </c>
       <c r="N63" t="n">
-        <v>4015724.54760083</v>
+        <v>0</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -4386,12 +4358,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xFAD57d2039C21811C8F2B5D5B65308aa99D31559</t>
+          <t>https://intel.arkm.com/explorer/address/0x1FA00bE39C9b815B039Fa5F3394405eEb9502C9c</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0xFAD57d2039C21811C8F2B5D5B65308aa99D31559</t>
+          <t>0x1FA00bE39C9b815B039Fa5F3394405eEb9502C9c</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4400,29 +4372,17 @@
         </is>
       </c>
       <c r="D64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Uniswap</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>dex</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>https://uniswap.org</t>
-        </is>
-      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>LINK-USDC</t>
+          <t>Coinbase Deposit</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4431,20 +4391,20 @@
         </is>
       </c>
       <c r="K64" t="n">
-        <v>41043091.72523579</v>
+        <v>29279378.515625</v>
       </c>
       <c r="L64" t="n">
-        <v>39170869.23176704</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>2251729.13749389</v>
+        <v>1562007.39282</v>
       </c>
       <c r="N64" t="n">
-        <v>2160436.999716789</v>
+        <v>0</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -4456,12 +4416,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x68dF5296D677837f724A1Df4f5B7e23DD7133a0e</t>
+          <t>https://intel.arkm.com/explorer/address/0x394A2ef2953c9007AD5CBBe52D93E0d1A5e4F7Be</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0x68dF5296D677837f724A1Df4f5B7e23DD7133a0e</t>
+          <t>0x394A2ef2953c9007AD5CBBe52D93E0d1A5e4F7Be</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4475,26 +4435,38 @@
       <c r="E65" t="b">
         <v>0</v>
       </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>24658102.25</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>35981716</v>
       </c>
       <c r="M65" t="n">
-        <v>1454868.76455223</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>2067914.749970789</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -4506,12 +4478,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x9e64c9C6194051caa06fBec237eDF580dF165953</t>
+          <t>https://intel.arkm.com/explorer/address/0x97864308e9fc8CF41B39096c94A45e90B218d1b5</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0x9e64c9C6194051caa06fBec237eDF580dF165953</t>
+          <t>0x97864308e9fc8CF41B39096c94A45e90B218d1b5</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4525,26 +4497,38 @@
       <c r="E66" t="b">
         <v>0</v>
       </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>25976197.55078125</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>34721224</v>
       </c>
       <c r="M66" t="n">
-        <v>1450491.240843248</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>2047241.956813559</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -4556,12 +4540,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xA7062dEDcD10975e6E5962fF0968954851785A71</t>
+          <t>https://intel.arkm.com/explorer/address/0x9294906C89f5330106Be3141d8c58E5731dD168c</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0xA7062dEDcD10975e6E5962fF0968954851785A71</t>
+          <t>0x9294906C89f5330106Be3141d8c58E5731dD168c</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4581,20 +4565,20 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>26263911.5859375</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>34028771</v>
       </c>
       <c r="M67" t="n">
-        <v>1435915.007326787</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>1762790.71402187</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -4606,12 +4590,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xB3d0211Ff3ae56760ce8Ccb5FaD0F9e70dC51281</t>
+          <t>https://intel.arkm.com/explorer/address/0x9B1c1752B6B6eAF62a8c491A8681B32C1F7ecDE9</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0xB3d0211Ff3ae56760ce8Ccb5FaD0F9e70dC51281</t>
+          <t>0x9B1c1752B6B6eAF62a8c491A8681B32C1F7ecDE9</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4625,38 +4609,34 @@
       <c r="E68" t="b">
         <v>0</v>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Coinbase</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Binance Deposit</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>387002392</v>
       </c>
       <c r="L68" t="n">
-        <v>45863156</v>
+        <v>386787492</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>18749995</v>
       </c>
       <c r="N68" t="n">
-        <v>2197563.811051277</v>
+        <v>18750000</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -4668,12 +4648,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x79dD9327352BcF1dd16941899705E97b61F4DEcB</t>
+          <t>https://intel.arkm.com/explorer/address/0xbBF5B578A7eCCE2381D8FC9CAc42D6968712451E</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0x79dD9327352BcF1dd16941899705E97b61F4DEcB</t>
+          <t>0xbBF5B578A7eCCE2381D8FC9CAc42D6968712451E</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4687,46 +4667,26 @@
       <c r="E69" t="b">
         <v>0</v>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Kraken</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>https://kraken.com</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>74993720.9159103</v>
+        <v>28391114.50000018</v>
       </c>
       <c r="L69" t="n">
-        <v>77962697.80622727</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>3980227.82586645</v>
+        <v>1618591.92000001</v>
       </c>
       <c r="N69" t="n">
-        <v>4165961.69996105</v>
+        <v>0</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -4738,12 +4698,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x9008D19f58AAbD9eD0D60971565AA8510560ab41</t>
+          <t>https://intel.arkm.com/explorer/address/0x9c17f630DBde24eECe8fd248fAA2E51f690FF79B</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0x9008D19f58AAbD9eD0D60971565AA8510560ab41</t>
+          <t>0x9c17f630DBde24eECe8fd248fAA2E51f690FF79B</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4759,22 +4719,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>CoW Protocol</t>
+          <t>Chainlink</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>dex-aggregator</t>
+          <t>oracle</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://cow.fi</t>
+          <t>https://chain.link</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Settlement</t>
+          <t>Non-Circulating Supply</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4783,20 +4743,20 @@
         </is>
       </c>
       <c r="K70" t="n">
-        <v>70279414.97797869</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>70293286.98429626</v>
+        <v>138982480</v>
       </c>
       <c r="M70" t="n">
-        <v>3778731.096166751</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>3779458.1312784</v>
+        <v>6749999</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -4808,12 +4768,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x5Ad431BA1B3AFEF7027786608d4Ab8017D778D02</t>
+          <t>https://intel.arkm.com/explorer/address/0xa42D0A18B834F52e41bEDdEaA2940165db3DA9a3</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0x5Ad431BA1B3AFEF7027786608d4Ab8017D778D02</t>
+          <t>0xa42D0A18B834F52e41bEDdEaA2940165db3DA9a3</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4822,43 +4782,51 @@
         </is>
       </c>
       <c r="D71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="b">
         <v>0</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Chainlink</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>oracle</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+          <t>https://chain.link</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Non-Circulating Supply</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K71" t="n">
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>35273980</v>
+        <v>83399976</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>2047241.956813559</v>
+        <v>3999999</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -4870,12 +4838,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x4e19698c366f7DCD1cfAd4D7f621B4D275Bb1a6C</t>
+          <t>https://intel.arkm.com/explorer/address/0x4C381016Af2185B97E4f6944C125603320762237</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0x4e19698c366f7DCD1cfAd4D7f621B4D275Bb1a6C</t>
+          <t>0x4C381016Af2185B97E4f6944C125603320762237</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4891,7 +4859,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Bybit</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4901,26 +4869,34 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://bybit.com</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K72" t="n">
-        <v>57050000</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>38864852</v>
       </c>
       <c r="M72" t="n">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>0</v>
+        <v>2121443.965483021</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -4932,12 +4908,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x4C381016Af2185B97E4f6944C125603320762237</t>
+          <t>https://intel.arkm.com/explorer/address/0xA9D1e08C7793af67e9d92fe308d5697FB81d3E43</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0x4C381016Af2185B97E4f6944C125603320762237</t>
+          <t>0xA9D1e08C7793af67e9d92fe308d5697FB81d3E43</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4946,7 +4922,7 @@
         </is>
       </c>
       <c r="D73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
@@ -4968,7 +4944,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4977,20 +4953,20 @@
         </is>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>982664556.3981247</v>
       </c>
       <c r="L73" t="n">
-        <v>38864852</v>
+        <v>982151665.2427418</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>54347351.80586053</v>
       </c>
       <c r="N73" t="n">
-        <v>2121443.965483021</v>
+        <v>54282921.55712816</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -5002,12 +4978,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x1FA00bE39C9b815B039Fa5F3394405eEb9502C9c</t>
+          <t>https://intel.arkm.com/explorer/address/0xC36442b4a4522E871399CD717aBDD847Ab11FE88</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0x1FA00bE39C9b815B039Fa5F3394405eEb9502C9c</t>
+          <t>0xC36442b4a4522E871399CD717aBDD847Ab11FE88</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -5016,17 +4992,29 @@
         </is>
       </c>
       <c r="D74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
       </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Uniswap</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>dex</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>https://uniswap.org</t>
+        </is>
+      </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Coinbase Deposit</t>
+          <t>Nonfungible Position Manager</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -5035,20 +5023,20 @@
         </is>
       </c>
       <c r="K74" t="n">
-        <v>29279378.515625</v>
+        <v>27642937.93614248</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>29972213.41267328</v>
       </c>
       <c r="M74" t="n">
-        <v>1562007.39282</v>
+        <v>1563969.893932891</v>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>1691069.400548722</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -5060,12 +5048,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xA1eD21D980988E644139660569e4Bd4178241741</t>
+          <t>https://intel.arkm.com/explorer/address/0xa07fB08fa640FB0E68794e06e5A79B2B591012cA</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0xA1eD21D980988E644139660569e4Bd4178241741</t>
+          <t>0xa07fB08fa640FB0E68794e06e5A79B2B591012cA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -5085,20 +5073,20 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>24567195.25</v>
+        <v>24899377.5625</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>1439999.145138722</v>
+        <v>1437496.967562948</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -5110,12 +5098,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x7f604D597c15b2e2F60DC645844f68b1D781b752</t>
+          <t>https://intel.arkm.com/explorer/address/0xCD531Ae9EFCCE479654c4926dec5F6209531Ca7b</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0x7f604D597c15b2e2F60DC645844f68b1D781b752</t>
+          <t>0xCD531Ae9EFCCE479654c4926dec5F6209531Ca7b</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -5131,7 +5119,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Bitstamp</t>
+          <t>Coinbase Prime</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -5141,7 +5129,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://bitstamp.net</t>
+          <t>https://www.coinbase.com/prime</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5155,20 +5143,20 @@
         </is>
       </c>
       <c r="K76" t="n">
-        <v>27276403.22750876</v>
+        <v>184989399.2818089</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>186139158.6555051</v>
       </c>
       <c r="M76" t="n">
-        <v>1438213.215568594</v>
+        <v>10311295.06514433</v>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
+        <v>10364446.42952217</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -5180,12 +5168,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x65505213bBA7eAbD3479D256650EE68B3fb10D67</t>
+          <t>https://intel.arkm.com/explorer/address/0xc0fFeE479E4cD49eafBA87449225e17c53251226</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0x65505213bBA7eAbD3479D256650EE68B3fb10D67</t>
+          <t>0xc0fFeE479E4cD49eafBA87449225e17c53251226</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -5199,38 +5187,26 @@
       <c r="E77" t="b">
         <v>0</v>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Coinbase</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>185792014.1330052</v>
       </c>
       <c r="L77" t="n">
-        <v>38324368</v>
+        <v>185776050.1428032</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>9823116.077567151</v>
       </c>
       <c r="N77" t="n">
-        <v>2047241.956813559</v>
+        <v>9823623.952186264</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -5242,12 +5218,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xA69babEF1cA67A37Ffaf7a485DfFF3382056e78C</t>
+          <t>https://intel.arkm.com/explorer/address/0x51C72848c68a965f66FA7a88855F9f7784502a7F</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0xA69babEF1cA67A37Ffaf7a485DfFF3382056e78C</t>
+          <t>0x51C72848c68a965f66FA7a88855F9f7784502a7F</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -5263,7 +5239,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Symbolic Capital Partners</t>
+          <t>Wintermute</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5273,12 +5249,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://symbolic.partners</t>
+          <t>https://www.wintermute.com/</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>MEV Bot</t>
+          <t>Market Maker</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -5287,20 +5263,20 @@
         </is>
       </c>
       <c r="K78" t="n">
-        <v>125015829.9114597</v>
+        <v>174952925.5887656</v>
       </c>
       <c r="L78" t="n">
-        <v>125386820.1421447</v>
+        <v>175670742.7596771</v>
       </c>
       <c r="M78" t="n">
-        <v>6736525.156329579</v>
+        <v>9328903.456836268</v>
       </c>
       <c r="N78" t="n">
-        <v>6739800.727311679</v>
+        <v>9311848.499755831</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -5312,12 +5288,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x4bD9a84F22bD479f630E2f6c3311285D6eb6B768</t>
+          <t>https://intel.arkm.com/explorer/address/0x9008D19f58AAbD9eD0D60971565AA8510560ab41</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0x4bD9a84F22bD479f630E2f6c3311285D6eb6B768</t>
+          <t>0x9008D19f58AAbD9eD0D60971565AA8510560ab41</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5326,31 +5302,51 @@
         </is>
       </c>
       <c r="D79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
       </c>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>CoW Protocol</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>dex-aggregator</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>https://cow.fi</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Settlement</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K79" t="n">
-        <v>33013686.828125</v>
+        <v>70281829.74238299</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>70295701.74870056</v>
       </c>
       <c r="M79" t="n">
-        <v>1917674.333348781</v>
+        <v>3778881.642580658</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>3779608.677692307</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -5362,12 +5358,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xBEEf02961503351625926Ea9a11AE13B29F5c555</t>
+          <t>https://intel.arkm.com/explorer/address/0x20Ec87fCc14bd1F30608918ac481A3395641d7Af</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0xBEEf02961503351625926Ea9a11AE13B29F5c555</t>
+          <t>0x20Ec87fCc14bd1F30608918ac481A3395641d7Af</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5384,23 +5380,31 @@
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Binance Deposit</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K80" t="n">
-        <v>32870611.64229409</v>
+        <v>34028771</v>
       </c>
       <c r="L80" t="n">
-        <v>31040545.87157011</v>
+        <v>33878826</v>
       </c>
       <c r="M80" t="n">
-        <v>1733534.909574969</v>
+        <v>1762790.71402187</v>
       </c>
       <c r="N80" t="n">
-        <v>1636368.610290254</v>
+        <v>1762790.71402187</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -5412,12 +5416,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x8894E0a0c962CB723c1976a4421c95949bE2D4E3</t>
+          <t>https://intel.arkm.com/explorer/address/0x88a9B9D0F6cE2a571889FFdBA5c84301f8982f46</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0x8894E0a0c962CB723c1976a4421c95949bE2D4E3</t>
+          <t>0x88a9B9D0F6cE2a571889FFdBA5c84301f8982f46</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -5433,7 +5437,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -5443,34 +5447,26 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>28359792.88272667</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>39179688</v>
       </c>
       <c r="M81" t="n">
-        <v>1528230.502839196</v>
+        <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>0</v>
+        <v>2238839.271669377</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -5482,12 +5478,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xDFd5293D8e347dFe59E90eFd55b2956a1343963d</t>
+          <t>https://intel.arkm.com/explorer/address/0xA69babEF1cA67A37Ffaf7a485DfFF3382056e78C</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>0xDFd5293D8e347dFe59E90eFd55b2956a1343963d</t>
+          <t>0xA69babEF1cA67A37Ffaf7a485DfFF3382056e78C</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -5496,29 +5492,29 @@
         </is>
       </c>
       <c r="D82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="b">
         <v>0</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Symbolic Capital Partners</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
+          <t>https://symbolic.partners</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>MEV Bot</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -5527,20 +5523,20 @@
         </is>
       </c>
       <c r="K82" t="n">
-        <v>264795079.5</v>
+        <v>125025530.7511814</v>
       </c>
       <c r="L82" t="n">
-        <v>261118191.5524808</v>
+        <v>125386820.1421447</v>
       </c>
       <c r="M82" t="n">
-        <v>14441545.51751767</v>
+        <v>6737130.730835173</v>
       </c>
       <c r="N82" t="n">
-        <v>14275262.42298944</v>
+        <v>6739800.727311679</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -5610,7 +5606,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -5622,12 +5618,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x28C6c06298d514Db089934071355E5743bf21d60</t>
+          <t>https://intel.arkm.com/explorer/address/0x8894E0a0c962CB723c1976a4421c95949bE2D4E3</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>0x28C6c06298d514Db089934071355E5743bf21d60</t>
+          <t>0x8894E0a0c962CB723c1976a4421c95949bE2D4E3</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -5667,20 +5663,20 @@
         </is>
       </c>
       <c r="K84" t="n">
-        <v>1088774996.415504</v>
+        <v>28363258.00382042</v>
       </c>
       <c r="L84" t="n">
-        <v>1095988432.373649</v>
+        <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>56574268.21338207</v>
+        <v>1528446.532839197</v>
       </c>
       <c r="N84" t="n">
-        <v>57496205.02657664</v>
+        <v>0</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -5692,12 +5688,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x14ec8383A3C864107Ae08fCa194a253498103b11</t>
+          <t>https://intel.arkm.com/explorer/address/0x651641299C7eC0aA44AD7eD9b7E12702fED2022f</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>0x14ec8383A3C864107Ae08fCa194a253498103b11</t>
+          <t>0x651641299C7eC0aA44AD7eD9b7E12702fED2022f</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -5713,7 +5709,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Bybit</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -5723,26 +5719,34 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+          <t>https://bybit.com</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>67606958.49590467</v>
       </c>
       <c r="L85" t="n">
-        <v>37551352</v>
+        <v>133220446.3694114</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>3537369.630585103</v>
       </c>
       <c r="N85" t="n">
-        <v>2138459.732670324</v>
+        <v>6603288.38863477</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -5754,12 +5758,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x9B1c1752B6B6eAF62a8c491A8681B32C1F7ecDE9</t>
+          <t>https://intel.arkm.com/explorer/address/0xBEE3211ab312a8D065c4FeF0247448e17A8da000</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>0x9B1c1752B6B6eAF62a8c491A8681B32C1F7ecDE9</t>
+          <t>0xBEE3211ab312a8D065c4FeF0247448e17A8da000</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -5768,7 +5772,7 @@
         </is>
       </c>
       <c r="D86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
@@ -5778,7 +5782,7 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Binance Deposit</t>
+          <t>Market Maker</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5787,20 +5791,20 @@
         </is>
       </c>
       <c r="K86" t="n">
-        <v>387002392</v>
+        <v>46788486.28851829</v>
       </c>
       <c r="L86" t="n">
-        <v>386787492</v>
+        <v>46887949.87123202</v>
       </c>
       <c r="M86" t="n">
-        <v>18749995</v>
+        <v>2448930.110628944</v>
       </c>
       <c r="N86" t="n">
-        <v>18750000</v>
+        <v>2451656.824612897</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -5812,12 +5816,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xBEE3211ab312a8D065c4FeF0247448e17A8da000</t>
+          <t>https://intel.arkm.com/explorer/address/0x5a52E96BAcdaBb82fd05763E25335261B270Efcb</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>0xBEE3211ab312a8D065c4FeF0247448e17A8da000</t>
+          <t>0x5a52E96BAcdaBb82fd05763E25335261B270Efcb</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -5826,17 +5830,29 @@
         </is>
       </c>
       <c r="D87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" t="b">
         <v>0</v>
       </c>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Binance</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>https://binance.com</t>
+        </is>
+      </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Market Maker</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -5845,20 +5861,20 @@
         </is>
       </c>
       <c r="K87" t="n">
-        <v>46788391.98962151</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>46888394.49037264</v>
+        <v>218664026.4375</v>
       </c>
       <c r="M87" t="n">
-        <v>2448924.220628944</v>
+        <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>2451676.82547371</v>
+        <v>12183129</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
@@ -5870,12 +5886,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xc0fFeE479E4cD49eafBA87449225e17c53251226</t>
+          <t>https://intel.arkm.com/explorer/address/0xEebc7DCc613819686659983eE305f87beb6c1ff8</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>0xc0fFeE479E4cD49eafBA87449225e17c53251226</t>
+          <t>0xEebc7DCc613819686659983eE305f87beb6c1ff8</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -5895,20 +5911,20 @@
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>185792014.1330052</v>
+        <v>428067354.857759</v>
       </c>
       <c r="L88" t="n">
-        <v>185776050.1428032</v>
+        <v>428217910.1655326</v>
       </c>
       <c r="M88" t="n">
-        <v>9823116.077567151</v>
+        <v>23199581.68915274</v>
       </c>
       <c r="N88" t="n">
-        <v>9823623.952186264</v>
+        <v>23206094.10919657</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
@@ -5920,12 +5936,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x88a9B9D0F6cE2a571889FFdBA5c84301f8982f46</t>
+          <t>https://intel.arkm.com/explorer/address/0xf8191D98ae98d2f7aBDFB63A9b0b812b93C873AA</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>0x88a9B9D0F6cE2a571889FFdBA5c84301f8982f46</t>
+          <t>0xf8191D98ae98d2f7aBDFB63A9b0b812b93C873AA</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -5941,36 +5957,44 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Wintermute</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>192238748.8168805</v>
       </c>
       <c r="L89" t="n">
-        <v>39179688</v>
+        <v>185023697.2362366</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>10297139.83060312</v>
       </c>
       <c r="N89" t="n">
-        <v>2238839.271669377</v>
+        <v>9931741.8748</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
@@ -5982,12 +6006,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x5E8C8A7243651DB1384C0dDfDbE39761E8e7E51a</t>
+          <t>https://intel.arkm.com/explorer/address/0x72bE417AFB0aBEa66913141C605D313BB389b59C</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>0x5E8C8A7243651DB1384C0dDfDbE39761E8e7E51a</t>
+          <t>0x72bE417AFB0aBEa66913141C605D313BB389b59C</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -5996,51 +6020,43 @@
         </is>
       </c>
       <c r="D90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="b">
         <v>0</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Aave</t>
+          <t>Aerodrome Finance</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>lending-decentralized</t>
+          <t>dex</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>https://aave.com</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>Aave Ethereum LINK (aEthLINK)</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://aerodrome.finance/</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>76869832.37620178</v>
+        <v>194223315.2457336</v>
       </c>
       <c r="L90" t="n">
-        <v>90162125.39389855</v>
+        <v>194315892.1676878</v>
       </c>
       <c r="M90" t="n">
-        <v>4163111.139119716</v>
+        <v>10272582.22631395</v>
       </c>
       <c r="N90" t="n">
-        <v>4951762.072998159</v>
+        <v>10273932.85311195</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
@@ -6052,12 +6068,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xfB682b0dE4e0093835EA21cfABb5449cA9ac9e5e</t>
+          <t>https://intel.arkm.com/explorer/address/0x4e19698c366f7DCD1cfAd4D7f621B4D275Bb1a6C</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>0xfB682b0dE4e0093835EA21cfABb5449cA9ac9e5e</t>
+          <t>0x4e19698c366f7DCD1cfAd4D7f621B4D275Bb1a6C</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -6066,51 +6082,43 @@
         </is>
       </c>
       <c r="D91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Chainlink</t>
+          <t>Bybit</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>oracle</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>https://chain.link</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>Non-Circulating Supply</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://bybit.com</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>57050000</v>
       </c>
       <c r="L91" t="n">
-        <v>82279976</v>
+        <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>2500000</v>
       </c>
       <c r="N91" t="n">
-        <v>3999999</v>
+        <v>0</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -6122,12 +6130,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xa6Cc3C2531FdaA6Ae1A3CA84c2855806728693e8</t>
+          <t>https://intel.arkm.com/explorer/address/0xA7062dEDcD10975e6E5962fF0968954851785A71</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>0xa6Cc3C2531FdaA6Ae1A3CA84c2855806728693e8</t>
+          <t>0xA7062dEDcD10975e6E5962fF0968954851785A71</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -6136,51 +6144,31 @@
         </is>
       </c>
       <c r="D92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Uniswap</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>dex</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>https://uniswap.org</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>LINK</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>207330889.1037889</v>
+        <v>26263911.5859375</v>
       </c>
       <c r="L92" t="n">
-        <v>209732642.490471</v>
+        <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>11330384.19939709</v>
+        <v>1435915.007326787</v>
       </c>
       <c r="N92" t="n">
-        <v>11434590.28621588</v>
+        <v>0</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
@@ -6192,12 +6180,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x9c17f630DBde24eECe8fd248fAA2E51f690FF79B</t>
+          <t>https://intel.arkm.com/explorer/address/0x924a4cCcEE25a5093C7486c081633CF95d3B4B93</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>0x9c17f630DBde24eECe8fd248fAA2E51f690FF79B</t>
+          <t>0x924a4cCcEE25a5093C7486c081633CF95d3B4B93</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -6206,51 +6194,43 @@
         </is>
       </c>
       <c r="D93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Chainlink</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>oracle</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>https://chain.link</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>Non-Circulating Supply</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
         <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>138982480</v>
+        <v>34460000</v>
       </c>
       <c r="M93" t="n">
         <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>6749999</v>
+        <v>2000000.00001</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
@@ -6262,12 +6242,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x191c10Aa4AF7C30e871E70C95dB0E4eb77237530</t>
+          <t>https://intel.arkm.com/explorer/address/0xF977814e90dA44bFA03b6295A0616a897441aceC</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>0x191c10Aa4AF7C30e871E70C95dB0E4eb77237530</t>
+          <t>0xF977814e90dA44bFA03b6295A0616a897441aceC</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -6283,36 +6263,44 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Aave</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>lending-decentralized</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>https://aave.com</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K94" t="n">
-        <v>36087302.30185936</v>
+        <v>367380764</v>
       </c>
       <c r="L94" t="n">
-        <v>38372955.36138604</v>
+        <v>71903208</v>
       </c>
       <c r="M94" t="n">
-        <v>1925546.831455496</v>
+        <v>17827120.987</v>
       </c>
       <c r="N94" t="n">
-        <v>2074938.701546695</v>
+        <v>3782388.57001</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
@@ -6324,12 +6312,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xC333E80eF2deC2805F239E3f1e810612D294F771</t>
+          <t>https://intel.arkm.com/explorer/address/0x7C876bdaA5c038E19F633714f622F6Def949B102</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>0xC333E80eF2deC2805F239E3f1e810612D294F771</t>
+          <t>0x7C876bdaA5c038E19F633714f622F6Def949B102</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -6343,38 +6331,26 @@
       <c r="E95" t="b">
         <v>0</v>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>B2C2 Group</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>https://www.b2c2.com</t>
-        </is>
-      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>32001680.22485352</v>
+        <v>103536935.7330343</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>103523714.0917969</v>
       </c>
       <c r="M95" t="n">
-        <v>1684470.240744589</v>
+        <v>5652331.073659385</v>
       </c>
       <c r="N95" t="n">
-        <v>0</v>
+        <v>5652327.786652149</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
@@ -6386,12 +6362,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xa07fB08fa640FB0E68794e06e5A79B2B591012cA</t>
+          <t>https://intel.arkm.com/explorer/address/0x79dD9327352BcF1dd16941899705E97b61F4DEcB</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>0xa07fB08fa640FB0E68794e06e5A79B2B591012cA</t>
+          <t>0x79dD9327352BcF1dd16941899705E97b61F4DEcB</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -6405,26 +6381,46 @@
       <c r="E96" t="b">
         <v>0</v>
       </c>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Kraken</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>https://kraken.com</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K96" t="n">
-        <v>24899377.5625</v>
+        <v>74993720.9159103</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>77962746.08156449</v>
       </c>
       <c r="M96" t="n">
-        <v>1437496.967562948</v>
+        <v>3980227.82586645</v>
       </c>
       <c r="N96" t="n">
-        <v>0</v>
+        <v>4165964.7152851</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
@@ -6436,12 +6432,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xBD8D03ea5137362EA7b7CC5E98758bcB9040faaA</t>
+          <t>https://intel.arkm.com/explorer/address/0x14ec8383A3C864107Ae08fCa194a253498103b11</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>0xBD8D03ea5137362EA7b7CC5E98758bcB9040faaA</t>
+          <t>0x14ec8383A3C864107Ae08fCa194a253498103b11</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -6476,17 +6472,17 @@
         <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>37288184</v>
+        <v>37551352</v>
       </c>
       <c r="M97" t="n">
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>2029841.308380461</v>
+        <v>2138459.732670324</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
@@ -6498,12 +6494,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xCD531Ae9EFCCE479654c4926dec5F6209531Ca7b</t>
+          <t>https://intel.arkm.com/explorer/address/0x841ed663F2636863D40be4EE76243377dff13a34</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>0xCD531Ae9EFCCE479654c4926dec5F6209531Ca7b</t>
+          <t>0x841ed663F2636863D40be4EE76243377dff13a34</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -6519,7 +6515,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Coinbase Prime</t>
+          <t>Robinhood</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -6529,7 +6525,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>https://www.coinbase.com/prime</t>
+          <t>https://robinhood.com/</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -6543,20 +6539,20 @@
         </is>
       </c>
       <c r="K98" t="n">
-        <v>184989399.2818089</v>
+        <v>40958760.90461535</v>
       </c>
       <c r="L98" t="n">
-        <v>186139158.6555051</v>
+        <v>44351300.38476562</v>
       </c>
       <c r="M98" t="n">
-        <v>10311295.06514433</v>
+        <v>2274955.172412563</v>
       </c>
       <c r="N98" t="n">
-        <v>10364446.42952217</v>
+        <v>2422992.20594163</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
@@ -6568,12 +6564,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xf8191D98ae98d2f7aBDFB63A9b0b812b93C873AA</t>
+          <t>https://intel.arkm.com/explorer/address/0xFAD57d2039C21811C8F2B5D5B65308aa99D31559</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>0xf8191D98ae98d2f7aBDFB63A9b0b812b93C873AA</t>
+          <t>0xFAD57d2039C21811C8F2B5D5B65308aa99D31559</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -6582,29 +6578,29 @@
         </is>
       </c>
       <c r="D99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Wintermute</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>dex</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>https://www.wintermute.com/</t>
+          <t>https://uniswap.org</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>LINK-USDC</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -6613,20 +6609,20 @@
         </is>
       </c>
       <c r="K99" t="n">
-        <v>192421746.1762555</v>
+        <v>41043091.72523579</v>
       </c>
       <c r="L99" t="n">
-        <v>185023697.2362366</v>
+        <v>39170869.23176704</v>
       </c>
       <c r="M99" t="n">
-        <v>10305371.83060312</v>
+        <v>2251729.13749389</v>
       </c>
       <c r="N99" t="n">
-        <v>9931741.8748</v>
+        <v>2160436.999716789</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -6638,12 +6634,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xC36442b4a4522E871399CD717aBDD847Ab11FE88</t>
+          <t>https://intel.arkm.com/explorer/address/0x4a87ecE3eFffCb012fbE491AA028032e07B6F6cF</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>0xC36442b4a4522E871399CD717aBDD847Ab11FE88</t>
+          <t>0x4a87ecE3eFffCb012fbE491AA028032e07B6F6cF</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -6659,22 +6655,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>Chainlink</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>dex</t>
+          <t>oracle</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>https://uniswap.org</t>
+          <t>https://chain.link</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Nonfungible Position Manager</t>
+          <t>Non-Circulating Supply</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -6683,20 +6679,20 @@
         </is>
       </c>
       <c r="K100" t="n">
-        <v>27642937.93614248</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>29972213.41267328</v>
+        <v>82339960</v>
       </c>
       <c r="M100" t="n">
-        <v>1563969.893932891</v>
+        <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>1691069.400548722</v>
+        <v>3999998</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
@@ -6708,12 +6704,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x0D0707963952f2fBA59dD06f2b425ace40b492Fe</t>
+          <t>https://intel.arkm.com/explorer/address/0x8879dA2f0Ffb5cd4BFa68BD59BCEFD4962DD1914</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>0x0D0707963952f2fBA59dD06f2b425ace40b492Fe</t>
+          <t>0x8879dA2f0Ffb5cd4BFa68BD59BCEFD4962DD1914</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -6727,46 +6723,26 @@
       <c r="E101" t="b">
         <v>0</v>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Gate</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>https://gate.com</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>26775636.17376709</v>
+        <v>25421752.25000017</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
       </c>
       <c r="M101" t="n">
-        <v>1465208.305677249</v>
+        <v>1441406.39010001</v>
       </c>
       <c r="N101" t="n">
         <v>0</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
@@ -6778,12 +6754,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x8879dA2f0Ffb5cd4BFa68BD59BCEFD4962DD1914</t>
+          <t>https://intel.arkm.com/explorer/address/0x5Ad431BA1B3AFEF7027786608d4Ab8017D778D02</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>0x8879dA2f0Ffb5cd4BFa68BD59BCEFD4962DD1914</t>
+          <t>0x5Ad431BA1B3AFEF7027786608d4Ab8017D778D02</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -6797,26 +6773,38 @@
       <c r="E102" t="b">
         <v>0</v>
       </c>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>25421752.25000017</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>35273980</v>
       </c>
       <c r="M102" t="n">
-        <v>1441406.39010001</v>
+        <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>0</v>
+        <v>2047241.956813559</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
@@ -6828,12 +6816,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x5a52E96BAcdaBb82fd05763E25335261B270Efcb</t>
+          <t>https://intel.arkm.com/explorer/address/0xBD8D03ea5137362EA7b7CC5E98758bcB9040faaA</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>0x5a52E96BAcdaBb82fd05763E25335261B270Efcb</t>
+          <t>0xBD8D03ea5137362EA7b7CC5E98758bcB9040faaA</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -6849,7 +6837,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -6859,34 +6847,26 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
         <v>0</v>
       </c>
       <c r="L103" t="n">
-        <v>218664026.4375</v>
+        <v>37288184</v>
       </c>
       <c r="M103" t="n">
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>12183129</v>
+        <v>2029841.308380461</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
@@ -6898,12 +6878,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x4a87ecE3eFffCb012fbE491AA028032e07B6F6cF</t>
+          <t>https://intel.arkm.com/explorer/address/0xDFd5293D8e347dFe59E90eFd55b2956a1343963d</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>0x4a87ecE3eFffCb012fbE491AA028032e07B6F6cF</t>
+          <t>0xDFd5293D8e347dFe59E90eFd55b2956a1343963d</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -6912,29 +6892,29 @@
         </is>
       </c>
       <c r="D104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104" t="b">
         <v>0</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Chainlink</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>oracle</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>https://chain.link</t>
+          <t>https://binance.com</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Non-Circulating Supply</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -6943,20 +6923,20 @@
         </is>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>264795079.5</v>
       </c>
       <c r="L104" t="n">
-        <v>82339960</v>
+        <v>261117864.8055631</v>
       </c>
       <c r="M104" t="n">
-        <v>0</v>
+        <v>14441545.51751767</v>
       </c>
       <c r="N104" t="n">
-        <v>3999998</v>
+        <v>14275247.72452237</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
@@ -6968,12 +6948,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xF977814e90dA44bFA03b6295A0616a897441aceC</t>
+          <t>https://intel.arkm.com/explorer/address/0x21a31Ee1afC51d94C2eFcCAa2092aD1028285549</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>0xF977814e90dA44bFA03b6295A0616a897441aceC</t>
+          <t>0x21a31Ee1afC51d94C2eFcCAa2092aD1028285549</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -7004,7 +6984,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -7013,20 +6993,20 @@
         </is>
       </c>
       <c r="K105" t="n">
-        <v>367380764</v>
+        <v>217093494.008873</v>
       </c>
       <c r="L105" t="n">
-        <v>71903208</v>
+        <v>211921232.9717066</v>
       </c>
       <c r="M105" t="n">
-        <v>17827120.987</v>
+        <v>11794687.04874405</v>
       </c>
       <c r="N105" t="n">
-        <v>3782388.57001</v>
+        <v>11518027.25211574</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
@@ -7038,12 +7018,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xbBF5B578A7eCCE2381D8FC9CAc42D6968712451E</t>
+          <t>https://intel.arkm.com/explorer/address/0x3db910Fac1dbE434f397c07c2B473983eFcf25DC</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>0xbBF5B578A7eCCE2381D8FC9CAc42D6968712451E</t>
+          <t>0x3db910Fac1dbE434f397c07c2B473983eFcf25DC</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -7063,20 +7043,20 @@
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>28391114.50000018</v>
+        <v>54051808.35522461</v>
       </c>
       <c r="L106" t="n">
         <v>0</v>
       </c>
       <c r="M106" t="n">
-        <v>1618591.92000001</v>
+        <v>2876086.78524294</v>
       </c>
       <c r="N106" t="n">
         <v>0</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
@@ -7088,12 +7068,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x51C72848c68a965f66FA7a88855F9f7784502a7F</t>
+          <t>https://intel.arkm.com/explorer/address/0x4bD9a84F22bD479f630E2f6c3311285D6eb6B768</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>0x51C72848c68a965f66FA7a88855F9f7784502a7F</t>
+          <t>0x4bD9a84F22bD479f630E2f6c3311285D6eb6B768</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -7102,51 +7082,31 @@
         </is>
       </c>
       <c r="D107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107" t="b">
         <v>0</v>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Wintermute</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>https://www.wintermute.com/</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>Market Maker</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>174952074.6549582</v>
+        <v>33013686.828125</v>
       </c>
       <c r="L107" t="n">
-        <v>175670742.7596771</v>
+        <v>0</v>
       </c>
       <c r="M107" t="n">
-        <v>9328850.306691891</v>
+        <v>1917674.333348781</v>
       </c>
       <c r="N107" t="n">
-        <v>9311848.499755831</v>
+        <v>0</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
@@ -7158,12 +7118,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x000000000004444c5dc75cB358380D2e3dE08A90</t>
+          <t>https://intel.arkm.com/explorer/address/0x0D0707963952f2fBA59dD06f2b425ace40b492Fe</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>0x000000000004444c5dc75cB358380D2e3dE08A90</t>
+          <t>0x0D0707963952f2fBA59dD06f2b425ace40b492Fe</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -7172,29 +7132,29 @@
         </is>
       </c>
       <c r="D108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108" t="b">
         <v>0</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>Gate</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>dex</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>https://uniswap.org</t>
+          <t>https://gate.com</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>PoolManager</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -7203,20 +7163,20 @@
         </is>
       </c>
       <c r="K108" t="n">
-        <v>76308906.90555014</v>
+        <v>26775636.17376709</v>
       </c>
       <c r="L108" t="n">
-        <v>74926474.49121796</v>
+        <v>0</v>
       </c>
       <c r="M108" t="n">
-        <v>4033828.311032986</v>
+        <v>1465208.305677249</v>
       </c>
       <c r="N108" t="n">
-        <v>3932462.764496073</v>
+        <v>0</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
@@ -7228,12 +7188,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x841ed663F2636863D40be4EE76243377dff13a34</t>
+          <t>https://intel.arkm.com/explorer/address/0xB3d0211Ff3ae56760ce8Ccb5FaD0F9e70dC51281</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>0x841ed663F2636863D40be4EE76243377dff13a34</t>
+          <t>0xB3d0211Ff3ae56760ce8Ccb5FaD0F9e70dC51281</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -7249,7 +7209,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Robinhood</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -7259,34 +7219,26 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>https://robinhood.com/</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>40958760.90461535</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>44351300.38476562</v>
+        <v>45863156</v>
       </c>
       <c r="M109" t="n">
-        <v>2274955.172412563</v>
+        <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>2422992.20594163</v>
+        <v>2197563.811051277</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
@@ -7298,12 +7250,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x97864308e9fc8CF41B39096c94A45e90B218d1b5</t>
+          <t>https://intel.arkm.com/explorer/address/0xB1dB79aea0a13382DD9E279d96Bc9a468A2F4E87</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>0x97864308e9fc8CF41B39096c94A45e90B218d1b5</t>
+          <t>0xB1dB79aea0a13382DD9E279d96Bc9a468A2F4E87</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -7317,38 +7269,26 @@
       <c r="E110" t="b">
         <v>0</v>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Coinbase</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>0</v>
+        <v>151365097.4426749</v>
       </c>
       <c r="L110" t="n">
-        <v>34721224</v>
+        <v>151305289.3040814</v>
       </c>
       <c r="M110" t="n">
-        <v>0</v>
+        <v>8199514.990584449</v>
       </c>
       <c r="N110" t="n">
-        <v>2047241.956813559</v>
+        <v>8196327.049290623</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
@@ -7360,12 +7300,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xA9D1e08C7793af67e9d92fe308d5697FB81d3E43</t>
+          <t>https://intel.arkm.com/explorer/address/0xEae7380dD4CeF6fbD1144F49E4D1e6964258A4F4</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>0xA9D1e08C7793af67e9d92fe308d5697FB81d3E43</t>
+          <t>0xEae7380dD4CeF6fbD1144F49E4D1e6964258A4F4</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -7374,29 +7314,29 @@
         </is>
       </c>
       <c r="D111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E111" t="b">
         <v>0</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Wintermute</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
+          <t>https://www.wintermute.com/</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Binance Deposit</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -7405,20 +7345,20 @@
         </is>
       </c>
       <c r="K111" t="n">
-        <v>982664556.3981247</v>
+        <v>108644226.0527344</v>
       </c>
       <c r="L111" t="n">
-        <v>982200495.6607106</v>
+        <v>108828313.90625</v>
       </c>
       <c r="M111" t="n">
-        <v>54347351.80586053</v>
+        <v>5803696.49283804</v>
       </c>
       <c r="N111" t="n">
-        <v>54285118.15712816</v>
+        <v>5806077.49283804</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
@@ -7430,12 +7370,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xEebc7DCc613819686659983eE305f87beb6c1ff8</t>
+          <t>https://intel.arkm.com/explorer/address/0x5E8C8A7243651DB1384C0dDfDbE39761E8e7E51a</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>0xEebc7DCc613819686659983eE305f87beb6c1ff8</t>
+          <t>0x5E8C8A7243651DB1384C0dDfDbE39761E8e7E51a</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -7444,31 +7384,51 @@
         </is>
       </c>
       <c r="D112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" t="b">
         <v>0</v>
       </c>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Aave</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>lending-decentralized</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>https://aave.com</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Aave Ethereum LINK (aEthLINK)</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K112" t="n">
-        <v>427987346.5843215</v>
+        <v>76869832.37620178</v>
       </c>
       <c r="L112" t="n">
-        <v>428177906.0288139</v>
+        <v>90162125.39389855</v>
       </c>
       <c r="M112" t="n">
-        <v>23194584.29521016</v>
+        <v>4163111.139119716</v>
       </c>
       <c r="N112" t="n">
-        <v>23203595.41222528</v>
+        <v>4951762.072998159</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
@@ -7480,12 +7440,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x7C876bdaA5c038E19F633714f622F6Def949B102</t>
+          <t>https://intel.arkm.com/explorer/address/0x191c10Aa4AF7C30e871E70C95dB0E4eb77237530</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>0x7C876bdaA5c038E19F633714f622F6Def949B102</t>
+          <t>0x191c10Aa4AF7C30e871E70C95dB0E4eb77237530</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -7499,26 +7459,38 @@
       <c r="E113" t="b">
         <v>0</v>
       </c>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Aave</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>lending-decentralized</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>https://aave.com</t>
+        </is>
+      </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>103536935.7330343</v>
+        <v>36092779.76444481</v>
       </c>
       <c r="L113" t="n">
-        <v>103523714.0917969</v>
+        <v>38387769.58033297</v>
       </c>
       <c r="M113" t="n">
-        <v>5652331.073659385</v>
+        <v>1925888.95903458</v>
       </c>
       <c r="N113" t="n">
-        <v>5652327.786652149</v>
+        <v>2075864.077960601</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P113" t="inlineStr">
@@ -7530,12 +7502,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x3db910Fac1dbE434f397c07c2B473983eFcf25DC</t>
+          <t>https://intel.arkm.com/explorer/address/0x68dF5296D677837f724A1Df4f5B7e23DD7133a0e</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>0x3db910Fac1dbE434f397c07c2B473983eFcf25DC</t>
+          <t>0x68dF5296D677837f724A1Df4f5B7e23DD7133a0e</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -7555,20 +7527,20 @@
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>54051808.35522461</v>
+        <v>24658102.25</v>
       </c>
       <c r="L114" t="n">
         <v>0</v>
       </c>
       <c r="M114" t="n">
-        <v>2876086.785242939</v>
+        <v>1454868.76455223</v>
       </c>
       <c r="N114" t="n">
         <v>0</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P114" t="inlineStr">
@@ -7580,12 +7552,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xa42D0A18B834F52e41bEDdEaA2940165db3DA9a3</t>
+          <t>https://intel.arkm.com/explorer/address/0xfB682b0dE4e0093835EA21cfABb5449cA9ac9e5e</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>0xa42D0A18B834F52e41bEDdEaA2940165db3DA9a3</t>
+          <t>0xfB682b0dE4e0093835EA21cfABb5449cA9ac9e5e</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -7628,7 +7600,7 @@
         <v>0</v>
       </c>
       <c r="L115" t="n">
-        <v>83399976</v>
+        <v>82279976</v>
       </c>
       <c r="M115" t="n">
         <v>0</v>
@@ -7638,7 +7610,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P115" t="inlineStr">
@@ -7650,12 +7622,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x21a31Ee1afC51d94C2eFcCAa2092aD1028285549</t>
+          <t>https://intel.arkm.com/explorer/address/0xa6Cc3C2531FdaA6Ae1A3CA84c2855806728693e8</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>0x21a31Ee1afC51d94C2eFcCAa2092aD1028285549</t>
+          <t>0xa6Cc3C2531FdaA6Ae1A3CA84c2855806728693e8</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -7664,29 +7636,29 @@
         </is>
       </c>
       <c r="D116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" t="b">
         <v>0</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>dex</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
+          <t>https://uniswap.org</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>LINK</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -7695,20 +7667,20 @@
         </is>
       </c>
       <c r="K116" t="n">
-        <v>217093494.008873</v>
+        <v>207330889.1037889</v>
       </c>
       <c r="L116" t="n">
-        <v>212104230.3310816</v>
+        <v>209740901.9189378</v>
       </c>
       <c r="M116" t="n">
-        <v>11794687.04874405</v>
+        <v>11330384.19939709</v>
       </c>
       <c r="N116" t="n">
-        <v>11526259.25211574</v>
+        <v>11435105.90485414</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P116" t="inlineStr">
@@ -7720,12 +7692,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x72bE417AFB0aBEa66913141C605D313BB389b59C</t>
+          <t>https://intel.arkm.com/explorer/address/0xBEEf02961503351625926Ea9a11AE13B29F5c555</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>0x72bE417AFB0aBEa66913141C605D313BB389b59C</t>
+          <t>0xBEEf02961503351625926Ea9a11AE13B29F5c555</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -7739,38 +7711,26 @@
       <c r="E117" t="b">
         <v>0</v>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Aerodrome Finance</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>dex</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>https://aerodrome.finance/</t>
-        </is>
-      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>194225875.5180876</v>
+        <v>32870611.64229409</v>
       </c>
       <c r="L117" t="n">
-        <v>194318829.6824548</v>
+        <v>31040545.87157011</v>
       </c>
       <c r="M117" t="n">
-        <v>10272697.39664426</v>
+        <v>1733534.909574969</v>
       </c>
       <c r="N117" t="n">
-        <v>10274064.99503037</v>
+        <v>1636368.610290254</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P117" t="inlineStr">
@@ -7782,12 +7742,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x9294906C89f5330106Be3141d8c58E5731dD168c</t>
+          <t>https://intel.arkm.com/explorer/address/0x8553f48B2B0B5F9b2E053413d640b46AefB45460</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>0x9294906C89f5330106Be3141d8c58E5731dD168c</t>
+          <t>0x8553f48B2B0B5F9b2E053413d640b46AefB45460</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -7807,20 +7767,20 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>0</v>
+        <v>28963835.203125</v>
       </c>
       <c r="L118" t="n">
-        <v>34028771</v>
+        <v>0</v>
       </c>
       <c r="M118" t="n">
-        <v>0</v>
+        <v>1437874.756135735</v>
       </c>
       <c r="N118" t="n">
-        <v>1762790.71402187</v>
+        <v>0</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
@@ -7832,12 +7792,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xB1dB79aea0a13382DD9E279d96Bc9a468A2F4E87</t>
+          <t>https://intel.arkm.com/explorer/address/0xA1eD21D980988E644139660569e4Bd4178241741</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>0xB1dB79aea0a13382DD9E279d96Bc9a468A2F4E87</t>
+          <t>0xA1eD21D980988E644139660569e4Bd4178241741</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -7857,20 +7817,20 @@
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>151246715.6106436</v>
+        <v>24567195.25</v>
       </c>
       <c r="L119" t="n">
-        <v>151186907.4720502</v>
+        <v>0</v>
       </c>
       <c r="M119" t="n">
-        <v>8192131.124463179</v>
+        <v>1439999.145138722</v>
       </c>
       <c r="N119" t="n">
-        <v>8188943.183159471</v>
+        <v>0</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P119" t="inlineStr">
@@ -7882,12 +7842,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x651641299C7eC0aA44AD7eD9b7E12702fED2022f</t>
+          <t>https://intel.arkm.com/explorer/address/0x65505213bBA7eAbD3479D256650EE68B3fb10D67</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>0x651641299C7eC0aA44AD7eD9b7E12702fED2022f</t>
+          <t>0x65505213bBA7eAbD3479D256650EE68B3fb10D67</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -7903,7 +7863,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Bybit</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -7913,34 +7873,26 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>https://bybit.com</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>67606958.49590467</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
-        <v>133219998.2760887</v>
+        <v>38324368</v>
       </c>
       <c r="M120" t="n">
-        <v>3537369.630585103</v>
+        <v>0</v>
       </c>
       <c r="N120" t="n">
-        <v>6603260.40029397</v>
+        <v>2047241.956813559</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P120" t="inlineStr">
@@ -7952,12 +7904,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x20Ec87fCc14bd1F30608918ac481A3395641d7Af</t>
+          <t>https://intel.arkm.com/explorer/address/0x28C6c06298d514Db089934071355E5743bf21d60</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>0x20Ec87fCc14bd1F30608918ac481A3395641d7Af</t>
+          <t>0x28C6c06298d514Db089934071355E5743bf21d60</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -7971,12 +7923,24 @@
       <c r="E121" t="b">
         <v>0</v>
       </c>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Binance</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>https://binance.com</t>
+        </is>
+      </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Binance Deposit</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -7985,20 +7949,20 @@
         </is>
       </c>
       <c r="K121" t="n">
-        <v>34028771</v>
+        <v>1088789543.156715</v>
       </c>
       <c r="L121" t="n">
-        <v>33878826</v>
+        <v>1095923632.862235</v>
       </c>
       <c r="M121" t="n">
-        <v>1762790.71402187</v>
+        <v>56575176.81683136</v>
       </c>
       <c r="N121" t="n">
-        <v>1762790.71402187</v>
+        <v>57493291.99657664</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P121" t="inlineStr">
@@ -8010,12 +7974,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x8553f48B2B0B5F9b2E053413d640b46AefB45460</t>
+          <t>https://intel.arkm.com/explorer/address/0x000000000004444c5dc75cB358380D2e3dE08A90</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>0x8553f48B2B0B5F9b2E053413d640b46AefB45460</t>
+          <t>0x000000000004444c5dc75cB358380D2e3dE08A90</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -8024,31 +7988,51 @@
         </is>
       </c>
       <c r="D122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" t="b">
         <v>0</v>
       </c>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Uniswap</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>dex</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>https://uniswap.org</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>PoolManager</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K122" t="n">
-        <v>28963835.203125</v>
+        <v>76308576.49304403</v>
       </c>
       <c r="L122" t="n">
-        <v>0</v>
+        <v>74927264.76209198</v>
       </c>
       <c r="M122" t="n">
-        <v>1437874.756135735</v>
+        <v>4033813.461032986</v>
       </c>
       <c r="N122" t="n">
-        <v>0</v>
+        <v>3932512.125576595</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P122" t="inlineStr">
@@ -8060,12 +8044,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x924a4cCcEE25a5093C7486c081633CF95d3B4B93</t>
+          <t>https://intel.arkm.com/explorer/address/0x91D40E4818F4D4C57b4578d9ECa6AFc92aC8DEbE</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>0x924a4cCcEE25a5093C7486c081633CF95d3B4B93</t>
+          <t>0x91D40E4818F4D4C57b4578d9ECa6AFc92aC8DEbE</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -8081,7 +8065,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>OKX</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -8091,26 +8075,34 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+          <t>https://okx.com</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K123" t="n">
-        <v>0</v>
+        <v>73044021.05942252</v>
       </c>
       <c r="L123" t="n">
-        <v>34460000</v>
+        <v>73384876.13013184</v>
       </c>
       <c r="M123" t="n">
-        <v>0</v>
+        <v>3982662.19132089</v>
       </c>
       <c r="N123" t="n">
-        <v>2000000.00001</v>
+        <v>4016347.39460083</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
@@ -8122,12 +8114,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xEae7380dD4CeF6fbD1144F49E4D1e6964258A4F4</t>
+          <t>https://intel.arkm.com/explorer/address/0x2B83aaCB0dD973866B563cFb0EF0AEF24B93200b</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>0xEae7380dD4CeF6fbD1144F49E4D1e6964258A4F4</t>
+          <t>0x2B83aaCB0dD973866B563cFb0EF0AEF24B93200b</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -8141,24 +8133,12 @@
       <c r="E124" t="b">
         <v>0</v>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Wintermute</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>https://www.wintermute.com/</t>
-        </is>
-      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Binance Deposit</t>
+          <t>Coinbase Prime Custody</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -8167,20 +8147,20 @@
         </is>
       </c>
       <c r="K124" t="n">
-        <v>108644226.0527344</v>
+        <v>73494510.62503751</v>
       </c>
       <c r="L124" t="n">
-        <v>108828313.90625</v>
+        <v>71305586.28125</v>
       </c>
       <c r="M124" t="n">
-        <v>5803696.49283804</v>
+        <v>3950916.42006363</v>
       </c>
       <c r="N124" t="n">
-        <v>5806077.49283804</v>
+        <v>3848633.029126255</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P124" t="inlineStr">
@@ -8192,12 +8172,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xfBd4cdB413E45a52E2C8312f670e9cE67E794C37</t>
+          <t>https://intel.arkm.com/explorer/address/0x7f604D597c15b2e2F60DC645844f68b1D781b752</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>0xfBd4cdB413E45a52E2C8312f670e9cE67E794C37</t>
+          <t>0x7f604D597c15b2e2F60DC645844f68b1D781b752</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -8206,31 +8186,51 @@
         </is>
       </c>
       <c r="D125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E125" t="b">
         <v>0</v>
       </c>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Bitstamp</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>https://bitstamp.net</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K125" t="n">
-        <v>42032934.56556273</v>
+        <v>27276403.22750876</v>
       </c>
       <c r="L125" t="n">
-        <v>42607858.07453537</v>
+        <v>0</v>
       </c>
       <c r="M125" t="n">
-        <v>2312209.634056875</v>
+        <v>1438213.215568594</v>
       </c>
       <c r="N125" t="n">
-        <v>2306125.014471473</v>
+        <v>0</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2025-11-03 07:07:33</t>
+          <t>2025-11-03 07:13:18</t>
         </is>
       </c>
       <c r="P125" t="inlineStr">

--- a/data_cripto/top_flow.xlsx
+++ b/data_cripto/top_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P57"/>
+  <dimension ref="A1:P122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,26 +518,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
+          <t>https://intel.arkm.com/explorer/address/0x79dD9327352BcF1dd16941899705E97b61F4DEcB</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
+          <t>0x79dD9327352BcF1dd16941899705E97b61F4DEcB</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -547,7 +549,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
+          <t>https://kraken.com</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -557,901 +559,907 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>evm</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>26234743212.47216</v>
+        <v>81442912.04901856</v>
       </c>
       <c r="L2" t="n">
-        <v>24798284862.19255</v>
+        <v>83589256.92615291</v>
       </c>
       <c r="M2" t="n">
-        <v>236642.33658111</v>
+        <v>4588751.000921173</v>
       </c>
       <c r="N2" t="n">
-        <v>222765.02740778</v>
+        <v>4710189.64925682</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/39DUz1NCkLu25GczWiAjjgZBu4mUjKbdNA</t>
+          <t>https://intel.arkm.com/explorer/address/0x1FA00bE39C9b815B039Fa5F3394405eEb9502C9c</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>39DUz1NCkLu25GczWiAjjgZBu4mUjKbdNA</t>
+          <t>0x1FA00bE39C9b815B039Fa5F3394405eEb9502C9c</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Prince Group (Chen Zhi / LuBian.com)</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>scam</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>https://www.princeholdinggroup.com/</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Coinbase Deposit</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>31469089.88671875</v>
       </c>
       <c r="L3" t="n">
-        <v>1097722880</v>
+        <v>32607464.34179688</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1746402.71606</v>
       </c>
       <c r="N3" t="n">
-        <v>9756.062364150001</v>
+        <v>1807649.61542</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3BHXygmhNMaCcNn76S8DLdnZ5ucPtNtWGb</t>
+          <t>https://intel.arkm.com/explorer/address/0x544684Ae86Ae0569BdA7afD5d957A882b5d933B1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3BHXygmhNMaCcNn76S8DLdnZ5ucPtNtWGb</t>
+          <t>0x544684Ae86Ae0569BdA7afD5d957A882b5d933B1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cobo.com</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>custodian</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>https://www.cobo.com</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>28089642.546875</v>
       </c>
       <c r="L4" t="n">
-        <v>836249411</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1641690.663145983</v>
       </c>
       <c r="N4" t="n">
-        <v>7527.62035928</v>
+        <v>0</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3L2h3eRieCJiNkGTqREMq3c2FarSCbhtQP</t>
+          <t>https://intel.arkm.com/explorer/address/0x9c17f630DBde24eECe8fd248fAA2E51f690FF79B</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3L2h3eRieCJiNkGTqREMq3c2FarSCbhtQP</t>
+          <t>0x9c17f630DBde24eECe8fd248fAA2E51f690FF79B</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ETC Group</t>
+          <t>Chainlink</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>oracle</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://etc-group.com/</t>
+          <t>https://chain.link</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>BTCE Bitcoin ETF</t>
+          <t>Non-Circulating Supply</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>evm</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>867316416</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>861616576</v>
+        <v>138982480</v>
       </c>
       <c r="M5" t="n">
-        <v>7098.15441005</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>7098.15441005</v>
+        <v>6749999</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/15DomY3arDPw5jD658Mbf3AY3wT3YCDmW2</t>
+          <t>https://intel.arkm.com/explorer/address/0x7C876bdaA5c038E19F633714f622F6Def949B102</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>15DomY3arDPw5jD658Mbf3AY3wT3YCDmW2</t>
+          <t>0x7C876bdaA5c038E19F633714f622F6Def949B102</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Wintermute</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>https://www.wintermute.com/</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>6198463121.574604</v>
+        <v>99202180.5435812</v>
       </c>
       <c r="L6" t="n">
-        <v>6126588388.4375</v>
+        <v>99204558.53393555</v>
       </c>
       <c r="M6" t="n">
-        <v>55593.48245714</v>
+        <v>5497822.428117883</v>
       </c>
       <c r="N6" t="n">
-        <v>54974.98251714</v>
+        <v>5497816.430616309</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q8s3h3vw5xufdas890q29lpuca56r0ezqar0mvs</t>
+          <t>https://intel.arkm.com/explorer/address/0xBEE3211ab312a8D065c4FeF0247448e17A8da000</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>bc1q8s3h3vw5xufdas890q29lpuca56r0ezqar0mvs</t>
+          <t>0xBEE3211ab312a8D065c4FeF0247448e17A8da000</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Cumberland DRW</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>https://cumberland.io</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Market Maker</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K7" t="n">
-        <v>1570303445.981812</v>
+        <v>51948936.08159958</v>
       </c>
       <c r="L7" t="n">
-        <v>1773480232.967089</v>
+        <v>51938509.01939301</v>
       </c>
       <c r="M7" t="n">
-        <v>13947.93937098</v>
+        <v>2912039.627397427</v>
       </c>
       <c r="N7" t="n">
-        <v>15697.09521235</v>
+        <v>2908676.528216753</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/38MfJkxPkpwsZxkyfESwjdaKBdXrV8DpWr</t>
+          <t>https://intel.arkm.com/explorer/address/0xFA103c21ea2DF71DFb92B0652F8B1D795e51cdEf</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>38MfJkxPkpwsZxkyfESwjdaKBdXrV8DpWr</t>
+          <t>0xFA103c21ea2DF71DFb92B0652F8B1D795e51cdEf</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Symbolic Capital Partners</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>https://symbolic.partners</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>CEX Bridge</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K8" t="n">
-        <v>1375684902.734375</v>
+        <v>28950739.51660156</v>
       </c>
       <c r="L8" t="n">
-        <v>1434453462.608093</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>12023.22917</v>
+        <v>1651614.96886015</v>
       </c>
       <c r="N8" t="n">
-        <v>12498.46014</v>
+        <v>0</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1Pzaqw98PeRfyHypfqyEgg5yycJRsENrE7</t>
+          <t>https://intel.arkm.com/explorer/address/0xEae7380dD4CeF6fbD1144F49E4D1e6964258A4F4</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1Pzaqw98PeRfyHypfqyEgg5yycJRsENrE7</t>
+          <t>0xEae7380dD4CeF6fbD1144F49E4D1e6964258A4F4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Wintermute</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
+          <t>https://www.wintermute.com/</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Binance Deposit</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>evm</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>2235120128</v>
+        <v>112960426.2225342</v>
       </c>
       <c r="L9" t="n">
-        <v>1746997866</v>
+        <v>113207996.7993164</v>
       </c>
       <c r="M9" t="n">
-        <v>20000</v>
+        <v>6382688.24831181</v>
       </c>
       <c r="N9" t="n">
-        <v>15157.0005822</v>
+        <v>6387185.92831181</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/34hjZjdjcdUJBTuMU82p9df6wEiF7guzBs</t>
+          <t>https://intel.arkm.com/explorer/address/0x000000000004444c5dc75cB358380D2e3dE08A90</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>34hjZjdjcdUJBTuMU82p9df6wEiF7guzBs</t>
+          <t>0x000000000004444c5dc75cB358380D2e3dE08A90</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ETC Group</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>dex</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://etc-group.com/</t>
+          <t>https://uniswap.org</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>BTCE Bitcoin ETF</t>
+          <t>PoolManager</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>evm</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>737292288</v>
+        <v>73423966.64807598</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>72654400.20123582</v>
       </c>
       <c r="M10" t="n">
-        <v>7061.37519851</v>
+        <v>4068596.723355868</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>4001574.362563638</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/12XqeqZRVkBDgmPLVY4ZC6Y4ruUUEug8Fx</t>
+          <t>https://intel.arkm.com/explorer/address/0xC333E80eF2deC2805F239E3f1e810612D294F771</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12XqeqZRVkBDgmPLVY4ZC6Y4ruUUEug8Fx</t>
+          <t>0xC333E80eF2deC2805F239E3f1e810612D294F771</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>B2C2 Group</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://www.b2c2.com</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>36822040.02172852</v>
       </c>
       <c r="L11" t="n">
-        <v>1244406819.80249</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>2016045.66988743</v>
       </c>
       <c r="N11" t="n">
-        <v>11003.00002712</v>
+        <v>0</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3JZq4atUahhuA9rLhXLMhhTo133J9rF97j</t>
+          <t>https://intel.arkm.com/explorer/address/0xaB101F180a64dFb49c118aA4e0aAa0297DD5Cfd5</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3JZq4atUahhuA9rLhXLMhhTo133J9rF97j</t>
+          <t>0xaB101F180a64dFb49c118aA4e0aAa0297DD5Cfd5</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Bitfinex</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>https://bitfinex.com</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>27963573.875</v>
       </c>
       <c r="L12" t="n">
-        <v>971182016</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1640891.175270021</v>
       </c>
       <c r="N12" t="n">
-        <v>9000.00004646</v>
+        <v>0</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qvrwzs8unvu35kcred2z5ujjef36s5jgf3y6tp8</t>
+          <t>https://intel.arkm.com/explorer/address/0xfB682b0dE4e0093835EA21cfABb5449cA9ac9e5e</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>bc1qvrwzs8unvu35kcred2z5ujjef36s5jgf3y6tp8</t>
+          <t>0xfB682b0dE4e0093835EA21cfABb5449cA9ac9e5e</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Chainlink</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>oracle</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://chain.link</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Non-Circulating Supply</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K13" t="n">
-        <v>1219689154.701087</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>82279976</v>
       </c>
       <c r="M13" t="n">
-        <v>10907.90654394</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>3999999</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q39u0yxprsz6ucq93pgtxksk7ncr4900ypvkwcw</t>
+          <t>https://intel.arkm.com/explorer/address/0x9B1c1752B6B6eAF62a8c491A8681B32C1F7ecDE9</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>bc1q39u0yxprsz6ucq93pgtxksk7ncr4900ypvkwcw</t>
+          <t>0x9B1c1752B6B6eAF62a8c491A8681B32C1F7ecDE9</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>BIT.com (Matrixport)</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>https://www.bit.com/</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Binance Deposit</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K14" t="n">
-        <v>969961948.8634644</v>
+        <v>387002392</v>
       </c>
       <c r="L14" t="n">
-        <v>877330057.8288903</v>
+        <v>386787492</v>
       </c>
       <c r="M14" t="n">
-        <v>8651.537780049999</v>
+        <v>18749995</v>
       </c>
       <c r="N14" t="n">
-        <v>7866.579898309999</v>
+        <v>18750000</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/345j2JWoSaDTwDAB14quFHjovgmkY8mFRh</t>
+          <t>https://intel.arkm.com/explorer/address/0x68dF5296D677837f724A1Df4f5B7e23DD7133a0e</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>345j2JWoSaDTwDAB14quFHjovgmkY8mFRh</t>
+          <t>0x68dF5296D677837f724A1Df4f5B7e23DD7133a0e</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Bitfinex</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>https://bitfinex.com</t>
-        </is>
-      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>842255865.6064913</v>
+        <v>28187343.625</v>
       </c>
       <c r="L15" t="n">
-        <v>827036641.875</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>7649.37823211</v>
+        <v>1689337.357430333</v>
       </c>
       <c r="N15" t="n">
-        <v>7517.09787559</v>
+        <v>0</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/172jzPTGhtRR2SafHQDz3f7CTFrM4bjrxb</t>
+          <t>https://intel.arkm.com/explorer/address/0x5a52E96BAcdaBb82fd05763E25335261B270Efcb</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>172jzPTGhtRR2SafHQDz3f7CTFrM4bjrxb</t>
+          <t>0x5a52E96BAcdaBb82fd05763E25335261B270Efcb</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Binance</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K16" t="n">
-        <v>840727680</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>256057490.3125</v>
       </c>
       <c r="M16" t="n">
-        <v>7659.20237716</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>14801159</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/17qY5rLXvSx3g1THdch6YgaGBnGmaLzZth</t>
+          <t>https://intel.arkm.com/explorer/address/0x14ec8383A3C864107Ae08fCa194a253498103b11</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>17qY5rLXvSx3g1THdch6YgaGBnGmaLzZth</t>
+          <t>0x14ec8383A3C864107Ae08fCa194a253498103b11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
@@ -1473,51 +1481,53 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>778707072</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>37551352</v>
       </c>
       <c r="M17" t="n">
-        <v>6406.47545109</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2138459.732670324</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qx9n80t5q7tfmutzaj0ramzzzsvtveara68zntc</t>
+          <t>https://intel.arkm.com/explorer/address/0x924a4cCcEE25a5093C7486c081633CF95d3B4B93</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>bc1qx9n80t5q7tfmutzaj0ramzzzsvtveara68zntc</t>
+          <t>0x924a4cCcEE25a5093C7486c081633CF95d3B4B93</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Kraken</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1527,297 +1537,295 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://kraken.com</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>13793708367.14821</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>12650901059.875</v>
+        <v>34460000</v>
       </c>
       <c r="M18" t="n">
-        <v>124612.26903191</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>114137.90367183</v>
+        <v>2000000.00001</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q9exg34dkmgxu28yektgn929jpjpzukhhl2r3zr</t>
+          <t>https://intel.arkm.com/explorer/address/0x177a7376860a04eEA6BF7fb3F39Bf10c49D3b42C</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>bc1q9exg34dkmgxu28yektgn929jpjpzukhhl2r3zr</t>
+          <t>0x177a7376860a04eEA6BF7fb3F39Bf10c49D3b42C</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Wintermute</t>
+          <t>Blackhole</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>dex</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.wintermute.com/</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://blackhole.xyz/</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>4547688918.704346</v>
+        <v>604356217.0718974</v>
       </c>
       <c r="L19" t="n">
-        <v>4608294882.16204</v>
+        <v>604367698.5263505</v>
       </c>
       <c r="M19" t="n">
-        <v>40682.89588027</v>
+        <v>33946192.54933676</v>
       </c>
       <c r="N19" t="n">
-        <v>41191.30262215</v>
+        <v>33948279.97775764</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qjcm02r55a90v88xwe4alew4y4uyft2htvnywv2</t>
+          <t>https://intel.arkm.com/explorer/address/0xfBd4cdB413E45a52E2C8312f670e9cE67E794C37</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>bc1qjcm02r55a90v88xwe4alew4y4uyft2htvnywv2</t>
+          <t>0xfBd4cdB413E45a52E2C8312f670e9cE67E794C37</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Robinhood</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>https://robinhood.com/</t>
-        </is>
-      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>1546714139.536551</v>
+        <v>47553438.98893881</v>
       </c>
       <c r="L20" t="n">
-        <v>1381271938.8125</v>
+        <v>47990021.0838089</v>
       </c>
       <c r="M20" t="n">
-        <v>13861.1740796</v>
+        <v>2754782.756075189</v>
       </c>
       <c r="N20" t="n">
-        <v>12565.8808383</v>
+        <v>2740169.081402133</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/36YZXcTVLPdyapYuqXdJEt46oMVB2NrzVv</t>
+          <t>https://intel.arkm.com/explorer/address/0x5Ad431BA1B3AFEF7027786608d4Ab8017D778D02</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>36YZXcTVLPdyapYuqXdJEt46oMVB2NrzVv</t>
+          <t>0x5Ad431BA1B3AFEF7027786608d4Ab8017D778D02</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Coinbase Prime Deposit</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>1624031406</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1616533006</v>
+        <v>35273980</v>
       </c>
       <c r="M21" t="n">
-        <v>14822.62834672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>14767.93967475</v>
+        <v>2047241.956813559</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/33Q4t6fX5j1Mxbf5bnXp8qumTfc89vCnWK</t>
+          <t>https://intel.arkm.com/explorer/address/0xBD8D03ea5137362EA7b7CC5E98758bcB9040faaA</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>33Q4t6fX5j1Mxbf5bnXp8qumTfc89vCnWK</t>
+          <t>0xBD8D03ea5137362EA7b7CC5E98758bcB9040faaA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>969146304</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>969146304</v>
+        <v>37288184</v>
       </c>
       <c r="M22" t="n">
-        <v>8673.07094557</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>8673.07094557</v>
+        <v>2029841.308380461</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1DLeNApsHNNzUMNZJVoXeyEY5sdp8vzx3w</t>
+          <t>https://intel.arkm.com/explorer/address/0xA9D1e08C7793af67e9d92fe308d5697FB81d3E43</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1DLeNApsHNNzUMNZJVoXeyEY5sdp8vzx3w</t>
+          <t>0xA9D1e08C7793af67e9d92fe308d5697FB81d3E43</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bybit</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1827,7 +1835,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://bybit.com</t>
+          <t>https://coinbase.com</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1837,49 +1845,51 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>evm</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>13615233407.94824</v>
+        <v>1131271851.119041</v>
       </c>
       <c r="L23" t="n">
-        <v>13618573318.96865</v>
+        <v>1130422943.898699</v>
       </c>
       <c r="M23" t="n">
-        <v>121020.67512361</v>
+        <v>64782037.96916931</v>
       </c>
       <c r="N23" t="n">
-        <v>121027.82493074</v>
+        <v>64699872.70141407</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qv4r4zwvf5ckdx3llaykl0vez4fdaj4jh5yfjsw</t>
+          <t>https://intel.arkm.com/explorer/address/0xc0fFeE479E4cD49eafBA87449225e17c53251226</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>bc1qv4r4zwvf5ckdx3llaykl0vez4fdaj4jh5yfjsw</t>
+          <t>0xc0fFeE479E4cD49eafBA87449225e17c53251226</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
@@ -1889,51 +1899,53 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>7620989644.5</v>
+        <v>164064698.481934</v>
       </c>
       <c r="L24" t="n">
-        <v>7501982953</v>
+        <v>164058151.7070122</v>
       </c>
       <c r="M24" t="n">
-        <v>68492.44714496999</v>
+        <v>8871594.625438171</v>
       </c>
       <c r="N24" t="n">
-        <v>67410.86867413</v>
+        <v>8872561.969796687</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qr4dl5wa7kl8yu792dceg9z5knl2gkn220lk7a9</t>
+          <t>https://intel.arkm.com/explorer/address/0x91D40E4818F4D4C57b4578d9ECa6AFc92aC8DEbE</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>bc1qr4dl5wa7kl8yu792dceg9z5knl2gkn220lk7a9</t>
+          <t>0x91D40E4818F4D4C57b4578d9ECa6AFc92aC8DEbE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Crypto.com</t>
+          <t>OKX</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1943,331 +1955,301 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://crypto.com</t>
+          <t>https://okx.com</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>evm</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>2532244204.756868</v>
+        <v>79470848.81757611</v>
       </c>
       <c r="L25" t="n">
-        <v>2454326955.833565</v>
+        <v>79581658.47277153</v>
       </c>
       <c r="M25" t="n">
-        <v>22767.46766776</v>
+        <v>4523212.002641003</v>
       </c>
       <c r="N25" t="n">
-        <v>22009.29831821</v>
+        <v>4528502.86702559</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1pdwu79dady576y3fupmm82m3g7p2p9f6hgyeqy0tdg7ztxg7xrayqlkl8j9</t>
+          <t>https://intel.arkm.com/explorer/address/0xFAD57d2039C21811C8F2B5D5B65308aa99D31559</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>bc1pdwu79dady576y3fupmm82m3g7p2p9f6hgyeqy0tdg7ztxg7xrayqlkl8j9</t>
+          <t>0xFAD57d2039C21811C8F2B5D5B65308aa99D31559</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Hyperunit</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>blockchain-infra</t>
+          <t>dex</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://hyperunit.xyz</t>
+          <t>https://uniswap.org</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>LINK-USDC</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>evm</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>1200334482.765625</v>
+        <v>46778882.32587799</v>
       </c>
       <c r="L26" t="n">
-        <v>1390307297.489471</v>
+        <v>45001657.23686661</v>
       </c>
       <c r="M26" t="n">
-        <v>10519.34022056</v>
+        <v>2660079.520296739</v>
       </c>
       <c r="N26" t="n">
-        <v>12237.97015028</v>
+        <v>2577530.637165199</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3GtarxqbsDRwhC8aQtUKeUCCSxkpCpXLC2</t>
+          <t>https://intel.arkm.com/explorer/address/0x841ed663F2636863D40be4EE76243377dff13a34</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3GtarxqbsDRwhC8aQtUKeUCCSxkpCpXLC2</t>
+          <t>0x841ed663F2636863D40be4EE76243377dff13a34</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ETC Group</t>
+          <t>Robinhood</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://etc-group.com/</t>
+          <t>https://robinhood.com/</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>BTCE Bitcoin ETF</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>evm</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>859437376</v>
+        <v>43373497.9274425</v>
       </c>
       <c r="L27" t="n">
-        <v>739257984</v>
+        <v>45453810.078125</v>
       </c>
       <c r="M27" t="n">
-        <v>7080.20163095</v>
+        <v>2491429.739157728</v>
       </c>
       <c r="N27" t="n">
-        <v>7080.20163095</v>
+        <v>2488560.80214163</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1KbDEg1tDz2ErYgaDbaDhhawnLrSQFaFx5</t>
+          <t>https://intel.arkm.com/explorer/address/0x9a429c9F6B2958F4C058e6E9f191895b8881e771</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1KbDEg1tDz2ErYgaDbaDhhawnLrSQFaFx5</t>
+          <t>0x9a429c9F6B2958F4C058e6E9f191895b8881e771</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Wintermute</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>https://www.wintermute.com/</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Binance Deposit</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>5883024458.06927</v>
+        <v>28390637.5</v>
       </c>
       <c r="L28" t="n">
-        <v>5896659549.536474</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>53006.26560266</v>
+        <v>1682793.011652392</v>
       </c>
       <c r="N28" t="n">
-        <v>53165.7441114</v>
+        <v>0</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qn2cpj0hrl37wqh5q94kwrlhtj2lx8ahtw7ef5rg35tswxsqtvufqfmmrq2</t>
+          <t>https://intel.arkm.com/explorer/address/0x9e64c9C6194051caa06fBec237eDF580dF165953</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>bc1qn2cpj0hrl37wqh5q94kwrlhtj2lx8ahtw7ef5rg35tswxsqtvufqfmmrq2</t>
+          <t>0x9e64c9C6194051caa06fBec237eDF580dF165953</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>OKX</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>https://okx.com</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>2219403072.0721</v>
+        <v>29453734.80078125</v>
       </c>
       <c r="L29" t="n">
-        <v>2207315657.389513</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>19944.6755842</v>
+        <v>1682645.053491637</v>
       </c>
       <c r="N29" t="n">
-        <v>19842.06643513</v>
+        <v>0</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1p2mlwrss9tmvtfvu0tcxul2h0w67ej8vyjpj3ksctt67vd9r752ksqx6uqm</t>
+          <t>https://intel.arkm.com/explorer/address/0xe34804A719Ad780095983eF6CCd067175b32AbdC</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>bc1p2mlwrss9tmvtfvu0tcxul2h0w67ej8vyjpj3ksctt67vd9r752ksqx6uqm</t>
+          <t>0xe34804A719Ad780095983eF6CCd067175b32AbdC</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
@@ -2277,447 +2259,401 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>1655255655.145996</v>
+        <v>29857753.6015625</v>
       </c>
       <c r="L30" t="n">
-        <v>1661875152.150931</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>14831.71388456</v>
+        <v>1653127.749870445</v>
       </c>
       <c r="N30" t="n">
-        <v>14881.62145533</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1quq29mutxkgxmjfdr7ayj3zd9ad0ld5mrhh89l2</t>
+          <t>https://intel.arkm.com/explorer/address/0x8553f48B2B0B5F9b2E053413d640b46AefB45460</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>bc1quq29mutxkgxmjfdr7ayj3zd9ad0ld5mrhh89l2</t>
+          <t>0x8553f48B2B0B5F9b2E053413d640b46AefB45460</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Gemini</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>https://gemini.com</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>1041334682.761901</v>
+        <v>31986384.640625</v>
       </c>
       <c r="L31" t="n">
-        <v>1058810525.871314</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>9597.83164871</v>
+        <v>1641030.37744332</v>
       </c>
       <c r="N31" t="n">
-        <v>9603.58083803</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3MqUP6G1daVS5YTD8fz3QgwjZortWwxXFd</t>
+          <t>https://intel.arkm.com/explorer/address/0xB1dB79aea0a13382DD9E279d96Bc9a468A2F4E87</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3MqUP6G1daVS5YTD8fz3QgwjZortWwxXFd</t>
+          <t>0xB1dB79aea0a13382DD9E279d96Bc9a468A2F4E87</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Coinbase Prime</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>https://www.coinbase.com/prime</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>17774502041.86217</v>
+        <v>157786368.7982466</v>
       </c>
       <c r="L32" t="n">
-        <v>17763226079.94297</v>
+        <v>157720572.7944112</v>
       </c>
       <c r="M32" t="n">
-        <v>157008.93954195</v>
+        <v>8858292.070354924</v>
       </c>
       <c r="N32" t="n">
-        <v>156960.62328395</v>
+        <v>8855043.145034129</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/12XZMdaAGmcHf4ocFSqpd8jFd1WH7RHUPs</t>
+          <t>https://intel.arkm.com/explorer/address/0x2B83aaCB0dD973866B563cFb0EF0AEF24B93200b</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>12XZMdaAGmcHf4ocFSqpd8jFd1WH7RHUPs</t>
+          <t>0x2B83aaCB0dD973866B563cFb0EF0AEF24B93200b</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
       <c r="E33" t="b">
         <v>0</v>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Bybit</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>https://bybit.com</t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Coinbase Prime Custody</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>evm</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>16432520304.41825</v>
+        <v>77176164.35941251</v>
       </c>
       <c r="L33" t="n">
-        <v>16220180056.36913</v>
+        <v>73446054.75</v>
       </c>
       <c r="M33" t="n">
-        <v>146077.5869688</v>
+        <v>4322397.418194543</v>
       </c>
       <c r="N33" t="n">
-        <v>144232.87320217</v>
+        <v>4099404.887013739</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1AZ7aYCT6JPLF1EZ7PgymfFtH4xK44CcCP</t>
+          <t>https://intel.arkm.com/explorer/address/0x207e1074858A7e78f17002075739eD2745dbaEce</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1AZ7aYCT6JPLF1EZ7PgymfFtH4xK44CcCP</t>
+          <t>0x207e1074858A7e78f17002075739eD2745dbaEce</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
       <c r="E34" t="b">
         <v>0</v>
       </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0x</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>dex</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>https://0x.org</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Binance Deposit</t>
+          <t>MainnetSettler</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>evm</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>1195509057.36404</v>
+        <v>33196124.24501714</v>
       </c>
       <c r="L34" t="n">
-        <v>1219994058.376929</v>
+        <v>33196124.23819182</v>
       </c>
       <c r="M34" t="n">
-        <v>10969.82618208</v>
+        <v>1947364.5446193</v>
       </c>
       <c r="N34" t="n">
-        <v>11209.26237724</v>
+        <v>1947364.5446193</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q9wvygkq7h9xgcp59mc6ghzczrqlgrj9k3ey9tz</t>
+          <t>https://intel.arkm.com/explorer/address/0x4249e6dF5001056D005419C58A80012d4246a8D5</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>bc1q9wvygkq7h9xgcp59mc6ghzczrqlgrj9k3ey9tz</t>
+          <t>0x4249e6dF5001056D005419C58A80012d4246a8D5</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>KuCoin</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>https://kucoin.com</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>862650924.3222725</v>
+        <v>25112864.53125</v>
       </c>
       <c r="L35" t="n">
-        <v>752403902.5355221</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>7869.5884166</v>
+        <v>1662305.657448553</v>
       </c>
       <c r="N35" t="n">
-        <v>6868.66373455</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3BPAodH6WkNQC8TUrnwFKhETiFacNUi68X</t>
+          <t>https://intel.arkm.com/explorer/address/0x28C6c06298d514Db089934071355E5743bf21d60</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3BPAodH6WkNQC8TUrnwFKhETiFacNUi68X</t>
+          <t>0x28C6c06298d514Db089934071355E5743bf21d60</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Cobo.com</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>custodian</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.cobo.com</t>
+          <t>https://binance.com</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Cobo Custody</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>evm</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>805576047</v>
+        <v>1135809265.87709</v>
       </c>
       <c r="L36" t="n">
-        <v>834496811</v>
+        <v>1106785046.713804</v>
       </c>
       <c r="M36" t="n">
-        <v>7253.639200000001</v>
+        <v>61093532.5219598</v>
       </c>
       <c r="N36" t="n">
-        <v>7523.4404</v>
+        <v>59605804.06741681</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3JZ3byZy7TTrfy8zdxrm9iqJrdsaZ5CrNw</t>
+          <t>https://intel.arkm.com/explorer/address/0xCD531Ae9EFCCE479654c4926dec5F6209531Ca7b</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3JZ3byZy7TTrfy8zdxrm9iqJrdsaZ5CrNw</t>
+          <t>0xCD531Ae9EFCCE479654c4926dec5F6209531Ca7b</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
       <c r="E37" t="b">
         <v>0</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Crypto.com</t>
+          <t>Coinbase Prime</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2727,105 +2663,137 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://crypto.com</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+          <t>https://www.coinbase.com/prime</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K37" t="n">
-        <v>884019384.6591187</v>
+        <v>216401946.2453943</v>
       </c>
       <c r="L37" t="n">
-        <v>828328530.2991943</v>
+        <v>217105658.4498472</v>
       </c>
       <c r="M37" t="n">
-        <v>7951.74797</v>
+        <v>12399479.95556647</v>
       </c>
       <c r="N37" t="n">
-        <v>7445.474130000001</v>
+        <v>12433252.57220672</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/14B4ceT9HWX1njZWB7an1zQAY9zXX352EQ</t>
+          <t>https://intel.arkm.com/explorer/address/0x9008D19f58AAbD9eD0D60971565AA8510560ab41</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>14B4ceT9HWX1njZWB7an1zQAY9zXX352EQ</t>
+          <t>0x9008D19f58AAbD9eD0D60971565AA8510560ab41</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
       <c r="E38" t="b">
         <v>0</v>
       </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>CoW Protocol</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>dex-aggregator</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>https://cow.fi</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Settlement</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>71671076.01601017</v>
       </c>
       <c r="L38" t="n">
-        <v>840793536</v>
+        <v>71664877.99787791</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>4058265.489082967</v>
       </c>
       <c r="N38" t="n">
-        <v>7659.80237939</v>
+        <v>4057882.569237267</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1GrwDkr33gT6LuumniYjKEGjTLhsL5kmqC</t>
+          <t>https://intel.arkm.com/explorer/address/0x4C381016Af2185B97E4f6944C125603320762237</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1GrwDkr33gT6LuumniYjKEGjTLhsL5kmqC</t>
+          <t>0x4C381016Af2185B97E4f6944C125603320762237</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Bybit</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2835,263 +2803,251 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://bybit.com</t>
+          <t>https://coinbase.com</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>evm</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>14450712568.57195</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>14429420068.13654</v>
+        <v>38864852</v>
       </c>
       <c r="M39" t="n">
-        <v>128281.59636913</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>128011.91518773</v>
+        <v>2121443.965483021</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q0d3k8zue8z5ztqt0r35rsd7gua5z4ser6gt46c</t>
+          <t>https://intel.arkm.com/explorer/address/0xA69babEF1cA67A37Ffaf7a485DfFF3382056e78C</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>bc1q0d3k8zue8z5ztqt0r35rsd7gua5z4ser6gt46c</t>
+          <t>0xA69babEF1cA67A37Ffaf7a485DfFF3382056e78C</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Symbolic Capital Partners</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
+          <t>https://symbolic.partners</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>MEV Bot</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>evm</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>1661834263.138693</v>
+        <v>131549827.4757507</v>
       </c>
       <c r="L40" t="n">
-        <v>1698301614.373138</v>
+        <v>131906412.1985564</v>
       </c>
       <c r="M40" t="n">
-        <v>15160.08684631</v>
+        <v>7387144.668526733</v>
       </c>
       <c r="N40" t="n">
-        <v>15499.5303586</v>
+        <v>7390173.736974358</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qppunwskzl7t3mtmcarlvpxjuzd8jy7l7ga49av2c78xg47fujncsrc76y6</t>
+          <t>https://intel.arkm.com/explorer/address/0x3db910Fac1dbE434f397c07c2B473983eFcf25DC</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>bc1qppunwskzl7t3mtmcarlvpxjuzd8jy7l7ga49av2c78xg47fujncsrc76y6</t>
+          <t>0x3db910Fac1dbE434f397c07c2B473983eFcf25DC</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
       <c r="E41" t="b">
         <v>0</v>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Bitstamp</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>https://bitstamp.net</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>1508964857.271484</v>
+        <v>47861410.19897461</v>
       </c>
       <c r="L41" t="n">
-        <v>1530880178.201981</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>13500.06355846</v>
+        <v>2599472.199258433</v>
       </c>
       <c r="N41" t="n">
-        <v>13657.22762996</v>
+        <v>0</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/324H9uyTV9bPgAVgmdJNxPKKKZmowk5CYq</t>
+          <t>https://intel.arkm.com/explorer/address/0x2Ad5004c60e16E54d5007C80CE329Adde5B51Ef5</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>324H9uyTV9bPgAVgmdJNxPKKKZmowk5CYq</t>
+          <t>0x2Ad5004c60e16E54d5007C80CE329Adde5B51Ef5</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
       <c r="E42" t="b">
         <v>0</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Bullish.com</t>
+          <t>1inch</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>dex-aggregator</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://bullish.com/</t>
+          <t>https://1inch.io</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Settlement</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>evm</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>1619906624.25</v>
+        <v>41266718.02675873</v>
       </c>
       <c r="L42" t="n">
-        <v>1710221135.207202</v>
+        <v>41266504.48183686</v>
       </c>
       <c r="M42" t="n">
-        <v>14618.38038319</v>
+        <v>2295205.434497887</v>
       </c>
       <c r="N42" t="n">
-        <v>15405.56613656</v>
+        <v>2295192.363615371</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/34kn9zJe1K8kbGUJtMUar4cQrYiQRs9tef</t>
+          <t>https://intel.arkm.com/explorer/address/0x4bD9a84F22bD479f630E2f6c3311285D6eb6B768</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>34kn9zJe1K8kbGUJtMUar4cQrYiQRs9tef</t>
+          <t>0x4bD9a84F22bD479f630E2f6c3311285D6eb6B768</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
       <c r="E43" t="b">
         <v>0</v>
       </c>
@@ -3101,161 +3057,179 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>985205888</v>
+        <v>28638374.703125</v>
       </c>
       <c r="L43" t="n">
-        <v>978419904</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>8756.062360919999</v>
+        <v>1662442.34645748</v>
       </c>
       <c r="N43" t="n">
-        <v>8756.062360919999</v>
+        <v>0</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/39ZP3h79p7xkoB6qZwPiQw8dnHCsBT51u7</t>
+          <t>https://intel.arkm.com/explorer/address/0x4a87ecE3eFffCb012fbE491AA028032e07B6F6cF</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>39ZP3h79p7xkoB6qZwPiQw8dnHCsBT51u7</t>
+          <t>0x4a87ecE3eFffCb012fbE491AA028032e07B6F6cF</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>ETC Group</t>
+          <t>Chainlink</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>oracle</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://etc-group.com/</t>
+          <t>https://chain.link</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>BTCE Bitcoin ETF</t>
+          <t>Non-Circulating Supply</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>evm</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>875762816</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>875762816</v>
+        <v>82339960</v>
       </c>
       <c r="M44" t="n">
-        <v>7167.28024582</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>7167.28024582</v>
+        <v>3999998</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qcgphlnlrn7r436v6y07w503qm0wnku9al5d7jm</t>
+          <t>https://intel.arkm.com/explorer/address/0x88a9B9D0F6cE2a571889FFdBA5c84301f8982f46</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>bc1qcgphlnlrn7r436v6y07w503qm0wnku9al5d7jm</t>
+          <t>0x88a9B9D0F6cE2a571889FFdBA5c84301f8982f46</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
       <c r="E45" t="b">
         <v>0</v>
       </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>823231520</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>39179688</v>
       </c>
       <c r="M45" t="n">
-        <v>6665.99896938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>2238839.271669377</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/12DezRFkKToAiLTDNru1g7FuvtAWMwCZ7N</t>
+          <t>https://intel.arkm.com/explorer/address/0x394A2ef2953c9007AD5CBBe52D93E0d1A5e4F7Be</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>12DezRFkKToAiLTDNru1g7FuvtAWMwCZ7N</t>
+          <t>0x394A2ef2953c9007AD5CBBe52D93E0d1A5e4F7Be</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
       <c r="E46" t="b">
         <v>0</v>
       </c>
@@ -3274,62 +3248,56 @@
           <t>https://coinbase.com</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>4099955212.835938</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>4089442344.726562</v>
+        <v>35981716</v>
       </c>
       <c r="M46" t="n">
-        <v>37174.66004477</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>37089.72706985</v>
+        <v>2067914.749970789</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1Kr6QSydW9bFQG1mXiPNNu6WpJGmUa9i1g</t>
+          <t>https://intel.arkm.com/explorer/address/0x97864308e9fc8CF41B39096c94A45e90B218d1b5</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1Kr6QSydW9bFQG1mXiPNNu6WpJGmUa9i1g</t>
+          <t>0x97864308e9fc8CF41B39096c94A45e90B218d1b5</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Bitfinex</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3339,133 +3307,129 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://bitfinex.com</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>2774064585.919785</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>2633123566.511599</v>
+        <v>34721224</v>
       </c>
       <c r="M47" t="n">
-        <v>25417.79667196</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>24187.67613722</v>
+        <v>2047241.956813559</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q32lyrhp9zpww22phqjwwmelta0c8a5q990ghs6</t>
+          <t>https://intel.arkm.com/explorer/address/0xf8191D98ae98d2f7aBDFB63A9b0b812b93C873AA</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>bc1q32lyrhp9zpww22phqjwwmelta0c8a5q990ghs6</t>
+          <t>0xf8191D98ae98d2f7aBDFB63A9b0b812b93C873AA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
       <c r="E48" t="b">
         <v>0</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Ceffu</t>
+          <t>Wintermute</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>custodian</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.ceffu.com/</t>
+          <t>https://www.wintermute.com/</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Custody Cold Wallet</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>evm</t>
         </is>
       </c>
       <c r="K48" t="n">
-        <v>872132780</v>
+        <v>197477641.4748113</v>
       </c>
       <c r="L48" t="n">
-        <v>1220308664</v>
+        <v>193834056.4907532</v>
       </c>
       <c r="M48" t="n">
-        <v>7770.148999999999</v>
+        <v>11084738.67699515</v>
       </c>
       <c r="N48" t="n">
-        <v>11045.00002776</v>
+        <v>10924900.7409</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1quhruqrghgcca950rvhtrg7cpd7u8k6svpzgzmrjy8xyukacl5lkq0r8l2d</t>
+          <t>https://intel.arkm.com/explorer/address/0x651641299C7eC0aA44AD7eD9b7E12702fED2022f</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>bc1quhruqrghgcca950rvhtrg7cpd7u8k6svpzgzmrjy8xyukacl5lkq0r8l2d</t>
+          <t>0x651641299C7eC0aA44AD7eD9b7E12702fED2022f</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
       <c r="E49" t="b">
         <v>0</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>OKX</t>
+          <t>Bybit</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3475,7 +3439,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://okx.com</t>
+          <t>https://bybit.com</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3485,553 +3449,4655 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>evm</t>
         </is>
       </c>
       <c r="K49" t="n">
-        <v>3313324412.499443</v>
+        <v>66173134.43919309</v>
       </c>
       <c r="L49" t="n">
-        <v>3154477070.059385</v>
+        <v>144045341.585987</v>
       </c>
       <c r="M49" t="n">
-        <v>29874.99228175</v>
+        <v>3669010.723724974</v>
       </c>
       <c r="N49" t="n">
-        <v>28216.54158032</v>
+        <v>7407731.213660331</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q42kvqt0e3f27qhd2ucnprarl5ywpuj7tu0h9v2</t>
+          <t>https://intel.arkm.com/explorer/address/0x191c10Aa4AF7C30e871E70C95dB0E4eb77237530</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>bc1q42kvqt0e3f27qhd2ucnprarl5ywpuj7tu0h9v2</t>
+          <t>0x191c10Aa4AF7C30e871E70C95dB0E4eb77237530</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
       <c r="E50" t="b">
         <v>0</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>FalconX</t>
+          <t>Aave</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>lending-decentralized</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://falconx.io/</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://aave.com</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>2595855353.546968</v>
+        <v>36286720.6018374</v>
       </c>
       <c r="L50" t="n">
-        <v>2730452970.629474</v>
+        <v>39465554.2079853</v>
       </c>
       <c r="M50" t="n">
-        <v>23546.9347311</v>
+        <v>2014415.273631051</v>
       </c>
       <c r="N50" t="n">
-        <v>24651.67542039</v>
+        <v>2206240.027661598</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qq393eyjh8hdjvcchy0mxquhh9wx8h3kzlkchfs</t>
+          <t>https://intel.arkm.com/explorer/address/0xB3d0211Ff3ae56760ce8Ccb5FaD0F9e70dC51281</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>bc1qq393eyjh8hdjvcchy0mxquhh9wx8h3kzlkchfs</t>
+          <t>0xB3d0211Ff3ae56760ce8Ccb5FaD0F9e70dC51281</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
       <c r="E51" t="b">
         <v>0</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Ceffu</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>custodian</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.ceffu.com/</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Custody Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>2039804976.65625</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>2088336743.293225</v>
+        <v>45863156</v>
       </c>
       <c r="M51" t="n">
-        <v>18426.65071562</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>18888.4462325</v>
+        <v>2197563.811051277</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3KXwpcwggRsACLkFdfCVMU5ZA4tcLxdN6T</t>
+          <t>https://intel.arkm.com/explorer/address/0xBEEf02961503351625926Ea9a11AE13B29F5c555</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3KXwpcwggRsACLkFdfCVMU5ZA4tcLxdN6T</t>
+          <t>0xBEEf02961503351625926Ea9a11AE13B29F5c555</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
       <c r="E52" t="b">
         <v>0</v>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Kraken</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>https://kraken.com</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Kraken Deposit</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>7613331091.5</v>
+        <v>48617200.58356763</v>
       </c>
       <c r="L52" t="n">
-        <v>7510580916.335938</v>
+        <v>48566304.7219888</v>
       </c>
       <c r="M52" t="n">
-        <v>68421.23138953</v>
+        <v>2846714.132291345</v>
       </c>
       <c r="N52" t="n">
-        <v>67483.04938397001</v>
+        <v>2843637.718842605</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q67g733e7z2gy333pcnkqrvpptjel2c6kr4jkug</t>
+          <t>https://intel.arkm.com/explorer/address/0x4e19698c366f7DCD1cfAd4D7f621B4D275Bb1a6C</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>bc1q67g733e7z2gy333pcnkqrvpptjel2c6kr4jkug</t>
+          <t>0x4e19698c366f7DCD1cfAd4D7f621B4D275Bb1a6C</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
       <c r="E53" t="b">
         <v>0</v>
       </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Bybit</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>https://bybit.com</t>
+        </is>
+      </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>1222254096.33758</v>
+        <v>57050000</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>9900.00000294</v>
+        <v>2500000</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3M219KR5vEneNb47ewrPfWyb5jQ2DjxRP6</t>
+          <t>https://intel.arkm.com/explorer/address/0xA1eD21D980988E644139660569e4Bd4178241741</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3M219KR5vEneNb47ewrPfWyb5jQ2DjxRP6</t>
+          <t>0xA1eD21D980988E644139660569e4Bd4178241741</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
       <c r="E54" t="b">
         <v>0</v>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Binance</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>https://binance.com</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>918885056</v>
+        <v>28096436.625</v>
       </c>
       <c r="L54" t="n">
-        <v>2240158208</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>8357.071</v>
+        <v>1674467.738016825</v>
       </c>
       <c r="N54" t="n">
-        <v>20045.082</v>
+        <v>0</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q7cyrfmck2ffu2ud3rn5l5a8yv6f0chkp0zpemf</t>
+          <t>https://intel.arkm.com/explorer/address/0xa42D0A18B834F52e41bEDdEaA2940165db3DA9a3</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>bc1q7cyrfmck2ffu2ud3rn5l5a8yv6f0chkp0zpemf</t>
+          <t>0xa42D0A18B834F52e41bEDdEaA2940165db3DA9a3</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
       <c r="E55" t="b">
         <v>0</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Crypto.com</t>
+          <t>Chainlink</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>oracle</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://crypto.com</t>
+          <t>https://chain.link</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Non-Circulating Supply</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>evm</t>
         </is>
       </c>
       <c r="K55" t="n">
-        <v>2337998864.781359</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>2461492267.559253</v>
+        <v>83399976</v>
       </c>
       <c r="M55" t="n">
-        <v>20969.01604903</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>21992.2162985</v>
+        <v>3999999</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3FD9v4Tf6KpbttXoiAUiWtVVEUDMEZ8MED</t>
+          <t>https://intel.arkm.com/explorer/address/0xa6Cc3C2531FdaA6Ae1A3CA84c2855806728693e8</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3FD9v4Tf6KpbttXoiAUiWtVVEUDMEZ8MED</t>
+          <t>0xa6Cc3C2531FdaA6Ae1A3CA84c2855806728693e8</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
       <c r="E56" t="b">
         <v>0</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>ETC Group</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>dex</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://etc-group.com/</t>
+          <t>https://uniswap.org</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>BTCE Bitcoin ETF</t>
+          <t>LINK</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>evm</t>
         </is>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>228499360.2153584</v>
       </c>
       <c r="L56" t="n">
-        <v>876530624</v>
+        <v>227417341.4581181</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>13155698.11561204</v>
       </c>
       <c r="N56" t="n">
-        <v>7173.56406811</v>
+        <v>13029123.25935013</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2025-11-06 11:24:05</t>
+          <t>2025-11-06 11:41:32</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>chainlink</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/33VQ4KxRJWJruC2UXJ4PWKr8jNRtViPwYU</t>
+          <t>https://intel.arkm.com/explorer/address/0xa07fB08fa640FB0E68794e06e5A79B2B591012cA</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>33VQ4KxRJWJruC2UXJ4PWKr8jNRtViPwYU</t>
+          <t>0xa07fB08fa640FB0E68794e06e5A79B2B591012cA</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
       <c r="E57" t="b">
         <v>0</v>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>28385224.4375</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1669173.396126916</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:32</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x65505213bBA7eAbD3479D256650EE68B3fb10D67</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>0x65505213bBA7eAbD3479D256650EE68B3fb10D67</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>38324368</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>2047241.956813559</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:32</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xDFd5293D8e347dFe59E90eFd55b2956a1343963d</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>0xDFd5293D8e347dFe59E90eFd55b2956a1343963d</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Binance</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>262935834.5</v>
+      </c>
+      <c r="L59" t="n">
+        <v>264235091.3757287</v>
+      </c>
+      <c r="M59" t="n">
+        <v>14781998.71105499</v>
+      </c>
+      <c r="N59" t="n">
+        <v>14863128.77705181</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:32</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x51C72848c68a965f66FA7a88855F9f7784502a7F</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>0x51C72848c68a965f66FA7a88855F9f7784502a7F</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Wintermute</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Market Maker</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>177544335.3403687</v>
+      </c>
+      <c r="L60" t="n">
+        <v>178336119.9388714</v>
+      </c>
+      <c r="M60" t="n">
+        <v>10006478.30173863</v>
+      </c>
+      <c r="N60" t="n">
+        <v>9992670.149825174</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:32</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x5E8C8A7243651DB1384C0dDfDbE39761E8e7E51a</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>0x5E8C8A7243651DB1384C0dDfDbE39761E8e7E51a</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Aave</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>lending-decentralized</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>https://aave.com</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Aave Ethereum LINK (aEthLINK)</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>93752594.64515293</v>
+      </c>
+      <c r="L61" t="n">
+        <v>104862128.7852429</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5458030.28856486</v>
+      </c>
+      <c r="N61" t="n">
+        <v>6075151.683652507</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:32</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x21a31Ee1afC51d94C2eFcCAa2092aD1028285549</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>0x21a31Ee1afC51d94C2eFcCAa2092aD1028285549</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D62" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Binance</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>217402775.008873</v>
+      </c>
+      <c r="L62" t="n">
+        <v>219063621.1209948</v>
+      </c>
+      <c r="M62" t="n">
+        <v>12332803.19627744</v>
+      </c>
+      <c r="N62" t="n">
+        <v>12395686.75565377</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:32</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x72bE417AFB0aBEa66913141C605D313BB389b59C</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>0x72bE417AFB0aBEa66913141C605D313BB389b59C</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D63" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Aerodrome Finance</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>dex</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>https://aerodrome.finance/</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>172467089.1631148</v>
+      </c>
+      <c r="L63" t="n">
+        <v>172590534.0923434</v>
+      </c>
+      <c r="M63" t="n">
+        <v>9339447.364971554</v>
+      </c>
+      <c r="N63" t="n">
+        <v>9342852.699976884</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:32</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xEebc7DCc613819686659983eE305f87beb6c1ff8</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>0xEebc7DCc613819686659983eE305f87beb6c1ff8</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D64" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>442536282.8126698</v>
+      </c>
+      <c r="L64" t="n">
+        <v>442561285.4964352</v>
+      </c>
+      <c r="M64" t="n">
+        <v>24867984.42573756</v>
+      </c>
+      <c r="N64" t="n">
+        <v>24868950.69051207</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:32</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xF977814e90dA44bFA03b6295A0616a897441aceC</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0xF977814e90dA44bFA03b6295A0616a897441aceC</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D65" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Binance</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>367380764</v>
+      </c>
+      <c r="L65" t="n">
+        <v>71903208</v>
+      </c>
+      <c r="M65" t="n">
+        <v>17827120.987</v>
+      </c>
+      <c r="N65" t="n">
+        <v>3782388.57001</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:32</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x4A4aaA0155237881FBD5C34BfaE16e985A7B068D</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0x4A4aaA0155237881FBD5C34BfaE16e985A7B068D</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D66" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>OKX</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>https://okx.com</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>45560957.18276215</v>
+      </c>
+      <c r="L66" t="n">
+        <v>44989610.92720795</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2617004.896128824</v>
+      </c>
+      <c r="N66" t="n">
+        <v>2594297.10782465</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:32</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x33566c9D8BE6Cf0B23795E0d380E112Be9d75836</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0x33566c9D8BE6Cf0B23795E0d380E112Be9d75836</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Galaxy Digital</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>https://www.galaxy.com/</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>54792376.0435791</v>
+      </c>
+      <c r="L67" t="n">
+        <v>51043294.80859375</v>
+      </c>
+      <c r="M67" t="n">
+        <v>210420.88951285</v>
+      </c>
+      <c r="N67" t="n">
+        <v>210108.72580064</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x73ACC6C8974F63de67594511A6aB21AB5F067295</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0x73ACC6C8974F63de67594511A6aB21AB5F067295</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>51023110</v>
+      </c>
+      <c r="L68" t="n">
+        <v>51390656</v>
+      </c>
+      <c r="M68" t="n">
+        <v>210023.50389539</v>
+      </c>
+      <c r="N68" t="n">
+        <v>210023.51843139</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x91D40E4818F4D4C57b4578d9ECa6AFc92aC8DEbE</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0x91D40E4818F4D4C57b4578d9ECa6AFc92aC8DEbE</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D69" t="b">
+        <v>0</v>
+      </c>
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>OKX</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>https://okx.com</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>33722590.46165466</v>
+      </c>
+      <c r="L69" t="n">
+        <v>34310512.7860806</v>
+      </c>
+      <c r="M69" t="n">
+        <v>141263.5163765469</v>
+      </c>
+      <c r="N69" t="n">
+        <v>143831.3589955</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xeBb4EE6Fe7a3cB6C207E62d46a6519E1878C5855</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0xeBb4EE6Fe7a3cB6C207E62d46a6519E1878C5855</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D70" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Gnosis Safe Proxy</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>28041632.8246994</v>
+      </c>
+      <c r="L70" t="n">
+        <v>27685623.72750854</v>
+      </c>
+      <c r="M70" t="n">
+        <v>121356.7583518824</v>
+      </c>
+      <c r="N70" t="n">
+        <v>120341.5567785288</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x7C876bdaA5c038E19F633714f622F6Def949B102</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0x7C876bdaA5c038E19F633714f622F6Def949B102</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D71" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>20040574.71191406</v>
+      </c>
+      <c r="L71" t="n">
+        <v>20093321.21875</v>
+      </c>
+      <c r="M71" t="n">
+        <v>89211.16549749578</v>
+      </c>
+      <c r="N71" t="n">
+        <v>89481.2390663055</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xf8191D98ae98d2f7aBDFB63A9b0b812b93C873AA</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0xf8191D98ae98d2f7aBDFB63A9b0b812b93C873AA</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D72" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Wintermute</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>73756395.81329346</v>
+      </c>
+      <c r="L72" t="n">
+        <v>70344952.71792603</v>
+      </c>
+      <c r="M72" t="n">
+        <v>325526.7212336222</v>
+      </c>
+      <c r="N72" t="n">
+        <v>311121.85388</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xA700b4eB416Be35b2911fd5Dee80678ff64fF6C9</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0xA700b4eB416Be35b2911fd5Dee80678ff64fF6C9</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Aave</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>lending-decentralized</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>https://aave.com</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Aave Ethereum AAVE (aEthAAVE)</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>45511913.58957467</v>
+      </c>
+      <c r="L73" t="n">
+        <v>164681210.7795772</v>
+      </c>
+      <c r="M73" t="n">
+        <v>203036.8175822487</v>
+      </c>
+      <c r="N73" t="n">
+        <v>701978.1879402704</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x416Ec2cA21a38CbCFeAcD6a14532B3F348356d23</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0x416Ec2cA21a38CbCFeAcD6a14532B3F348356d23</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D74" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>13392494.16971839</v>
+      </c>
+      <c r="L74" t="n">
+        <v>13319084.73496842</v>
+      </c>
+      <c r="M74" t="n">
+        <v>59589.66148140766</v>
+      </c>
+      <c r="N74" t="n">
+        <v>59264.49710581066</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xC882b111A75C0c657fC507C04FbFcD2cC984F071</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0xC882b111A75C0c657fC507C04FbFcD2cC984F071</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D75" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75" t="b">
+        <v>0</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>https://gate.com</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>11022535.625</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>49861.6457673</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xA249aC7499Bb7A18f47168f936825452d466DcAf</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>0xA249aC7499Bb7A18f47168f936825452d466DcAf</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D76" t="b">
+        <v>0</v>
+      </c>
+      <c r="E76" t="b">
+        <v>0</v>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>915658975.2265625</v>
+      </c>
+      <c r="L76" t="n">
+        <v>915658496</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4141566.580066699</v>
+      </c>
+      <c r="N76" t="n">
+        <v>4141564.5</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x9bA0CF1588E1DFA905eC948F7FE5104dD40EDa31</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>0x9bA0CF1588E1DFA905eC948F7FE5104dD40EDa31</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D77" t="b">
+        <v>1</v>
+      </c>
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>TrustedVolumes</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Market Maker</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>35705039.02904703</v>
+      </c>
+      <c r="L77" t="n">
+        <v>35645016.06145699</v>
+      </c>
+      <c r="M77" t="n">
+        <v>157456.0017887559</v>
+      </c>
+      <c r="N77" t="n">
+        <v>156837.9680440086</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x5236333EF2baa45b450689B69e4e4b277D84F954</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>0x5236333EF2baa45b450689B69e4e4b277D84F954</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D78" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>joepeng.eth</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>13421559.6893158</v>
+      </c>
+      <c r="L78" t="n">
+        <v>13439827.59277344</v>
+      </c>
+      <c r="M78" t="n">
+        <v>58537.53870053</v>
+      </c>
+      <c r="N78" t="n">
+        <v>58477.53661528</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xfBd4cdB413E45a52E2C8312f670e9cE67E794C37</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0xfBd4cdB413E45a52E2C8312f670e9cE67E794C37</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D79" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79" t="b">
+        <v>0</v>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>22861503.99203014</v>
+      </c>
+      <c r="L79" t="n">
+        <v>23308103.6167326</v>
+      </c>
+      <c r="M79" t="n">
+        <v>105764.5477495171</v>
+      </c>
+      <c r="N79" t="n">
+        <v>104905.4827360646</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x9008D19f58AAbD9eD0D60971565AA8510560ab41</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>0x9008D19f58AAbD9eD0D60971565AA8510560ab41</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D80" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>CoW Protocol</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>dex-aggregator</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>https://cow.fi</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Settlement</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>147928063.7198755</v>
+      </c>
+      <c r="L80" t="n">
+        <v>147921442.0291691</v>
+      </c>
+      <c r="M80" t="n">
+        <v>651970.9433267863</v>
+      </c>
+      <c r="N80" t="n">
+        <v>651932.5697445535</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x7915f9373Ae32d1fcAF0CdF17a532a3D8046D759</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>0x7915f9373Ae32d1fcAF0CdF17a532a3D8046D759</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D81" t="b">
+        <v>0</v>
+      </c>
+      <c r="E81" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>51390656</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>210023.51843139</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x0e240e9A7B40aD11Fdd69f952bA3Bbd29a238BbD</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>0x0e240e9A7B40aD11Fdd69f952bA3Bbd29a238BbD</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D82" t="b">
+        <v>0</v>
+      </c>
+      <c r="E82" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Coinbase Prime Custody</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>32522820</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>142500.20005</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x4a79B0168296c0eF7b8F314973B82aD406a29f1B</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>0x4a79B0168296c0eF7b8F314973B82aD406a29f1B</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D83" t="b">
+        <v>0</v>
+      </c>
+      <c r="E83" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Aerodrome Finance</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>dex</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>https://aerodrome.finance/</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>455890654.2207569</v>
+      </c>
+      <c r="L83" t="n">
+        <v>455914852.0773197</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1990100.135006298</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1990381.432935488</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xDFd5293D8e347dFe59E90eFd55b2956a1343963d</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>0xDFd5293D8e347dFe59E90eFd55b2956a1343963d</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D84" t="b">
+        <v>0</v>
+      </c>
+      <c r="E84" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Binance</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>85081384</v>
+      </c>
+      <c r="L84" t="n">
+        <v>82596718.96956336</v>
+      </c>
+      <c r="M84" t="n">
+        <v>361371.48597064</v>
+      </c>
+      <c r="N84" t="n">
+        <v>353070.32997334</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xBA12222222228d8Ba445958a75a0704d566BF2C8</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>0xBA12222222228d8Ba445958a75a0704d566BF2C8</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D85" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85" t="b">
+        <v>0</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Balancer</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>dex</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>https://balancer.fi</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Vault</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>49542102.70305268</v>
+      </c>
+      <c r="L85" t="n">
+        <v>68235666.26914512</v>
+      </c>
+      <c r="M85" t="n">
+        <v>227327.3850490784</v>
+      </c>
+      <c r="N85" t="n">
+        <v>321690.3018417362</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x5141B82f5fFDa4c6fE1E372978F1C5427640a190</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>0x5141B82f5fFDa4c6fE1E372978F1C5427640a190</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D86" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86" t="b">
+        <v>0</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1inch</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>dex-aggregator</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>https://1inch.io</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>15090973.79170236</v>
+      </c>
+      <c r="L86" t="n">
+        <v>15072928.53182008</v>
+      </c>
+      <c r="M86" t="n">
+        <v>68408.00934532715</v>
+      </c>
+      <c r="N86" t="n">
+        <v>68340.35310863635</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x28C6c06298d514Db089934071355E5743bf21d60</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>0x28C6c06298d514Db089934071355E5743bf21d60</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D87" t="b">
+        <v>0</v>
+      </c>
+      <c r="E87" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Binance</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>380355854.4493408</v>
+      </c>
+      <c r="L87" t="n">
+        <v>357528377.7063138</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1619161.291740744</v>
+      </c>
+      <c r="N87" t="n">
+        <v>1513753.81095976</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x00000000009E50a7dDb7a7B0e2ee6604fd120E49</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>0x00000000009E50a7dDb7a7B0e2ee6604fd120E49</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D88" t="b">
+        <v>1</v>
+      </c>
+      <c r="E88" t="b">
+        <v>0</v>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>MEV Bot</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>12219435.68598628</v>
+      </c>
+      <c r="L88" t="n">
+        <v>11675992.21746159</v>
+      </c>
+      <c r="M88" t="n">
+        <v>59625.49578981777</v>
+      </c>
+      <c r="N88" t="n">
+        <v>57130.62457867306</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x144F2822bcA1D5E51D4C00e5B9cB7bBab0717512</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>0x144F2822bcA1D5E51D4C00e5B9cB7bBab0717512</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D89" t="b">
+        <v>1</v>
+      </c>
+      <c r="E89" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Gnosis Safe Proxy</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>20617164</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>102019.7157959925</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xCD531Ae9EFCCE479654c4926dec5F6209531Ca7b</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>0xCD531Ae9EFCCE479654c4926dec5F6209531Ca7b</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D90" t="b">
+        <v>0</v>
+      </c>
+      <c r="E90" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Coinbase Prime</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>https://www.coinbase.com/prime</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>96110671.93512726</v>
+      </c>
+      <c r="L90" t="n">
+        <v>96012451.66823959</v>
+      </c>
+      <c r="M90" t="n">
+        <v>420171.7476510122</v>
+      </c>
+      <c r="N90" t="n">
+        <v>420221.0345880571</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x4da27a545c0c5B758a6BA100e3a049001de870f5</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>0x4da27a545c0c5B758a6BA100e3a049001de870f5</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D91" t="b">
+        <v>1</v>
+      </c>
+      <c r="E91" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Aave</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>lending-decentralized</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>https://aave.com</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Staked Aave (stkAAVE)</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>23085557.18772466</v>
+      </c>
+      <c r="L91" t="n">
+        <v>22910424.71461909</v>
+      </c>
+      <c r="M91" t="n">
+        <v>103816.2698674115</v>
+      </c>
+      <c r="N91" t="n">
+        <v>103667.4404180129</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xBEE3211ab312a8D065c4FeF0247448e17A8da000</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>0xBEE3211ab312a8D065c4FeF0247448e17A8da000</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D92" t="b">
+        <v>1</v>
+      </c>
+      <c r="E92" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Market Maker</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>22474300.36757088</v>
+      </c>
+      <c r="L92" t="n">
+        <v>22563203.48420578</v>
+      </c>
+      <c r="M92" t="n">
+        <v>99491.18852381808</v>
+      </c>
+      <c r="N92" t="n">
+        <v>99530.79961695471</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xA9D1e08C7793af67e9d92fe308d5697FB81d3E43</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>0xA9D1e08C7793af67e9d92fe308d5697FB81d3E43</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D93" t="b">
+        <v>1</v>
+      </c>
+      <c r="E93" t="b">
+        <v>0</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>122825080.5748291</v>
+      </c>
+      <c r="L93" t="n">
+        <v>121768070.9324498</v>
+      </c>
+      <c r="M93" t="n">
+        <v>537233.7233369328</v>
+      </c>
+      <c r="N93" t="n">
+        <v>532103.1483184012</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x59c38b6775Ded821f010DbD30eCabdCF84E04756</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>0x59c38b6775Ded821f010DbD30eCabdCF84E04756</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D94" t="b">
+        <v>1</v>
+      </c>
+      <c r="E94" t="b">
+        <v>0</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Uniswap</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>dex</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>https://uniswap.org</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>UNI-AAVE 2</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>14309393.20547851</v>
+      </c>
+      <c r="L94" t="n">
+        <v>14322257.67755296</v>
+      </c>
+      <c r="M94" t="n">
+        <v>65785.33155223276</v>
+      </c>
+      <c r="N94" t="n">
+        <v>66079.30472061783</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x8f2E43AaE3b31483B08297D54f3c83ea6AAE830D</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>0x8f2E43AaE3b31483B08297D54f3c83ea6AAE830D</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D95" t="b">
+        <v>0</v>
+      </c>
+      <c r="E95" t="b">
+        <v>0</v>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>13775958.3072052</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>53812.0864970538</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xa9C61FE59b5702b1d382fd1d5e495887ff34c21d</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>0xa9C61FE59b5702b1d382fd1d5e495887ff34c21d</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D96" t="b">
+        <v>0</v>
+      </c>
+      <c r="E96" t="b">
+        <v>0</v>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Binance Deposit</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>11861332.859375</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>53629.68794451279</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x7D94077f58593F8b97c5cAB56c8924E13b49946E</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>0x7D94077f58593F8b97c5cAB56c8924E13b49946E</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D97" t="b">
+        <v>0</v>
+      </c>
+      <c r="E97" t="b">
+        <v>0</v>
+      </c>
+      <c r="F97" t="inlineStr">
         <is>
           <t>Kraken</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>cex</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>https://kraken.com</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Kraken Deposit</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="K57" t="n">
-        <v>860270469</v>
-      </c>
-      <c r="L57" t="n">
-        <v>811177159</v>
-      </c>
-      <c r="M57" t="n">
-        <v>7751.90096559</v>
-      </c>
-      <c r="N57" t="n">
-        <v>7299</v>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>2025-11-06 11:24:05</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>12194635.17284775</v>
+      </c>
+      <c r="L97" t="n">
+        <v>12917719.4240655</v>
+      </c>
+      <c r="M97" t="n">
+        <v>53753.66975164031</v>
+      </c>
+      <c r="N97" t="n">
+        <v>56567.79962875</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x207e1074858A7e78f17002075739eD2745dbaEce</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>0x207e1074858A7e78f17002075739eD2745dbaEce</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D98" t="b">
+        <v>1</v>
+      </c>
+      <c r="E98" t="b">
+        <v>0</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0x</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>dex</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>https://0x.org</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>MainnetSettler</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>25764147.19302137</v>
+      </c>
+      <c r="L98" t="n">
+        <v>25764147.20286313</v>
+      </c>
+      <c r="M98" t="n">
+        <v>115490.2666719229</v>
+      </c>
+      <c r="N98" t="n">
+        <v>115490.2666719229</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x8f85D8d9d232883d63c992DFf303C10DDA2e428F</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>0x8f85D8d9d232883d63c992DFf303C10DDA2e428F</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D99" t="b">
+        <v>0</v>
+      </c>
+      <c r="E99" t="b">
+        <v>0</v>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>HitBTC Deposit</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>19217580.79736328</v>
+      </c>
+      <c r="L99" t="n">
+        <v>19163305.58007812</v>
+      </c>
+      <c r="M99" t="n">
+        <v>84080.42999999999</v>
+      </c>
+      <c r="N99" t="n">
+        <v>83771.46000000001</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x80787af194C33b74a811f5e5c549316269d7Ee1A</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>0x80787af194C33b74a811f5e5c549316269d7Ee1A</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D100" t="b">
+        <v>0</v>
+      </c>
+      <c r="E100" t="b">
+        <v>0</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>HitBTC</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>https://hitbtc.com</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>17434345.82045937</v>
+      </c>
+      <c r="L100" t="n">
+        <v>17703757.12988281</v>
+      </c>
+      <c r="M100" t="n">
+        <v>75892.72251127459</v>
+      </c>
+      <c r="N100" t="n">
+        <v>77449.529962991</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xe705b1D26B85c9F9f91A3690079D336295F14F08</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>0xe705b1D26B85c9F9f91A3690079D336295F14F08</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D101" t="b">
+        <v>1</v>
+      </c>
+      <c r="E101" t="b">
+        <v>0</v>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Gnosis Safe Proxy</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>15078470</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>63464.2432642916</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x21a31Ee1afC51d94C2eFcCAa2092aD1028285549</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>0x21a31Ee1afC51d94C2eFcCAa2092aD1028285549</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D102" t="b">
+        <v>0</v>
+      </c>
+      <c r="E102" t="b">
+        <v>0</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Binance</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>65894492.25</v>
+      </c>
+      <c r="L102" t="n">
+        <v>64934358.41068971</v>
+      </c>
+      <c r="M102" t="n">
+        <v>288606.77838337</v>
+      </c>
+      <c r="N102" t="n">
+        <v>283408.97910554</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xF977814e90dA44bFA03b6295A0616a897441aceC</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>0xF977814e90dA44bFA03b6295A0616a897441aceC</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D103" t="b">
+        <v>0</v>
+      </c>
+      <c r="E103" t="b">
+        <v>0</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Binance</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>124156043.578125</v>
+      </c>
+      <c r="L103" t="n">
+        <v>152651606.5</v>
+      </c>
+      <c r="M103" t="n">
+        <v>521030.564</v>
+      </c>
+      <c r="N103" t="n">
+        <v>616493.512</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x4A4aaA0155237881FBD5C34BfaE16e985A7B068D</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>0x4A4aaA0155237881FBD5C34BfaE16e985A7B068D</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D104" t="b">
+        <v>0</v>
+      </c>
+      <c r="E104" t="b">
+        <v>0</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>OKX</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>https://okx.com</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>19988920.51806641</v>
+      </c>
+      <c r="L104" t="n">
+        <v>19536856.03213501</v>
+      </c>
+      <c r="M104" t="n">
+        <v>85488.07200258999</v>
+      </c>
+      <c r="N104" t="n">
+        <v>83551.05246030999</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x8457cF5BC3B68f2B1f11e5cc9e4293025A72164D</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>0x8457cF5BC3B68f2B1f11e5cc9e4293025A72164D</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D105" t="b">
+        <v>0</v>
+      </c>
+      <c r="E105" t="b">
+        <v>0</v>
+      </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>126571955.125</v>
+      </c>
+      <c r="L105" t="n">
+        <v>126571955.125</v>
+      </c>
+      <c r="M105" t="n">
+        <v>552837.0091480592</v>
+      </c>
+      <c r="N105" t="n">
+        <v>552837.0091480592</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x5aB53EE1d50eeF2C1DD3d5402789cd27bB52c1bB</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>0x5aB53EE1d50eeF2C1DD3d5402789cd27bB52c1bB</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D106" t="b">
+        <v>1</v>
+      </c>
+      <c r="E106" t="b">
+        <v>0</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Uniswap</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>dex</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>https://uniswap.org</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>AAVE</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>97444006.60674548</v>
+      </c>
+      <c r="L106" t="n">
+        <v>96099139.59489797</v>
+      </c>
+      <c r="M106" t="n">
+        <v>440505.6764447956</v>
+      </c>
+      <c r="N106" t="n">
+        <v>433178.4715108361</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xA69babEF1cA67A37Ffaf7a485DfFF3382056e78C</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>0xA69babEF1cA67A37Ffaf7a485DfFF3382056e78C</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D107" t="b">
+        <v>1</v>
+      </c>
+      <c r="E107" t="b">
+        <v>0</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Symbolic Capital Partners</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>https://symbolic.partners</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>MEV Bot</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>34013604.04139829</v>
+      </c>
+      <c r="L107" t="n">
+        <v>34100194.52549982</v>
+      </c>
+      <c r="M107" t="n">
+        <v>149751.4488157835</v>
+      </c>
+      <c r="N107" t="n">
+        <v>149645.1113724684</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xe401A6A38024d8f5aB88f1B08cad476cCaCA45E8</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>0xe401A6A38024d8f5aB88f1B08cad476cCaCA45E8</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D108" t="b">
+        <v>0</v>
+      </c>
+      <c r="E108" t="b">
+        <v>0</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Wintermute</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Bybit Deposit</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>17236102.39648438</v>
+      </c>
+      <c r="L108" t="n">
+        <v>17224393.01171875</v>
+      </c>
+      <c r="M108" t="n">
+        <v>74275.97292372001</v>
+      </c>
+      <c r="N108" t="n">
+        <v>74275.97292371999</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x1157A2076b9bB22a85CC2C162f20fAB3898F4101</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>0x1157A2076b9bB22a85CC2C162f20fAB3898F4101</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D109" t="b">
+        <v>0</v>
+      </c>
+      <c r="E109" t="b">
+        <v>0</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>FalconX</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>https://falconx.io/</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>17148220.12820435</v>
+      </c>
+      <c r="L109" t="n">
+        <v>16042223.48441386</v>
+      </c>
+      <c r="M109" t="n">
+        <v>71210.53569774891</v>
+      </c>
+      <c r="N109" t="n">
+        <v>68998.40253274002</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xE91B373212f8aE32925CbCf39AB3a7B0763C27C9</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>0xE91B373212f8aE32925CbCf39AB3a7B0763C27C9</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D110" t="b">
+        <v>0</v>
+      </c>
+      <c r="E110" t="b">
+        <v>0</v>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Binance Deposit</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>14321610.9375</v>
+      </c>
+      <c r="L110" t="n">
+        <v>14110313.48828125</v>
+      </c>
+      <c r="M110" t="n">
+        <v>62540.41427</v>
+      </c>
+      <c r="N110" t="n">
+        <v>61580.683512</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x0853C577A04B7d6E93580597A03Fd13A95879Be5</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>0x0853C577A04B7d6E93580597A03Fd13A95879Be5</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D111" t="b">
+        <v>0</v>
+      </c>
+      <c r="E111" t="b">
+        <v>0</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>13617062</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>60566.0381165251</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x7f0E5dE4D04229A3A74374300fF11a562401cC39</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>0x7f0E5dE4D04229A3A74374300fF11a562401cC39</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D112" t="b">
+        <v>0</v>
+      </c>
+      <c r="E112" t="b">
+        <v>0</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>12331337</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>54859.58193031099</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xEae7380dD4CeF6fbD1144F49E4D1e6964258A4F4</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>0xEae7380dD4CeF6fbD1144F49E4D1e6964258A4F4</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D113" t="b">
+        <v>0</v>
+      </c>
+      <c r="E113" t="b">
+        <v>0</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Wintermute</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Binance Deposit</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>99322298.83789062</v>
+      </c>
+      <c r="L113" t="n">
+        <v>99230824.95507812</v>
+      </c>
+      <c r="M113" t="n">
+        <v>440540.64179949</v>
+      </c>
+      <c r="N113" t="n">
+        <v>439799.64179949</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x91bf7e6FFA4608FA2280F81D2B23a8b8FB70b14B</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>0x91bf7e6FFA4608FA2280F81D2B23a8b8FB70b14B</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D114" t="b">
+        <v>0</v>
+      </c>
+      <c r="E114" t="b">
+        <v>0</v>
+      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>50614263.72350305</v>
+      </c>
+      <c r="L114" t="n">
+        <v>50616441.27163542</v>
+      </c>
+      <c r="M114" t="n">
+        <v>222426.7630420187</v>
+      </c>
+      <c r="N114" t="n">
+        <v>222436.9841227301</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xAD85405cbB1476825B78a021fa9E543bF7937549</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>0xAD85405cbB1476825B78a021fa9E543bF7937549</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D115" t="b">
+        <v>0</v>
+      </c>
+      <c r="E115" t="b">
+        <v>0</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Bybit</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>https://bybit.com</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>33688619.89726639</v>
+      </c>
+      <c r="L115" t="n">
+        <v>45095277.7058363</v>
+      </c>
+      <c r="M115" t="n">
+        <v>145205.3447057412</v>
+      </c>
+      <c r="N115" t="n">
+        <v>196018.80466237</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xA3222357a0eCCF60C73606170be6c99ADeCb59b3</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>0xA3222357a0eCCF60C73606170be6c99ADeCb59b3</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D116" t="b">
+        <v>1</v>
+      </c>
+      <c r="E116" t="b">
+        <v>0</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>HitBTC</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>https://hitbtc.com</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>21825455.71863556</v>
+      </c>
+      <c r="L116" t="n">
+        <v>21819116.07341957</v>
+      </c>
+      <c r="M116" t="n">
+        <v>95967.829071552</v>
+      </c>
+      <c r="N116" t="n">
+        <v>95994.80512403</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x0D0707963952f2fBA59dD06f2b425ace40b492Fe</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>0x0D0707963952f2fBA59dD06f2b425ace40b492Fe</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D117" t="b">
+        <v>0</v>
+      </c>
+      <c r="E117" t="b">
+        <v>0</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>https://gate.com</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>14311194.56970215</v>
+      </c>
+      <c r="L117" t="n">
+        <v>14579455.31823664</v>
+      </c>
+      <c r="M117" t="n">
+        <v>64219.88161150154</v>
+      </c>
+      <c r="N117" t="n">
+        <v>66486.75334418482</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xC36442b4a4522E871399CD717aBDD847Ab11FE88</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>0xC36442b4a4522E871399CD717aBDD847Ab11FE88</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D118" t="b">
+        <v>1</v>
+      </c>
+      <c r="E118" t="b">
+        <v>0</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Uniswap</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>dex</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>https://uniswap.org</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Nonfungible Position Manager</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>11332679.31413581</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>52238.51771214745</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xf3fB9691c4BFF980C0352339fb297c5bF52Dd354</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>0xf3fB9691c4BFF980C0352339fb297c5bF52Dd354</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D119" t="b">
+        <v>0</v>
+      </c>
+      <c r="E119" t="b">
+        <v>0</v>
+      </c>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>395451137.0029582</v>
+      </c>
+      <c r="L119" t="n">
+        <v>395453190.1060047</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1731845.17195943</v>
+      </c>
+      <c r="N119" t="n">
+        <v>1731874.924348213</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x3E312eDdAaEd13db65178a8036a8b715f645A746</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>0x3E312eDdAaEd13db65178a8036a8b715f645A746</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D120" t="b">
+        <v>1</v>
+      </c>
+      <c r="E120" t="b">
+        <v>0</v>
+      </c>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Gnosis Safe Proxy</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>56632208</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>220213.1159152478</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xF8daFA064D7BB863121305449577d4e56DC854F2</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>0xF8daFA064D7BB863121305449577d4e56DC854F2</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D121" t="b">
+        <v>0</v>
+      </c>
+      <c r="E121" t="b">
+        <v>0</v>
+      </c>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Coinbase Prime Custody</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>20093321.21875</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>89481.2390663055</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x51C72848c68a965f66FA7a88855F9f7784502a7F</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>0x51C72848c68a965f66FA7a88855F9f7784502a7F</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D122" t="b">
+        <v>1</v>
+      </c>
+      <c r="E122" t="b">
+        <v>0</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Wintermute</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Market Maker</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>90873947.58299364</v>
+      </c>
+      <c r="L122" t="n">
+        <v>90925472.55270055</v>
+      </c>
+      <c r="M122" t="n">
+        <v>405527.2573342603</v>
+      </c>
+      <c r="N122" t="n">
+        <v>404989.0931817436</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>2025-11-06 11:41:38</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>aave</t>
         </is>
       </c>
     </row>

--- a/data_cripto/top_flow.xlsx
+++ b/data_cripto/top_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P122"/>
+  <dimension ref="A1:P118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,12 +518,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q39u0yxprsz6ucq93pgtxksk7ncr4900ypvkwcw</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qn2cpj0hrl37wqh5q94kwrlhtj2lx8ahtw7ef5rg35tswxsqtvufqfmmrq2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bc1q39u0yxprsz6ucq93pgtxksk7ncr4900ypvkwcw</t>
+          <t>bc1qn2cpj0hrl37wqh5q94kwrlhtj2lx8ahtw7ef5rg35tswxsqtvufqfmmrq2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>BIT.com (Matrixport)</t>
+          <t>OKX</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -547,26 +547,34 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.bit.com/</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>https://okx.com</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K2" t="n">
-        <v>646100014.4765625</v>
+        <v>1424589147.75182</v>
       </c>
       <c r="L2" t="n">
-        <v>696438762.8885479</v>
+        <v>1396438611.731697</v>
       </c>
       <c r="M2" t="n">
-        <v>7094.93213276</v>
+        <v>15859.2783239</v>
       </c>
       <c r="N2" t="n">
-        <v>7642.15228998</v>
+        <v>15537.37228276</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -578,12 +586,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1KbDEg1tDz2ErYgaDbaDhhawnLrSQFaFx5</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q8s3h3vw5xufdas890q29lpuca56r0ezqar0mvs</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1KbDEg1tDz2ErYgaDbaDhhawnLrSQFaFx5</t>
+          <t>bc1q8s3h3vw5xufdas890q29lpuca56r0ezqar0mvs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -597,7 +605,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Wintermute</t>
+          <t>Cumberland DRW</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -607,34 +615,26 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.wintermute.com/</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Binance Deposit</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://cumberland.io</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>3928019459.950035</v>
+        <v>653132819.2519331</v>
       </c>
       <c r="L3" t="n">
-        <v>3921619866.397234</v>
+        <v>818085603.7536094</v>
       </c>
       <c r="M3" t="n">
-        <v>44025.1958708</v>
+        <v>7306.71483743</v>
       </c>
       <c r="N3" t="n">
-        <v>43974.59583264</v>
+        <v>9197.101943080001</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -646,12 +646,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q9exg34dkmgxu28yektgn929jpjpzukhhl2r3zr</t>
+          <t>https://intel.arkm.com/explorer/address/38UmuUqPCrFmQo4khkomQwZ4VbY2nZMJ67</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>bc1q9exg34dkmgxu28yektgn929jpjpzukhhl2r3zr</t>
+          <t>38UmuUqPCrFmQo4khkomQwZ4VbY2nZMJ67</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -665,22 +665,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Wintermute</t>
+          <t>Gemini</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.wintermute.com/</t>
+          <t>https://gemini.com</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -689,20 +689,20 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>1978531124.448892</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1982562333.843677</v>
+        <v>783071248</v>
       </c>
       <c r="M4" t="n">
-        <v>22003.70536965</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>22049.40654723</v>
+        <v>9040.021983999999</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -714,12 +714,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3P4Fjuyn8SMeMV3SVCLUw88zhTk38aqCB8</t>
+          <t>https://intel.arkm.com/explorer/address/172jzPTGhtRR2SafHQDz3f7CTFrM4bjrxb</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3P4Fjuyn8SMeMV3SVCLUw88zhTk38aqCB8</t>
+          <t>172jzPTGhtRR2SafHQDz3f7CTFrM4bjrxb</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -737,20 +737,20 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>888877632</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>680275008</v>
       </c>
       <c r="M5" t="n">
-        <v>10144.91999566</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>7659.20237716</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -762,12 +762,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q32lyrhp9zpww22phqjwwmelta0c8a5q990ghs6</t>
+          <t>https://intel.arkm.com/explorer/address/3MqUP6G1daVS5YTD8fz3QgwjZortWwxXFd</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>bc1q32lyrhp9zpww22phqjwwmelta0c8a5q990ghs6</t>
+          <t>3MqUP6G1daVS5YTD8fz3QgwjZortWwxXFd</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -781,22 +781,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ceffu</t>
+          <t>Coinbase Prime</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>custodian</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.ceffu.com/</t>
+          <t>https://www.coinbase.com/prime</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Custody Cold Wallet</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -805,20 +805,20 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>11170504088.07761</v>
       </c>
       <c r="L6" t="n">
-        <v>813936864</v>
+        <v>11195895618.10186</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>125387.55065759</v>
       </c>
       <c r="N6" t="n">
-        <v>9232.000023819999</v>
+        <v>125780.53458842</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -830,12 +830,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/352zzNHvsBTaUUNzqB5xbMo8EYdpvHJQB2</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qx9n80t5q7tfmutzaj0ramzzzsvtveara68zntc</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>352zzNHvsBTaUUNzqB5xbMo8EYdpvHJQB2</t>
+          <t>bc1qx9n80t5q7tfmutzaj0ramzzzsvtveara68zntc</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -859,26 +859,34 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+          <t>https://kraken.com</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K7" t="n">
-        <v>3344647179.875061</v>
+        <v>3892082398.341031</v>
       </c>
       <c r="L7" t="n">
-        <v>3338377165.335304</v>
+        <v>4733369830.743248</v>
       </c>
       <c r="M7" t="n">
-        <v>37443.39793629</v>
+        <v>43533.44979845</v>
       </c>
       <c r="N7" t="n">
-        <v>37369.24704835</v>
+        <v>52737.12942108</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -890,12 +898,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1PHpKcFBaUcNadBKEWutz3uMTWKupe8QHq</t>
+          <t>https://intel.arkm.com/explorer/address/352zzNHvsBTaUUNzqB5xbMo8EYdpvHJQB2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1PHpKcFBaUcNadBKEWutz3uMTWKupe8QHq</t>
+          <t>352zzNHvsBTaUUNzqB5xbMo8EYdpvHJQB2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -907,26 +915,38 @@
       <c r="E8" t="b">
         <v>0</v>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>680212864</v>
+        <v>3344647179.875061</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>3338377165.335304</v>
       </c>
       <c r="M8" t="n">
-        <v>7658.50237493</v>
+        <v>37443.39793629</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>37369.24704835</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -938,12 +958,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1pueepze0zflc9vhtmt2tjhnp8d73f2lmle27wxvk6z6crh73ju9nsjw0qkx</t>
+          <t>https://intel.arkm.com/explorer/address/bc1quhruqrghgcca950rvhtrg7cpd7u8k6svpzgzmrjy8xyukacl5lkq0r8l2d</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>bc1pueepze0zflc9vhtmt2tjhnp8d73f2lmle27wxvk6z6crh73ju9nsjw0qkx</t>
+          <t>bc1quhruqrghgcca950rvhtrg7cpd7u8k6svpzgzmrjy8xyukacl5lkq0r8l2d</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -955,26 +975,46 @@
       <c r="E9" t="b">
         <v>0</v>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>OKX</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://okx.com</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K9" t="n">
-        <v>594554368</v>
+        <v>2900699859.612973</v>
       </c>
       <c r="L9" t="n">
-        <v>601296192</v>
+        <v>2940150018.49935</v>
       </c>
       <c r="M9" t="n">
-        <v>6600</v>
+        <v>32402.6396545</v>
       </c>
       <c r="N9" t="n">
-        <v>6505.00001542</v>
+        <v>32815.0988747</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -986,12 +1026,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qukw69mjxwp30adfqddv6gcyva26laxz562rhlk</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q7cyrfmck2ffu2ud3rn5l5a8yv6f0chkp0zpemf</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>bc1qukw69mjxwp30adfqddv6gcyva26laxz562rhlk</t>
+          <t>bc1q7cyrfmck2ffu2ud3rn5l5a8yv6f0chkp0zpemf</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1005,7 +1045,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Kraken</t>
+          <t>Crypto.com</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1015,12 +1055,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://kraken.com</t>
+          <t>https://crypto.com</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1029,20 +1069,20 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>914080000</v>
+        <v>1408431485.534853</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1510397695.810257</v>
       </c>
       <c r="M10" t="n">
-        <v>10000</v>
+        <v>15895.03023084</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>17037.68499184</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1054,12 +1094,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/324H9uyTV9bPgAVgmdJNxPKKKZmowk5CYq</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qukw69mjxwp30adfqddv6gcyva26laxz562rhlk</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>324H9uyTV9bPgAVgmdJNxPKKKZmowk5CYq</t>
+          <t>bc1qukw69mjxwp30adfqddv6gcyva26laxz562rhlk</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1073,7 +1113,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Bullish.com</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1083,12 +1123,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://bullish.com/</t>
+          <t>https://kraken.com</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1097,20 +1137,20 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>584107555.25</v>
+        <v>914080000</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>6545.66901257</v>
+        <v>10000</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1122,12 +1162,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qppunwskzl7t3mtmcarlvpxjuzd8jy7l7ga49av2c78xg47fujncsrc76y6</t>
+          <t>https://intel.arkm.com/explorer/address/3EX1HHEwPtkxitrcYpymHFWu91LNsn8wD4</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>bc1qppunwskzl7t3mtmcarlvpxjuzd8jy7l7ga49av2c78xg47fujncsrc76y6</t>
+          <t>3EX1HHEwPtkxitrcYpymHFWu91LNsn8wD4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1139,46 +1179,26 @@
       <c r="E12" t="b">
         <v>0</v>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Bitstamp</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>https://bitstamp.net</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>1505931023.630524</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1501856483.870094</v>
+        <v>884654976</v>
       </c>
       <c r="M12" t="n">
-        <v>16831.30497832</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>16788.3207455</v>
+        <v>10051.07</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1190,12 +1210,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/38rFtDdFpXc4y6XPbSnNd2UvveEt5Xms2E</t>
+          <t>https://intel.arkm.com/explorer/address/335umQ4egqMjDo6wSXYwQZYPntZzMveNTJ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>38rFtDdFpXc4y6XPbSnNd2UvveEt5Xms2E</t>
+          <t>335umQ4egqMjDo6wSXYwQZYPntZzMveNTJ</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1209,36 +1229,36 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Twenty One Capital</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://xxi.money/</t>
+          <t>https://coinbase.com</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>1467052160</v>
+        <v>1767837040.9375</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1707554703.6875</v>
       </c>
       <c r="M13" t="n">
-        <v>16116.31574065</v>
+        <v>20025.39375</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>19331.104365</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1250,12 +1270,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1quq29mutxkgxmjfdr7ayj3zd9ad0ld5mrhh89l2</t>
+          <t>https://intel.arkm.com/explorer/address/3BHXygmhNMaCcNn76S8DLdnZ5ucPtNtWGb</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>bc1quq29mutxkgxmjfdr7ayj3zd9ad0ld5mrhh89l2</t>
+          <t>3BHXygmhNMaCcNn76S8DLdnZ5ucPtNtWGb</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1269,17 +1289,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>Cobo.com</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>custodian</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://gemini.com</t>
+          <t>https://www.cobo.com</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1293,20 +1313,20 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>906949303.5648518</v>
+        <v>623006648</v>
       </c>
       <c r="L14" t="n">
-        <v>969853792.7012601</v>
+        <v>825507470.1922379</v>
       </c>
       <c r="M14" t="n">
-        <v>10424.36435702</v>
+        <v>6975.49974085</v>
       </c>
       <c r="N14" t="n">
-        <v>11133.11994637</v>
+        <v>9367.857551769999</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1318,12 +1338,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qn2cpj0hrl37wqh5q94kwrlhtj2lx8ahtw7ef5rg35tswxsqtvufqfmmrq2</t>
+          <t>https://intel.arkm.com/explorer/address/bc1p79rzpjn2f0puzc5lr5vxvrh23eytnqgcfhw4pcjj8gkep2slp2es92e2zp</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>bc1qn2cpj0hrl37wqh5q94kwrlhtj2lx8ahtw7ef5rg35tswxsqtvufqfmmrq2</t>
+          <t>bc1p79rzpjn2f0puzc5lr5vxvrh23eytnqgcfhw4pcjj8gkep2slp2es92e2zp</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1335,46 +1355,26 @@
       <c r="E15" t="b">
         <v>0</v>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>OKX</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>https://okx.com</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>1424589147.75182</v>
+        <v>601296192</v>
       </c>
       <c r="L15" t="n">
-        <v>1396438611.731697</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>15859.2783239</v>
+        <v>6505</v>
       </c>
       <c r="N15" t="n">
-        <v>15537.37228276</v>
+        <v>0</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1386,12 +1386,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qr3vnyhhj7kd7ngs05xxm2yf0ma5gt6xvxmc0a6v2cj9mjzn6mvrqeek94m</t>
+          <t>https://intel.arkm.com/explorer/address/3JBM969wvpxEnfYLQ3LYayB3DVk52ZZpGq</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>bc1qr3vnyhhj7kd7ngs05xxm2yf0ma5gt6xvxmc0a6v2cj9mjzn6mvrqeek94m</t>
+          <t>3JBM969wvpxEnfYLQ3LYayB3DVk52ZZpGq</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1409,20 +1409,20 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>555650176</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>888877632</v>
       </c>
       <c r="M16" t="n">
-        <v>6103.49698782</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>10144.92</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1434,12 +1434,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1Pzaqw98PeRfyHypfqyEgg5yycJRsENrE7</t>
+          <t>https://intel.arkm.com/explorer/address/3HNFTegz1nSDjoq8iepW5wMxDZCcVq1VuC</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1Pzaqw98PeRfyHypfqyEgg5yycJRsENrE7</t>
+          <t>3HNFTegz1nSDjoq8iepW5wMxDZCcVq1VuC</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1453,44 +1453,36 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Twenty One Capital</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://xxi.money/</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>3911275520</v>
       </c>
       <c r="L17" t="n">
-        <v>832150016</v>
+        <v>3917300224</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>43033.54017238</v>
       </c>
       <c r="N17" t="n">
-        <v>9000.0000896</v>
+        <v>43033.54017238</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1502,12 +1494,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/15DomY3arDPw5jD658Mbf3AY3wT3YCDmW2</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>15DomY3arDPw5jD658Mbf3AY3wT3YCDmW2</t>
+          <t>bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1521,17 +1513,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Wintermute</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.wintermute.com/</t>
+          <t>https://binance.com</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1545,20 +1537,20 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>3669669829.282357</v>
+        <v>17854163436.14655</v>
       </c>
       <c r="L18" t="n">
-        <v>3667521690.1875</v>
+        <v>18094920782.87207</v>
       </c>
       <c r="M18" t="n">
-        <v>40614.83339002</v>
+        <v>200221.03269738</v>
       </c>
       <c r="N18" t="n">
-        <v>40614.83339002</v>
+        <v>202643.58942874</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1570,12 +1562,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1DLeNApsHNNzUMNZJVoXeyEY5sdp8vzx3w</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qptc9cz269u2mc5yguun5a5d6yd5c7f7ne4qj26</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1DLeNApsHNNzUMNZJVoXeyEY5sdp8vzx3w</t>
+          <t>bc1qptc9cz269u2mc5yguun5a5d6yd5c7f7ne4qj26</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1587,46 +1579,26 @@
       <c r="E19" t="b">
         <v>0</v>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Bybit</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>https://bybit.com</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>1870857946.326093</v>
+        <v>1408599936</v>
       </c>
       <c r="L19" t="n">
-        <v>1959785115.6929</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>20963.14796699</v>
+        <v>16400.04537828</v>
       </c>
       <c r="N19" t="n">
-        <v>21973.24557677</v>
+        <v>0</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1638,12 +1610,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/335umQ4egqMjDo6wSXYwQZYPntZzMveNTJ</t>
+          <t>https://intel.arkm.com/explorer/address/12DezRFkKToAiLTDNru1g7FuvtAWMwCZ7N</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>335umQ4egqMjDo6wSXYwQZYPntZzMveNTJ</t>
+          <t>12DezRFkKToAiLTDNru1g7FuvtAWMwCZ7N</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1670,23 +1642,31 @@
           <t>https://coinbase.com</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K20" t="n">
-        <v>1767837040.9375</v>
+        <v>3556129904.199023</v>
       </c>
       <c r="L20" t="n">
-        <v>1707554703.6875</v>
+        <v>3553145654.21875</v>
       </c>
       <c r="M20" t="n">
-        <v>20025.39375</v>
+        <v>39875.0610372</v>
       </c>
       <c r="N20" t="n">
-        <v>19331.104365</v>
+        <v>39861.64118559</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1698,12 +1678,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q77fg8d7xjye7vq2m9ws7qvwuw9k0src4k9yrdn82e4l63swfh3yse4te95</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qppunwskzl7t3mtmcarlvpxjuzd8jy7l7ga49av2c78xg47fujncsrc76y6</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>bc1q77fg8d7xjye7vq2m9ws7qvwuw9k0src4k9yrdn82e4l63swfh3yse4te95</t>
+          <t>bc1qppunwskzl7t3mtmcarlvpxjuzd8jy7l7ga49av2c78xg47fujncsrc76y6</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1717,7 +1697,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>BTC Markets</t>
+          <t>Bitstamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1727,7 +1707,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.btcmarkets.net/</t>
+          <t>https://bitstamp.net</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1741,20 +1721,20 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>535710304</v>
+        <v>1505931023.630524</v>
       </c>
       <c r="L21" t="n">
-        <v>555461248</v>
+        <v>1501856483.870094</v>
       </c>
       <c r="M21" t="n">
-        <v>6103.5</v>
+        <v>16831.30497832</v>
       </c>
       <c r="N21" t="n">
-        <v>6103.5</v>
+        <v>16788.3207455</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -1766,12 +1746,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q8qpfmpf6hcu3tgfvp8dgtf534rws8uhsl9vtk6p2f3r2gnqdz5sqxmty6q</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q42kvqt0e3f27qhd2ucnprarl5ywpuj7tu0h9v2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>bc1q8qpfmpf6hcu3tgfvp8dgtf534rws8uhsl9vtk6p2f3r2gnqdz5sqxmty6q</t>
+          <t>bc1q42kvqt0e3f27qhd2ucnprarl5ywpuj7tu0h9v2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1785,36 +1765,44 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Twenty One Capital</t>
+          <t>FalconX</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://xxi.money/</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+          <t>https://falconx.io/</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1293191723.581428</v>
       </c>
       <c r="L22" t="n">
-        <v>1684128000</v>
+        <v>1240726836.572441</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>14625.21759578</v>
       </c>
       <c r="N22" t="n">
-        <v>18422.68366374</v>
+        <v>14064.10096563</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -1826,12 +1814,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/37GgrfZcywSLuBpQDf1t6aJicWzHRf2GFB</t>
+          <t>https://intel.arkm.com/explorer/address/3BPAodH6WkNQC8TUrnwFKhETiFacNUi68X</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>37GgrfZcywSLuBpQDf1t6aJicWzHRf2GFB</t>
+          <t>3BPAodH6WkNQC8TUrnwFKhETiFacNUi68X</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1843,26 +1831,46 @@
       <c r="E23" t="b">
         <v>0</v>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Cobo.com</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>custodian</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>https://www.cobo.com</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Cobo Custody</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K23" t="n">
-        <v>2450247936</v>
+        <v>795914068.5459976</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>760194701.9250031</v>
       </c>
       <c r="M23" t="n">
-        <v>26917.22442797</v>
+        <v>9025.414599989999</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>8652.49889999</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -1874,12 +1882,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1GrwDkr33gT6LuumniYjKEGjTLhsL5kmqC</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q77fg8d7xjye7vq2m9ws7qvwuw9k0src4k9yrdn82e4l63swfh3yse4te95</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1GrwDkr33gT6LuumniYjKEGjTLhsL5kmqC</t>
+          <t>bc1q77fg8d7xjye7vq2m9ws7qvwuw9k0src4k9yrdn82e4l63swfh3yse4te95</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1893,7 +1901,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bybit</t>
+          <t>BTC Markets</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1903,12 +1911,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://bybit.com</t>
+          <t>https://www.btcmarkets.net/</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1917,20 +1925,20 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>1990060391.554093</v>
+        <v>535710304</v>
       </c>
       <c r="L24" t="n">
-        <v>1902818206.953564</v>
+        <v>555461248</v>
       </c>
       <c r="M24" t="n">
-        <v>22306.41173052</v>
+        <v>6103.5</v>
       </c>
       <c r="N24" t="n">
-        <v>21326.94126733</v>
+        <v>6103.5</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -1942,12 +1950,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1AZ7aYCT6JPLF1EZ7PgymfFtH4xK44CcCP</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qumvs45e69rvfd9vqknzyz9wg0xzvnhmx6mt3cc</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1AZ7aYCT6JPLF1EZ7PgymfFtH4xK44CcCP</t>
+          <t>bc1qumvs45e69rvfd9vqknzyz9wg0xzvnhmx6mt3cc</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1959,12 +1967,24 @@
       <c r="E25" t="b">
         <v>0</v>
       </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Kraken</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>https://kraken.com</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Binance Deposit</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1973,20 +1993,20 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>776366003.1653225</v>
+        <v>547316000</v>
       </c>
       <c r="L25" t="n">
-        <v>803076709.2502198</v>
+        <v>594554432</v>
       </c>
       <c r="M25" t="n">
-        <v>8779.96381976</v>
+        <v>6000</v>
       </c>
       <c r="N25" t="n">
-        <v>9058.31459953</v>
+        <v>6600.00001074</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -1998,12 +2018,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qactqjuk4kghfgaqqt454hzzzs5lsaysunf80gh</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q9exg34dkmgxu28yektgn929jpjpzukhhl2r3zr</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>bc1qactqjuk4kghfgaqqt454hzzzs5lsaysunf80gh</t>
+          <t>bc1q9exg34dkmgxu28yektgn929jpjpzukhhl2r3zr</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2015,26 +2035,46 @@
       <c r="E26" t="b">
         <v>0</v>
       </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Wintermute</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K26" t="n">
-        <v>3344572546.05927</v>
+        <v>1978531124.448892</v>
       </c>
       <c r="L26" t="n">
-        <v>3344655962.358459</v>
+        <v>1982562333.843677</v>
       </c>
       <c r="M26" t="n">
-        <v>37443.49651657</v>
+        <v>22003.70536965</v>
       </c>
       <c r="N26" t="n">
-        <v>37443.49651357</v>
+        <v>22049.40654723</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2046,12 +2086,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qq393eyjh8hdjvcchy0mxquhh9wx8h3kzlkchfs</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q0d3k8zue8z5ztqt0r35rsd7gua5z4ser6gt46c</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>bc1qq393eyjh8hdjvcchy0mxquhh9wx8h3kzlkchfs</t>
+          <t>bc1q0d3k8zue8z5ztqt0r35rsd7gua5z4ser6gt46c</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2065,22 +2105,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ceffu</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>custodian</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.ceffu.com/</t>
+          <t>https://coinbase.com</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Custody Hot Wallet</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2089,20 +2129,20 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>852644368.7340088</v>
+        <v>1186042410.737006</v>
       </c>
       <c r="L27" t="n">
-        <v>867968884.4179592</v>
+        <v>1229654491.965073</v>
       </c>
       <c r="M27" t="n">
-        <v>9679.410766450001</v>
+        <v>13279.13984605</v>
       </c>
       <c r="N27" t="n">
-        <v>9850.92796001</v>
+        <v>13769.05764513</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2114,12 +2154,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3BHXygmhNMaCcNn76S8DLdnZ5ucPtNtWGb</t>
+          <t>https://intel.arkm.com/explorer/address/3EDiYUZpcEjBvaD7yiZfjx68hhXH6bYyZy</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3BHXygmhNMaCcNn76S8DLdnZ5ucPtNtWGb</t>
+          <t>3EDiYUZpcEjBvaD7yiZfjx68hhXH6bYyZy</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2133,44 +2173,36 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Cobo.com</t>
+          <t>Bitstamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>custodian</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.cobo.com</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://bitstamp.net</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>623006648</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>825507470.1922379</v>
+        <v>653720361</v>
       </c>
       <c r="M28" t="n">
-        <v>6975.49974085</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>9367.857551769999</v>
+        <v>7267.13931</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2182,12 +2214,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3MEa4sPyGLCf2xQR5k68gUsxYSosJ6UhJh</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q8qpfmpf6hcu3tgfvp8dgtf534rws8uhsl9vtk6p2f3r2gnqdz5sqxmty6q</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3MEa4sPyGLCf2xQR5k68gUsxYSosJ6UhJh</t>
+          <t>bc1q8qpfmpf6hcu3tgfvp8dgtf534rws8uhsl9vtk6p2f3r2gnqdz5sqxmty6q</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2217,20 +2249,20 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>3933954304</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>3911275520</v>
+        <v>1684128000</v>
       </c>
       <c r="M29" t="n">
-        <v>43033.5411757</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>43033.5411757</v>
+        <v>18422.68366374</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2242,12 +2274,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qptc9cz269u2mc5yguun5a5d6yd5c7f7ne4qj26</t>
+          <t>https://intel.arkm.com/explorer/address/bc1quq29mutxkgxmjfdr7ayj3zd9ad0ld5mrhh89l2</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>bc1qptc9cz269u2mc5yguun5a5d6yd5c7f7ne4qj26</t>
+          <t>bc1quq29mutxkgxmjfdr7ayj3zd9ad0ld5mrhh89l2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2259,26 +2291,46 @@
       <c r="E30" t="b">
         <v>0</v>
       </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>https://gemini.com</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K30" t="n">
-        <v>1408599936</v>
+        <v>906949303.5648518</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>969853792.7012601</v>
       </c>
       <c r="M30" t="n">
-        <v>16400.04537828</v>
+        <v>10424.36435702</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>11133.11994637</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2290,12 +2342,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1NBYWqtQvWmT7hzEB11XyGjHp4G177AVgz</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qq393eyjh8hdjvcchy0mxquhh9wx8h3kzlkchfs</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1NBYWqtQvWmT7hzEB11XyGjHp4G177AVgz</t>
+          <t>bc1qq393eyjh8hdjvcchy0mxquhh9wx8h3kzlkchfs</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2309,36 +2361,44 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>BIT.com (Matrixport)</t>
+          <t>Ceffu</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>custodian</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.bit.com/</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+          <t>https://www.ceffu.com/</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Custody Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K31" t="n">
-        <v>654008380.3554382</v>
+        <v>852644368.7340088</v>
       </c>
       <c r="L31" t="n">
-        <v>583143152.8427734</v>
+        <v>867968884.4179592</v>
       </c>
       <c r="M31" t="n">
-        <v>7192.12398613</v>
+        <v>9679.410766450001</v>
       </c>
       <c r="N31" t="n">
-        <v>6413.17433358</v>
+        <v>9850.92796001</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2350,12 +2410,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qssl3tj9ldf4h4km6najk8648epy6wrsz9k8j50njjs9l96gp4d4susha2t</t>
+          <t>https://intel.arkm.com/explorer/address/36YZXcTVLPdyapYuqXdJEt46oMVB2NrzVv</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>bc1qssl3tj9ldf4h4km6najk8648epy6wrsz9k8j50njjs9l96gp4d4susha2t</t>
+          <t>36YZXcTVLPdyapYuqXdJEt46oMVB2NrzVv</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2370,23 +2430,31 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Coinbase Prime Deposit</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K32" t="n">
-        <v>555461056</v>
+        <v>1887504111.5</v>
       </c>
       <c r="L32" t="n">
-        <v>555650240</v>
+        <v>1959533004</v>
       </c>
       <c r="M32" t="n">
-        <v>6103.49799148</v>
+        <v>21389.41555251</v>
       </c>
       <c r="N32" t="n">
-        <v>6103.49799148</v>
+        <v>22193.34794288</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -2398,12 +2466,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/38UmuUqPCrFmQo4khkomQwZ4VbY2nZMJ67</t>
+          <t>https://intel.arkm.com/explorer/address/1NBYWqtQvWmT7hzEB11XyGjHp4G177AVgz</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>38UmuUqPCrFmQo4khkomQwZ4VbY2nZMJ67</t>
+          <t>1NBYWqtQvWmT7hzEB11XyGjHp4G177AVgz</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2417,7 +2485,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>BIT.com (Matrixport)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2427,34 +2495,26 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://gemini.com</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://www.bit.com/</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>654008380.3554382</v>
       </c>
       <c r="L33" t="n">
-        <v>783071248</v>
+        <v>583143152.8427734</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>7192.12398613</v>
       </c>
       <c r="N33" t="n">
-        <v>9040.021983999999</v>
+        <v>6413.17433358</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -2466,12 +2526,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qx9n80t5q7tfmutzaj0ramzzzsvtveara68zntc</t>
+          <t>https://intel.arkm.com/explorer/address/3MEa4sPyGLCf2xQR5k68gUsxYSosJ6UhJh</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>bc1qx9n80t5q7tfmutzaj0ramzzzsvtveara68zntc</t>
+          <t>3MEa4sPyGLCf2xQR5k68gUsxYSosJ6UhJh</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2485,44 +2545,36 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Kraken</t>
+          <t>Twenty One Capital</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://kraken.com</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://xxi.money/</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>3892082398.341031</v>
+        <v>3933954304</v>
       </c>
       <c r="L34" t="n">
-        <v>4733369830.743248</v>
+        <v>3911275520</v>
       </c>
       <c r="M34" t="n">
-        <v>43533.44979845</v>
+        <v>43033.5411757</v>
       </c>
       <c r="N34" t="n">
-        <v>52737.12942108</v>
+        <v>43033.5411757</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -2534,12 +2586,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/12XZMdaAGmcHf4ocFSqpd8jFd1WH7RHUPs</t>
+          <t>https://intel.arkm.com/explorer/address/1DLeNApsHNNzUMNZJVoXeyEY5sdp8vzx3w</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>12XZMdaAGmcHf4ocFSqpd8jFd1WH7RHUPs</t>
+          <t>1DLeNApsHNNzUMNZJVoXeyEY5sdp8vzx3w</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2577,20 +2629,20 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>1615099708.609058</v>
+        <v>1870857946.326093</v>
       </c>
       <c r="L35" t="n">
-        <v>1713250918.062233</v>
+        <v>1959785115.6929</v>
       </c>
       <c r="M35" t="n">
-        <v>18126.60821746</v>
+        <v>20963.14796699</v>
       </c>
       <c r="N35" t="n">
-        <v>19236.32555194</v>
+        <v>21973.24557677</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -2602,12 +2654,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q32x2xd0k5vreyha87hl0ag45nhxv8w0csrztfsactjewez092edqsy6ek8</t>
+          <t>https://intel.arkm.com/explorer/address/38rFtDdFpXc4y6XPbSnNd2UvveEt5Xms2E</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>bc1q32x2xd0k5vreyha87hl0ag45nhxv8w0csrztfsactjewez092edqsy6ek8</t>
+          <t>38rFtDdFpXc4y6XPbSnNd2UvveEt5Xms2E</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2619,26 +2671,38 @@
       <c r="E36" t="b">
         <v>0</v>
       </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Twenty One Capital</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>https://xxi.money/</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>555461120</v>
+        <v>1467052160</v>
       </c>
       <c r="L36" t="n">
-        <v>555461120</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>6103.49899514</v>
+        <v>16116.31574065</v>
       </c>
       <c r="N36" t="n">
-        <v>6103.49899514</v>
+        <v>0</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -2650,12 +2714,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q8s3h3vw5xufdas890q29lpuca56r0ezqar0mvs</t>
+          <t>https://intel.arkm.com/explorer/address/1AZ7aYCT6JPLF1EZ7PgymfFtH4xK44CcCP</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>bc1q8s3h3vw5xufdas890q29lpuca56r0ezqar0mvs</t>
+          <t>1AZ7aYCT6JPLF1EZ7PgymfFtH4xK44CcCP</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2667,38 +2731,34 @@
       <c r="E37" t="b">
         <v>0</v>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Cumberland DRW</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>https://cumberland.io</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Binance Deposit</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K37" t="n">
-        <v>653132819.2519331</v>
+        <v>776366003.1653225</v>
       </c>
       <c r="L37" t="n">
-        <v>818085603.7536094</v>
+        <v>803076709.2502198</v>
       </c>
       <c r="M37" t="n">
-        <v>7306.71483743</v>
+        <v>8779.96381976</v>
       </c>
       <c r="N37" t="n">
-        <v>9197.101943080001</v>
+        <v>9058.31459953</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -2710,12 +2770,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qttmz4kvr8tr6alvmn3zpd5mg53e787rq8v06z0qyqrru4992hsmqxnzkyl</t>
+          <t>https://intel.arkm.com/explorer/address/1GrwDkr33gT6LuumniYjKEGjTLhsL5kmqC</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>bc1qttmz4kvr8tr6alvmn3zpd5mg53e787rq8v06z0qyqrru4992hsmqxnzkyl</t>
+          <t>1GrwDkr33gT6LuumniYjKEGjTLhsL5kmqC</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2727,26 +2787,46 @@
       <c r="E38" t="b">
         <v>0</v>
       </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Bybit</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>https://bybit.com</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1990060391.554093</v>
       </c>
       <c r="L38" t="n">
-        <v>890992256</v>
+        <v>1902818206.953564</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>22306.41173052</v>
       </c>
       <c r="N38" t="n">
-        <v>10113.64902039</v>
+        <v>21326.94126733</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -2758,12 +2838,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q4uccuzje5y77tajhgguzj3dut0rjkkq6thym8u2xvqhqn4zykrlsfsyhvl</t>
+          <t>https://intel.arkm.com/explorer/address/34PhCF947JMQtCn7FD1J3Xd3c2VSxAwda8</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>bc1q4uccuzje5y77tajhgguzj3dut0rjkkq6thym8u2xvqhqn4zykrlsfsyhvl</t>
+          <t>34PhCF947JMQtCn7FD1J3Xd3c2VSxAwda8</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2775,38 +2855,26 @@
       <c r="E39" t="b">
         <v>0</v>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Twenty One Capital</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>https://xxi.money/</t>
-        </is>
-      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>840646976</v>
       </c>
       <c r="L39" t="n">
-        <v>639912000</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>9551.069985599999</v>
       </c>
       <c r="N39" t="n">
-        <v>7000.00000777</v>
+        <v>0</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -2818,12 +2886,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1quhruqrghgcca950rvhtrg7cpd7u8k6svpzgzmrjy8xyukacl5lkq0r8l2d</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q39u0yxprsz6ucq93pgtxksk7ncr4900ypvkwcw</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>bc1quhruqrghgcca950rvhtrg7cpd7u8k6svpzgzmrjy8xyukacl5lkq0r8l2d</t>
+          <t>bc1q39u0yxprsz6ucq93pgtxksk7ncr4900ypvkwcw</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2837,7 +2905,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>OKX</t>
+          <t>BIT.com (Matrixport)</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2847,34 +2915,26 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://okx.com</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://www.bit.com/</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>2900699859.612973</v>
+        <v>646100014.4765625</v>
       </c>
       <c r="L40" t="n">
-        <v>2940150018.49935</v>
+        <v>696438762.8885479</v>
       </c>
       <c r="M40" t="n">
-        <v>32402.6396545</v>
+        <v>7094.93213276</v>
       </c>
       <c r="N40" t="n">
-        <v>32815.0988747</v>
+        <v>7642.15228998</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -2886,12 +2946,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1p2mlwrss9tmvtfvu0tcxul2h0w67ej8vyjpj3ksctt67vd9r752ksqx6uqm</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qr3vnyhhj7kd7ngs05xxm2yf0ma5gt6xvxmc0a6v2cj9mjzn6mvrqeek94m</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>bc1p2mlwrss9tmvtfvu0tcxul2h0w67ej8vyjpj3ksctt67vd9r752ksqx6uqm</t>
+          <t>bc1qr3vnyhhj7kd7ngs05xxm2yf0ma5gt6xvxmc0a6v2cj9mjzn6mvrqeek94m</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2909,20 +2969,20 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>672067981.8924599</v>
+        <v>555650176</v>
       </c>
       <c r="L41" t="n">
-        <v>783316552.0192528</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>7552.91243736</v>
+        <v>6103.49698782</v>
       </c>
       <c r="N41" t="n">
-        <v>8834.49255707</v>
+        <v>0</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -2934,12 +2994,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qumvs45e69rvfd9vqknzyz9wg0xzvnhmx6mt3cc</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qactqjuk4kghfgaqqt454hzzzs5lsaysunf80gh</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>bc1qumvs45e69rvfd9vqknzyz9wg0xzvnhmx6mt3cc</t>
+          <t>bc1qactqjuk4kghfgaqqt454hzzzs5lsaysunf80gh</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2951,46 +3011,26 @@
       <c r="E42" t="b">
         <v>0</v>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Kraken</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>https://kraken.com</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>547316000</v>
+        <v>3344572546.05927</v>
       </c>
       <c r="L42" t="n">
-        <v>594554432</v>
+        <v>3344655962.358459</v>
       </c>
       <c r="M42" t="n">
-        <v>6000</v>
+        <v>37443.49651657</v>
       </c>
       <c r="N42" t="n">
-        <v>6600.00001074</v>
+        <v>37443.49651357</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3002,12 +3042,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/18SN8PV997oDGtYmTPPD55GDaPtNNEGWeu</t>
+          <t>https://intel.arkm.com/explorer/address/3P4Fjuyn8SMeMV3SVCLUw88zhTk38aqCB8</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>18SN8PV997oDGtYmTPPD55GDaPtNNEGWeu</t>
+          <t>3P4Fjuyn8SMeMV3SVCLUw88zhTk38aqCB8</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3019,46 +3059,26 @@
       <c r="E43" t="b">
         <v>0</v>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>BTC Markets</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>https://www.btcmarkets.net/</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>888877632</v>
       </c>
       <c r="L43" t="n">
-        <v>535710304</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>10144.91999566</v>
       </c>
       <c r="N43" t="n">
-        <v>6103.50015</v>
+        <v>0</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -3070,12 +3090,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q8wyf76hse8w4dr0qmmapmnuywlpf2upv5are5y9993gdsnvdt97qsem5pp</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q32lyrhp9zpww22phqjwwmelta0c8a5q990ghs6</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>bc1q8wyf76hse8w4dr0qmmapmnuywlpf2upv5are5y9993gdsnvdt97qsem5pp</t>
+          <t>bc1q32lyrhp9zpww22phqjwwmelta0c8a5q990ghs6</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3087,26 +3107,46 @@
       <c r="E44" t="b">
         <v>0</v>
       </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Ceffu</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>custodian</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>https://www.ceffu.com/</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Custody Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K44" t="n">
-        <v>758845248</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>813936864</v>
       </c>
       <c r="M44" t="n">
-        <v>8613.649007</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>9232.000023819999</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -3118,12 +3158,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3EX1HHEwPtkxitrcYpymHFWu91LNsn8wD4</t>
+          <t>https://intel.arkm.com/explorer/address/3M219KR5vEneNb47ewrPfWyb5jQ2DjxRP6</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3EX1HHEwPtkxitrcYpymHFWu91LNsn8wD4</t>
+          <t>3M219KR5vEneNb47ewrPfWyb5jQ2DjxRP6</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3135,26 +3175,46 @@
       <c r="E45" t="b">
         <v>0</v>
       </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Binance</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>878456192</v>
       </c>
       <c r="L45" t="n">
-        <v>884654976</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>9978.261</v>
       </c>
       <c r="N45" t="n">
-        <v>10051.07</v>
+        <v>0</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -3166,12 +3226,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3MgEAFWu1HKSnZ5ZsC8qf61ZW18xrP5pgd</t>
+          <t>https://intel.arkm.com/explorer/address/1PHpKcFBaUcNadBKEWutz3uMTWKupe8QHq</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3MgEAFWu1HKSnZ5ZsC8qf61ZW18xrP5pgd</t>
+          <t>1PHpKcFBaUcNadBKEWutz3uMTWKupe8QHq</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3183,46 +3243,26 @@
       <c r="E46" t="b">
         <v>0</v>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Gemini</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>https://gemini.com</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>530070124</v>
+        <v>680212864</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>6111</v>
+        <v>7658.50237493</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -3234,12 +3274,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
+          <t>https://intel.arkm.com/explorer/address/bc1pueepze0zflc9vhtmt2tjhnp8d73f2lmle27wxvk6z6crh73ju9nsjw0qkx</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
+          <t>bc1pueepze0zflc9vhtmt2tjhnp8d73f2lmle27wxvk6z6crh73ju9nsjw0qkx</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3251,46 +3291,26 @@
       <c r="E47" t="b">
         <v>0</v>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Binance</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>https://binance.com</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>17854163436.14655</v>
+        <v>594554368</v>
       </c>
       <c r="L47" t="n">
-        <v>18094920782.87207</v>
+        <v>601296192</v>
       </c>
       <c r="M47" t="n">
-        <v>200221.03269738</v>
+        <v>6600</v>
       </c>
       <c r="N47" t="n">
-        <v>202643.58942874</v>
+        <v>6505.00001542</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -3302,12 +3322,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q7cyrfmck2ffu2ud3rn5l5a8yv6f0chkp0zpemf</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qssl3tj9ldf4h4km6najk8648epy6wrsz9k8j50njjs9l96gp4d4susha2t</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>bc1q7cyrfmck2ffu2ud3rn5l5a8yv6f0chkp0zpemf</t>
+          <t>bc1qssl3tj9ldf4h4km6najk8648epy6wrsz9k8j50njjs9l96gp4d4susha2t</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3319,46 +3339,26 @@
       <c r="E48" t="b">
         <v>0</v>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Crypto.com</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>https://crypto.com</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>1408431485.534853</v>
+        <v>555461056</v>
       </c>
       <c r="L48" t="n">
-        <v>1510397695.810257</v>
+        <v>555650240</v>
       </c>
       <c r="M48" t="n">
-        <v>15895.03023084</v>
+        <v>6103.49799148</v>
       </c>
       <c r="N48" t="n">
-        <v>17037.68499184</v>
+        <v>6103.49799148</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -3370,12 +3370,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3BPAodH6WkNQC8TUrnwFKhETiFacNUi68X</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qpzt4m58zzqgp84ktyuj5tz8g8k8ssg2g2d5eeerwhx4gxulqq5mqjzm5gc</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3BPAodH6WkNQC8TUrnwFKhETiFacNUi68X</t>
+          <t>bc1qpzt4m58zzqgp84ktyuj5tz8g8k8ssg2g2d5eeerwhx4gxulqq5mqjzm5gc</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3389,44 +3389,36 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Cobo.com</t>
+          <t>Twenty One Capital</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>custodian</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.cobo.com</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Cobo Custody</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://xxi.money/</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>795914068.5459976</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>760194701.9250031</v>
+        <v>959867968</v>
       </c>
       <c r="M49" t="n">
-        <v>9025.414599989999</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>8652.49889999</v>
+        <v>10499.99999582</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -3438,12 +3430,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3M219KR5vEneNb47ewrPfWyb5jQ2DjxRP6</t>
+          <t>https://intel.arkm.com/explorer/address/1KbDEg1tDz2ErYgaDbaDhhawnLrSQFaFx5</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3M219KR5vEneNb47ewrPfWyb5jQ2DjxRP6</t>
+          <t>1KbDEg1tDz2ErYgaDbaDhhawnLrSQFaFx5</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3457,22 +3449,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Wintermute</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
+          <t>https://www.wintermute.com/</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Binance Deposit</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3481,20 +3473,20 @@
         </is>
       </c>
       <c r="K50" t="n">
-        <v>878456192</v>
+        <v>3928019459.950035</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>3921619866.397234</v>
       </c>
       <c r="M50" t="n">
-        <v>9978.261</v>
+        <v>44025.1958708</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>43974.59583264</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -3506,12 +3498,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/34PhCF947JMQtCn7FD1J3Xd3c2VSxAwda8</t>
+          <t>https://intel.arkm.com/explorer/address/12XZMdaAGmcHf4ocFSqpd8jFd1WH7RHUPs</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>34PhCF947JMQtCn7FD1J3Xd3c2VSxAwda8</t>
+          <t>12XZMdaAGmcHf4ocFSqpd8jFd1WH7RHUPs</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3523,26 +3515,46 @@
       <c r="E51" t="b">
         <v>0</v>
       </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Bybit</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>https://bybit.com</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K51" t="n">
-        <v>840646976</v>
+        <v>1615099708.609058</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1713250918.062233</v>
       </c>
       <c r="M51" t="n">
-        <v>9551.069985599999</v>
+        <v>18126.60821746</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>19236.32555194</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -3554,12 +3566,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qpzt4m58zzqgp84ktyuj5tz8g8k8ssg2g2d5eeerwhx4gxulqq5mqjzm5gc</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qr4dl5wa7kl8yu792dceg9z5knl2gkn220lk7a9</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>bc1qpzt4m58zzqgp84ktyuj5tz8g8k8ssg2g2d5eeerwhx4gxulqq5mqjzm5gc</t>
+          <t>bc1qr4dl5wa7kl8yu792dceg9z5knl2gkn220lk7a9</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3573,36 +3585,44 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Twenty One Capital</t>
+          <t>Crypto.com</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://xxi.money/</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+          <t>https://crypto.com</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>1207449989.501908</v>
       </c>
       <c r="L52" t="n">
-        <v>959867968</v>
+        <v>1625177540.78561</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>13644.09057548</v>
       </c>
       <c r="N52" t="n">
-        <v>10499.99999582</v>
+        <v>18267.87929845</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -3614,12 +3634,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3JBM969wvpxEnfYLQ3LYayB3DVk52ZZpGq</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q8wyf76hse8w4dr0qmmapmnuywlpf2upv5are5y9993gdsnvdt97qsem5pp</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3JBM969wvpxEnfYLQ3LYayB3DVk52ZZpGq</t>
+          <t>bc1q8wyf76hse8w4dr0qmmapmnuywlpf2upv5are5y9993gdsnvdt97qsem5pp</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3637,20 +3657,20 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>758845248</v>
       </c>
       <c r="L53" t="n">
-        <v>888877632</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>8613.649007</v>
       </c>
       <c r="N53" t="n">
-        <v>10144.92</v>
+        <v>0</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -3662,12 +3682,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3EDiYUZpcEjBvaD7yiZfjx68hhXH6bYyZy</t>
+          <t>https://intel.arkm.com/explorer/address/bc1p2mlwrss9tmvtfvu0tcxul2h0w67ej8vyjpj3ksctt67vd9r752ksqx6uqm</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3EDiYUZpcEjBvaD7yiZfjx68hhXH6bYyZy</t>
+          <t>bc1p2mlwrss9tmvtfvu0tcxul2h0w67ej8vyjpj3ksctt67vd9r752ksqx6uqm</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3679,38 +3699,26 @@
       <c r="E54" t="b">
         <v>0</v>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Bitstamp</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>https://bitstamp.net</t>
-        </is>
-      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>672067981.8924599</v>
       </c>
       <c r="L54" t="n">
-        <v>653720361</v>
+        <v>783316552.0192528</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>7552.91243736</v>
       </c>
       <c r="N54" t="n">
-        <v>7267.13931</v>
+        <v>8834.49255707</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -3722,12 +3730,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q42kvqt0e3f27qhd2ucnprarl5ywpuj7tu0h9v2</t>
+          <t>https://intel.arkm.com/explorer/address/324H9uyTV9bPgAVgmdJNxPKKKZmowk5CYq</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>bc1q42kvqt0e3f27qhd2ucnprarl5ywpuj7tu0h9v2</t>
+          <t>324H9uyTV9bPgAVgmdJNxPKKKZmowk5CYq</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3741,7 +3749,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>FalconX</t>
+          <t>Bullish.com</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3751,7 +3759,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://falconx.io/</t>
+          <t>https://bullish.com/</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3765,20 +3773,20 @@
         </is>
       </c>
       <c r="K55" t="n">
-        <v>1293191723.581428</v>
+        <v>584107555.25</v>
       </c>
       <c r="L55" t="n">
-        <v>1240726836.572441</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>14625.21759578</v>
+        <v>6545.66901257</v>
       </c>
       <c r="N55" t="n">
-        <v>14064.10096563</v>
+        <v>0</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -3790,12 +3798,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qr4dl5wa7kl8yu792dceg9z5knl2gkn220lk7a9</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q32x2xd0k5vreyha87hl0ag45nhxv8w0csrztfsactjewez092edqsy6ek8</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>bc1qr4dl5wa7kl8yu792dceg9z5knl2gkn220lk7a9</t>
+          <t>bc1q32x2xd0k5vreyha87hl0ag45nhxv8w0csrztfsactjewez092edqsy6ek8</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3807,46 +3815,26 @@
       <c r="E56" t="b">
         <v>0</v>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Crypto.com</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>https://crypto.com</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>1207449989.501908</v>
+        <v>555461120</v>
       </c>
       <c r="L56" t="n">
-        <v>1625177540.78561</v>
+        <v>555461120</v>
       </c>
       <c r="M56" t="n">
-        <v>13644.09057548</v>
+        <v>6103.49899514</v>
       </c>
       <c r="N56" t="n">
-        <v>18267.87929845</v>
+        <v>6103.49899514</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -3858,12 +3846,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q0d3k8zue8z5ztqt0r35rsd7gua5z4ser6gt46c</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qttmz4kvr8tr6alvmn3zpd5mg53e787rq8v06z0qyqrru4992hsmqxnzkyl</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>bc1q0d3k8zue8z5ztqt0r35rsd7gua5z4ser6gt46c</t>
+          <t>bc1qttmz4kvr8tr6alvmn3zpd5mg53e787rq8v06z0qyqrru4992hsmqxnzkyl</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3875,46 +3863,26 @@
       <c r="E57" t="b">
         <v>0</v>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Coinbase</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>1186042410.737006</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>1229654491.965073</v>
+        <v>890992256</v>
       </c>
       <c r="M57" t="n">
-        <v>13279.13984605</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>13769.05764513</v>
+        <v>10113.64902039</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -3926,12 +3894,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/172jzPTGhtRR2SafHQDz3f7CTFrM4bjrxb</t>
+          <t>https://intel.arkm.com/explorer/address/1Pzaqw98PeRfyHypfqyEgg5yycJRsENrE7</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>172jzPTGhtRR2SafHQDz3f7CTFrM4bjrxb</t>
+          <t>1Pzaqw98PeRfyHypfqyEgg5yycJRsENrE7</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3943,26 +3911,46 @@
       <c r="E58" t="b">
         <v>0</v>
       </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Binance</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K58" t="n">
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>680275008</v>
+        <v>832150016</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>7659.20237716</v>
+        <v>9000.0000896</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -3974,12 +3962,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3HNFTegz1nSDjoq8iepW5wMxDZCcVq1VuC</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q4uccuzje5y77tajhgguzj3dut0rjkkq6thym8u2xvqhqn4zykrlsfsyhvl</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3HNFTegz1nSDjoq8iepW5wMxDZCcVq1VuC</t>
+          <t>bc1q4uccuzje5y77tajhgguzj3dut0rjkkq6thym8u2xvqhqn4zykrlsfsyhvl</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -4009,20 +3997,20 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>3911275520</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>3917300224</v>
+        <v>639912000</v>
       </c>
       <c r="M59" t="n">
-        <v>43033.54017238</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>43033.54017238</v>
+        <v>7000.00000777</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -4034,12 +4022,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1p79rzpjn2f0puzc5lr5vxvrh23eytnqgcfhw4pcjj8gkep2slp2es92e2zp</t>
+          <t>https://intel.arkm.com/explorer/address/15DomY3arDPw5jD658Mbf3AY3wT3YCDmW2</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>bc1p79rzpjn2f0puzc5lr5vxvrh23eytnqgcfhw4pcjj8gkep2slp2es92e2zp</t>
+          <t>15DomY3arDPw5jD658Mbf3AY3wT3YCDmW2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4051,26 +4039,46 @@
       <c r="E60" t="b">
         <v>0</v>
       </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Wintermute</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K60" t="n">
-        <v>601296192</v>
+        <v>3669669829.282357</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>3667521690.1875</v>
       </c>
       <c r="M60" t="n">
-        <v>6505</v>
+        <v>40614.83339002</v>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>40614.83339002</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -4082,12 +4090,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qfnv2t4ntuhu52ykp06u6uy3nj7ctm2388cs80e</t>
+          <t>https://intel.arkm.com/explorer/address/37GgrfZcywSLuBpQDf1t6aJicWzHRf2GFB</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>bc1qfnv2t4ntuhu52ykp06u6uy3nj7ctm2388cs80e</t>
+          <t>37GgrfZcywSLuBpQDf1t6aJicWzHRf2GFB</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4105,20 +4113,20 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>2450247936</v>
       </c>
       <c r="L61" t="n">
-        <v>1412894464</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>26917.22442797</v>
       </c>
       <c r="N61" t="n">
-        <v>16450.04551928</v>
+        <v>0</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -4130,12 +4138,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3MqUP6G1daVS5YTD8fz3QgwjZortWwxXFd</t>
+          <t>https://intel.arkm.com/explorer/address/3MgEAFWu1HKSnZ5ZsC8qf61ZW18xrP5pgd</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3MqUP6G1daVS5YTD8fz3QgwjZortWwxXFd</t>
+          <t>3MgEAFWu1HKSnZ5ZsC8qf61ZW18xrP5pgd</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4149,7 +4157,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Coinbase Prime</t>
+          <t>Gemini</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4159,12 +4167,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.coinbase.com/prime</t>
+          <t>https://gemini.com</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4173,20 +4181,20 @@
         </is>
       </c>
       <c r="K62" t="n">
-        <v>11170504088.07761</v>
+        <v>530070124</v>
       </c>
       <c r="L62" t="n">
-        <v>11195895618.10186</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>125387.55065759</v>
+        <v>6111</v>
       </c>
       <c r="N62" t="n">
-        <v>125780.53458842</v>
+        <v>0</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -4198,12 +4206,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/12DezRFkKToAiLTDNru1g7FuvtAWMwCZ7N</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qfnv2t4ntuhu52ykp06u6uy3nj7ctm2388cs80e</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>12DezRFkKToAiLTDNru1g7FuvtAWMwCZ7N</t>
+          <t>bc1qfnv2t4ntuhu52ykp06u6uy3nj7ctm2388cs80e</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4215,46 +4223,26 @@
       <c r="E63" t="b">
         <v>0</v>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Coinbase</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>3556129904.199023</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>3553145654.21875</v>
+        <v>1412894464</v>
       </c>
       <c r="M63" t="n">
-        <v>39875.0610372</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>39861.64118559</v>
+        <v>16450.04551928</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -4266,12 +4254,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/36YZXcTVLPdyapYuqXdJEt46oMVB2NrzVv</t>
+          <t>https://intel.arkm.com/explorer/address/18SN8PV997oDGtYmTPPD55GDaPtNNEGWeu</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>36YZXcTVLPdyapYuqXdJEt46oMVB2NrzVv</t>
+          <t>18SN8PV997oDGtYmTPPD55GDaPtNNEGWeu</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4283,12 +4271,24 @@
       <c r="E64" t="b">
         <v>0</v>
       </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>BTC Markets</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>https://www.btcmarkets.net/</t>
+        </is>
+      </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Coinbase Prime Deposit</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4297,20 +4297,20 @@
         </is>
       </c>
       <c r="K64" t="n">
-        <v>1887504111.5</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>1959533004</v>
+        <v>535710304</v>
       </c>
       <c r="M64" t="n">
-        <v>21389.41555251</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>22193.34794288</v>
+        <v>6103.50015</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:43</t>
+          <t>2025-12-22 02:29:54</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -4322,12 +4322,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x5A1b2aCd0c9992e14F2b6d8a326023E35a097A3a</t>
+          <t>https://intel.arkm.com/explorer/address/0xb5d85CBf7cB3EE0D56b3bB207D5Fc4B82f43F511</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0x5A1b2aCd0c9992e14F2b6d8a326023E35a097A3a</t>
+          <t>0xb5d85CBf7cB3EE0D56b3bB207D5Fc4B82f43F511</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4336,29 +4336,29 @@
         </is>
       </c>
       <c r="D65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0x</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>dex</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://0x.org</t>
+          <t>https://coinbase.com</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>MainnetSettler</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4367,37 +4367,37 @@
         </is>
       </c>
       <c r="K65" t="n">
-        <v>28994639.80462857</v>
+        <v>4227254860.369596</v>
       </c>
       <c r="L65" t="n">
-        <v>29137573.12602487</v>
+        <v>4261111884.812566</v>
       </c>
       <c r="M65" t="n">
-        <v>164730.1105543417</v>
+        <v>1403104.406963723</v>
       </c>
       <c r="N65" t="n">
-        <v>165484.5964516777</v>
+        <v>1413177.89266595</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xe401A6A38024d8f5aB88f1B08cad476cCaCA45E8</t>
+          <t>https://intel.arkm.com/explorer/address/0xbdAeDf327F5bc552a8479326562F6EfEAB2D8d96</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0xe401A6A38024d8f5aB88f1B08cad476cCaCA45E8</t>
+          <t>0xbdAeDf327F5bc552a8479326562F6EfEAB2D8d96</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4426,48 +4426,40 @@
           <t>https://www.wintermute.com/</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>Bybit Deposit</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>15954386</v>
+        <v>1138324175.796875</v>
       </c>
       <c r="L66" t="n">
-        <v>15902100.984375</v>
+        <v>1139219797.15625</v>
       </c>
       <c r="M66" t="n">
-        <v>86976.99260203</v>
+        <v>375530.8</v>
       </c>
       <c r="N66" t="n">
-        <v>86651.99260203</v>
+        <v>375535.8</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x1a353A852Ba8EC5aC634695E0d65f2729223471D</t>
+          <t>https://intel.arkm.com/explorer/address/0x21a31Ee1afC51d94C2eFcCAa2092aD1028285549</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0x1a353A852Ba8EC5aC634695E0d65f2729223471D</t>
+          <t>0x21a31Ee1afC51d94C2eFcCAa2092aD1028285549</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4481,43 +4473,63 @@
       <c r="E67" t="b">
         <v>0</v>
       </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Binance</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K67" t="n">
-        <v>12994457.140625</v>
+        <v>1584512152.714204</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1625067315.866236</v>
       </c>
       <c r="M67" t="n">
-        <v>67217.24174118352</v>
+        <v>523700.435939114</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>536610.72019369</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x5aB53EE1d50eeF2C1DD3d5402789cd27bB52c1bB</t>
+          <t>https://intel.arkm.com/explorer/address/0xE69f81b825d7Dc31ee9becef4DbEab5cf30e3Abb</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0x5aB53EE1d50eeF2C1DD3d5402789cd27bB52c1bB</t>
+          <t>0xE69f81b825d7Dc31ee9becef4DbEab5cf30e3Abb</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4526,29 +4538,29 @@
         </is>
       </c>
       <c r="D68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="b">
         <v>0</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>dex</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://uniswap.org</t>
+          <t>https://binance.com</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>AAVE</t>
+          <t>Internal</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4557,37 +4569,37 @@
         </is>
       </c>
       <c r="K68" t="n">
-        <v>75740140.41691622</v>
+        <v>1421704855.470493</v>
       </c>
       <c r="L68" t="n">
-        <v>73163179.78592028</v>
+        <v>1425974257.738734</v>
       </c>
       <c r="M68" t="n">
-        <v>416044.5393480684</v>
+        <v>468035.1794834452</v>
       </c>
       <c r="N68" t="n">
-        <v>403917.5604438368</v>
+        <v>469225.2244349655</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xa923B13270F8622B5d5960634200Dc4302b7611E</t>
+          <t>https://intel.arkm.com/explorer/address/0x46340b20830761efd32832A74d7169B29FEB9758</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0xa923B13270F8622B5d5960634200Dc4302b7611E</t>
+          <t>0x46340b20830761efd32832A74d7169B29FEB9758</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4596,17 +4608,29 @@
         </is>
       </c>
       <c r="D69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="b">
         <v>0</v>
       </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Crypto.com</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>https://crypto.com</t>
+        </is>
+      </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Gnosis Safe Proxy</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4615,37 +4639,37 @@
         </is>
       </c>
       <c r="K69" t="n">
-        <v>40917945.5625</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>39380708.04328918</v>
+        <v>698152970.8606813</v>
       </c>
       <c r="M69" t="n">
-        <v>231775.4541938402</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>231770.4148689859</v>
+        <v>232949.2681718346</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x91bf7e6FFA4608FA2280F81D2B23a8b8FB70b14B</t>
+          <t>https://intel.arkm.com/explorer/address/0x5283BEcEd7ADF6D003225C13896E536f2D4264FF</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0x91bf7e6FFA4608FA2280F81D2B23a8b8FB70b14B</t>
+          <t>0x5283BEcEd7ADF6D003225C13896E536f2D4264FF</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4659,43 +4683,55 @@
       <c r="E70" t="b">
         <v>0</v>
       </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Aave</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>lending-decentralized</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>https://aave.com</t>
+        </is>
+      </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>39934345.61966935</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>39934345.64697267</v>
+        <v>691333776.1261299</v>
       </c>
       <c r="M70" t="n">
-        <v>215571.7074569893</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>215571.7074569893</v>
+        <v>229951.7877396667</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x7D94077f58593F8b97c5cAB56c8924E13b49946E</t>
+          <t>https://intel.arkm.com/explorer/address/0xd36F184111225D065884e129566752968c96E26c</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0x7D94077f58593F8b97c5cAB56c8924E13b49946E</t>
+          <t>0xd36F184111225D065884e129566752968c96E26c</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4704,29 +4740,17 @@
         </is>
       </c>
       <c r="D71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="b">
         <v>0</v>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Kraken</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>https://kraken.com</t>
-        </is>
-      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>MEV Bot</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4735,37 +4759,37 @@
         </is>
       </c>
       <c r="K71" t="n">
-        <v>23893684.16182401</v>
+        <v>4486000149.879419</v>
       </c>
       <c r="L71" t="n">
-        <v>24849922.23918291</v>
+        <v>4486000136.85374</v>
       </c>
       <c r="M71" t="n">
-        <v>133063.2570584922</v>
+        <v>1505492.844645949</v>
       </c>
       <c r="N71" t="n">
-        <v>134988.36412491</v>
+        <v>1505492.844645949</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xBEE3211ab312a8D065c4FeF0247448e17A8da000</t>
+          <t>https://intel.arkm.com/explorer/address/0x0003B5Aa5E30E97FcC596BB5D0F3A75255E08D4e</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0xBEE3211ab312a8D065c4FeF0247448e17A8da000</t>
+          <t>0x0003B5Aa5E30E97FcC596BB5D0F3A75255E08D4e</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4774,17 +4798,29 @@
         </is>
       </c>
       <c r="D72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="b">
         <v>0</v>
       </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>OKX</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>https://okx.com</t>
+        </is>
+      </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Market Maker</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -4793,37 +4829,37 @@
         </is>
       </c>
       <c r="K72" t="n">
-        <v>20330622.29580943</v>
+        <v>1942478835.162361</v>
       </c>
       <c r="L72" t="n">
-        <v>20284213.50911031</v>
+        <v>1867237928.061052</v>
       </c>
       <c r="M72" t="n">
-        <v>115974.3763924111</v>
+        <v>646883.8544201551</v>
       </c>
       <c r="N72" t="n">
-        <v>115694.3521681849</v>
+        <v>619695.24338786</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x4FD01341D7AD9592E0627eD20952466aD9bB831F</t>
+          <t>https://intel.arkm.com/explorer/address/0x52Aa899454998Be5b000Ad077a46Bbe360F4e497</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0x4FD01341D7AD9592E0627eD20952466aD9bB831F</t>
+          <t>0x52Aa899454998Be5b000Ad077a46Bbe360F4e497</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4832,29 +4868,29 @@
         </is>
       </c>
       <c r="D73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Fluid (Instadapp)</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>misc</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
+          <t>https://fluid.instadapp.io</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>FluidLiquidityProxy</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4863,37 +4899,37 @@
         </is>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>1095583561.509621</v>
       </c>
       <c r="L73" t="n">
-        <v>10409277</v>
+        <v>1085645396.536451</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>365841.3885232195</v>
       </c>
       <c r="N73" t="n">
-        <v>54705.04932268511</v>
+        <v>361721.4131598388</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xA9D1e08C7793af67e9d92fe308d5697FB81d3E43</t>
+          <t>https://intel.arkm.com/explorer/address/0xC8c557506a5240dcEC094e614C665Ff9CA815b95</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0xA9D1e08C7793af67e9d92fe308d5697FB81d3E43</t>
+          <t>0xC8c557506a5240dcEC094e614C665Ff9CA815b95</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4902,29 +4938,17 @@
         </is>
       </c>
       <c r="D74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Coinbase</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Coinbase Prime Deposit</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4933,37 +4957,37 @@
         </is>
       </c>
       <c r="K74" t="n">
-        <v>243148637.713623</v>
+        <v>788719834.5</v>
       </c>
       <c r="L74" t="n">
-        <v>244100469.8685153</v>
+        <v>739374894.75</v>
       </c>
       <c r="M74" t="n">
-        <v>1290672.927724472</v>
+        <v>265698.20913186</v>
       </c>
       <c r="N74" t="n">
-        <v>1295310.702680399</v>
+        <v>248981.0910758402</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xA700b4eB416Be35b2911fd5Dee80678ff64fF6C9</t>
+          <t>https://intel.arkm.com/explorer/address/0xCFFAd3200574698b78f32232aa9D63eABD290703</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0xA700b4eB416Be35b2911fd5Dee80678ff64fF6C9</t>
+          <t>0xCFFAd3200574698b78f32232aa9D63eABD290703</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4972,29 +4996,29 @@
         </is>
       </c>
       <c r="D75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="b">
         <v>0</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Aave</t>
+          <t>Crypto.com</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>lending-decentralized</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://aave.com</t>
+          <t>https://crypto.com</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Aave Ethereum AAVE (aEthAAVE)</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -5003,37 +5027,37 @@
         </is>
       </c>
       <c r="K75" t="n">
-        <v>38469905.34556469</v>
+        <v>753505135.0048274</v>
       </c>
       <c r="L75" t="n">
-        <v>17047115.03173264</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>211551.6099630145</v>
+        <v>250726.305676238</v>
       </c>
       <c r="N75" t="n">
-        <v>92637.03983819962</v>
+        <v>0</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x91D40E4818F4D4C57b4578d9ECa6AFc92aC8DEbE</t>
+          <t>https://intel.arkm.com/explorer/address/0x4200000000000000000000000000000000000006</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0x91D40E4818F4D4C57b4578d9ECa6AFc92aC8DEbE</t>
+          <t>0x4200000000000000000000000000000000000006</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -5047,63 +5071,43 @@
       <c r="E76" t="b">
         <v>0</v>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>OKX</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>https://okx.com</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>23498607.70351164</v>
+        <v>5225812873.150784</v>
       </c>
       <c r="L76" t="n">
-        <v>22454924.92303109</v>
+        <v>5245052887.642336</v>
       </c>
       <c r="M76" t="n">
-        <v>130692.3059211101</v>
+        <v>1724570.598534832</v>
       </c>
       <c r="N76" t="n">
-        <v>124027.87247118</v>
+        <v>1732031.693727364</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x7915f9373Ae32d1fcAF0CdF17a532a3D8046D759</t>
+          <t>https://intel.arkm.com/explorer/address/0xceB69F6342eCE283b2F5c9088Ff249B5d0Ae66ea</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0x7915f9373Ae32d1fcAF0CdF17a532a3D8046D759</t>
+          <t>0xceB69F6342eCE283b2F5c9088Ff249B5d0Ae66ea</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -5117,43 +5121,63 @@
       <c r="E77" t="b">
         <v>0</v>
       </c>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Coinbase Prime</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>https://www.coinbase.com/prime</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K77" t="n">
-        <v>22680241.375</v>
+        <v>2344197877.813045</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>2337837375.470176</v>
       </c>
       <c r="M77" t="n">
-        <v>127981.7</v>
+        <v>768872.5992829534</v>
       </c>
       <c r="N77" t="n">
-        <v>0</v>
+        <v>768708.11836233</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x63242A4Ea82847b20E506b63B0e2e2eFF0CC6cB0</t>
+          <t>https://intel.arkm.com/explorer/address/0x93486B98e64de344d6A5A322A4Bd80e65d83E5CA</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0x63242A4Ea82847b20E506b63B0e2e2eFF0CC6cB0</t>
+          <t>0x93486B98e64de344d6A5A322A4Bd80e65d83E5CA</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -5167,24 +5191,12 @@
       <c r="E78" t="b">
         <v>0</v>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Kyber Network</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>dex</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>https://kyber.network</t>
-        </is>
-      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Aggregator Executor V3</t>
+          <t>Core USPD Share (CUSPD)</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -5193,37 +5205,37 @@
         </is>
       </c>
       <c r="K78" t="n">
-        <v>15304771.37128585</v>
+        <v>1502256118.061802</v>
       </c>
       <c r="L78" t="n">
-        <v>15307706.51941785</v>
+        <v>1474183787.727823</v>
       </c>
       <c r="M78" t="n">
-        <v>87705.80034072966</v>
+        <v>494571.4576759303</v>
       </c>
       <c r="N78" t="n">
-        <v>87721.610976674</v>
+        <v>485305.1206509323</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xfE98f85EAfe3c7BF23af3A7b406aDcc1dB43e36b</t>
+          <t>https://intel.arkm.com/explorer/address/0x51C72848c68a965f66FA7a88855F9f7784502a7F</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0xfE98f85EAfe3c7BF23af3A7b406aDcc1dB43e36b</t>
+          <t>0x51C72848c68a965f66FA7a88855F9f7784502a7F</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5232,17 +5244,29 @@
         </is>
       </c>
       <c r="D79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
       </c>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Wintermute</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Kraken Deposit</t>
+          <t>Market Maker</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -5251,37 +5275,37 @@
         </is>
       </c>
       <c r="K79" t="n">
-        <v>11098185.49174439</v>
+        <v>3542651317.829823</v>
       </c>
       <c r="L79" t="n">
-        <v>11380339.25360489</v>
+        <v>3542356003.123065</v>
       </c>
       <c r="M79" t="n">
-        <v>62523.32185301307</v>
+        <v>1171442.863431272</v>
       </c>
       <c r="N79" t="n">
-        <v>63967.08941497</v>
+        <v>1171370.811185125</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x4da27a545c0c5B758a6BA100e3a049001de870f5</t>
+          <t>https://intel.arkm.com/explorer/address/0xaF682DE1f2e6f710731121A05A44Cb3C1B511f7d</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0x4da27a545c0c5B758a6BA100e3a049001de870f5</t>
+          <t>0xaF682DE1f2e6f710731121A05A44Cb3C1B511f7d</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5295,63 +5319,43 @@
       <c r="E80" t="b">
         <v>0</v>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Aave</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>lending-decentralized</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>https://aave.com</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>Staked Aave (stkAAVE)</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>1914094967.566598</v>
       </c>
       <c r="L80" t="n">
-        <v>56479940.06819906</v>
+        <v>1939299656.775611</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>617057.6697529485</v>
       </c>
       <c r="N80" t="n">
-        <v>317440.7980189377</v>
+        <v>625239.4291146889</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xD3CB110f85Aa369309A7B855f8ED3730E8168a28</t>
+          <t>https://intel.arkm.com/explorer/address/0x4976A4A02f38326660D17bf34b431dC6e2eb2327</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0xD3CB110f85Aa369309A7B855f8ED3730E8168a28</t>
+          <t>0x4976A4A02f38326660D17bf34b431dC6e2eb2327</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -5367,7 +5371,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -5377,12 +5381,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
+          <t>https://binance.com</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -5391,37 +5395,37 @@
         </is>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>1374334367.86807</v>
       </c>
       <c r="L81" t="n">
-        <v>10149861</v>
+        <v>1470042559.693541</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>454571.4558957494</v>
       </c>
       <c r="N81" t="n">
-        <v>53327.69900839427</v>
+        <v>487341.57826201</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x9008D19f58AAbD9eD0D60971565AA8510560ab41</t>
+          <t>https://intel.arkm.com/explorer/address/0x56Eddb7aa87536c09CCc2793473599fD21A8b17F</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>0x9008D19f58AAbD9eD0D60971565AA8510560ab41</t>
+          <t>0x56Eddb7aa87536c09CCc2793473599fD21A8b17F</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -5430,29 +5434,29 @@
         </is>
       </c>
       <c r="D82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="b">
         <v>0</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>CoW Protocol</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>dex-aggregator</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>https://cow.fi</t>
+          <t>https://binance.com</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Settlement</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -5461,37 +5465,37 @@
         </is>
       </c>
       <c r="K82" t="n">
-        <v>114355810.400206</v>
+        <v>1217236899.390285</v>
       </c>
       <c r="L82" t="n">
-        <v>114356878.7411013</v>
+        <v>1253731703.426856</v>
       </c>
       <c r="M82" t="n">
-        <v>641379.0429465215</v>
+        <v>403104.3843736643</v>
       </c>
       <c r="N82" t="n">
-        <v>641376.5982560106</v>
+        <v>416679.2170192</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xEae7380dD4CeF6fbD1144F49E4D1e6964258A4F4</t>
+          <t>https://intel.arkm.com/explorer/address/0x308861A430be4cce5502d0A12724771Fc6DaF216</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>0xEae7380dD4CeF6fbD1144F49E4D1e6964258A4F4</t>
+          <t>0x308861A430be4cce5502d0A12724771Fc6DaF216</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -5500,29 +5504,29 @@
         </is>
       </c>
       <c r="D83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="b">
         <v>0</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Wintermute</t>
+          <t>Ether.fi</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>misc</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>https://www.wintermute.com/</t>
+          <t>https://ether.fi/</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Binance Deposit</t>
+          <t>LiquidityPool (Proxy)</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -5531,37 +5535,37 @@
         </is>
       </c>
       <c r="K83" t="n">
-        <v>71424105.703125</v>
+        <v>935894351.5640919</v>
       </c>
       <c r="L83" t="n">
-        <v>71395225.58007812</v>
+        <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>392760.00080401</v>
+        <v>304074.6645226071</v>
       </c>
       <c r="N83" t="n">
-        <v>392760.00080401</v>
+        <v>0</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x4A4aaA0155237881FBD5C34BfaE16e985A7B068D</t>
+          <t>https://intel.arkm.com/explorer/address/0xC2BF398B4805893089Ed4Eb4Fa25Cb2E78c0CE87</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>0x4A4aaA0155237881FBD5C34BfaE16e985A7B068D</t>
+          <t>0xC2BF398B4805893089Ed4Eb4Fa25Cb2E78c0CE87</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -5575,24 +5579,12 @@
       <c r="E84" t="b">
         <v>0</v>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>OKX</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>https://okx.com</t>
-        </is>
-      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Coinbase Prime Custody</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5601,37 +5593,37 @@
         </is>
       </c>
       <c r="K84" t="n">
-        <v>26167837.0144043</v>
+        <v>910969331.2606878</v>
       </c>
       <c r="L84" t="n">
-        <v>25859638.73764896</v>
+        <v>870484559.5</v>
       </c>
       <c r="M84" t="n">
-        <v>143821.5674597</v>
+        <v>296290.8984915698</v>
       </c>
       <c r="N84" t="n">
-        <v>141453.55612122</v>
+        <v>283021.3430527857</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x6E9Ddc0143CF07D21EA51b6406755E2da9BE0F58</t>
+          <t>https://intel.arkm.com/explorer/address/0xc7bf35C9A3Bdd1B1c19A6963De669cb45191A019</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>0x6E9Ddc0143CF07D21EA51b6406755E2da9BE0F58</t>
+          <t>0xc7bf35C9A3Bdd1B1c19A6963De669cb45191A019</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -5645,43 +5637,55 @@
       <c r="E85" t="b">
         <v>0</v>
       </c>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>11187817.5</v>
+        <v>722635629.6875</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>59451.03587099689</v>
+        <v>242016</v>
       </c>
       <c r="N85" t="n">
         <v>0</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xC333E80eF2deC2805F239E3f1e810612D294F771</t>
+          <t>https://intel.arkm.com/explorer/address/0xA9D1e08C7793af67e9d92fe308d5697FB81d3E43</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>0xC333E80eF2deC2805F239E3f1e810612D294F771</t>
+          <t>0xA9D1e08C7793af67e9d92fe308d5697FB81d3E43</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -5690,60 +5694,68 @@
         </is>
       </c>
       <c r="D86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>B2C2 Group</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>https://www.b2c2.com</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K86" t="n">
-        <v>13036781.54507479</v>
+        <v>8209923899.462002</v>
       </c>
       <c r="L86" t="n">
-        <v>11738965.85339355</v>
+        <v>8185107966.349886</v>
       </c>
       <c r="M86" t="n">
-        <v>71145.634348761</v>
+        <v>2713386.699591515</v>
       </c>
       <c r="N86" t="n">
-        <v>63159.91954999</v>
+        <v>2705784.213903734</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xfBd4cdB413E45a52E2C8312f670e9cE67E794C37</t>
+          <t>https://intel.arkm.com/explorer/address/0x00000000219ab540356cBB839Cbe05303d7705Fa</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>0xfBd4cdB413E45a52E2C8312f670e9cE67E794C37</t>
+          <t>0x00000000219ab540356cBB839Cbe05303d7705Fa</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -5760,40 +5772,48 @@
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Eth2 Beacon Deposit Contract</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K87" t="n">
-        <v>42468627.31848642</v>
+        <v>3526167247.447998</v>
       </c>
       <c r="L87" t="n">
-        <v>41151255.11933595</v>
+        <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>232312.7019178369</v>
+        <v>1168036.484248251</v>
       </c>
       <c r="N87" t="n">
-        <v>223864.8850422127</v>
+        <v>0</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xE9D05440ED65D6BF7Ccf44d0f1a747B11F31259b</t>
+          <t>https://intel.arkm.com/explorer/address/0x000000000004444c5dc75cB358380D2e3dE08A90</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>0xE9D05440ED65D6BF7Ccf44d0f1a747B11F31259b</t>
+          <t>0x000000000004444c5dc75cB358380D2e3dE08A90</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -5802,48 +5822,68 @@
         </is>
       </c>
       <c r="D88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
       </c>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Uniswap</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>dex</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>https://uniswap.org</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>PoolManager</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K88" t="n">
-        <v>16765826.893597</v>
+        <v>2965130693.433759</v>
       </c>
       <c r="L88" t="n">
-        <v>17031690.6875</v>
+        <v>2956319759.009776</v>
       </c>
       <c r="M88" t="n">
-        <v>91504.61257375</v>
+        <v>986772.430261862</v>
       </c>
       <c r="N88" t="n">
-        <v>91604.61257375</v>
+        <v>984036.3178380459</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xa9C61FE59b5702b1d382fd1d5e495887ff34c21d</t>
+          <t>https://intel.arkm.com/explorer/address/0xDFd5293D8e347dFe59E90eFd55b2956a1343963d</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>0xa9C61FE59b5702b1d382fd1d5e495887ff34c21d</t>
+          <t>0xDFd5293D8e347dFe59E90eFd55b2956a1343963d</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -5857,12 +5897,24 @@
       <c r="E89" t="b">
         <v>0</v>
       </c>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Binance</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>https://binance.com</t>
+        </is>
+      </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Binance Deposit</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -5871,37 +5923,37 @@
         </is>
       </c>
       <c r="K89" t="n">
-        <v>16183188.43429565</v>
+        <v>1706826169.116792</v>
       </c>
       <c r="L89" t="n">
-        <v>16196534.55334473</v>
+        <v>1711099593.280251</v>
       </c>
       <c r="M89" t="n">
-        <v>88104.73649600273</v>
+        <v>566556.1774125678</v>
       </c>
       <c r="N89" t="n">
-        <v>88104.73649600273</v>
+        <v>566922.10156043</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x091D1C972cb1648537a2Ba78eaBa371b1cE18336</t>
+          <t>https://intel.arkm.com/explorer/address/0x476ef9ac6D8673E220d0E8BC0a810C2Dc6A2AA84</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>0x091D1C972cb1648537a2Ba78eaBa371b1cE18336</t>
+          <t>0x476ef9ac6D8673E220d0E8BC0a810C2Dc6A2AA84</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -5910,7 +5962,7 @@
         </is>
       </c>
       <c r="D90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="b">
         <v>0</v>
@@ -5918,40 +5970,48 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>United States Permissionless Dollar (USPD)</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>1502256118.061802</v>
       </c>
       <c r="L90" t="n">
-        <v>10503735.68235779</v>
+        <v>1502256118.061802</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>494571.4576759303</v>
       </c>
       <c r="N90" t="n">
-        <v>58782.31729927</v>
+        <v>494571.4576759303</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xBA12222222228d8Ba445958a75a0704d566BF2C8</t>
+          <t>https://intel.arkm.com/explorer/address/0xEDc7001e99a37c3D23b5f7974F837387e09f9C93</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>0xBA12222222228d8Ba445958a75a0704d566BF2C8</t>
+          <t>0xEDc7001e99a37c3D23b5f7974F837387e09f9C93</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -5960,29 +6020,29 @@
         </is>
       </c>
       <c r="D91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Balancer</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>dex</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>https://balancer.fi</t>
+          <t>https://coinbase.com</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Vault</t>
+          <t>Deposit</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -5991,37 +6051,37 @@
         </is>
       </c>
       <c r="K91" t="n">
-        <v>83688488.41085814</v>
+        <v>1109587746.4375</v>
       </c>
       <c r="L91" t="n">
-        <v>82823838.16061297</v>
+        <v>1109771591.078125</v>
       </c>
       <c r="M91" t="n">
-        <v>464328.4449716941</v>
+        <v>365577.19687</v>
       </c>
       <c r="N91" t="n">
-        <v>459702.0636433014</v>
+        <v>365577.1900491892</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x95FD84B34362178Ee6De1c138B745170875234e7</t>
+          <t>https://intel.arkm.com/explorer/address/0x82aF49447D8a07e3bd95BD0d56f35241523fBab1</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>0x95FD84B34362178Ee6De1c138B745170875234e7</t>
+          <t>0x82aF49447D8a07e3bd95BD0d56f35241523fBab1</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -6030,7 +6090,7 @@
         </is>
       </c>
       <c r="D92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
@@ -6041,37 +6101,37 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>61305400</v>
+        <v>1994180205.664497</v>
       </c>
       <c r="L92" t="n">
-        <v>61305400</v>
+        <v>1985239750.749095</v>
       </c>
       <c r="M92" t="n">
-        <v>340000</v>
+        <v>661780.3976998145</v>
       </c>
       <c r="N92" t="n">
-        <v>340000</v>
+        <v>656642.0586001212</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xA69babEF1cA67A37Ffaf7a485DfFF3382056e78C</t>
+          <t>https://intel.arkm.com/explorer/address/0x1E8540d60a7B34E79DA540FFf2d11bC4ad832f76</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>0xA69babEF1cA67A37Ffaf7a485DfFF3382056e78C</t>
+          <t>0x1E8540d60a7B34E79DA540FFf2d11bC4ad832f76</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -6085,63 +6145,43 @@
       <c r="E93" t="b">
         <v>0</v>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Symbolic Capital Partners</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>https://symbolic.partners</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>MEV Bot</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>12760837.67516112</v>
+        <v>1340802321.485401</v>
       </c>
       <c r="L93" t="n">
-        <v>12781215.58639145</v>
+        <v>1340802936.677108</v>
       </c>
       <c r="M93" t="n">
-        <v>69807.82626787246</v>
+        <v>447597.4354178843</v>
       </c>
       <c r="N93" t="n">
-        <v>69890.34477752657</v>
+        <v>447597.6170243609</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xF977814e90dA44bFA03b6295A0616a897441aceC</t>
+          <t>https://intel.arkm.com/explorer/address/0xB38e8c17e38363aF6EbdCb3dAE12e0243582891D</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>0xF977814e90dA44bFA03b6295A0616a897441aceC</t>
+          <t>0xB38e8c17e38363aF6EbdCb3dAE12e0243582891D</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -6172,7 +6212,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -6181,37 +6221,37 @@
         </is>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>1589776704.973948</v>
       </c>
       <c r="L94" t="n">
-        <v>37163156</v>
+        <v>1688390382.000893</v>
       </c>
       <c r="M94" t="n">
-        <v>0</v>
+        <v>524821.9406382364</v>
       </c>
       <c r="N94" t="n">
-        <v>206806.66</v>
+        <v>560447.38393834</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x4a79B0168296c0eF7b8F314973B82aD406a29f1B</t>
+          <t>https://intel.arkm.com/explorer/address/0x28C6c06298d514Db089934071355E5743bf21d60</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>0x4a79B0168296c0eF7b8F314973B82aD406a29f1B</t>
+          <t>0x28C6c06298d514Db089934071355E5743bf21d60</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -6227,53 +6267,61 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Aerodrome Finance</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>dex</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>https://aerodrome.finance/</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K95" t="n">
-        <v>204861010.8655521</v>
+        <v>10075186271.05328</v>
       </c>
       <c r="L95" t="n">
-        <v>204616903.4938494</v>
+        <v>9818740079.195822</v>
       </c>
       <c r="M95" t="n">
-        <v>1108978.303244992</v>
+        <v>3329833.579198346</v>
       </c>
       <c r="N95" t="n">
-        <v>1107721.534135441</v>
+        <v>3247960.74485958</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x46e946468f747D0E563527Bd069d4deD731F33A4</t>
+          <t>https://intel.arkm.com/explorer/address/0x1f2F10D1C40777AE1Da742455c65828FF36Df387</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>0x46e946468f747D0E563527Bd069d4deD731F33A4</t>
+          <t>0x1f2F10D1C40777AE1Da742455c65828FF36Df387</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -6282,48 +6330,64 @@
         </is>
       </c>
       <c r="D96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" t="b">
         <v>0</v>
       </c>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>jaredfromsubway (MEV)</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>mev</t>
+        </is>
+      </c>
       <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>MEV Bot</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K96" t="n">
-        <v>24883943</v>
+        <v>1806961131.51878</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>1806961128.193481</v>
       </c>
       <c r="M96" t="n">
-        <v>132020.6109010646</v>
+        <v>602058.1536978644</v>
       </c>
       <c r="N96" t="n">
-        <v>0</v>
+        <v>602058.1525973938</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x80787af194C33b74a811f5e5c549316269d7Ee1A</t>
+          <t>https://intel.arkm.com/explorer/address/0xf30ba13e4b04Ce5dC4D254Ae5FA95477800F0EB0</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>0x80787af194C33b74a811f5e5c549316269d7Ee1A</t>
+          <t>0xf30ba13e4b04Ce5dC4D254Ae5FA95477800F0EB0</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -6339,7 +6403,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>HitBTC</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -6349,7 +6413,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>https://hitbtc.com</t>
+          <t>https://kraken.com</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -6363,37 +6427,37 @@
         </is>
       </c>
       <c r="K97" t="n">
-        <v>15644440.25519943</v>
+        <v>1703834399.094224</v>
       </c>
       <c r="L97" t="n">
-        <v>10091990.25439453</v>
+        <v>1901777442.207877</v>
       </c>
       <c r="M97" t="n">
-        <v>90626.54141428153</v>
+        <v>567213.3514559915</v>
       </c>
       <c r="N97" t="n">
-        <v>57279.45783682923</v>
+        <v>627663.5504785581</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x28C6c06298d514Db089934071355E5743bf21d60</t>
+          <t>https://intel.arkm.com/explorer/address/0x1157A2076b9bB22a85CC2C162f20fAB3898F4101</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>0x28C6c06298d514Db089934071355E5743bf21d60</t>
+          <t>0x1157A2076b9bB22a85CC2C162f20fAB3898F4101</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -6409,7 +6473,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>FalconX</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -6419,7 +6483,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
+          <t>https://falconx.io/</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -6433,37 +6497,37 @@
         </is>
       </c>
       <c r="K98" t="n">
-        <v>191868191.8716431</v>
+        <v>1094467842.739395</v>
       </c>
       <c r="L98" t="n">
-        <v>172141606.7443203</v>
+        <v>1098543104.065783</v>
       </c>
       <c r="M98" t="n">
-        <v>1060090.761579762</v>
+        <v>370749.6429639405</v>
       </c>
       <c r="N98" t="n">
-        <v>943109.4284786701</v>
+        <v>368997.9819838693</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x16F6d15381bEE4A25B25F0d1C4161b78f7F21Fde</t>
+          <t>https://intel.arkm.com/explorer/address/0x9008D19f58AAbD9eD0D60971565AA8510560ab41</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>0x16F6d15381bEE4A25B25F0d1C4161b78f7F21Fde</t>
+          <t>0x9008D19f58AAbD9eD0D60971565AA8510560ab41</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -6472,48 +6536,68 @@
         </is>
       </c>
       <c r="D99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
       </c>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>CoW Protocol</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>dex-aggregator</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>https://cow.fi</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Settlement</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K99" t="n">
-        <v>22423062.77795029</v>
+        <v>895254601.701584</v>
       </c>
       <c r="L99" t="n">
-        <v>22333248</v>
+        <v>897041379.4318571</v>
       </c>
       <c r="M99" t="n">
-        <v>128582.3279</v>
+        <v>298014.3147830013</v>
       </c>
       <c r="N99" t="n">
-        <v>127739</v>
+        <v>298592.0545348373</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x118Bc4c55700db03Ea29A0d920D22221DC1A9620</t>
+          <t>https://intel.arkm.com/explorer/address/0xCD531Ae9EFCCE479654c4926dec5F6209531Ca7b</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>0x118Bc4c55700db03Ea29A0d920D22221DC1A9620</t>
+          <t>0xCD531Ae9EFCCE479654c4926dec5F6209531Ca7b</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -6527,43 +6611,63 @@
       <c r="E100" t="b">
         <v>0</v>
       </c>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Coinbase Prime</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>https://www.coinbase.com/prime</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K100" t="n">
-        <v>25143300.625</v>
+        <v>3775433008.567411</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>3784184804.589684</v>
       </c>
       <c r="M100" t="n">
-        <v>132629.7415172425</v>
+        <v>1252116.912574122</v>
       </c>
       <c r="N100" t="n">
-        <v>0</v>
+        <v>1253621.513909615</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x21a31Ee1afC51d94C2eFcCAa2092aD1028285549</t>
+          <t>https://intel.arkm.com/explorer/address/0xd01607c3C5eCABa394D8be377a08590149325722</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>0x21a31Ee1afC51d94C2eFcCAa2092aD1028285549</t>
+          <t>0xd01607c3C5eCABa394D8be377a08590149325722</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -6572,29 +6676,29 @@
         </is>
       </c>
       <c r="D101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="b">
         <v>0</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Aave</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>lending-decentralized</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
+          <t>https://aave.com</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>WrappedTokenGatewayV3</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -6603,37 +6707,37 @@
         </is>
       </c>
       <c r="K101" t="n">
-        <v>55201957.75</v>
+        <v>4204835915.171009</v>
       </c>
       <c r="L101" t="n">
-        <v>53843027.16971606</v>
+        <v>4204835915.096203</v>
       </c>
       <c r="M101" t="n">
-        <v>302008.46832202</v>
+        <v>1410067.327930381</v>
       </c>
       <c r="N101" t="n">
-        <v>294465.87388554</v>
+        <v>1410067.327930381</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x0b8FE2a0DbF47038Da4BB6C6dD5Af1aEf1Ebb1F4</t>
+          <t>https://intel.arkm.com/explorer/address/0x9696f59E4d72E237BE84fFD425DCaD154Bf96976</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>0x0b8FE2a0DbF47038Da4BB6C6dD5Af1aEf1Ebb1F4</t>
+          <t>0x9696f59E4d72E237BE84fFD425DCaD154Bf96976</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -6647,43 +6751,63 @@
       <c r="E102" t="b">
         <v>0</v>
       </c>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Binance</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K102" t="n">
-        <v>25080699.09375</v>
+        <v>1512083197.499274</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>1566310906.995211</v>
       </c>
       <c r="M102" t="n">
-        <v>133914.4569135635</v>
+        <v>499117.4205049807</v>
       </c>
       <c r="N102" t="n">
-        <v>0</v>
+        <v>518100.7858046</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xF21F6a09e488a7177C59e8E2d362aDec661E7689</t>
+          <t>https://intel.arkm.com/explorer/address/0xE7158af48573c6A9d24a53Fa4ADB62DE77EA65eC</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>0xF21F6a09e488a7177C59e8E2d362aDec661E7689</t>
+          <t>0xE7158af48573c6A9d24a53Fa4ADB62DE77EA65eC</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -6692,7 +6816,7 @@
         </is>
       </c>
       <c r="D103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" t="b">
         <v>0</v>
@@ -6700,40 +6824,48 @@
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>MEV Bot</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K103" t="n">
-        <v>25233868.03125</v>
+        <v>1201099760.000009</v>
       </c>
       <c r="L103" t="n">
-        <v>0</v>
+        <v>1201099479.482701</v>
       </c>
       <c r="M103" t="n">
-        <v>132228.4092711481</v>
+        <v>398513.6261466445</v>
       </c>
       <c r="N103" t="n">
-        <v>0</v>
+        <v>398513.5360066436</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x416Ec2cA21a38CbCFeAcD6a14532B3F348356d23</t>
+          <t>https://intel.arkm.com/explorer/address/0xC36442b4a4522E871399CD717aBDD847Ab11FE88</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>0x416Ec2cA21a38CbCFeAcD6a14532B3F348356d23</t>
+          <t>0xC36442b4a4522E871399CD717aBDD847Ab11FE88</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -6742,48 +6874,68 @@
         </is>
       </c>
       <c r="D104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" t="b">
         <v>0</v>
       </c>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Uniswap</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>dex</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>https://uniswap.org</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Nonfungible Position Manager</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K104" t="n">
-        <v>13448883.5691786</v>
+        <v>796343142.5004864</v>
       </c>
       <c r="L104" t="n">
-        <v>13393446.5199666</v>
+        <v>702333107.340687</v>
       </c>
       <c r="M104" t="n">
-        <v>72672.67745667296</v>
+        <v>268193.5803283168</v>
       </c>
       <c r="N104" t="n">
-        <v>72365.11780609307</v>
+        <v>236863.5151470001</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xC17A40852E4BfE04Bc81Af355Fdf132C539bA753</t>
+          <t>https://intel.arkm.com/explorer/address/0xae7ab96520DE3A18E5e111B5EaAb095312D7fE84</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>0xC17A40852E4BfE04Bc81Af355Fdf132C539bA753</t>
+          <t>0xae7ab96520DE3A18E5e111B5EaAb095312D7fE84</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -6792,17 +6944,29 @@
         </is>
       </c>
       <c r="D105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105" t="b">
         <v>0</v>
       </c>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Lido</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>liquid-staking</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>https://lido.fi</t>
+        </is>
+      </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Binance Deposit</t>
+          <t>Lido Staked Ether Token (STETH)</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -6811,37 +6975,37 @@
         </is>
       </c>
       <c r="K105" t="n">
-        <v>10077600.09339905</v>
+        <v>1053283301.049021</v>
       </c>
       <c r="L105" t="n">
-        <v>9643404.3515625</v>
+        <v>1022674943.5625</v>
       </c>
       <c r="M105" t="n">
-        <v>59575.62173810894</v>
+        <v>347651.2736855983</v>
       </c>
       <c r="N105" t="n">
-        <v>58103.85768651397</v>
+        <v>337070.2240231629</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xf3fB9691c4BFF980C0352339fb297c5bF52Dd354</t>
+          <t>https://intel.arkm.com/explorer/address/0xC02aaA39b223FE8D0A0e5C4F27eAD9083C756Cc2</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>0xf3fB9691c4BFF980C0352339fb297c5bF52Dd354</t>
+          <t>0xC02aaA39b223FE8D0A0e5C4F27eAD9083C756Cc2</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -6850,7 +7014,7 @@
         </is>
       </c>
       <c r="D106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106" t="b">
         <v>0</v>
@@ -6858,40 +7022,48 @@
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Wrapped Ether (WETH)</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K106" t="n">
-        <v>71720589.09753193</v>
+        <v>18810145666.53269</v>
       </c>
       <c r="L106" t="n">
-        <v>71714013.93429184</v>
+        <v>19297643947.87721</v>
       </c>
       <c r="M106" t="n">
-        <v>388639.9666658858</v>
+        <v>6263901.588846309</v>
       </c>
       <c r="N106" t="n">
-        <v>388643.611913317</v>
+        <v>6400534.727772159</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x0277331dB7d134B205c5C920395e510dA0dAD2A5</t>
+          <t>https://intel.arkm.com/explorer/address/0xf8191D98ae98d2f7aBDFB63A9b0b812b93C873AA</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>0x0277331dB7d134B205c5C920395e510dA0dAD2A5</t>
+          <t>0xf8191D98ae98d2f7aBDFB63A9b0b812b93C873AA</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -6905,43 +7077,63 @@
       <c r="E107" t="b">
         <v>0</v>
       </c>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Wintermute</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K107" t="n">
-        <v>25097239.90625</v>
+        <v>1950045722.429105</v>
       </c>
       <c r="L107" t="n">
-        <v>0</v>
+        <v>1934771589.12811</v>
       </c>
       <c r="M107" t="n">
-        <v>132709.4448302318</v>
+        <v>643262.4358267125</v>
       </c>
       <c r="N107" t="n">
-        <v>0</v>
+        <v>638136.0539206651</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x9bA0CF1588E1DFA905eC948F7FE5104dD40EDa31</t>
+          <t>https://intel.arkm.com/explorer/address/0x4752ba5DBc23f44D87826276BF6Fd6b1C372aD24</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>0x9bA0CF1588E1DFA905eC948F7FE5104dD40EDa31</t>
+          <t>0x4752ba5DBc23f44D87826276BF6Fd6b1C372aD24</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -6957,18 +7149,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>TrustedVolumes</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr"/>
+          <t>dex</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>https://uniswap.org</t>
+        </is>
+      </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Market Maker</t>
+          <t>Quoter</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -6977,37 +7173,37 @@
         </is>
       </c>
       <c r="K108" t="n">
-        <v>23035576.84827123</v>
+        <v>1895076499.901716</v>
       </c>
       <c r="L108" t="n">
-        <v>22785397.34639002</v>
+        <v>1895073038.857314</v>
       </c>
       <c r="M108" t="n">
-        <v>129398.7516982112</v>
+        <v>629395.8919130756</v>
       </c>
       <c r="N108" t="n">
-        <v>130317.8974190665</v>
+        <v>629394.738753283</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x372cAE7fA19b81A9786A9081704EA1e2DAD576b7</t>
+          <t>https://intel.arkm.com/explorer/address/0x63242A4Ea82847b20E506b63B0e2e2eFF0CC6cB0</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>0x372cAE7fA19b81A9786A9081704EA1e2DAD576b7</t>
+          <t>0x63242A4Ea82847b20E506b63B0e2e2eFF0CC6cB0</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -7016,48 +7212,68 @@
         </is>
       </c>
       <c r="D109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109" t="b">
         <v>0</v>
       </c>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Kyber Network</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>dex</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>https://kyber.network</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Aggregator Executor V3</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K109" t="n">
-        <v>17031690.6875</v>
+        <v>1615725274.177672</v>
       </c>
       <c r="L109" t="n">
-        <v>17040501.6875</v>
+        <v>1616818453.003693</v>
       </c>
       <c r="M109" t="n">
-        <v>91604.61257375</v>
+        <v>534356.8225944692</v>
       </c>
       <c r="N109" t="n">
-        <v>91604.61257375</v>
+        <v>534719.3745129057</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xB0A27099582833c0Cb8C7A0565759fF145113d64</t>
+          <t>https://intel.arkm.com/explorer/address/0x536c4921D1aAfDE6a5cda882fb5cA046f3601c65</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>0xB0A27099582833c0Cb8C7A0565759fF145113d64</t>
+          <t>0x536c4921D1aAfDE6a5cda882fb5cA046f3601c65</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -7088,7 +7304,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -7097,37 +7313,37 @@
         </is>
       </c>
       <c r="K110" t="n">
-        <v>11303307.14941406</v>
+        <v>997605583.6784681</v>
       </c>
       <c r="L110" t="n">
-        <v>11209795.4050293</v>
+        <v>914175705.0618412</v>
       </c>
       <c r="M110" t="n">
-        <v>61859.33</v>
+        <v>331620.7027464561</v>
       </c>
       <c r="N110" t="n">
-        <v>61943.384614</v>
+        <v>303891.63627826</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xBC8A0f5E41857292D12Ef620e2a5895ce65A5Ce0</t>
+          <t>https://intel.arkm.com/explorer/address/0xbD216513d74C8cf14cf4747E6AaA6420FF64ee9e</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>0xBC8A0f5E41857292D12Ef620e2a5895ce65A5Ce0</t>
+          <t>0xbD216513d74C8cf14cf4747E6AaA6420FF64ee9e</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -7136,29 +7352,29 @@
         </is>
       </c>
       <c r="D111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111" t="b">
         <v>0</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Wintermute</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>dex</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>https://www.wintermute.com/</t>
+          <t>https://uniswap.org</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>OKX Deposit</t>
+          <t>Uniswap v4 Positions NFT (UNI-V4-POSM)</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -7167,37 +7383,37 @@
         </is>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>874763927.5577205</v>
       </c>
       <c r="L111" t="n">
-        <v>10736338.625</v>
+        <v>844943230.2222686</v>
       </c>
       <c r="M111" t="n">
-        <v>0</v>
+        <v>291341.2357813689</v>
       </c>
       <c r="N111" t="n">
-        <v>59201.98015913</v>
+        <v>281348.7574903264</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x927C6aaA6aAd7aF5252237af8B85be10B2DE0DBB</t>
+          <t>https://intel.arkm.com/explorer/address/0xEae7380dD4CeF6fbD1144F49E4D1e6964258A4F4</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>0x927C6aaA6aAd7aF5252237af8B85be10B2DE0DBB</t>
+          <t>0xEae7380dD4CeF6fbD1144F49E4D1e6964258A4F4</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -7211,43 +7427,63 @@
       <c r="E112" t="b">
         <v>0</v>
       </c>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Wintermute</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Binance Deposit</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K112" t="n">
-        <v>99256834.36861055</v>
+        <v>5014871564.734819</v>
       </c>
       <c r="L112" t="n">
-        <v>99274755.87422192</v>
+        <v>5019863432.96875</v>
       </c>
       <c r="M112" t="n">
-        <v>537255.9919213745</v>
+        <v>1660475.601869847</v>
       </c>
       <c r="N112" t="n">
-        <v>537239.7457921498</v>
+        <v>1661352.52199412</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xAD85405cbB1476825B78a021fa9E543bF7937549</t>
+          <t>https://intel.arkm.com/explorer/address/0xA9Ac43f5b5e38155A288d1A01D2cbc4478E14573</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>0xAD85405cbB1476825B78a021fa9E543bF7937549</t>
+          <t>0xA9Ac43f5b5e38155A288d1A01D2cbc4478E14573</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -7263,7 +7499,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Bybit</t>
+          <t>OKX</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -7273,7 +7509,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>https://bybit.com</t>
+          <t>https://okx.com</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -7287,37 +7523,37 @@
         </is>
       </c>
       <c r="K113" t="n">
-        <v>26592847.28660831</v>
+        <v>3250824949.044283</v>
       </c>
       <c r="L113" t="n">
-        <v>31151404.92205948</v>
+        <v>3325204369.959599</v>
       </c>
       <c r="M113" t="n">
-        <v>146505.4845606601</v>
+        <v>1066824.384041848</v>
       </c>
       <c r="N113" t="n">
-        <v>172208.3093175</v>
+        <v>1092768.2584656</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x59c38b6775Ded821f010DbD30eCabdCF84E04756</t>
+          <t>https://intel.arkm.com/explorer/address/0x3304E22DDaa22bCdC5fCa2269b418046aE7b566A</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>0x59c38b6775Ded821f010DbD30eCabdCF84E04756</t>
+          <t>0x3304E22DDaa22bCdC5fCa2269b418046aE7b566A</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -7326,29 +7562,29 @@
         </is>
       </c>
       <c r="D114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E114" t="b">
         <v>0</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>dex</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>https://uniswap.org</t>
+          <t>https://binance.com</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>UNI-AAVE 2</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -7357,37 +7593,37 @@
         </is>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>1112050121.139042</v>
       </c>
       <c r="L114" t="n">
-        <v>10388335.41076284</v>
+        <v>1178761625.666843</v>
       </c>
       <c r="M114" t="n">
-        <v>0</v>
+        <v>368742.7276582014</v>
       </c>
       <c r="N114" t="n">
-        <v>58063.60617609092</v>
+        <v>389949.714713</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x51C72848c68a965f66FA7a88855F9f7784502a7F</t>
+          <t>https://intel.arkm.com/explorer/address/0xa1abfA21f80ecf401bd41365adBb6fEF6fEfDF09</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>0x51C72848c68a965f66FA7a88855F9f7784502a7F</t>
+          <t>0xa1abfA21f80ecf401bd41365adBb6fEF6fEfDF09</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -7396,29 +7632,29 @@
         </is>
       </c>
       <c r="D115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E115" t="b">
         <v>0</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Wintermute</t>
+          <t>Bybit</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>https://www.wintermute.com/</t>
+          <t>https://bybit.com</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Market Maker</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -7427,37 +7663,37 @@
         </is>
       </c>
       <c r="K115" t="n">
-        <v>66148750.84696317</v>
+        <v>818214049.655441</v>
       </c>
       <c r="L115" t="n">
-        <v>65534751.04799194</v>
+        <v>987461400.3661058</v>
       </c>
       <c r="M115" t="n">
-        <v>367497.3544445687</v>
+        <v>271591.7915828648</v>
       </c>
       <c r="N115" t="n">
-        <v>364353.696646454</v>
+        <v>326750.8845285595</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xA3222357a0eCCF60C73606170be6c99ADeCb59b3</t>
+          <t>https://intel.arkm.com/explorer/address/0xBD7D6a9ad7865463DE44B05F04559f65e3B11704</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>0xA3222357a0eCCF60C73606170be6c99ADeCb59b3</t>
+          <t>0xBD7D6a9ad7865463DE44B05F04559f65e3B11704</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -7473,22 +7709,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>HitBTC</t>
+          <t>Spark</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>lending-decentralized</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>https://hitbtc.com</t>
+          <t>https://spark.fi/</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>WrappedTokenGatewayV3</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -7497,37 +7733,37 @@
         </is>
       </c>
       <c r="K116" t="n">
-        <v>13498095.49030154</v>
+        <v>0</v>
       </c>
       <c r="L116" t="n">
-        <v>13499544.45428276</v>
+        <v>669233025.382944</v>
       </c>
       <c r="M116" t="n">
-        <v>75589.69435691438</v>
+        <v>0</v>
       </c>
       <c r="N116" t="n">
-        <v>75545.092934</v>
+        <v>225937.2369532283</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x51C81471d65f98AA74e8F7ead948856DC23205af</t>
+          <t>https://intel.arkm.com/explorer/address/0x1346B4d6867a382B02b19A8D131D9b96b18585f2</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>0x51C81471d65f98AA74e8F7ead948856DC23205af</t>
+          <t>0x1346B4d6867a382B02b19A8D131D9b96b18585f2</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -7536,29 +7772,17 @@
         </is>
       </c>
       <c r="D117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E117" t="b">
         <v>0</v>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Coinbase</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>StabilizerNFT (Proxy)</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7567,37 +7791,37 @@
         </is>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>1502844456.777627</v>
       </c>
       <c r="L117" t="n">
-        <v>9528780</v>
+        <v>1530916786.482556</v>
       </c>
       <c r="M117" t="n">
-        <v>0</v>
+        <v>494636.8057310169</v>
       </c>
       <c r="N117" t="n">
-        <v>50926.08755225615</v>
+        <v>503903.1425560149</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xf8191D98ae98d2f7aBDFB63A9b0b812b93C873AA</t>
+          <t>https://intel.arkm.com/explorer/address/0x131bf4Cc1E4C60734B64e908D35f0F5cB9727dc7</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>0xf8191D98ae98d2f7aBDFB63A9b0b812b93C873AA</t>
+          <t>0x131bf4Cc1E4C60734B64e908D35f0F5cB9727dc7</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -7611,319 +7835,31 @@
       <c r="E118" t="b">
         <v>0</v>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Wintermute</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>https://www.wintermute.com/</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>59653492.9184129</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
-        <v>58956296.29182577</v>
+        <v>697064308.7639545</v>
       </c>
       <c r="M118" t="n">
-        <v>326090.2615210737</v>
+        <v>0</v>
       </c>
       <c r="N118" t="n">
-        <v>324108.904229221</v>
+        <v>230417.0875512386</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2025-12-22 02:26:59</t>
+          <t>2025-12-22 02:30:16</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>aave</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>https://intel.arkm.com/explorer/address/0x33566c9D8BE6Cf0B23795E0d380E112Be9d75836</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>0x33566c9D8BE6Cf0B23795E0d380E112Be9d75836</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D119" t="b">
-        <v>0</v>
-      </c>
-      <c r="E119" t="b">
-        <v>0</v>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Galaxy Digital</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>https://www.galaxy.com/</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
-      <c r="K119" t="n">
-        <v>22360534.1015625</v>
-      </c>
-      <c r="L119" t="n">
-        <v>22687091.7802124</v>
-      </c>
-      <c r="M119" t="n">
-        <v>127888.45555956</v>
-      </c>
-      <c r="N119" t="n">
-        <v>128019.36236941</v>
-      </c>
-      <c r="O119" t="inlineStr">
-        <is>
-          <t>2025-12-22 02:26:59</t>
-        </is>
-      </c>
-      <c r="P119" t="inlineStr">
-        <is>
-          <t>aave</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>https://intel.arkm.com/explorer/address/0x8f85D8d9d232883d63c992DFf303C10DDA2e428F</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>0x8f85D8d9d232883d63c992DFf303C10DDA2e428F</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D120" t="b">
-        <v>0</v>
-      </c>
-      <c r="E120" t="b">
-        <v>0</v>
-      </c>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>HitBTC Deposit</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
-      <c r="K120" t="n">
-        <v>15954436.64697266</v>
-      </c>
-      <c r="L120" t="n">
-        <v>16492753.85498047</v>
-      </c>
-      <c r="M120" t="n">
-        <v>92829.29952149153</v>
-      </c>
-      <c r="N120" t="n">
-        <v>95229.48952149153</v>
-      </c>
-      <c r="O120" t="inlineStr">
-        <is>
-          <t>2025-12-22 02:26:59</t>
-        </is>
-      </c>
-      <c r="P120" t="inlineStr">
-        <is>
-          <t>aave</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>https://intel.arkm.com/explorer/address/0xCD531Ae9EFCCE479654c4926dec5F6209531Ca7b</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>0xCD531Ae9EFCCE479654c4926dec5F6209531Ca7b</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D121" t="b">
-        <v>0</v>
-      </c>
-      <c r="E121" t="b">
-        <v>0</v>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Coinbase Prime</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>https://www.coinbase.com/prime</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
-      <c r="K121" t="n">
-        <v>69658783.59529877</v>
-      </c>
-      <c r="L121" t="n">
-        <v>69760482.58183956</v>
-      </c>
-      <c r="M121" t="n">
-        <v>375980.6090191904</v>
-      </c>
-      <c r="N121" t="n">
-        <v>376232.6012953987</v>
-      </c>
-      <c r="O121" t="inlineStr">
-        <is>
-          <t>2025-12-22 02:26:59</t>
-        </is>
-      </c>
-      <c r="P121" t="inlineStr">
-        <is>
-          <t>aave</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>https://intel.arkm.com/explorer/address/0xDFd5293D8e347dFe59E90eFd55b2956a1343963d</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>0xDFd5293D8e347dFe59E90eFd55b2956a1343963d</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D122" t="b">
-        <v>0</v>
-      </c>
-      <c r="E122" t="b">
-        <v>0</v>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Binance</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>https://binance.com</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
-      <c r="K122" t="n">
-        <v>59832184.75</v>
-      </c>
-      <c r="L122" t="n">
-        <v>58352455.28972208</v>
-      </c>
-      <c r="M122" t="n">
-        <v>327704.03044995</v>
-      </c>
-      <c r="N122" t="n">
-        <v>317048.0636187</v>
-      </c>
-      <c r="O122" t="inlineStr">
-        <is>
-          <t>2025-12-22 02:26:59</t>
-        </is>
-      </c>
-      <c r="P122" t="inlineStr">
-        <is>
-          <t>aave</t>
+          <t>ethereum</t>
         </is>
       </c>
     </row>

--- a/data_cripto/top_flow.xlsx
+++ b/data_cripto/top_flow.xlsx
@@ -518,12 +518,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x5d4F3C6fA16908609BAC31Ff148Bd002AA6b8c83</t>
+          <t>https://intel.arkm.com/explorer/address/0x177a7376860a04eEA6BF7fb3F39Bf10c49D3b42C</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0x5d4F3C6fA16908609BAC31Ff148Bd002AA6b8c83</t>
+          <t>0x177a7376860a04eEA6BF7fb3F39Bf10c49D3b42C</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -532,14 +532,14 @@
         </is>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>Blackhole</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -549,34 +549,26 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://uniswap.org</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>LINK 2</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://blackhole.xyz/</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>27227624.82617303</v>
+        <v>204645618.042345</v>
       </c>
       <c r="L2" t="n">
-        <v>27038523.27327744</v>
+        <v>204698274.4002293</v>
       </c>
       <c r="M2" t="n">
-        <v>2060571.650277866</v>
+        <v>15548393.23293152</v>
       </c>
       <c r="N2" t="n">
-        <v>2046710.775372</v>
+        <v>15553529.20849076</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -588,12 +580,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x4A4aaA0155237881FBD5C34BfaE16e985A7B068D</t>
+          <t>https://intel.arkm.com/explorer/address/0x2Ad4958554a1015F8b10AC673C1A4f19359EF074</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0x4A4aaA0155237881FBD5C34BfaE16e985A7B068D</t>
+          <t>0x2Ad4958554a1015F8b10AC673C1A4f19359EF074</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -607,46 +599,26 @@
       <c r="E3" t="b">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>OKX</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>https://okx.com</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>16139586.89599609</v>
+        <v>28840000</v>
       </c>
       <c r="L3" t="n">
-        <v>16455580.15708828</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1221035.67564164</v>
+        <v>2000000</v>
       </c>
       <c r="N3" t="n">
-        <v>1235830.34580679</v>
+        <v>0</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -658,12 +630,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x28C6c06298d514Db089934071355E5743bf21d60</t>
+          <t>https://intel.arkm.com/explorer/address/0xa42D0A18B834F52e41bEDdEaA2940165db3DA9a3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0x28C6c06298d514Db089934071355E5743bf21d60</t>
+          <t>0xa42D0A18B834F52e41bEDdEaA2940165db3DA9a3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -672,29 +644,29 @@
         </is>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Chainlink</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>oracle</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
+          <t>https://chain.link</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Non-Circulating Supply</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -703,20 +675,20 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>305419101.5294189</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>300303915.1621115</v>
+        <v>50479988</v>
       </c>
       <c r="M4" t="n">
-        <v>23419126.71782901</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>23007562.33646544</v>
+        <v>3999999</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -728,12 +700,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x21a31Ee1afC51d94C2eFcCAa2092aD1028285549</t>
+          <t>https://intel.arkm.com/explorer/address/0xeFE267E44A58815DD2e319F3b9a679a5202da1ce</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0x21a31Ee1afC51d94C2eFcCAa2092aD1028285549</t>
+          <t>0xeFE267E44A58815DD2e319F3b9a679a5202da1ce</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -742,29 +714,17 @@
         </is>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Binance</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>https://binance.com</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Gnosis Safe Proxy</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -773,20 +733,20 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>55813830.32995605</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>56205659.82148707</v>
+        <v>12630000</v>
       </c>
       <c r="M5" t="n">
-        <v>4249940.93773681</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>4223723.54785875</v>
+        <v>1000000</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -798,12 +758,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xD50f074Ec5c7997cE1DaacB513Ec194C480878Af</t>
+          <t>https://intel.arkm.com/explorer/address/0x000000000004444c5dc75cB358380D2e3dE08A90</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0xD50f074Ec5c7997cE1DaacB513Ec194C480878Af</t>
+          <t>0x000000000004444c5dc75cB358380D2e3dE08A90</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -817,12 +777,24 @@
       <c r="E6" t="b">
         <v>0</v>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Uniswap</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>dex</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://uniswap.org</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Gnosis Safe Proxy</t>
+          <t>PoolManager</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -831,20 +803,20 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>25535238</v>
+        <v>35972108.93386101</v>
       </c>
       <c r="L6" t="n">
-        <v>14482699</v>
+        <v>33769578.83266231</v>
       </c>
       <c r="M6" t="n">
-        <v>2024999</v>
+        <v>2698406.184883012</v>
       </c>
       <c r="N6" t="n">
-        <v>1107498</v>
+        <v>2526995.454267934</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -856,12 +828,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xBEEf02961503351625926Ea9a11AE13B29F5c555</t>
+          <t>https://intel.arkm.com/explorer/address/0xBC64BDE4C3b70147C47c16dD9277a6Aaef7e0f02</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0xBEEf02961503351625926Ea9a11AE13B29F5c555</t>
+          <t>0xBC64BDE4C3b70147C47c16dD9277a6Aaef7e0f02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -881,20 +853,20 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>13163466.38160539</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>23835008</v>
       </c>
       <c r="M7" t="n">
-        <v>1015544.507033131</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1618126.874701472</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -906,12 +878,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x3A90bE9fc3f295975954A71736954df870a9f79b</t>
+          <t>https://intel.arkm.com/explorer/address/0xA69babEF1cA67A37Ffaf7a485DfFF3382056e78C</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0x3A90bE9fc3f295975954A71736954df870a9f79b</t>
+          <t>0xA69babEF1cA67A37Ffaf7a485DfFF3382056e78C</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -920,14 +892,14 @@
         </is>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Grayscale</t>
+          <t>Symbolic Capital Partners</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -937,12 +909,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://grayscale.com/</t>
+          <t>https://symbolic.partners</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Chainlink Trust</t>
+          <t>MEV Bot</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -951,20 +923,20 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>20634384.375</v>
+        <v>93400321.72603631</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>93436693.97986937</v>
       </c>
       <c r="M8" t="n">
-        <v>1473694.38068774</v>
+        <v>6984947.270853793</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>6984098.167031578</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -976,12 +948,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x191c10Aa4AF7C30e871E70C95dB0E4eb77237530</t>
+          <t>https://intel.arkm.com/explorer/address/0xBEEf02961503351625926Ea9a11AE13B29F5c555</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0x191c10Aa4AF7C30e871E70C95dB0E4eb77237530</t>
+          <t>0xBEEf02961503351625926Ea9a11AE13B29F5c555</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -995,38 +967,26 @@
       <c r="E9" t="b">
         <v>0</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Aave</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>lending-decentralized</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>https://aave.com</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>13163466.38160539</v>
       </c>
       <c r="L9" t="n">
-        <v>13144576.24096721</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1015544.507033131</v>
       </c>
       <c r="N9" t="n">
-        <v>995965.7878645874</v>
+        <v>0</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1038,12 +998,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xBC64BDE4C3b70147C47c16dD9277a6Aaef7e0f02</t>
+          <t>https://intel.arkm.com/explorer/address/0xCD531Ae9EFCCE479654c4926dec5F6209531Ca7b</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0xBC64BDE4C3b70147C47c16dD9277a6Aaef7e0f02</t>
+          <t>0xCD531Ae9EFCCE479654c4926dec5F6209531Ca7b</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1057,26 +1017,46 @@
       <c r="E10" t="b">
         <v>0</v>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Coinbase Prime</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://www.coinbase.com/prime</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>307359333.6130075</v>
       </c>
       <c r="L10" t="n">
-        <v>23835008</v>
+        <v>307524495.3352643</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>22029407.41793381</v>
       </c>
       <c r="N10" t="n">
-        <v>1618126.874701472</v>
+        <v>22023158.30466179</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1088,12 +1068,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xeFE267E44A58815DD2e319F3b9a679a5202da1ce</t>
+          <t>https://intel.arkm.com/explorer/address/0x79dD9327352BcF1dd16941899705E97b61F4DEcB</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0xeFE267E44A58815DD2e319F3b9a679a5202da1ce</t>
+          <t>0x79dD9327352BcF1dd16941899705E97b61F4DEcB</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1102,17 +1082,29 @@
         </is>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Kraken</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://kraken.com</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Gnosis Safe Proxy</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1121,20 +1113,20 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>37579767.09314632</v>
       </c>
       <c r="L11" t="n">
-        <v>12630000</v>
+        <v>40732051.65917411</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>2847359.440467375</v>
       </c>
       <c r="N11" t="n">
-        <v>1000000</v>
+        <v>3080165.27353252</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1146,12 +1138,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xCD531Ae9EFCCE479654c4926dec5F6209531Ca7b</t>
+          <t>https://intel.arkm.com/explorer/address/0xBEE3211ab312a8D065c4FeF0247448e17A8da000</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0xCD531Ae9EFCCE479654c4926dec5F6209531Ca7b</t>
+          <t>0xBEE3211ab312a8D065c4FeF0247448e17A8da000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1160,29 +1152,17 @@
         </is>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Coinbase Prime</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>https://www.coinbase.com/prime</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Market Maker</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1191,20 +1171,20 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>307359333.6130075</v>
+        <v>18516665.66933377</v>
       </c>
       <c r="L12" t="n">
-        <v>307524495.3352643</v>
+        <v>18522027.24283403</v>
       </c>
       <c r="M12" t="n">
-        <v>22029407.41793381</v>
+        <v>1409826.394817409</v>
       </c>
       <c r="N12" t="n">
-        <v>22023158.30466179</v>
+        <v>1410015.174851581</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1216,12 +1196,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x51C72848c68a965f66FA7a88855F9f7784502a7F</t>
+          <t>https://intel.arkm.com/explorer/address/0x79E4240E33C121402dfc9009dE266356c91f241d</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0x51C72848c68a965f66FA7a88855F9f7784502a7F</t>
+          <t>0x79E4240E33C121402dfc9009dE266356c91f241d</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1230,51 +1210,43 @@
         </is>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Wintermute</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>dex</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.wintermute.com/</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Market Maker</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://uniswap.org</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>104276473.287901</v>
+        <v>13441325.20611326</v>
       </c>
       <c r="L13" t="n">
-        <v>104826815.7798512</v>
+        <v>13347321.00379777</v>
       </c>
       <c r="M13" t="n">
-        <v>7811033.315261204</v>
+        <v>1016700.30855109</v>
       </c>
       <c r="N13" t="n">
-        <v>7844443.716172406</v>
+        <v>1012098.147050853</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1286,12 +1258,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x0D0707963952f2fBA59dD06f2b425ace40b492Fe</t>
+          <t>https://intel.arkm.com/explorer/address/0x468b88941e7Cc0B88c1869d68ab6b570bCEF62Ff</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0x0D0707963952f2fBA59dD06f2b425ace40b492Fe</t>
+          <t>0x468b88941e7Cc0B88c1869d68ab6b570bCEF62Ff</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1307,44 +1279,36 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Gate</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>dex</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://gate.com</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://uniswap.org</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>17816357.46011353</v>
+        <v>18441172.8827455</v>
       </c>
       <c r="L14" t="n">
-        <v>17967854.90087833</v>
+        <v>17243877.14002382</v>
       </c>
       <c r="M14" t="n">
-        <v>1338924.987489549</v>
+        <v>1386318.920468337</v>
       </c>
       <c r="N14" t="n">
-        <v>1360012.368521092</v>
+        <v>1299745.912746496</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1356,12 +1320,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x676Fc50D17307fBd491BAf19033f92D17a5Dc586</t>
+          <t>https://intel.arkm.com/explorer/address/0xFA103c21ea2DF71DFb92B0652F8B1D795e51cdEf</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0x676Fc50D17307fBd491BAf19033f92D17a5Dc586</t>
+          <t>0xFA103c21ea2DF71DFb92B0652F8B1D795e51cdEf</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1370,17 +1334,29 @@
         </is>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Symbolic Capital Partners</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://symbolic.partners</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Coinbase Prime Deposit</t>
+          <t>CEX Bridge</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1389,20 +1365,20 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>40707347.126359</v>
+        <v>29965628.95898438</v>
       </c>
       <c r="L15" t="n">
-        <v>40706459.375</v>
+        <v>29973471.07519531</v>
       </c>
       <c r="M15" t="n">
-        <v>2858612.07964248</v>
+        <v>2231791.44425419</v>
       </c>
       <c r="N15" t="n">
-        <v>2858612.07964248</v>
+        <v>2233043.61125419</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1414,12 +1390,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x841ed663F2636863D40be4EE76243377dff13a34</t>
+          <t>https://intel.arkm.com/explorer/address/0xD50f074Ec5c7997cE1DaacB513Ec194C480878Af</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0x841ed663F2636863D40be4EE76243377dff13a34</t>
+          <t>0xD50f074Ec5c7997cE1DaacB513Ec194C480878Af</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1428,29 +1404,17 @@
         </is>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Robinhood</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>https://robinhood.com/</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Gnosis Safe Proxy</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1459,20 +1423,20 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>25535238</v>
       </c>
       <c r="L16" t="n">
-        <v>21268475.47851562</v>
+        <v>14482699</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>2024999</v>
       </c>
       <c r="N16" t="n">
-        <v>1632837.07004406</v>
+        <v>1107498</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1484,12 +1448,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xDdfF0cdb9A67fda3363488140ea3E2159A43c2D4</t>
+          <t>https://intel.arkm.com/explorer/address/0x3A90bE9fc3f295975954A71736954df870a9f79b</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0xDdfF0cdb9A67fda3363488140ea3E2159A43c2D4</t>
+          <t>0x3A90bE9fc3f295975954A71736954df870a9f79b</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1503,12 +1467,24 @@
       <c r="E17" t="b">
         <v>0</v>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Grayscale</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://grayscale.com/</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Coinbase Prime Custody</t>
+          <t>Chainlink Trust</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1517,20 +1493,20 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>20634384.375</v>
       </c>
       <c r="L17" t="n">
-        <v>19560394</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1473694.38068774</v>
       </c>
       <c r="N17" t="n">
-        <v>1432995.917548134</v>
+        <v>0</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1542,12 +1518,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x7A28b8cFeb73b45626f521dE928d0DD2D25C14a3</t>
+          <t>https://intel.arkm.com/explorer/address/0x1BF7A9E3A364e7F5761345837f222cd93e230C4f</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0x7A28b8cFeb73b45626f521dE928d0DD2D25C14a3</t>
+          <t>0x1BF7A9E3A364e7F5761345837f222cd93e230C4f</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1556,7 +1532,7 @@
         </is>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -1566,7 +1542,7 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Gnosis Safe Proxy</t>
+          <t>Binance Deposit</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1575,20 +1551,20 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>14482699</v>
+        <v>19647555.53515625</v>
       </c>
       <c r="L18" t="n">
-        <v>14462699</v>
+        <v>19671904.23632812</v>
       </c>
       <c r="M18" t="n">
-        <v>1107498</v>
+        <v>1459850.56</v>
       </c>
       <c r="N18" t="n">
-        <v>1107498</v>
+        <v>1459850.56</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1600,12 +1576,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x5E8C8A7243651DB1384C0dDfDbE39761E8e7E51a</t>
+          <t>https://intel.arkm.com/explorer/address/0x21a31Ee1afC51d94C2eFcCAa2092aD1028285549</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0x5E8C8A7243651DB1384C0dDfDbE39761E8e7E51a</t>
+          <t>0x21a31Ee1afC51d94C2eFcCAa2092aD1028285549</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1614,29 +1590,29 @@
         </is>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Aave</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>lending-decentralized</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://aave.com</t>
+          <t>https://binance.com</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Aave Ethereum LINK (aEthLINK)</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1645,20 +1621,20 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>37438257.99507561</v>
+        <v>55813830.32995605</v>
       </c>
       <c r="L19" t="n">
-        <v>35226613.33316984</v>
+        <v>56205659.82148707</v>
       </c>
       <c r="M19" t="n">
-        <v>2817218.970597081</v>
+        <v>4249940.93773681</v>
       </c>
       <c r="N19" t="n">
-        <v>2665661.048119678</v>
+        <v>4223723.54785875</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1670,12 +1646,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x2Ad4958554a1015F8b10AC673C1A4f19359EF074</t>
+          <t>https://intel.arkm.com/explorer/address/0x91D40E4818F4D4C57b4578d9ECa6AFc92aC8DEbE</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0x2Ad4958554a1015F8b10AC673C1A4f19359EF074</t>
+          <t>0x91D40E4818F4D4C57b4578d9ECa6AFc92aC8DEbE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1689,26 +1665,46 @@
       <c r="E20" t="b">
         <v>0</v>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>OKX</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://okx.com</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K20" t="n">
-        <v>28840000</v>
+        <v>33409543.83515068</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>34642390.97762418</v>
       </c>
       <c r="M20" t="n">
-        <v>2000000</v>
+        <v>2487981.515333756</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>2572560.59114373</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1720,12 +1716,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x556052af8B4f001b659066E061836B174E39c539</t>
+          <t>https://intel.arkm.com/explorer/address/0x44C3a96181AF9e295cE8E188FA8FcDd72D1eb668</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0x556052af8B4f001b659066E061836B174E39c539</t>
+          <t>0x44C3a96181AF9e295cE8E188FA8FcDd72D1eb668</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1745,20 +1741,20 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>16087505.5400586</v>
+        <v>22412982.04742046</v>
       </c>
       <c r="L21" t="n">
-        <v>16718540.21090603</v>
+        <v>25281759.06082153</v>
       </c>
       <c r="M21" t="n">
-        <v>1186809.795025333</v>
+        <v>1722516.895469818</v>
       </c>
       <c r="N21" t="n">
-        <v>1238779.383674878</v>
+        <v>1953061.418806222</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -1770,12 +1766,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x1FA00bE39C9b815B039Fa5F3394405eEb9502C9c</t>
+          <t>https://intel.arkm.com/explorer/address/0x7f604D597c15b2e2F60DC645844f68b1D781b752</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0x1FA00bE39C9b815B039Fa5F3394405eEb9502C9c</t>
+          <t>0x7f604D597c15b2e2F60DC645844f68b1D781b752</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1789,12 +1785,24 @@
       <c r="E22" t="b">
         <v>0</v>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Bitstamp</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://bitstamp.net</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Coinbase Deposit</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1803,20 +1811,20 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>18007878.296875</v>
+        <v>13662421.85406138</v>
       </c>
       <c r="L22" t="n">
-        <v>18819128.15429688</v>
+        <v>15023501.87969458</v>
       </c>
       <c r="M22" t="n">
-        <v>1367933.47779</v>
+        <v>1026955.225847075</v>
       </c>
       <c r="N22" t="n">
-        <v>1429497.96949</v>
+        <v>1141708.5619001</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -1828,12 +1836,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x9B1c1752B6B6eAF62a8c491A8681B32C1F7ecDE9</t>
+          <t>https://intel.arkm.com/explorer/address/0xfBd4cdB413E45a52E2C8312f670e9cE67E794C37</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0x9B1c1752B6B6eAF62a8c491A8681B32C1F7ecDE9</t>
+          <t>0xfBd4cdB413E45a52E2C8312f670e9cE67E794C37</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1842,7 +1850,7 @@
         </is>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -1850,31 +1858,23 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Binance Deposit</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>116314976</v>
+        <v>39749467.72281814</v>
       </c>
       <c r="L23" t="n">
-        <v>116379500</v>
+        <v>39928814.86404085</v>
       </c>
       <c r="M23" t="n">
-        <v>9224998</v>
+        <v>2981205.066058138</v>
       </c>
       <c r="N23" t="n">
-        <v>9225000</v>
+        <v>2984867.643954413</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -1886,12 +1886,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xF977814e90dA44bFA03b6295A0616a897441aceC</t>
+          <t>https://intel.arkm.com/explorer/address/0x2B83aaCB0dD973866B563cFb0EF0AEF24B93200b</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0xF977814e90dA44bFA03b6295A0616a897441aceC</t>
+          <t>0x2B83aaCB0dD973866B563cFb0EF0AEF24B93200b</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1905,24 +1905,12 @@
       <c r="E24" t="b">
         <v>0</v>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Binance</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>https://binance.com</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Coinbase Prime Custody</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1931,20 +1919,20 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>90764924.25</v>
+        <v>34534937.38460625</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>36016885.109375</v>
       </c>
       <c r="M24" t="n">
-        <v>7178890.169000001</v>
+        <v>2580610.884152188</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>2678999.130835807</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -1956,12 +1944,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x000000000004444c5dc75cB358380D2e3dE08A90</t>
+          <t>https://intel.arkm.com/explorer/address/0x0D0707963952f2fBA59dD06f2b425ace40b492Fe</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0x000000000004444c5dc75cB358380D2e3dE08A90</t>
+          <t>0x0D0707963952f2fBA59dD06f2b425ace40b492Fe</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1970,29 +1958,29 @@
         </is>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>Gate</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>dex</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://uniswap.org</t>
+          <t>https://gate.com</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>PoolManager</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2001,20 +1989,20 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>35972108.93386101</v>
+        <v>17816357.46011353</v>
       </c>
       <c r="L25" t="n">
-        <v>33769578.83266231</v>
+        <v>17967854.90087833</v>
       </c>
       <c r="M25" t="n">
-        <v>2698406.184883012</v>
+        <v>1338924.987489549</v>
       </c>
       <c r="N25" t="n">
-        <v>2526995.454267934</v>
+        <v>1360012.368521092</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2026,12 +2014,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x651641299C7eC0aA44AD7eD9b7E12702fED2022f</t>
+          <t>https://intel.arkm.com/explorer/address/0x7C876bdaA5c038E19F633714f622F6Def949B102</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0x651641299C7eC0aA44AD7eD9b7E12702fED2022f</t>
+          <t>0x7C876bdaA5c038E19F633714f622F6Def949B102</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2045,46 +2033,26 @@
       <c r="E26" t="b">
         <v>0</v>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Bybit</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>https://bybit.com</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>29248412.55956115</v>
+        <v>18109386.87500241</v>
       </c>
       <c r="L26" t="n">
-        <v>30699986.75808522</v>
+        <v>17641660.625</v>
       </c>
       <c r="M26" t="n">
-        <v>2209149.651303647</v>
+        <v>1330121.844603767</v>
       </c>
       <c r="N26" t="n">
-        <v>2315056.71247596</v>
+        <v>1297788.916184871</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2096,12 +2064,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x63242A4Ea82847b20E506b63B0e2e2eFF0CC6cB0</t>
+          <t>https://intel.arkm.com/explorer/address/0xB1dB79aea0a13382DD9E279d96Bc9a468A2F4E87</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0x63242A4Ea82847b20E506b63B0e2e2eFF0CC6cB0</t>
+          <t>0xB1dB79aea0a13382DD9E279d96Bc9a468A2F4E87</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2110,51 +2078,31 @@
         </is>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Kyber Network</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>dex</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>https://kyber.network</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Aggregator Executor V3</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>16843474.38232928</v>
+        <v>201632143.5889926</v>
       </c>
       <c r="L27" t="n">
-        <v>16305671.57272182</v>
+        <v>201614894.4123903</v>
       </c>
       <c r="M27" t="n">
-        <v>1291141.810371299</v>
+        <v>15320804.68394812</v>
       </c>
       <c r="N27" t="n">
-        <v>1250890.537486116</v>
+        <v>15319447.87728354</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2166,12 +2114,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x1BF7A9E3A364e7F5761345837f222cd93e230C4f</t>
+          <t>https://intel.arkm.com/explorer/address/0x5E8C8A7243651DB1384C0dDfDbE39761E8e7E51a</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0x1BF7A9E3A364e7F5761345837f222cd93e230C4f</t>
+          <t>0x5E8C8A7243651DB1384C0dDfDbE39761E8e7E51a</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2180,17 +2128,29 @@
         </is>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Aave</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>lending-decentralized</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>https://aave.com</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Binance Deposit</t>
+          <t>Aave Ethereum LINK (aEthLINK)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2199,20 +2159,20 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>19647555.53515625</v>
+        <v>38300837.12007561</v>
       </c>
       <c r="L28" t="n">
-        <v>19671904.23632812</v>
+        <v>35226613.33316984</v>
       </c>
       <c r="M28" t="n">
-        <v>1459850.56</v>
+        <v>2886502.432623768</v>
       </c>
       <c r="N28" t="n">
-        <v>1459850.56</v>
+        <v>2665661.048119678</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2224,12 +2184,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x7C876bdaA5c038E19F633714f622F6Def949B102</t>
+          <t>https://intel.arkm.com/explorer/address/0x5d4F3C6fA16908609BAC31Ff148Bd002AA6b8c83</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0x7C876bdaA5c038E19F633714f622F6Def949B102</t>
+          <t>0x5d4F3C6fA16908609BAC31Ff148Bd002AA6b8c83</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2238,31 +2198,51 @@
         </is>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Uniswap</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>dex</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>https://uniswap.org</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>LINK 2</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K29" t="n">
-        <v>18109386.87500241</v>
+        <v>27227368.24302833</v>
       </c>
       <c r="L29" t="n">
-        <v>17641660.625</v>
+        <v>27039066.08915428</v>
       </c>
       <c r="M29" t="n">
-        <v>1330121.844603767</v>
+        <v>2060550.392353446</v>
       </c>
       <c r="N29" t="n">
-        <v>1297788.916184871</v>
+        <v>2046752.17178118</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2274,12 +2254,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x7f604D597c15b2e2F60DC645844f68b1D781b752</t>
+          <t>https://intel.arkm.com/explorer/address/0xDdfF0cdb9A67fda3363488140ea3E2159A43c2D4</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0x7f604D597c15b2e2F60DC645844f68b1D781b752</t>
+          <t>0xDdfF0cdb9A67fda3363488140ea3E2159A43c2D4</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2293,24 +2273,12 @@
       <c r="E30" t="b">
         <v>0</v>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Bitstamp</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>https://bitstamp.net</t>
-        </is>
-      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Coinbase Prime Custody</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2319,20 +2287,20 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>13662421.85406138</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>15023501.87969458</v>
+        <v>19560394</v>
       </c>
       <c r="M30" t="n">
-        <v>1026955.225847075</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1141708.5619001</v>
+        <v>1432995.917548134</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2344,12 +2312,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x44C3a96181AF9e295cE8E188FA8FcDd72D1eb668</t>
+          <t>https://intel.arkm.com/explorer/address/0xEae7380dD4CeF6fbD1144F49E4D1e6964258A4F4</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0x44C3a96181AF9e295cE8E188FA8FcDd72D1eb668</t>
+          <t>0xEae7380dD4CeF6fbD1144F49E4D1e6964258A4F4</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2363,26 +2331,46 @@
       <c r="E31" t="b">
         <v>0</v>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Wintermute</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Binance Deposit</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K31" t="n">
-        <v>22412982.04742046</v>
+        <v>48817224.6640625</v>
       </c>
       <c r="L31" t="n">
-        <v>25281759.06082153</v>
+        <v>48844256.52734375</v>
       </c>
       <c r="M31" t="n">
-        <v>1722516.895469818</v>
+        <v>3624302.96599815</v>
       </c>
       <c r="N31" t="n">
-        <v>1953061.418806222</v>
+        <v>3624302.96599815</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2394,12 +2382,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x468b88941e7Cc0B88c1869d68ab6b570bCEF62Ff</t>
+          <t>https://intel.arkm.com/explorer/address/0xFAD57d2039C21811C8F2B5D5B65308aa99D31559</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0x468b88941e7Cc0B88c1869d68ab6b570bCEF62Ff</t>
+          <t>0xFAD57d2039C21811C8F2B5D5B65308aa99D31559</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2408,7 +2396,7 @@
         </is>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -2428,23 +2416,31 @@
           <t>https://uniswap.org</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>LINK-USDC</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K32" t="n">
-        <v>18441172.8827455</v>
+        <v>42755158.56636257</v>
       </c>
       <c r="L32" t="n">
-        <v>17243877.14002382</v>
+        <v>42169884.00317559</v>
       </c>
       <c r="M32" t="n">
-        <v>1386318.920468337</v>
+        <v>3289516.667355497</v>
       </c>
       <c r="N32" t="n">
-        <v>1299745.912746496</v>
+        <v>3256496.522075613</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -2502,7 +2498,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -2514,12 +2510,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x91D40E4818F4D4C57b4578d9ECa6AFc92aC8DEbE</t>
+          <t>https://intel.arkm.com/explorer/address/0x8725386e1F03C2b89BE73b5B2CBa7b0056317230</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0x91D40E4818F4D4C57b4578d9ECa6AFc92aC8DEbE</t>
+          <t>0x8725386e1F03C2b89BE73b5B2CBa7b0056317230</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2533,46 +2529,26 @@
       <c r="E34" t="b">
         <v>0</v>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>OKX</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>https://okx.com</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>33409543.83515068</v>
+        <v>20085971.33316925</v>
       </c>
       <c r="L34" t="n">
-        <v>34749101.84705472</v>
+        <v>17594430.02220154</v>
       </c>
       <c r="M34" t="n">
-        <v>2487981.515333756</v>
+        <v>1543010.821196402</v>
       </c>
       <c r="N34" t="n">
-        <v>2581401.59114373</v>
+        <v>1357047.115057076</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -2584,12 +2560,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xFA103c21ea2DF71DFb92B0652F8B1D795e51cdEf</t>
+          <t>https://intel.arkm.com/explorer/address/0xa6Cc3C2531FdaA6Ae1A3CA84c2855806728693e8</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0xFA103c21ea2DF71DFb92B0652F8B1D795e51cdEf</t>
+          <t>0xa6Cc3C2531FdaA6Ae1A3CA84c2855806728693e8</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2605,22 +2581,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Symbolic Capital Partners</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>dex</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://symbolic.partners</t>
+          <t>https://uniswap.org</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>CEX Bridge</t>
+          <t>LINK</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2629,20 +2605,20 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>29965628.95898438</v>
+        <v>136056759.3423067</v>
       </c>
       <c r="L35" t="n">
-        <v>29973471.07519531</v>
+        <v>130662680.0666046</v>
       </c>
       <c r="M35" t="n">
-        <v>2231791.44425419</v>
+        <v>10234893.95904192</v>
       </c>
       <c r="N35" t="n">
-        <v>2233043.61125419</v>
+        <v>9844955.453993659</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -2654,12 +2630,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x8725386e1F03C2b89BE73b5B2CBa7b0056317230</t>
+          <t>https://intel.arkm.com/explorer/address/0x63242A4Ea82847b20E506b63B0e2e2eFF0CC6cB0</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0x8725386e1F03C2b89BE73b5B2CBa7b0056317230</t>
+          <t>0x63242A4Ea82847b20E506b63B0e2e2eFF0CC6cB0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2668,31 +2644,51 @@
         </is>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Kyber Network</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>dex</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>https://kyber.network</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Aggregator Executor V3</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K36" t="n">
-        <v>20085971.33316925</v>
+        <v>16841897.18840533</v>
       </c>
       <c r="L36" t="n">
-        <v>17594430.02220154</v>
+        <v>16304094.37879787</v>
       </c>
       <c r="M36" t="n">
-        <v>1543010.821196402</v>
+        <v>1291011.139790117</v>
       </c>
       <c r="N36" t="n">
-        <v>1357047.115057076</v>
+        <v>1250759.866904935</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -2704,12 +2700,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x0639556F03714A74a5fEEaF5736a4A64fF70D206</t>
+          <t>https://intel.arkm.com/explorer/address/0xC333E80eF2deC2805F239E3f1e810612D294F771</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0x0639556F03714A74a5fEEaF5736a4A64fF70D206</t>
+          <t>0xC333E80eF2deC2805F239E3f1e810612D294F771</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2725,44 +2721,36 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Bitget</t>
+          <t>B2C2 Group</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.bitget.com/</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://www.b2c2.com</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>14529079.60708523</v>
+        <v>16560194.77429389</v>
       </c>
       <c r="L37" t="n">
-        <v>15923205.12320518</v>
+        <v>17176393.54055786</v>
       </c>
       <c r="M37" t="n">
-        <v>1091807.326698788</v>
+        <v>1269651.776611533</v>
       </c>
       <c r="N37" t="n">
-        <v>1193168.95139413</v>
+        <v>1298467.36541865</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -2774,12 +2762,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xAC64829CDa33bb11C26074CE66E8549e4b8a66A2</t>
+          <t>https://intel.arkm.com/explorer/address/0x28C6c06298d514Db089934071355E5743bf21d60</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0xAC64829CDa33bb11C26074CE66E8549e4b8a66A2</t>
+          <t>0x28C6c06298d514Db089934071355E5743bf21d60</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2793,26 +2781,46 @@
       <c r="E38" t="b">
         <v>0</v>
       </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Binance</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K38" t="n">
-        <v>13386399.21875</v>
+        <v>305419101.5294189</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>300303915.1621115</v>
       </c>
       <c r="M38" t="n">
-        <v>1066366.911303386</v>
+        <v>23419126.71782901</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>23007562.33646544</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -2824,12 +2832,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x79E4240E33C121402dfc9009dE266356c91f241d</t>
+          <t>https://intel.arkm.com/explorer/address/0x51C72848c68a965f66FA7a88855F9f7784502a7F</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0x79E4240E33C121402dfc9009dE266356c91f241d</t>
+          <t>0x51C72848c68a965f66FA7a88855F9f7784502a7F</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2838,43 +2846,51 @@
         </is>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>Wintermute</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>dex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://uniswap.org</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Market Maker</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K39" t="n">
-        <v>13441325.20611326</v>
+        <v>104278778.8533918</v>
       </c>
       <c r="L39" t="n">
-        <v>13345268.84303117</v>
+        <v>104826815.7798512</v>
       </c>
       <c r="M39" t="n">
-        <v>1016700.30855109</v>
+        <v>7811217.498687392</v>
       </c>
       <c r="N39" t="n">
-        <v>1011933.314856138</v>
+        <v>7844443.716172406</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -2886,12 +2902,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x9008D19f58AAbD9eD0D60971565AA8510560ab41</t>
+          <t>https://intel.arkm.com/explorer/address/0xDFd5293D8e347dFe59E90eFd55b2956a1343963d</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0x9008D19f58AAbD9eD0D60971565AA8510560ab41</t>
+          <t>0xDFd5293D8e347dFe59E90eFd55b2956a1343963d</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2900,29 +2916,29 @@
         </is>
       </c>
       <c r="D40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>CoW Protocol</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>dex-aggregator</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://cow.fi</t>
+          <t>https://binance.com</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Settlement</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2931,20 +2947,20 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>41702580.58116457</v>
+        <v>79240588</v>
       </c>
       <c r="L40" t="n">
-        <v>41702543.08673622</v>
+        <v>82946052.18806618</v>
       </c>
       <c r="M40" t="n">
-        <v>3157752.955142502</v>
+        <v>5965758.66912632</v>
       </c>
       <c r="N40" t="n">
-        <v>3157757.179162571</v>
+        <v>6276344.32615127</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -2956,12 +2972,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x2B83aaCB0dD973866B563cFb0EF0AEF24B93200b</t>
+          <t>https://intel.arkm.com/explorer/address/0x0639556F03714A74a5fEEaF5736a4A64fF70D206</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0x2B83aaCB0dD973866B563cFb0EF0AEF24B93200b</t>
+          <t>0x0639556F03714A74a5fEEaF5736a4A64fF70D206</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2975,12 +2991,24 @@
       <c r="E41" t="b">
         <v>0</v>
       </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Bitget</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>https://www.bitget.com/</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Coinbase Prime Custody</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2989,20 +3017,20 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>34534937.38460625</v>
+        <v>14529079.60708523</v>
       </c>
       <c r="L41" t="n">
-        <v>36016885.109375</v>
+        <v>15923205.12320518</v>
       </c>
       <c r="M41" t="n">
-        <v>2580610.884152188</v>
+        <v>1091807.326698788</v>
       </c>
       <c r="N41" t="n">
-        <v>2678999.130835807</v>
+        <v>1193168.95139413</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3014,12 +3042,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x525869AD2488101b5cf47e0D898a59f029b32b03</t>
+          <t>https://intel.arkm.com/explorer/address/0xf8191D98ae98d2f7aBDFB63A9b0b812b93C873AA</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0x525869AD2488101b5cf47e0D898a59f029b32b03</t>
+          <t>0xf8191D98ae98d2f7aBDFB63A9b0b812b93C873AA</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3033,26 +3061,46 @@
       <c r="E42" t="b">
         <v>0</v>
       </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Wintermute</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K42" t="n">
-        <v>23835008</v>
+        <v>64332245.15016797</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>64550235.74118805</v>
       </c>
       <c r="M42" t="n">
-        <v>1618126.874701472</v>
+        <v>4738192.878682889</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>4760582.92479658</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3064,12 +3112,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xEae7380dD4CeF6fbD1144F49E4D1e6964258A4F4</t>
+          <t>https://intel.arkm.com/explorer/address/0x7A28b8cFeb73b45626f521dE928d0DD2D25C14a3</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0xEae7380dD4CeF6fbD1144F49E4D1e6964258A4F4</t>
+          <t>0x7A28b8cFeb73b45626f521dE928d0DD2D25C14a3</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3078,29 +3126,17 @@
         </is>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Wintermute</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>https://www.wintermute.com/</t>
-        </is>
-      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Binance Deposit</t>
+          <t>Gnosis Safe Proxy</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3109,20 +3145,20 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>48817224.6640625</v>
+        <v>14482699</v>
       </c>
       <c r="L43" t="n">
-        <v>48844256.52734375</v>
+        <v>14462699</v>
       </c>
       <c r="M43" t="n">
-        <v>3624302.96599815</v>
+        <v>1107498</v>
       </c>
       <c r="N43" t="n">
-        <v>3624302.96599815</v>
+        <v>1107498</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -3134,12 +3170,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xfBd4cdB413E45a52E2C8312f670e9cE67E794C37</t>
+          <t>https://intel.arkm.com/explorer/address/0xAC64829CDa33bb11C26074CE66E8549e4b8a66A2</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0xfBd4cdB413E45a52E2C8312f670e9cE67E794C37</t>
+          <t>0xAC64829CDa33bb11C26074CE66E8549e4b8a66A2</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3148,7 +3184,7 @@
         </is>
       </c>
       <c r="D44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
@@ -3159,20 +3195,20 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>39749467.72281814</v>
+        <v>13386399.21875</v>
       </c>
       <c r="L44" t="n">
-        <v>39928887.3600812</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>2981205.066058138</v>
+        <v>1066366.911303386</v>
       </c>
       <c r="N44" t="n">
-        <v>2984873.650254138</v>
+        <v>0</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -3184,12 +3220,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x79dD9327352BcF1dd16941899705E97b61F4DEcB</t>
+          <t>https://intel.arkm.com/explorer/address/0x525869AD2488101b5cf47e0D898a59f029b32b03</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0x79dD9327352BcF1dd16941899705E97b61F4DEcB</t>
+          <t>0x525869AD2488101b5cf47e0D898a59f029b32b03</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3203,46 +3239,26 @@
       <c r="E45" t="b">
         <v>0</v>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Kraken</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>https://kraken.com</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>37579767.09314632</v>
+        <v>23835008</v>
       </c>
       <c r="L45" t="n">
-        <v>40732068.84374061</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>2847359.440467375</v>
+        <v>1618126.874701472</v>
       </c>
       <c r="N45" t="n">
-        <v>3080166.69727455</v>
+        <v>0</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -3254,12 +3270,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xBEE3211ab312a8D065c4FeF0247448e17A8da000</t>
+          <t>https://intel.arkm.com/explorer/address/0x191c10Aa4AF7C30e871E70C95dB0E4eb77237530</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0xBEE3211ab312a8D065c4FeF0247448e17A8da000</t>
+          <t>0x191c10Aa4AF7C30e871E70C95dB0E4eb77237530</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3268,39 +3284,43 @@
         </is>
       </c>
       <c r="D46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
       </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>Market Maker</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Aave</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>lending-decentralized</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>https://aave.com</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>18516665.66933377</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>18523135.54967302</v>
+        <v>13144576.24096721</v>
       </c>
       <c r="M46" t="n">
-        <v>1409826.394817409</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>1410106.998118232</v>
+        <v>995965.7878645874</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -3312,12 +3332,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x885bF7301bf004263D0D20331C83ec0CEF305ea7</t>
+          <t>https://intel.arkm.com/explorer/address/0x1FA00bE39C9b815B039Fa5F3394405eEb9502C9c</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0x885bF7301bf004263D0D20331C83ec0CEF305ea7</t>
+          <t>0x1FA00bE39C9b815B039Fa5F3394405eEb9502C9c</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3331,24 +3351,12 @@
       <c r="E47" t="b">
         <v>0</v>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Grayscale</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>https://grayscale.com/</t>
-        </is>
-      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Chainlink Trust</t>
+          <t>Coinbase Deposit</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3357,20 +3365,20 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>13845202.625</v>
+        <v>18007878.296875</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>18819128.15429688</v>
       </c>
       <c r="M47" t="n">
-        <v>1000654.82353304</v>
+        <v>1367933.47779</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>1429497.96949</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -3382,12 +3390,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x177a7376860a04eEA6BF7fb3F39Bf10c49D3b42C</t>
+          <t>https://intel.arkm.com/explorer/address/0x885bF7301bf004263D0D20331C83ec0CEF305ea7</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0x177a7376860a04eEA6BF7fb3F39Bf10c49D3b42C</t>
+          <t>0x885bF7301bf004263D0D20331C83ec0CEF305ea7</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3403,36 +3411,44 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Blackhole</t>
+          <t>Grayscale</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>dex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://blackhole.xyz/</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+          <t>https://grayscale.com/</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Chainlink Trust</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K48" t="n">
-        <v>204638618.8343498</v>
+        <v>13845202.625</v>
       </c>
       <c r="L48" t="n">
-        <v>204689986.9997963</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>15547836.67563326</v>
+        <v>1000654.82353304</v>
       </c>
       <c r="N48" t="n">
-        <v>15552869.2044176</v>
+        <v>0</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -3444,12 +3460,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xB1dB79aea0a13382DD9E279d96Bc9a468A2F4E87</t>
+          <t>https://intel.arkm.com/explorer/address/0x9c17f630DBde24eECe8fd248fAA2E51f690FF79B</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0xB1dB79aea0a13382DD9E279d96Bc9a468A2F4E87</t>
+          <t>0x9c17f630DBde24eECe8fd248fAA2E51f690FF79B</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3458,31 +3474,51 @@
         </is>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
       </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Chainlink</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>oracle</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>https://chain.link</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Non-Circulating Supply</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K49" t="n">
-        <v>201625186.7288852</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>201607937.5522829</v>
+        <v>91370238.60000038</v>
       </c>
       <c r="M49" t="n">
-        <v>15320251.52808653</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>15318894.72142195</v>
+        <v>7249999</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -3494,12 +3530,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xa6Cc3C2531FdaA6Ae1A3CA84c2855806728693e8</t>
+          <t>https://intel.arkm.com/explorer/address/0x841ed663F2636863D40be4EE76243377dff13a34</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0xa6Cc3C2531FdaA6Ae1A3CA84c2855806728693e8</t>
+          <t>0x841ed663F2636863D40be4EE76243377dff13a34</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3508,29 +3544,29 @@
         </is>
       </c>
       <c r="D50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>Robinhood</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>dex</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://uniswap.org</t>
+          <t>https://robinhood.com/</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>LINK</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3539,20 +3575,20 @@
         </is>
       </c>
       <c r="K50" t="n">
-        <v>136056759.3423067</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>130662680.0666046</v>
+        <v>21268475.47851562</v>
       </c>
       <c r="M50" t="n">
-        <v>10234893.95904192</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>9844955.453993659</v>
+        <v>1632837.07004406</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -3564,12 +3600,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xa42D0A18B834F52e41bEDdEaA2940165db3DA9a3</t>
+          <t>https://intel.arkm.com/explorer/address/0xA9D1e08C7793af67e9d92fe308d5697FB81d3E43</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0xa42D0A18B834F52e41bEDdEaA2940165db3DA9a3</t>
+          <t>0xA9D1e08C7793af67e9d92fe308d5697FB81d3E43</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3585,22 +3621,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Chainlink</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>oracle</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://chain.link</t>
+          <t>https://coinbase.com</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Non-Circulating Supply</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3609,20 +3645,20 @@
         </is>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>205082849.5845947</v>
       </c>
       <c r="L51" t="n">
-        <v>50479988</v>
+        <v>205198286.0714457</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>15300499.73246542</v>
       </c>
       <c r="N51" t="n">
-        <v>3999999</v>
+        <v>15318456.94673389</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -3634,12 +3670,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xDFd5293D8e347dFe59E90eFd55b2956a1343963d</t>
+          <t>https://intel.arkm.com/explorer/address/0x9008D19f58AAbD9eD0D60971565AA8510560ab41</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0xDFd5293D8e347dFe59E90eFd55b2956a1343963d</t>
+          <t>0x9008D19f58AAbD9eD0D60971565AA8510560ab41</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3648,29 +3684,29 @@
         </is>
       </c>
       <c r="D52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>CoW Protocol</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>dex-aggregator</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
+          <t>https://cow.fi</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Settlement</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3679,20 +3715,20 @@
         </is>
       </c>
       <c r="K52" t="n">
-        <v>79240588</v>
+        <v>41702580.58116457</v>
       </c>
       <c r="L52" t="n">
-        <v>82946052.18806618</v>
+        <v>41702543.08673622</v>
       </c>
       <c r="M52" t="n">
-        <v>5965758.66912632</v>
+        <v>3157752.955142502</v>
       </c>
       <c r="N52" t="n">
-        <v>6276344.326151269</v>
+        <v>3157757.179162571</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -3704,12 +3740,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xFAD57d2039C21811C8F2B5D5B65308aa99D31559</t>
+          <t>https://intel.arkm.com/explorer/address/0x676Fc50D17307fBd491BAf19033f92D17a5Dc586</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0xFAD57d2039C21811C8F2B5D5B65308aa99D31559</t>
+          <t>0x676Fc50D17307fBd491BAf19033f92D17a5Dc586</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3718,29 +3754,17 @@
         </is>
       </c>
       <c r="D53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Uniswap</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>dex</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>https://uniswap.org</t>
-        </is>
-      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>LINK-USDC</t>
+          <t>Coinbase Prime Deposit</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3749,20 +3773,20 @@
         </is>
       </c>
       <c r="K53" t="n">
-        <v>42755334.83738919</v>
+        <v>40707347.126359</v>
       </c>
       <c r="L53" t="n">
-        <v>42168596.07190118</v>
+        <v>40706459.375</v>
       </c>
       <c r="M53" t="n">
-        <v>3289531.271417684</v>
+        <v>2858612.07964248</v>
       </c>
       <c r="N53" t="n">
-        <v>3256393.073777821</v>
+        <v>2858612.07964248</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -3774,12 +3798,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x9c17f630DBde24eECe8fd248fAA2E51f690FF79B</t>
+          <t>https://intel.arkm.com/explorer/address/0x651641299C7eC0aA44AD7eD9b7E12702fED2022f</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0x9c17f630DBde24eECe8fd248fAA2E51f690FF79B</t>
+          <t>0x651641299C7eC0aA44AD7eD9b7E12702fED2022f</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3788,29 +3812,29 @@
         </is>
       </c>
       <c r="D54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Chainlink</t>
+          <t>Bybit</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>oracle</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://chain.link</t>
+          <t>https://bybit.com</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Non-Circulating Supply</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3819,20 +3843,20 @@
         </is>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>29248412.55956115</v>
       </c>
       <c r="L54" t="n">
-        <v>91370238.60000038</v>
+        <v>30699986.75808522</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>2209149.651303647</v>
       </c>
       <c r="N54" t="n">
-        <v>7249999</v>
+        <v>2315056.71247596</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -3844,12 +3868,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xC333E80eF2deC2805F239E3f1e810612D294F771</t>
+          <t>https://intel.arkm.com/explorer/address/0x9B1c1752B6B6eAF62a8c491A8681B32C1F7ecDE9</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0xC333E80eF2deC2805F239E3f1e810612D294F771</t>
+          <t>0x9B1c1752B6B6eAF62a8c491A8681B32C1F7ecDE9</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3863,38 +3887,34 @@
       <c r="E55" t="b">
         <v>0</v>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>B2C2 Group</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>https://www.b2c2.com</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Binance Deposit</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K55" t="n">
-        <v>16560194.77429389</v>
+        <v>116314976</v>
       </c>
       <c r="L55" t="n">
-        <v>17176393.54055786</v>
+        <v>116379500</v>
       </c>
       <c r="M55" t="n">
-        <v>1269651.776611533</v>
+        <v>9224998</v>
       </c>
       <c r="N55" t="n">
-        <v>1298467.36541865</v>
+        <v>9225000</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -3906,12 +3926,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xA9D1e08C7793af67e9d92fe308d5697FB81d3E43</t>
+          <t>https://intel.arkm.com/explorer/address/0xF977814e90dA44bFA03b6295A0616a897441aceC</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0xA9D1e08C7793af67e9d92fe308d5697FB81d3E43</t>
+          <t>0xF977814e90dA44bFA03b6295A0616a897441aceC</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3920,14 +3940,14 @@
         </is>
       </c>
       <c r="D56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3937,12 +3957,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
+          <t>https://binance.com</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3951,20 +3971,20 @@
         </is>
       </c>
       <c r="K56" t="n">
-        <v>205082849.5845947</v>
+        <v>90764924.25</v>
       </c>
       <c r="L56" t="n">
-        <v>205198349.7671957</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>15300499.73246542</v>
+        <v>7178890.169000001</v>
       </c>
       <c r="N56" t="n">
-        <v>15318462.24786895</v>
+        <v>0</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -3976,12 +3996,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xA69babEF1cA67A37Ffaf7a485DfFF3382056e78C</t>
+          <t>https://intel.arkm.com/explorer/address/0x4A4aaA0155237881FBD5C34BfaE16e985A7B068D</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0xA69babEF1cA67A37Ffaf7a485DfFF3382056e78C</t>
+          <t>0x4A4aaA0155237881FBD5C34BfaE16e985A7B068D</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3990,29 +4010,29 @@
         </is>
       </c>
       <c r="D57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Symbolic Capital Partners</t>
+          <t>OKX</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://symbolic.partners</t>
+          <t>https://okx.com</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>MEV Bot</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -4021,20 +4041,20 @@
         </is>
       </c>
       <c r="K57" t="n">
-        <v>93400321.72603631</v>
+        <v>16139586.89599609</v>
       </c>
       <c r="L57" t="n">
-        <v>93436693.97986937</v>
+        <v>16455580.15708828</v>
       </c>
       <c r="M57" t="n">
-        <v>6984947.270853793</v>
+        <v>1221035.67564164</v>
       </c>
       <c r="N57" t="n">
-        <v>6984098.167031578</v>
+        <v>1235830.34580679</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -4046,12 +4066,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xf8191D98ae98d2f7aBDFB63A9b0b812b93C873AA</t>
+          <t>https://intel.arkm.com/explorer/address/0x556052af8B4f001b659066E061836B174E39c539</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0xf8191D98ae98d2f7aBDFB63A9b0b812b93C873AA</t>
+          <t>0x556052af8B4f001b659066E061836B174E39c539</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -4065,46 +4085,26 @@
       <c r="E58" t="b">
         <v>0</v>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Wintermute</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>https://www.wintermute.com/</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>64332245.15016797</v>
+        <v>16087505.5400586</v>
       </c>
       <c r="L58" t="n">
-        <v>64550235.74118805</v>
+        <v>16718540.21090603</v>
       </c>
       <c r="M58" t="n">
-        <v>4738192.878682889</v>
+        <v>1186809.795025333</v>
       </c>
       <c r="N58" t="n">
-        <v>4760582.92479658</v>
+        <v>1238779.383674878</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:49</t>
+          <t>2025-12-22 02:47:35</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -4116,12 +4116,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x7D94077f58593F8b97c5cAB56c8924E13b49946E</t>
+          <t>https://intel.arkm.com/explorer/address/0xA700b4eB416Be35b2911fd5Dee80678ff64fF6C9</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0x7D94077f58593F8b97c5cAB56c8924E13b49946E</t>
+          <t>0xA700b4eB416Be35b2911fd5Dee80678ff64fF6C9</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -4130,29 +4130,29 @@
         </is>
       </c>
       <c r="D59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Kraken</t>
+          <t>Aave</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>lending-decentralized</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://kraken.com</t>
+          <t>https://aave.com</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Aave Ethereum AAVE (aEthAAVE)</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -4161,20 +4161,20 @@
         </is>
       </c>
       <c r="K59" t="n">
-        <v>23998588.88057401</v>
+        <v>38469944.29398999</v>
       </c>
       <c r="L59" t="n">
-        <v>24852774.06291338</v>
+        <v>17048247.21178636</v>
       </c>
       <c r="M59" t="n">
-        <v>133711.2570584922</v>
+        <v>211551.8506230745</v>
       </c>
       <c r="N59" t="n">
-        <v>135006.00063491</v>
+        <v>92644.03983819962</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -4186,12 +4186,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x6E9Ddc0143CF07D21EA51b6406755E2da9BE0F58</t>
+          <t>https://intel.arkm.com/explorer/address/0x80787af194C33b74a811f5e5c549316269d7Ee1A</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0x6E9Ddc0143CF07D21EA51b6406755E2da9BE0F58</t>
+          <t>0x80787af194C33b74a811f5e5c549316269d7Ee1A</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4205,26 +4205,46 @@
       <c r="E60" t="b">
         <v>0</v>
       </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>HitBTC</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>https://hitbtc.com</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K60" t="n">
-        <v>11187817.5</v>
+        <v>15644440.25519943</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>10091990.25439453</v>
       </c>
       <c r="M60" t="n">
-        <v>59451.03587099689</v>
+        <v>90626.54141428153</v>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>57279.45783682923</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -4236,12 +4256,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xF977814e90dA44bFA03b6295A0616a897441aceC</t>
+          <t>https://intel.arkm.com/explorer/address/0xA69babEF1cA67A37Ffaf7a485DfFF3382056e78C</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0xF977814e90dA44bFA03b6295A0616a897441aceC</t>
+          <t>0xA69babEF1cA67A37Ffaf7a485DfFF3382056e78C</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4250,29 +4270,29 @@
         </is>
       </c>
       <c r="D61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Symbolic Capital Partners</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
+          <t>https://symbolic.partners</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>MEV Bot</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4281,20 +4301,20 @@
         </is>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>12757335.10509276</v>
       </c>
       <c r="L61" t="n">
-        <v>37163156</v>
+        <v>12781122.89673996</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>69785.81552186396</v>
       </c>
       <c r="N61" t="n">
-        <v>206806.66</v>
+        <v>69889.76295811418</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -4306,12 +4326,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xEae7380dD4CeF6fbD1144F49E4D1e6964258A4F4</t>
+          <t>https://intel.arkm.com/explorer/address/0x4da27a545c0c5B758a6BA100e3a049001de870f5</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0xEae7380dD4CeF6fbD1144F49E4D1e6964258A4F4</t>
+          <t>0x4da27a545c0c5B758a6BA100e3a049001de870f5</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4320,29 +4340,29 @@
         </is>
       </c>
       <c r="D62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Wintermute</t>
+          <t>Aave</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>lending-decentralized</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.wintermute.com/</t>
+          <t>https://aave.com</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Binance Deposit</t>
+          <t>Staked Aave (stkAAVE)</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4351,20 +4371,20 @@
         </is>
       </c>
       <c r="K62" t="n">
-        <v>71491784.0390625</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>71463071.85351562</v>
+        <v>56479667.23912802</v>
       </c>
       <c r="M62" t="n">
-        <v>393174.00253098</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>393174.00253098</v>
+        <v>317439.0828679112</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -4376,12 +4396,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x5A1b2aCd0c9992e14F2b6d8a326023E35a097A3a</t>
+          <t>https://intel.arkm.com/explorer/address/0x4A4aaA0155237881FBD5C34BfaE16e985A7B068D</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0x5A1b2aCd0c9992e14F2b6d8a326023E35a097A3a</t>
+          <t>0x4A4aaA0155237881FBD5C34BfaE16e985A7B068D</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4390,29 +4410,29 @@
         </is>
       </c>
       <c r="D63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0x</t>
+          <t>OKX</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>dex</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://0x.org</t>
+          <t>https://okx.com</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>MainnetSettler</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4421,20 +4441,20 @@
         </is>
       </c>
       <c r="K63" t="n">
-        <v>28994639.80462857</v>
+        <v>25982997.6706543</v>
       </c>
       <c r="L63" t="n">
-        <v>29137573.12602486</v>
+        <v>25674834.25327396</v>
       </c>
       <c r="M63" t="n">
-        <v>164730.1105543417</v>
+        <v>142659.5674597</v>
       </c>
       <c r="N63" t="n">
-        <v>165484.5964516777</v>
+        <v>140291.55612122</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -4446,12 +4466,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xAD85405cbB1476825B78a021fa9E543bF7937549</t>
+          <t>https://intel.arkm.com/explorer/address/0x0277331dB7d134B205c5C920395e510dA0dAD2A5</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0xAD85405cbB1476825B78a021fa9E543bF7937549</t>
+          <t>0x0277331dB7d134B205c5C920395e510dA0dAD2A5</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4465,46 +4485,26 @@
       <c r="E64" t="b">
         <v>0</v>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Bybit</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>https://bybit.com</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>26645468.03843218</v>
+        <v>25097239.90625</v>
       </c>
       <c r="L64" t="n">
-        <v>31109808.64642471</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>146830.4845719358</v>
+        <v>132709.4448302318</v>
       </c>
       <c r="N64" t="n">
-        <v>171945.02172971</v>
+        <v>0</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -4516,12 +4516,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x0277331dB7d134B205c5C920395e510dA0dAD2A5</t>
+          <t>https://intel.arkm.com/explorer/address/0xe401A6A38024d8f5aB88f1B08cad476cCaCA45E8</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0x0277331dB7d134B205c5C920395e510dA0dAD2A5</t>
+          <t>0xe401A6A38024d8f5aB88f1B08cad476cCaCA45E8</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4535,26 +4535,46 @@
       <c r="E65" t="b">
         <v>0</v>
       </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Wintermute</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Bybit Deposit</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K65" t="n">
-        <v>25097239.90625</v>
+        <v>15954386</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>15954721.734375</v>
       </c>
       <c r="M65" t="n">
-        <v>132709.4448302318</v>
+        <v>86976.99260203</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>86976.99260203</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -4566,12 +4586,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x95FD84B34362178Ee6De1c138B745170875234e7</t>
+          <t>https://intel.arkm.com/explorer/address/0x1a353A852Ba8EC5aC634695E0d65f2729223471D</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0x95FD84B34362178Ee6De1c138B745170875234e7</t>
+          <t>0x1a353A852Ba8EC5aC634695E0d65f2729223471D</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4580,7 +4600,7 @@
         </is>
       </c>
       <c r="D66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" t="b">
         <v>0</v>
@@ -4591,20 +4611,20 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>61305400</v>
+        <v>12994457.140625</v>
       </c>
       <c r="L66" t="n">
-        <v>61305400</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>340000</v>
+        <v>67217.24174118352</v>
       </c>
       <c r="N66" t="n">
-        <v>340000</v>
+        <v>0</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -4616,12 +4636,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xBC8A0f5E41857292D12Ef620e2a5895ce65A5Ce0</t>
+          <t>https://intel.arkm.com/explorer/address/0x927C6aaA6aAd7aF5252237af8B85be10B2DE0DBB</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0xBC8A0f5E41857292D12Ef620e2a5895ce65A5Ce0</t>
+          <t>0x927C6aaA6aAd7aF5252237af8B85be10B2DE0DBB</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4635,46 +4655,26 @@
       <c r="E67" t="b">
         <v>0</v>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Wintermute</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>https://www.wintermute.com/</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>OKX Deposit</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>99272003.35298555</v>
       </c>
       <c r="L67" t="n">
-        <v>10736338.625</v>
+        <v>99296424.50318921</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>537349.7089099901</v>
       </c>
       <c r="N67" t="n">
-        <v>59201.98015913</v>
+        <v>537373.5942573129</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -4686,12 +4686,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xfBd4cdB413E45a52E2C8312f670e9cE67E794C37</t>
+          <t>https://intel.arkm.com/explorer/address/0xBA12222222228d8Ba445958a75a0704d566BF2C8</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0xfBd4cdB413E45a52E2C8312f670e9cE67E794C37</t>
+          <t>0xBA12222222228d8Ba445958a75a0704d566BF2C8</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4705,26 +4705,46 @@
       <c r="E68" t="b">
         <v>0</v>
       </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Balancer</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>dex</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>https://balancer.fi</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Vault</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K68" t="n">
-        <v>42466917.34259531</v>
+        <v>83690562.90416741</v>
       </c>
       <c r="L68" t="n">
-        <v>41165007.77575952</v>
+        <v>82823844.07772627</v>
       </c>
       <c r="M68" t="n">
-        <v>232301.9554592062</v>
+        <v>464341.2631209932</v>
       </c>
       <c r="N68" t="n">
-        <v>223949.8303059029</v>
+        <v>459702.1002470811</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -4736,12 +4756,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x91bf7e6FFA4608FA2280F81D2B23a8b8FB70b14B</t>
+          <t>https://intel.arkm.com/explorer/address/0xa9C61FE59b5702b1d382fd1d5e495887ff34c21d</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0x91bf7e6FFA4608FA2280F81D2B23a8b8FB70b14B</t>
+          <t>0xa9C61FE59b5702b1d382fd1d5e495887ff34c21d</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4758,23 +4778,31 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Binance Deposit</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K69" t="n">
-        <v>39924664.02988663</v>
+        <v>16183188.43429565</v>
       </c>
       <c r="L69" t="n">
-        <v>39924664.05629517</v>
+        <v>16196534.55334473</v>
       </c>
       <c r="M69" t="n">
-        <v>215508.0546545708</v>
+        <v>88104.73649600273</v>
       </c>
       <c r="N69" t="n">
-        <v>215508.0546545708</v>
+        <v>88104.73649600273</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -4786,12 +4814,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x46e946468f747D0E563527Bd069d4deD731F33A4</t>
+          <t>https://intel.arkm.com/explorer/address/0xF977814e90dA44bFA03b6295A0616a897441aceC</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0x46e946468f747D0E563527Bd069d4deD731F33A4</t>
+          <t>0xF977814e90dA44bFA03b6295A0616a897441aceC</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4805,26 +4833,46 @@
       <c r="E70" t="b">
         <v>0</v>
       </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Binance</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K70" t="n">
-        <v>24883943</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>37163156</v>
       </c>
       <c r="M70" t="n">
-        <v>132020.6109010646</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
+        <v>206806.66</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -4836,12 +4884,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x4a79B0168296c0eF7b8F314973B82aD406a29f1B</t>
+          <t>https://intel.arkm.com/explorer/address/0x16F6d15381bEE4A25B25F0d1C4161b78f7F21Fde</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0x4a79B0168296c0eF7b8F314973B82aD406a29f1B</t>
+          <t>0x16F6d15381bEE4A25B25F0d1C4161b78f7F21Fde</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4855,38 +4903,26 @@
       <c r="E71" t="b">
         <v>0</v>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Aerodrome Finance</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>dex</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>https://aerodrome.finance/</t>
-        </is>
-      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>204867200.6648048</v>
+        <v>22423062.77795029</v>
       </c>
       <c r="L71" t="n">
-        <v>204618192.9953592</v>
+        <v>22333248</v>
       </c>
       <c r="M71" t="n">
-        <v>1109012.549118649</v>
+        <v>128582.3279</v>
       </c>
       <c r="N71" t="n">
-        <v>1107724.168444272</v>
+        <v>127739</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -4898,12 +4934,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x16F6d15381bEE4A25B25F0d1C4161b78f7F21Fde</t>
+          <t>https://intel.arkm.com/explorer/address/0x33566c9D8BE6Cf0B23795E0d380E112Be9d75836</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0x16F6d15381bEE4A25B25F0d1C4161b78f7F21Fde</t>
+          <t>0x33566c9D8BE6Cf0B23795E0d380E112Be9d75836</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4917,26 +4953,46 @@
       <c r="E72" t="b">
         <v>0</v>
       </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Galaxy Digital</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>https://www.galaxy.com/</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K72" t="n">
-        <v>22423062.77795029</v>
+        <v>22360534.1015625</v>
       </c>
       <c r="L72" t="n">
-        <v>22333248</v>
+        <v>22687091.7802124</v>
       </c>
       <c r="M72" t="n">
-        <v>128582.3279</v>
+        <v>127888.45555956</v>
       </c>
       <c r="N72" t="n">
-        <v>127739</v>
+        <v>128019.36236941</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -4948,12 +5004,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x4FD01341D7AD9592E0627eD20952466aD9bB831F</t>
+          <t>https://intel.arkm.com/explorer/address/0xBC8A0f5E41857292D12Ef620e2a5895ce65A5Ce0</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0x4FD01341D7AD9592E0627eD20952466aD9bB831F</t>
+          <t>0xBC8A0f5E41857292D12Ef620e2a5895ce65A5Ce0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4969,22 +5025,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Wintermute</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
+          <t>https://www.wintermute.com/</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>OKX Deposit</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4996,17 +5052,17 @@
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>10409277</v>
+        <v>10736338.625</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>54705.04932268511</v>
+        <v>59201.98015913</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -5018,12 +5074,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x927C6aaA6aAd7aF5252237af8B85be10B2DE0DBB</t>
+          <t>https://intel.arkm.com/explorer/address/0x4a79B0168296c0eF7b8F314973B82aD406a29f1B</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0x927C6aaA6aAd7aF5252237af8B85be10B2DE0DBB</t>
+          <t>0x4a79B0168296c0eF7b8F314973B82aD406a29f1B</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -5037,26 +5093,38 @@
       <c r="E74" t="b">
         <v>0</v>
       </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Aerodrome Finance</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>dex</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>https://aerodrome.finance/</t>
+        </is>
+      </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>99272003.35298555</v>
+        <v>204871078.0139259</v>
       </c>
       <c r="L74" t="n">
-        <v>99292547.15406811</v>
+        <v>204618192.9953592</v>
       </c>
       <c r="M74" t="n">
-        <v>537349.7089099901</v>
+        <v>1109036.507034075</v>
       </c>
       <c r="N74" t="n">
-        <v>537349.6363418872</v>
+        <v>1107724.168444272</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -5068,12 +5136,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x21a31Ee1afC51d94C2eFcCAa2092aD1028285549</t>
+          <t>https://intel.arkm.com/explorer/address/0x28C6c06298d514Db089934071355E5743bf21d60</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0x21a31Ee1afC51d94C2eFcCAa2092aD1028285549</t>
+          <t>0x28C6c06298d514Db089934071355E5743bf21d60</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -5113,20 +5181,20 @@
         </is>
       </c>
       <c r="K75" t="n">
-        <v>55201957.75</v>
+        <v>192024522.3569946</v>
       </c>
       <c r="L75" t="n">
-        <v>53854682.42752856</v>
+        <v>172220988.6942104</v>
       </c>
       <c r="M75" t="n">
-        <v>302008.46832202</v>
+        <v>1061042.355056881</v>
       </c>
       <c r="N75" t="n">
-        <v>294535.40979505</v>
+        <v>943599.72142641</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -5138,12 +5206,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x8f85D8d9d232883d63c992DFf303C10DDA2e428F</t>
+          <t>https://intel.arkm.com/explorer/address/0xf8191D98ae98d2f7aBDFB63A9b0b812b93C873AA</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0x8f85D8d9d232883d63c992DFf303C10DDA2e428F</t>
+          <t>0xf8191D98ae98d2f7aBDFB63A9b0b812b93C873AA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -5157,12 +5225,24 @@
       <c r="E76" t="b">
         <v>0</v>
       </c>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Wintermute</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>HitBTC Deposit</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -5171,20 +5251,20 @@
         </is>
       </c>
       <c r="K76" t="n">
-        <v>15954436.64697266</v>
+        <v>59653492.92184284</v>
       </c>
       <c r="L76" t="n">
-        <v>16492753.85498047</v>
+        <v>59150467.59651327</v>
       </c>
       <c r="M76" t="n">
-        <v>92829.29952149151</v>
+        <v>326090.2615422747</v>
       </c>
       <c r="N76" t="n">
-        <v>95229.48952149153</v>
+        <v>325309.904229221</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -5196,12 +5276,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xA9D1e08C7793af67e9d92fe308d5697FB81d3E43</t>
+          <t>https://intel.arkm.com/explorer/address/0xA3222357a0eCCF60C73606170be6c99ADeCb59b3</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0xA9D1e08C7793af67e9d92fe308d5697FB81d3E43</t>
+          <t>0xA3222357a0eCCF60C73606170be6c99ADeCb59b3</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -5217,7 +5297,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>HitBTC</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -5227,7 +5307,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
+          <t>https://hitbtc.com</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5241,20 +5321,20 @@
         </is>
       </c>
       <c r="K77" t="n">
-        <v>243149612.322998</v>
+        <v>13498095.49030154</v>
       </c>
       <c r="L77" t="n">
-        <v>244057146.5857909</v>
+        <v>13499544.45428276</v>
       </c>
       <c r="M77" t="n">
-        <v>1290672.927724472</v>
+        <v>75589.69435691438</v>
       </c>
       <c r="N77" t="n">
-        <v>1295037.998243919</v>
+        <v>75545.092934</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -5266,12 +5346,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xf3fB9691c4BFF980C0352339fb297c5bF52Dd354</t>
+          <t>https://intel.arkm.com/explorer/address/0x91bf7e6FFA4608FA2280F81D2B23a8b8FB70b14B</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0xf3fB9691c4BFF980C0352339fb297c5bF52Dd354</t>
+          <t>0x91bf7e6FFA4608FA2280F81D2B23a8b8FB70b14B</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -5291,20 +5371,20 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>71720658.12975849</v>
+        <v>39924664.02988663</v>
       </c>
       <c r="L78" t="n">
-        <v>71716754.56368637</v>
+        <v>39924664.05629517</v>
       </c>
       <c r="M78" t="n">
-        <v>388638.592627481</v>
+        <v>215508.0546545708</v>
       </c>
       <c r="N78" t="n">
-        <v>388659.6607566639</v>
+        <v>215508.0546545708</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -5316,12 +5396,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x51C72848c68a965f66FA7a88855F9f7784502a7F</t>
+          <t>https://intel.arkm.com/explorer/address/0x91D40E4818F4D4C57b4578d9ECa6AFc92aC8DEbE</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0x51C72848c68a965f66FA7a88855F9f7784502a7F</t>
+          <t>0x91D40E4818F4D4C57b4578d9ECa6AFc92aC8DEbE</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5330,29 +5410,29 @@
         </is>
       </c>
       <c r="D79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Wintermute</t>
+          <t>OKX</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>https://www.wintermute.com/</t>
+          <t>https://okx.com</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Market Maker</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -5361,20 +5441,20 @@
         </is>
       </c>
       <c r="K79" t="n">
-        <v>66134500.51908232</v>
+        <v>23299489.61867277</v>
       </c>
       <c r="L79" t="n">
-        <v>65635613.52707214</v>
+        <v>22454289.00303292</v>
       </c>
       <c r="M79" t="n">
-        <v>367407.4266606175</v>
+        <v>129440.3059211101</v>
       </c>
       <c r="N79" t="n">
-        <v>364976.6825995701</v>
+        <v>124023.87247118</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -5386,12 +5466,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xB0A27099582833c0Cb8C7A0565759fF145113d64</t>
+          <t>https://intel.arkm.com/explorer/address/0x9bA0CF1588E1DFA905eC948F7FE5104dD40EDa31</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0xB0A27099582833c0Cb8C7A0565759fF145113d64</t>
+          <t>0x9bA0CF1588E1DFA905eC948F7FE5104dD40EDa31</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5400,29 +5480,25 @@
         </is>
       </c>
       <c r="D80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="b">
         <v>0</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>OKX</t>
+          <t>TrustedVolumes</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>https://okx.com</t>
-        </is>
-      </c>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Market Maker</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -5431,20 +5507,20 @@
         </is>
       </c>
       <c r="K80" t="n">
-        <v>11303307.14941406</v>
+        <v>23019855.13972173</v>
       </c>
       <c r="L80" t="n">
-        <v>11024956.0612793</v>
+        <v>22785397.34639002</v>
       </c>
       <c r="M80" t="n">
-        <v>61859.33</v>
+        <v>129299.9349930727</v>
       </c>
       <c r="N80" t="n">
-        <v>60781.384614</v>
+        <v>130317.8974190665</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -5456,12 +5532,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x5aB53EE1d50eeF2C1DD3d5402789cd27bB52c1bB</t>
+          <t>https://intel.arkm.com/explorer/address/0x372cAE7fA19b81A9786A9081704EA1e2DAD576b7</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0x5aB53EE1d50eeF2C1DD3d5402789cd27bB52c1bB</t>
+          <t>0x372cAE7fA19b81A9786A9081704EA1e2DAD576b7</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -5470,51 +5546,31 @@
         </is>
       </c>
       <c r="D81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" t="b">
         <v>0</v>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Uniswap</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>dex</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>https://uniswap.org</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>AAVE</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>75760934.25529513</v>
+        <v>17031690.6875</v>
       </c>
       <c r="L81" t="n">
-        <v>73141848.47178926</v>
+        <v>17040501.6875</v>
       </c>
       <c r="M81" t="n">
-        <v>416172.9849282696</v>
+        <v>91604.61257375</v>
       </c>
       <c r="N81" t="n">
-        <v>403783.510869162</v>
+        <v>91604.61257375</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -5526,12 +5582,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x91D40E4818F4D4C57b4578d9ECa6AFc92aC8DEbE</t>
+          <t>https://intel.arkm.com/explorer/address/0x63242A4Ea82847b20E506b63B0e2e2eFF0CC6cB0</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>0x91D40E4818F4D4C57b4578d9ECa6AFc92aC8DEbE</t>
+          <t>0x63242A4Ea82847b20E506b63B0e2e2eFF0CC6cB0</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -5540,29 +5596,29 @@
         </is>
       </c>
       <c r="D82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="b">
         <v>0</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>OKX</t>
+          <t>Kyber Network</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>dex</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>https://okx.com</t>
+          <t>https://kyber.network</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Aggregator Executor V3</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -5571,20 +5627,20 @@
         </is>
       </c>
       <c r="K82" t="n">
-        <v>23299489.61867277</v>
+        <v>15300241.36299858</v>
       </c>
       <c r="L82" t="n">
-        <v>22454765.88303781</v>
+        <v>15303176.51113059</v>
       </c>
       <c r="M82" t="n">
-        <v>129440.3059211101</v>
+        <v>87677.2249442399</v>
       </c>
       <c r="N82" t="n">
-        <v>124026.87247118</v>
+        <v>87693.03558018424</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -5596,12 +5652,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xA700b4eB416Be35b2911fd5Dee80678ff64fF6C9</t>
+          <t>https://intel.arkm.com/explorer/address/0x51C72848c68a965f66FA7a88855F9f7784502a7F</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>0xA700b4eB416Be35b2911fd5Dee80678ff64fF6C9</t>
+          <t>0x51C72848c68a965f66FA7a88855F9f7784502a7F</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -5617,22 +5673,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Aave</t>
+          <t>Wintermute</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>lending-decentralized</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>https://aave.com</t>
+          <t>https://www.wintermute.com/</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Aave Ethereum AAVE (aEthAAVE)</t>
+          <t>Market Maker</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -5641,20 +5697,20 @@
         </is>
       </c>
       <c r="K83" t="n">
-        <v>38469905.34556469</v>
+        <v>66127042.61283232</v>
       </c>
       <c r="L83" t="n">
-        <v>17048247.21178636</v>
+        <v>65635613.52707214</v>
       </c>
       <c r="M83" t="n">
-        <v>211551.6099630145</v>
+        <v>367360.5097864274</v>
       </c>
       <c r="N83" t="n">
-        <v>92644.03983819962</v>
+        <v>364976.6825995701</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -5666,12 +5722,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x63242A4Ea82847b20E506b63B0e2e2eFF0CC6cB0</t>
+          <t>https://intel.arkm.com/explorer/address/0x46e946468f747D0E563527Bd069d4deD731F33A4</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>0x63242A4Ea82847b20E506b63B0e2e2eFF0CC6cB0</t>
+          <t>0x46e946468f747D0E563527Bd069d4deD731F33A4</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -5680,51 +5736,31 @@
         </is>
       </c>
       <c r="D84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="b">
         <v>0</v>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Kyber Network</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>dex</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>https://kyber.network</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>Aggregator Executor V3</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>15300001.38346539</v>
+        <v>24883943</v>
       </c>
       <c r="L84" t="n">
-        <v>15302936.53159739</v>
+        <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>87675.74321147341</v>
+        <v>132020.6109010646</v>
       </c>
       <c r="N84" t="n">
-        <v>87691.55384741774</v>
+        <v>0</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -5736,12 +5772,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x28C6c06298d514Db089934071355E5743bf21d60</t>
+          <t>https://intel.arkm.com/explorer/address/0xDFd5293D8e347dFe59E90eFd55b2956a1343963d</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>0x28C6c06298d514Db089934071355E5743bf21d60</t>
+          <t>0xDFd5293D8e347dFe59E90eFd55b2956a1343963d</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -5781,20 +5817,20 @@
         </is>
       </c>
       <c r="K85" t="n">
-        <v>192016862.9082642</v>
+        <v>59832184.75</v>
       </c>
       <c r="L85" t="n">
-        <v>172220988.6942104</v>
+        <v>58488842.38737833</v>
       </c>
       <c r="M85" t="n">
-        <v>1060995.027765461</v>
+        <v>327704.03044995</v>
       </c>
       <c r="N85" t="n">
-        <v>943599.72142641</v>
+        <v>317891.0276187</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -5806,12 +5842,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xf8191D98ae98d2f7aBDFB63A9b0b812b93C873AA</t>
+          <t>https://intel.arkm.com/explorer/address/0x5A1b2aCd0c9992e14F2b6d8a326023E35a097A3a</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>0xf8191D98ae98d2f7aBDFB63A9b0b812b93C873AA</t>
+          <t>0x5A1b2aCd0c9992e14F2b6d8a326023E35a097A3a</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -5820,29 +5856,29 @@
         </is>
       </c>
       <c r="D86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Wintermute</t>
+          <t>0x</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>dex</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>https://www.wintermute.com/</t>
+          <t>https://0x.org</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>MainnetSettler</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5851,20 +5887,20 @@
         </is>
       </c>
       <c r="K86" t="n">
-        <v>59653492.92022444</v>
+        <v>28994639.80462857</v>
       </c>
       <c r="L86" t="n">
-        <v>59150467.59651327</v>
+        <v>29137573.12602486</v>
       </c>
       <c r="M86" t="n">
-        <v>326090.2615322747</v>
+        <v>164730.1105543417</v>
       </c>
       <c r="N86" t="n">
-        <v>325309.904229221</v>
+        <v>165484.5964516777</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -5876,12 +5912,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xE9D05440ED65D6BF7Ccf44d0f1a747B11F31259b</t>
+          <t>https://intel.arkm.com/explorer/address/0xAD85405cbB1476825B78a021fa9E543bF7937549</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>0xE9D05440ED65D6BF7Ccf44d0f1a747B11F31259b</t>
+          <t>0xAD85405cbB1476825B78a021fa9E543bF7937549</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -5895,26 +5931,46 @@
       <c r="E87" t="b">
         <v>0</v>
       </c>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Bybit</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>https://bybit.com</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K87" t="n">
-        <v>16765826.893597</v>
+        <v>26645468.04328738</v>
       </c>
       <c r="L87" t="n">
-        <v>17031690.6875</v>
+        <v>31109808.64642471</v>
       </c>
       <c r="M87" t="n">
-        <v>91504.61257375</v>
+        <v>146830.4846019358</v>
       </c>
       <c r="N87" t="n">
-        <v>91604.61257375</v>
+        <v>171945.02172971</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
@@ -5926,12 +5982,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xC17A40852E4BfE04Bc81Af355Fdf132C539bA753</t>
+          <t>https://intel.arkm.com/explorer/address/0xF21F6a09e488a7177C59e8E2d362aDec661E7689</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>0xC17A40852E4BfE04Bc81Af355Fdf132C539bA753</t>
+          <t>0xF21F6a09e488a7177C59e8E2d362aDec661E7689</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -5948,31 +6004,23 @@
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>Binance Deposit</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>10077600.09339905</v>
+        <v>25233868.03125</v>
       </c>
       <c r="L88" t="n">
-        <v>9643404.3515625</v>
+        <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>59575.62173810894</v>
+        <v>132228.4092711481</v>
       </c>
       <c r="N88" t="n">
-        <v>58103.85768651397</v>
+        <v>0</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
@@ -5984,12 +6032,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x091D1C972cb1648537a2Ba78eaBa371b1cE18336</t>
+          <t>https://intel.arkm.com/explorer/address/0x4FD01341D7AD9592E0627eD20952466aD9bB831F</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>0x091D1C972cb1648537a2Ba78eaBa371b1cE18336</t>
+          <t>0x4FD01341D7AD9592E0627eD20952466aD9bB831F</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -6003,26 +6051,46 @@
       <c r="E89" t="b">
         <v>0</v>
       </c>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K89" t="n">
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>10503735.68235779</v>
+        <v>10409277</v>
       </c>
       <c r="M89" t="n">
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>58782.31729927</v>
+        <v>54705.04932268511</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
@@ -6034,12 +6102,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x51C81471d65f98AA74e8F7ead948856DC23205af</t>
+          <t>https://intel.arkm.com/explorer/address/0xCD531Ae9EFCCE479654c4926dec5F6209531Ca7b</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>0x51C81471d65f98AA74e8F7ead948856DC23205af</t>
+          <t>0xCD531Ae9EFCCE479654c4926dec5F6209531Ca7b</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -6055,7 +6123,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Coinbase Prime</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -6065,12 +6133,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
+          <t>https://www.coinbase.com/prime</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6079,20 +6147,20 @@
         </is>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>69658783.59529877</v>
       </c>
       <c r="L90" t="n">
-        <v>9528780</v>
+        <v>69760482.58183956</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>375980.6090191904</v>
       </c>
       <c r="N90" t="n">
-        <v>50926.08755225615</v>
+        <v>376232.6012953987</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
@@ -6104,12 +6172,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xDFd5293D8e347dFe59E90eFd55b2956a1343963d</t>
+          <t>https://intel.arkm.com/explorer/address/0x95FD84B34362178Ee6De1c138B745170875234e7</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>0xDFd5293D8e347dFe59E90eFd55b2956a1343963d</t>
+          <t>0x95FD84B34362178Ee6De1c138B745170875234e7</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -6118,51 +6186,31 @@
         </is>
       </c>
       <c r="D91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Binance</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>https://binance.com</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>59832184.75</v>
+        <v>61305400</v>
       </c>
       <c r="L91" t="n">
-        <v>58488842.38737833</v>
+        <v>61305400</v>
       </c>
       <c r="M91" t="n">
-        <v>327704.03044995</v>
+        <v>340000</v>
       </c>
       <c r="N91" t="n">
-        <v>317891.0276187</v>
+        <v>340000</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -6174,12 +6222,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x4A4aaA0155237881FBD5C34BfaE16e985A7B068D</t>
+          <t>https://intel.arkm.com/explorer/address/0xa923B13270F8622B5d5960634200Dc4302b7611E</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>0x4A4aaA0155237881FBD5C34BfaE16e985A7B068D</t>
+          <t>0xa923B13270F8622B5d5960634200Dc4302b7611E</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -6188,29 +6236,17 @@
         </is>
       </c>
       <c r="D92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>OKX</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>https://okx.com</t>
-        </is>
-      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Gnosis Safe Proxy</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -6219,20 +6255,20 @@
         </is>
       </c>
       <c r="K92" t="n">
-        <v>25982997.6706543</v>
+        <v>40917945.5625</v>
       </c>
       <c r="L92" t="n">
-        <v>25674834.25327396</v>
+        <v>39380708.04328918</v>
       </c>
       <c r="M92" t="n">
-        <v>142659.5674597</v>
+        <v>231775.4541938402</v>
       </c>
       <c r="N92" t="n">
-        <v>140291.55612122</v>
+        <v>231770.4148689859</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
@@ -6244,12 +6280,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x9bA0CF1588E1DFA905eC948F7FE5104dD40EDa31</t>
+          <t>https://intel.arkm.com/explorer/address/0x091D1C972cb1648537a2Ba78eaBa371b1cE18336</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>0x9bA0CF1588E1DFA905eC948F7FE5104dD40EDa31</t>
+          <t>0x091D1C972cb1648537a2Ba78eaBa371b1cE18336</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -6258,47 +6294,31 @@
         </is>
       </c>
       <c r="D93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>TrustedVolumes</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>Market Maker</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>23019855.13972173</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>22785397.34639002</v>
+        <v>10503735.68235779</v>
       </c>
       <c r="M93" t="n">
-        <v>129299.9349930727</v>
+        <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>130317.8974190665</v>
+        <v>58782.31729927</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
@@ -6310,12 +6330,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xA69babEF1cA67A37Ffaf7a485DfFF3382056e78C</t>
+          <t>https://intel.arkm.com/explorer/address/0xf3fB9691c4BFF980C0352339fb297c5bF52Dd354</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>0xA69babEF1cA67A37Ffaf7a485DfFF3382056e78C</t>
+          <t>0xf3fB9691c4BFF980C0352339fb297c5bF52Dd354</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -6324,51 +6344,31 @@
         </is>
       </c>
       <c r="D94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" t="b">
         <v>0</v>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Symbolic Capital Partners</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>https://symbolic.partners</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>MEV Bot</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>12757335.10509276</v>
+        <v>71720658.12975849</v>
       </c>
       <c r="L94" t="n">
-        <v>12781122.89673996</v>
+        <v>71716754.56368637</v>
       </c>
       <c r="M94" t="n">
-        <v>69785.81552186396</v>
+        <v>388638.592627481</v>
       </c>
       <c r="N94" t="n">
-        <v>69889.76295811418</v>
+        <v>388659.6607566639</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
@@ -6380,12 +6380,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xCD531Ae9EFCCE479654c4926dec5F6209531Ca7b</t>
+          <t>https://intel.arkm.com/explorer/address/0xfBd4cdB413E45a52E2C8312f670e9cE67E794C37</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>0xCD531Ae9EFCCE479654c4926dec5F6209531Ca7b</t>
+          <t>0xfBd4cdB413E45a52E2C8312f670e9cE67E794C37</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -6394,51 +6394,31 @@
         </is>
       </c>
       <c r="D95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="b">
         <v>0</v>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Coinbase Prime</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>https://www.coinbase.com/prime</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>69658783.59529877</v>
+        <v>42466917.34259531</v>
       </c>
       <c r="L95" t="n">
-        <v>69760482.58183956</v>
+        <v>41165007.77575952</v>
       </c>
       <c r="M95" t="n">
-        <v>375980.6090191904</v>
+        <v>232301.9554592062</v>
       </c>
       <c r="N95" t="n">
-        <v>376232.6012953987</v>
+        <v>223949.8303059029</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
@@ -6450,12 +6430,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x0b8FE2a0DbF47038Da4BB6C6dD5Af1aEf1Ebb1F4</t>
+          <t>https://intel.arkm.com/explorer/address/0xE9D05440ED65D6BF7Ccf44d0f1a747B11F31259b</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>0x0b8FE2a0DbF47038Da4BB6C6dD5Af1aEf1Ebb1F4</t>
+          <t>0xE9D05440ED65D6BF7Ccf44d0f1a747B11F31259b</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -6475,20 +6455,20 @@
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>25080699.09375</v>
+        <v>16765826.893597</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>17031690.6875</v>
       </c>
       <c r="M96" t="n">
-        <v>133914.4569135635</v>
+        <v>91504.61257375</v>
       </c>
       <c r="N96" t="n">
-        <v>0</v>
+        <v>91604.61257375</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
@@ -6500,12 +6480,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xfE98f85EAfe3c7BF23af3A7b406aDcc1dB43e36b</t>
+          <t>https://intel.arkm.com/explorer/address/0x416Ec2cA21a38CbCFeAcD6a14532B3F348356d23</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>0xfE98f85EAfe3c7BF23af3A7b406aDcc1dB43e36b</t>
+          <t>0x416Ec2cA21a38CbCFeAcD6a14532B3F348356d23</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -6522,31 +6502,23 @@
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>Kraken Deposit</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>11098185.49174439</v>
+        <v>13454801.04142835</v>
       </c>
       <c r="L97" t="n">
-        <v>11380339.25360489</v>
+        <v>13397984.50287676</v>
       </c>
       <c r="M97" t="n">
-        <v>62523.32185301307</v>
+        <v>72708.4844584079</v>
       </c>
       <c r="N97" t="n">
-        <v>63967.08941497</v>
+        <v>72392.81657455476</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
@@ -6558,12 +6530,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x4da27a545c0c5B758a6BA100e3a049001de870f5</t>
+          <t>https://intel.arkm.com/explorer/address/0x51C81471d65f98AA74e8F7ead948856DC23205af</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>0x4da27a545c0c5B758a6BA100e3a049001de870f5</t>
+          <t>0x51C81471d65f98AA74e8F7ead948856DC23205af</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -6572,29 +6544,29 @@
         </is>
       </c>
       <c r="D98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98" t="b">
         <v>0</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Aave</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>lending-decentralized</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>https://aave.com</t>
+          <t>https://coinbase.com</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Staked Aave (stkAAVE)</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -6606,17 +6578,17 @@
         <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>56479667.23912802</v>
+        <v>9528780</v>
       </c>
       <c r="M98" t="n">
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>317439.0828679112</v>
+        <v>50926.08755225615</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
@@ -6628,12 +6600,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x118Bc4c55700db03Ea29A0d920D22221DC1A9620</t>
+          <t>https://intel.arkm.com/explorer/address/0x0b8FE2a0DbF47038Da4BB6C6dD5Af1aEf1Ebb1F4</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>0x118Bc4c55700db03Ea29A0d920D22221DC1A9620</t>
+          <t>0x0b8FE2a0DbF47038Da4BB6C6dD5Af1aEf1Ebb1F4</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -6653,20 +6625,20 @@
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>25143300.625</v>
+        <v>25080699.09375</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
       </c>
       <c r="M99" t="n">
-        <v>132629.7415172425</v>
+        <v>133914.4569135635</v>
       </c>
       <c r="N99" t="n">
         <v>0</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -6678,12 +6650,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x80787af194C33b74a811f5e5c549316269d7Ee1A</t>
+          <t>https://intel.arkm.com/explorer/address/0x118Bc4c55700db03Ea29A0d920D22221DC1A9620</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>0x80787af194C33b74a811f5e5c549316269d7Ee1A</t>
+          <t>0x118Bc4c55700db03Ea29A0d920D22221DC1A9620</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -6697,46 +6669,26 @@
       <c r="E100" t="b">
         <v>0</v>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>HitBTC</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>https://hitbtc.com</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>15644440.25519943</v>
+        <v>25143300.625</v>
       </c>
       <c r="L100" t="n">
-        <v>10091990.25439453</v>
+        <v>0</v>
       </c>
       <c r="M100" t="n">
-        <v>90626.54141428153</v>
+        <v>132629.7415172425</v>
       </c>
       <c r="N100" t="n">
-        <v>57279.45783682923</v>
+        <v>0</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
@@ -6748,12 +6700,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x416Ec2cA21a38CbCFeAcD6a14532B3F348356d23</t>
+          <t>https://intel.arkm.com/explorer/address/0xfE98f85EAfe3c7BF23af3A7b406aDcc1dB43e36b</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>0x416Ec2cA21a38CbCFeAcD6a14532B3F348356d23</t>
+          <t>0xfE98f85EAfe3c7BF23af3A7b406aDcc1dB43e36b</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -6770,23 +6722,31 @@
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Kraken Deposit</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K101" t="n">
-        <v>13454801.04142835</v>
+        <v>11098185.49174439</v>
       </c>
       <c r="L101" t="n">
-        <v>13397984.50287676</v>
+        <v>11380339.25360489</v>
       </c>
       <c r="M101" t="n">
-        <v>72708.4844584079</v>
+        <v>62523.32185301307</v>
       </c>
       <c r="N101" t="n">
-        <v>72392.81657455476</v>
+        <v>63967.08941497</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
@@ -6798,12 +6758,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x1a353A852Ba8EC5aC634695E0d65f2729223471D</t>
+          <t>https://intel.arkm.com/explorer/address/0x21a31Ee1afC51d94C2eFcCAa2092aD1028285549</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>0x1a353A852Ba8EC5aC634695E0d65f2729223471D</t>
+          <t>0x21a31Ee1afC51d94C2eFcCAa2092aD1028285549</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -6817,26 +6777,46 @@
       <c r="E102" t="b">
         <v>0</v>
       </c>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Binance</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K102" t="n">
-        <v>12994457.140625</v>
+        <v>55201957.75</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>53854682.42752856</v>
       </c>
       <c r="M102" t="n">
-        <v>67217.24174118352</v>
+        <v>302008.46832202</v>
       </c>
       <c r="N102" t="n">
-        <v>0</v>
+        <v>294535.40979505</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
@@ -6848,12 +6828,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x9008D19f58AAbD9eD0D60971565AA8510560ab41</t>
+          <t>https://intel.arkm.com/explorer/address/0xC333E80eF2deC2805F239E3f1e810612D294F771</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>0x9008D19f58AAbD9eD0D60971565AA8510560ab41</t>
+          <t>0xC333E80eF2deC2805F239E3f1e810612D294F771</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -6862,51 +6842,43 @@
         </is>
       </c>
       <c r="D103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103" t="b">
         <v>0</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>CoW Protocol</t>
+          <t>B2C2 Group</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>dex-aggregator</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>https://cow.fi</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>Settlement</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://www.b2c2.com</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>114302504.4321884</v>
+        <v>13036781.54507479</v>
       </c>
       <c r="L103" t="n">
-        <v>114303618.869031</v>
+        <v>11738965.85339355</v>
       </c>
       <c r="M103" t="n">
-        <v>641043.9317767987</v>
+        <v>71145.634348761</v>
       </c>
       <c r="N103" t="n">
-        <v>641041.7764198253</v>
+        <v>63159.91954999</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
@@ -6918,12 +6890,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x33566c9D8BE6Cf0B23795E0d380E112Be9d75836</t>
+          <t>https://intel.arkm.com/explorer/address/0xBEE3211ab312a8D065c4FeF0247448e17A8da000</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>0x33566c9D8BE6Cf0B23795E0d380E112Be9d75836</t>
+          <t>0xBEE3211ab312a8D065c4FeF0247448e17A8da000</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -6932,29 +6904,17 @@
         </is>
       </c>
       <c r="D104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" t="b">
         <v>0</v>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Galaxy Digital</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>https://www.galaxy.com/</t>
-        </is>
-      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>OTC</t>
+          <t>Market Maker</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -6963,20 +6923,20 @@
         </is>
       </c>
       <c r="K104" t="n">
-        <v>22360534.1015625</v>
+        <v>20322955.06325785</v>
       </c>
       <c r="L104" t="n">
-        <v>22687091.7802124</v>
+        <v>20241693.79150471</v>
       </c>
       <c r="M104" t="n">
-        <v>127888.45555956</v>
+        <v>115926.2366831719</v>
       </c>
       <c r="N104" t="n">
-        <v>128019.36236941</v>
+        <v>115427.5624396628</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
@@ -6988,12 +6948,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xBEE3211ab312a8D065c4FeF0247448e17A8da000</t>
+          <t>https://intel.arkm.com/explorer/address/0x9008D19f58AAbD9eD0D60971565AA8510560ab41</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>0xBEE3211ab312a8D065c4FeF0247448e17A8da000</t>
+          <t>0x9008D19f58AAbD9eD0D60971565AA8510560ab41</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -7007,12 +6967,24 @@
       <c r="E105" t="b">
         <v>0</v>
       </c>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>CoW Protocol</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>dex-aggregator</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>https://cow.fi</t>
+        </is>
+      </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Market Maker</t>
+          <t>Settlement</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -7021,20 +6993,20 @@
         </is>
       </c>
       <c r="K105" t="n">
-        <v>20322705.37464396</v>
+        <v>114302514.4060596</v>
       </c>
       <c r="L105" t="n">
-        <v>20241693.79150471</v>
+        <v>114303628.8362132</v>
       </c>
       <c r="M105" t="n">
-        <v>115924.693871638</v>
+        <v>641043.9934047706</v>
       </c>
       <c r="N105" t="n">
-        <v>115427.5624396628</v>
+        <v>641041.8380064694</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
@@ -7046,12 +7018,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x372cAE7fA19b81A9786A9081704EA1e2DAD576b7</t>
+          <t>https://intel.arkm.com/explorer/address/0x7915f9373Ae32d1fcAF0CdF17a532a3D8046D759</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>0x372cAE7fA19b81A9786A9081704EA1e2DAD576b7</t>
+          <t>0x7915f9373Ae32d1fcAF0CdF17a532a3D8046D759</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -7071,20 +7043,20 @@
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>17031690.6875</v>
+        <v>22680241.375</v>
       </c>
       <c r="L106" t="n">
-        <v>17040501.6875</v>
+        <v>0</v>
       </c>
       <c r="M106" t="n">
-        <v>91604.61257375</v>
+        <v>127981.7</v>
       </c>
       <c r="N106" t="n">
-        <v>91604.61257375</v>
+        <v>0</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
@@ -7096,12 +7068,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xBA12222222228d8Ba445958a75a0704d566BF2C8</t>
+          <t>https://intel.arkm.com/explorer/address/0x7D94077f58593F8b97c5cAB56c8924E13b49946E</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>0xBA12222222228d8Ba445958a75a0704d566BF2C8</t>
+          <t>0x7D94077f58593F8b97c5cAB56c8924E13b49946E</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -7110,29 +7082,29 @@
         </is>
       </c>
       <c r="D107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107" t="b">
         <v>0</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Balancer</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>dex</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>https://balancer.fi</t>
+          <t>https://kraken.com</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Vault</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -7141,20 +7113,20 @@
         </is>
       </c>
       <c r="K107" t="n">
-        <v>83688509.53951713</v>
+        <v>23998588.88057401</v>
       </c>
       <c r="L107" t="n">
-        <v>82823843.9821085</v>
+        <v>24852774.06291338</v>
       </c>
       <c r="M107" t="n">
-        <v>464328.5754989558</v>
+        <v>133711.2570584922</v>
       </c>
       <c r="N107" t="n">
-        <v>459702.0996562645</v>
+        <v>135006.00063491</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
@@ -7166,12 +7138,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xa923B13270F8622B5d5960634200Dc4302b7611E</t>
+          <t>https://intel.arkm.com/explorer/address/0x8f85D8d9d232883d63c992DFf303C10DDA2e428F</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>0xa923B13270F8622B5d5960634200Dc4302b7611E</t>
+          <t>0x8f85D8d9d232883d63c992DFf303C10DDA2e428F</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -7180,7 +7152,7 @@
         </is>
       </c>
       <c r="D108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108" t="b">
         <v>0</v>
@@ -7190,7 +7162,7 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Gnosis Safe Proxy</t>
+          <t>HitBTC Deposit</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -7199,20 +7171,20 @@
         </is>
       </c>
       <c r="K108" t="n">
-        <v>40917945.5625</v>
+        <v>15954436.64697266</v>
       </c>
       <c r="L108" t="n">
-        <v>39380708.04328918</v>
+        <v>16492753.85498047</v>
       </c>
       <c r="M108" t="n">
-        <v>231775.4541938402</v>
+        <v>92829.29952149151</v>
       </c>
       <c r="N108" t="n">
-        <v>231770.4148689859</v>
+        <v>95229.48952149153</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
@@ -7224,12 +7196,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xa9C61FE59b5702b1d382fd1d5e495887ff34c21d</t>
+          <t>https://intel.arkm.com/explorer/address/0x5aB53EE1d50eeF2C1DD3d5402789cd27bB52c1bB</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>0xa9C61FE59b5702b1d382fd1d5e495887ff34c21d</t>
+          <t>0x5aB53EE1d50eeF2C1DD3d5402789cd27bB52c1bB</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -7238,17 +7210,29 @@
         </is>
       </c>
       <c r="D109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109" t="b">
         <v>0</v>
       </c>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Uniswap</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>dex</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>https://uniswap.org</t>
+        </is>
+      </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Binance Deposit</t>
+          <t>AAVE</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -7257,20 +7241,20 @@
         </is>
       </c>
       <c r="K109" t="n">
-        <v>16183188.43429565</v>
+        <v>75760934.25529513</v>
       </c>
       <c r="L109" t="n">
-        <v>16196534.55334473</v>
+        <v>73134390.56553926</v>
       </c>
       <c r="M109" t="n">
-        <v>88104.73649600273</v>
+        <v>416172.9849282696</v>
       </c>
       <c r="N109" t="n">
-        <v>88104.73649600273</v>
+        <v>403736.5939949719</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
@@ -7282,12 +7266,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xC333E80eF2deC2805F239E3f1e810612D294F771</t>
+          <t>https://intel.arkm.com/explorer/address/0xEae7380dD4CeF6fbD1144F49E4D1e6964258A4F4</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>0xC333E80eF2deC2805F239E3f1e810612D294F771</t>
+          <t>0xEae7380dD4CeF6fbD1144F49E4D1e6964258A4F4</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -7303,7 +7287,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>B2C2 Group</t>
+          <t>Wintermute</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -7313,26 +7297,34 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>https://www.b2c2.com</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Binance Deposit</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K110" t="n">
-        <v>13036781.54507479</v>
+        <v>71491784.0390625</v>
       </c>
       <c r="L110" t="n">
-        <v>11738965.85339355</v>
+        <v>71463071.85351562</v>
       </c>
       <c r="M110" t="n">
-        <v>71145.634348761</v>
+        <v>393174.00253098</v>
       </c>
       <c r="N110" t="n">
-        <v>63159.91954999</v>
+        <v>393174.00253098</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
@@ -7402,7 +7394,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
@@ -7414,12 +7406,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xD3CB110f85Aa369309A7B855f8ED3730E8168a28</t>
+          <t>https://intel.arkm.com/explorer/address/0xB0A27099582833c0Cb8C7A0565759fF145113d64</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>0xD3CB110f85Aa369309A7B855f8ED3730E8168a28</t>
+          <t>0xB0A27099582833c0Cb8C7A0565759fF145113d64</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -7435,7 +7427,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>OKX</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -7445,7 +7437,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
+          <t>https://okx.com</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -7459,20 +7451,20 @@
         </is>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
+        <v>11303307.14941406</v>
       </c>
       <c r="L112" t="n">
-        <v>10149861</v>
+        <v>11024956.0612793</v>
       </c>
       <c r="M112" t="n">
-        <v>0</v>
+        <v>61859.33</v>
       </c>
       <c r="N112" t="n">
-        <v>53327.69900839427</v>
+        <v>60781.384614</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
@@ -7484,12 +7476,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xF21F6a09e488a7177C59e8E2d362aDec661E7689</t>
+          <t>https://intel.arkm.com/explorer/address/0x6E9Ddc0143CF07D21EA51b6406755E2da9BE0F58</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>0xF21F6a09e488a7177C59e8E2d362aDec661E7689</t>
+          <t>0x6E9Ddc0143CF07D21EA51b6406755E2da9BE0F58</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -7509,20 +7501,20 @@
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>25233868.03125</v>
+        <v>11187817.5</v>
       </c>
       <c r="L113" t="n">
         <v>0</v>
       </c>
       <c r="M113" t="n">
-        <v>132228.4092711481</v>
+        <v>59451.03587099689</v>
       </c>
       <c r="N113" t="n">
         <v>0</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P113" t="inlineStr">
@@ -7534,12 +7526,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x7915f9373Ae32d1fcAF0CdF17a532a3D8046D759</t>
+          <t>https://intel.arkm.com/explorer/address/0xD3CB110f85Aa369309A7B855f8ED3730E8168a28</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>0x7915f9373Ae32d1fcAF0CdF17a532a3D8046D759</t>
+          <t>0xD3CB110f85Aa369309A7B855f8ED3730E8168a28</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -7553,26 +7545,46 @@
       <c r="E114" t="b">
         <v>0</v>
       </c>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K114" t="n">
-        <v>22680241.375</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
-        <v>0</v>
+        <v>10149861</v>
       </c>
       <c r="M114" t="n">
-        <v>127981.7</v>
+        <v>0</v>
       </c>
       <c r="N114" t="n">
-        <v>0</v>
+        <v>53327.69900839427</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P114" t="inlineStr">
@@ -7584,12 +7596,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xe401A6A38024d8f5aB88f1B08cad476cCaCA45E8</t>
+          <t>https://intel.arkm.com/explorer/address/0xA9D1e08C7793af67e9d92fe308d5697FB81d3E43</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>0xe401A6A38024d8f5aB88f1B08cad476cCaCA45E8</t>
+          <t>0xA9D1e08C7793af67e9d92fe308d5697FB81d3E43</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -7598,29 +7610,29 @@
         </is>
       </c>
       <c r="D115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115" t="b">
         <v>0</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Wintermute</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>https://www.wintermute.com/</t>
+          <t>https://coinbase.com</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Bybit Deposit</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -7629,20 +7641,20 @@
         </is>
       </c>
       <c r="K115" t="n">
-        <v>15954386</v>
+        <v>243149612.322998</v>
       </c>
       <c r="L115" t="n">
-        <v>15954721.734375</v>
+        <v>244059284.1922362</v>
       </c>
       <c r="M115" t="n">
-        <v>86976.99260203</v>
+        <v>1290672.927724472</v>
       </c>
       <c r="N115" t="n">
-        <v>86976.99260203</v>
+        <v>1295051.206390949</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P115" t="inlineStr">
@@ -7654,12 +7666,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xA3222357a0eCCF60C73606170be6c99ADeCb59b3</t>
+          <t>https://intel.arkm.com/explorer/address/0xC17A40852E4BfE04Bc81Af355Fdf132C539bA753</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>0xA3222357a0eCCF60C73606170be6c99ADeCb59b3</t>
+          <t>0xC17A40852E4BfE04Bc81Af355Fdf132C539bA753</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -7668,29 +7680,17 @@
         </is>
       </c>
       <c r="D116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E116" t="b">
         <v>0</v>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>HitBTC</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>https://hitbtc.com</t>
-        </is>
-      </c>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Binance Deposit</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -7699,20 +7699,20 @@
         </is>
       </c>
       <c r="K116" t="n">
-        <v>13498095.49030154</v>
+        <v>10077600.09339905</v>
       </c>
       <c r="L116" t="n">
-        <v>13499544.45428276</v>
+        <v>9643404.3515625</v>
       </c>
       <c r="M116" t="n">
-        <v>75589.69435691438</v>
+        <v>59575.62173810894</v>
       </c>
       <c r="N116" t="n">
-        <v>75545.092934</v>
+        <v>58103.85768651397</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2025-12-22 02:44:51</t>
+          <t>2025-12-22 02:47:42</t>
         </is>
       </c>
       <c r="P116" t="inlineStr">

--- a/data_cripto/top_flow.xlsx
+++ b/data_cripto/top_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:P121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,28 +518,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xA9D1e08C7793af67e9d92fe308d5697FB81d3E43</t>
+          <t>https://intel.arkm.com/explorer/address/3MqUP6G1daVS5YTD8fz3QgwjZortWwxXFd</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0xA9D1e08C7793af67e9d92fe308d5697FB81d3E43</t>
+          <t>3MqUP6G1daVS5YTD8fz3QgwjZortWwxXFd</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Coinbase Prime</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -549,7 +547,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
+          <t>https://www.coinbase.com/prime</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -559,869 +557,829 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>205082849.5845947</v>
+        <v>11170504088.07761</v>
       </c>
       <c r="L2" t="n">
-        <v>205206854.6456797</v>
+        <v>11165038374.10186</v>
       </c>
       <c r="M2" t="n">
-        <v>15300499.73246542</v>
+        <v>125387.55065759</v>
       </c>
       <c r="N2" t="n">
-        <v>15319145.06456536</v>
+        <v>125415.94258632</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xfBd4cdB413E45a52E2C8312f670e9cE67E794C37</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qx9n80t5q7tfmutzaj0ramzzzsvtveara68zntc</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0xfBd4cdB413E45a52E2C8312f670e9cE67E794C37</t>
+          <t>bc1qx9n80t5q7tfmutzaj0ramzzzsvtveara68zntc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="b">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Kraken</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://kraken.com</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K3" t="n">
-        <v>39752041.60428786</v>
+        <v>3893168770.887906</v>
       </c>
       <c r="L3" t="n">
-        <v>39928267.72030306</v>
+        <v>4733369830.743248</v>
       </c>
       <c r="M3" t="n">
-        <v>2981411.803523775</v>
+        <v>43545.71844104</v>
       </c>
       <c r="N3" t="n">
-        <v>2984822.275487124</v>
+        <v>52737.12942108</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x2B83aaCB0dD973866B563cFb0EF0AEF24B93200b</t>
+          <t>https://intel.arkm.com/explorer/address/352zzNHvsBTaUUNzqB5xbMo8EYdpvHJQB2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0x2B83aaCB0dD973866B563cFb0EF0AEF24B93200b</t>
+          <t>352zzNHvsBTaUUNzqB5xbMo8EYdpvHJQB2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="b">
         <v>0</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Coinbase Prime Custody</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>34534937.38460625</v>
+        <v>3348193382.375061</v>
       </c>
       <c r="L4" t="n">
-        <v>36016885.109375</v>
+        <v>3341917755.664405</v>
       </c>
       <c r="M4" t="n">
-        <v>2580610.884152188</v>
+        <v>37483.49021821</v>
       </c>
       <c r="N4" t="n">
-        <v>2678999.130835807</v>
+        <v>37409.33933973</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xDdfF0cdb9A67fda3363488140ea3E2159A43c2D4</t>
+          <t>https://intel.arkm.com/explorer/address/3EDiYUZpcEjBvaD7yiZfjx68hhXH6bYyZy</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0xDdfF0cdb9A67fda3363488140ea3E2159A43c2D4</t>
+          <t>3EDiYUZpcEjBvaD7yiZfjx68hhXH6bYyZy</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="b">
         <v>0</v>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Coinbase Prime Custody</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bitstamp</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://bitstamp.net</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>19560394</v>
+        <v>653720361</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1432995.917548134</v>
+        <v>7267.13931</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x651641299C7eC0aA44AD7eD9b7E12702fED2022f</t>
+          <t>https://intel.arkm.com/explorer/address/3HNFTegz1nSDjoq8iepW5wMxDZCcVq1VuC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0x651641299C7eC0aA44AD7eD9b7E12702fED2022f</t>
+          <t>3HNFTegz1nSDjoq8iepW5wMxDZCcVq1VuC</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bybit</t>
+          <t>Twenty One Capital</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://bybit.com</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://xxi.money/</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>29248412.55956115</v>
+        <v>3911275520</v>
       </c>
       <c r="L6" t="n">
-        <v>30735166.72292897</v>
+        <v>3917300224</v>
       </c>
       <c r="M6" t="n">
-        <v>2209149.651303647</v>
+        <v>43033.54017238</v>
       </c>
       <c r="N6" t="n">
-        <v>2317882.41247596</v>
+        <v>43033.54017238</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xCD531Ae9EFCCE479654c4926dec5F6209531Ca7b</t>
+          <t>https://intel.arkm.com/explorer/address/1AZ7aYCT6JPLF1EZ7PgymfFtH4xK44CcCP</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0xCD531Ae9EFCCE479654c4926dec5F6209531Ca7b</t>
+          <t>1AZ7aYCT6JPLF1EZ7PgymfFtH4xK44CcCP</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="b">
         <v>0</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Coinbase Prime</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>https://www.coinbase.com/prime</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Binance Deposit</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>307359333.6130075</v>
+        <v>776366003.1653225</v>
       </c>
       <c r="L7" t="n">
-        <v>307524495.3352643</v>
+        <v>803076709.2502198</v>
       </c>
       <c r="M7" t="n">
-        <v>22029407.41793381</v>
+        <v>8779.96381976</v>
       </c>
       <c r="N7" t="n">
-        <v>22023158.30466179</v>
+        <v>9058.31459953</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x7f604D597c15b2e2F60DC645844f68b1D781b752</t>
+          <t>https://intel.arkm.com/explorer/address/bc1pueepze0zflc9vhtmt2tjhnp8d73f2lmle27wxvk6z6crh73ju9nsjw0qkx</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0x7f604D597c15b2e2F60DC645844f68b1D781b752</t>
+          <t>bc1pueepze0zflc9vhtmt2tjhnp8d73f2lmle27wxvk6z6crh73ju9nsjw0qkx</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="b">
         <v>0</v>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Bitstamp</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>https://bitstamp.net</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>13662421.85406138</v>
+        <v>594554368</v>
       </c>
       <c r="L8" t="n">
-        <v>15023501.87969458</v>
+        <v>601296192</v>
       </c>
       <c r="M8" t="n">
-        <v>1026955.225847075</v>
+        <v>6600</v>
       </c>
       <c r="N8" t="n">
-        <v>1141708.5619001</v>
+        <v>6505.00001542</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xeFE267E44A58815DD2e319F3b9a679a5202da1ce</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q77fg8d7xjye7vq2m9ws7qvwuw9k0src4k9yrdn82e4l63swfh3yse4te95</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0xeFE267E44A58815DD2e319F3b9a679a5202da1ce</t>
+          <t>bc1q77fg8d7xjye7vq2m9ws7qvwuw9k0src4k9yrdn82e4l63swfh3yse4te95</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="b">
         <v>0</v>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>BTC Markets</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://www.btcmarkets.net/</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Gnosis Safe Proxy</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>535710304</v>
       </c>
       <c r="L9" t="n">
-        <v>12630000</v>
+        <v>555461248</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>6103.5</v>
       </c>
       <c r="N9" t="n">
-        <v>1000000</v>
+        <v>6103.5</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x5d4F3C6fA16908609BAC31Ff148Bd002AA6b8c83</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q8qpfmpf6hcu3tgfvp8dgtf534rws8uhsl9vtk6p2f3r2gnqdz5sqxmty6q</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0x5d4F3C6fA16908609BAC31Ff148Bd002AA6b8c83</t>
+          <t>bc1q8qpfmpf6hcu3tgfvp8dgtf534rws8uhsl9vtk6p2f3r2gnqdz5sqxmty6q</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="b">
         <v>0</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>Twenty One Capital</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>dex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://uniswap.org</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>LINK 2</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://xxi.money/</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>27226822.79158168</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>27040794.38932518</v>
+        <v>1684128000</v>
       </c>
       <c r="M10" t="n">
-        <v>2060505.15981316</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>2046890.99106861</v>
+        <v>18422.68366374</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x468b88941e7Cc0B88c1869d68ab6b570bCEF62Ff</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qpzt4m58zzqgp84ktyuj5tz8g8k8ssg2g2d5eeerwhx4gxulqq5mqjzm5gc</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0x468b88941e7Cc0B88c1869d68ab6b570bCEF62Ff</t>
+          <t>bc1qpzt4m58zzqgp84ktyuj5tz8g8k8ssg2g2d5eeerwhx4gxulqq5mqjzm5gc</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>Twenty One Capital</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>dex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://uniswap.org</t>
+          <t>https://xxi.money/</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>18441172.8827455</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>17244939.85938417</v>
+        <v>959867968</v>
       </c>
       <c r="M11" t="n">
-        <v>1386318.920468337</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1299831.271728339</v>
+        <v>10499.99999582</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x79dD9327352BcF1dd16941899705E97b61F4DEcB</t>
+          <t>https://intel.arkm.com/explorer/address/3JBM969wvpxEnfYLQ3LYayB3DVk52ZZpGq</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0x79dD9327352BcF1dd16941899705E97b61F4DEcB</t>
+          <t>3JBM969wvpxEnfYLQ3LYayB3DVk52ZZpGq</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="b">
         <v>0</v>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Kraken</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>https://kraken.com</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>37579767.09314632</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>40731638.70891777</v>
+        <v>888877632</v>
       </c>
       <c r="M12" t="n">
-        <v>2847359.440467375</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>3080130.84643193</v>
+        <v>10144.92</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xBC64BDE4C3b70147C47c16dD9277a6Aaef7e0f02</t>
+          <t>https://intel.arkm.com/explorer/address/3MEa4sPyGLCf2xQR5k68gUsxYSosJ6UhJh</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0xBC64BDE4C3b70147C47c16dD9277a6Aaef7e0f02</t>
+          <t>3MEa4sPyGLCf2xQR5k68gUsxYSosJ6UhJh</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="b">
         <v>0</v>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Twenty One Capital</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://xxi.money/</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>3933954304</v>
       </c>
       <c r="L13" t="n">
-        <v>23835008</v>
+        <v>3911275520</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>43033.5411757</v>
       </c>
       <c r="N13" t="n">
-        <v>1618126.874701472</v>
+        <v>43033.5411757</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x9B1c1752B6B6eAF62a8c491A8681B32C1F7ecDE9</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qptc9cz269u2mc5yguun5a5d6yd5c7f7ne4qj26</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0x9B1c1752B6B6eAF62a8c491A8681B32C1F7ecDE9</t>
+          <t>bc1qptc9cz269u2mc5yguun5a5d6yd5c7f7ne4qj26</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Binance Deposit</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>116314976</v>
+        <v>1408599936</v>
       </c>
       <c r="L14" t="n">
-        <v>116379500</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>9224998</v>
+        <v>16400.04537828</v>
       </c>
       <c r="N14" t="n">
-        <v>9225000</v>
+        <v>0</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x676Fc50D17307fBd491BAf19033f92D17a5Dc586</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qukw69mjxwp30adfqddv6gcyva26laxz562rhlk</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0x676Fc50D17307fBd491BAf19033f92D17a5Dc586</t>
+          <t>bc1qukw69mjxwp30adfqddv6gcyva26laxz562rhlk</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="b">
         <v>0</v>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Kraken</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://kraken.com</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Coinbase Prime Deposit</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>40707347.126359</v>
+        <v>914080000</v>
       </c>
       <c r="L15" t="n">
-        <v>40706459.375</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>2858612.07964248</v>
+        <v>10000</v>
       </c>
       <c r="N15" t="n">
-        <v>2858612.07964248</v>
+        <v>0</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x91D40E4818F4D4C57b4578d9ECa6AFc92aC8DEbE</t>
+          <t>https://intel.arkm.com/explorer/address/3BHXygmhNMaCcNn76S8DLdnZ5ucPtNtWGb</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0x91D40E4818F4D4C57b4578d9ECa6AFc92aC8DEbE</t>
+          <t>3BHXygmhNMaCcNn76S8DLdnZ5ucPtNtWGb</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>OKX</t>
+          <t>Cobo.com</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>custodian</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://okx.com</t>
+          <t>https://www.cobo.com</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1431,51 +1389,49 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>33409543.83515068</v>
+        <v>623006648</v>
       </c>
       <c r="L16" t="n">
-        <v>34641836.21761441</v>
+        <v>825507470.1922379</v>
       </c>
       <c r="M16" t="n">
-        <v>2487981.515333756</v>
+        <v>6975.49974085</v>
       </c>
       <c r="N16" t="n">
-        <v>2572514.59114373</v>
+        <v>9367.857551769999</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x525869AD2488101b5cf47e0D898a59f029b32b03</t>
+          <t>https://intel.arkm.com/explorer/address/3EX1HHEwPtkxitrcYpymHFWu91LNsn8wD4</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0x525869AD2488101b5cf47e0D898a59f029b32b03</t>
+          <t>3EX1HHEwPtkxitrcYpymHFWu91LNsn8wD4</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="b">
         <v>0</v>
       </c>
@@ -1485,193 +1441,167 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>23835008</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>884654976</v>
       </c>
       <c r="M17" t="n">
-        <v>1618126.874701472</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>10051.07</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xa6Cc3C2531FdaA6Ae1A3CA84c2855806728693e8</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qactqjuk4kghfgaqqt454hzzzs5lsaysunf80gh</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0xa6Cc3C2531FdaA6Ae1A3CA84c2855806728693e8</t>
+          <t>bc1qactqjuk4kghfgaqqt454hzzzs5lsaysunf80gh</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D18" t="b">
-        <v>1</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="b">
         <v>0</v>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Uniswap</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>dex</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>https://uniswap.org</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>LINK</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>136056752.981741</v>
+        <v>3348118748.80927</v>
       </c>
       <c r="L18" t="n">
-        <v>130662680.0666046</v>
+        <v>3348202165.108459</v>
       </c>
       <c r="M18" t="n">
-        <v>10234893.43163184</v>
+        <v>37483.58880354</v>
       </c>
       <c r="N18" t="n">
-        <v>9844955.453993659</v>
+        <v>37483.58880054</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xA69babEF1cA67A37Ffaf7a485DfFF3382056e78C</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qr4dl5wa7kl8yu792dceg9z5knl2gkn220lk7a9</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0xA69babEF1cA67A37Ffaf7a485DfFF3382056e78C</t>
+          <t>bc1qr4dl5wa7kl8yu792dceg9z5knl2gkn220lk7a9</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D19" t="b">
-        <v>1</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Symbolic Capital Partners</t>
+          <t>Crypto.com</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://symbolic.partners</t>
+          <t>https://crypto.com</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>MEV Bot</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>93400321.72603631</v>
+        <v>1207449989.501908</v>
       </c>
       <c r="L19" t="n">
-        <v>93436553.74480772</v>
+        <v>1625177540.78561</v>
       </c>
       <c r="M19" t="n">
-        <v>6984947.270853793</v>
+        <v>13644.09057548</v>
       </c>
       <c r="N19" t="n">
-        <v>6984086.53891708</v>
+        <v>18267.87929845</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x21a31Ee1afC51d94C2eFcCAa2092aD1028285549</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q39u0yxprsz6ucq93pgtxksk7ncr4900ypvkwcw</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0x21a31Ee1afC51d94C2eFcCAa2092aD1028285549</t>
+          <t>bc1q39u0yxprsz6ucq93pgtxksk7ncr4900ypvkwcw</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D20" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>BIT.com (Matrixport)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1681,669 +1611,593 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://www.bit.com/</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>55813830.32995605</v>
+        <v>646100014.4765625</v>
       </c>
       <c r="L20" t="n">
-        <v>56205659.82148707</v>
+        <v>696438762.8885479</v>
       </c>
       <c r="M20" t="n">
-        <v>4249940.93773681</v>
+        <v>7094.93213276</v>
       </c>
       <c r="N20" t="n">
-        <v>4223723.54785875</v>
+        <v>7642.15228998</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x191c10Aa4AF7C30e871E70C95dB0E4eb77237530</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0x191c10Aa4AF7C30e871E70C95dB0E4eb77237530</t>
+          <t>bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Aave</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>lending-decentralized</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://aave.com</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>17849899575.4317</v>
       </c>
       <c r="L21" t="n">
-        <v>13144576.24096721</v>
+        <v>18091381211.54326</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>200144.28319732</v>
       </c>
       <c r="N21" t="n">
-        <v>995965.7878645874</v>
+        <v>202597.15350731</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x885bF7301bf004263D0D20331C83ec0CEF305ea7</t>
+          <t>https://intel.arkm.com/explorer/address/335umQ4egqMjDo6wSXYwQZYPntZzMveNTJ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0x885bF7301bf004263D0D20331C83ec0CEF305ea7</t>
+          <t>335umQ4egqMjDo6wSXYwQZYPntZzMveNTJ</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Grayscale</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://grayscale.com/</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Chainlink Trust</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>13845202.625</v>
+        <v>1767837040.9375</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1707554703.6875</v>
       </c>
       <c r="M22" t="n">
-        <v>1000654.82353304</v>
+        <v>20025.39375</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>19331.104365</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x28C6c06298d514Db089934071355E5743bf21d60</t>
+          <t>https://intel.arkm.com/explorer/address/172jzPTGhtRR2SafHQDz3f7CTFrM4bjrxb</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0x28C6c06298d514Db089934071355E5743bf21d60</t>
+          <t>172jzPTGhtRR2SafHQDz3f7CTFrM4bjrxb</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D23" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="b">
         <v>0</v>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Binance</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>https://binance.com</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>305362379.6583252</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>300295071.1298849</v>
+        <v>680275008</v>
       </c>
       <c r="M23" t="n">
-        <v>23414419.50845625</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>23006829.00043544</v>
+        <v>7659.20237716</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x51C72848c68a965f66FA7a88855F9f7784502a7F</t>
+          <t>https://intel.arkm.com/explorer/address/12DezRFkKToAiLTDNru1g7FuvtAWMwCZ7N</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0x51C72848c68a965f66FA7a88855F9f7784502a7F</t>
+          <t>12DezRFkKToAiLTDNru1g7FuvtAWMwCZ7N</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D24" t="b">
-        <v>1</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Wintermute</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.wintermute.com/</t>
+          <t>https://coinbase.com</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Market Maker</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>104284859.2776166</v>
+        <v>3552740011.699023</v>
       </c>
       <c r="L24" t="n">
-        <v>104826496.4923756</v>
+        <v>3548070108.59375</v>
       </c>
       <c r="M24" t="n">
-        <v>7811705.886172817</v>
+        <v>39834.99380821</v>
       </c>
       <c r="N24" t="n">
-        <v>7844417.241257228</v>
+        <v>39801.52976173</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x5E8C8A7243651DB1384C0dDfDbE39761E8e7E51a</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q8wyf76hse8w4dr0qmmapmnuywlpf2upv5are5y9993gdsnvdt97qsem5pp</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0x5E8C8A7243651DB1384C0dDfDbE39761E8e7E51a</t>
+          <t>bc1q8wyf76hse8w4dr0qmmapmnuywlpf2upv5are5y9993gdsnvdt97qsem5pp</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D25" t="b">
-        <v>1</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="b">
         <v>0</v>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Aave</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>lending-decentralized</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>https://aave.com</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Aave Ethereum LINK (aEthLINK)</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>38300837.12007561</v>
+        <v>758845248</v>
       </c>
       <c r="L25" t="n">
-        <v>35226613.33316984</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>2886502.432623768</v>
+        <v>8613.649007</v>
       </c>
       <c r="N25" t="n">
-        <v>2665661.048119678</v>
+        <v>0</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x000000000004444c5dc75cB358380D2e3dE08A90</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q32lyrhp9zpww22phqjwwmelta0c8a5q990ghs6</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0x000000000004444c5dc75cB358380D2e3dE08A90</t>
+          <t>bc1q32lyrhp9zpww22phqjwwmelta0c8a5q990ghs6</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D26" t="b">
-        <v>1</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>Ceffu</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>dex</t>
+          <t>custodian</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://uniswap.org</t>
+          <t>https://www.ceffu.com/</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>PoolManager</t>
+          <t>Custody Cold Wallet</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>35971968.69879936</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>33770112.97032711</v>
+        <v>813936864</v>
       </c>
       <c r="M26" t="n">
-        <v>2698394.556768512</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>2527038.356891472</v>
+        <v>9232.000023819999</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x8725386e1F03C2b89BE73b5B2CBa7b0056317230</t>
+          <t>https://intel.arkm.com/explorer/address/1NBYWqtQvWmT7hzEB11XyGjHp4G177AVgz</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0x8725386e1F03C2b89BE73b5B2CBa7b0056317230</t>
+          <t>1NBYWqtQvWmT7hzEB11XyGjHp4G177AVgz</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D27" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="b">
         <v>0</v>
       </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>BIT.com (Matrixport)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>https://www.bit.com/</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>20085971.33316925</v>
+        <v>654008380.3554382</v>
       </c>
       <c r="L27" t="n">
-        <v>17594430.02220154</v>
+        <v>583143152.8427734</v>
       </c>
       <c r="M27" t="n">
-        <v>1543010.821196402</v>
+        <v>7192.12398613</v>
       </c>
       <c r="N27" t="n">
-        <v>1357047.115057076</v>
+        <v>6413.17433358</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xF977814e90dA44bFA03b6295A0616a897441aceC</t>
+          <t>https://intel.arkm.com/explorer/address/bc1p79rzpjn2f0puzc5lr5vxvrh23eytnqgcfhw4pcjj8gkep2slp2es92e2zp</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0xF977814e90dA44bFA03b6295A0616a897441aceC</t>
+          <t>bc1p79rzpjn2f0puzc5lr5vxvrh23eytnqgcfhw4pcjj8gkep2slp2es92e2zp</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D28" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="b">
         <v>0</v>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Binance</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>https://binance.com</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>90764924.25</v>
+        <v>601296192</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>7178890.169000001</v>
+        <v>6505</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x9008D19f58AAbD9eD0D60971565AA8510560ab41</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qumvs45e69rvfd9vqknzyz9wg0xzvnhmx6mt3cc</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0x9008D19f58AAbD9eD0D60971565AA8510560ab41</t>
+          <t>bc1qumvs45e69rvfd9vqknzyz9wg0xzvnhmx6mt3cc</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D29" t="b">
-        <v>1</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>CoW Protocol</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>dex-aggregator</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://cow.fi</t>
+          <t>https://kraken.com</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Settlement</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>41702580.58116457</v>
+        <v>547316000</v>
       </c>
       <c r="L29" t="n">
-        <v>41702543.08673622</v>
+        <v>594554432</v>
       </c>
       <c r="M29" t="n">
-        <v>3157752.955142502</v>
+        <v>6000</v>
       </c>
       <c r="N29" t="n">
-        <v>3157757.179162571</v>
+        <v>6600.00001074</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x0D0707963952f2fBA59dD06f2b425ace40b492Fe</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q42kvqt0e3f27qhd2ucnprarl5ywpuj7tu0h9v2</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0x0D0707963952f2fBA59dD06f2b425ace40b492Fe</t>
+          <t>bc1q42kvqt0e3f27qhd2ucnprarl5ywpuj7tu0h9v2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D30" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Gate</t>
+          <t>FalconX</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2353,7 +2207,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://gate.com</t>
+          <t>https://falconx.io/</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2363,121 +2217,117 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>17816357.46011353</v>
+        <v>1293191723.581428</v>
       </c>
       <c r="L30" t="n">
-        <v>17967854.90087833</v>
+        <v>1240726836.572441</v>
       </c>
       <c r="M30" t="n">
-        <v>1338924.987489549</v>
+        <v>14625.21759578</v>
       </c>
       <c r="N30" t="n">
-        <v>1360012.368521092</v>
+        <v>14064.10096563</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xFAD57d2039C21811C8F2B5D5B65308aa99D31559</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q0d3k8zue8z5ztqt0r35rsd7gua5z4ser6gt46c</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0xFAD57d2039C21811C8F2B5D5B65308aa99D31559</t>
+          <t>bc1q0d3k8zue8z5ztqt0r35rsd7gua5z4ser6gt46c</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D31" t="b">
-        <v>1</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>dex</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://uniswap.org</t>
+          <t>https://coinbase.com</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>LINK-USDC</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>42754839.27888699</v>
+        <v>1186042410.737006</v>
       </c>
       <c r="L31" t="n">
-        <v>42176275.87103448</v>
+        <v>1228396181.090073</v>
       </c>
       <c r="M31" t="n">
-        <v>3289490.192440319</v>
+        <v>13279.13984605</v>
       </c>
       <c r="N31" t="n">
-        <v>3257009.925115706</v>
+        <v>13754.19014572</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x2Ad4958554a1015F8b10AC673C1A4f19359EF074</t>
+          <t>https://intel.arkm.com/explorer/address/1PHpKcFBaUcNadBKEWutz3uMTWKupe8QHq</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0x2Ad4958554a1015F8b10AC673C1A4f19359EF074</t>
+          <t>1PHpKcFBaUcNadBKEWutz3uMTWKupe8QHq</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D32" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="b">
         <v>0</v>
       </c>
@@ -2487,203 +2337,169 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>28840000</v>
+        <v>680212864</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>2000000</v>
+        <v>7658.50237493</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x0639556F03714A74a5fEEaF5736a4A64fF70D206</t>
+          <t>https://intel.arkm.com/explorer/address/bc1p2mlwrss9tmvtfvu0tcxul2h0w67ej8vyjpj3ksctt67vd9r752ksqx6uqm</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0x0639556F03714A74a5fEEaF5736a4A64fF70D206</t>
+          <t>bc1p2mlwrss9tmvtfvu0tcxul2h0w67ej8vyjpj3ksctt67vd9r752ksqx6uqm</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D33" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="b">
         <v>0</v>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Bitget</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>https://www.bitget.com/</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>14529079.60708523</v>
+        <v>672067981.8924599</v>
       </c>
       <c r="L33" t="n">
-        <v>15923205.12320518</v>
+        <v>845490277.0505028</v>
       </c>
       <c r="M33" t="n">
-        <v>1091807.326698788</v>
+        <v>7552.912437360001</v>
       </c>
       <c r="N33" t="n">
-        <v>1193168.95139413</v>
+        <v>9534.50724705</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xa42D0A18B834F52e41bEDdEaA2940165db3DA9a3</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q4uccuzje5y77tajhgguzj3dut0rjkkq6thym8u2xvqhqn4zykrlsfsyhvl</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0xa42D0A18B834F52e41bEDdEaA2940165db3DA9a3</t>
+          <t>bc1q4uccuzje5y77tajhgguzj3dut0rjkkq6thym8u2xvqhqn4zykrlsfsyhvl</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D34" t="b">
-        <v>1</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="b">
         <v>0</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Chainlink</t>
+          <t>Twenty One Capital</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>oracle</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://chain.link</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Non-Circulating Supply</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://xxi.money/</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>50479988</v>
+        <v>639912000</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>3999999</v>
+        <v>7000.00000777</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xf8191D98ae98d2f7aBDFB63A9b0b812b93C873AA</t>
+          <t>https://intel.arkm.com/explorer/address/bc1quq29mutxkgxmjfdr7ayj3zd9ad0ld5mrhh89l2</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0xf8191D98ae98d2f7aBDFB63A9b0b812b93C873AA</t>
+          <t>bc1quq29mutxkgxmjfdr7ayj3zd9ad0ld5mrhh89l2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D35" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Wintermute</t>
+          <t>Gemini</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.wintermute.com/</t>
+          <t>https://gemini.com</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2693,179 +2509,165 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>64332245.15016797</v>
+        <v>906949019.6353645</v>
       </c>
       <c r="L35" t="n">
-        <v>64550235.74118805</v>
+        <v>969833454.4579129</v>
       </c>
       <c r="M35" t="n">
-        <v>4738192.878682889</v>
+        <v>10424.36098838</v>
       </c>
       <c r="N35" t="n">
-        <v>4760582.92479658</v>
+        <v>11132.87868851</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xEae7380dD4CeF6fbD1144F49E4D1e6964258A4F4</t>
+          <t>https://intel.arkm.com/explorer/address/34PhCF947JMQtCn7FD1J3Xd3c2VSxAwda8</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0xEae7380dD4CeF6fbD1144F49E4D1e6964258A4F4</t>
+          <t>34PhCF947JMQtCn7FD1J3Xd3c2VSxAwda8</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D36" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="b">
         <v>0</v>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Wintermute</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>https://www.wintermute.com/</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>Binance Deposit</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>48817224.6640625</v>
+        <v>840646976</v>
       </c>
       <c r="L36" t="n">
-        <v>48844256.52734375</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>3624302.96599815</v>
+        <v>9551.069985599999</v>
       </c>
       <c r="N36" t="n">
-        <v>3624302.96599815</v>
+        <v>0</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xD50f074Ec5c7997cE1DaacB513Ec194C480878Af</t>
+          <t>https://intel.arkm.com/explorer/address/3BPAodH6WkNQC8TUrnwFKhETiFacNUi68X</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0xD50f074Ec5c7997cE1DaacB513Ec194C480878Af</t>
+          <t>3BPAodH6WkNQC8TUrnwFKhETiFacNUi68X</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D37" t="b">
-        <v>1</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="b">
         <v>0</v>
       </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Cobo.com</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>custodian</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>https://www.cobo.com</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Gnosis Safe Proxy</t>
+          <t>Cobo Custody</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>25535238</v>
+        <v>795914068.5459976</v>
       </c>
       <c r="L37" t="n">
-        <v>14482699</v>
+        <v>760194701.9250031</v>
       </c>
       <c r="M37" t="n">
-        <v>2024999</v>
+        <v>9025.414599989999</v>
       </c>
       <c r="N37" t="n">
-        <v>1107498</v>
+        <v>8652.49889999</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x44C3a96181AF9e295cE8E188FA8FcDd72D1eb668</t>
+          <t>https://intel.arkm.com/explorer/address/37GgrfZcywSLuBpQDf1t6aJicWzHRf2GFB</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0x44C3a96181AF9e295cE8E188FA8FcDd72D1eb668</t>
+          <t>37GgrfZcywSLuBpQDf1t6aJicWzHRf2GFB</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D38" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="b">
         <v>0</v>
       </c>
@@ -2875,719 +2677,779 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>22412982.04742046</v>
+        <v>2450247936</v>
       </c>
       <c r="L38" t="n">
-        <v>25281759.06082153</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1722516.895469818</v>
+        <v>26917.22442797</v>
       </c>
       <c r="N38" t="n">
-        <v>1953061.418806222</v>
+        <v>0</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x1FA00bE39C9b815B039Fa5F3394405eEb9502C9c</t>
+          <t>https://intel.arkm.com/explorer/address/12XZMdaAGmcHf4ocFSqpd8jFd1WH7RHUPs</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0x1FA00bE39C9b815B039Fa5F3394405eEb9502C9c</t>
+          <t>12XZMdaAGmcHf4ocFSqpd8jFd1WH7RHUPs</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D39" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="b">
         <v>0</v>
       </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Bybit</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>https://bybit.com</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Coinbase Deposit</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>18456383.4375</v>
+        <v>1638020851.609058</v>
       </c>
       <c r="L39" t="n">
-        <v>18819128.15429688</v>
+        <v>1710806000.499733</v>
       </c>
       <c r="M39" t="n">
-        <v>1402092.42399</v>
+        <v>18384.81046748</v>
       </c>
       <c r="N39" t="n">
-        <v>1429497.96949</v>
+        <v>19207.34915433</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x4b929b5d1b5D55F4e5597F0E9B2a35141038D313</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qssl3tj9ldf4h4km6najk8648epy6wrsz9k8j50njjs9l96gp4d4susha2t</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0x4b929b5d1b5D55F4e5597F0E9B2a35141038D313</t>
+          <t>bc1qssl3tj9ldf4h4km6najk8648epy6wrsz9k8j50njjs9l96gp4d4susha2t</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D40" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Coinbase Prime Deposit</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>36708573.28499985</v>
+        <v>555461056</v>
       </c>
       <c r="L40" t="n">
-        <v>36728056.5</v>
+        <v>555650240</v>
       </c>
       <c r="M40" t="n">
-        <v>2741255.89505</v>
+        <v>6103.49799148</v>
       </c>
       <c r="N40" t="n">
-        <v>2741255.89505</v>
+        <v>6103.49799148</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x3A90bE9fc3f295975954A71736954df870a9f79b</t>
+          <t>https://intel.arkm.com/explorer/address/1DLeNApsHNNzUMNZJVoXeyEY5sdp8vzx3w</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0x3A90bE9fc3f295975954A71736954df870a9f79b</t>
+          <t>1DLeNApsHNNzUMNZJVoXeyEY5sdp8vzx3w</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D41" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="b">
         <v>0</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Grayscale</t>
+          <t>Bybit</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://grayscale.com/</t>
+          <t>https://bybit.com</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Chainlink Trust</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>20634384.375</v>
+        <v>1894251792.863202</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1959785115.6929</v>
       </c>
       <c r="M41" t="n">
-        <v>1473694.38068774</v>
+        <v>21227.93198959</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>21973.24557677</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xBEE3211ab312a8D065c4FeF0247448e17A8da000</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qq393eyjh8hdjvcchy0mxquhh9wx8h3kzlkchfs</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0xBEE3211ab312a8D065c4FeF0247448e17A8da000</t>
+          <t>bc1qq393eyjh8hdjvcchy0mxquhh9wx8h3kzlkchfs</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D42" t="b">
-        <v>1</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="b">
         <v>0</v>
       </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Ceffu</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>custodian</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>https://www.ceffu.com/</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Market Maker</t>
+          <t>Custody Hot Wallet</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>18517009.53002102</v>
+        <v>852644368.7340088</v>
       </c>
       <c r="L42" t="n">
-        <v>18522027.24283403</v>
+        <v>867968884.4179592</v>
       </c>
       <c r="M42" t="n">
-        <v>1409854.014150182</v>
+        <v>9679.410766450001</v>
       </c>
       <c r="N42" t="n">
-        <v>1410015.174851581</v>
+        <v>9850.92796001</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x9c17f630DBde24eECe8fd248fAA2E51f690FF79B</t>
+          <t>https://intel.arkm.com/explorer/address/bc1quhruqrghgcca950rvhtrg7cpd7u8k6svpzgzmrjy8xyukacl5lkq0r8l2d</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0x9c17f630DBde24eECe8fd248fAA2E51f690FF79B</t>
+          <t>bc1quhruqrghgcca950rvhtrg7cpd7u8k6svpzgzmrjy8xyukacl5lkq0r8l2d</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D43" t="b">
-        <v>1</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="b">
         <v>0</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Chainlink</t>
+          <t>OKX</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>oracle</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://chain.link</t>
+          <t>https://okx.com</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Non-Circulating Supply</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>2893075678.116414</v>
       </c>
       <c r="L43" t="n">
-        <v>91370238.60000038</v>
+        <v>2938348695.43685</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>32312.16624234</v>
       </c>
       <c r="N43" t="n">
-        <v>7249999</v>
+        <v>32793.77390555</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x79E4240E33C121402dfc9009dE266356c91f241d</t>
+          <t>https://intel.arkm.com/explorer/address/18SN8PV997oDGtYmTPPD55GDaPtNNEGWeu</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0x79E4240E33C121402dfc9009dE266356c91f241d</t>
+          <t>18SN8PV997oDGtYmTPPD55GDaPtNNEGWeu</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D44" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="b">
         <v>0</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>BTC Markets</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>dex</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://uniswap.org</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+          <t>https://www.btcmarkets.net/</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K44" t="n">
-        <v>13440766.05375044</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>13354663.39692521</v>
+        <v>535710304</v>
       </c>
       <c r="M44" t="n">
-        <v>1016653.94434259</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1012687.897520823</v>
+        <v>6103.50015</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xB1dB79aea0a13382DD9E279d96Bc9a468A2F4E87</t>
+          <t>https://intel.arkm.com/explorer/address/15DomY3arDPw5jD658Mbf3AY3wT3YCDmW2</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0xB1dB79aea0a13382DD9E279d96Bc9a468A2F4E87</t>
+          <t>15DomY3arDPw5jD658Mbf3AY3wT3YCDmW2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D45" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="b">
         <v>0</v>
       </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Wintermute</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K45" t="n">
-        <v>201672817.7523227</v>
+        <v>3653589179.282357</v>
       </c>
       <c r="L45" t="n">
-        <v>201655913.772864</v>
+        <v>3651485500.1875</v>
       </c>
       <c r="M45" t="n">
-        <v>15324059.08122165</v>
+        <v>40424.83339443</v>
       </c>
       <c r="N45" t="n">
-        <v>15322730.30655951</v>
+        <v>40424.83339443</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x63242A4Ea82847b20E506b63B0e2e2eFF0CC6cB0</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qppunwskzl7t3mtmcarlvpxjuzd8jy7l7ga49av2c78xg47fujncsrc76y6</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0x63242A4Ea82847b20E506b63B0e2e2eFF0CC6cB0</t>
+          <t>bc1qppunwskzl7t3mtmcarlvpxjuzd8jy7l7ga49av2c78xg47fujncsrc76y6</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D46" t="b">
-        <v>1</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="b">
         <v>0</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Kyber Network</t>
+          <t>Bitstamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>dex</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://kyber.network</t>
+          <t>https://bitstamp.net</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Aggregator Executor V3</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>16841776.56384891</v>
+        <v>1505931023.630524</v>
       </c>
       <c r="L46" t="n">
-        <v>16303973.75423381</v>
+        <v>1501856483.870094</v>
       </c>
       <c r="M46" t="n">
-        <v>1291000.41991924</v>
+        <v>16831.30497832</v>
       </c>
       <c r="N46" t="n">
-        <v>1250749.147034058</v>
+        <v>16788.3207455</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xC333E80eF2deC2805F239E3f1e810612D294F771</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qn2cpj0hrl37wqh5q94kwrlhtj2lx8ahtw7ef5rg35tswxsqtvufqfmmrq2</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0xC333E80eF2deC2805F239E3f1e810612D294F771</t>
+          <t>bc1qn2cpj0hrl37wqh5q94kwrlhtj2lx8ahtw7ef5rg35tswxsqtvufqfmmrq2</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D47" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>B2C2 Group</t>
+          <t>OKX</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.b2c2.com</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+          <t>https://okx.com</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K47" t="n">
-        <v>16560194.77429389</v>
+        <v>1417169543.293873</v>
       </c>
       <c r="L47" t="n">
-        <v>17176393.54055786</v>
+        <v>1396438611.731697</v>
       </c>
       <c r="M47" t="n">
-        <v>1269651.776611533</v>
+        <v>15771.27033125</v>
       </c>
       <c r="N47" t="n">
-        <v>1298467.36541865</v>
+        <v>15537.37228276</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x7A28b8cFeb73b45626f521dE928d0DD2D25C14a3</t>
+          <t>https://intel.arkm.com/explorer/address/1GrwDkr33gT6LuumniYjKEGjTLhsL5kmqC</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0x7A28b8cFeb73b45626f521dE928d0DD2D25C14a3</t>
+          <t>1GrwDkr33gT6LuumniYjKEGjTLhsL5kmqC</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D48" t="b">
-        <v>1</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="b">
         <v>0</v>
       </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Bybit</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>https://bybit.com</t>
+        </is>
+      </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Gnosis Safe Proxy</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K48" t="n">
-        <v>14482699</v>
+        <v>1987656286.347061</v>
       </c>
       <c r="L48" t="n">
-        <v>14462699</v>
+        <v>1949835179.55708</v>
       </c>
       <c r="M48" t="n">
-        <v>1107498</v>
+        <v>22277.91903408</v>
       </c>
       <c r="N48" t="n">
-        <v>1107498</v>
+        <v>21857.95996709</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xAC64829CDa33bb11C26074CE66E8549e4b8a66A2</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q7cyrfmck2ffu2ud3rn5l5a8yv6f0chkp0zpemf</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0xAC64829CDa33bb11C26074CE66E8549e4b8a66A2</t>
+          <t>bc1q7cyrfmck2ffu2ud3rn5l5a8yv6f0chkp0zpemf</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D49" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="b">
         <v>0</v>
       </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Crypto.com</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>https://crypto.com</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K49" t="n">
-        <v>13386399.21875</v>
+        <v>1408431485.534853</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1506578779.354851</v>
       </c>
       <c r="M49" t="n">
-        <v>1066366.911303386</v>
+        <v>15895.03023084</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>16992.37144619</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x841ed663F2636863D40be4EE76243377dff13a34</t>
+          <t>https://intel.arkm.com/explorer/address/3M219KR5vEneNb47ewrPfWyb5jQ2DjxRP6</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0x841ed663F2636863D40be4EE76243377dff13a34</t>
+          <t>3M219KR5vEneNb47ewrPfWyb5jQ2DjxRP6</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D50" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="b">
         <v>0</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Robinhood</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3597,289 +3459,303 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://robinhood.com/</t>
+          <t>https://binance.com</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>878456192</v>
       </c>
       <c r="L50" t="n">
-        <v>21268475.47851562</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>9978.261</v>
       </c>
       <c r="N50" t="n">
-        <v>1632837.07004406</v>
+        <v>0</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xDFd5293D8e347dFe59E90eFd55b2956a1343963d</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qr3vnyhhj7kd7ngs05xxm2yf0ma5gt6xvxmc0a6v2cj9mjzn6mvrqeek94m</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0xDFd5293D8e347dFe59E90eFd55b2956a1343963d</t>
+          <t>bc1qr3vnyhhj7kd7ngs05xxm2yf0ma5gt6xvxmc0a6v2cj9mjzn6mvrqeek94m</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D51" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="b">
         <v>0</v>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Binance</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>https://binance.com</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>79240588</v>
+        <v>555650176</v>
       </c>
       <c r="L51" t="n">
-        <v>82946052.18806618</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>5965758.66912632</v>
+        <v>6103.49698782</v>
       </c>
       <c r="N51" t="n">
-        <v>6276344.32615127</v>
+        <v>0</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x1BF7A9E3A364e7F5761345837f222cd93e230C4f</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q8s3h3vw5xufdas890q29lpuca56r0ezqar0mvs</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0x1BF7A9E3A364e7F5761345837f222cd93e230C4f</t>
+          <t>bc1q8s3h3vw5xufdas890q29lpuca56r0ezqar0mvs</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D52" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="b">
         <v>0</v>
       </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Binance Deposit</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Cumberland DRW</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>https://cumberland.io</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>19647555.53515625</v>
+        <v>653132819.2519331</v>
       </c>
       <c r="L52" t="n">
-        <v>19671904.23632812</v>
+        <v>818085603.7536094</v>
       </c>
       <c r="M52" t="n">
-        <v>1459850.56</v>
+        <v>7306.71483743</v>
       </c>
       <c r="N52" t="n">
-        <v>1459850.56</v>
+        <v>9197.101943080001</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x7C876bdaA5c038E19F633714f622F6Def949B102</t>
+          <t>https://intel.arkm.com/explorer/address/324H9uyTV9bPgAVgmdJNxPKKKZmowk5CYq</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0x7C876bdaA5c038E19F633714f622F6Def949B102</t>
+          <t>324H9uyTV9bPgAVgmdJNxPKKKZmowk5CYq</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D53" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="b">
         <v>0</v>
       </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Bullish.com</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>https://bullish.com/</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K53" t="n">
-        <v>18109386.87500241</v>
+        <v>584107555.25</v>
       </c>
       <c r="L53" t="n">
-        <v>17641660.625</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>1330121.844603767</v>
+        <v>6545.66901257</v>
       </c>
       <c r="N53" t="n">
-        <v>1297788.916184871</v>
+        <v>0</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x556052af8B4f001b659066E061836B174E39c539</t>
+          <t>https://intel.arkm.com/explorer/address/3MgEAFWu1HKSnZ5ZsC8qf61ZW18xrP5pgd</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0x556052af8B4f001b659066E061836B174E39c539</t>
+          <t>3MgEAFWu1HKSnZ5ZsC8qf61ZW18xrP5pgd</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D54" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="b">
         <v>0</v>
       </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>https://gemini.com</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K54" t="n">
-        <v>16087505.5400586</v>
+        <v>530070124</v>
       </c>
       <c r="L54" t="n">
-        <v>16718540.21090603</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>1186809.795025333</v>
+        <v>6111</v>
       </c>
       <c r="N54" t="n">
-        <v>1238779.383674878</v>
+        <v>0</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xBEEf02961503351625926Ea9a11AE13B29F5c555</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q32x2xd0k5vreyha87hl0ag45nhxv8w0csrztfsactjewez092edqsy6ek8</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0xBEEf02961503351625926Ea9a11AE13B29F5c555</t>
+          <t>bc1q32x2xd0k5vreyha87hl0ag45nhxv8w0csrztfsactjewez092edqsy6ek8</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D55" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="b">
         <v>0</v>
       </c>
@@ -3889,225 +3765,4153 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>13163466.38160539</v>
+        <v>555461120</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>555461120</v>
       </c>
       <c r="M55" t="n">
-        <v>1015544.507033131</v>
+        <v>6103.49899514</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>6103.49899514</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x177a7376860a04eEA6BF7fb3F39Bf10c49D3b42C</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qfnv2t4ntuhu52ykp06u6uy3nj7ctm2388cs80e</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0x177a7376860a04eEA6BF7fb3F39Bf10c49D3b42C</t>
+          <t>bc1qfnv2t4ntuhu52ykp06u6uy3nj7ctm2388cs80e</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D56" t="b">
-        <v>0</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="b">
         <v>0</v>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Blackhole</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>dex</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>https://blackhole.xyz/</t>
-        </is>
-      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>204686547.4966387</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>204739698.6370522</v>
+        <v>1412894464</v>
       </c>
       <c r="M56" t="n">
-        <v>15551668.13771092</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>15556843.37566308</v>
+        <v>16450.04551928</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xFA103c21ea2DF71DFb92B0652F8B1D795e51cdEf</t>
+          <t>https://intel.arkm.com/explorer/address/38UmuUqPCrFmQo4khkomQwZ4VbY2nZMJ67</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0xFA103c21ea2DF71DFb92B0652F8B1D795e51cdEf</t>
+          <t>38UmuUqPCrFmQo4khkomQwZ4VbY2nZMJ67</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="D57" t="b">
-        <v>1</v>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="b">
         <v>0</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Symbolic Capital Partners</t>
+          <t>Gemini</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://symbolic.partners</t>
+          <t>https://gemini.com</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>CEX Bridge</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>evm</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="K57" t="n">
-        <v>29965628.95898438</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>29973471.07519531</v>
+        <v>783071248</v>
       </c>
       <c r="M57" t="n">
-        <v>2231791.44425419</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>2233043.61125419</v>
+        <v>9040.021983999999</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2025-12-22 02:53:50</t>
+          <t>2025-12-22 02:56:42</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bitcoin</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>https://intel.arkm.com/explorer/address/1Pzaqw98PeRfyHypfqyEgg5yycJRsENrE7</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1Pzaqw98PeRfyHypfqyEgg5yycJRsENrE7</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Binance</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>832150016</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>9000.0000896</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:42</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/36YZXcTVLPdyapYuqXdJEt46oMVB2NrzVv</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>36YZXcTVLPdyapYuqXdJEt46oMVB2NrzVv</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Coinbase Prime Deposit</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1887504111.5</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1959533004</v>
+      </c>
+      <c r="M59" t="n">
+        <v>21389.41555251</v>
+      </c>
+      <c r="N59" t="n">
+        <v>22193.34794288</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:42</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/38rFtDdFpXc4y6XPbSnNd2UvveEt5Xms2E</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>38rFtDdFpXc4y6XPbSnNd2UvveEt5Xms2E</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Twenty One Capital</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>https://xxi.money/</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1467052160</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>16116.31574065</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:42</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/3P4Fjuyn8SMeMV3SVCLUw88zhTk38aqCB8</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>3P4Fjuyn8SMeMV3SVCLUw88zhTk38aqCB8</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>888877632</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>10144.91999566</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:42</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/1KbDEg1tDz2ErYgaDbaDhhawnLrSQFaFx5</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1KbDEg1tDz2ErYgaDbaDhhawnLrSQFaFx5</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Wintermute</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Binance Deposit</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>3924536633.450035</v>
+      </c>
+      <c r="L62" t="n">
+        <v>3927357644.397234</v>
+      </c>
+      <c r="M62" t="n">
+        <v>43983.8959008</v>
+      </c>
+      <c r="N62" t="n">
+        <v>44025.19589264</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:42</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/bc1q9exg34dkmgxu28yektgn929jpjpzukhhl2r3zr</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>bc1q9exg34dkmgxu28yektgn929jpjpzukhhl2r3zr</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Wintermute</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1963533069.448892</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1959346926.343677</v>
+      </c>
+      <c r="M63" t="n">
+        <v>21826.00540618</v>
+      </c>
+      <c r="N63" t="n">
+        <v>21774.40651599</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:42</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/bc1qttmz4kvr8tr6alvmn3zpd5mg53e787rq8v06z0qyqrru4992hsmqxnzkyl</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>bc1qttmz4kvr8tr6alvmn3zpd5mg53e787rq8v06z0qyqrru4992hsmqxnzkyl</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>890992256</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>10113.64902039</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:42</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xFAD57d2039C21811C8F2B5D5B65308aa99D31559</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0xFAD57d2039C21811C8F2B5D5B65308aa99D31559</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Uniswap</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>dex</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>https://uniswap.org</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>LINK-USDC</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>42754839.27888699</v>
+      </c>
+      <c r="L65" t="n">
+        <v>42176275.87103448</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3289490.192440319</v>
+      </c>
+      <c r="N65" t="n">
+        <v>3257009.925115706</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xBEEf02961503351625926Ea9a11AE13B29F5c555</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0xBEEf02961503351625926Ea9a11AE13B29F5c555</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D66" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>13163466.38160539</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1015544.507033131</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x79dD9327352BcF1dd16941899705E97b61F4DEcB</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0x79dD9327352BcF1dd16941899705E97b61F4DEcB</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Kraken</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>https://kraken.com</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>37579767.09314632</v>
+      </c>
+      <c r="L67" t="n">
+        <v>40731747.02392021</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2847359.440467375</v>
+      </c>
+      <c r="N67" t="n">
+        <v>3080139.54643193</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x7A28b8cFeb73b45626f521dE928d0DD2D25C14a3</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0x7A28b8cFeb73b45626f521dE928d0DD2D25C14a3</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D68" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Gnosis Safe Proxy</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>14482699</v>
+      </c>
+      <c r="L68" t="n">
+        <v>14462699</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1107498</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1107498</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xeFE267E44A58815DD2e319F3b9a679a5202da1ce</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0xeFE267E44A58815DD2e319F3b9a679a5202da1ce</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D69" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Gnosis Safe Proxy</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>12630000</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x2Ad4958554a1015F8b10AC673C1A4f19359EF074</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0x2Ad4958554a1015F8b10AC673C1A4f19359EF074</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D70" t="b">
+        <v>0</v>
+      </c>
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>28840000</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x651641299C7eC0aA44AD7eD9b7E12702fED2022f</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0x651641299C7eC0aA44AD7eD9b7E12702fED2022f</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D71" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Bybit</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>https://bybit.com</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>29248412.55956115</v>
+      </c>
+      <c r="L71" t="n">
+        <v>30735166.72292897</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2209149.651303647</v>
+      </c>
+      <c r="N71" t="n">
+        <v>2317882.41247596</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x79E4240E33C121402dfc9009dE266356c91f241d</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0x79E4240E33C121402dfc9009dE266356c91f241d</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D72" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Uniswap</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>dex</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>https://uniswap.org</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>13440766.05375044</v>
+      </c>
+      <c r="L72" t="n">
+        <v>13354662.45600983</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1016653.94434259</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1012687.819436559</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xa42D0A18B834F52e41bEDdEaA2940165db3DA9a3</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0xa42D0A18B834F52e41bEDdEaA2940165db3DA9a3</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Chainlink</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>oracle</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>https://chain.link</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Non-Circulating Supply</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>50479988</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>3999999</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x177a7376860a04eEA6BF7fb3F39Bf10c49D3b42C</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0x177a7376860a04eEA6BF7fb3F39Bf10c49D3b42C</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D74" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Blackhole</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>dex</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>https://blackhole.xyz/</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>204693741.5367186</v>
+      </c>
+      <c r="L74" t="n">
+        <v>204739099.9217749</v>
+      </c>
+      <c r="M74" t="n">
+        <v>15552244.27853982</v>
+      </c>
+      <c r="N74" t="n">
+        <v>15556793.59235371</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xF977814e90dA44bFA03b6295A0616a897441aceC</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0xF977814e90dA44bFA03b6295A0616a897441aceC</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D75" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75" t="b">
+        <v>0</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Binance</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>90764924.25</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>7178890.169000001</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x676Fc50D17307fBd491BAf19033f92D17a5Dc586</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>0x676Fc50D17307fBd491BAf19033f92D17a5Dc586</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D76" t="b">
+        <v>0</v>
+      </c>
+      <c r="E76" t="b">
+        <v>0</v>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Coinbase Prime Deposit</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>40707347.126359</v>
+      </c>
+      <c r="L76" t="n">
+        <v>40706459.375</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2858612.07964248</v>
+      </c>
+      <c r="N76" t="n">
+        <v>2858612.07964248</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x2B83aaCB0dD973866B563cFb0EF0AEF24B93200b</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>0x2B83aaCB0dD973866B563cFb0EF0AEF24B93200b</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D77" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Coinbase Prime Custody</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>34534937.38460625</v>
+      </c>
+      <c r="L77" t="n">
+        <v>36016885.109375</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2580610.884152188</v>
+      </c>
+      <c r="N77" t="n">
+        <v>2678999.130835807</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x9008D19f58AAbD9eD0D60971565AA8510560ab41</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>0x9008D19f58AAbD9eD0D60971565AA8510560ab41</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D78" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>CoW Protocol</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>dex-aggregator</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>https://cow.fi</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Settlement</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>41702580.58116457</v>
+      </c>
+      <c r="L78" t="n">
+        <v>41702543.08673622</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3157752.955142502</v>
+      </c>
+      <c r="N78" t="n">
+        <v>3157757.179162571</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xAC64829CDa33bb11C26074CE66E8549e4b8a66A2</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0xAC64829CDa33bb11C26074CE66E8549e4b8a66A2</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D79" t="b">
+        <v>0</v>
+      </c>
+      <c r="E79" t="b">
+        <v>0</v>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>13386399.21875</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1066366.911303386</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x51C72848c68a965f66FA7a88855F9f7784502a7F</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>0x51C72848c68a965f66FA7a88855F9f7784502a7F</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D80" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Wintermute</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Market Maker</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>104284859.2776166</v>
+      </c>
+      <c r="L80" t="n">
+        <v>104825676.0097096</v>
+      </c>
+      <c r="M80" t="n">
+        <v>7811705.886172817</v>
+      </c>
+      <c r="N80" t="n">
+        <v>7844349.151410567</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xA69babEF1cA67A37Ffaf7a485DfFF3382056e78C</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>0xA69babEF1cA67A37Ffaf7a485DfFF3382056e78C</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D81" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Symbolic Capital Partners</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>https://symbolic.partners</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>MEV Bot</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>93400321.72603631</v>
+      </c>
+      <c r="L81" t="n">
+        <v>93436024.94262266</v>
+      </c>
+      <c r="M81" t="n">
+        <v>6984947.270853793</v>
+      </c>
+      <c r="N81" t="n">
+        <v>6984042.65491712</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xDFd5293D8e347dFe59E90eFd55b2956a1343963d</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>0xDFd5293D8e347dFe59E90eFd55b2956a1343963d</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D82" t="b">
+        <v>0</v>
+      </c>
+      <c r="E82" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Binance</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>79240588</v>
+      </c>
+      <c r="L82" t="n">
+        <v>82946052.18806618</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5965758.66912632</v>
+      </c>
+      <c r="N82" t="n">
+        <v>6276344.32615127</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x21a31Ee1afC51d94C2eFcCAa2092aD1028285549</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>0x21a31Ee1afC51d94C2eFcCAa2092aD1028285549</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D83" t="b">
+        <v>0</v>
+      </c>
+      <c r="E83" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Binance</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>55813830.32995605</v>
+      </c>
+      <c r="L83" t="n">
+        <v>56194815.70136988</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4249940.93773681</v>
+      </c>
+      <c r="N83" t="n">
+        <v>4222823.62085875</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xCD531Ae9EFCCE479654c4926dec5F6209531Ca7b</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>0xCD531Ae9EFCCE479654c4926dec5F6209531Ca7b</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D84" t="b">
+        <v>0</v>
+      </c>
+      <c r="E84" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Coinbase Prime</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>https://www.coinbase.com/prime</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>307359333.6130075</v>
+      </c>
+      <c r="L84" t="n">
+        <v>307524495.3352643</v>
+      </c>
+      <c r="M84" t="n">
+        <v>22029407.41793381</v>
+      </c>
+      <c r="N84" t="n">
+        <v>22023158.30466179</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x91D40E4818F4D4C57b4578d9ECa6AFc92aC8DEbE</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>0x91D40E4818F4D4C57b4578d9ECa6AFc92aC8DEbE</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D85" t="b">
+        <v>0</v>
+      </c>
+      <c r="E85" t="b">
+        <v>0</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>OKX</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>https://okx.com</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>33409543.83515068</v>
+      </c>
+      <c r="L85" t="n">
+        <v>34641836.21761441</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2487981.515333756</v>
+      </c>
+      <c r="N85" t="n">
+        <v>2572514.59114373</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xD50f074Ec5c7997cE1DaacB513Ec194C480878Af</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>0xD50f074Ec5c7997cE1DaacB513Ec194C480878Af</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D86" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86" t="b">
+        <v>0</v>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Gnosis Safe Proxy</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>25535238</v>
+      </c>
+      <c r="L86" t="n">
+        <v>14482699</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2024999</v>
+      </c>
+      <c r="N86" t="n">
+        <v>1107498</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x7f604D597c15b2e2F60DC645844f68b1D781b752</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>0x7f604D597c15b2e2F60DC645844f68b1D781b752</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D87" t="b">
+        <v>0</v>
+      </c>
+      <c r="E87" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Bitstamp</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>https://bitstamp.net</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>13662421.85406138</v>
+      </c>
+      <c r="L87" t="n">
+        <v>15023501.87969458</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1026955.225847075</v>
+      </c>
+      <c r="N87" t="n">
+        <v>1141708.5619001</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x4b929b5d1b5D55F4e5597F0E9B2a35141038D313</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>0x4b929b5d1b5D55F4e5597F0E9B2a35141038D313</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D88" t="b">
+        <v>0</v>
+      </c>
+      <c r="E88" t="b">
+        <v>0</v>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Coinbase Prime Deposit</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>36708573.28499985</v>
+      </c>
+      <c r="L88" t="n">
+        <v>36728056.5</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2741255.89505</v>
+      </c>
+      <c r="N88" t="n">
+        <v>2741255.89505</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x1BF7A9E3A364e7F5761345837f222cd93e230C4f</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>0x1BF7A9E3A364e7F5761345837f222cd93e230C4f</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D89" t="b">
+        <v>0</v>
+      </c>
+      <c r="E89" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Binance Deposit</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>19647555.53515625</v>
+      </c>
+      <c r="L89" t="n">
+        <v>19671904.23632812</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1459850.56</v>
+      </c>
+      <c r="N89" t="n">
+        <v>1459850.56</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x0D0707963952f2fBA59dD06f2b425ace40b492Fe</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>0x0D0707963952f2fBA59dD06f2b425ace40b492Fe</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D90" t="b">
+        <v>0</v>
+      </c>
+      <c r="E90" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Gate</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>https://gate.com</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>17816357.46011353</v>
+      </c>
+      <c r="L90" t="n">
+        <v>17967854.90087833</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1338924.987489549</v>
+      </c>
+      <c r="N90" t="n">
+        <v>1360012.368521092</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x9B1c1752B6B6eAF62a8c491A8681B32C1F7ecDE9</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>0x9B1c1752B6B6eAF62a8c491A8681B32C1F7ecDE9</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D91" t="b">
+        <v>0</v>
+      </c>
+      <c r="E91" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Binance Deposit</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>116314976</v>
+      </c>
+      <c r="L91" t="n">
+        <v>116379500</v>
+      </c>
+      <c r="M91" t="n">
+        <v>9224998</v>
+      </c>
+      <c r="N91" t="n">
+        <v>9225000</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x8725386e1F03C2b89BE73b5B2CBa7b0056317230</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>0x8725386e1F03C2b89BE73b5B2CBa7b0056317230</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D92" t="b">
+        <v>0</v>
+      </c>
+      <c r="E92" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>20085971.33316925</v>
+      </c>
+      <c r="L92" t="n">
+        <v>17594430.02220154</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1543010.821196402</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1357047.115057076</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x3A90bE9fc3f295975954A71736954df870a9f79b</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>0x3A90bE9fc3f295975954A71736954df870a9f79b</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D93" t="b">
+        <v>0</v>
+      </c>
+      <c r="E93" t="b">
+        <v>0</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Grayscale</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>https://grayscale.com/</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Chainlink Trust</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>20634384.375</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1473694.38068774</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x000000000004444c5dc75cB358380D2e3dE08A90</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>0x000000000004444c5dc75cB358380D2e3dE08A90</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D94" t="b">
+        <v>1</v>
+      </c>
+      <c r="E94" t="b">
+        <v>0</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Uniswap</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>dex</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>https://uniswap.org</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>PoolManager</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>35972089.1197741</v>
+      </c>
+      <c r="L94" t="n">
+        <v>33770233.39130184</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2698404.229135861</v>
+      </c>
+      <c r="N94" t="n">
+        <v>2527048.02925882</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x5d4F3C6fA16908609BAC31Ff148Bd002AA6b8c83</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>0x5d4F3C6fA16908609BAC31Ff148Bd002AA6b8c83</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D95" t="b">
+        <v>1</v>
+      </c>
+      <c r="E95" t="b">
+        <v>0</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Uniswap</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>dex</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>https://uniswap.org</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>LINK 2</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>27225054.88713985</v>
+      </c>
+      <c r="L95" t="n">
+        <v>27040794.38932518</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2060358.445751645</v>
+      </c>
+      <c r="N95" t="n">
+        <v>2046890.99106861</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x63242A4Ea82847b20E506b63B0e2e2eFF0CC6cB0</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>0x63242A4Ea82847b20E506b63B0e2e2eFF0CC6cB0</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D96" t="b">
+        <v>1</v>
+      </c>
+      <c r="E96" t="b">
+        <v>0</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Kyber Network</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>dex</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>https://kyber.network</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Aggregator Executor V3</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>16840170.86757319</v>
+      </c>
+      <c r="L96" t="n">
+        <v>16302368.0579581</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1290867.101777649</v>
+      </c>
+      <c r="N96" t="n">
+        <v>1250615.828892467</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x191c10Aa4AF7C30e871E70C95dB0E4eb77237530</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>0x191c10Aa4AF7C30e871E70C95dB0E4eb77237530</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D97" t="b">
+        <v>0</v>
+      </c>
+      <c r="E97" t="b">
+        <v>0</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Aave</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>lending-decentralized</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>https://aave.com</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>13059114.50879464</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>988873.5279162487</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xB1dB79aea0a13382DD9E279d96Bc9a468A2F4E87</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>0xB1dB79aea0a13382DD9E279d96Bc9a468A2F4E87</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D98" t="b">
+        <v>0</v>
+      </c>
+      <c r="E98" t="b">
+        <v>0</v>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>201672182.508121</v>
+      </c>
+      <c r="L98" t="n">
+        <v>201662943.9866701</v>
+      </c>
+      <c r="M98" t="n">
+        <v>15324006.36386215</v>
+      </c>
+      <c r="N98" t="n">
+        <v>15323293.28865137</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xf8191D98ae98d2f7aBDFB63A9b0b812b93C873AA</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>0xf8191D98ae98d2f7aBDFB63A9b0b812b93C873AA</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D99" t="b">
+        <v>0</v>
+      </c>
+      <c r="E99" t="b">
+        <v>0</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Wintermute</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>64332245.15016797</v>
+      </c>
+      <c r="L99" t="n">
+        <v>64550235.74118805</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4738192.878682889</v>
+      </c>
+      <c r="N99" t="n">
+        <v>4760582.92479658</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xBEE3211ab312a8D065c4FeF0247448e17A8da000</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>0xBEE3211ab312a8D065c4FeF0247448e17A8da000</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D100" t="b">
+        <v>1</v>
+      </c>
+      <c r="E100" t="b">
+        <v>0</v>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Market Maker</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>18517009.53002102</v>
+      </c>
+      <c r="L100" t="n">
+        <v>18520397.04263872</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1409854.014150182</v>
+      </c>
+      <c r="N100" t="n">
+        <v>1409879.88852365</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xC333E80eF2deC2805F239E3f1e810612D294F771</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>0xC333E80eF2deC2805F239E3f1e810612D294F771</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D101" t="b">
+        <v>0</v>
+      </c>
+      <c r="E101" t="b">
+        <v>0</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>B2C2 Group</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>https://www.b2c2.com</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>16560194.77429389</v>
+      </c>
+      <c r="L101" t="n">
+        <v>17176393.54055786</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1269651.776611533</v>
+      </c>
+      <c r="N101" t="n">
+        <v>1298467.36541865</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x556052af8B4f001b659066E061836B174E39c539</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>0x556052af8B4f001b659066E061836B174E39c539</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D102" t="b">
+        <v>0</v>
+      </c>
+      <c r="E102" t="b">
+        <v>0</v>
+      </c>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>16087505.5400586</v>
+      </c>
+      <c r="L102" t="n">
+        <v>16718540.21090603</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1186809.795025333</v>
+      </c>
+      <c r="N102" t="n">
+        <v>1238779.383674878</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x9c17f630DBde24eECe8fd248fAA2E51f690FF79B</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>0x9c17f630DBde24eECe8fd248fAA2E51f690FF79B</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D103" t="b">
+        <v>1</v>
+      </c>
+      <c r="E103" t="b">
+        <v>0</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Chainlink</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>oracle</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>https://chain.link</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Non-Circulating Supply</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>91370238.60000038</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>7249999</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xa6Cc3C2531FdaA6Ae1A3CA84c2855806728693e8</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>0xa6Cc3C2531FdaA6Ae1A3CA84c2855806728693e8</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D104" t="b">
+        <v>1</v>
+      </c>
+      <c r="E104" t="b">
+        <v>0</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Uniswap</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>dex</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>https://uniswap.org</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>LINK</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>136056752.981741</v>
+      </c>
+      <c r="L104" t="n">
+        <v>130662680.0666046</v>
+      </c>
+      <c r="M104" t="n">
+        <v>10234893.43163184</v>
+      </c>
+      <c r="N104" t="n">
+        <v>9844955.453993659</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xEae7380dD4CeF6fbD1144F49E4D1e6964258A4F4</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>0xEae7380dD4CeF6fbD1144F49E4D1e6964258A4F4</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D105" t="b">
+        <v>0</v>
+      </c>
+      <c r="E105" t="b">
+        <v>0</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Wintermute</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Binance Deposit</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>48817224.6640625</v>
+      </c>
+      <c r="L105" t="n">
+        <v>48844256.52734375</v>
+      </c>
+      <c r="M105" t="n">
+        <v>3624302.96599815</v>
+      </c>
+      <c r="N105" t="n">
+        <v>3624302.96599815</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xFA103c21ea2DF71DFb92B0652F8B1D795e51cdEf</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>0xFA103c21ea2DF71DFb92B0652F8B1D795e51cdEf</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D106" t="b">
+        <v>1</v>
+      </c>
+      <c r="E106" t="b">
+        <v>0</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Symbolic Capital Partners</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>https://symbolic.partners</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>CEX Bridge</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>29965628.95898438</v>
+      </c>
+      <c r="L106" t="n">
+        <v>29973471.07519531</v>
+      </c>
+      <c r="M106" t="n">
+        <v>2231791.44425419</v>
+      </c>
+      <c r="N106" t="n">
+        <v>2233043.61125419</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x525869AD2488101b5cf47e0D898a59f029b32b03</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>0x525869AD2488101b5cf47e0D898a59f029b32b03</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D107" t="b">
+        <v>0</v>
+      </c>
+      <c r="E107" t="b">
+        <v>0</v>
+      </c>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>23835008</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1618126.874701472</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x841ed663F2636863D40be4EE76243377dff13a34</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>0x841ed663F2636863D40be4EE76243377dff13a34</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D108" t="b">
+        <v>0</v>
+      </c>
+      <c r="E108" t="b">
+        <v>0</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Robinhood</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>https://robinhood.com/</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>21268475.47851562</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>1632837.07004406</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x44C3a96181AF9e295cE8E188FA8FcDd72D1eb668</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>0x44C3a96181AF9e295cE8E188FA8FcDd72D1eb668</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D109" t="b">
+        <v>0</v>
+      </c>
+      <c r="E109" t="b">
+        <v>0</v>
+      </c>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>22412982.04742046</v>
+      </c>
+      <c r="L109" t="n">
+        <v>25281759.06082153</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1722516.895469818</v>
+      </c>
+      <c r="N109" t="n">
+        <v>1953061.418806222</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x1FA00bE39C9b815B039Fa5F3394405eEb9502C9c</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>0x1FA00bE39C9b815B039Fa5F3394405eEb9502C9c</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D110" t="b">
+        <v>0</v>
+      </c>
+      <c r="E110" t="b">
+        <v>0</v>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Coinbase Deposit</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>18456383.4375</v>
+      </c>
+      <c r="L110" t="n">
+        <v>18854308.11914062</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1402092.42399</v>
+      </c>
+      <c r="N110" t="n">
+        <v>1432323.66949</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x7C876bdaA5c038E19F633714f622F6Def949B102</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>0x7C876bdaA5c038E19F633714f622F6Def949B102</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D111" t="b">
+        <v>0</v>
+      </c>
+      <c r="E111" t="b">
+        <v>0</v>
+      </c>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>18109386.87500241</v>
+      </c>
+      <c r="L111" t="n">
+        <v>17641660.625</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1330121.844603767</v>
+      </c>
+      <c r="N111" t="n">
+        <v>1297788.916184871</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x0639556F03714A74a5fEEaF5736a4A64fF70D206</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>0x0639556F03714A74a5fEEaF5736a4A64fF70D206</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D112" t="b">
+        <v>0</v>
+      </c>
+      <c r="E112" t="b">
+        <v>0</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Bitget</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>https://www.bitget.com/</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>14529079.60708523</v>
+      </c>
+      <c r="L112" t="n">
+        <v>15923205.12320518</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1091807.326698788</v>
+      </c>
+      <c r="N112" t="n">
+        <v>1193168.95139413</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x468b88941e7Cc0B88c1869d68ab6b570bCEF62Ff</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>0x468b88941e7Cc0B88c1869d68ab6b570bCEF62Ff</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D113" t="b">
+        <v>0</v>
+      </c>
+      <c r="E113" t="b">
+        <v>0</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Uniswap</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>dex</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>https://uniswap.org</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>18441172.8827455</v>
+      </c>
+      <c r="L113" t="n">
+        <v>17244939.85938417</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1386318.920468337</v>
+      </c>
+      <c r="N113" t="n">
+        <v>1299831.271728339</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
           <t>https://intel.arkm.com/explorer/address/0x4A4aaA0155237881FBD5C34BfaE16e985A7B068D</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>0x4A4aaA0155237881FBD5C34BfaE16e985A7B068D</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>ethereum</t>
         </is>
       </c>
-      <c r="D58" t="b">
-        <v>0</v>
-      </c>
-      <c r="E58" t="b">
-        <v>0</v>
-      </c>
-      <c r="F58" t="inlineStr">
+      <c r="D114" t="b">
+        <v>0</v>
+      </c>
+      <c r="E114" t="b">
+        <v>0</v>
+      </c>
+      <c r="F114" t="inlineStr">
         <is>
           <t>OKX</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>cex</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>https://okx.com</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>Hot Wallet</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="J114" t="inlineStr">
         <is>
           <t>evm</t>
         </is>
       </c>
-      <c r="K58" t="n">
+      <c r="K114" t="n">
         <v>16139586.89599609</v>
       </c>
-      <c r="L58" t="n">
+      <c r="L114" t="n">
         <v>16455580.15708828</v>
       </c>
-      <c r="M58" t="n">
+      <c r="M114" t="n">
         <v>1221035.67564164</v>
       </c>
-      <c r="N58" t="n">
+      <c r="N114" t="n">
         <v>1235830.34580679</v>
       </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>2025-12-22 02:53:50</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x885bF7301bf004263D0D20331C83ec0CEF305ea7</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>0x885bF7301bf004263D0D20331C83ec0CEF305ea7</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D115" t="b">
+        <v>0</v>
+      </c>
+      <c r="E115" t="b">
+        <v>0</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Grayscale</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>https://grayscale.com/</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Chainlink Trust</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>13845202.625</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1000654.82353304</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xBC64BDE4C3b70147C47c16dD9277a6Aaef7e0f02</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>0xBC64BDE4C3b70147C47c16dD9277a6Aaef7e0f02</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D116" t="b">
+        <v>0</v>
+      </c>
+      <c r="E116" t="b">
+        <v>0</v>
+      </c>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>23835008</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>1618126.874701472</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xDdfF0cdb9A67fda3363488140ea3E2159A43c2D4</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>0xDdfF0cdb9A67fda3363488140ea3E2159A43c2D4</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D117" t="b">
+        <v>0</v>
+      </c>
+      <c r="E117" t="b">
+        <v>0</v>
+      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Coinbase Prime Custody</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>19560394</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>1432995.917548134</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x28C6c06298d514Db089934071355E5743bf21d60</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>0x28C6c06298d514Db089934071355E5743bf21d60</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D118" t="b">
+        <v>0</v>
+      </c>
+      <c r="E118" t="b">
+        <v>0</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Binance</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>305362379.6583252</v>
+      </c>
+      <c r="L118" t="n">
+        <v>300295071.1298849</v>
+      </c>
+      <c r="M118" t="n">
+        <v>23414419.50845625</v>
+      </c>
+      <c r="N118" t="n">
+        <v>23006829.00043544</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xA9D1e08C7793af67e9d92fe308d5697FB81d3E43</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>0xA9D1e08C7793af67e9d92fe308d5697FB81d3E43</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D119" t="b">
+        <v>1</v>
+      </c>
+      <c r="E119" t="b">
+        <v>0</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>205118029.5494385</v>
+      </c>
+      <c r="L119" t="n">
+        <v>205206830.6747649</v>
+      </c>
+      <c r="M119" t="n">
+        <v>15303325.43246542</v>
+      </c>
+      <c r="N119" t="n">
+        <v>15319143.07527784</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0xfBd4cdB413E45a52E2C8312f670e9cE67E794C37</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>0xfBd4cdB413E45a52E2C8312f670e9cE67E794C37</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D120" t="b">
+        <v>1</v>
+      </c>
+      <c r="E120" t="b">
+        <v>0</v>
+      </c>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>39752041.60428786</v>
+      </c>
+      <c r="L120" t="n">
+        <v>39928267.72030306</v>
+      </c>
+      <c r="M120" t="n">
+        <v>2981411.803523775</v>
+      </c>
+      <c r="N120" t="n">
+        <v>2984822.275487124</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://intel.arkm.com/explorer/address/0x5E8C8A7243651DB1384C0dDfDbE39761E8e7E51a</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>0x5E8C8A7243651DB1384C0dDfDbE39761E8e7E51a</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="D121" t="b">
+        <v>1</v>
+      </c>
+      <c r="E121" t="b">
+        <v>0</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Aave</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>lending-decentralized</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>https://aave.com</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Aave Ethereum LINK (aEthLINK)</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>38300837.12007561</v>
+      </c>
+      <c r="L121" t="n">
+        <v>35226613.33316984</v>
+      </c>
+      <c r="M121" t="n">
+        <v>2886502.432623768</v>
+      </c>
+      <c r="N121" t="n">
+        <v>2665661.048119678</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>2025-12-22 02:56:55</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
         <is>
           <t>chainlink</t>
         </is>

--- a/data_cripto/top_flow.xlsx
+++ b/data_cripto/top_flow.xlsx
@@ -518,12 +518,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/12XZMdaAGmcHf4ocFSqpd8jFd1WH7RHUPs</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qssl3tj9ldf4h4km6najk8648epy6wrsz9k8j50njjs9l96gp4d4susha2t</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12XZMdaAGmcHf4ocFSqpd8jFd1WH7RHUPs</t>
+          <t>bc1qssl3tj9ldf4h4km6najk8648epy6wrsz9k8j50njjs9l96gp4d4susha2t</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -535,46 +535,26 @@
       <c r="E2" t="b">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Bybit</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>https://bybit.com</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>1638020851.609058</v>
+        <v>555461056</v>
       </c>
       <c r="L2" t="n">
-        <v>1710806000.499733</v>
+        <v>555650240</v>
       </c>
       <c r="M2" t="n">
-        <v>18384.81046748</v>
+        <v>6103.49799148</v>
       </c>
       <c r="N2" t="n">
-        <v>19207.34915433</v>
+        <v>6103.49799148</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -586,12 +566,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qn2cpj0hrl37wqh5q94kwrlhtj2lx8ahtw7ef5rg35tswxsqtvufqfmmrq2</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q8s3h3vw5xufdas890q29lpuca56r0ezqar0mvs</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>bc1qn2cpj0hrl37wqh5q94kwrlhtj2lx8ahtw7ef5rg35tswxsqtvufqfmmrq2</t>
+          <t>bc1q8s3h3vw5xufdas890q29lpuca56r0ezqar0mvs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -605,44 +585,36 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>OKX</t>
+          <t>Cumberland DRW</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://okx.com</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://cumberland.io</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>1417169543.293873</v>
+        <v>653132819.2519331</v>
       </c>
       <c r="L3" t="n">
-        <v>1396438611.731697</v>
+        <v>818085603.7536094</v>
       </c>
       <c r="M3" t="n">
-        <v>15771.27033125</v>
+        <v>7306.71483743</v>
       </c>
       <c r="N3" t="n">
-        <v>15537.37228276</v>
+        <v>9197.101943080001</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -654,12 +626,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qr3vnyhhj7kd7ngs05xxm2yf0ma5gt6xvxmc0a6v2cj9mjzn6mvrqeek94m</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q42kvqt0e3f27qhd2ucnprarl5ywpuj7tu0h9v2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>bc1qr3vnyhhj7kd7ngs05xxm2yf0ma5gt6xvxmc0a6v2cj9mjzn6mvrqeek94m</t>
+          <t>bc1q42kvqt0e3f27qhd2ucnprarl5ywpuj7tu0h9v2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -671,26 +643,46 @@
       <c r="E4" t="b">
         <v>0</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>FalconX</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://falconx.io/</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K4" t="n">
-        <v>555650176</v>
+        <v>1294960459.706428</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1240726836.572441</v>
       </c>
       <c r="M4" t="n">
-        <v>6103.49698782</v>
+        <v>14645.2218493</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>14064.10096563</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -702,12 +694,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qpzt4m58zzqgp84ktyuj5tz8g8k8ssg2g2d5eeerwhx4gxulqq5mqjzm5gc</t>
+          <t>https://intel.arkm.com/explorer/address/bc1quq29mutxkgxmjfdr7ayj3zd9ad0ld5mrhh89l2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>bc1qpzt4m58zzqgp84ktyuj5tz8g8k8ssg2g2d5eeerwhx4gxulqq5mqjzm5gc</t>
+          <t>bc1quq29mutxkgxmjfdr7ayj3zd9ad0ld5mrhh89l2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -721,36 +713,44 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Twenty One Capital</t>
+          <t>Gemini</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://xxi.money/</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+          <t>https://gemini.com</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>906949019.6353645</v>
       </c>
       <c r="L5" t="n">
-        <v>959867968</v>
+        <v>969928708.5126004</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>10424.36098838</v>
       </c>
       <c r="N5" t="n">
-        <v>10499.99999582</v>
+        <v>11133.95600368</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -810,12 +810,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3BPAodH6WkNQC8TUrnwFKhETiFacNUi68X</t>
+          <t>https://intel.arkm.com/explorer/address/38UmuUqPCrFmQo4khkomQwZ4VbY2nZMJ67</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3BPAodH6WkNQC8TUrnwFKhETiFacNUi68X</t>
+          <t>38UmuUqPCrFmQo4khkomQwZ4VbY2nZMJ67</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -829,22 +829,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Cobo.com</t>
+          <t>Gemini</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>custodian</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.cobo.com</t>
+          <t>https://gemini.com</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Cobo Custody</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -853,20 +853,20 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>795914068.5459976</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>760194701.9250031</v>
+        <v>783071248</v>
       </c>
       <c r="M7" t="n">
-        <v>9025.414599989999</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>8652.49889999</v>
+        <v>9040.021983999999</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -878,12 +878,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q8s3h3vw5xufdas890q29lpuca56r0ezqar0mvs</t>
+          <t>https://intel.arkm.com/explorer/address/1Pzaqw98PeRfyHypfqyEgg5yycJRsENrE7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>bc1q8s3h3vw5xufdas890q29lpuca56r0ezqar0mvs</t>
+          <t>1Pzaqw98PeRfyHypfqyEgg5yycJRsENrE7</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -897,36 +897,44 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Cumberland DRW</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://cumberland.io</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K8" t="n">
-        <v>653132819.2519331</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>818085603.7536094</v>
+        <v>832150016</v>
       </c>
       <c r="M8" t="n">
-        <v>7306.71483743</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>9197.101943080001</v>
+        <v>9000.0000896</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -938,12 +946,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/18SN8PV997oDGtYmTPPD55GDaPtNNEGWeu</t>
+          <t>https://intel.arkm.com/explorer/address/36YZXcTVLPdyapYuqXdJEt46oMVB2NrzVv</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>18SN8PV997oDGtYmTPPD55GDaPtNNEGWeu</t>
+          <t>36YZXcTVLPdyapYuqXdJEt46oMVB2NrzVv</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -955,24 +963,12 @@
       <c r="E9" t="b">
         <v>0</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>BTC Markets</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>https://www.btcmarkets.net/</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Coinbase Prime Deposit</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -981,20 +977,20 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1887504111.5</v>
       </c>
       <c r="L9" t="n">
-        <v>535710304</v>
+        <v>1959533004</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>21389.41555251</v>
       </c>
       <c r="N9" t="n">
-        <v>6103.50015</v>
+        <v>22193.34794288</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1006,12 +1002,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q9exg34dkmgxu28yektgn929jpjpzukhhl2r3zr</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
+          <t>bc1q9exg34dkmgxu28yektgn929jpjpzukhhl2r3zr</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1025,17 +1021,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Wintermute</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
+          <t>https://www.wintermute.com/</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1049,20 +1045,20 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>17849899575.4317</v>
+        <v>1963533069.448892</v>
       </c>
       <c r="L10" t="n">
-        <v>18091381211.54326</v>
+        <v>1959346926.343677</v>
       </c>
       <c r="M10" t="n">
-        <v>200144.28319732</v>
+        <v>21826.00540618</v>
       </c>
       <c r="N10" t="n">
-        <v>202597.15350731</v>
+        <v>21774.40651599</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1074,12 +1070,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1GrwDkr33gT6LuumniYjKEGjTLhsL5kmqC</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q7cyrfmck2ffu2ud3rn5l5a8yv6f0chkp0zpemf</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1GrwDkr33gT6LuumniYjKEGjTLhsL5kmqC</t>
+          <t>bc1q7cyrfmck2ffu2ud3rn5l5a8yv6f0chkp0zpemf</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1093,7 +1089,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Bybit</t>
+          <t>Crypto.com</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1103,7 +1099,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://bybit.com</t>
+          <t>https://crypto.com</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1117,20 +1113,20 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>1987656286.347061</v>
+        <v>1408431485.534853</v>
       </c>
       <c r="L11" t="n">
-        <v>1949835179.55708</v>
+        <v>1506750697.927803</v>
       </c>
       <c r="M11" t="n">
-        <v>22277.91903408</v>
+        <v>15895.03023084</v>
       </c>
       <c r="N11" t="n">
-        <v>21857.95996709</v>
+        <v>16994.31583055</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1142,12 +1138,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1DLeNApsHNNzUMNZJVoXeyEY5sdp8vzx3w</t>
+          <t>https://intel.arkm.com/explorer/address/324H9uyTV9bPgAVgmdJNxPKKKZmowk5CYq</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1DLeNApsHNNzUMNZJVoXeyEY5sdp8vzx3w</t>
+          <t>324H9uyTV9bPgAVgmdJNxPKKKZmowk5CYq</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1161,7 +1157,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bybit</t>
+          <t>Bullish.com</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1171,7 +1167,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://bybit.com</t>
+          <t>https://bullish.com/</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1185,20 +1181,20 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>1894251792.863202</v>
+        <v>584107555.25</v>
       </c>
       <c r="L12" t="n">
-        <v>1959785115.6929</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>21227.93198959</v>
+        <v>6545.66901257</v>
       </c>
       <c r="N12" t="n">
-        <v>21973.24557677</v>
+        <v>0</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1210,12 +1206,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3M219KR5vEneNb47ewrPfWyb5jQ2DjxRP6</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q77fg8d7xjye7vq2m9ws7qvwuw9k0src4k9yrdn82e4l63swfh3yse4te95</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3M219KR5vEneNb47ewrPfWyb5jQ2DjxRP6</t>
+          <t>bc1q77fg8d7xjye7vq2m9ws7qvwuw9k0src4k9yrdn82e4l63swfh3yse4te95</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1229,7 +1225,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>BTC Markets</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1239,7 +1235,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
+          <t>https://www.btcmarkets.net/</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1253,20 +1249,20 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>878456192</v>
+        <v>535710304</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>555461248</v>
       </c>
       <c r="M13" t="n">
-        <v>9978.261</v>
+        <v>6103.5</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>6103.5</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1278,12 +1274,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3HNFTegz1nSDjoq8iepW5wMxDZCcVq1VuC</t>
+          <t>https://intel.arkm.com/explorer/address/172jzPTGhtRR2SafHQDz3f7CTFrM4bjrxb</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3HNFTegz1nSDjoq8iepW5wMxDZCcVq1VuC</t>
+          <t>172jzPTGhtRR2SafHQDz3f7CTFrM4bjrxb</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1295,38 +1291,26 @@
       <c r="E14" t="b">
         <v>0</v>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Twenty One Capital</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>https://xxi.money/</t>
-        </is>
-      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>3911275520</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>3917300224</v>
+        <v>680275008</v>
       </c>
       <c r="M14" t="n">
-        <v>43033.54017238</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>43033.54017238</v>
+        <v>7659.20237716</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1338,12 +1322,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qactqjuk4kghfgaqqt454hzzzs5lsaysunf80gh</t>
+          <t>https://intel.arkm.com/explorer/address/15DomY3arDPw5jD658Mbf3AY3wT3YCDmW2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>bc1qactqjuk4kghfgaqqt454hzzzs5lsaysunf80gh</t>
+          <t>15DomY3arDPw5jD658Mbf3AY3wT3YCDmW2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1355,26 +1339,46 @@
       <c r="E15" t="b">
         <v>0</v>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Wintermute</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K15" t="n">
-        <v>3348118748.80927</v>
+        <v>3653589179.282357</v>
       </c>
       <c r="L15" t="n">
-        <v>3348202165.108459</v>
+        <v>3651485500.1875</v>
       </c>
       <c r="M15" t="n">
-        <v>37483.58880354</v>
+        <v>40424.83339443</v>
       </c>
       <c r="N15" t="n">
-        <v>37483.58880054</v>
+        <v>40424.83339443</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1386,12 +1390,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1Pzaqw98PeRfyHypfqyEgg5yycJRsENrE7</t>
+          <t>https://intel.arkm.com/explorer/address/1AZ7aYCT6JPLF1EZ7PgymfFtH4xK44CcCP</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1Pzaqw98PeRfyHypfqyEgg5yycJRsENrE7</t>
+          <t>1AZ7aYCT6JPLF1EZ7PgymfFtH4xK44CcCP</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1403,24 +1407,12 @@
       <c r="E16" t="b">
         <v>0</v>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Binance</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>https://binance.com</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Binance Deposit</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1429,20 +1421,20 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>776366003.1653225</v>
       </c>
       <c r="L16" t="n">
-        <v>832150016</v>
+        <v>803076709.2502198</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>8779.96381976</v>
       </c>
       <c r="N16" t="n">
-        <v>9000.0000896</v>
+        <v>9058.31459953</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1454,12 +1446,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1KbDEg1tDz2ErYgaDbaDhhawnLrSQFaFx5</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q8wyf76hse8w4dr0qmmapmnuywlpf2upv5are5y9993gdsnvdt97qsem5pp</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1KbDEg1tDz2ErYgaDbaDhhawnLrSQFaFx5</t>
+          <t>bc1q8wyf76hse8w4dr0qmmapmnuywlpf2upv5are5y9993gdsnvdt97qsem5pp</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1471,46 +1463,26 @@
       <c r="E17" t="b">
         <v>0</v>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Wintermute</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>https://www.wintermute.com/</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Binance Deposit</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>3924536633.450035</v>
+        <v>758845248</v>
       </c>
       <c r="L17" t="n">
-        <v>3927357644.397234</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>43983.8959008</v>
+        <v>8613.649007</v>
       </c>
       <c r="N17" t="n">
-        <v>44025.19589264</v>
+        <v>0</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1522,12 +1494,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3MEa4sPyGLCf2xQR5k68gUsxYSosJ6UhJh</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q32x2xd0k5vreyha87hl0ag45nhxv8w0csrztfsactjewez092edqsy6ek8</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3MEa4sPyGLCf2xQR5k68gUsxYSosJ6UhJh</t>
+          <t>bc1q32x2xd0k5vreyha87hl0ag45nhxv8w0csrztfsactjewez092edqsy6ek8</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1539,38 +1511,26 @@
       <c r="E18" t="b">
         <v>0</v>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Twenty One Capital</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>https://xxi.money/</t>
-        </is>
-      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>3933954304</v>
+        <v>555461120</v>
       </c>
       <c r="L18" t="n">
-        <v>3911275520</v>
+        <v>555461120</v>
       </c>
       <c r="M18" t="n">
-        <v>43033.5411757</v>
+        <v>6103.49899514</v>
       </c>
       <c r="N18" t="n">
-        <v>43033.5411757</v>
+        <v>6103.49899514</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1582,12 +1542,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3JBM969wvpxEnfYLQ3LYayB3DVk52ZZpGq</t>
+          <t>https://intel.arkm.com/explorer/address/1DLeNApsHNNzUMNZJVoXeyEY5sdp8vzx3w</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3JBM969wvpxEnfYLQ3LYayB3DVk52ZZpGq</t>
+          <t>1DLeNApsHNNzUMNZJVoXeyEY5sdp8vzx3w</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1599,26 +1559,46 @@
       <c r="E19" t="b">
         <v>0</v>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Bybit</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://bybit.com</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1895358716.191327</v>
       </c>
       <c r="L19" t="n">
-        <v>888877632</v>
+        <v>1959786100.046049</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>21240.45119776</v>
       </c>
       <c r="N19" t="n">
-        <v>10144.92</v>
+        <v>21973.25670972</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1630,12 +1610,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q32x2xd0k5vreyha87hl0ag45nhxv8w0csrztfsactjewez092edqsy6ek8</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qx9n80t5q7tfmutzaj0ramzzzsvtveara68zntc</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>bc1q32x2xd0k5vreyha87hl0ag45nhxv8w0csrztfsactjewez092edqsy6ek8</t>
+          <t>bc1qx9n80t5q7tfmutzaj0ramzzzsvtveara68zntc</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1647,26 +1627,46 @@
       <c r="E20" t="b">
         <v>0</v>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Kraken</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://kraken.com</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K20" t="n">
-        <v>555461120</v>
+        <v>3893457239.137906</v>
       </c>
       <c r="L20" t="n">
-        <v>555461120</v>
+        <v>4733369830.743248</v>
       </c>
       <c r="M20" t="n">
-        <v>6103.49899514</v>
+        <v>43548.98099212</v>
       </c>
       <c r="N20" t="n">
-        <v>6103.49899514</v>
+        <v>52737.12942108</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1678,12 +1678,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/15DomY3arDPw5jD658Mbf3AY3wT3YCDmW2</t>
+          <t>https://intel.arkm.com/explorer/address/335umQ4egqMjDo6wSXYwQZYPntZzMveNTJ</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>15DomY3arDPw5jD658Mbf3AY3wT3YCDmW2</t>
+          <t>335umQ4egqMjDo6wSXYwQZYPntZzMveNTJ</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1697,44 +1697,36 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Wintermute</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.wintermute.com/</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>3653589179.282357</v>
+        <v>1767837040.9375</v>
       </c>
       <c r="L21" t="n">
-        <v>3651485500.1875</v>
+        <v>1707554703.6875</v>
       </c>
       <c r="M21" t="n">
-        <v>40424.83339443</v>
+        <v>20025.39375</v>
       </c>
       <c r="N21" t="n">
-        <v>40424.83339443</v>
+        <v>19331.104365</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -1802,7 +1794,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -1814,12 +1806,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1p2mlwrss9tmvtfvu0tcxul2h0w67ej8vyjpj3ksctt67vd9r752ksqx6uqm</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qukw69mjxwp30adfqddv6gcyva26laxz562rhlk</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>bc1p2mlwrss9tmvtfvu0tcxul2h0w67ej8vyjpj3ksctt67vd9r752ksqx6uqm</t>
+          <t>bc1qukw69mjxwp30adfqddv6gcyva26laxz562rhlk</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1831,26 +1823,46 @@
       <c r="E23" t="b">
         <v>0</v>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Kraken</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>https://kraken.com</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K23" t="n">
-        <v>672067981.8924599</v>
+        <v>914080000</v>
       </c>
       <c r="L23" t="n">
-        <v>845490277.0505028</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>7552.912437360001</v>
+        <v>10000</v>
       </c>
       <c r="N23" t="n">
-        <v>9534.50724705</v>
+        <v>0</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -1862,12 +1874,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1pueepze0zflc9vhtmt2tjhnp8d73f2lmle27wxvk6z6crh73ju9nsjw0qkx</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q4uccuzje5y77tajhgguzj3dut0rjkkq6thym8u2xvqhqn4zykrlsfsyhvl</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>bc1pueepze0zflc9vhtmt2tjhnp8d73f2lmle27wxvk6z6crh73ju9nsjw0qkx</t>
+          <t>bc1q4uccuzje5y77tajhgguzj3dut0rjkkq6thym8u2xvqhqn4zykrlsfsyhvl</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1879,26 +1891,38 @@
       <c r="E24" t="b">
         <v>0</v>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Twenty One Capital</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>https://xxi.money/</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>594554368</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>601296192</v>
+        <v>639912000</v>
       </c>
       <c r="M24" t="n">
-        <v>6600</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>6505.00001542</v>
+        <v>7000.00000777</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -1910,12 +1934,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q9exg34dkmgxu28yektgn929jpjpzukhhl2r3zr</t>
+          <t>https://intel.arkm.com/explorer/address/1KbDEg1tDz2ErYgaDbaDhhawnLrSQFaFx5</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>bc1q9exg34dkmgxu28yektgn929jpjpzukhhl2r3zr</t>
+          <t>1KbDEg1tDz2ErYgaDbaDhhawnLrSQFaFx5</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1944,7 +1968,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Binance Deposit</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1953,20 +1977,20 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>1963533069.448892</v>
+        <v>3924536633.450035</v>
       </c>
       <c r="L25" t="n">
-        <v>1959346926.343677</v>
+        <v>3927357644.397234</v>
       </c>
       <c r="M25" t="n">
-        <v>21826.00540618</v>
+        <v>43983.8959008</v>
       </c>
       <c r="N25" t="n">
-        <v>21774.40651599</v>
+        <v>44025.19589264</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -1978,12 +2002,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/38rFtDdFpXc4y6XPbSnNd2UvveEt5Xms2E</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q39u0yxprsz6ucq93pgtxksk7ncr4900ypvkwcw</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>38rFtDdFpXc4y6XPbSnNd2UvveEt5Xms2E</t>
+          <t>bc1q39u0yxprsz6ucq93pgtxksk7ncr4900ypvkwcw</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1997,36 +2021,36 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Twenty One Capital</t>
+          <t>BIT.com (Matrixport)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://xxi.money/</t>
+          <t>https://www.bit.com/</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>1467052160</v>
+        <v>646100014.4765625</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>696438762.8885479</v>
       </c>
       <c r="M26" t="n">
-        <v>16116.31574065</v>
+        <v>7094.93213276</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>7642.15228998</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2038,12 +2062,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q42kvqt0e3f27qhd2ucnprarl5ywpuj7tu0h9v2</t>
+          <t>https://intel.arkm.com/explorer/address/3BHXygmhNMaCcNn76S8DLdnZ5ucPtNtWGb</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>bc1q42kvqt0e3f27qhd2ucnprarl5ywpuj7tu0h9v2</t>
+          <t>3BHXygmhNMaCcNn76S8DLdnZ5ucPtNtWGb</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2057,17 +2081,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>FalconX</t>
+          <t>Cobo.com</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>custodian</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://falconx.io/</t>
+          <t>https://www.cobo.com</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2081,20 +2105,20 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>1293191723.581428</v>
+        <v>623006648</v>
       </c>
       <c r="L27" t="n">
-        <v>1240726836.572441</v>
+        <v>825507470.1922379</v>
       </c>
       <c r="M27" t="n">
-        <v>14625.21759578</v>
+        <v>6975.49974085</v>
       </c>
       <c r="N27" t="n">
-        <v>14064.10096563</v>
+        <v>9367.857551769999</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2106,12 +2130,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/34PhCF947JMQtCn7FD1J3Xd3c2VSxAwda8</t>
+          <t>https://intel.arkm.com/explorer/address/bc1p79rzpjn2f0puzc5lr5vxvrh23eytnqgcfhw4pcjj8gkep2slp2es92e2zp</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>34PhCF947JMQtCn7FD1J3Xd3c2VSxAwda8</t>
+          <t>bc1p79rzpjn2f0puzc5lr5vxvrh23eytnqgcfhw4pcjj8gkep2slp2es92e2zp</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2129,20 +2153,20 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>840646976</v>
+        <v>601296192</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>9551.069985599999</v>
+        <v>6505</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2154,12 +2178,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/12DezRFkKToAiLTDNru1g7FuvtAWMwCZ7N</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qr3vnyhhj7kd7ngs05xxm2yf0ma5gt6xvxmc0a6v2cj9mjzn6mvrqeek94m</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>12DezRFkKToAiLTDNru1g7FuvtAWMwCZ7N</t>
+          <t>bc1qr3vnyhhj7kd7ngs05xxm2yf0ma5gt6xvxmc0a6v2cj9mjzn6mvrqeek94m</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2171,46 +2195,26 @@
       <c r="E29" t="b">
         <v>0</v>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Coinbase</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>3552740011.699023</v>
+        <v>555650176</v>
       </c>
       <c r="L29" t="n">
-        <v>3548070108.59375</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>39834.99380821</v>
+        <v>6103.49698782</v>
       </c>
       <c r="N29" t="n">
-        <v>39801.52976173</v>
+        <v>0</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2222,12 +2226,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qukw69mjxwp30adfqddv6gcyva26laxz562rhlk</t>
+          <t>https://intel.arkm.com/explorer/address/3BPAodH6WkNQC8TUrnwFKhETiFacNUi68X</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>bc1qukw69mjxwp30adfqddv6gcyva26laxz562rhlk</t>
+          <t>3BPAodH6WkNQC8TUrnwFKhETiFacNUi68X</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2241,22 +2245,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Kraken</t>
+          <t>Cobo.com</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>custodian</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://kraken.com</t>
+          <t>https://www.cobo.com</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Cobo Custody</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2265,20 +2269,20 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>914080000</v>
+        <v>795914068.5459976</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>760194701.9250031</v>
       </c>
       <c r="M30" t="n">
-        <v>10000</v>
+        <v>9025.414599989999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>8652.49889999</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2290,12 +2294,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qq393eyjh8hdjvcchy0mxquhh9wx8h3kzlkchfs</t>
+          <t>https://intel.arkm.com/explorer/address/bc1pueepze0zflc9vhtmt2tjhnp8d73f2lmle27wxvk6z6crh73ju9nsjw0qkx</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>bc1qq393eyjh8hdjvcchy0mxquhh9wx8h3kzlkchfs</t>
+          <t>bc1pueepze0zflc9vhtmt2tjhnp8d73f2lmle27wxvk6z6crh73ju9nsjw0qkx</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2307,46 +2311,26 @@
       <c r="E31" t="b">
         <v>0</v>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Ceffu</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>custodian</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>https://www.ceffu.com/</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Custody Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>852644368.7340088</v>
+        <v>594554368</v>
       </c>
       <c r="L31" t="n">
-        <v>867968884.4179592</v>
+        <v>601296192</v>
       </c>
       <c r="M31" t="n">
-        <v>9679.410766450001</v>
+        <v>6600</v>
       </c>
       <c r="N31" t="n">
-        <v>9850.92796001</v>
+        <v>6505.00001542</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2358,12 +2342,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1PHpKcFBaUcNadBKEWutz3uMTWKupe8QHq</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qactqjuk4kghfgaqqt454hzzzs5lsaysunf80gh</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1PHpKcFBaUcNadBKEWutz3uMTWKupe8QHq</t>
+          <t>bc1qactqjuk4kghfgaqqt454hzzzs5lsaysunf80gh</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2381,20 +2365,20 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>680212864</v>
+        <v>3348118748.80927</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>3348202165.108459</v>
       </c>
       <c r="M32" t="n">
-        <v>7658.50237493</v>
+        <v>37483.58880354</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>37483.58880054</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -2406,12 +2390,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1quq29mutxkgxmjfdr7ayj3zd9ad0ld5mrhh89l2</t>
+          <t>https://intel.arkm.com/explorer/address/12DezRFkKToAiLTDNru1g7FuvtAWMwCZ7N</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>bc1quq29mutxkgxmjfdr7ayj3zd9ad0ld5mrhh89l2</t>
+          <t>12DezRFkKToAiLTDNru1g7FuvtAWMwCZ7N</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2425,7 +2409,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2435,12 +2419,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://gemini.com</t>
+          <t>https://coinbase.com</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2449,20 +2433,20 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>906949019.6353645</v>
+        <v>3552740011.699023</v>
       </c>
       <c r="L33" t="n">
-        <v>969833454.4579129</v>
+        <v>3548070108.59375</v>
       </c>
       <c r="M33" t="n">
-        <v>10424.36098838</v>
+        <v>39834.99380821</v>
       </c>
       <c r="N33" t="n">
-        <v>11132.87868851</v>
+        <v>39801.52976173</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -2474,12 +2458,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q8wyf76hse8w4dr0qmmapmnuywlpf2upv5are5y9993gdsnvdt97qsem5pp</t>
+          <t>https://intel.arkm.com/explorer/address/12XZMdaAGmcHf4ocFSqpd8jFd1WH7RHUPs</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>bc1q8wyf76hse8w4dr0qmmapmnuywlpf2upv5are5y9993gdsnvdt97qsem5pp</t>
+          <t>12XZMdaAGmcHf4ocFSqpd8jFd1WH7RHUPs</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2491,26 +2475,46 @@
       <c r="E34" t="b">
         <v>0</v>
       </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Bybit</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>https://bybit.com</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K34" t="n">
-        <v>758845248</v>
+        <v>1638020851.609058</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1711825818.937233</v>
       </c>
       <c r="M34" t="n">
-        <v>8613.649007</v>
+        <v>18384.81046748</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>19218.8832131</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -2522,12 +2526,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3BHXygmhNMaCcNn76S8DLdnZ5ucPtNtWGb</t>
+          <t>https://intel.arkm.com/explorer/address/1NBYWqtQvWmT7hzEB11XyGjHp4G177AVgz</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3BHXygmhNMaCcNn76S8DLdnZ5ucPtNtWGb</t>
+          <t>1NBYWqtQvWmT7hzEB11XyGjHp4G177AVgz</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2541,44 +2545,36 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Cobo.com</t>
+          <t>BIT.com (Matrixport)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>custodian</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.cobo.com</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://www.bit.com/</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>623006648</v>
+        <v>654008380.3554382</v>
       </c>
       <c r="L35" t="n">
-        <v>825507470.1922379</v>
+        <v>583143152.8427734</v>
       </c>
       <c r="M35" t="n">
-        <v>6975.49974085</v>
+        <v>7192.12398613</v>
       </c>
       <c r="N35" t="n">
-        <v>9367.857551769999</v>
+        <v>6413.17433358</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -2590,12 +2586,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3EDiYUZpcEjBvaD7yiZfjx68hhXH6bYyZy</t>
+          <t>https://intel.arkm.com/explorer/address/3MqUP6G1daVS5YTD8fz3QgwjZortWwxXFd</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3EDiYUZpcEjBvaD7yiZfjx68hhXH6bYyZy</t>
+          <t>3MqUP6G1daVS5YTD8fz3QgwjZortWwxXFd</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2609,7 +2605,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Bitstamp</t>
+          <t>Coinbase Prime</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2619,26 +2615,34 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://bitstamp.net</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+          <t>https://www.coinbase.com/prime</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>11170504088.07761</v>
       </c>
       <c r="L36" t="n">
-        <v>653720361</v>
+        <v>11165038374.10186</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>125387.55065759</v>
       </c>
       <c r="N36" t="n">
-        <v>7267.13931</v>
+        <v>125415.94258632</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -2650,12 +2654,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/37GgrfZcywSLuBpQDf1t6aJicWzHRf2GFB</t>
+          <t>https://intel.arkm.com/explorer/address/3M219KR5vEneNb47ewrPfWyb5jQ2DjxRP6</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>37GgrfZcywSLuBpQDf1t6aJicWzHRf2GFB</t>
+          <t>3M219KR5vEneNb47ewrPfWyb5jQ2DjxRP6</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2667,26 +2671,46 @@
       <c r="E37" t="b">
         <v>0</v>
       </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Binance</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K37" t="n">
-        <v>2450247936</v>
+        <v>878456192</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>26917.22442797</v>
+        <v>9978.261</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -2698,12 +2722,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q7cyrfmck2ffu2ud3rn5l5a8yv6f0chkp0zpemf</t>
+          <t>https://intel.arkm.com/explorer/address/1PHpKcFBaUcNadBKEWutz3uMTWKupe8QHq</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>bc1q7cyrfmck2ffu2ud3rn5l5a8yv6f0chkp0zpemf</t>
+          <t>1PHpKcFBaUcNadBKEWutz3uMTWKupe8QHq</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2715,46 +2739,26 @@
       <c r="E38" t="b">
         <v>0</v>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Crypto.com</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>https://crypto.com</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>1408431485.534853</v>
+        <v>680212864</v>
       </c>
       <c r="L38" t="n">
-        <v>1506578779.354851</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>15895.03023084</v>
+        <v>7658.50237493</v>
       </c>
       <c r="N38" t="n">
-        <v>16992.37144619</v>
+        <v>0</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -2766,12 +2770,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1NBYWqtQvWmT7hzEB11XyGjHp4G177AVgz</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qr4dl5wa7kl8yu792dceg9z5knl2gkn220lk7a9</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1NBYWqtQvWmT7hzEB11XyGjHp4G177AVgz</t>
+          <t>bc1qr4dl5wa7kl8yu792dceg9z5knl2gkn220lk7a9</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2785,7 +2789,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>BIT.com (Matrixport)</t>
+          <t>Crypto.com</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2795,26 +2799,34 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.bit.com/</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+          <t>https://crypto.com</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K39" t="n">
-        <v>654008380.3554382</v>
+        <v>1207449989.501908</v>
       </c>
       <c r="L39" t="n">
-        <v>583143152.8427734</v>
+        <v>1625177540.78561</v>
       </c>
       <c r="M39" t="n">
-        <v>7192.12398613</v>
+        <v>13644.09057548</v>
       </c>
       <c r="N39" t="n">
-        <v>6413.17433358</v>
+        <v>18267.87929845</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -2826,12 +2838,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q77fg8d7xjye7vq2m9ws7qvwuw9k0src4k9yrdn82e4l63swfh3yse4te95</t>
+          <t>https://intel.arkm.com/explorer/address/37GgrfZcywSLuBpQDf1t6aJicWzHRf2GFB</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>bc1q77fg8d7xjye7vq2m9ws7qvwuw9k0src4k9yrdn82e4l63swfh3yse4te95</t>
+          <t>37GgrfZcywSLuBpQDf1t6aJicWzHRf2GFB</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2843,46 +2855,26 @@
       <c r="E40" t="b">
         <v>0</v>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>BTC Markets</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>https://www.btcmarkets.net/</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>535710304</v>
+        <v>2450247936</v>
       </c>
       <c r="L40" t="n">
-        <v>555461248</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>6103.5</v>
+        <v>26917.22442797</v>
       </c>
       <c r="N40" t="n">
-        <v>6103.5</v>
+        <v>0</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -2894,12 +2886,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qr4dl5wa7kl8yu792dceg9z5knl2gkn220lk7a9</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qptc9cz269u2mc5yguun5a5d6yd5c7f7ne4qj26</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>bc1qr4dl5wa7kl8yu792dceg9z5knl2gkn220lk7a9</t>
+          <t>bc1qptc9cz269u2mc5yguun5a5d6yd5c7f7ne4qj26</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2911,46 +2903,26 @@
       <c r="E41" t="b">
         <v>0</v>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Crypto.com</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>https://crypto.com</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>1207449989.501908</v>
+        <v>1408599936</v>
       </c>
       <c r="L41" t="n">
-        <v>1625177540.78561</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>13644.09057548</v>
+        <v>16400.04537828</v>
       </c>
       <c r="N41" t="n">
-        <v>18267.87929845</v>
+        <v>0</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -2962,12 +2934,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/324H9uyTV9bPgAVgmdJNxPKKKZmowk5CYq</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qpzt4m58zzqgp84ktyuj5tz8g8k8ssg2g2d5eeerwhx4gxulqq5mqjzm5gc</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>324H9uyTV9bPgAVgmdJNxPKKKZmowk5CYq</t>
+          <t>bc1qpzt4m58zzqgp84ktyuj5tz8g8k8ssg2g2d5eeerwhx4gxulqq5mqjzm5gc</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2981,44 +2953,36 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Bullish.com</t>
+          <t>Twenty One Capital</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://bullish.com/</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://xxi.money/</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>584107555.25</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>959867968</v>
       </c>
       <c r="M42" t="n">
-        <v>6545.66901257</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>10499.99999582</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3030,12 +2994,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q8qpfmpf6hcu3tgfvp8dgtf534rws8uhsl9vtk6p2f3r2gnqdz5sqxmty6q</t>
+          <t>https://intel.arkm.com/explorer/address/18SN8PV997oDGtYmTPPD55GDaPtNNEGWeu</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>bc1q8qpfmpf6hcu3tgfvp8dgtf534rws8uhsl9vtk6p2f3r2gnqdz5sqxmty6q</t>
+          <t>18SN8PV997oDGtYmTPPD55GDaPtNNEGWeu</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3049,36 +3013,44 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Twenty One Capital</t>
+          <t>BTC Markets</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://xxi.money/</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+          <t>https://www.btcmarkets.net/</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1684128000</v>
+        <v>535710304</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>18422.68366374</v>
+        <v>6103.50015</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -3090,12 +3062,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qfnv2t4ntuhu52ykp06u6uy3nj7ctm2388cs80e</t>
+          <t>https://intel.arkm.com/explorer/address/3MEa4sPyGLCf2xQR5k68gUsxYSosJ6UhJh</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>bc1qfnv2t4ntuhu52ykp06u6uy3nj7ctm2388cs80e</t>
+          <t>3MEa4sPyGLCf2xQR5k68gUsxYSosJ6UhJh</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3107,26 +3079,38 @@
       <c r="E44" t="b">
         <v>0</v>
       </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Twenty One Capital</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>https://xxi.money/</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>3933954304</v>
       </c>
       <c r="L44" t="n">
-        <v>1412894464</v>
+        <v>3911275520</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>43033.5411757</v>
       </c>
       <c r="N44" t="n">
-        <v>16450.04551928</v>
+        <v>43033.5411757</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -3138,12 +3122,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qumvs45e69rvfd9vqknzyz9wg0xzvnhmx6mt3cc</t>
+          <t>https://intel.arkm.com/explorer/address/352zzNHvsBTaUUNzqB5xbMo8EYdpvHJQB2</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>bc1qumvs45e69rvfd9vqknzyz9wg0xzvnhmx6mt3cc</t>
+          <t>352zzNHvsBTaUUNzqB5xbMo8EYdpvHJQB2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3157,7 +3141,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Kraken</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3167,34 +3151,26 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://kraken.com</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>547316000</v>
+        <v>3348193382.375061</v>
       </c>
       <c r="L45" t="n">
-        <v>594554432</v>
+        <v>3344695096.664405</v>
       </c>
       <c r="M45" t="n">
-        <v>6000</v>
+        <v>37483.49021821</v>
       </c>
       <c r="N45" t="n">
-        <v>6600.00001074</v>
+        <v>37440.75082802</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -3206,12 +3182,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qttmz4kvr8tr6alvmn3zpd5mg53e787rq8v06z0qyqrru4992hsmqxnzkyl</t>
+          <t>https://intel.arkm.com/explorer/address/bc1quhruqrghgcca950rvhtrg7cpd7u8k6svpzgzmrjy8xyukacl5lkq0r8l2d</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>bc1qttmz4kvr8tr6alvmn3zpd5mg53e787rq8v06z0qyqrru4992hsmqxnzkyl</t>
+          <t>bc1quhruqrghgcca950rvhtrg7cpd7u8k6svpzgzmrjy8xyukacl5lkq0r8l2d</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3223,26 +3199,46 @@
       <c r="E46" t="b">
         <v>0</v>
       </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>OKX</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>https://okx.com</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>2893516344.380085</v>
       </c>
       <c r="L46" t="n">
-        <v>890992256</v>
+        <v>2939194667.18685</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>32317.15013996</v>
       </c>
       <c r="N46" t="n">
-        <v>10113.64902039</v>
+        <v>32803.34177374</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -3254,12 +3250,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3EX1HHEwPtkxitrcYpymHFWu91LNsn8wD4</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3EX1HHEwPtkxitrcYpymHFWu91LNsn8wD4</t>
+          <t>bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3271,26 +3267,46 @@
       <c r="E47" t="b">
         <v>0</v>
       </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Binance</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>17849948626.32623</v>
       </c>
       <c r="L47" t="n">
-        <v>884654976</v>
+        <v>18092310416.16661</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>200144.83795871</v>
       </c>
       <c r="N47" t="n">
-        <v>10051.07</v>
+        <v>202607.66273213</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -3302,12 +3318,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/352zzNHvsBTaUUNzqB5xbMo8EYdpvHJQB2</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qumvs45e69rvfd9vqknzyz9wg0xzvnhmx6mt3cc</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>352zzNHvsBTaUUNzqB5xbMo8EYdpvHJQB2</t>
+          <t>bc1qumvs45e69rvfd9vqknzyz9wg0xzvnhmx6mt3cc</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3321,7 +3337,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3331,26 +3347,34 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+          <t>https://kraken.com</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K48" t="n">
-        <v>3348193382.375061</v>
+        <v>547316000</v>
       </c>
       <c r="L48" t="n">
-        <v>3341917755.664405</v>
+        <v>594554432</v>
       </c>
       <c r="M48" t="n">
-        <v>37483.49021821</v>
+        <v>6000</v>
       </c>
       <c r="N48" t="n">
-        <v>37409.33933973</v>
+        <v>6600.00001074</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -3362,12 +3386,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qptc9cz269u2mc5yguun5a5d6yd5c7f7ne4qj26</t>
+          <t>https://intel.arkm.com/explorer/address/3EX1HHEwPtkxitrcYpymHFWu91LNsn8wD4</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>bc1qptc9cz269u2mc5yguun5a5d6yd5c7f7ne4qj26</t>
+          <t>3EX1HHEwPtkxitrcYpymHFWu91LNsn8wD4</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3385,20 +3409,20 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>1408599936</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>884654976</v>
       </c>
       <c r="M49" t="n">
-        <v>16400.04537828</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>10051.07</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -3410,12 +3434,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q0d3k8zue8z5ztqt0r35rsd7gua5z4ser6gt46c</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q32lyrhp9zpww22phqjwwmelta0c8a5q990ghs6</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>bc1q0d3k8zue8z5ztqt0r35rsd7gua5z4ser6gt46c</t>
+          <t>bc1q32lyrhp9zpww22phqjwwmelta0c8a5q990ghs6</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3429,22 +3453,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Ceffu</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>custodian</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
+          <t>https://www.ceffu.com/</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Custody Cold Wallet</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3453,20 +3477,20 @@
         </is>
       </c>
       <c r="K50" t="n">
-        <v>1186042410.737006</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>1228396181.090073</v>
+        <v>813936864</v>
       </c>
       <c r="M50" t="n">
-        <v>13279.13984605</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>13754.19014572</v>
+        <v>9232.000023819999</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -3478,12 +3502,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qssl3tj9ldf4h4km6najk8648epy6wrsz9k8j50njjs9l96gp4d4susha2t</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qq393eyjh8hdjvcchy0mxquhh9wx8h3kzlkchfs</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>bc1qssl3tj9ldf4h4km6najk8648epy6wrsz9k8j50njjs9l96gp4d4susha2t</t>
+          <t>bc1qq393eyjh8hdjvcchy0mxquhh9wx8h3kzlkchfs</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3495,26 +3519,46 @@
       <c r="E51" t="b">
         <v>0</v>
       </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Ceffu</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>custodian</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>https://www.ceffu.com/</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Custody Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K51" t="n">
-        <v>555461056</v>
+        <v>852644368.7340088</v>
       </c>
       <c r="L51" t="n">
-        <v>555650240</v>
+        <v>867968884.4179592</v>
       </c>
       <c r="M51" t="n">
-        <v>6103.49799148</v>
+        <v>9679.410766450001</v>
       </c>
       <c r="N51" t="n">
-        <v>6103.49799148</v>
+        <v>9850.92796001</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -3526,12 +3570,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qx9n80t5q7tfmutzaj0ramzzzsvtveara68zntc</t>
+          <t>https://intel.arkm.com/explorer/address/3JBM969wvpxEnfYLQ3LYayB3DVk52ZZpGq</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>bc1qx9n80t5q7tfmutzaj0ramzzzsvtveara68zntc</t>
+          <t>3JBM969wvpxEnfYLQ3LYayB3DVk52ZZpGq</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3543,46 +3587,26 @@
       <c r="E52" t="b">
         <v>0</v>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Kraken</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>https://kraken.com</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>3893168770.887906</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>4733369830.743248</v>
+        <v>888877632</v>
       </c>
       <c r="M52" t="n">
-        <v>43545.71844104</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>52737.12942108</v>
+        <v>10144.92</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -3594,12 +3618,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/335umQ4egqMjDo6wSXYwQZYPntZzMveNTJ</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qttmz4kvr8tr6alvmn3zpd5mg53e787rq8v06z0qyqrru4992hsmqxnzkyl</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>335umQ4egqMjDo6wSXYwQZYPntZzMveNTJ</t>
+          <t>bc1qttmz4kvr8tr6alvmn3zpd5mg53e787rq8v06z0qyqrru4992hsmqxnzkyl</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3611,38 +3635,26 @@
       <c r="E53" t="b">
         <v>0</v>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Coinbase</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>1767837040.9375</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>1707554703.6875</v>
+        <v>890992256</v>
       </c>
       <c r="M53" t="n">
-        <v>20025.39375</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>19331.104365</v>
+        <v>10113.64902039</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -3654,12 +3666,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1p79rzpjn2f0puzc5lr5vxvrh23eytnqgcfhw4pcjj8gkep2slp2es92e2zp</t>
+          <t>https://intel.arkm.com/explorer/address/3HNFTegz1nSDjoq8iepW5wMxDZCcVq1VuC</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>bc1p79rzpjn2f0puzc5lr5vxvrh23eytnqgcfhw4pcjj8gkep2slp2es92e2zp</t>
+          <t>3HNFTegz1nSDjoq8iepW5wMxDZCcVq1VuC</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3671,26 +3683,38 @@
       <c r="E54" t="b">
         <v>0</v>
       </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Twenty One Capital</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>https://xxi.money/</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>601296192</v>
+        <v>3911275520</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>3917300224</v>
       </c>
       <c r="M54" t="n">
-        <v>6505</v>
+        <v>43033.54017238</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>43033.54017238</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -3702,12 +3726,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/172jzPTGhtRR2SafHQDz3f7CTFrM4bjrxb</t>
+          <t>https://intel.arkm.com/explorer/address/bc1p2mlwrss9tmvtfvu0tcxul2h0w67ej8vyjpj3ksctt67vd9r752ksqx6uqm</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>172jzPTGhtRR2SafHQDz3f7CTFrM4bjrxb</t>
+          <t>bc1p2mlwrss9tmvtfvu0tcxul2h0w67ej8vyjpj3ksctt67vd9r752ksqx6uqm</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3725,20 +3749,20 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>672067981.8924599</v>
       </c>
       <c r="L55" t="n">
-        <v>680275008</v>
+        <v>845490277.0505028</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>7552.912437360001</v>
       </c>
       <c r="N55" t="n">
-        <v>7659.20237716</v>
+        <v>9534.50724705</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -3750,12 +3774,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/36YZXcTVLPdyapYuqXdJEt46oMVB2NrzVv</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qfnv2t4ntuhu52ykp06u6uy3nj7ctm2388cs80e</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>36YZXcTVLPdyapYuqXdJEt46oMVB2NrzVv</t>
+          <t>bc1qfnv2t4ntuhu52ykp06u6uy3nj7ctm2388cs80e</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3770,31 +3794,23 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Coinbase Prime Deposit</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>1887504111.5</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>1959533004</v>
+        <v>1412894464</v>
       </c>
       <c r="M56" t="n">
-        <v>21389.41555251</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>22193.34794288</v>
+        <v>16450.04551928</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -3806,12 +3822,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3MgEAFWu1HKSnZ5ZsC8qf61ZW18xrP5pgd</t>
+          <t>https://intel.arkm.com/explorer/address/3EDiYUZpcEjBvaD7yiZfjx68hhXH6bYyZy</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3MgEAFWu1HKSnZ5ZsC8qf61ZW18xrP5pgd</t>
+          <t>3EDiYUZpcEjBvaD7yiZfjx68hhXH6bYyZy</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3825,7 +3841,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>Bitstamp</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3835,34 +3851,26 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://gemini.com</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://bitstamp.net</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>530070124</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>653720361</v>
       </c>
       <c r="M57" t="n">
-        <v>6111</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>7267.13931</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -3874,12 +3882,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q32lyrhp9zpww22phqjwwmelta0c8a5q990ghs6</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qn2cpj0hrl37wqh5q94kwrlhtj2lx8ahtw7ef5rg35tswxsqtvufqfmmrq2</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>bc1q32lyrhp9zpww22phqjwwmelta0c8a5q990ghs6</t>
+          <t>bc1qn2cpj0hrl37wqh5q94kwrlhtj2lx8ahtw7ef5rg35tswxsqtvufqfmmrq2</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3893,22 +3901,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Ceffu</t>
+          <t>OKX</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>custodian</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.ceffu.com/</t>
+          <t>https://okx.com</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Custody Cold Wallet</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3917,20 +3925,20 @@
         </is>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>1417364314.934498</v>
       </c>
       <c r="L58" t="n">
-        <v>813936864</v>
+        <v>1396438611.731697</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>15773.47318176</v>
       </c>
       <c r="N58" t="n">
-        <v>9232.000023819999</v>
+        <v>15537.37228276</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -3942,12 +3950,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/38UmuUqPCrFmQo4khkomQwZ4VbY2nZMJ67</t>
+          <t>https://intel.arkm.com/explorer/address/38rFtDdFpXc4y6XPbSnNd2UvveEt5Xms2E</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>38UmuUqPCrFmQo4khkomQwZ4VbY2nZMJ67</t>
+          <t>38rFtDdFpXc4y6XPbSnNd2UvveEt5Xms2E</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3961,44 +3969,36 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>Twenty One Capital</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://gemini.com</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://xxi.money/</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>1467052160</v>
       </c>
       <c r="L59" t="n">
-        <v>783071248</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>16116.31574065</v>
       </c>
       <c r="N59" t="n">
-        <v>9040.021983999999</v>
+        <v>0</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -4010,12 +4010,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q4uccuzje5y77tajhgguzj3dut0rjkkq6thym8u2xvqhqn4zykrlsfsyhvl</t>
+          <t>https://intel.arkm.com/explorer/address/3MgEAFWu1HKSnZ5ZsC8qf61ZW18xrP5pgd</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>bc1q4uccuzje5y77tajhgguzj3dut0rjkkq6thym8u2xvqhqn4zykrlsfsyhvl</t>
+          <t>3MgEAFWu1HKSnZ5ZsC8qf61ZW18xrP5pgd</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4029,36 +4029,44 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Twenty One Capital</t>
+          <t>Gemini</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://xxi.money/</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+          <t>https://gemini.com</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>530070124</v>
       </c>
       <c r="L60" t="n">
-        <v>639912000</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>6111</v>
       </c>
       <c r="N60" t="n">
-        <v>7000.00000777</v>
+        <v>0</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -4070,12 +4078,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/3MqUP6G1daVS5YTD8fz3QgwjZortWwxXFd</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q8qpfmpf6hcu3tgfvp8dgtf534rws8uhsl9vtk6p2f3r2gnqdz5sqxmty6q</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3MqUP6G1daVS5YTD8fz3QgwjZortWwxXFd</t>
+          <t>bc1q8qpfmpf6hcu3tgfvp8dgtf534rws8uhsl9vtk6p2f3r2gnqdz5sqxmty6q</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4089,44 +4097,36 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Coinbase Prime</t>
+          <t>Twenty One Capital</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.coinbase.com/prime</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>https://xxi.money/</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>11170504088.07761</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>11165038374.10186</v>
+        <v>1684128000</v>
       </c>
       <c r="M61" t="n">
-        <v>125387.55065759</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>125415.94258632</v>
+        <v>18422.68366374</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -4138,12 +4138,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1quhruqrghgcca950rvhtrg7cpd7u8k6svpzgzmrjy8xyukacl5lkq0r8l2d</t>
+          <t>https://intel.arkm.com/explorer/address/1GrwDkr33gT6LuumniYjKEGjTLhsL5kmqC</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>bc1quhruqrghgcca950rvhtrg7cpd7u8k6svpzgzmrjy8xyukacl5lkq0r8l2d</t>
+          <t>1GrwDkr33gT6LuumniYjKEGjTLhsL5kmqC</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4157,7 +4157,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>OKX</t>
+          <t>Bybit</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://okx.com</t>
+          <t>https://bybit.com</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4181,20 +4181,20 @@
         </is>
       </c>
       <c r="K62" t="n">
-        <v>2893075678.116414</v>
+        <v>1987656286.347061</v>
       </c>
       <c r="L62" t="n">
-        <v>2938348695.43685</v>
+        <v>1949835179.55708</v>
       </c>
       <c r="M62" t="n">
-        <v>32312.16624234</v>
+        <v>22277.91903408</v>
       </c>
       <c r="N62" t="n">
-        <v>32793.77390555</v>
+        <v>21857.95996709</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -4206,12 +4206,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1AZ7aYCT6JPLF1EZ7PgymfFtH4xK44CcCP</t>
+          <t>https://intel.arkm.com/explorer/address/34PhCF947JMQtCn7FD1J3Xd3c2VSxAwda8</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1AZ7aYCT6JPLF1EZ7PgymfFtH4xK44CcCP</t>
+          <t>34PhCF947JMQtCn7FD1J3Xd3c2VSxAwda8</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4226,31 +4226,23 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>Binance Deposit</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>776366003.1653225</v>
+        <v>840646976</v>
       </c>
       <c r="L63" t="n">
-        <v>803076709.2502198</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>8779.96381976</v>
+        <v>9551.069985599999</v>
       </c>
       <c r="N63" t="n">
-        <v>9058.31459953</v>
+        <v>0</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -4262,12 +4254,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1q39u0yxprsz6ucq93pgtxksk7ncr4900ypvkwcw</t>
+          <t>https://intel.arkm.com/explorer/address/bc1q0d3k8zue8z5ztqt0r35rsd7gua5z4ser6gt46c</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>bc1q39u0yxprsz6ucq93pgtxksk7ncr4900ypvkwcw</t>
+          <t>bc1q0d3k8zue8z5ztqt0r35rsd7gua5z4ser6gt46c</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4281,7 +4273,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>BIT.com (Matrixport)</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4291,26 +4283,34 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.bit.com/</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="K64" t="n">
-        <v>646100014.4765625</v>
+        <v>1186042410.737006</v>
       </c>
       <c r="L64" t="n">
-        <v>696438762.8885479</v>
+        <v>1228396181.090073</v>
       </c>
       <c r="M64" t="n">
-        <v>7094.93213276</v>
+        <v>13279.13984605</v>
       </c>
       <c r="N64" t="n">
-        <v>7642.15228998</v>
+        <v>13754.19014572</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2025-12-22 02:59:43</t>
+          <t>2025-12-22 03:02:45</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">

--- a/data_cripto/top_flow.xlsx
+++ b/data_cripto/top_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:P111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,12 +518,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xE69f81b825d7Dc31ee9becef4DbEab5cf30e3Abb</t>
+          <t>https://intel.arkm.com/explorer/address/0x476ef9ac6D8673E220d0E8BC0a810C2Dc6A2AA84</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0xE69f81b825d7Dc31ee9becef4DbEab5cf30e3Abb</t>
+          <t>0x476ef9ac6D8673E220d0E8BC0a810C2Dc6A2AA84</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -532,29 +532,17 @@
         </is>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Binance</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>https://binance.com</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Internal</t>
+          <t>United States Permissionless Dollar (USPD)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -563,20 +551,20 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>1421704855.470493</v>
+        <v>1502256118.061802</v>
       </c>
       <c r="L2" t="n">
-        <v>1425974257.738734</v>
+        <v>1502256118.061802</v>
       </c>
       <c r="M2" t="n">
-        <v>468035.1794834452</v>
+        <v>494571.4576759303</v>
       </c>
       <c r="N2" t="n">
-        <v>469225.2244349655</v>
+        <v>494571.4576759303</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -588,12 +576,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xE7158af48573c6A9d24a53Fa4ADB62DE77EA65eC</t>
+          <t>https://intel.arkm.com/explorer/address/0x3304E22DDaa22bCdC5fCa2269b418046aE7b566A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0xE7158af48573c6A9d24a53Fa4ADB62DE77EA65eC</t>
+          <t>0x3304E22DDaa22bCdC5fCa2269b418046aE7b566A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -602,17 +590,29 @@
         </is>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Binance</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://binance.com</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>MEV Bot</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -621,20 +621,20 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>1201099760.000009</v>
+        <v>1116032163.190911</v>
       </c>
       <c r="L3" t="n">
-        <v>1201099479.482701</v>
+        <v>1179042805.407276</v>
       </c>
       <c r="M3" t="n">
-        <v>398513.6261466445</v>
+        <v>370062.2470721295</v>
       </c>
       <c r="N3" t="n">
-        <v>398513.5360066436</v>
+        <v>390042.486015</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -646,12 +646,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xf8191D98ae98d2f7aBDFB63A9b0b812b93C873AA</t>
+          <t>https://intel.arkm.com/explorer/address/0xC8c557506a5240dcEC094e614C665Ff9CA815b95</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0xf8191D98ae98d2f7aBDFB63A9b0b812b93C873AA</t>
+          <t>0xC8c557506a5240dcEC094e614C665Ff9CA815b95</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -665,24 +665,12 @@
       <c r="E4" t="b">
         <v>0</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Wintermute</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>https://www.wintermute.com/</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Coinbase Prime Deposit</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -691,20 +679,20 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>1944484910.429105</v>
+        <v>788719834.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1934771589.12811</v>
+        <v>739374894.75</v>
       </c>
       <c r="M4" t="n">
-        <v>641237.4358267125</v>
+        <v>265698.20913186</v>
       </c>
       <c r="N4" t="n">
-        <v>638136.0539206651</v>
+        <v>248981.0910758402</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -716,12 +704,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x1f2F10D1C40777AE1Da742455c65828FF36Df387</t>
+          <t>https://intel.arkm.com/explorer/address/0xE7158af48573c6A9d24a53Fa4ADB62DE77EA65eC</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0x1f2F10D1C40777AE1Da742455c65828FF36Df387</t>
+          <t>0xE7158af48573c6A9d24a53Fa4ADB62DE77EA65eC</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -735,16 +723,8 @@
       <c r="E5" t="b">
         <v>0</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>jaredfromsubway (MEV)</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>mev</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
@@ -757,20 +737,20 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>1807747476.030998</v>
+        <v>1201099760.000009</v>
       </c>
       <c r="L5" t="n">
-        <v>1807747472.711061</v>
+        <v>1201099479.482701</v>
       </c>
       <c r="M5" t="n">
-        <v>602318.1111223722</v>
+        <v>398513.6261466445</v>
       </c>
       <c r="N5" t="n">
-        <v>602318.1100233801</v>
+        <v>398513.5360066436</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -782,12 +762,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x9696f59E4d72E237BE84fFD425DCaD154Bf96976</t>
+          <t>https://intel.arkm.com/explorer/address/0x46340b20830761efd32832A74d7169B29FEB9758</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0x9696f59E4d72E237BE84fFD425DCaD154Bf96976</t>
+          <t>0x46340b20830761efd32832A74d7169B29FEB9758</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -803,7 +783,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Crypto.com</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -813,7 +793,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
+          <t>https://crypto.com</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -827,20 +807,20 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>1512083197.499274</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1569586295.413855</v>
+        <v>698405400.2598646</v>
       </c>
       <c r="M6" t="n">
-        <v>499117.4205049807</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>519180.00111567</v>
+        <v>233030.6322612694</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -852,12 +832,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x131bf4Cc1E4C60734B64e908D35f0F5cB9727dc7</t>
+          <t>https://intel.arkm.com/explorer/address/0xf8191D98ae98d2f7aBDFB63A9b0b812b93C873AA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0x131bf4Cc1E4C60734B64e908D35f0F5cB9727dc7</t>
+          <t>0xf8191D98ae98d2f7aBDFB63A9b0b812b93C873AA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -871,26 +851,46 @@
       <c r="E7" t="b">
         <v>0</v>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Wintermute</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1944484910.429105</v>
       </c>
       <c r="L7" t="n">
-        <v>697064308.7639545</v>
+        <v>1934771589.12811</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>641237.4358267125</v>
       </c>
       <c r="N7" t="n">
-        <v>230417.0875512386</v>
+        <v>638136.0539206651</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -902,12 +902,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xA9Ac43f5b5e38155A288d1A01D2cbc4478E14573</t>
+          <t>https://intel.arkm.com/explorer/address/0x0003B5Aa5E30E97FcC596BB5D0F3A75255E08D4e</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0xA9Ac43f5b5e38155A288d1A01D2cbc4478E14573</t>
+          <t>0x0003B5Aa5E30E97FcC596BB5D0F3A75255E08D4e</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -947,20 +947,20 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>3251429117.306841</v>
+        <v>1938082211.662361</v>
       </c>
       <c r="L8" t="n">
-        <v>3310462406.313124</v>
+        <v>1867239225.504152</v>
       </c>
       <c r="M8" t="n">
-        <v>1066573.163885779</v>
+        <v>644951.108720155</v>
       </c>
       <c r="N8" t="n">
-        <v>1087385.5669446</v>
+        <v>619695.6682758</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -972,12 +972,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x000000000004444c5dc75cB358380D2e3dE08A90</t>
+          <t>https://intel.arkm.com/explorer/address/0x1E8540d60a7B34E79DA540FFf2d11bC4ad832f76</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0x000000000004444c5dc75cB358380D2e3dE08A90</t>
+          <t>0x1E8540d60a7B34E79DA540FFf2d11bC4ad832f76</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -991,46 +991,26 @@
       <c r="E9" t="b">
         <v>0</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Uniswap</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>dex</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>https://uniswap.org</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>PoolManager</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>2969444221.016962</v>
+        <v>1346812579.547901</v>
       </c>
       <c r="L9" t="n">
-        <v>2961067758.364499</v>
+        <v>1346813193.82038</v>
       </c>
       <c r="M9" t="n">
-        <v>988190.092194312</v>
+        <v>449595.6195204691</v>
       </c>
       <c r="N9" t="n">
-        <v>985604.919130712</v>
+        <v>449595.8008381582</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1042,12 +1022,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xbdAeDf327F5bc552a8479326562F6EfEAB2D8d96</t>
+          <t>https://intel.arkm.com/explorer/address/0x131bf4Cc1E4C60734B64e908D35f0F5cB9727dc7</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0xbdAeDf327F5bc552a8479326562F6EfEAB2D8d96</t>
+          <t>0x131bf4Cc1E4C60734B64e908D35f0F5cB9727dc7</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1061,38 +1041,26 @@
       <c r="E10" t="b">
         <v>0</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Wintermute</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>https://www.wintermute.com/</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>1143332090.046875</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1144227711.40625</v>
+        <v>697064308.7639545</v>
       </c>
       <c r="M10" t="n">
-        <v>377196.8</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>377201.8</v>
+        <v>230417.0875512386</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1104,12 +1072,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xd36F184111225D065884e129566752968c96E26c</t>
+          <t>https://intel.arkm.com/explorer/address/0xDFd5293D8e347dFe59E90eFd55b2956a1343963d</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0xd36F184111225D065884e129566752968c96E26c</t>
+          <t>0xDFd5293D8e347dFe59E90eFd55b2956a1343963d</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1118,17 +1086,29 @@
         </is>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Binance</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://binance.com</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>MEV Bot</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1137,20 +1117,20 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>4485981663.557541</v>
+        <v>1706826169.116792</v>
       </c>
       <c r="L11" t="n">
-        <v>4485981650.531931</v>
+        <v>1706537923.909184</v>
       </c>
       <c r="M11" t="n">
-        <v>1505486.129768546</v>
+        <v>566556.1774125679</v>
       </c>
       <c r="N11" t="n">
-        <v>1505486.129768546</v>
+        <v>565219.62847849</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1162,12 +1142,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xA9D1e08C7793af67e9d92fe308d5697FB81d3E43</t>
+          <t>https://intel.arkm.com/explorer/address/0x4976A4A02f38326660D17bf34b431dC6e2eb2327</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0xA9D1e08C7793af67e9d92fe308d5697FB81d3E43</t>
+          <t>0x4976A4A02f38326660D17bf34b431dC6e2eb2327</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1176,14 +1156,14 @@
         </is>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1193,7 +1173,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
+          <t>https://binance.com</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1207,20 +1187,20 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>8199766791.403469</v>
+        <v>1374334367.86807</v>
       </c>
       <c r="L12" t="n">
-        <v>8181594411.188777</v>
+        <v>1471311110.708868</v>
       </c>
       <c r="M12" t="n">
-        <v>2709691.027887452</v>
+        <v>454571.4558957494</v>
       </c>
       <c r="N12" t="n">
-        <v>2704475.33634637</v>
+        <v>487762.51842652</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1232,12 +1212,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xaF682DE1f2e6f710731121A05A44Cb3C1B511f7d</t>
+          <t>https://intel.arkm.com/explorer/address/0x56Eddb7aa87536c09CCc2793473599fD21A8b17F</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0xaF682DE1f2e6f710731121A05A44Cb3C1B511f7d</t>
+          <t>0x56Eddb7aa87536c09CCc2793473599fD21A8b17F</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1246,31 +1226,51 @@
         </is>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Binance</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K13" t="n">
-        <v>1914099978.973555</v>
+        <v>1217236899.390285</v>
       </c>
       <c r="L13" t="n">
-        <v>1939304686.920212</v>
+        <v>1253778967.200322</v>
       </c>
       <c r="M13" t="n">
-        <v>617059.3371229817</v>
+        <v>403104.3843736643</v>
       </c>
       <c r="N13" t="n">
-        <v>625241.1027161714</v>
+        <v>416692.96096055</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1282,12 +1282,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x52Aa899454998Be5b000Ad077a46Bbe360F4e497</t>
+          <t>https://intel.arkm.com/explorer/address/0xC2BF398B4805893089Ed4Eb4Fa25Cb2E78c0CE87</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0x52Aa899454998Be5b000Ad077a46Bbe360F4e497</t>
+          <t>0xC2BF398B4805893089Ed4Eb4Fa25Cb2E78c0CE87</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1296,29 +1296,17 @@
         </is>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Fluid (Instadapp)</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>misc</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>https://fluid.instadapp.io</t>
-        </is>
-      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>FluidLiquidityProxy</t>
+          <t>Coinbase Prime Custody</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1327,20 +1315,20 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>1095360706.794079</v>
+        <v>910969331.2606878</v>
       </c>
       <c r="L14" t="n">
-        <v>1085541656.996362</v>
+        <v>870484559.5</v>
       </c>
       <c r="M14" t="n">
-        <v>365745.9209227205</v>
+        <v>296290.8984915698</v>
       </c>
       <c r="N14" t="n">
-        <v>361668.9485143954</v>
+        <v>283021.3430527857</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1352,12 +1340,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x5283BEcEd7ADF6D003225C13896E536f2D4264FF</t>
+          <t>https://intel.arkm.com/explorer/address/0xb5d85CBf7cB3EE0D56b3bB207D5Fc4B82f43F511</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0x5283BEcEd7ADF6D003225C13896E536f2D4264FF</t>
+          <t>0xb5d85CBf7cB3EE0D56b3bB207D5Fc4B82f43F511</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1373,36 +1361,44 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Aave</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>lending-decentralized</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://aave.com</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>4227005202.890378</v>
       </c>
       <c r="L15" t="n">
-        <v>691274105.5845029</v>
+        <v>4250745196.237635</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1403006.100979663</v>
       </c>
       <c r="N15" t="n">
-        <v>229928.2867319853</v>
+        <v>1409403.0329073</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1414,12 +1410,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xC2BF398B4805893089Ed4Eb4Fa25Cb2E78c0CE87</t>
+          <t>https://intel.arkm.com/explorer/address/0xCD531Ae9EFCCE479654c4926dec5F6209531Ca7b</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0xC2BF398B4805893089Ed4Eb4Fa25Cb2E78c0CE87</t>
+          <t>0xCD531Ae9EFCCE479654c4926dec5F6209531Ca7b</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1433,12 +1429,24 @@
       <c r="E16" t="b">
         <v>0</v>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Coinbase Prime</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://www.coinbase.com/prime</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Coinbase Prime Custody</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1447,20 +1455,20 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>910969331.2606878</v>
+        <v>3775433008.567411</v>
       </c>
       <c r="L16" t="n">
-        <v>870484559.5</v>
+        <v>3784184804.589684</v>
       </c>
       <c r="M16" t="n">
-        <v>296290.8984915698</v>
+        <v>1252116.912574122</v>
       </c>
       <c r="N16" t="n">
-        <v>283021.3430527857</v>
+        <v>1253621.513909615</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1472,12 +1480,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x93486B98e64de344d6A5A322A4Bd80e65d83E5CA</t>
+          <t>https://intel.arkm.com/explorer/address/0x4752ba5DBc23f44D87826276BF6Fd6b1C372aD24</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0x93486B98e64de344d6A5A322A4Bd80e65d83E5CA</t>
+          <t>0x4752ba5DBc23f44D87826276BF6Fd6b1C372aD24</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1491,12 +1499,24 @@
       <c r="E17" t="b">
         <v>0</v>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Uniswap</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>dex</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://uniswap.org</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Core USPD Share (CUSPD)</t>
+          <t>Quoter</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1505,20 +1525,20 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>1502256118.061802</v>
+        <v>1894517049.139294</v>
       </c>
       <c r="L17" t="n">
-        <v>1474183787.727823</v>
+        <v>1894518528.995016</v>
       </c>
       <c r="M17" t="n">
-        <v>494571.4576759303</v>
+        <v>629124.9656034274</v>
       </c>
       <c r="N17" t="n">
-        <v>485305.1206509323</v>
+        <v>629125.4572940753</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1530,12 +1550,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x1157A2076b9bB22a85CC2C162f20fAB3898F4101</t>
+          <t>https://intel.arkm.com/explorer/address/0xceB69F6342eCE283b2F5c9088Ff249B5d0Ae66ea</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0x1157A2076b9bB22a85CC2C162f20fAB3898F4101</t>
+          <t>0xceB69F6342eCE283b2F5c9088Ff249B5d0Ae66ea</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1551,7 +1571,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>FalconX</t>
+          <t>Coinbase Prime</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1561,7 +1581,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://falconx.io/</t>
+          <t>https://www.coinbase.com/prime</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1575,20 +1595,20 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>1094467842.739395</v>
+        <v>2344929044.625545</v>
       </c>
       <c r="L18" t="n">
-        <v>1098543104.065783</v>
+        <v>2337837375.470176</v>
       </c>
       <c r="M18" t="n">
-        <v>370749.6429639405</v>
+        <v>769106.9468111815</v>
       </c>
       <c r="N18" t="n">
-        <v>368997.9819838693</v>
+        <v>768708.11836233</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1600,12 +1620,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x9008D19f58AAbD9eD0D60971565AA8510560ab41</t>
+          <t>https://intel.arkm.com/explorer/address/0x536c4921D1aAfDE6a5cda882fb5cA046f3601c65</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0x9008D19f58AAbD9eD0D60971565AA8510560ab41</t>
+          <t>0x536c4921D1aAfDE6a5cda882fb5cA046f3601c65</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1614,29 +1634,29 @@
         </is>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>CoW Protocol</t>
+          <t>OKX</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>dex-aggregator</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://cow.fi</t>
+          <t>https://okx.com</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Settlement</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1645,20 +1665,20 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>901689367.0339694</v>
+        <v>999528317.6784681</v>
       </c>
       <c r="L19" t="n">
-        <v>903476140.0705947</v>
+        <v>916118330.4815905</v>
       </c>
       <c r="M19" t="n">
-        <v>300151.3073923649</v>
+        <v>331919.7027464561</v>
       </c>
       <c r="N19" t="n">
-        <v>300729.0453463676</v>
+        <v>304190.64007607</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1670,12 +1690,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xEae7380dD4CeF6fbD1144F49E4D1e6964258A4F4</t>
+          <t>https://intel.arkm.com/explorer/address/0xd36F184111225D065884e129566752968c96E26c</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0xEae7380dD4CeF6fbD1144F49E4D1e6964258A4F4</t>
+          <t>0xd36F184111225D065884e129566752968c96E26c</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1684,29 +1704,17 @@
         </is>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Wintermute</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>https://www.wintermute.com/</t>
-        </is>
-      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Binance Deposit</t>
+          <t>MEV Bot</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1715,20 +1723,20 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>5020638975.016069</v>
+        <v>4485981663.557541</v>
       </c>
       <c r="L20" t="n">
-        <v>5022402360.03125</v>
+        <v>4485981650.531931</v>
       </c>
       <c r="M20" t="n">
-        <v>1662352.601561847</v>
+        <v>1505486.129768546</v>
       </c>
       <c r="N20" t="n">
-        <v>1662154.521677627</v>
+        <v>1505486.129768546</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1740,12 +1748,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x0003B5Aa5E30E97FcC596BB5D0F3A75255E08D4e</t>
+          <t>https://intel.arkm.com/explorer/address/0x21a31Ee1afC51d94C2eFcCAa2092aD1028285549</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0x0003B5Aa5E30E97FcC596BB5D0F3A75255E08D4e</t>
+          <t>0x21a31Ee1afC51d94C2eFcCAa2092aD1028285549</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1761,7 +1769,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>OKX</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1771,7 +1779,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://okx.com</t>
+          <t>https://binance.com</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1785,20 +1793,20 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>1938082211.662361</v>
+        <v>1584512152.714204</v>
       </c>
       <c r="L21" t="n">
-        <v>1867239225.504152</v>
+        <v>1626300635.092626</v>
       </c>
       <c r="M21" t="n">
-        <v>644951.108720155</v>
+        <v>523700.435939114</v>
       </c>
       <c r="N21" t="n">
-        <v>619695.6682758</v>
+        <v>536999.00823594</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -1810,12 +1818,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x1346B4d6867a382B02b19A8D131D9b96b18585f2</t>
+          <t>https://intel.arkm.com/explorer/address/0xEDc7001e99a37c3D23b5f7974F837387e09f9C93</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0x1346B4d6867a382B02b19A8D131D9b96b18585f2</t>
+          <t>0xEDc7001e99a37c3D23b5f7974F837387e09f9C93</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1824,17 +1832,29 @@
         </is>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>StabilizerNFT (Proxy)</t>
+          <t>Deposit</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1843,20 +1863,20 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>1530916787.111607</v>
+        <v>1109587746.4375</v>
       </c>
       <c r="L22" t="n">
-        <v>1530916786.482556</v>
+        <v>1109771591.078125</v>
       </c>
       <c r="M22" t="n">
-        <v>503903.1427560149</v>
+        <v>365577.19687</v>
       </c>
       <c r="N22" t="n">
-        <v>503903.1425560149</v>
+        <v>365577.1900491892</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -1868,12 +1888,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x56Eddb7aa87536c09CCc2793473599fD21A8b17F</t>
+          <t>https://intel.arkm.com/explorer/address/0xa1abfA21f80ecf401bd41365adBb6fEF6fEfDF09</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0x56Eddb7aa87536c09CCc2793473599fD21A8b17F</t>
+          <t>0xa1abfA21f80ecf401bd41365adBb6fEF6fEfDF09</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1889,7 +1909,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Bybit</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1899,7 +1919,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
+          <t>https://bybit.com</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1913,20 +1933,20 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>1217236899.390285</v>
+        <v>817978017.1892889</v>
       </c>
       <c r="L23" t="n">
-        <v>1253778898.208417</v>
+        <v>989665413.6498096</v>
       </c>
       <c r="M23" t="n">
-        <v>403104.3843736643</v>
+        <v>271503.2913403548</v>
       </c>
       <c r="N23" t="n">
-        <v>416692.9598716</v>
+        <v>327474.9175319294</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -1938,12 +1958,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x3304E22DDaa22bCdC5fCa2269b418046aE7b566A</t>
+          <t>https://intel.arkm.com/explorer/address/0xC36442b4a4522E871399CD717aBDD847Ab11FE88</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0x3304E22DDaa22bCdC5fCa2269b418046aE7b566A</t>
+          <t>0xC36442b4a4522E871399CD717aBDD847Ab11FE88</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1952,29 +1972,29 @@
         </is>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>dex</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
+          <t>https://uniswap.org</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Nonfungible Position Manager</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1983,20 +2003,20 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>1112795330.521969</v>
+        <v>796373515.6175644</v>
       </c>
       <c r="L24" t="n">
-        <v>1179044054.347365</v>
+        <v>702242482.9427416</v>
       </c>
       <c r="M24" t="n">
-        <v>368986.7703930965</v>
+        <v>268194.2225766114</v>
       </c>
       <c r="N24" t="n">
-        <v>390042.96816</v>
+        <v>236824.463842245</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -2008,12 +2028,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xceB69F6342eCE283b2F5c9088Ff249B5d0Ae66ea</t>
+          <t>https://intel.arkm.com/explorer/address/0x28C6c06298d514Db089934071355E5743bf21d60</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0xceB69F6342eCE283b2F5c9088Ff249B5d0Ae66ea</t>
+          <t>0x28C6c06298d514Db089934071355E5743bf21d60</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2029,7 +2049,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Coinbase Prime</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2039,7 +2059,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.coinbase.com/prime</t>
+          <t>https://binance.com</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2053,20 +2073,20 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>2344929044.625545</v>
+        <v>10076840990.3889</v>
       </c>
       <c r="L25" t="n">
-        <v>2337837375.470176</v>
+        <v>9818474246.358765</v>
       </c>
       <c r="M25" t="n">
-        <v>769106.9468111815</v>
+        <v>3330285.643538116</v>
       </c>
       <c r="N25" t="n">
-        <v>768708.11836233</v>
+        <v>3247847.46059234</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2078,12 +2098,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xf30ba13e4b04Ce5dC4D254Ae5FA95477800F0EB0</t>
+          <t>https://intel.arkm.com/explorer/address/0xbdAeDf327F5bc552a8479326562F6EfEAB2D8d96</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0xf30ba13e4b04Ce5dC4D254Ae5FA95477800F0EB0</t>
+          <t>0xbdAeDf327F5bc552a8479326562F6EfEAB2D8d96</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2099,44 +2119,36 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kraken</t>
+          <t>Wintermute</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://kraken.com</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://www.wintermute.com/</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>1704322626.735466</v>
+        <v>1143332090.046875</v>
       </c>
       <c r="L26" t="n">
-        <v>1901643818.906965</v>
+        <v>1144227711.40625</v>
       </c>
       <c r="M26" t="n">
-        <v>567369.5844522848</v>
+        <v>377196.8</v>
       </c>
       <c r="N26" t="n">
-        <v>627605.8341766404</v>
+        <v>377201.8</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2148,12 +2160,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xd01607c3C5eCABa394D8be377a08590149325722</t>
+          <t>https://intel.arkm.com/explorer/address/0x4200000000000000000000000000000000000006</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0xd01607c3C5eCABa394D8be377a08590149325722</t>
+          <t>0x4200000000000000000000000000000000000006</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2162,51 +2174,31 @@
         </is>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Aave</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>lending-decentralized</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>https://aave.com</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>WrappedTokenGatewayV3</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>4200875608.877656</v>
+        <v>5224704571.054138</v>
       </c>
       <c r="L27" t="n">
-        <v>4200875608.802999</v>
+        <v>5247462942.259288</v>
       </c>
       <c r="M27" t="n">
-        <v>1408596.356021187</v>
+        <v>1724075.130464508</v>
       </c>
       <c r="N27" t="n">
-        <v>1408596.356021187</v>
+        <v>1732721.858240326</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2218,12 +2210,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xCD531Ae9EFCCE479654c4926dec5F6209531Ca7b</t>
+          <t>https://intel.arkm.com/explorer/address/0xEae7380dD4CeF6fbD1144F49E4D1e6964258A4F4</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0xCD531Ae9EFCCE479654c4926dec5F6209531Ca7b</t>
+          <t>0xEae7380dD4CeF6fbD1144F49E4D1e6964258A4F4</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2239,22 +2231,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Coinbase Prime</t>
+          <t>Wintermute</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.coinbase.com/prime</t>
+          <t>https://www.wintermute.com/</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Binance Deposit</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2263,20 +2255,20 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>3775433008.567411</v>
+        <v>5020638975.016069</v>
       </c>
       <c r="L28" t="n">
-        <v>3784184804.589684</v>
+        <v>5025637723.03125</v>
       </c>
       <c r="M28" t="n">
-        <v>1252116.912574122</v>
+        <v>1662352.601561847</v>
       </c>
       <c r="N28" t="n">
-        <v>1253621.513909615</v>
+        <v>1663229.521676985</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2288,12 +2280,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x00000000219ab540356cBB839Cbe05303d7705Fa</t>
+          <t>https://intel.arkm.com/explorer/address/0xf30ba13e4b04Ce5dC4D254Ae5FA95477800F0EB0</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0x00000000219ab540356cBB839Cbe05303d7705Fa</t>
+          <t>0xf30ba13e4b04Ce5dC4D254Ae5FA95477800F0EB0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2302,17 +2294,29 @@
         </is>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Kraken</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>https://kraken.com</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Eth2 Beacon Deposit Contract</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2321,20 +2325,20 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>3519429363.197998</v>
+        <v>1704322575.38484</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1901645297.648537</v>
       </c>
       <c r="M29" t="n">
-        <v>1165572.484248251</v>
+        <v>567369.5622863529</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>627606.172026407</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2346,12 +2350,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xDFd5293D8e347dFe59E90eFd55b2956a1343963d</t>
+          <t>https://intel.arkm.com/explorer/address/0xB38e8c17e38363aF6EbdCb3dAE12e0243582891D</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0xDFd5293D8e347dFe59E90eFd55b2956a1343963d</t>
+          <t>0xB38e8c17e38363aF6EbdCb3dAE12e0243582891D</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2391,20 +2395,20 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>1706826169.116792</v>
+        <v>1591971929.572335</v>
       </c>
       <c r="L30" t="n">
-        <v>1706551605.739085</v>
+        <v>1688229615.645831</v>
       </c>
       <c r="M30" t="n">
-        <v>566556.1774125679</v>
+        <v>525519.8435673014</v>
       </c>
       <c r="N30" t="n">
-        <v>565224.61311413</v>
+        <v>560387.31844005</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2416,12 +2420,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xEDc7001e99a37c3D23b5f7974F837387e09f9C93</t>
+          <t>https://intel.arkm.com/explorer/address/0xaF682DE1f2e6f710731121A05A44Cb3C1B511f7d</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0xEDc7001e99a37c3D23b5f7974F837387e09f9C93</t>
+          <t>0xaF682DE1f2e6f710731121A05A44Cb3C1B511f7d</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2430,51 +2434,31 @@
         </is>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Coinbase</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>https://coinbase.com</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Deposit</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>1109587746.4375</v>
+        <v>1914100322.932622</v>
       </c>
       <c r="L31" t="n">
-        <v>1109771591.078125</v>
+        <v>1939305026.345002</v>
       </c>
       <c r="M31" t="n">
-        <v>365577.19687</v>
+        <v>617059.4515117299</v>
       </c>
       <c r="N31" t="n">
-        <v>365577.1900491892</v>
+        <v>625241.215596973</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2486,12 +2470,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x28C6c06298d514Db089934071355E5743bf21d60</t>
+          <t>https://intel.arkm.com/explorer/address/0x1f2F10D1C40777AE1Da742455c65828FF36Df387</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0x28C6c06298d514Db089934071355E5743bf21d60</t>
+          <t>0x1f2F10D1C40777AE1Da742455c65828FF36Df387</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2500,29 +2484,25 @@
         </is>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>jaredfromsubway (MEV)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>https://binance.com</t>
-        </is>
-      </c>
+          <t>mev</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>MEV Bot</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2531,20 +2511,20 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>10076840994.07977</v>
+        <v>1807747966.537852</v>
       </c>
       <c r="L32" t="n">
-        <v>9818475065.853548</v>
+        <v>1807747963.217909</v>
       </c>
       <c r="M32" t="n">
-        <v>3330285.644878116</v>
+        <v>602318.2690580861</v>
       </c>
       <c r="N32" t="n">
-        <v>3247847.75829464</v>
+        <v>602318.2679590849</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -2556,12 +2536,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x51C72848c68a965f66FA7a88855F9f7784502a7F</t>
+          <t>https://intel.arkm.com/explorer/address/0x63242A4Ea82847b20E506b63B0e2e2eFF0CC6cB0</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0x51C72848c68a965f66FA7a88855F9f7784502a7F</t>
+          <t>0x63242A4Ea82847b20E506b63B0e2e2eFF0CC6cB0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2577,22 +2557,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Wintermute</t>
+          <t>Kyber Network</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>dex</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.wintermute.com/</t>
+          <t>https://kyber.network</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Market Maker</t>
+          <t>Aggregator Executor V3</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2601,20 +2581,20 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>3551043018.329823</v>
+        <v>1615868147.408112</v>
       </c>
       <c r="L33" t="n">
-        <v>3550747248.903802</v>
+        <v>1616961192.955896</v>
       </c>
       <c r="M33" t="n">
-        <v>1174233.844721126</v>
+        <v>534393.2273830991</v>
       </c>
       <c r="N33" t="n">
-        <v>1174161.640950638</v>
+        <v>534755.7164107602</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -2626,12 +2606,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xB38e8c17e38363aF6EbdCb3dAE12e0243582891D</t>
+          <t>https://intel.arkm.com/explorer/address/0xae7ab96520DE3A18E5e111B5EaAb095312D7fE84</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0xB38e8c17e38363aF6EbdCb3dAE12e0243582891D</t>
+          <t>0xae7ab96520DE3A18E5e111B5EaAb095312D7fE84</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2640,29 +2620,29 @@
         </is>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Lido</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>liquid-staking</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
+          <t>https://lido.fi</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Lido Staked Ether Token (STETH)</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2671,20 +2651,20 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>1591877984.582798</v>
+        <v>1053337865.9316</v>
       </c>
       <c r="L34" t="n">
-        <v>1688229617.023096</v>
+        <v>1022674943.5625</v>
       </c>
       <c r="M34" t="n">
-        <v>525488.6424363385</v>
+        <v>347668.7442663333</v>
       </c>
       <c r="N34" t="n">
-        <v>560387.31894005</v>
+        <v>337070.2240231629</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -2696,12 +2676,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xae7ab96520DE3A18E5e111B5EaAb095312D7fE84</t>
+          <t>https://intel.arkm.com/explorer/address/0xCFFAd3200574698b78f32232aa9D63eABD290703</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0xae7ab96520DE3A18E5e111B5EaAb095312D7fE84</t>
+          <t>0xCFFAd3200574698b78f32232aa9D63eABD290703</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2710,29 +2690,29 @@
         </is>
       </c>
       <c r="D35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lido</t>
+          <t>Crypto.com</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>liquid-staking</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://lido.fi</t>
+          <t>https://crypto.com</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Lido Staked Ether Token (STETH)</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2741,20 +2721,20 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>1053329948.358602</v>
+        <v>743712394.7068213</v>
       </c>
       <c r="L35" t="n">
-        <v>1022674943.5625</v>
+        <v>680870213.4429321</v>
       </c>
       <c r="M35" t="n">
-        <v>347666.1254094082</v>
+        <v>247150.5628974745</v>
       </c>
       <c r="N35" t="n">
-        <v>337070.2240231629</v>
+        <v>225662.72521332</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -2766,12 +2746,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x536c4921D1aAfDE6a5cda882fb5cA046f3601c65</t>
+          <t>https://intel.arkm.com/explorer/address/0xd01607c3C5eCABa394D8be377a08590149325722</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0x536c4921D1aAfDE6a5cda882fb5cA046f3601c65</t>
+          <t>0xd01607c3C5eCABa394D8be377a08590149325722</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2780,29 +2760,29 @@
         </is>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>OKX</t>
+          <t>Aave</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>lending-decentralized</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://okx.com</t>
+          <t>https://aave.com</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>WrappedTokenGatewayV3</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2811,20 +2791,20 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>999528317.6784681</v>
+        <v>4200478956.569063</v>
       </c>
       <c r="L36" t="n">
-        <v>903405030.4815905</v>
+        <v>4200478956.494405</v>
       </c>
       <c r="M36" t="n">
-        <v>331919.7027464561</v>
+        <v>1408452.356021187</v>
       </c>
       <c r="N36" t="n">
-        <v>299962.64007607</v>
+        <v>1408452.356021187</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -2836,12 +2816,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xbD216513d74C8cf14cf4747E6AaA6420FF64ee9e</t>
+          <t>https://intel.arkm.com/explorer/address/0x82aF49447D8a07e3bd95BD0d56f35241523fBab1</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0xbD216513d74C8cf14cf4747E6AaA6420FF64ee9e</t>
+          <t>0x82aF49447D8a07e3bd95BD0d56f35241523fBab1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2850,51 +2830,31 @@
         </is>
       </c>
       <c r="D37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Uniswap</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>dex</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>https://uniswap.org</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Uniswap v4 Positions NFT (UNI-V4-POSM)</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>875151748.4412717</v>
+        <v>1993678182.393669</v>
       </c>
       <c r="L37" t="n">
-        <v>845331051.0456161</v>
+        <v>1986645667.156124</v>
       </c>
       <c r="M37" t="n">
-        <v>291469.7032534066</v>
+        <v>661575.8608549015</v>
       </c>
       <c r="N37" t="n">
-        <v>281477.2249424829</v>
+        <v>657073.1769381462</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -2906,12 +2866,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xc7bf35C9A3Bdd1B1c19A6963De669cb45191A019</t>
+          <t>https://intel.arkm.com/explorer/address/0x5283BEcEd7ADF6D003225C13896E536f2D4264FF</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0xc7bf35C9A3Bdd1B1c19A6963De669cb45191A019</t>
+          <t>0x5283BEcEd7ADF6D003225C13896E536f2D4264FF</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2927,36 +2887,36 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Aave</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>lending-decentralized</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
+          <t>https://aave.com</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>722635629.6875</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>691274105.5845029</v>
       </c>
       <c r="M38" t="n">
-        <v>242016</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>229928.2867319853</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -2968,12 +2928,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x4200000000000000000000000000000000000006</t>
+          <t>https://intel.arkm.com/explorer/address/0x9696f59E4d72E237BE84fFD425DCaD154Bf96976</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0x4200000000000000000000000000000000000006</t>
+          <t>0x9696f59E4d72E237BE84fFD425DCaD154Bf96976</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2987,26 +2947,46 @@
       <c r="E39" t="b">
         <v>0</v>
       </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Binance</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>https://binance.com</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K39" t="n">
-        <v>5224784643.818532</v>
+        <v>1512083197.499274</v>
       </c>
       <c r="L39" t="n">
-        <v>5247455571.627812</v>
+        <v>1569593149.363905</v>
       </c>
       <c r="M39" t="n">
-        <v>1724106.622693936</v>
+        <v>499117.4205049807</v>
       </c>
       <c r="N39" t="n">
-        <v>1732723.231749146</v>
+        <v>519182.21522177</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -3018,12 +2998,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xC36442b4a4522E871399CD717aBDD847Ab11FE88</t>
+          <t>https://intel.arkm.com/explorer/address/0xE69f81b825d7Dc31ee9becef4DbEab5cf30e3Abb</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0xC36442b4a4522E871399CD717aBDD847Ab11FE88</t>
+          <t>0xE69f81b825d7Dc31ee9becef4DbEab5cf30e3Abb</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3032,29 +3012,29 @@
         </is>
       </c>
       <c r="D40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>dex</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://uniswap.org</t>
+          <t>https://binance.com</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Nonfungible Position Manager</t>
+          <t>Internal</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3063,20 +3043,20 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>796350145.4086258</v>
+        <v>1421704855.470493</v>
       </c>
       <c r="L40" t="n">
-        <v>702219112.7338181</v>
+        <v>1425974254.047865</v>
       </c>
       <c r="M40" t="n">
-        <v>268186.491282104</v>
+        <v>468035.1794834452</v>
       </c>
       <c r="N40" t="n">
-        <v>236816.7325477376</v>
+        <v>469225.2230949655</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -3088,12 +3068,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xC02aaA39b223FE8D0A0e5C4F27eAD9083C756Cc2</t>
+          <t>https://intel.arkm.com/explorer/address/0x1157A2076b9bB22a85CC2C162f20fAB3898F4101</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0xC02aaA39b223FE8D0A0e5C4F27eAD9083C756Cc2</t>
+          <t>0x1157A2076b9bB22a85CC2C162f20fAB3898F4101</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3102,17 +3082,29 @@
         </is>
       </c>
       <c r="D41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
       </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>FalconX</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>https://falconx.io/</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Wrapped Ether (WETH)</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3121,20 +3113,20 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>18815306011.54738</v>
+        <v>1094467842.739395</v>
       </c>
       <c r="L41" t="n">
-        <v>19302390455.4226</v>
+        <v>1098543104.065783</v>
       </c>
       <c r="M41" t="n">
-        <v>6265398.499460394</v>
+        <v>370749.6429639405</v>
       </c>
       <c r="N41" t="n">
-        <v>6401857.56877418</v>
+        <v>368997.9819838693</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3146,12 +3138,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x82aF49447D8a07e3bd95BD0d56f35241523fBab1</t>
+          <t>https://intel.arkm.com/explorer/address/0xA9D1e08C7793af67e9d92fe308d5697FB81d3E43</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0x82aF49447D8a07e3bd95BD0d56f35241523fBab1</t>
+          <t>0xA9D1e08C7793af67e9d92fe308d5697FB81d3E43</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3160,31 +3152,51 @@
         </is>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
       </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="K42" t="n">
-        <v>1993730798.604407</v>
+        <v>8199768288.940823</v>
       </c>
       <c r="L42" t="n">
-        <v>1986631512.431544</v>
+        <v>8181592152.645658</v>
       </c>
       <c r="M42" t="n">
-        <v>661596.2206293584</v>
+        <v>2709691.525467674</v>
       </c>
       <c r="N42" t="n">
-        <v>657068.8474430229</v>
+        <v>2704474.302209311</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3196,12 +3208,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x4752ba5DBc23f44D87826276BF6Fd6b1C372aD24</t>
+          <t>https://intel.arkm.com/explorer/address/0x00000000219ab540356cBB839Cbe05303d7705Fa</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0x4752ba5DBc23f44D87826276BF6Fd6b1C372aD24</t>
+          <t>0x00000000219ab540356cBB839Cbe05303d7705Fa</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3215,24 +3227,12 @@
       <c r="E43" t="b">
         <v>0</v>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Uniswap</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>dex</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>https://uniswap.org</t>
-        </is>
-      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Quoter</t>
+          <t>Eth2 Beacon Deposit Contract</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3241,20 +3241,20 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>1894522077.311744</v>
+        <v>3519429363.197998</v>
       </c>
       <c r="L43" t="n">
-        <v>1894521825.943339</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>629128.6166293093</v>
+        <v>1165572.484248251</v>
       </c>
       <c r="N43" t="n">
-        <v>629128.5330177383</v>
+        <v>0</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -3266,12 +3266,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x1E8540d60a7B34E79DA540FFf2d11bC4ad832f76</t>
+          <t>https://intel.arkm.com/explorer/address/0xc7bf35C9A3Bdd1B1c19A6963De669cb45191A019</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0x1E8540d60a7B34E79DA540FFf2d11bC4ad832f76</t>
+          <t>0xc7bf35C9A3Bdd1B1c19A6963De669cb45191A019</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3280,31 +3280,43 @@
         </is>
       </c>
       <c r="D44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>1346812579.547901</v>
+        <v>722635629.6875</v>
       </c>
       <c r="L44" t="n">
-        <v>1346813193.82038</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449595.6195204691</v>
+        <v>242016</v>
       </c>
       <c r="N44" t="n">
-        <v>449595.8008381582</v>
+        <v>0</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -3316,12 +3328,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x21a31Ee1afC51d94C2eFcCAa2092aD1028285549</t>
+          <t>https://intel.arkm.com/explorer/address/0xbD216513d74C8cf14cf4747E6AaA6420FF64ee9e</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0x21a31Ee1afC51d94C2eFcCAa2092aD1028285549</t>
+          <t>0xbD216513d74C8cf14cf4747E6AaA6420FF64ee9e</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3330,29 +3342,29 @@
         </is>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>dex</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
+          <t>https://uniswap.org</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Uniswap v4 Positions NFT (UNI-V4-POSM)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3361,20 +3373,20 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>1584512152.714204</v>
+        <v>875151748.4412717</v>
       </c>
       <c r="L45" t="n">
-        <v>1626300629.506434</v>
+        <v>845331051.0456161</v>
       </c>
       <c r="M45" t="n">
-        <v>523700.435939114</v>
+        <v>291469.7032534066</v>
       </c>
       <c r="N45" t="n">
-        <v>536999.00637984</v>
+        <v>281477.2249424829</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -3386,12 +3398,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xCFFAd3200574698b78f32232aa9D63eABD290703</t>
+          <t>https://intel.arkm.com/explorer/address/0xC02aaA39b223FE8D0A0e5C4F27eAD9083C756Cc2</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0xCFFAd3200574698b78f32232aa9D63eABD290703</t>
+          <t>0xC02aaA39b223FE8D0A0e5C4F27eAD9083C756Cc2</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3400,29 +3412,17 @@
         </is>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Crypto.com</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>https://crypto.com</t>
-        </is>
-      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Wrapped Ether (WETH)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3431,20 +3431,20 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>743712418.8700961</v>
+        <v>18814693174.54736</v>
       </c>
       <c r="L46" t="n">
-        <v>680870213.4429321</v>
+        <v>19302100157.04145</v>
       </c>
       <c r="M46" t="n">
-        <v>247150.5716696697</v>
+        <v>6265168.20859226</v>
       </c>
       <c r="N46" t="n">
-        <v>225662.72521332</v>
+        <v>6401746.897961168</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -3456,12 +3456,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xb5d85CBf7cB3EE0D56b3bB207D5Fc4B82f43F511</t>
+          <t>https://intel.arkm.com/explorer/address/0x51C72848c68a965f66FA7a88855F9f7784502a7F</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0xb5d85CBf7cB3EE0D56b3bB207D5Fc4B82f43F511</t>
+          <t>0x51C72848c68a965f66FA7a88855F9f7784502a7F</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3470,29 +3470,29 @@
         </is>
       </c>
       <c r="D47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Wintermute</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
+          <t>https://www.wintermute.com/</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Market Maker</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3501,20 +3501,20 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>4227001005.739682</v>
+        <v>3551043018.329823</v>
       </c>
       <c r="L47" t="n">
-        <v>4250745196.237635</v>
+        <v>3550747242.638145</v>
       </c>
       <c r="M47" t="n">
-        <v>1403004.706410619</v>
+        <v>1174233.844721126</v>
       </c>
       <c r="N47" t="n">
-        <v>1409403.0329073</v>
+        <v>1174161.638637197</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -3526,12 +3526,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x63242A4Ea82847b20E506b63B0e2e2eFF0CC6cB0</t>
+          <t>https://intel.arkm.com/explorer/address/0x93486B98e64de344d6A5A322A4Bd80e65d83E5CA</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0x63242A4Ea82847b20E506b63B0e2e2eFF0CC6cB0</t>
+          <t>0x93486B98e64de344d6A5A322A4Bd80e65d83E5CA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3545,24 +3545,12 @@
       <c r="E48" t="b">
         <v>0</v>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Kyber Network</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>dex</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>https://kyber.network</t>
-        </is>
-      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Aggregator Executor V3</t>
+          <t>Core USPD Share (CUSPD)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3571,20 +3559,20 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>1615797430.250239</v>
+        <v>1502256118.061802</v>
       </c>
       <c r="L48" t="n">
-        <v>1616890971.079068</v>
+        <v>1474183787.727823</v>
       </c>
       <c r="M48" t="n">
-        <v>534369.9313312076</v>
+        <v>494571.4576759303</v>
       </c>
       <c r="N48" t="n">
-        <v>534732.5853192873</v>
+        <v>485305.1206509323</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -3596,12 +3584,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x476ef9ac6D8673E220d0E8BC0a810C2Dc6A2AA84</t>
+          <t>https://intel.arkm.com/explorer/address/0x9008D19f58AAbD9eD0D60971565AA8510560ab41</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0x476ef9ac6D8673E220d0E8BC0a810C2Dc6A2AA84</t>
+          <t>0x9008D19f58AAbD9eD0D60971565AA8510560ab41</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3615,12 +3603,24 @@
       <c r="E49" t="b">
         <v>0</v>
       </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>CoW Protocol</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>dex-aggregator</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>https://cow.fi</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>United States Permissionless Dollar (USPD)</t>
+          <t>Settlement</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3629,20 +3629,20 @@
         </is>
       </c>
       <c r="K49" t="n">
-        <v>1502256118.061802</v>
+        <v>901692314.4105563</v>
       </c>
       <c r="L49" t="n">
-        <v>1502256118.061802</v>
+        <v>903479087.4471816</v>
       </c>
       <c r="M49" t="n">
-        <v>494571.4576759303</v>
+        <v>300152.287193123</v>
       </c>
       <c r="N49" t="n">
-        <v>494571.4576759303</v>
+        <v>300730.0251471257</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -3654,12 +3654,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x4976A4A02f38326660D17bf34b431dC6e2eb2327</t>
+          <t>https://intel.arkm.com/explorer/address/0x000000000004444c5dc75cB358380D2e3dE08A90</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0x4976A4A02f38326660D17bf34b431dC6e2eb2327</t>
+          <t>0x000000000004444c5dc75cB358380D2e3dE08A90</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3668,29 +3668,29 @@
         </is>
       </c>
       <c r="D50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>dex</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
+          <t>https://uniswap.org</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>PoolManager</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3699,20 +3699,20 @@
         </is>
       </c>
       <c r="K50" t="n">
-        <v>1374334367.86807</v>
+        <v>2969439311.739717</v>
       </c>
       <c r="L50" t="n">
-        <v>1471260663.166897</v>
+        <v>2961079441.411317</v>
       </c>
       <c r="M50" t="n">
-        <v>454571.4558957494</v>
+        <v>988187.8952971528</v>
       </c>
       <c r="N50" t="n">
-        <v>487745.77276166</v>
+        <v>985608.6934005533</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -3724,12 +3724,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x308861A430be4cce5502d0A12724771Fc6DaF216</t>
+          <t>https://intel.arkm.com/explorer/address/0x1346B4d6867a382B02b19A8D131D9b96b18585f2</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0x308861A430be4cce5502d0A12724771Fc6DaF216</t>
+          <t>0x1346B4d6867a382B02b19A8D131D9b96b18585f2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3743,24 +3743,12 @@
       <c r="E51" t="b">
         <v>0</v>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Ether.fi</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>misc</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>https://ether.fi/</t>
-        </is>
-      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>LiquidityPool (Proxy)</t>
+          <t>StabilizerNFT (Proxy)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3769,20 +3757,20 @@
         </is>
       </c>
       <c r="K51" t="n">
-        <v>935895103.5291188</v>
+        <v>1530916787.111607</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1530916786.482556</v>
       </c>
       <c r="M51" t="n">
-        <v>304074.9145226071</v>
+        <v>503903.1427560149</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>503903.1425560149</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -3794,12 +3782,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x46340b20830761efd32832A74d7169B29FEB9758</t>
+          <t>https://intel.arkm.com/explorer/address/0x308861A430be4cce5502d0A12724771Fc6DaF216</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0x46340b20830761efd32832A74d7169B29FEB9758</t>
+          <t>0x308861A430be4cce5502d0A12724771Fc6DaF216</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3808,29 +3796,29 @@
         </is>
       </c>
       <c r="D52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Crypto.com</t>
+          <t>Ether.fi</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>misc</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://crypto.com</t>
+          <t>https://ether.fi/</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>LiquidityPool (Proxy)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3839,20 +3827,20 @@
         </is>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>935895103.5291188</v>
       </c>
       <c r="L52" t="n">
-        <v>698409387.1247556</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>304074.9145226071</v>
       </c>
       <c r="N52" t="n">
-        <v>233032.2728982694</v>
+        <v>0</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -3864,12 +3852,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xa1abfA21f80ecf401bd41365adBb6fEF6fEfDF09</t>
+          <t>https://intel.arkm.com/explorer/address/0xA9Ac43f5b5e38155A288d1A01D2cbc4478E14573</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0xa1abfA21f80ecf401bd41365adBb6fEF6fEfDF09</t>
+          <t>0xA9Ac43f5b5e38155A288d1A01D2cbc4478E14573</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3885,7 +3873,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Bybit</t>
+          <t>OKX</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3895,7 +3883,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://bybit.com</t>
+          <t>https://okx.com</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3909,20 +3897,20 @@
         </is>
       </c>
       <c r="K53" t="n">
-        <v>817972770.1774709</v>
+        <v>3264154455.866656</v>
       </c>
       <c r="L53" t="n">
-        <v>989248908.6564624</v>
+        <v>3310555913.089925</v>
       </c>
       <c r="M53" t="n">
-        <v>271501.5630784006</v>
+        <v>1070805.163885779</v>
       </c>
       <c r="N53" t="n">
-        <v>327337.6857584494</v>
+        <v>1087416.63188953</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2025-12-22 03:18:08</t>
+          <t>2025-12-22 03:21:00</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -3934,12 +3922,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xC8c557506a5240dcEC094e614C665Ff9CA815b95</t>
+          <t>https://intel.arkm.com/explorer/address/0x52Aa899454998Be5b000Ad077a46Bbe360F4e497</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0xC8c557506a5240dcEC094e614C665Ff9CA815b95</t>
+          <t>0x52Aa899454998Be5b000Ad077a46Bbe360F4e497</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3948,17 +3936,29 @@
         </is>
       </c>
       <c r="D54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
       </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Flui